--- a/cw11042022.xlsx
+++ b/cw11042022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="324">
   <si>
     <t>Surname</t>
   </si>
@@ -267,6 +267,9 @@
     </r>
   </si>
   <si>
+    <t>ICS</t>
+  </si>
+  <si>
     <t>Chikukwa</t>
   </si>
   <si>
@@ -309,6 +312,9 @@
     </r>
   </si>
   <si>
+    <t>ISE</t>
+  </si>
+  <si>
     <t>Chimwe</t>
   </si>
   <si>
@@ -337,6 +343,9 @@
     </r>
   </si>
   <si>
+    <t>ISA</t>
+  </si>
+  <si>
     <t>Chinoda</t>
   </si>
   <si>
@@ -449,6 +458,12 @@
     </r>
   </si>
   <si>
+    <t>Cosmas</t>
+  </si>
+  <si>
+    <t>H190579N</t>
+  </si>
+  <si>
     <t>Dahwa</t>
   </si>
   <si>
@@ -572,6 +587,9 @@
     </r>
   </si>
   <si>
+    <t>IT</t>
+  </si>
+  <si>
     <t>Gayahaya</t>
   </si>
   <si>
@@ -1651,6 +1669,12 @@
       </rPr>
       <t>H220223N@hit.ac.zw</t>
     </r>
+  </si>
+  <si>
+    <t>Mutsago</t>
+  </si>
+  <si>
+    <t>H220710M</t>
   </si>
   <si>
     <t>Mutsiwa</t>
@@ -2189,8 +2213,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="# ###/###"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -2282,7 +2307,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2302,6 +2327,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -3381,7 +3409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J155"/>
+  <dimension ref="A1:J157"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -3650,7 +3678,9 @@
         <v>37</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="D15" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -3681,8 +3711,12 @@
       <c r="B17" t="s" s="5">
         <v>41</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="C17" t="s" s="5">
+        <v>42</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.788461538461538</v>
+      </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -3692,10 +3726,10 @@
     </row>
     <row r="18" ht="14.35" customHeight="1">
       <c r="A18" t="s" s="5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s" s="5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -3708,10 +3742,10 @@
     </row>
     <row r="19" ht="14.35" customHeight="1">
       <c r="A19" t="s" s="5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s" s="5">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -3724,13 +3758,17 @@
     </row>
     <row r="20" ht="14.35" customHeight="1">
       <c r="A20" t="s" s="5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s" s="5">
-        <v>47</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C20" t="s" s="5">
+        <v>49</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.942307692307692</v>
+      </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -3740,10 +3778,10 @@
     </row>
     <row r="21" ht="14.35" customHeight="1">
       <c r="A21" t="s" s="5">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s" s="5">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -3756,13 +3794,17 @@
     </row>
     <row r="22" ht="14.35" customHeight="1">
       <c r="A22" t="s" s="5">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="C22" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.711538461538462</v>
+      </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -3772,13 +3814,17 @@
     </row>
     <row r="23" ht="14.35" customHeight="1">
       <c r="A23" t="s" s="5">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s" s="5">
-        <v>53</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="C23" t="s" s="5">
+        <v>42</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.903846153846154</v>
+      </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -3788,10 +3834,10 @@
     </row>
     <row r="24" ht="14.35" customHeight="1">
       <c r="A24" t="s" s="5">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s" s="5">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -3804,10 +3850,10 @@
     </row>
     <row r="25" ht="14.35" customHeight="1">
       <c r="A25" t="s" s="5">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s" s="5">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -3820,10 +3866,10 @@
     </row>
     <row r="26" ht="14.35" customHeight="1">
       <c r="A26" t="s" s="5">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s" s="5">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -3836,10 +3882,10 @@
     </row>
     <row r="27" ht="14.35" customHeight="1">
       <c r="A27" t="s" s="5">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s" s="5">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -3852,10 +3898,10 @@
     </row>
     <row r="28" ht="14.35" customHeight="1">
       <c r="A28" t="s" s="5">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s" s="5">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -3868,10 +3914,10 @@
     </row>
     <row r="29" ht="14.35" customHeight="1">
       <c r="A29" t="s" s="5">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s" s="5">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -3884,13 +3930,17 @@
     </row>
     <row r="30" ht="14.35" customHeight="1">
       <c r="A30" t="s" s="5">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="C30" t="s" s="5">
+        <v>49</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.634615384615385</v>
+      </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -3900,13 +3950,17 @@
     </row>
     <row r="31" ht="14.35" customHeight="1">
       <c r="A31" t="s" s="5">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s" s="5">
-        <v>69</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="C31" t="s" s="5">
+        <v>42</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.692307692307692</v>
+      </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -3916,10 +3970,10 @@
     </row>
     <row r="32" ht="14.35" customHeight="1">
       <c r="A32" t="s" s="5">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s" s="5">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -3932,10 +3986,10 @@
     </row>
     <row r="33" ht="14.35" customHeight="1">
       <c r="A33" t="s" s="5">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s" s="5">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -3948,10 +4002,10 @@
     </row>
     <row r="34" ht="14.35" customHeight="1">
       <c r="A34" t="s" s="5">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s" s="5">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -3964,13 +4018,15 @@
     </row>
     <row r="35" ht="14.35" customHeight="1">
       <c r="A35" t="s" s="5">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s" s="5">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="D35" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -3980,10 +4036,10 @@
     </row>
     <row r="36" ht="14.35" customHeight="1">
       <c r="A36" t="s" s="5">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B36" t="s" s="5">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -3996,13 +4052,15 @@
     </row>
     <row r="37" ht="14.35" customHeight="1">
       <c r="A37" t="s" s="5">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s" s="5">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="D37" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -4012,10 +4070,10 @@
     </row>
     <row r="38" ht="14.35" customHeight="1">
       <c r="A38" t="s" s="5">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s" s="5">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -4028,10 +4086,10 @@
     </row>
     <row r="39" ht="14.35" customHeight="1">
       <c r="A39" t="s" s="5">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B39" t="s" s="5">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -4044,13 +4102,17 @@
     </row>
     <row r="40" ht="14.35" customHeight="1">
       <c r="A40" t="s" s="5">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B40" t="s" s="5">
-        <v>86</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+        <v>89</v>
+      </c>
+      <c r="C40" t="s" s="5">
+        <v>90</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0.634615384615385</v>
+      </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -4060,10 +4122,10 @@
     </row>
     <row r="41" ht="14.35" customHeight="1">
       <c r="A41" t="s" s="5">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B41" t="s" s="5">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -4076,10 +4138,10 @@
     </row>
     <row r="42" ht="14.35" customHeight="1">
       <c r="A42" t="s" s="5">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B42" t="s" s="5">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -4092,10 +4154,10 @@
     </row>
     <row r="43" ht="14.35" customHeight="1">
       <c r="A43" t="s" s="5">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B43" t="s" s="5">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -4108,10 +4170,10 @@
     </row>
     <row r="44" ht="14.35" customHeight="1">
       <c r="A44" t="s" s="5">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B44" t="s" s="5">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -4124,10 +4186,10 @@
     </row>
     <row r="45" ht="14.35" customHeight="1">
       <c r="A45" t="s" s="5">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B45" t="s" s="5">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -4140,10 +4202,10 @@
     </row>
     <row r="46" ht="14.35" customHeight="1">
       <c r="A46" t="s" s="5">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s" s="5">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -4156,10 +4218,10 @@
     </row>
     <row r="47" ht="14.35" customHeight="1">
       <c r="A47" t="s" s="5">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B47" t="s" s="5">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -4172,10 +4234,10 @@
     </row>
     <row r="48" ht="14.35" customHeight="1">
       <c r="A48" t="s" s="5">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B48" t="s" s="5">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -4188,10 +4250,10 @@
     </row>
     <row r="49" ht="14.35" customHeight="1">
       <c r="A49" t="s" s="5">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B49" t="s" s="5">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -4204,10 +4266,10 @@
     </row>
     <row r="50" ht="14.35" customHeight="1">
       <c r="A50" t="s" s="5">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B50" t="s" s="5">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -4220,10 +4282,10 @@
     </row>
     <row r="51" ht="14.35" customHeight="1">
       <c r="A51" t="s" s="5">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B51" t="s" s="5">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -4236,10 +4298,10 @@
     </row>
     <row r="52" ht="14.35" customHeight="1">
       <c r="A52" t="s" s="5">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B52" t="s" s="5">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -4252,13 +4314,17 @@
     </row>
     <row r="53" ht="14.35" customHeight="1">
       <c r="A53" t="s" s="5">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B53" t="s" s="5">
-        <v>112</v>
-      </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
+        <v>116</v>
+      </c>
+      <c r="C53" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0.711538461538462</v>
+      </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -4268,10 +4334,10 @@
     </row>
     <row r="54" ht="14.35" customHeight="1">
       <c r="A54" t="s" s="5">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B54" t="s" s="5">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -4284,10 +4350,10 @@
     </row>
     <row r="55" ht="14.35" customHeight="1">
       <c r="A55" t="s" s="5">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B55" t="s" s="5">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -4300,10 +4366,10 @@
     </row>
     <row r="56" ht="14.35" customHeight="1">
       <c r="A56" t="s" s="5">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B56" t="s" s="5">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -4316,13 +4382,17 @@
     </row>
     <row r="57" ht="14.35" customHeight="1">
       <c r="A57" t="s" s="5">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B57" t="s" s="5">
-        <v>120</v>
-      </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="C57" t="s" s="5">
+        <v>49</v>
+      </c>
+      <c r="D57" s="7">
+        <v>0.634615384615385</v>
+      </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -4332,10 +4402,10 @@
     </row>
     <row r="58" ht="14.35" customHeight="1">
       <c r="A58" t="s" s="5">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B58" t="s" s="5">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -4348,10 +4418,10 @@
     </row>
     <row r="59" ht="14.35" customHeight="1">
       <c r="A59" t="s" s="5">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B59" t="s" s="5">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -4364,10 +4434,10 @@
     </row>
     <row r="60" ht="14.35" customHeight="1">
       <c r="A60" t="s" s="5">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B60" t="s" s="5">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -4380,10 +4450,10 @@
     </row>
     <row r="61" ht="14.35" customHeight="1">
       <c r="A61" t="s" s="5">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B61" t="s" s="5">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -4396,10 +4466,10 @@
     </row>
     <row r="62" ht="14.35" customHeight="1">
       <c r="A62" t="s" s="5">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B62" t="s" s="5">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -4412,10 +4482,10 @@
     </row>
     <row r="63" ht="14.35" customHeight="1">
       <c r="A63" t="s" s="5">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B63" t="s" s="5">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -4428,10 +4498,10 @@
     </row>
     <row r="64" ht="14.35" customHeight="1">
       <c r="A64" t="s" s="5">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B64" t="s" s="5">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -4444,10 +4514,10 @@
     </row>
     <row r="65" ht="14.35" customHeight="1">
       <c r="A65" t="s" s="5">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B65" t="s" s="5">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -4460,10 +4530,10 @@
     </row>
     <row r="66" ht="14.35" customHeight="1">
       <c r="A66" t="s" s="5">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B66" t="s" s="5">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -4476,10 +4546,10 @@
     </row>
     <row r="67" ht="14.35" customHeight="1">
       <c r="A67" t="s" s="5">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B67" t="s" s="5">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -4492,13 +4562,17 @@
     </row>
     <row r="68" ht="14.35" customHeight="1">
       <c r="A68" t="s" s="5">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B68" t="s" s="5">
-        <v>142</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
+        <v>146</v>
+      </c>
+      <c r="C68" t="s" s="5">
+        <v>90</v>
+      </c>
+      <c r="D68" s="7">
+        <v>0.942307692307692</v>
+      </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
@@ -4508,10 +4582,10 @@
     </row>
     <row r="69" ht="14.35" customHeight="1">
       <c r="A69" t="s" s="5">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B69" t="s" s="5">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -4524,10 +4598,10 @@
     </row>
     <row r="70" ht="14.35" customHeight="1">
       <c r="A70" t="s" s="5">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B70" t="s" s="5">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -4540,10 +4614,10 @@
     </row>
     <row r="71" ht="14.35" customHeight="1">
       <c r="A71" t="s" s="5">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B71" t="s" s="5">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -4556,10 +4630,10 @@
     </row>
     <row r="72" ht="14.35" customHeight="1">
       <c r="A72" t="s" s="5">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B72" t="s" s="5">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -4572,10 +4646,10 @@
     </row>
     <row r="73" ht="14.35" customHeight="1">
       <c r="A73" t="s" s="5">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B73" t="s" s="5">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -4588,10 +4662,10 @@
     </row>
     <row r="74" ht="14.35" customHeight="1">
       <c r="A74" t="s" s="5">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B74" t="s" s="5">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -4604,10 +4678,10 @@
     </row>
     <row r="75" ht="14.35" customHeight="1">
       <c r="A75" t="s" s="5">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B75" t="s" s="5">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -4620,10 +4694,10 @@
     </row>
     <row r="76" ht="14.35" customHeight="1">
       <c r="A76" t="s" s="5">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B76" t="s" s="5">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -4636,10 +4710,10 @@
     </row>
     <row r="77" ht="14.35" customHeight="1">
       <c r="A77" t="s" s="5">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B77" t="s" s="5">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -4652,10 +4726,10 @@
     </row>
     <row r="78" ht="14.35" customHeight="1">
       <c r="A78" t="s" s="5">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B78" t="s" s="5">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -4668,10 +4742,10 @@
     </row>
     <row r="79" ht="14.35" customHeight="1">
       <c r="A79" t="s" s="5">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B79" t="s" s="5">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -4684,13 +4758,17 @@
     </row>
     <row r="80" ht="14.35" customHeight="1">
       <c r="A80" t="s" s="5">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B80" t="s" s="5">
-        <v>166</v>
-      </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
+        <v>170</v>
+      </c>
+      <c r="C80" t="s" s="5">
+        <v>42</v>
+      </c>
+      <c r="D80" s="7">
+        <v>0.788461538461538</v>
+      </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
@@ -4700,10 +4778,10 @@
     </row>
     <row r="81" ht="14.35" customHeight="1">
       <c r="A81" t="s" s="5">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B81" t="s" s="5">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -4716,10 +4794,10 @@
     </row>
     <row r="82" ht="14.35" customHeight="1">
       <c r="A82" t="s" s="5">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B82" t="s" s="5">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -4732,10 +4810,10 @@
     </row>
     <row r="83" ht="14.35" customHeight="1">
       <c r="A83" t="s" s="5">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B83" t="s" s="5">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -4748,13 +4826,15 @@
     </row>
     <row r="84" ht="14.35" customHeight="1">
       <c r="A84" t="s" s="5">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B84" t="s" s="5">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
+      <c r="D84" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
@@ -4764,10 +4844,10 @@
     </row>
     <row r="85" ht="14.35" customHeight="1">
       <c r="A85" t="s" s="5">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B85" t="s" s="5">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -4780,13 +4860,17 @@
     </row>
     <row r="86" ht="14.35" customHeight="1">
       <c r="A86" t="s" s="5">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B86" t="s" s="5">
-        <v>177</v>
-      </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
+        <v>181</v>
+      </c>
+      <c r="C86" t="s" s="5">
+        <v>90</v>
+      </c>
+      <c r="D86" s="7">
+        <v>0.942307692307692</v>
+      </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
@@ -4796,10 +4880,10 @@
     </row>
     <row r="87" ht="14.35" customHeight="1">
       <c r="A87" t="s" s="5">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B87" t="s" s="5">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -4812,10 +4896,10 @@
     </row>
     <row r="88" ht="14.35" customHeight="1">
       <c r="A88" t="s" s="5">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B88" t="s" s="5">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -4828,10 +4912,10 @@
     </row>
     <row r="89" ht="14.35" customHeight="1">
       <c r="A89" t="s" s="5">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B89" t="s" s="5">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -4844,10 +4928,10 @@
     </row>
     <row r="90" ht="14.35" customHeight="1">
       <c r="A90" t="s" s="5">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B90" t="s" s="5">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -4860,10 +4944,10 @@
     </row>
     <row r="91" ht="14.35" customHeight="1">
       <c r="A91" t="s" s="5">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B91" t="s" s="5">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -4876,13 +4960,17 @@
     </row>
     <row r="92" ht="14.35" customHeight="1">
       <c r="A92" t="s" s="5">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B92" t="s" s="5">
-        <v>189</v>
-      </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
+        <v>193</v>
+      </c>
+      <c r="C92" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="D92" s="7">
+        <v>0.442307692307692</v>
+      </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
@@ -4892,13 +4980,17 @@
     </row>
     <row r="93" ht="14.35" customHeight="1">
       <c r="A93" t="s" s="5">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B93" t="s" s="5">
-        <v>191</v>
-      </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
+        <v>195</v>
+      </c>
+      <c r="C93" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="D93" s="7">
+        <v>0.711538461538462</v>
+      </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
@@ -4908,13 +5000,17 @@
     </row>
     <row r="94" ht="14.35" customHeight="1">
       <c r="A94" t="s" s="5">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B94" t="s" s="5">
-        <v>193</v>
-      </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
+        <v>197</v>
+      </c>
+      <c r="C94" t="s" s="5">
+        <v>49</v>
+      </c>
+      <c r="D94" s="7">
+        <v>0.903846153846154</v>
+      </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
@@ -4924,10 +5020,10 @@
     </row>
     <row r="95" ht="14.35" customHeight="1">
       <c r="A95" t="s" s="5">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B95" t="s" s="5">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -4940,10 +5036,10 @@
     </row>
     <row r="96" ht="14.35" customHeight="1">
       <c r="A96" t="s" s="5">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B96" t="s" s="5">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -4956,10 +5052,10 @@
     </row>
     <row r="97" ht="14.35" customHeight="1">
       <c r="A97" t="s" s="5">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B97" t="s" s="5">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -4972,10 +5068,10 @@
     </row>
     <row r="98" ht="14.35" customHeight="1">
       <c r="A98" t="s" s="5">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B98" t="s" s="5">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -4988,10 +5084,10 @@
     </row>
     <row r="99" ht="14.35" customHeight="1">
       <c r="A99" t="s" s="5">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B99" t="s" s="5">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -5004,10 +5100,10 @@
     </row>
     <row r="100" ht="14.35" customHeight="1">
       <c r="A100" t="s" s="5">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B100" t="s" s="5">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -5020,10 +5116,10 @@
     </row>
     <row r="101" ht="14.35" customHeight="1">
       <c r="A101" t="s" s="5">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B101" t="s" s="5">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -5036,10 +5132,10 @@
     </row>
     <row r="102" ht="14.35" customHeight="1">
       <c r="A102" t="s" s="5">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B102" t="s" s="5">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -5052,13 +5148,17 @@
     </row>
     <row r="103" ht="14.35" customHeight="1">
       <c r="A103" t="s" s="5">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B103" t="s" s="5">
-        <v>211</v>
-      </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
+        <v>215</v>
+      </c>
+      <c r="C103" t="s" s="5">
+        <v>49</v>
+      </c>
+      <c r="D103" s="7">
+        <v>0.634615384615385</v>
+      </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
@@ -5068,13 +5168,17 @@
     </row>
     <row r="104" ht="14.35" customHeight="1">
       <c r="A104" t="s" s="5">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B104" t="s" s="5">
-        <v>213</v>
-      </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
+        <v>217</v>
+      </c>
+      <c r="C104" t="s" s="5">
+        <v>90</v>
+      </c>
+      <c r="D104" s="7">
+        <v>0.634615384615385</v>
+      </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
@@ -5084,10 +5188,10 @@
     </row>
     <row r="105" ht="14.35" customHeight="1">
       <c r="A105" t="s" s="5">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B105" t="s" s="5">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -5100,13 +5204,17 @@
     </row>
     <row r="106" ht="14.35" customHeight="1">
       <c r="A106" t="s" s="5">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B106" t="s" s="5">
-        <v>217</v>
-      </c>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
+        <v>221</v>
+      </c>
+      <c r="C106" t="s" s="5">
+        <v>49</v>
+      </c>
+      <c r="D106" s="7">
+        <v>0.903846153846154</v>
+      </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
@@ -5116,13 +5224,17 @@
     </row>
     <row r="107" ht="14.35" customHeight="1">
       <c r="A107" t="s" s="5">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B107" t="s" s="5">
-        <v>219</v>
-      </c>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="C107" t="s" s="5">
+        <v>90</v>
+      </c>
+      <c r="D107" s="7">
+        <v>0.942307692307692</v>
+      </c>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
@@ -5132,10 +5244,10 @@
     </row>
     <row r="108" ht="14.35" customHeight="1">
       <c r="A108" t="s" s="5">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B108" t="s" s="5">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
@@ -5148,10 +5260,10 @@
     </row>
     <row r="109" ht="14.35" customHeight="1">
       <c r="A109" t="s" s="5">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B109" t="s" s="5">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -5164,10 +5276,10 @@
     </row>
     <row r="110" ht="14.35" customHeight="1">
       <c r="A110" t="s" s="5">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B110" t="s" s="5">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -5178,12 +5290,12 @@
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
     </row>
-    <row r="111" ht="28.35" customHeight="1">
+    <row r="111" ht="14.35" customHeight="1">
       <c r="A111" t="s" s="5">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B111" t="s" s="5">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -5194,12 +5306,12 @@
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
     </row>
-    <row r="112" ht="14.35" customHeight="1">
+    <row r="112" ht="28.35" customHeight="1">
       <c r="A112" t="s" s="5">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B112" t="s" s="5">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -5212,10 +5324,10 @@
     </row>
     <row r="113" ht="14.35" customHeight="1">
       <c r="A113" t="s" s="5">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B113" t="s" s="5">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -5228,10 +5340,10 @@
     </row>
     <row r="114" ht="14.35" customHeight="1">
       <c r="A114" t="s" s="5">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B114" t="s" s="5">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -5244,13 +5356,17 @@
     </row>
     <row r="115" ht="14.35" customHeight="1">
       <c r="A115" t="s" s="5">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B115" t="s" s="5">
-        <v>235</v>
-      </c>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
+        <v>239</v>
+      </c>
+      <c r="C115" t="s" s="5">
+        <v>42</v>
+      </c>
+      <c r="D115" s="7">
+        <v>0.788461538461538</v>
+      </c>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
@@ -5260,10 +5376,10 @@
     </row>
     <row r="116" ht="14.35" customHeight="1">
       <c r="A116" t="s" s="5">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B116" t="s" s="5">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -5276,13 +5392,17 @@
     </row>
     <row r="117" ht="14.35" customHeight="1">
       <c r="A117" t="s" s="5">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B117" t="s" s="5">
-        <v>239</v>
-      </c>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
+        <v>243</v>
+      </c>
+      <c r="C117" t="s" s="5">
+        <v>49</v>
+      </c>
+      <c r="D117" s="7">
+        <v>0.634615384615385</v>
+      </c>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
@@ -5292,13 +5412,17 @@
     </row>
     <row r="118" ht="14.35" customHeight="1">
       <c r="A118" t="s" s="5">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B118" t="s" s="5">
-        <v>241</v>
-      </c>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
+        <v>245</v>
+      </c>
+      <c r="C118" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="D118" s="7">
+        <v>0.903846153846154</v>
+      </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
@@ -5308,13 +5432,17 @@
     </row>
     <row r="119" ht="14.35" customHeight="1">
       <c r="A119" t="s" s="5">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B119" t="s" s="5">
-        <v>243</v>
-      </c>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
+        <v>247</v>
+      </c>
+      <c r="C119" t="s" s="5">
+        <v>42</v>
+      </c>
+      <c r="D119" s="7">
+        <v>0.788461538461538</v>
+      </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
@@ -5324,10 +5452,10 @@
     </row>
     <row r="120" ht="14.35" customHeight="1">
       <c r="A120" t="s" s="5">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B120" t="s" s="5">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -5340,10 +5468,10 @@
     </row>
     <row r="121" ht="14.35" customHeight="1">
       <c r="A121" t="s" s="5">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B121" t="s" s="5">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -5356,10 +5484,10 @@
     </row>
     <row r="122" ht="14.35" customHeight="1">
       <c r="A122" t="s" s="5">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B122" t="s" s="5">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -5372,13 +5500,17 @@
     </row>
     <row r="123" ht="14.35" customHeight="1">
       <c r="A123" t="s" s="5">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B123" t="s" s="5">
-        <v>251</v>
-      </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
+        <v>255</v>
+      </c>
+      <c r="C123" t="s" s="5">
+        <v>49</v>
+      </c>
+      <c r="D123" s="7">
+        <v>0.903846153846154</v>
+      </c>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
@@ -5388,13 +5520,17 @@
     </row>
     <row r="124" ht="14.35" customHeight="1">
       <c r="A124" t="s" s="5">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B124" t="s" s="5">
-        <v>253</v>
-      </c>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
+        <v>257</v>
+      </c>
+      <c r="C124" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="D124" s="7">
+        <v>0.711538461538462</v>
+      </c>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
@@ -5404,10 +5540,10 @@
     </row>
     <row r="125" ht="14.35" customHeight="1">
       <c r="A125" t="s" s="5">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B125" t="s" s="5">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -5420,10 +5556,10 @@
     </row>
     <row r="126" ht="14.35" customHeight="1">
       <c r="A126" t="s" s="5">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B126" t="s" s="5">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -5436,13 +5572,17 @@
     </row>
     <row r="127" ht="14.35" customHeight="1">
       <c r="A127" t="s" s="5">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B127" t="s" s="5">
-        <v>259</v>
-      </c>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
+        <v>263</v>
+      </c>
+      <c r="C127" t="s" s="5">
+        <v>49</v>
+      </c>
+      <c r="D127" s="7">
+        <v>0.634615384615385</v>
+      </c>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
@@ -5452,13 +5592,17 @@
     </row>
     <row r="128" ht="14.35" customHeight="1">
       <c r="A128" t="s" s="5">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B128" t="s" s="5">
-        <v>261</v>
-      </c>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
+        <v>265</v>
+      </c>
+      <c r="C128" t="s" s="5">
+        <v>90</v>
+      </c>
+      <c r="D128" s="7">
+        <v>0.634615384615385</v>
+      </c>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
@@ -5468,10 +5612,10 @@
     </row>
     <row r="129" ht="14.35" customHeight="1">
       <c r="A129" t="s" s="5">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B129" t="s" s="5">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -5484,10 +5628,10 @@
     </row>
     <row r="130" ht="14.35" customHeight="1">
       <c r="A130" t="s" s="5">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B130" t="s" s="5">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -5500,10 +5644,10 @@
     </row>
     <row r="131" ht="14.35" customHeight="1">
       <c r="A131" t="s" s="5">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B131" t="s" s="5">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -5516,10 +5660,10 @@
     </row>
     <row r="132" ht="14.35" customHeight="1">
       <c r="A132" t="s" s="5">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B132" t="s" s="5">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -5532,10 +5676,10 @@
     </row>
     <row r="133" ht="14.35" customHeight="1">
       <c r="A133" t="s" s="5">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B133" t="s" s="5">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -5548,10 +5692,10 @@
     </row>
     <row r="134" ht="14.35" customHeight="1">
       <c r="A134" t="s" s="5">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B134" t="s" s="5">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -5564,10 +5708,10 @@
     </row>
     <row r="135" ht="14.35" customHeight="1">
       <c r="A135" t="s" s="5">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B135" t="s" s="5">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -5580,10 +5724,10 @@
     </row>
     <row r="136" ht="14.35" customHeight="1">
       <c r="A136" t="s" s="5">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B136" t="s" s="5">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -5596,10 +5740,10 @@
     </row>
     <row r="137" ht="14.35" customHeight="1">
       <c r="A137" t="s" s="5">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B137" t="s" s="5">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
@@ -5612,10 +5756,10 @@
     </row>
     <row r="138" ht="14.35" customHeight="1">
       <c r="A138" t="s" s="5">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B138" t="s" s="5">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
@@ -5628,13 +5772,17 @@
     </row>
     <row r="139" ht="14.35" customHeight="1">
       <c r="A139" t="s" s="5">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B139" t="s" s="5">
-        <v>283</v>
-      </c>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
+        <v>287</v>
+      </c>
+      <c r="C139" t="s" s="5">
+        <v>90</v>
+      </c>
+      <c r="D139" s="7">
+        <v>0.634615384615385</v>
+      </c>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
@@ -5644,10 +5792,10 @@
     </row>
     <row r="140" ht="14.35" customHeight="1">
       <c r="A140" t="s" s="5">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B140" t="s" s="5">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -5660,13 +5808,17 @@
     </row>
     <row r="141" ht="14.35" customHeight="1">
       <c r="A141" t="s" s="5">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B141" t="s" s="5">
-        <v>287</v>
-      </c>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
+        <v>291</v>
+      </c>
+      <c r="C141" t="s" s="5">
+        <v>42</v>
+      </c>
+      <c r="D141" s="7">
+        <v>0.942307692307692</v>
+      </c>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
@@ -5676,13 +5828,17 @@
     </row>
     <row r="142" ht="14.35" customHeight="1">
       <c r="A142" t="s" s="5">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B142" t="s" s="5">
-        <v>289</v>
-      </c>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
+        <v>293</v>
+      </c>
+      <c r="C142" t="s" s="5">
+        <v>90</v>
+      </c>
+      <c r="D142" s="7">
+        <v>0.634615384615385</v>
+      </c>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
@@ -5692,10 +5848,10 @@
     </row>
     <row r="143" ht="14.35" customHeight="1">
       <c r="A143" t="s" s="5">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B143" t="s" s="5">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -5708,10 +5864,10 @@
     </row>
     <row r="144" ht="14.35" customHeight="1">
       <c r="A144" t="s" s="5">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B144" t="s" s="5">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -5724,10 +5880,10 @@
     </row>
     <row r="145" ht="14.35" customHeight="1">
       <c r="A145" t="s" s="5">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B145" t="s" s="5">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
@@ -5740,10 +5896,10 @@
     </row>
     <row r="146" ht="14.35" customHeight="1">
       <c r="A146" t="s" s="5">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B146" t="s" s="5">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
@@ -5756,10 +5912,10 @@
     </row>
     <row r="147" ht="14.35" customHeight="1">
       <c r="A147" t="s" s="5">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B147" t="s" s="5">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
@@ -5772,13 +5928,15 @@
     </row>
     <row r="148" ht="14.35" customHeight="1">
       <c r="A148" t="s" s="5">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B148" t="s" s="5">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
+      <c r="D148" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
@@ -5788,10 +5946,10 @@
     </row>
     <row r="149" ht="14.35" customHeight="1">
       <c r="A149" t="s" s="5">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B149" t="s" s="5">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
@@ -5804,10 +5962,10 @@
     </row>
     <row r="150" ht="14.35" customHeight="1">
       <c r="A150" t="s" s="5">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B150" t="s" s="5">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -5820,10 +5978,10 @@
     </row>
     <row r="151" ht="14.35" customHeight="1">
       <c r="A151" t="s" s="5">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B151" t="s" s="5">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
@@ -5836,10 +5994,10 @@
     </row>
     <row r="152" ht="14.35" customHeight="1">
       <c r="A152" t="s" s="5">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B152" t="s" s="5">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
@@ -5852,10 +6010,10 @@
     </row>
     <row r="153" ht="14.35" customHeight="1">
       <c r="A153" t="s" s="5">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B153" t="s" s="5">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -5868,13 +6026,17 @@
     </row>
     <row r="154" ht="14.35" customHeight="1">
       <c r="A154" t="s" s="5">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B154" t="s" s="5">
-        <v>313</v>
-      </c>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
+        <v>317</v>
+      </c>
+      <c r="C154" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="D154" s="7">
+        <v>0.711538461538462</v>
+      </c>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
@@ -5884,10 +6046,10 @@
     </row>
     <row r="155" ht="14.35" customHeight="1">
       <c r="A155" t="s" s="5">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B155" t="s" s="5">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
@@ -5897,6 +6059,38 @@
       <c r="H155" s="6"/>
       <c r="I155" s="6"/>
       <c r="J155" s="6"/>
+    </row>
+    <row r="156" ht="14.35" customHeight="1">
+      <c r="A156" t="s" s="5">
+        <v>320</v>
+      </c>
+      <c r="B156" t="s" s="5">
+        <v>321</v>
+      </c>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="6"/>
+      <c r="J156" s="6"/>
+    </row>
+    <row r="157" ht="14.35" customHeight="1">
+      <c r="A157" t="s" s="5">
+        <v>322</v>
+      </c>
+      <c r="B157" t="s" s="5">
+        <v>323</v>
+      </c>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="6"/>
+      <c r="J157" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5929,130 +6123,130 @@
     <hyperlink ref="B28" r:id="rId27" location="" tooltip="" display="h210065z@hit.ac.zw"/>
     <hyperlink ref="B29" r:id="rId28" location="" tooltip="" display="H220366V@hit.ac.zw"/>
     <hyperlink ref="B30" r:id="rId29" location="" tooltip="" display="H220131R@hit.ac.zw"/>
-    <hyperlink ref="B31" r:id="rId30" location="" tooltip="" display="H220144F@hit.ac.zw"/>
-    <hyperlink ref="B32" r:id="rId31" location="" tooltip="" display="H220018Y@hit.ac.zw"/>
-    <hyperlink ref="B33" r:id="rId32" location="" tooltip="" display="H220476V@hit.ac.zw"/>
-    <hyperlink ref="B34" r:id="rId33" location="" tooltip="" display="H220075W@hit.ac.zw"/>
-    <hyperlink ref="B35" r:id="rId34" location="" tooltip="" display="H220283P@hit.ac.zw"/>
-    <hyperlink ref="B36" r:id="rId35" location="" tooltip="" display="H220023E@hit.ac.zw"/>
-    <hyperlink ref="B37" r:id="rId36" location="" tooltip="" display="H220202J@hit.ac.zw"/>
-    <hyperlink ref="B38" r:id="rId37" location="" tooltip="" display="H220431M@hit.ac.zw"/>
-    <hyperlink ref="B39" r:id="rId38" location="" tooltip="" display="H220218P@hit.ac.zw"/>
-    <hyperlink ref="B40" r:id="rId39" location="" tooltip="" display="H220494C@hit.ac.zw"/>
-    <hyperlink ref="B41" r:id="rId40" location="" tooltip="" display="H220582T@hit.ac.zw"/>
-    <hyperlink ref="B42" r:id="rId41" location="" tooltip="" display="H220084C@hit.ac.zw"/>
-    <hyperlink ref="B43" r:id="rId42" location="" tooltip="" display="H220343Y@hit.ac.zw"/>
-    <hyperlink ref="B44" r:id="rId43" location="" tooltip="" display="H220508Q@hit.ac.zw"/>
-    <hyperlink ref="B45" r:id="rId44" location="" tooltip="" display="H220349M@hit.ac.zw"/>
-    <hyperlink ref="B46" r:id="rId45" location="" tooltip="" display="H220045P@hit.ac.zw"/>
-    <hyperlink ref="B47" r:id="rId46" location="" tooltip="" display="H220038B@hit.ac.zw"/>
-    <hyperlink ref="B48" r:id="rId47" location="" tooltip="" display="H220480A@hit.ac.zw"/>
-    <hyperlink ref="B49" r:id="rId48" location="" tooltip="" display="H220052N@hit.ac.zw"/>
-    <hyperlink ref="B50" r:id="rId49" location="" tooltip="" display="H220379X@hit.ac.zw"/>
-    <hyperlink ref="B51" r:id="rId50" location="" tooltip="" display="H220281P@hit.ac.zw"/>
-    <hyperlink ref="B52" r:id="rId51" location="" tooltip="" display="H220413B@hit.ac.zw"/>
-    <hyperlink ref="B53" r:id="rId52" location="" tooltip="" display="H220042V@hit.ac.zw"/>
-    <hyperlink ref="B54" r:id="rId53" location="" tooltip="" display="H220153W@hit.ac.zw"/>
-    <hyperlink ref="B55" r:id="rId54" location="" tooltip="" display="H220094W@hit.ac.zw"/>
-    <hyperlink ref="B56" r:id="rId55" location="" tooltip="" display="H220230R@hit.ac.zw"/>
-    <hyperlink ref="B57" r:id="rId56" location="" tooltip="" display="H220122N@hit.ac.zw"/>
-    <hyperlink ref="B58" r:id="rId57" location="" tooltip="" display="H220152Q@hit.ac.zw"/>
-    <hyperlink ref="B59" r:id="rId58" location="" tooltip="" display="H220585W@hit.ac.zw"/>
-    <hyperlink ref="B60" r:id="rId59" location="" tooltip="" display="H220047M@hit.ac.zw"/>
-    <hyperlink ref="B61" r:id="rId60" location="" tooltip="" display="H220483J@hit.ac.zw"/>
-    <hyperlink ref="B62" r:id="rId61" location="" tooltip="" display="H220015F@hit.ac.zw"/>
-    <hyperlink ref="B63" r:id="rId62" location="" tooltip="" display="H220184Z@hit.ac.zw"/>
-    <hyperlink ref="B64" r:id="rId63" location="" tooltip="" display="H220392X@hit.ac.zw"/>
-    <hyperlink ref="B65" r:id="rId64" location="" tooltip="" display="H220187N@hit.ac.zw"/>
-    <hyperlink ref="B66" r:id="rId65" location="" tooltip="" display="H220421Y@hit.ac.zw"/>
-    <hyperlink ref="B68" r:id="rId66" location="" tooltip="" display="h200799c@hit.ac.zw"/>
-    <hyperlink ref="B69" r:id="rId67" location="" tooltip="" display="H220211V@hit.ac.zw"/>
-    <hyperlink ref="B70" r:id="rId68" location="" tooltip="" display="H220623Z@hit.ac.zw"/>
-    <hyperlink ref="B71" r:id="rId69" location="" tooltip="" display="H220315H@hit.ac.zw"/>
-    <hyperlink ref="B72" r:id="rId70" location="" tooltip="" display="H220063V@hit.ac.zw"/>
-    <hyperlink ref="B73" r:id="rId71" location="" tooltip="" display="H220019B@hit.ac.zw"/>
-    <hyperlink ref="B74" r:id="rId72" location="" tooltip="" display="H220316P@hit.ac.zw"/>
-    <hyperlink ref="B75" r:id="rId73" location="" tooltip="" display="H220550G@hit.ac.zw"/>
-    <hyperlink ref="B76" r:id="rId74" location="" tooltip="" display="H220004A@hit.ac.zw"/>
-    <hyperlink ref="B77" r:id="rId75" location="" tooltip="" display="H220133W@hit.ac.zw"/>
-    <hyperlink ref="B78" r:id="rId76" location="" tooltip="" display="H220313E@hit.ac.zw"/>
-    <hyperlink ref="B79" r:id="rId77" location="" tooltip="" display="H220427Q@hit.ac.zw"/>
-    <hyperlink ref="B80" r:id="rId78" location="" tooltip="" display="H220070V@hit.ac.zw"/>
-    <hyperlink ref="B81" r:id="rId79" location="" tooltip="" display="H220325F@hit.ac.zw"/>
-    <hyperlink ref="B82" r:id="rId80" location="" tooltip="" display="H220478P@hit.ac.zw"/>
-    <hyperlink ref="B83" r:id="rId81" location="" tooltip="" display="H220260C@hit.ac.zw"/>
-    <hyperlink ref="B84" r:id="rId82" location="" tooltip="" display="h180617h@hit.ac.zw"/>
-    <hyperlink ref="B85" r:id="rId83" location="" tooltip="" display="H220624V@hit.ac.zw"/>
-    <hyperlink ref="B86" r:id="rId84" location="" tooltip="" display="H220231W@hit.ac.zw"/>
-    <hyperlink ref="B87" r:id="rId85" location="" tooltip="" display="H220503P@hit.ac.zw"/>
-    <hyperlink ref="B88" r:id="rId86" location="" tooltip="" display="H220130J@hit.ac.zw"/>
-    <hyperlink ref="B89" r:id="rId87" location="" tooltip="" display="H220086F@hit.ac.zw"/>
-    <hyperlink ref="B90" r:id="rId88" location="" tooltip="" display="H220010Q@hit.ac.zw"/>
-    <hyperlink ref="B91" r:id="rId89" location="" tooltip="" display="h180134p@hit.ac.zw"/>
-    <hyperlink ref="B92" r:id="rId90" location="" tooltip="" display="H220564G@hit.ac.zw"/>
-    <hyperlink ref="B93" r:id="rId91" location="" tooltip="" display="H220462G@hit.ac.zw"/>
-    <hyperlink ref="B94" r:id="rId92" location="" tooltip="" display="H220204H@hit.ac.zw"/>
-    <hyperlink ref="B95" r:id="rId93" location="" tooltip="" display="H220516A@hit.ac.zw"/>
-    <hyperlink ref="B96" r:id="rId94" location="" tooltip="" display="H220183B@hit.ac.zw"/>
-    <hyperlink ref="B97" r:id="rId95" location="" tooltip="" display="H220449Q@hit.ac.zw"/>
-    <hyperlink ref="B98" r:id="rId96" location="" tooltip="" display="H220273W@hit.ac.zw"/>
-    <hyperlink ref="B99" r:id="rId97" location="" tooltip="" display="H220087E@hit.ac.zw"/>
-    <hyperlink ref="B100" r:id="rId98" location="" tooltip="" display="H220033G@hit.ac.zw"/>
-    <hyperlink ref="B101" r:id="rId99" location="" tooltip="" display="H220269E@hit.ac.zw"/>
-    <hyperlink ref="B102" r:id="rId100" location="" tooltip="" display="H220595W@hit.ac.zw"/>
-    <hyperlink ref="B103" r:id="rId101" location="" tooltip="" display="H220591F@hit.ac.zw"/>
-    <hyperlink ref="B104" r:id="rId102" location="" tooltip="" display="H220221G@hit.ac.zw"/>
-    <hyperlink ref="B105" r:id="rId103" location="" tooltip="" display="H220242Z@hit.ac.zw"/>
-    <hyperlink ref="B106" r:id="rId104" location="" tooltip="" display="H220348B@hit.ac.zw"/>
-    <hyperlink ref="B107" r:id="rId105" location="" tooltip="" display="H220418Y@hit.ac.zw"/>
-    <hyperlink ref="B108" r:id="rId106" location="" tooltip="" display="H220450T@hit.ac.zw"/>
-    <hyperlink ref="B109" r:id="rId107" location="" tooltip="" display="H220333Q@hit.ac.zw"/>
-    <hyperlink ref="B110" r:id="rId108" location="" tooltip="" display="H220320J@hit.ac.zw"/>
-    <hyperlink ref="B111" r:id="rId109" location="" tooltip="" display="H220311Y@hit.ac.zw"/>
-    <hyperlink ref="B112" r:id="rId110" location="" tooltip="" display="H220138M@hit.ac.zw"/>
-    <hyperlink ref="B113" r:id="rId111" location="" tooltip="" display="h210574b@hit.ac.zw"/>
-    <hyperlink ref="B114" r:id="rId112" location="" tooltip="" display="H220197V@hit.ac.zw"/>
-    <hyperlink ref="B115" r:id="rId113" location="" tooltip="" display="H220247A@hit.ac.zw"/>
-    <hyperlink ref="B116" r:id="rId114" location="" tooltip="" display="H220432X@hit.ac.zw"/>
-    <hyperlink ref="B117" r:id="rId115" location="" tooltip="" display="H220223N@hit.ac.zw"/>
-    <hyperlink ref="B118" r:id="rId116" location="" tooltip="" display="H220272P@hit.ac.zw"/>
-    <hyperlink ref="B119" r:id="rId117" location="" tooltip="" display="H220615W@hit.ac.zw"/>
-    <hyperlink ref="B120" r:id="rId118" location="" tooltip="" display="H220196A@hit.ac.zw"/>
-    <hyperlink ref="B121" r:id="rId119" location="" tooltip="" display="h220535v@hit.ac.zw"/>
-    <hyperlink ref="B122" r:id="rId120" location="" tooltip="" display="h220688a@hit.ac.zw"/>
-    <hyperlink ref="B123" r:id="rId121" location="" tooltip="" display="H220026H@hit.ac.zw"/>
-    <hyperlink ref="B124" r:id="rId122" location="" tooltip="" display="H220533P@hit.ac.zw"/>
-    <hyperlink ref="B125" r:id="rId123" location="" tooltip="" display="H220435X@hit.ac.zw"/>
-    <hyperlink ref="B126" r:id="rId124" location="" tooltip="" display="H220225C@hit.ac.zw"/>
-    <hyperlink ref="B127" r:id="rId125" location="" tooltip="" display="H220198F@hit.ac.zw"/>
-    <hyperlink ref="B128" r:id="rId126" location="" tooltip="" display="H220290G@hit.ac.zw"/>
-    <hyperlink ref="B129" r:id="rId127" location="" tooltip="" display="H220147B@hit.ac.zw"/>
-    <hyperlink ref="B130" r:id="rId128" location="" tooltip="" display="H220076E@hit.ac.zw"/>
-    <hyperlink ref="B131" r:id="rId129" location="" tooltip="" display="H220129A@hit.ac.zw"/>
-    <hyperlink ref="B132" r:id="rId130" location="" tooltip="" display="H220243A@hit.ac.zw"/>
-    <hyperlink ref="B133" r:id="rId131" location="" tooltip="" display="H220554M@hit.ac.zw"/>
-    <hyperlink ref="B134" r:id="rId132" location="" tooltip="" display="H220415J@hit.ac.zw"/>
-    <hyperlink ref="B135" r:id="rId133" location="" tooltip="" display="H220439A@hit.ac.zw"/>
-    <hyperlink ref="B136" r:id="rId134" location="" tooltip="" display="H220390X@hit.ac.zw"/>
-    <hyperlink ref="B137" r:id="rId135" location="" tooltip="" display="H220536M@hit.ac.zw"/>
-    <hyperlink ref="B138" r:id="rId136" location="" tooltip="" display="H220189E@hit.ac.zw"/>
-    <hyperlink ref="B139" r:id="rId137" location="" tooltip="" display="H220146J@hit.ac.zw"/>
-    <hyperlink ref="B140" r:id="rId138" location="" tooltip="" display="H220179T@hit.ac.zw"/>
-    <hyperlink ref="B141" r:id="rId139" location="" tooltip="" display="H220057B@hit.ac.zw"/>
-    <hyperlink ref="B142" r:id="rId140" location="" tooltip="" display="H220586J@hit.ac.zw"/>
-    <hyperlink ref="B143" r:id="rId141" location="" tooltip="" display="H220417Y@hit.ac.zw"/>
-    <hyperlink ref="B144" r:id="rId142" location="" tooltip="" display="H220553G@hit.ac.zw"/>
-    <hyperlink ref="B145" r:id="rId143" location="" tooltip="" display="H220250Q@hit.ac.zw"/>
-    <hyperlink ref="B146" r:id="rId144" location="" tooltip="" display="H220652T@hit.ac.zw"/>
-    <hyperlink ref="B147" r:id="rId145" location="" tooltip="" display="H220426Q@hit.ac.zw"/>
-    <hyperlink ref="B148" r:id="rId146" location="" tooltip="" display="H220072Y@hit.ac.zw"/>
-    <hyperlink ref="B149" r:id="rId147" location="" tooltip="" display="H220028G@hit.ac.zw"/>
-    <hyperlink ref="B150" r:id="rId148" location="" tooltip="" display="H220081X@hit.ac.zw"/>
-    <hyperlink ref="B151" r:id="rId149" location="" tooltip="" display="h210371h@hit.ac.zw"/>
-    <hyperlink ref="B152" r:id="rId150" location="" tooltip="" display="H220105E@hit.ac.zw"/>
-    <hyperlink ref="B153" r:id="rId151" location="" tooltip="" display="H220215E@hit.ac.zw"/>
-    <hyperlink ref="B154" r:id="rId152" location="" tooltip="" display="H220537B@hit.ac.zw"/>
-    <hyperlink ref="B155" r:id="rId153" location="" tooltip="" display="H220411Q@hit.ac.zw"/>
+    <hyperlink ref="B32" r:id="rId30" location="" tooltip="" display="H220144F@hit.ac.zw"/>
+    <hyperlink ref="B33" r:id="rId31" location="" tooltip="" display="H220018Y@hit.ac.zw"/>
+    <hyperlink ref="B34" r:id="rId32" location="" tooltip="" display="H220476V@hit.ac.zw"/>
+    <hyperlink ref="B35" r:id="rId33" location="" tooltip="" display="H220075W@hit.ac.zw"/>
+    <hyperlink ref="B36" r:id="rId34" location="" tooltip="" display="H220283P@hit.ac.zw"/>
+    <hyperlink ref="B37" r:id="rId35" location="" tooltip="" display="H220023E@hit.ac.zw"/>
+    <hyperlink ref="B38" r:id="rId36" location="" tooltip="" display="H220202J@hit.ac.zw"/>
+    <hyperlink ref="B39" r:id="rId37" location="" tooltip="" display="H220431M@hit.ac.zw"/>
+    <hyperlink ref="B40" r:id="rId38" location="" tooltip="" display="H220218P@hit.ac.zw"/>
+    <hyperlink ref="B41" r:id="rId39" location="" tooltip="" display="H220494C@hit.ac.zw"/>
+    <hyperlink ref="B42" r:id="rId40" location="" tooltip="" display="H220582T@hit.ac.zw"/>
+    <hyperlink ref="B43" r:id="rId41" location="" tooltip="" display="H220084C@hit.ac.zw"/>
+    <hyperlink ref="B44" r:id="rId42" location="" tooltip="" display="H220343Y@hit.ac.zw"/>
+    <hyperlink ref="B45" r:id="rId43" location="" tooltip="" display="H220508Q@hit.ac.zw"/>
+    <hyperlink ref="B46" r:id="rId44" location="" tooltip="" display="H220349M@hit.ac.zw"/>
+    <hyperlink ref="B47" r:id="rId45" location="" tooltip="" display="H220045P@hit.ac.zw"/>
+    <hyperlink ref="B48" r:id="rId46" location="" tooltip="" display="H220038B@hit.ac.zw"/>
+    <hyperlink ref="B49" r:id="rId47" location="" tooltip="" display="H220480A@hit.ac.zw"/>
+    <hyperlink ref="B50" r:id="rId48" location="" tooltip="" display="H220052N@hit.ac.zw"/>
+    <hyperlink ref="B51" r:id="rId49" location="" tooltip="" display="H220379X@hit.ac.zw"/>
+    <hyperlink ref="B52" r:id="rId50" location="" tooltip="" display="H220281P@hit.ac.zw"/>
+    <hyperlink ref="B53" r:id="rId51" location="" tooltip="" display="H220413B@hit.ac.zw"/>
+    <hyperlink ref="B54" r:id="rId52" location="" tooltip="" display="H220042V@hit.ac.zw"/>
+    <hyperlink ref="B55" r:id="rId53" location="" tooltip="" display="H220153W@hit.ac.zw"/>
+    <hyperlink ref="B56" r:id="rId54" location="" tooltip="" display="H220094W@hit.ac.zw"/>
+    <hyperlink ref="B57" r:id="rId55" location="" tooltip="" display="H220230R@hit.ac.zw"/>
+    <hyperlink ref="B58" r:id="rId56" location="" tooltip="" display="H220122N@hit.ac.zw"/>
+    <hyperlink ref="B59" r:id="rId57" location="" tooltip="" display="H220152Q@hit.ac.zw"/>
+    <hyperlink ref="B60" r:id="rId58" location="" tooltip="" display="H220585W@hit.ac.zw"/>
+    <hyperlink ref="B61" r:id="rId59" location="" tooltip="" display="H220047M@hit.ac.zw"/>
+    <hyperlink ref="B62" r:id="rId60" location="" tooltip="" display="H220483J@hit.ac.zw"/>
+    <hyperlink ref="B63" r:id="rId61" location="" tooltip="" display="H220015F@hit.ac.zw"/>
+    <hyperlink ref="B64" r:id="rId62" location="" tooltip="" display="H220184Z@hit.ac.zw"/>
+    <hyperlink ref="B65" r:id="rId63" location="" tooltip="" display="H220392X@hit.ac.zw"/>
+    <hyperlink ref="B66" r:id="rId64" location="" tooltip="" display="H220187N@hit.ac.zw"/>
+    <hyperlink ref="B67" r:id="rId65" location="" tooltip="" display="H220421Y@hit.ac.zw"/>
+    <hyperlink ref="B69" r:id="rId66" location="" tooltip="" display="h200799c@hit.ac.zw"/>
+    <hyperlink ref="B70" r:id="rId67" location="" tooltip="" display="H220211V@hit.ac.zw"/>
+    <hyperlink ref="B71" r:id="rId68" location="" tooltip="" display="H220623Z@hit.ac.zw"/>
+    <hyperlink ref="B72" r:id="rId69" location="" tooltip="" display="H220315H@hit.ac.zw"/>
+    <hyperlink ref="B73" r:id="rId70" location="" tooltip="" display="H220063V@hit.ac.zw"/>
+    <hyperlink ref="B74" r:id="rId71" location="" tooltip="" display="H220019B@hit.ac.zw"/>
+    <hyperlink ref="B75" r:id="rId72" location="" tooltip="" display="H220316P@hit.ac.zw"/>
+    <hyperlink ref="B76" r:id="rId73" location="" tooltip="" display="H220550G@hit.ac.zw"/>
+    <hyperlink ref="B77" r:id="rId74" location="" tooltip="" display="H220004A@hit.ac.zw"/>
+    <hyperlink ref="B78" r:id="rId75" location="" tooltip="" display="H220133W@hit.ac.zw"/>
+    <hyperlink ref="B79" r:id="rId76" location="" tooltip="" display="H220313E@hit.ac.zw"/>
+    <hyperlink ref="B80" r:id="rId77" location="" tooltip="" display="H220427Q@hit.ac.zw"/>
+    <hyperlink ref="B81" r:id="rId78" location="" tooltip="" display="H220070V@hit.ac.zw"/>
+    <hyperlink ref="B82" r:id="rId79" location="" tooltip="" display="H220325F@hit.ac.zw"/>
+    <hyperlink ref="B83" r:id="rId80" location="" tooltip="" display="H220478P@hit.ac.zw"/>
+    <hyperlink ref="B84" r:id="rId81" location="" tooltip="" display="H220260C@hit.ac.zw"/>
+    <hyperlink ref="B85" r:id="rId82" location="" tooltip="" display="h180617h@hit.ac.zw"/>
+    <hyperlink ref="B86" r:id="rId83" location="" tooltip="" display="H220624V@hit.ac.zw"/>
+    <hyperlink ref="B87" r:id="rId84" location="" tooltip="" display="H220231W@hit.ac.zw"/>
+    <hyperlink ref="B88" r:id="rId85" location="" tooltip="" display="H220503P@hit.ac.zw"/>
+    <hyperlink ref="B89" r:id="rId86" location="" tooltip="" display="H220130J@hit.ac.zw"/>
+    <hyperlink ref="B90" r:id="rId87" location="" tooltip="" display="H220086F@hit.ac.zw"/>
+    <hyperlink ref="B91" r:id="rId88" location="" tooltip="" display="H220010Q@hit.ac.zw"/>
+    <hyperlink ref="B92" r:id="rId89" location="" tooltip="" display="h180134p@hit.ac.zw"/>
+    <hyperlink ref="B93" r:id="rId90" location="" tooltip="" display="H220564G@hit.ac.zw"/>
+    <hyperlink ref="B94" r:id="rId91" location="" tooltip="" display="H220462G@hit.ac.zw"/>
+    <hyperlink ref="B95" r:id="rId92" location="" tooltip="" display="H220204H@hit.ac.zw"/>
+    <hyperlink ref="B96" r:id="rId93" location="" tooltip="" display="H220516A@hit.ac.zw"/>
+    <hyperlink ref="B97" r:id="rId94" location="" tooltip="" display="H220183B@hit.ac.zw"/>
+    <hyperlink ref="B98" r:id="rId95" location="" tooltip="" display="H220449Q@hit.ac.zw"/>
+    <hyperlink ref="B99" r:id="rId96" location="" tooltip="" display="H220273W@hit.ac.zw"/>
+    <hyperlink ref="B100" r:id="rId97" location="" tooltip="" display="H220087E@hit.ac.zw"/>
+    <hyperlink ref="B101" r:id="rId98" location="" tooltip="" display="H220033G@hit.ac.zw"/>
+    <hyperlink ref="B102" r:id="rId99" location="" tooltip="" display="H220269E@hit.ac.zw"/>
+    <hyperlink ref="B103" r:id="rId100" location="" tooltip="" display="H220595W@hit.ac.zw"/>
+    <hyperlink ref="B104" r:id="rId101" location="" tooltip="" display="H220591F@hit.ac.zw"/>
+    <hyperlink ref="B105" r:id="rId102" location="" tooltip="" display="H220221G@hit.ac.zw"/>
+    <hyperlink ref="B106" r:id="rId103" location="" tooltip="" display="H220242Z@hit.ac.zw"/>
+    <hyperlink ref="B107" r:id="rId104" location="" tooltip="" display="H220348B@hit.ac.zw"/>
+    <hyperlink ref="B108" r:id="rId105" location="" tooltip="" display="H220418Y@hit.ac.zw"/>
+    <hyperlink ref="B109" r:id="rId106" location="" tooltip="" display="H220450T@hit.ac.zw"/>
+    <hyperlink ref="B110" r:id="rId107" location="" tooltip="" display="H220333Q@hit.ac.zw"/>
+    <hyperlink ref="B111" r:id="rId108" location="" tooltip="" display="H220320J@hit.ac.zw"/>
+    <hyperlink ref="B112" r:id="rId109" location="" tooltip="" display="H220311Y@hit.ac.zw"/>
+    <hyperlink ref="B113" r:id="rId110" location="" tooltip="" display="H220138M@hit.ac.zw"/>
+    <hyperlink ref="B114" r:id="rId111" location="" tooltip="" display="h210574b@hit.ac.zw"/>
+    <hyperlink ref="B115" r:id="rId112" location="" tooltip="" display="H220197V@hit.ac.zw"/>
+    <hyperlink ref="B116" r:id="rId113" location="" tooltip="" display="H220247A@hit.ac.zw"/>
+    <hyperlink ref="B117" r:id="rId114" location="" tooltip="" display="H220432X@hit.ac.zw"/>
+    <hyperlink ref="B118" r:id="rId115" location="" tooltip="" display="H220223N@hit.ac.zw"/>
+    <hyperlink ref="B120" r:id="rId116" location="" tooltip="" display="H220272P@hit.ac.zw"/>
+    <hyperlink ref="B121" r:id="rId117" location="" tooltip="" display="H220615W@hit.ac.zw"/>
+    <hyperlink ref="B122" r:id="rId118" location="" tooltip="" display="H220196A@hit.ac.zw"/>
+    <hyperlink ref="B123" r:id="rId119" location="" tooltip="" display="h220535v@hit.ac.zw"/>
+    <hyperlink ref="B124" r:id="rId120" location="" tooltip="" display="h220688a@hit.ac.zw"/>
+    <hyperlink ref="B125" r:id="rId121" location="" tooltip="" display="H220026H@hit.ac.zw"/>
+    <hyperlink ref="B126" r:id="rId122" location="" tooltip="" display="H220533P@hit.ac.zw"/>
+    <hyperlink ref="B127" r:id="rId123" location="" tooltip="" display="H220435X@hit.ac.zw"/>
+    <hyperlink ref="B128" r:id="rId124" location="" tooltip="" display="H220225C@hit.ac.zw"/>
+    <hyperlink ref="B129" r:id="rId125" location="" tooltip="" display="H220198F@hit.ac.zw"/>
+    <hyperlink ref="B130" r:id="rId126" location="" tooltip="" display="H220290G@hit.ac.zw"/>
+    <hyperlink ref="B131" r:id="rId127" location="" tooltip="" display="H220147B@hit.ac.zw"/>
+    <hyperlink ref="B132" r:id="rId128" location="" tooltip="" display="H220076E@hit.ac.zw"/>
+    <hyperlink ref="B133" r:id="rId129" location="" tooltip="" display="H220129A@hit.ac.zw"/>
+    <hyperlink ref="B134" r:id="rId130" location="" tooltip="" display="H220243A@hit.ac.zw"/>
+    <hyperlink ref="B135" r:id="rId131" location="" tooltip="" display="H220554M@hit.ac.zw"/>
+    <hyperlink ref="B136" r:id="rId132" location="" tooltip="" display="H220415J@hit.ac.zw"/>
+    <hyperlink ref="B137" r:id="rId133" location="" tooltip="" display="H220439A@hit.ac.zw"/>
+    <hyperlink ref="B138" r:id="rId134" location="" tooltip="" display="H220390X@hit.ac.zw"/>
+    <hyperlink ref="B139" r:id="rId135" location="" tooltip="" display="H220536M@hit.ac.zw"/>
+    <hyperlink ref="B140" r:id="rId136" location="" tooltip="" display="H220189E@hit.ac.zw"/>
+    <hyperlink ref="B141" r:id="rId137" location="" tooltip="" display="H220146J@hit.ac.zw"/>
+    <hyperlink ref="B142" r:id="rId138" location="" tooltip="" display="H220179T@hit.ac.zw"/>
+    <hyperlink ref="B143" r:id="rId139" location="" tooltip="" display="H220057B@hit.ac.zw"/>
+    <hyperlink ref="B144" r:id="rId140" location="" tooltip="" display="H220586J@hit.ac.zw"/>
+    <hyperlink ref="B145" r:id="rId141" location="" tooltip="" display="H220417Y@hit.ac.zw"/>
+    <hyperlink ref="B146" r:id="rId142" location="" tooltip="" display="H220553G@hit.ac.zw"/>
+    <hyperlink ref="B147" r:id="rId143" location="" tooltip="" display="H220250Q@hit.ac.zw"/>
+    <hyperlink ref="B148" r:id="rId144" location="" tooltip="" display="H220652T@hit.ac.zw"/>
+    <hyperlink ref="B149" r:id="rId145" location="" tooltip="" display="H220426Q@hit.ac.zw"/>
+    <hyperlink ref="B150" r:id="rId146" location="" tooltip="" display="H220072Y@hit.ac.zw"/>
+    <hyperlink ref="B151" r:id="rId147" location="" tooltip="" display="H220028G@hit.ac.zw"/>
+    <hyperlink ref="B152" r:id="rId148" location="" tooltip="" display="H220081X@hit.ac.zw"/>
+    <hyperlink ref="B153" r:id="rId149" location="" tooltip="" display="h210371h@hit.ac.zw"/>
+    <hyperlink ref="B154" r:id="rId150" location="" tooltip="" display="H220105E@hit.ac.zw"/>
+    <hyperlink ref="B155" r:id="rId151" location="" tooltip="" display="H220215E@hit.ac.zw"/>
+    <hyperlink ref="B156" r:id="rId152" location="" tooltip="" display="H220537B@hit.ac.zw"/>
+    <hyperlink ref="B157" r:id="rId153" location="" tooltip="" display="H220411Q@hit.ac.zw"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/cw11042022.xlsx
+++ b/cw11042022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="328">
   <si>
     <t>Surname</t>
   </si>
@@ -284,6 +284,9 @@
     </r>
   </si>
   <si>
+    <t>ISE</t>
+  </si>
+  <si>
     <t>Chikwanda</t>
   </si>
   <si>
@@ -312,9 +315,6 @@
     </r>
   </si>
   <si>
-    <t>ISE</t>
-  </si>
-  <si>
     <t>Chimwe</t>
   </si>
   <si>
@@ -702,6 +702,12 @@
     </r>
   </si>
   <si>
+    <t>Kadema</t>
+  </si>
+  <si>
+    <t>H220673P</t>
+  </si>
+  <si>
     <t>Kahari</t>
   </si>
   <si>
@@ -854,6 +860,12 @@
       </rPr>
       <t>H220152Q@hit.ac.zw</t>
     </r>
+  </si>
+  <si>
+    <t>Kumadiro</t>
+  </si>
+  <si>
+    <t>H220672FR</t>
   </si>
   <si>
     <t>Machaya</t>
@@ -3409,7 +3421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J157"/>
+  <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -3731,8 +3743,12 @@
       <c r="B18" t="s" s="5">
         <v>44</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="C18" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.634615384615385</v>
+      </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -3742,10 +3758,10 @@
     </row>
     <row r="19" ht="14.35" customHeight="1">
       <c r="A19" t="s" s="5">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s" s="5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -3758,13 +3774,13 @@
     </row>
     <row r="20" ht="14.35" customHeight="1">
       <c r="A20" t="s" s="5">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s" s="5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s" s="5">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D20" s="7">
         <v>0.942307692307692</v>
@@ -3936,7 +3952,7 @@
         <v>70</v>
       </c>
       <c r="C30" t="s" s="5">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D30" s="7">
         <v>0.634615384615385</v>
@@ -4239,8 +4255,12 @@
       <c r="B48" t="s" s="5">
         <v>106</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
+      <c r="C48" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0.634615384615385</v>
+      </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -4255,8 +4275,12 @@
       <c r="B49" t="s" s="5">
         <v>108</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
+      <c r="C49" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="D49" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -4271,8 +4295,12 @@
       <c r="B50" t="s" s="5">
         <v>110</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+      <c r="C50" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0.634615384615385</v>
+      </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -4303,8 +4331,12 @@
       <c r="B52" t="s" s="5">
         <v>114</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
+      <c r="C52" t="s" s="5">
+        <v>42</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0.826923076923077</v>
+      </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -4319,12 +4351,8 @@
       <c r="B53" t="s" s="5">
         <v>116</v>
       </c>
-      <c r="C53" t="s" s="5">
-        <v>54</v>
-      </c>
-      <c r="D53" s="7">
-        <v>0.711538461538462</v>
-      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -4339,8 +4367,12 @@
       <c r="B54" t="s" s="5">
         <v>118</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
+      <c r="C54" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0.711538461538462</v>
+      </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -4387,12 +4419,8 @@
       <c r="B57" t="s" s="5">
         <v>124</v>
       </c>
-      <c r="C57" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="D57" s="7">
-        <v>0.634615384615385</v>
-      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -4407,8 +4435,12 @@
       <c r="B58" t="s" s="5">
         <v>126</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
+      <c r="C58" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="D58" s="7">
+        <v>0.634615384615385</v>
+      </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
@@ -4423,8 +4455,12 @@
       <c r="B59" t="s" s="5">
         <v>128</v>
       </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
+      <c r="C59" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="D59" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
@@ -4455,8 +4491,12 @@
       <c r="B61" t="s" s="5">
         <v>132</v>
       </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
+      <c r="C61" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="D61" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -4535,8 +4575,12 @@
       <c r="B66" t="s" s="5">
         <v>142</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
+      <c r="C66" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="D66" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
@@ -4551,8 +4595,12 @@
       <c r="B67" t="s" s="5">
         <v>144</v>
       </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
+      <c r="C67" t="s" s="5">
+        <v>42</v>
+      </c>
+      <c r="D67" s="7">
+        <v>0.826923076923077</v>
+      </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
@@ -4567,12 +4615,8 @@
       <c r="B68" t="s" s="5">
         <v>146</v>
       </c>
-      <c r="C68" t="s" s="5">
-        <v>90</v>
-      </c>
-      <c r="D68" s="7">
-        <v>0.942307692307692</v>
-      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
@@ -4603,8 +4647,12 @@
       <c r="B70" t="s" s="5">
         <v>150</v>
       </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
+      <c r="C70" t="s" s="5">
+        <v>90</v>
+      </c>
+      <c r="D70" s="7">
+        <v>0.942307692307692</v>
+      </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
@@ -4635,8 +4683,12 @@
       <c r="B72" t="s" s="5">
         <v>154</v>
       </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
+      <c r="C72" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="D72" s="7">
+        <v>0.826923076923077</v>
+      </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
@@ -4699,8 +4751,12 @@
       <c r="B76" t="s" s="5">
         <v>162</v>
       </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
+      <c r="C76" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="D76" s="7">
+        <v>0.826923076923077</v>
+      </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
@@ -4763,12 +4819,8 @@
       <c r="B80" t="s" s="5">
         <v>170</v>
       </c>
-      <c r="C80" t="s" s="5">
-        <v>42</v>
-      </c>
-      <c r="D80" s="7">
-        <v>0.788461538461538</v>
-      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
@@ -4799,8 +4851,12 @@
       <c r="B82" t="s" s="5">
         <v>174</v>
       </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
+      <c r="C82" t="s" s="5">
+        <v>42</v>
+      </c>
+      <c r="D82" s="7">
+        <v>0.788461538461538</v>
+      </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
@@ -4815,8 +4871,12 @@
       <c r="B83" t="s" s="5">
         <v>176</v>
       </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
+      <c r="C83" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="D83" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
@@ -4832,9 +4892,7 @@
         <v>178</v>
       </c>
       <c r="C84" s="6"/>
-      <c r="D84" s="7">
-        <v>0.75</v>
-      </c>
+      <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
@@ -4844,10 +4902,10 @@
     </row>
     <row r="85" ht="14.35" customHeight="1">
       <c r="A85" t="s" s="5">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B85" t="s" s="5">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -4860,16 +4918,14 @@
     </row>
     <row r="86" ht="14.35" customHeight="1">
       <c r="A86" t="s" s="5">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B86" t="s" s="5">
-        <v>181</v>
-      </c>
-      <c r="C86" t="s" s="5">
-        <v>90</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C86" s="6"/>
       <c r="D86" s="7">
-        <v>0.942307692307692</v>
+        <v>0.75</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
@@ -4880,13 +4936,17 @@
     </row>
     <row r="87" ht="14.35" customHeight="1">
       <c r="A87" t="s" s="5">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B87" t="s" s="5">
         <v>183</v>
       </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
+      <c r="C87" t="s" s="5">
+        <v>42</v>
+      </c>
+      <c r="D87" s="7">
+        <v>0.634615384615385</v>
+      </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
@@ -4901,8 +4961,12 @@
       <c r="B88" t="s" s="5">
         <v>185</v>
       </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
+      <c r="C88" t="s" s="5">
+        <v>90</v>
+      </c>
+      <c r="D88" s="7">
+        <v>0.942307692307692</v>
+      </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -4933,8 +4997,12 @@
       <c r="B90" t="s" s="5">
         <v>189</v>
       </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
+      <c r="C90" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="D90" s="7">
+        <v>0.634615384615385</v>
+      </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
@@ -4965,12 +5033,8 @@
       <c r="B92" t="s" s="5">
         <v>193</v>
       </c>
-      <c r="C92" t="s" s="5">
-        <v>54</v>
-      </c>
-      <c r="D92" s="7">
-        <v>0.442307692307692</v>
-      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
@@ -4985,12 +5049,8 @@
       <c r="B93" t="s" s="5">
         <v>195</v>
       </c>
-      <c r="C93" t="s" s="5">
-        <v>54</v>
-      </c>
-      <c r="D93" s="7">
-        <v>0.711538461538462</v>
-      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
@@ -5006,10 +5066,10 @@
         <v>197</v>
       </c>
       <c r="C94" t="s" s="5">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D94" s="7">
-        <v>0.903846153846154</v>
+        <v>0.442307692307692</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
@@ -5025,8 +5085,12 @@
       <c r="B95" t="s" s="5">
         <v>199</v>
       </c>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
+      <c r="C95" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="D95" s="7">
+        <v>0.711538461538462</v>
+      </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
@@ -5041,8 +5105,12 @@
       <c r="B96" t="s" s="5">
         <v>201</v>
       </c>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
+      <c r="C96" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="D96" s="7">
+        <v>0.903846153846154</v>
+      </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
@@ -5153,12 +5221,8 @@
       <c r="B103" t="s" s="5">
         <v>215</v>
       </c>
-      <c r="C103" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="D103" s="7">
-        <v>0.634615384615385</v>
-      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
@@ -5173,12 +5237,8 @@
       <c r="B104" t="s" s="5">
         <v>217</v>
       </c>
-      <c r="C104" t="s" s="5">
-        <v>90</v>
-      </c>
-      <c r="D104" s="7">
-        <v>0.634615384615385</v>
-      </c>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
@@ -5193,8 +5253,12 @@
       <c r="B105" t="s" s="5">
         <v>219</v>
       </c>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
+      <c r="C105" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="D105" s="7">
+        <v>0.634615384615385</v>
+      </c>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
@@ -5210,10 +5274,10 @@
         <v>221</v>
       </c>
       <c r="C106" t="s" s="5">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="D106" s="7">
-        <v>0.903846153846154</v>
+        <v>0.634615384615385</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
@@ -5229,12 +5293,8 @@
       <c r="B107" t="s" s="5">
         <v>223</v>
       </c>
-      <c r="C107" t="s" s="5">
-        <v>90</v>
-      </c>
-      <c r="D107" s="7">
-        <v>0.942307692307692</v>
-      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
@@ -5249,8 +5309,12 @@
       <c r="B108" t="s" s="5">
         <v>225</v>
       </c>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
+      <c r="C108" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="D108" s="7">
+        <v>0.903846153846154</v>
+      </c>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
@@ -5265,8 +5329,12 @@
       <c r="B109" t="s" s="5">
         <v>227</v>
       </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
+      <c r="C109" t="s" s="5">
+        <v>90</v>
+      </c>
+      <c r="D109" s="7">
+        <v>0.942307692307692</v>
+      </c>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
@@ -5306,7 +5374,7 @@
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
     </row>
-    <row r="112" ht="28.35" customHeight="1">
+    <row r="112" ht="14.35" customHeight="1">
       <c r="A112" t="s" s="5">
         <v>232</v>
       </c>
@@ -5338,7 +5406,7 @@
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
     </row>
-    <row r="114" ht="14.35" customHeight="1">
+    <row r="114" ht="28.35" customHeight="1">
       <c r="A114" t="s" s="5">
         <v>236</v>
       </c>
@@ -5361,12 +5429,8 @@
       <c r="B115" t="s" s="5">
         <v>239</v>
       </c>
-      <c r="C115" t="s" s="5">
-        <v>42</v>
-      </c>
-      <c r="D115" s="7">
-        <v>0.788461538461538</v>
-      </c>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
@@ -5398,10 +5462,10 @@
         <v>243</v>
       </c>
       <c r="C117" t="s" s="5">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D117" s="7">
-        <v>0.634615384615385</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
@@ -5417,12 +5481,8 @@
       <c r="B118" t="s" s="5">
         <v>245</v>
       </c>
-      <c r="C118" t="s" s="5">
-        <v>54</v>
-      </c>
-      <c r="D118" s="7">
-        <v>0.903846153846154</v>
-      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
@@ -5438,10 +5498,10 @@
         <v>247</v>
       </c>
       <c r="C119" t="s" s="5">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D119" s="7">
-        <v>0.788461538461538</v>
+        <v>0.634615384615385</v>
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
@@ -5457,8 +5517,12 @@
       <c r="B120" t="s" s="5">
         <v>249</v>
       </c>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
+      <c r="C120" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="D120" s="7">
+        <v>0.903846153846154</v>
+      </c>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
@@ -5473,8 +5537,12 @@
       <c r="B121" t="s" s="5">
         <v>251</v>
       </c>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
+      <c r="C121" t="s" s="5">
+        <v>42</v>
+      </c>
+      <c r="D121" s="7">
+        <v>0.788461538461538</v>
+      </c>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
@@ -5505,12 +5573,8 @@
       <c r="B123" t="s" s="5">
         <v>255</v>
       </c>
-      <c r="C123" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="D123" s="7">
-        <v>0.903846153846154</v>
-      </c>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
@@ -5525,12 +5589,8 @@
       <c r="B124" t="s" s="5">
         <v>257</v>
       </c>
-      <c r="C124" t="s" s="5">
-        <v>54</v>
-      </c>
-      <c r="D124" s="7">
-        <v>0.711538461538462</v>
-      </c>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
@@ -5545,8 +5605,12 @@
       <c r="B125" t="s" s="5">
         <v>259</v>
       </c>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
+      <c r="C125" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="D125" s="7">
+        <v>0.903846153846154</v>
+      </c>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
@@ -5561,8 +5625,12 @@
       <c r="B126" t="s" s="5">
         <v>261</v>
       </c>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
+      <c r="C126" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="D126" s="7">
+        <v>0.711538461538462</v>
+      </c>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
@@ -5577,12 +5645,8 @@
       <c r="B127" t="s" s="5">
         <v>263</v>
       </c>
-      <c r="C127" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="D127" s="7">
-        <v>0.634615384615385</v>
-      </c>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
@@ -5597,12 +5661,8 @@
       <c r="B128" t="s" s="5">
         <v>265</v>
       </c>
-      <c r="C128" t="s" s="5">
-        <v>90</v>
-      </c>
-      <c r="D128" s="7">
-        <v>0.634615384615385</v>
-      </c>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
@@ -5617,8 +5677,12 @@
       <c r="B129" t="s" s="5">
         <v>267</v>
       </c>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
+      <c r="C129" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="D129" s="7">
+        <v>0.634615384615385</v>
+      </c>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
@@ -5633,8 +5697,12 @@
       <c r="B130" t="s" s="5">
         <v>269</v>
       </c>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
+      <c r="C130" t="s" s="5">
+        <v>90</v>
+      </c>
+      <c r="D130" s="7">
+        <v>0.634615384615385</v>
+      </c>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
@@ -5649,8 +5717,12 @@
       <c r="B131" t="s" s="5">
         <v>271</v>
       </c>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
+      <c r="C131" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="D131" s="7">
+        <v>0.634615384615385</v>
+      </c>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
@@ -5681,8 +5753,12 @@
       <c r="B133" t="s" s="5">
         <v>275</v>
       </c>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
+      <c r="C133" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="D133" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
@@ -5777,12 +5853,8 @@
       <c r="B139" t="s" s="5">
         <v>287</v>
       </c>
-      <c r="C139" t="s" s="5">
-        <v>90</v>
-      </c>
-      <c r="D139" s="7">
-        <v>0.634615384615385</v>
-      </c>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
@@ -5814,10 +5886,10 @@
         <v>291</v>
       </c>
       <c r="C141" t="s" s="5">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D141" s="7">
-        <v>0.942307692307692</v>
+        <v>0.634615384615385</v>
       </c>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
@@ -5833,12 +5905,8 @@
       <c r="B142" t="s" s="5">
         <v>293</v>
       </c>
-      <c r="C142" t="s" s="5">
-        <v>90</v>
-      </c>
-      <c r="D142" s="7">
-        <v>0.634615384615385</v>
-      </c>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
@@ -5853,8 +5921,12 @@
       <c r="B143" t="s" s="5">
         <v>295</v>
       </c>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
+      <c r="C143" t="s" s="5">
+        <v>42</v>
+      </c>
+      <c r="D143" s="7">
+        <v>0.942307692307692</v>
+      </c>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
@@ -5869,8 +5941,12 @@
       <c r="B144" t="s" s="5">
         <v>297</v>
       </c>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
+      <c r="C144" t="s" s="5">
+        <v>90</v>
+      </c>
+      <c r="D144" s="7">
+        <v>0.634615384615385</v>
+      </c>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
@@ -5934,9 +6010,7 @@
         <v>305</v>
       </c>
       <c r="C148" s="6"/>
-      <c r="D148" s="7">
-        <v>0.75</v>
-      </c>
+      <c r="D148" s="6"/>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
@@ -5968,7 +6042,9 @@
         <v>309</v>
       </c>
       <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
+      <c r="D150" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
@@ -6015,8 +6091,12 @@
       <c r="B153" t="s" s="5">
         <v>315</v>
       </c>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
+      <c r="C153" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="D153" s="7">
+        <v>0.826923076923077</v>
+      </c>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
@@ -6031,12 +6111,8 @@
       <c r="B154" t="s" s="5">
         <v>317</v>
       </c>
-      <c r="C154" t="s" s="5">
-        <v>54</v>
-      </c>
-      <c r="D154" s="7">
-        <v>0.711538461538462</v>
-      </c>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
@@ -6051,7 +6127,9 @@
       <c r="B155" t="s" s="5">
         <v>319</v>
       </c>
-      <c r="C155" s="6"/>
+      <c r="C155" t="s" s="5">
+        <v>45</v>
+      </c>
       <c r="D155" s="6"/>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
@@ -6067,8 +6145,12 @@
       <c r="B156" t="s" s="5">
         <v>321</v>
       </c>
-      <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
+      <c r="C156" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="D156" s="7">
+        <v>0.711538461538462</v>
+      </c>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
@@ -6091,6 +6173,50 @@
       <c r="H157" s="6"/>
       <c r="I157" s="6"/>
       <c r="J157" s="6"/>
+    </row>
+    <row r="158" ht="14.35" customHeight="1">
+      <c r="A158" t="s" s="5">
+        <v>324</v>
+      </c>
+      <c r="B158" t="s" s="5">
+        <v>325</v>
+      </c>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="6"/>
+    </row>
+    <row r="159" ht="14.35" customHeight="1">
+      <c r="A159" t="s" s="5">
+        <v>326</v>
+      </c>
+      <c r="B159" t="s" s="5">
+        <v>327</v>
+      </c>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="6"/>
+    </row>
+    <row r="160" ht="14.35" customHeight="1">
+      <c r="A160" s="6"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="6"/>
+      <c r="I160" s="6"/>
+      <c r="J160" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6140,113 +6266,113 @@
     <hyperlink ref="B46" r:id="rId44" location="" tooltip="" display="H220349M@hit.ac.zw"/>
     <hyperlink ref="B47" r:id="rId45" location="" tooltip="" display="H220045P@hit.ac.zw"/>
     <hyperlink ref="B48" r:id="rId46" location="" tooltip="" display="H220038B@hit.ac.zw"/>
-    <hyperlink ref="B49" r:id="rId47" location="" tooltip="" display="H220480A@hit.ac.zw"/>
-    <hyperlink ref="B50" r:id="rId48" location="" tooltip="" display="H220052N@hit.ac.zw"/>
-    <hyperlink ref="B51" r:id="rId49" location="" tooltip="" display="H220379X@hit.ac.zw"/>
-    <hyperlink ref="B52" r:id="rId50" location="" tooltip="" display="H220281P@hit.ac.zw"/>
-    <hyperlink ref="B53" r:id="rId51" location="" tooltip="" display="H220413B@hit.ac.zw"/>
-    <hyperlink ref="B54" r:id="rId52" location="" tooltip="" display="H220042V@hit.ac.zw"/>
-    <hyperlink ref="B55" r:id="rId53" location="" tooltip="" display="H220153W@hit.ac.zw"/>
-    <hyperlink ref="B56" r:id="rId54" location="" tooltip="" display="H220094W@hit.ac.zw"/>
-    <hyperlink ref="B57" r:id="rId55" location="" tooltip="" display="H220230R@hit.ac.zw"/>
-    <hyperlink ref="B58" r:id="rId56" location="" tooltip="" display="H220122N@hit.ac.zw"/>
-    <hyperlink ref="B59" r:id="rId57" location="" tooltip="" display="H220152Q@hit.ac.zw"/>
-    <hyperlink ref="B60" r:id="rId58" location="" tooltip="" display="H220585W@hit.ac.zw"/>
-    <hyperlink ref="B61" r:id="rId59" location="" tooltip="" display="H220047M@hit.ac.zw"/>
-    <hyperlink ref="B62" r:id="rId60" location="" tooltip="" display="H220483J@hit.ac.zw"/>
-    <hyperlink ref="B63" r:id="rId61" location="" tooltip="" display="H220015F@hit.ac.zw"/>
-    <hyperlink ref="B64" r:id="rId62" location="" tooltip="" display="H220184Z@hit.ac.zw"/>
-    <hyperlink ref="B65" r:id="rId63" location="" tooltip="" display="H220392X@hit.ac.zw"/>
-    <hyperlink ref="B66" r:id="rId64" location="" tooltip="" display="H220187N@hit.ac.zw"/>
-    <hyperlink ref="B67" r:id="rId65" location="" tooltip="" display="H220421Y@hit.ac.zw"/>
-    <hyperlink ref="B69" r:id="rId66" location="" tooltip="" display="h200799c@hit.ac.zw"/>
-    <hyperlink ref="B70" r:id="rId67" location="" tooltip="" display="H220211V@hit.ac.zw"/>
-    <hyperlink ref="B71" r:id="rId68" location="" tooltip="" display="H220623Z@hit.ac.zw"/>
-    <hyperlink ref="B72" r:id="rId69" location="" tooltip="" display="H220315H@hit.ac.zw"/>
-    <hyperlink ref="B73" r:id="rId70" location="" tooltip="" display="H220063V@hit.ac.zw"/>
-    <hyperlink ref="B74" r:id="rId71" location="" tooltip="" display="H220019B@hit.ac.zw"/>
-    <hyperlink ref="B75" r:id="rId72" location="" tooltip="" display="H220316P@hit.ac.zw"/>
-    <hyperlink ref="B76" r:id="rId73" location="" tooltip="" display="H220550G@hit.ac.zw"/>
-    <hyperlink ref="B77" r:id="rId74" location="" tooltip="" display="H220004A@hit.ac.zw"/>
-    <hyperlink ref="B78" r:id="rId75" location="" tooltip="" display="H220133W@hit.ac.zw"/>
-    <hyperlink ref="B79" r:id="rId76" location="" tooltip="" display="H220313E@hit.ac.zw"/>
-    <hyperlink ref="B80" r:id="rId77" location="" tooltip="" display="H220427Q@hit.ac.zw"/>
-    <hyperlink ref="B81" r:id="rId78" location="" tooltip="" display="H220070V@hit.ac.zw"/>
-    <hyperlink ref="B82" r:id="rId79" location="" tooltip="" display="H220325F@hit.ac.zw"/>
-    <hyperlink ref="B83" r:id="rId80" location="" tooltip="" display="H220478P@hit.ac.zw"/>
-    <hyperlink ref="B84" r:id="rId81" location="" tooltip="" display="H220260C@hit.ac.zw"/>
-    <hyperlink ref="B85" r:id="rId82" location="" tooltip="" display="h180617h@hit.ac.zw"/>
-    <hyperlink ref="B86" r:id="rId83" location="" tooltip="" display="H220624V@hit.ac.zw"/>
-    <hyperlink ref="B87" r:id="rId84" location="" tooltip="" display="H220231W@hit.ac.zw"/>
-    <hyperlink ref="B88" r:id="rId85" location="" tooltip="" display="H220503P@hit.ac.zw"/>
-    <hyperlink ref="B89" r:id="rId86" location="" tooltip="" display="H220130J@hit.ac.zw"/>
-    <hyperlink ref="B90" r:id="rId87" location="" tooltip="" display="H220086F@hit.ac.zw"/>
-    <hyperlink ref="B91" r:id="rId88" location="" tooltip="" display="H220010Q@hit.ac.zw"/>
-    <hyperlink ref="B92" r:id="rId89" location="" tooltip="" display="h180134p@hit.ac.zw"/>
-    <hyperlink ref="B93" r:id="rId90" location="" tooltip="" display="H220564G@hit.ac.zw"/>
-    <hyperlink ref="B94" r:id="rId91" location="" tooltip="" display="H220462G@hit.ac.zw"/>
-    <hyperlink ref="B95" r:id="rId92" location="" tooltip="" display="H220204H@hit.ac.zw"/>
-    <hyperlink ref="B96" r:id="rId93" location="" tooltip="" display="H220516A@hit.ac.zw"/>
-    <hyperlink ref="B97" r:id="rId94" location="" tooltip="" display="H220183B@hit.ac.zw"/>
-    <hyperlink ref="B98" r:id="rId95" location="" tooltip="" display="H220449Q@hit.ac.zw"/>
-    <hyperlink ref="B99" r:id="rId96" location="" tooltip="" display="H220273W@hit.ac.zw"/>
-    <hyperlink ref="B100" r:id="rId97" location="" tooltip="" display="H220087E@hit.ac.zw"/>
-    <hyperlink ref="B101" r:id="rId98" location="" tooltip="" display="H220033G@hit.ac.zw"/>
-    <hyperlink ref="B102" r:id="rId99" location="" tooltip="" display="H220269E@hit.ac.zw"/>
-    <hyperlink ref="B103" r:id="rId100" location="" tooltip="" display="H220595W@hit.ac.zw"/>
-    <hyperlink ref="B104" r:id="rId101" location="" tooltip="" display="H220591F@hit.ac.zw"/>
-    <hyperlink ref="B105" r:id="rId102" location="" tooltip="" display="H220221G@hit.ac.zw"/>
-    <hyperlink ref="B106" r:id="rId103" location="" tooltip="" display="H220242Z@hit.ac.zw"/>
-    <hyperlink ref="B107" r:id="rId104" location="" tooltip="" display="H220348B@hit.ac.zw"/>
-    <hyperlink ref="B108" r:id="rId105" location="" tooltip="" display="H220418Y@hit.ac.zw"/>
-    <hyperlink ref="B109" r:id="rId106" location="" tooltip="" display="H220450T@hit.ac.zw"/>
-    <hyperlink ref="B110" r:id="rId107" location="" tooltip="" display="H220333Q@hit.ac.zw"/>
-    <hyperlink ref="B111" r:id="rId108" location="" tooltip="" display="H220320J@hit.ac.zw"/>
-    <hyperlink ref="B112" r:id="rId109" location="" tooltip="" display="H220311Y@hit.ac.zw"/>
-    <hyperlink ref="B113" r:id="rId110" location="" tooltip="" display="H220138M@hit.ac.zw"/>
-    <hyperlink ref="B114" r:id="rId111" location="" tooltip="" display="h210574b@hit.ac.zw"/>
-    <hyperlink ref="B115" r:id="rId112" location="" tooltip="" display="H220197V@hit.ac.zw"/>
-    <hyperlink ref="B116" r:id="rId113" location="" tooltip="" display="H220247A@hit.ac.zw"/>
-    <hyperlink ref="B117" r:id="rId114" location="" tooltip="" display="H220432X@hit.ac.zw"/>
-    <hyperlink ref="B118" r:id="rId115" location="" tooltip="" display="H220223N@hit.ac.zw"/>
-    <hyperlink ref="B120" r:id="rId116" location="" tooltip="" display="H220272P@hit.ac.zw"/>
-    <hyperlink ref="B121" r:id="rId117" location="" tooltip="" display="H220615W@hit.ac.zw"/>
-    <hyperlink ref="B122" r:id="rId118" location="" tooltip="" display="H220196A@hit.ac.zw"/>
-    <hyperlink ref="B123" r:id="rId119" location="" tooltip="" display="h220535v@hit.ac.zw"/>
-    <hyperlink ref="B124" r:id="rId120" location="" tooltip="" display="h220688a@hit.ac.zw"/>
-    <hyperlink ref="B125" r:id="rId121" location="" tooltip="" display="H220026H@hit.ac.zw"/>
-    <hyperlink ref="B126" r:id="rId122" location="" tooltip="" display="H220533P@hit.ac.zw"/>
-    <hyperlink ref="B127" r:id="rId123" location="" tooltip="" display="H220435X@hit.ac.zw"/>
-    <hyperlink ref="B128" r:id="rId124" location="" tooltip="" display="H220225C@hit.ac.zw"/>
-    <hyperlink ref="B129" r:id="rId125" location="" tooltip="" display="H220198F@hit.ac.zw"/>
-    <hyperlink ref="B130" r:id="rId126" location="" tooltip="" display="H220290G@hit.ac.zw"/>
-    <hyperlink ref="B131" r:id="rId127" location="" tooltip="" display="H220147B@hit.ac.zw"/>
-    <hyperlink ref="B132" r:id="rId128" location="" tooltip="" display="H220076E@hit.ac.zw"/>
-    <hyperlink ref="B133" r:id="rId129" location="" tooltip="" display="H220129A@hit.ac.zw"/>
-    <hyperlink ref="B134" r:id="rId130" location="" tooltip="" display="H220243A@hit.ac.zw"/>
-    <hyperlink ref="B135" r:id="rId131" location="" tooltip="" display="H220554M@hit.ac.zw"/>
-    <hyperlink ref="B136" r:id="rId132" location="" tooltip="" display="H220415J@hit.ac.zw"/>
-    <hyperlink ref="B137" r:id="rId133" location="" tooltip="" display="H220439A@hit.ac.zw"/>
-    <hyperlink ref="B138" r:id="rId134" location="" tooltip="" display="H220390X@hit.ac.zw"/>
-    <hyperlink ref="B139" r:id="rId135" location="" tooltip="" display="H220536M@hit.ac.zw"/>
-    <hyperlink ref="B140" r:id="rId136" location="" tooltip="" display="H220189E@hit.ac.zw"/>
-    <hyperlink ref="B141" r:id="rId137" location="" tooltip="" display="H220146J@hit.ac.zw"/>
-    <hyperlink ref="B142" r:id="rId138" location="" tooltip="" display="H220179T@hit.ac.zw"/>
-    <hyperlink ref="B143" r:id="rId139" location="" tooltip="" display="H220057B@hit.ac.zw"/>
-    <hyperlink ref="B144" r:id="rId140" location="" tooltip="" display="H220586J@hit.ac.zw"/>
-    <hyperlink ref="B145" r:id="rId141" location="" tooltip="" display="H220417Y@hit.ac.zw"/>
-    <hyperlink ref="B146" r:id="rId142" location="" tooltip="" display="H220553G@hit.ac.zw"/>
-    <hyperlink ref="B147" r:id="rId143" location="" tooltip="" display="H220250Q@hit.ac.zw"/>
-    <hyperlink ref="B148" r:id="rId144" location="" tooltip="" display="H220652T@hit.ac.zw"/>
-    <hyperlink ref="B149" r:id="rId145" location="" tooltip="" display="H220426Q@hit.ac.zw"/>
-    <hyperlink ref="B150" r:id="rId146" location="" tooltip="" display="H220072Y@hit.ac.zw"/>
-    <hyperlink ref="B151" r:id="rId147" location="" tooltip="" display="H220028G@hit.ac.zw"/>
-    <hyperlink ref="B152" r:id="rId148" location="" tooltip="" display="H220081X@hit.ac.zw"/>
-    <hyperlink ref="B153" r:id="rId149" location="" tooltip="" display="h210371h@hit.ac.zw"/>
-    <hyperlink ref="B154" r:id="rId150" location="" tooltip="" display="H220105E@hit.ac.zw"/>
-    <hyperlink ref="B155" r:id="rId151" location="" tooltip="" display="H220215E@hit.ac.zw"/>
-    <hyperlink ref="B156" r:id="rId152" location="" tooltip="" display="H220537B@hit.ac.zw"/>
-    <hyperlink ref="B157" r:id="rId153" location="" tooltip="" display="H220411Q@hit.ac.zw"/>
+    <hyperlink ref="B50" r:id="rId47" location="" tooltip="" display="H220480A@hit.ac.zw"/>
+    <hyperlink ref="B51" r:id="rId48" location="" tooltip="" display="H220052N@hit.ac.zw"/>
+    <hyperlink ref="B52" r:id="rId49" location="" tooltip="" display="H220379X@hit.ac.zw"/>
+    <hyperlink ref="B53" r:id="rId50" location="" tooltip="" display="H220281P@hit.ac.zw"/>
+    <hyperlink ref="B54" r:id="rId51" location="" tooltip="" display="H220413B@hit.ac.zw"/>
+    <hyperlink ref="B55" r:id="rId52" location="" tooltip="" display="H220042V@hit.ac.zw"/>
+    <hyperlink ref="B56" r:id="rId53" location="" tooltip="" display="H220153W@hit.ac.zw"/>
+    <hyperlink ref="B57" r:id="rId54" location="" tooltip="" display="H220094W@hit.ac.zw"/>
+    <hyperlink ref="B58" r:id="rId55" location="" tooltip="" display="H220230R@hit.ac.zw"/>
+    <hyperlink ref="B59" r:id="rId56" location="" tooltip="" display="H220122N@hit.ac.zw"/>
+    <hyperlink ref="B60" r:id="rId57" location="" tooltip="" display="H220152Q@hit.ac.zw"/>
+    <hyperlink ref="B62" r:id="rId58" location="" tooltip="" display="H220585W@hit.ac.zw"/>
+    <hyperlink ref="B63" r:id="rId59" location="" tooltip="" display="H220047M@hit.ac.zw"/>
+    <hyperlink ref="B64" r:id="rId60" location="" tooltip="" display="H220483J@hit.ac.zw"/>
+    <hyperlink ref="B65" r:id="rId61" location="" tooltip="" display="H220015F@hit.ac.zw"/>
+    <hyperlink ref="B66" r:id="rId62" location="" tooltip="" display="H220184Z@hit.ac.zw"/>
+    <hyperlink ref="B67" r:id="rId63" location="" tooltip="" display="H220392X@hit.ac.zw"/>
+    <hyperlink ref="B68" r:id="rId64" location="" tooltip="" display="H220187N@hit.ac.zw"/>
+    <hyperlink ref="B69" r:id="rId65" location="" tooltip="" display="H220421Y@hit.ac.zw"/>
+    <hyperlink ref="B71" r:id="rId66" location="" tooltip="" display="h200799c@hit.ac.zw"/>
+    <hyperlink ref="B72" r:id="rId67" location="" tooltip="" display="H220211V@hit.ac.zw"/>
+    <hyperlink ref="B73" r:id="rId68" location="" tooltip="" display="H220623Z@hit.ac.zw"/>
+    <hyperlink ref="B74" r:id="rId69" location="" tooltip="" display="H220315H@hit.ac.zw"/>
+    <hyperlink ref="B75" r:id="rId70" location="" tooltip="" display="H220063V@hit.ac.zw"/>
+    <hyperlink ref="B76" r:id="rId71" location="" tooltip="" display="H220019B@hit.ac.zw"/>
+    <hyperlink ref="B77" r:id="rId72" location="" tooltip="" display="H220316P@hit.ac.zw"/>
+    <hyperlink ref="B78" r:id="rId73" location="" tooltip="" display="H220550G@hit.ac.zw"/>
+    <hyperlink ref="B79" r:id="rId74" location="" tooltip="" display="H220004A@hit.ac.zw"/>
+    <hyperlink ref="B80" r:id="rId75" location="" tooltip="" display="H220133W@hit.ac.zw"/>
+    <hyperlink ref="B81" r:id="rId76" location="" tooltip="" display="H220313E@hit.ac.zw"/>
+    <hyperlink ref="B82" r:id="rId77" location="" tooltip="" display="H220427Q@hit.ac.zw"/>
+    <hyperlink ref="B83" r:id="rId78" location="" tooltip="" display="H220070V@hit.ac.zw"/>
+    <hyperlink ref="B84" r:id="rId79" location="" tooltip="" display="H220325F@hit.ac.zw"/>
+    <hyperlink ref="B85" r:id="rId80" location="" tooltip="" display="H220478P@hit.ac.zw"/>
+    <hyperlink ref="B86" r:id="rId81" location="" tooltip="" display="H220260C@hit.ac.zw"/>
+    <hyperlink ref="B87" r:id="rId82" location="" tooltip="" display="h180617h@hit.ac.zw"/>
+    <hyperlink ref="B88" r:id="rId83" location="" tooltip="" display="H220624V@hit.ac.zw"/>
+    <hyperlink ref="B89" r:id="rId84" location="" tooltip="" display="H220231W@hit.ac.zw"/>
+    <hyperlink ref="B90" r:id="rId85" location="" tooltip="" display="H220503P@hit.ac.zw"/>
+    <hyperlink ref="B91" r:id="rId86" location="" tooltip="" display="H220130J@hit.ac.zw"/>
+    <hyperlink ref="B92" r:id="rId87" location="" tooltip="" display="H220086F@hit.ac.zw"/>
+    <hyperlink ref="B93" r:id="rId88" location="" tooltip="" display="H220010Q@hit.ac.zw"/>
+    <hyperlink ref="B94" r:id="rId89" location="" tooltip="" display="h180134p@hit.ac.zw"/>
+    <hyperlink ref="B95" r:id="rId90" location="" tooltip="" display="H220564G@hit.ac.zw"/>
+    <hyperlink ref="B96" r:id="rId91" location="" tooltip="" display="H220462G@hit.ac.zw"/>
+    <hyperlink ref="B97" r:id="rId92" location="" tooltip="" display="H220204H@hit.ac.zw"/>
+    <hyperlink ref="B98" r:id="rId93" location="" tooltip="" display="H220516A@hit.ac.zw"/>
+    <hyperlink ref="B99" r:id="rId94" location="" tooltip="" display="H220183B@hit.ac.zw"/>
+    <hyperlink ref="B100" r:id="rId95" location="" tooltip="" display="H220449Q@hit.ac.zw"/>
+    <hyperlink ref="B101" r:id="rId96" location="" tooltip="" display="H220273W@hit.ac.zw"/>
+    <hyperlink ref="B102" r:id="rId97" location="" tooltip="" display="H220087E@hit.ac.zw"/>
+    <hyperlink ref="B103" r:id="rId98" location="" tooltip="" display="H220033G@hit.ac.zw"/>
+    <hyperlink ref="B104" r:id="rId99" location="" tooltip="" display="H220269E@hit.ac.zw"/>
+    <hyperlink ref="B105" r:id="rId100" location="" tooltip="" display="H220595W@hit.ac.zw"/>
+    <hyperlink ref="B106" r:id="rId101" location="" tooltip="" display="H220591F@hit.ac.zw"/>
+    <hyperlink ref="B107" r:id="rId102" location="" tooltip="" display="H220221G@hit.ac.zw"/>
+    <hyperlink ref="B108" r:id="rId103" location="" tooltip="" display="H220242Z@hit.ac.zw"/>
+    <hyperlink ref="B109" r:id="rId104" location="" tooltip="" display="H220348B@hit.ac.zw"/>
+    <hyperlink ref="B110" r:id="rId105" location="" tooltip="" display="H220418Y@hit.ac.zw"/>
+    <hyperlink ref="B111" r:id="rId106" location="" tooltip="" display="H220450T@hit.ac.zw"/>
+    <hyperlink ref="B112" r:id="rId107" location="" tooltip="" display="H220333Q@hit.ac.zw"/>
+    <hyperlink ref="B113" r:id="rId108" location="" tooltip="" display="H220320J@hit.ac.zw"/>
+    <hyperlink ref="B114" r:id="rId109" location="" tooltip="" display="H220311Y@hit.ac.zw"/>
+    <hyperlink ref="B115" r:id="rId110" location="" tooltip="" display="H220138M@hit.ac.zw"/>
+    <hyperlink ref="B116" r:id="rId111" location="" tooltip="" display="h210574b@hit.ac.zw"/>
+    <hyperlink ref="B117" r:id="rId112" location="" tooltip="" display="H220197V@hit.ac.zw"/>
+    <hyperlink ref="B118" r:id="rId113" location="" tooltip="" display="H220247A@hit.ac.zw"/>
+    <hyperlink ref="B119" r:id="rId114" location="" tooltip="" display="H220432X@hit.ac.zw"/>
+    <hyperlink ref="B120" r:id="rId115" location="" tooltip="" display="H220223N@hit.ac.zw"/>
+    <hyperlink ref="B122" r:id="rId116" location="" tooltip="" display="H220272P@hit.ac.zw"/>
+    <hyperlink ref="B123" r:id="rId117" location="" tooltip="" display="H220615W@hit.ac.zw"/>
+    <hyperlink ref="B124" r:id="rId118" location="" tooltip="" display="H220196A@hit.ac.zw"/>
+    <hyperlink ref="B125" r:id="rId119" location="" tooltip="" display="h220535v@hit.ac.zw"/>
+    <hyperlink ref="B126" r:id="rId120" location="" tooltip="" display="h220688a@hit.ac.zw"/>
+    <hyperlink ref="B127" r:id="rId121" location="" tooltip="" display="H220026H@hit.ac.zw"/>
+    <hyperlink ref="B128" r:id="rId122" location="" tooltip="" display="H220533P@hit.ac.zw"/>
+    <hyperlink ref="B129" r:id="rId123" location="" tooltip="" display="H220435X@hit.ac.zw"/>
+    <hyperlink ref="B130" r:id="rId124" location="" tooltip="" display="H220225C@hit.ac.zw"/>
+    <hyperlink ref="B131" r:id="rId125" location="" tooltip="" display="H220198F@hit.ac.zw"/>
+    <hyperlink ref="B132" r:id="rId126" location="" tooltip="" display="H220290G@hit.ac.zw"/>
+    <hyperlink ref="B133" r:id="rId127" location="" tooltip="" display="H220147B@hit.ac.zw"/>
+    <hyperlink ref="B134" r:id="rId128" location="" tooltip="" display="H220076E@hit.ac.zw"/>
+    <hyperlink ref="B135" r:id="rId129" location="" tooltip="" display="H220129A@hit.ac.zw"/>
+    <hyperlink ref="B136" r:id="rId130" location="" tooltip="" display="H220243A@hit.ac.zw"/>
+    <hyperlink ref="B137" r:id="rId131" location="" tooltip="" display="H220554M@hit.ac.zw"/>
+    <hyperlink ref="B138" r:id="rId132" location="" tooltip="" display="H220415J@hit.ac.zw"/>
+    <hyperlink ref="B139" r:id="rId133" location="" tooltip="" display="H220439A@hit.ac.zw"/>
+    <hyperlink ref="B140" r:id="rId134" location="" tooltip="" display="H220390X@hit.ac.zw"/>
+    <hyperlink ref="B141" r:id="rId135" location="" tooltip="" display="H220536M@hit.ac.zw"/>
+    <hyperlink ref="B142" r:id="rId136" location="" tooltip="" display="H220189E@hit.ac.zw"/>
+    <hyperlink ref="B143" r:id="rId137" location="" tooltip="" display="H220146J@hit.ac.zw"/>
+    <hyperlink ref="B144" r:id="rId138" location="" tooltip="" display="H220179T@hit.ac.zw"/>
+    <hyperlink ref="B145" r:id="rId139" location="" tooltip="" display="H220057B@hit.ac.zw"/>
+    <hyperlink ref="B146" r:id="rId140" location="" tooltip="" display="H220586J@hit.ac.zw"/>
+    <hyperlink ref="B147" r:id="rId141" location="" tooltip="" display="H220417Y@hit.ac.zw"/>
+    <hyperlink ref="B148" r:id="rId142" location="" tooltip="" display="H220553G@hit.ac.zw"/>
+    <hyperlink ref="B149" r:id="rId143" location="" tooltip="" display="H220250Q@hit.ac.zw"/>
+    <hyperlink ref="B150" r:id="rId144" location="" tooltip="" display="H220652T@hit.ac.zw"/>
+    <hyperlink ref="B151" r:id="rId145" location="" tooltip="" display="H220426Q@hit.ac.zw"/>
+    <hyperlink ref="B152" r:id="rId146" location="" tooltip="" display="H220072Y@hit.ac.zw"/>
+    <hyperlink ref="B153" r:id="rId147" location="" tooltip="" display="H220028G@hit.ac.zw"/>
+    <hyperlink ref="B154" r:id="rId148" location="" tooltip="" display="H220081X@hit.ac.zw"/>
+    <hyperlink ref="B155" r:id="rId149" location="" tooltip="" display="h210371h@hit.ac.zw"/>
+    <hyperlink ref="B156" r:id="rId150" location="" tooltip="" display="H220105E@hit.ac.zw"/>
+    <hyperlink ref="B157" r:id="rId151" location="" tooltip="" display="H220215E@hit.ac.zw"/>
+    <hyperlink ref="B158" r:id="rId152" location="" tooltip="" display="H220537B@hit.ac.zw"/>
+    <hyperlink ref="B159" r:id="rId153" location="" tooltip="" display="H220411Q@hit.ac.zw"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/cw11042022.xlsx
+++ b/cw11042022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="330">
   <si>
     <t>Surname</t>
   </si>
@@ -57,6 +57,9 @@
     </r>
   </si>
   <si>
+    <t>ICS</t>
+  </si>
+  <si>
     <t>Bhero</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
     </r>
   </si>
   <si>
+    <t>ISA</t>
+  </si>
+  <si>
     <t>Buwerimwe</t>
   </si>
   <si>
@@ -267,9 +273,6 @@
     </r>
   </si>
   <si>
-    <t>ICS</t>
-  </si>
-  <si>
     <t>Chikukwa</t>
   </si>
   <si>
@@ -343,9 +346,6 @@
     </r>
   </si>
   <si>
-    <t>ISA</t>
-  </si>
-  <si>
     <t>Chinoda</t>
   </si>
   <si>
@@ -986,7 +986,7 @@
     <t>H220278F@hit.ac.zw</t>
   </si>
   <si>
-    <t>Mahosp</t>
+    <t>Mahoso</t>
   </si>
   <si>
     <r>
@@ -1401,6 +1401,12 @@
       </rPr>
       <t>H220449Q@hit.ac.zw</t>
     </r>
+  </si>
+  <si>
+    <t>Mudehwe</t>
+  </si>
+  <si>
+    <t>H220678Q</t>
   </si>
   <si>
     <t>Muduwa</t>
@@ -2319,7 +2325,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2332,16 +2338,19 @@
     <xf numFmtId="49" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="59" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="59" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -3481,2742 +3490,2844 @@
       <c r="B2" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="C2" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" ht="14.35" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="A3" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" ht="14.35" customHeight="1">
+      <c r="A4" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" ht="14.35" customHeight="1">
+      <c r="A5" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="B3" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" ht="14.35" customHeight="1">
-      <c r="A4" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" ht="14.35" customHeight="1">
-      <c r="A5" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="D5" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" ht="14.35" customHeight="1">
-      <c r="A6" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="A6" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" ht="14.35" customHeight="1">
-      <c r="A7" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="A7" t="s" s="6">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" ht="14.35" customHeight="1">
-      <c r="A8" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="A8" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s" s="6">
+        <v>25</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" ht="14.35" customHeight="1">
-      <c r="A9" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s" s="5">
-        <v>25</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="A9" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" ht="14.35" customHeight="1">
-      <c r="A10" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s" s="5">
-        <v>27</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="A10" t="s" s="6">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s" s="6">
+        <v>29</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" ht="14.35" customHeight="1">
-      <c r="A11" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="A11" t="s" s="6">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s" s="6">
+        <v>31</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" ht="14.35" customHeight="1">
-      <c r="A12" t="s" s="5">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="A12" t="s" s="6">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s" s="6">
+        <v>33</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" ht="14.35" customHeight="1">
-      <c r="A13" t="s" s="5">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s" s="5">
-        <v>33</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="A13" t="s" s="6">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s" s="6">
+        <v>35</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" ht="14.35" customHeight="1">
-      <c r="A14" t="s" s="5">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s" s="5">
-        <v>35</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="A14" t="s" s="6">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" ht="14.35" customHeight="1">
-      <c r="A15" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s" s="5">
-        <v>37</v>
-      </c>
-      <c r="C15" s="6"/>
+      <c r="A15" t="s" s="6">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s" s="6">
+        <v>39</v>
+      </c>
+      <c r="C15" s="8"/>
       <c r="D15" s="7">
         <v>0.75</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" ht="14.35" customHeight="1">
-      <c r="A16" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s" s="5">
-        <v>39</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="A16" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s" s="6">
+        <v>41</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" ht="14.35" customHeight="1">
-      <c r="A17" t="s" s="5">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s" s="5">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s" s="5">
+      <c r="A17" t="s" s="6">
         <v>42</v>
+      </c>
+      <c r="B17" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s" s="6">
+        <v>12</v>
       </c>
       <c r="D17" s="7">
         <v>0.788461538461538</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" ht="14.35" customHeight="1">
-      <c r="A18" t="s" s="5">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s" s="5">
+      <c r="A18" t="s" s="6">
         <v>44</v>
       </c>
-      <c r="C18" t="s" s="5">
+      <c r="B18" t="s" s="6">
         <v>45</v>
+      </c>
+      <c r="C18" t="s" s="6">
+        <v>46</v>
       </c>
       <c r="D18" s="7">
         <v>0.634615384615385</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" ht="14.35" customHeight="1">
-      <c r="A19" t="s" s="5">
+      <c r="A19" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s" s="6">
+        <v>48</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" ht="14.35" customHeight="1">
+      <c r="A20" t="s" s="6">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s" s="6">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s" s="6">
         <v>46</v>
-      </c>
-      <c r="B19" t="s" s="5">
-        <v>47</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" ht="14.35" customHeight="1">
-      <c r="A20" t="s" s="5">
-        <v>48</v>
-      </c>
-      <c r="B20" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="C20" t="s" s="5">
-        <v>45</v>
       </c>
       <c r="D20" s="7">
         <v>0.942307692307692</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" ht="14.35" customHeight="1">
-      <c r="A21" t="s" s="5">
-        <v>50</v>
-      </c>
-      <c r="B21" t="s" s="5">
+      <c r="A21" t="s" s="6">
         <v>51</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="B21" t="s" s="6">
+        <v>52</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" ht="14.35" customHeight="1">
-      <c r="A22" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="B22" t="s" s="5">
+      <c r="A22" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="C22" t="s" s="5">
+      <c r="B22" t="s" s="6">
         <v>54</v>
+      </c>
+      <c r="C22" t="s" s="6">
+        <v>15</v>
       </c>
       <c r="D22" s="7">
         <v>0.711538461538462</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" ht="14.35" customHeight="1">
-      <c r="A23" t="s" s="5">
+      <c r="A23" t="s" s="6">
         <v>55</v>
       </c>
-      <c r="B23" t="s" s="5">
+      <c r="B23" t="s" s="6">
         <v>56</v>
       </c>
-      <c r="C23" t="s" s="5">
-        <v>42</v>
+      <c r="C23" t="s" s="6">
+        <v>12</v>
       </c>
       <c r="D23" s="7">
         <v>0.903846153846154</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" ht="14.35" customHeight="1">
-      <c r="A24" t="s" s="5">
+      <c r="A24" t="s" s="6">
         <v>57</v>
       </c>
-      <c r="B24" t="s" s="5">
+      <c r="B24" t="s" s="6">
         <v>58</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" ht="14.35" customHeight="1">
-      <c r="A25" t="s" s="5">
+      <c r="A25" t="s" s="6">
         <v>59</v>
       </c>
-      <c r="B25" t="s" s="5">
+      <c r="B25" t="s" s="6">
         <v>60</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" ht="14.35" customHeight="1">
-      <c r="A26" t="s" s="5">
+      <c r="A26" t="s" s="6">
         <v>61</v>
       </c>
-      <c r="B26" t="s" s="5">
+      <c r="B26" t="s" s="6">
         <v>62</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" ht="14.35" customHeight="1">
-      <c r="A27" t="s" s="5">
+      <c r="A27" t="s" s="6">
         <v>63</v>
       </c>
-      <c r="B27" t="s" s="5">
+      <c r="B27" t="s" s="6">
         <v>64</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" ht="14.35" customHeight="1">
-      <c r="A28" t="s" s="5">
+      <c r="A28" t="s" s="6">
         <v>65</v>
       </c>
-      <c r="B28" t="s" s="5">
+      <c r="B28" t="s" s="6">
         <v>66</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" ht="14.35" customHeight="1">
-      <c r="A29" t="s" s="5">
+      <c r="A29" t="s" s="6">
         <v>67</v>
       </c>
-      <c r="B29" t="s" s="5">
+      <c r="B29" t="s" s="6">
         <v>68</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
     </row>
     <row r="30" ht="14.35" customHeight="1">
-      <c r="A30" t="s" s="5">
+      <c r="A30" t="s" s="6">
         <v>69</v>
       </c>
-      <c r="B30" t="s" s="5">
+      <c r="B30" t="s" s="6">
         <v>70</v>
       </c>
-      <c r="C30" t="s" s="5">
-        <v>45</v>
+      <c r="C30" t="s" s="6">
+        <v>46</v>
       </c>
       <c r="D30" s="7">
         <v>0.634615384615385</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
     </row>
     <row r="31" ht="14.35" customHeight="1">
-      <c r="A31" t="s" s="5">
+      <c r="A31" t="s" s="6">
         <v>71</v>
       </c>
-      <c r="B31" t="s" s="5">
+      <c r="B31" t="s" s="6">
         <v>72</v>
       </c>
-      <c r="C31" t="s" s="5">
-        <v>42</v>
+      <c r="C31" t="s" s="6">
+        <v>12</v>
       </c>
       <c r="D31" s="7">
         <v>0.692307692307692</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
     </row>
     <row r="32" ht="14.35" customHeight="1">
-      <c r="A32" t="s" s="5">
+      <c r="A32" t="s" s="6">
         <v>73</v>
       </c>
-      <c r="B32" t="s" s="5">
+      <c r="B32" t="s" s="6">
         <v>74</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" ht="14.35" customHeight="1">
-      <c r="A33" t="s" s="5">
+      <c r="A33" t="s" s="6">
         <v>73</v>
       </c>
-      <c r="B33" t="s" s="5">
+      <c r="B33" t="s" s="6">
         <v>75</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
     </row>
     <row r="34" ht="14.35" customHeight="1">
-      <c r="A34" t="s" s="5">
+      <c r="A34" t="s" s="6">
         <v>76</v>
       </c>
-      <c r="B34" t="s" s="5">
+      <c r="B34" t="s" s="6">
         <v>77</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
     </row>
     <row r="35" ht="14.35" customHeight="1">
-      <c r="A35" t="s" s="5">
+      <c r="A35" t="s" s="6">
         <v>78</v>
       </c>
-      <c r="B35" t="s" s="5">
+      <c r="B35" t="s" s="6">
         <v>79</v>
       </c>
-      <c r="C35" s="6"/>
+      <c r="C35" s="8"/>
       <c r="D35" s="7">
         <v>0.75</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
     </row>
     <row r="36" ht="14.35" customHeight="1">
-      <c r="A36" t="s" s="5">
+      <c r="A36" t="s" s="6">
         <v>80</v>
       </c>
-      <c r="B36" t="s" s="5">
+      <c r="B36" t="s" s="6">
         <v>81</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
+      <c r="C36" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
     </row>
     <row r="37" ht="14.35" customHeight="1">
-      <c r="A37" t="s" s="5">
+      <c r="A37" t="s" s="6">
         <v>82</v>
       </c>
-      <c r="B37" t="s" s="5">
+      <c r="B37" t="s" s="6">
         <v>83</v>
       </c>
-      <c r="C37" s="6"/>
+      <c r="C37" s="8"/>
       <c r="D37" s="7">
         <v>0.75</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
     </row>
     <row r="38" ht="14.35" customHeight="1">
-      <c r="A38" t="s" s="5">
+      <c r="A38" t="s" s="6">
         <v>84</v>
       </c>
-      <c r="B38" t="s" s="5">
+      <c r="B38" t="s" s="6">
         <v>85</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
     </row>
     <row r="39" ht="14.35" customHeight="1">
-      <c r="A39" t="s" s="5">
+      <c r="A39" t="s" s="6">
         <v>86</v>
       </c>
-      <c r="B39" t="s" s="5">
+      <c r="B39" t="s" s="6">
         <v>87</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
     </row>
     <row r="40" ht="14.35" customHeight="1">
-      <c r="A40" t="s" s="5">
+      <c r="A40" t="s" s="6">
         <v>88</v>
       </c>
-      <c r="B40" t="s" s="5">
+      <c r="B40" t="s" s="6">
         <v>89</v>
       </c>
-      <c r="C40" t="s" s="5">
+      <c r="C40" t="s" s="6">
         <v>90</v>
       </c>
       <c r="D40" s="7">
         <v>0.634615384615385</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
     </row>
     <row r="41" ht="14.35" customHeight="1">
-      <c r="A41" t="s" s="5">
+      <c r="A41" t="s" s="6">
         <v>91</v>
       </c>
-      <c r="B41" t="s" s="5">
+      <c r="B41" t="s" s="6">
         <v>92</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
     </row>
     <row r="42" ht="14.35" customHeight="1">
-      <c r="A42" t="s" s="5">
+      <c r="A42" t="s" s="6">
         <v>93</v>
       </c>
-      <c r="B42" t="s" s="5">
+      <c r="B42" t="s" s="6">
         <v>94</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
+      <c r="C42" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
     </row>
     <row r="43" ht="14.35" customHeight="1">
-      <c r="A43" t="s" s="5">
+      <c r="A43" t="s" s="6">
         <v>95</v>
       </c>
-      <c r="B43" t="s" s="5">
+      <c r="B43" t="s" s="6">
         <v>96</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
+      <c r="C43" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
     </row>
     <row r="44" ht="14.35" customHeight="1">
-      <c r="A44" t="s" s="5">
+      <c r="A44" t="s" s="6">
         <v>97</v>
       </c>
-      <c r="B44" t="s" s="5">
+      <c r="B44" t="s" s="6">
         <v>98</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
+      <c r="C44" t="s" s="6">
+        <v>90</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
     </row>
     <row r="45" ht="14.35" customHeight="1">
-      <c r="A45" t="s" s="5">
+      <c r="A45" t="s" s="6">
         <v>99</v>
       </c>
-      <c r="B45" t="s" s="5">
+      <c r="B45" t="s" s="6">
         <v>100</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="7">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
     </row>
     <row r="46" ht="14.35" customHeight="1">
-      <c r="A46" t="s" s="5">
+      <c r="A46" t="s" s="6">
         <v>101</v>
       </c>
-      <c r="B46" t="s" s="5">
+      <c r="B46" t="s" s="6">
         <v>102</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
+      <c r="C46" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
     </row>
     <row r="47" ht="14.35" customHeight="1">
-      <c r="A47" t="s" s="5">
+      <c r="A47" t="s" s="6">
         <v>103</v>
       </c>
-      <c r="B47" t="s" s="5">
+      <c r="B47" t="s" s="6">
         <v>104</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
     </row>
     <row r="48" ht="14.35" customHeight="1">
-      <c r="A48" t="s" s="5">
+      <c r="A48" t="s" s="6">
         <v>105</v>
       </c>
-      <c r="B48" t="s" s="5">
+      <c r="B48" t="s" s="6">
         <v>106</v>
       </c>
-      <c r="C48" t="s" s="5">
-        <v>45</v>
+      <c r="C48" t="s" s="6">
+        <v>46</v>
       </c>
       <c r="D48" s="7">
         <v>0.634615384615385</v>
       </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
     </row>
     <row r="49" ht="14.35" customHeight="1">
-      <c r="A49" t="s" s="5">
+      <c r="A49" t="s" s="6">
         <v>107</v>
       </c>
-      <c r="B49" t="s" s="5">
+      <c r="B49" t="s" s="6">
         <v>108</v>
       </c>
-      <c r="C49" t="s" s="5">
-        <v>54</v>
+      <c r="C49" t="s" s="6">
+        <v>15</v>
       </c>
       <c r="D49" s="7">
         <v>0.75</v>
       </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
     </row>
     <row r="50" ht="14.35" customHeight="1">
-      <c r="A50" t="s" s="5">
+      <c r="A50" t="s" s="6">
         <v>109</v>
       </c>
-      <c r="B50" t="s" s="5">
+      <c r="B50" t="s" s="6">
         <v>110</v>
       </c>
-      <c r="C50" t="s" s="5">
-        <v>45</v>
+      <c r="C50" t="s" s="6">
+        <v>46</v>
       </c>
       <c r="D50" s="7">
         <v>0.634615384615385</v>
       </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
     </row>
     <row r="51" ht="14.35" customHeight="1">
-      <c r="A51" t="s" s="5">
+      <c r="A51" t="s" s="6">
         <v>111</v>
       </c>
-      <c r="B51" t="s" s="5">
+      <c r="B51" t="s" s="6">
         <v>112</v>
       </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
     </row>
     <row r="52" ht="14.35" customHeight="1">
-      <c r="A52" t="s" s="5">
+      <c r="A52" t="s" s="6">
         <v>113</v>
       </c>
-      <c r="B52" t="s" s="5">
+      <c r="B52" t="s" s="6">
         <v>114</v>
       </c>
-      <c r="C52" t="s" s="5">
-        <v>42</v>
+      <c r="C52" t="s" s="6">
+        <v>12</v>
       </c>
       <c r="D52" s="7">
         <v>0.826923076923077</v>
       </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
     </row>
     <row r="53" ht="14.35" customHeight="1">
-      <c r="A53" t="s" s="5">
+      <c r="A53" t="s" s="6">
         <v>115</v>
       </c>
-      <c r="B53" t="s" s="5">
+      <c r="B53" t="s" s="6">
         <v>116</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
     </row>
     <row r="54" ht="14.35" customHeight="1">
-      <c r="A54" t="s" s="5">
+      <c r="A54" t="s" s="6">
         <v>117</v>
       </c>
-      <c r="B54" t="s" s="5">
+      <c r="B54" t="s" s="6">
         <v>118</v>
       </c>
-      <c r="C54" t="s" s="5">
-        <v>54</v>
+      <c r="C54" t="s" s="6">
+        <v>15</v>
       </c>
       <c r="D54" s="7">
         <v>0.711538461538462</v>
       </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
     </row>
     <row r="55" ht="14.35" customHeight="1">
-      <c r="A55" t="s" s="5">
+      <c r="A55" t="s" s="6">
         <v>119</v>
       </c>
-      <c r="B55" t="s" s="5">
+      <c r="B55" t="s" s="6">
         <v>120</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
     </row>
     <row r="56" ht="14.35" customHeight="1">
-      <c r="A56" t="s" s="5">
+      <c r="A56" t="s" s="6">
         <v>121</v>
       </c>
-      <c r="B56" t="s" s="5">
+      <c r="B56" t="s" s="6">
         <v>122</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
     </row>
     <row r="57" ht="14.35" customHeight="1">
-      <c r="A57" t="s" s="5">
+      <c r="A57" t="s" s="6">
         <v>123</v>
       </c>
-      <c r="B57" t="s" s="5">
+      <c r="B57" t="s" s="6">
         <v>124</v>
       </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
     </row>
     <row r="58" ht="14.35" customHeight="1">
-      <c r="A58" t="s" s="5">
+      <c r="A58" t="s" s="6">
         <v>125</v>
       </c>
-      <c r="B58" t="s" s="5">
+      <c r="B58" t="s" s="6">
         <v>126</v>
       </c>
-      <c r="C58" t="s" s="5">
-        <v>45</v>
+      <c r="C58" t="s" s="6">
+        <v>46</v>
       </c>
       <c r="D58" s="7">
         <v>0.634615384615385</v>
       </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
     </row>
     <row r="59" ht="14.35" customHeight="1">
-      <c r="A59" t="s" s="5">
+      <c r="A59" t="s" s="6">
         <v>127</v>
       </c>
-      <c r="B59" t="s" s="5">
+      <c r="B59" t="s" s="6">
         <v>128</v>
       </c>
-      <c r="C59" t="s" s="5">
-        <v>54</v>
+      <c r="C59" t="s" s="6">
+        <v>15</v>
       </c>
       <c r="D59" s="7">
         <v>0.75</v>
       </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
     </row>
     <row r="60" ht="14.35" customHeight="1">
-      <c r="A60" t="s" s="5">
+      <c r="A60" t="s" s="6">
         <v>129</v>
       </c>
-      <c r="B60" t="s" s="5">
+      <c r="B60" t="s" s="6">
         <v>130</v>
       </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
+      <c r="C60" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="D60" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
     </row>
     <row r="61" ht="14.35" customHeight="1">
-      <c r="A61" t="s" s="5">
+      <c r="A61" t="s" s="6">
         <v>131</v>
       </c>
-      <c r="B61" t="s" s="5">
+      <c r="B61" t="s" s="6">
         <v>132</v>
       </c>
-      <c r="C61" t="s" s="5">
-        <v>54</v>
+      <c r="C61" t="s" s="6">
+        <v>15</v>
       </c>
       <c r="D61" s="7">
         <v>0.75</v>
       </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
     </row>
     <row r="62" ht="14.35" customHeight="1">
-      <c r="A62" t="s" s="5">
+      <c r="A62" t="s" s="6">
         <v>133</v>
       </c>
-      <c r="B62" t="s" s="5">
+      <c r="B62" t="s" s="6">
         <v>134</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
     </row>
     <row r="63" ht="14.35" customHeight="1">
-      <c r="A63" t="s" s="5">
+      <c r="A63" t="s" s="6">
         <v>135</v>
       </c>
-      <c r="B63" t="s" s="5">
+      <c r="B63" t="s" s="6">
         <v>136</v>
       </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
     </row>
     <row r="64" ht="14.35" customHeight="1">
-      <c r="A64" t="s" s="5">
+      <c r="A64" t="s" s="6">
         <v>137</v>
       </c>
-      <c r="B64" t="s" s="5">
+      <c r="B64" t="s" s="6">
         <v>138</v>
       </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
+      <c r="C64" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D64" s="7">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
     </row>
     <row r="65" ht="14.35" customHeight="1">
-      <c r="A65" t="s" s="5">
+      <c r="A65" t="s" s="6">
         <v>139</v>
       </c>
-      <c r="B65" t="s" s="5">
+      <c r="B65" t="s" s="6">
         <v>140</v>
       </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
     </row>
     <row r="66" ht="14.35" customHeight="1">
-      <c r="A66" t="s" s="5">
+      <c r="A66" t="s" s="6">
         <v>141</v>
       </c>
-      <c r="B66" t="s" s="5">
+      <c r="B66" t="s" s="6">
         <v>142</v>
       </c>
-      <c r="C66" t="s" s="5">
-        <v>54</v>
+      <c r="C66" t="s" s="6">
+        <v>15</v>
       </c>
       <c r="D66" s="7">
         <v>0.75</v>
       </c>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
     </row>
     <row r="67" ht="14.35" customHeight="1">
-      <c r="A67" t="s" s="5">
+      <c r="A67" t="s" s="6">
         <v>143</v>
       </c>
-      <c r="B67" t="s" s="5">
+      <c r="B67" t="s" s="6">
         <v>144</v>
       </c>
-      <c r="C67" t="s" s="5">
-        <v>42</v>
+      <c r="C67" t="s" s="6">
+        <v>12</v>
       </c>
       <c r="D67" s="7">
         <v>0.826923076923077</v>
       </c>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
     </row>
     <row r="68" ht="14.35" customHeight="1">
-      <c r="A68" t="s" s="5">
+      <c r="A68" t="s" s="6">
         <v>145</v>
       </c>
-      <c r="B68" t="s" s="5">
+      <c r="B68" t="s" s="6">
         <v>146</v>
       </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
     </row>
     <row r="69" ht="14.35" customHeight="1">
-      <c r="A69" t="s" s="5">
+      <c r="A69" t="s" s="6">
         <v>147</v>
       </c>
-      <c r="B69" t="s" s="5">
+      <c r="B69" t="s" s="6">
         <v>148</v>
       </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
+      <c r="C69" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D69" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
     </row>
     <row r="70" ht="14.35" customHeight="1">
-      <c r="A70" t="s" s="5">
+      <c r="A70" t="s" s="6">
         <v>149</v>
       </c>
-      <c r="B70" t="s" s="5">
+      <c r="B70" t="s" s="6">
         <v>150</v>
       </c>
-      <c r="C70" t="s" s="5">
+      <c r="C70" t="s" s="6">
         <v>90</v>
       </c>
       <c r="D70" s="7">
         <v>0.942307692307692</v>
       </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
     </row>
     <row r="71" ht="14.35" customHeight="1">
-      <c r="A71" t="s" s="5">
+      <c r="A71" t="s" s="6">
         <v>151</v>
       </c>
-      <c r="B71" t="s" s="5">
+      <c r="B71" t="s" s="6">
         <v>152</v>
       </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
+      <c r="C71" t="s" s="6">
+        <v>90</v>
+      </c>
+      <c r="D71" s="7">
+        <v>0.807692307692308</v>
+      </c>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
     </row>
     <row r="72" ht="14.35" customHeight="1">
-      <c r="A72" t="s" s="5">
+      <c r="A72" t="s" s="6">
         <v>153</v>
       </c>
-      <c r="B72" t="s" s="5">
+      <c r="B72" t="s" s="6">
         <v>154</v>
       </c>
-      <c r="C72" t="s" s="5">
-        <v>45</v>
+      <c r="C72" t="s" s="6">
+        <v>46</v>
       </c>
       <c r="D72" s="7">
         <v>0.826923076923077</v>
       </c>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
     </row>
     <row r="73" ht="14.35" customHeight="1">
-      <c r="A73" t="s" s="5">
+      <c r="A73" t="s" s="6">
         <v>155</v>
       </c>
-      <c r="B73" t="s" s="5">
+      <c r="B73" t="s" s="6">
         <v>156</v>
       </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
     </row>
     <row r="74" ht="14.35" customHeight="1">
-      <c r="A74" t="s" s="5">
+      <c r="A74" t="s" s="6">
         <v>157</v>
       </c>
-      <c r="B74" t="s" s="5">
+      <c r="B74" t="s" s="6">
         <v>158</v>
       </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
     </row>
     <row r="75" ht="14.35" customHeight="1">
-      <c r="A75" t="s" s="5">
+      <c r="A75" t="s" s="6">
         <v>159</v>
       </c>
-      <c r="B75" t="s" s="5">
+      <c r="B75" t="s" s="6">
         <v>160</v>
       </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
     </row>
     <row r="76" ht="14.35" customHeight="1">
-      <c r="A76" t="s" s="5">
+      <c r="A76" t="s" s="6">
         <v>161</v>
       </c>
-      <c r="B76" t="s" s="5">
+      <c r="B76" t="s" s="6">
         <v>162</v>
       </c>
-      <c r="C76" t="s" s="5">
-        <v>45</v>
+      <c r="C76" t="s" s="6">
+        <v>46</v>
       </c>
       <c r="D76" s="7">
         <v>0.826923076923077</v>
       </c>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
     </row>
     <row r="77" ht="14.35" customHeight="1">
-      <c r="A77" t="s" s="5">
+      <c r="A77" t="s" s="6">
         <v>163</v>
       </c>
-      <c r="B77" t="s" s="5">
+      <c r="B77" t="s" s="6">
         <v>164</v>
       </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
     </row>
     <row r="78" ht="14.35" customHeight="1">
-      <c r="A78" t="s" s="5">
+      <c r="A78" t="s" s="6">
         <v>165</v>
       </c>
-      <c r="B78" t="s" s="5">
+      <c r="B78" t="s" s="6">
         <v>166</v>
       </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
+      <c r="C78" t="s" s="6">
+        <v>90</v>
+      </c>
+      <c r="D78" s="7">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
     </row>
     <row r="79" ht="14.35" customHeight="1">
-      <c r="A79" t="s" s="5">
+      <c r="A79" t="s" s="6">
         <v>167</v>
       </c>
-      <c r="B79" t="s" s="5">
+      <c r="B79" t="s" s="6">
         <v>168</v>
       </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
     </row>
     <row r="80" ht="14.35" customHeight="1">
-      <c r="A80" t="s" s="5">
+      <c r="A80" t="s" s="6">
         <v>169</v>
       </c>
-      <c r="B80" t="s" s="5">
+      <c r="B80" t="s" s="6">
         <v>170</v>
       </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
     </row>
     <row r="81" ht="14.35" customHeight="1">
-      <c r="A81" t="s" s="5">
+      <c r="A81" t="s" s="6">
         <v>171</v>
       </c>
-      <c r="B81" t="s" s="5">
+      <c r="B81" t="s" s="6">
         <v>172</v>
       </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
     </row>
     <row r="82" ht="14.35" customHeight="1">
-      <c r="A82" t="s" s="5">
+      <c r="A82" t="s" s="6">
         <v>173</v>
       </c>
-      <c r="B82" t="s" s="5">
+      <c r="B82" t="s" s="6">
         <v>174</v>
       </c>
-      <c r="C82" t="s" s="5">
-        <v>42</v>
+      <c r="C82" t="s" s="6">
+        <v>12</v>
       </c>
       <c r="D82" s="7">
         <v>0.788461538461538</v>
       </c>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
     </row>
     <row r="83" ht="14.35" customHeight="1">
-      <c r="A83" t="s" s="5">
+      <c r="A83" t="s" s="6">
         <v>175</v>
       </c>
-      <c r="B83" t="s" s="5">
+      <c r="B83" t="s" s="6">
         <v>176</v>
       </c>
-      <c r="C83" t="s" s="5">
-        <v>54</v>
+      <c r="C83" t="s" s="6">
+        <v>15</v>
       </c>
       <c r="D83" s="7">
         <v>0.75</v>
       </c>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
     </row>
     <row r="84" ht="14.35" customHeight="1">
-      <c r="A84" t="s" s="5">
+      <c r="A84" t="s" s="6">
         <v>177</v>
       </c>
-      <c r="B84" t="s" s="5">
+      <c r="B84" t="s" s="6">
         <v>178</v>
       </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
+      <c r="C84" t="s" s="6">
+        <v>90</v>
+      </c>
+      <c r="D84" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
     </row>
     <row r="85" ht="14.35" customHeight="1">
-      <c r="A85" t="s" s="5">
+      <c r="A85" t="s" s="6">
         <v>179</v>
       </c>
-      <c r="B85" t="s" s="5">
+      <c r="B85" t="s" s="6">
         <v>180</v>
       </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
+      <c r="C85" t="s" s="6">
+        <v>90</v>
+      </c>
+      <c r="D85" s="7">
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
     </row>
     <row r="86" ht="14.35" customHeight="1">
-      <c r="A86" t="s" s="5">
+      <c r="A86" t="s" s="6">
         <v>181</v>
       </c>
-      <c r="B86" t="s" s="5">
+      <c r="B86" t="s" s="6">
         <v>182</v>
       </c>
-      <c r="C86" s="6"/>
+      <c r="C86" s="8"/>
       <c r="D86" s="7">
         <v>0.75</v>
       </c>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
     </row>
     <row r="87" ht="14.35" customHeight="1">
-      <c r="A87" t="s" s="5">
+      <c r="A87" t="s" s="6">
         <v>181</v>
       </c>
-      <c r="B87" t="s" s="5">
+      <c r="B87" t="s" s="6">
         <v>183</v>
       </c>
-      <c r="C87" t="s" s="5">
-        <v>42</v>
+      <c r="C87" t="s" s="6">
+        <v>12</v>
       </c>
       <c r="D87" s="7">
         <v>0.634615384615385</v>
       </c>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
     </row>
     <row r="88" ht="14.35" customHeight="1">
-      <c r="A88" t="s" s="5">
+      <c r="A88" t="s" s="6">
         <v>184</v>
       </c>
-      <c r="B88" t="s" s="5">
+      <c r="B88" t="s" s="6">
         <v>185</v>
       </c>
-      <c r="C88" t="s" s="5">
+      <c r="C88" t="s" s="6">
         <v>90</v>
       </c>
       <c r="D88" s="7">
         <v>0.942307692307692</v>
       </c>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
     </row>
     <row r="89" ht="14.35" customHeight="1">
-      <c r="A89" t="s" s="5">
+      <c r="A89" t="s" s="6">
         <v>186</v>
       </c>
-      <c r="B89" t="s" s="5">
+      <c r="B89" t="s" s="6">
         <v>187</v>
       </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
     </row>
     <row r="90" ht="14.35" customHeight="1">
-      <c r="A90" t="s" s="5">
+      <c r="A90" t="s" s="6">
         <v>188</v>
       </c>
-      <c r="B90" t="s" s="5">
+      <c r="B90" t="s" s="6">
         <v>189</v>
       </c>
-      <c r="C90" t="s" s="5">
-        <v>45</v>
+      <c r="C90" t="s" s="6">
+        <v>46</v>
       </c>
       <c r="D90" s="7">
         <v>0.634615384615385</v>
       </c>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
     </row>
     <row r="91" ht="14.35" customHeight="1">
-      <c r="A91" t="s" s="5">
+      <c r="A91" t="s" s="6">
         <v>190</v>
       </c>
-      <c r="B91" t="s" s="5">
+      <c r="B91" t="s" s="6">
         <v>191</v>
       </c>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
+      <c r="C91" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="D91" s="7">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
     </row>
     <row r="92" ht="14.35" customHeight="1">
-      <c r="A92" t="s" s="5">
+      <c r="A92" t="s" s="6">
         <v>192</v>
       </c>
-      <c r="B92" t="s" s="5">
+      <c r="B92" t="s" s="6">
         <v>193</v>
       </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
     </row>
     <row r="93" ht="14.35" customHeight="1">
-      <c r="A93" t="s" s="5">
+      <c r="A93" t="s" s="6">
         <v>194</v>
       </c>
-      <c r="B93" t="s" s="5">
+      <c r="B93" t="s" s="6">
         <v>195</v>
       </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
     </row>
     <row r="94" ht="14.35" customHeight="1">
-      <c r="A94" t="s" s="5">
+      <c r="A94" t="s" s="6">
         <v>196</v>
       </c>
-      <c r="B94" t="s" s="5">
+      <c r="B94" t="s" s="6">
         <v>197</v>
       </c>
-      <c r="C94" t="s" s="5">
-        <v>54</v>
+      <c r="C94" t="s" s="6">
+        <v>15</v>
       </c>
       <c r="D94" s="7">
         <v>0.442307692307692</v>
       </c>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
     </row>
     <row r="95" ht="14.35" customHeight="1">
-      <c r="A95" t="s" s="5">
+      <c r="A95" t="s" s="6">
         <v>198</v>
       </c>
-      <c r="B95" t="s" s="5">
+      <c r="B95" t="s" s="6">
         <v>199</v>
       </c>
-      <c r="C95" t="s" s="5">
-        <v>54</v>
+      <c r="C95" t="s" s="6">
+        <v>15</v>
       </c>
       <c r="D95" s="7">
         <v>0.711538461538462</v>
       </c>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
     </row>
     <row r="96" ht="14.35" customHeight="1">
-      <c r="A96" t="s" s="5">
+      <c r="A96" t="s" s="6">
         <v>200</v>
       </c>
-      <c r="B96" t="s" s="5">
+      <c r="B96" t="s" s="6">
         <v>201</v>
       </c>
-      <c r="C96" t="s" s="5">
-        <v>45</v>
+      <c r="C96" t="s" s="6">
+        <v>46</v>
       </c>
       <c r="D96" s="7">
         <v>0.903846153846154</v>
       </c>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
     </row>
     <row r="97" ht="14.35" customHeight="1">
-      <c r="A97" t="s" s="5">
+      <c r="A97" t="s" s="6">
         <v>202</v>
       </c>
-      <c r="B97" t="s" s="5">
+      <c r="B97" t="s" s="6">
         <v>203</v>
       </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
     </row>
     <row r="98" ht="14.35" customHeight="1">
-      <c r="A98" t="s" s="5">
+      <c r="A98" t="s" s="6">
         <v>204</v>
       </c>
-      <c r="B98" t="s" s="5">
+      <c r="B98" t="s" s="6">
         <v>205</v>
       </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
     </row>
     <row r="99" ht="14.35" customHeight="1">
-      <c r="A99" t="s" s="5">
+      <c r="A99" t="s" s="6">
         <v>206</v>
       </c>
-      <c r="B99" t="s" s="5">
+      <c r="B99" t="s" s="6">
         <v>207</v>
       </c>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
     </row>
     <row r="100" ht="14.35" customHeight="1">
-      <c r="A100" t="s" s="5">
+      <c r="A100" t="s" s="6">
         <v>208</v>
       </c>
-      <c r="B100" t="s" s="5">
+      <c r="B100" t="s" s="6">
         <v>209</v>
       </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
     </row>
     <row r="101" ht="14.35" customHeight="1">
-      <c r="A101" t="s" s="5">
+      <c r="A101" t="s" s="6">
         <v>210</v>
       </c>
-      <c r="B101" t="s" s="5">
+      <c r="B101" t="s" s="6">
         <v>211</v>
       </c>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
+      <c r="C101" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D101" s="7">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
     </row>
     <row r="102" ht="14.35" customHeight="1">
-      <c r="A102" t="s" s="5">
+      <c r="A102" t="s" s="6">
         <v>212</v>
       </c>
-      <c r="B102" t="s" s="5">
+      <c r="B102" t="s" s="6">
         <v>213</v>
       </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
     </row>
     <row r="103" ht="14.35" customHeight="1">
-      <c r="A103" t="s" s="5">
+      <c r="A103" t="s" s="6">
         <v>214</v>
       </c>
-      <c r="B103" t="s" s="5">
+      <c r="B103" t="s" s="6">
         <v>215</v>
       </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
     </row>
     <row r="104" ht="14.35" customHeight="1">
-      <c r="A104" t="s" s="5">
+      <c r="A104" t="s" s="6">
         <v>216</v>
       </c>
-      <c r="B104" t="s" s="5">
+      <c r="B104" t="s" s="6">
         <v>217</v>
       </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
     </row>
     <row r="105" ht="14.35" customHeight="1">
-      <c r="A105" t="s" s="5">
+      <c r="A105" t="s" s="6">
         <v>218</v>
       </c>
-      <c r="B105" t="s" s="5">
+      <c r="B105" t="s" s="6">
         <v>219</v>
       </c>
-      <c r="C105" t="s" s="5">
-        <v>45</v>
-      </c>
-      <c r="D105" s="7">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
     </row>
     <row r="106" ht="14.35" customHeight="1">
-      <c r="A106" t="s" s="5">
+      <c r="A106" t="s" s="6">
         <v>220</v>
       </c>
-      <c r="B106" t="s" s="5">
+      <c r="B106" t="s" s="6">
         <v>221</v>
       </c>
-      <c r="C106" t="s" s="5">
-        <v>90</v>
+      <c r="C106" t="s" s="6">
+        <v>46</v>
       </c>
       <c r="D106" s="7">
         <v>0.634615384615385</v>
       </c>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
     </row>
     <row r="107" ht="14.35" customHeight="1">
-      <c r="A107" t="s" s="5">
+      <c r="A107" t="s" s="6">
         <v>222</v>
       </c>
-      <c r="B107" t="s" s="5">
+      <c r="B107" t="s" s="6">
         <v>223</v>
       </c>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
+      <c r="C107" t="s" s="6">
+        <v>90</v>
+      </c>
+      <c r="D107" s="7">
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
     </row>
     <row r="108" ht="14.35" customHeight="1">
-      <c r="A108" t="s" s="5">
+      <c r="A108" t="s" s="6">
         <v>224</v>
       </c>
-      <c r="B108" t="s" s="5">
+      <c r="B108" t="s" s="6">
         <v>225</v>
       </c>
-      <c r="C108" t="s" s="5">
-        <v>45</v>
-      </c>
+      <c r="C108" s="8"/>
       <c r="D108" s="7">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+    </row>
+    <row r="109" ht="14.35" customHeight="1">
+      <c r="A109" t="s" s="6">
+        <v>226</v>
+      </c>
+      <c r="B109" t="s" s="6">
+        <v>227</v>
+      </c>
+      <c r="C109" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="D109" s="7">
         <v>0.903846153846154</v>
       </c>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="6"/>
-    </row>
-    <row r="109" ht="14.35" customHeight="1">
-      <c r="A109" t="s" s="5">
-        <v>226</v>
-      </c>
-      <c r="B109" t="s" s="5">
-        <v>227</v>
-      </c>
-      <c r="C109" t="s" s="5">
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+    </row>
+    <row r="110" ht="14.35" customHeight="1">
+      <c r="A110" t="s" s="6">
+        <v>228</v>
+      </c>
+      <c r="B110" t="s" s="6">
+        <v>229</v>
+      </c>
+      <c r="C110" t="s" s="6">
         <v>90</v>
       </c>
-      <c r="D109" s="7">
+      <c r="D110" s="7">
         <v>0.942307692307692</v>
       </c>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
-    </row>
-    <row r="110" ht="14.35" customHeight="1">
-      <c r="A110" t="s" s="5">
-        <v>228</v>
-      </c>
-      <c r="B110" t="s" s="5">
-        <v>229</v>
-      </c>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="6"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
     </row>
     <row r="111" ht="14.35" customHeight="1">
-      <c r="A111" t="s" s="5">
+      <c r="A111" t="s" s="6">
         <v>230</v>
       </c>
-      <c r="B111" t="s" s="5">
+      <c r="B111" t="s" s="6">
         <v>231</v>
       </c>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="6"/>
+      <c r="C111" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D111" s="7">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
     </row>
     <row r="112" ht="14.35" customHeight="1">
-      <c r="A112" t="s" s="5">
+      <c r="A112" t="s" s="6">
         <v>232</v>
       </c>
-      <c r="B112" t="s" s="5">
+      <c r="B112" t="s" s="6">
         <v>233</v>
       </c>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="6"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
     </row>
     <row r="113" ht="14.35" customHeight="1">
-      <c r="A113" t="s" s="5">
+      <c r="A113" t="s" s="6">
         <v>234</v>
       </c>
-      <c r="B113" t="s" s="5">
+      <c r="B113" t="s" s="6">
         <v>235</v>
       </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="6"/>
-      <c r="J113" s="6"/>
-    </row>
-    <row r="114" ht="28.35" customHeight="1">
-      <c r="A114" t="s" s="5">
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+    </row>
+    <row r="114" ht="14.35" customHeight="1">
+      <c r="A114" t="s" s="6">
         <v>236</v>
       </c>
-      <c r="B114" t="s" s="5">
+      <c r="B114" t="s" s="6">
         <v>237</v>
       </c>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
-      <c r="I114" s="6"/>
-      <c r="J114" s="6"/>
-    </row>
-    <row r="115" ht="14.35" customHeight="1">
-      <c r="A115" t="s" s="5">
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+    </row>
+    <row r="115" ht="28.35" customHeight="1">
+      <c r="A115" t="s" s="6">
         <v>238</v>
       </c>
-      <c r="B115" t="s" s="5">
+      <c r="B115" t="s" s="6">
         <v>239</v>
       </c>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
-      <c r="I115" s="6"/>
-      <c r="J115" s="6"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
     </row>
     <row r="116" ht="14.35" customHeight="1">
-      <c r="A116" t="s" s="5">
+      <c r="A116" t="s" s="6">
         <v>240</v>
       </c>
-      <c r="B116" t="s" s="5">
+      <c r="B116" t="s" s="6">
         <v>241</v>
       </c>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="6"/>
-      <c r="I116" s="6"/>
-      <c r="J116" s="6"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
     </row>
     <row r="117" ht="14.35" customHeight="1">
-      <c r="A117" t="s" s="5">
+      <c r="A117" t="s" s="6">
         <v>242</v>
       </c>
-      <c r="B117" t="s" s="5">
+      <c r="B117" t="s" s="6">
         <v>243</v>
       </c>
-      <c r="C117" t="s" s="5">
-        <v>42</v>
-      </c>
+      <c r="C117" s="8"/>
       <c r="D117" s="7">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+    </row>
+    <row r="118" ht="14.35" customHeight="1">
+      <c r="A118" t="s" s="6">
+        <v>244</v>
+      </c>
+      <c r="B118" t="s" s="6">
+        <v>245</v>
+      </c>
+      <c r="C118" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D118" s="7">
         <v>0.788461538461538</v>
       </c>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
-      <c r="I117" s="6"/>
-      <c r="J117" s="6"/>
-    </row>
-    <row r="118" ht="14.35" customHeight="1">
-      <c r="A118" t="s" s="5">
-        <v>244</v>
-      </c>
-      <c r="B118" t="s" s="5">
-        <v>245</v>
-      </c>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
-      <c r="I118" s="6"/>
-      <c r="J118" s="6"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
     </row>
     <row r="119" ht="14.35" customHeight="1">
-      <c r="A119" t="s" s="5">
+      <c r="A119" t="s" s="6">
         <v>246</v>
       </c>
-      <c r="B119" t="s" s="5">
+      <c r="B119" t="s" s="6">
         <v>247</v>
       </c>
-      <c r="C119" t="s" s="5">
-        <v>45</v>
+      <c r="C119" t="s" s="6">
+        <v>12</v>
       </c>
       <c r="D119" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+    </row>
+    <row r="120" ht="14.35" customHeight="1">
+      <c r="A120" t="s" s="6">
+        <v>248</v>
+      </c>
+      <c r="B120" t="s" s="6">
+        <v>249</v>
+      </c>
+      <c r="C120" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="D120" s="7">
         <v>0.634615384615385</v>
       </c>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="6"/>
-      <c r="J119" s="6"/>
-    </row>
-    <row r="120" ht="14.35" customHeight="1">
-      <c r="A120" t="s" s="5">
-        <v>248</v>
-      </c>
-      <c r="B120" t="s" s="5">
-        <v>249</v>
-      </c>
-      <c r="C120" t="s" s="5">
-        <v>54</v>
-      </c>
-      <c r="D120" s="7">
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
+    </row>
+    <row r="121" ht="14.35" customHeight="1">
+      <c r="A121" t="s" s="6">
+        <v>250</v>
+      </c>
+      <c r="B121" t="s" s="6">
+        <v>251</v>
+      </c>
+      <c r="C121" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D121" s="7">
         <v>0.903846153846154</v>
       </c>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
-      <c r="I120" s="6"/>
-      <c r="J120" s="6"/>
-    </row>
-    <row r="121" ht="14.35" customHeight="1">
-      <c r="A121" t="s" s="5">
-        <v>250</v>
-      </c>
-      <c r="B121" t="s" s="5">
-        <v>251</v>
-      </c>
-      <c r="C121" t="s" s="5">
-        <v>42</v>
-      </c>
-      <c r="D121" s="7">
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+    </row>
+    <row r="122" ht="14.35" customHeight="1">
+      <c r="A122" t="s" s="6">
+        <v>252</v>
+      </c>
+      <c r="B122" t="s" s="6">
+        <v>253</v>
+      </c>
+      <c r="C122" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D122" s="7">
         <v>0.788461538461538</v>
       </c>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
-      <c r="I121" s="6"/>
-      <c r="J121" s="6"/>
-    </row>
-    <row r="122" ht="14.35" customHeight="1">
-      <c r="A122" t="s" s="5">
-        <v>252</v>
-      </c>
-      <c r="B122" t="s" s="5">
-        <v>253</v>
-      </c>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
-      <c r="I122" s="6"/>
-      <c r="J122" s="6"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
     </row>
     <row r="123" ht="14.35" customHeight="1">
-      <c r="A123" t="s" s="5">
+      <c r="A123" t="s" s="6">
         <v>254</v>
       </c>
-      <c r="B123" t="s" s="5">
+      <c r="B123" t="s" s="6">
         <v>255</v>
       </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="6"/>
-      <c r="J123" s="6"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
     </row>
     <row r="124" ht="14.35" customHeight="1">
-      <c r="A124" t="s" s="5">
+      <c r="A124" t="s" s="6">
         <v>256</v>
       </c>
-      <c r="B124" t="s" s="5">
+      <c r="B124" t="s" s="6">
         <v>257</v>
       </c>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
-      <c r="I124" s="6"/>
-      <c r="J124" s="6"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
     </row>
     <row r="125" ht="14.35" customHeight="1">
-      <c r="A125" t="s" s="5">
+      <c r="A125" t="s" s="6">
         <v>258</v>
       </c>
-      <c r="B125" t="s" s="5">
+      <c r="B125" t="s" s="6">
         <v>259</v>
       </c>
-      <c r="C125" t="s" s="5">
-        <v>45</v>
-      </c>
-      <c r="D125" s="7">
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
+    </row>
+    <row r="126" ht="14.35" customHeight="1">
+      <c r="A126" t="s" s="6">
+        <v>260</v>
+      </c>
+      <c r="B126" t="s" s="6">
+        <v>261</v>
+      </c>
+      <c r="C126" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="D126" s="7">
         <v>0.903846153846154</v>
       </c>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
-      <c r="I125" s="6"/>
-      <c r="J125" s="6"/>
-    </row>
-    <row r="126" ht="14.35" customHeight="1">
-      <c r="A126" t="s" s="5">
-        <v>260</v>
-      </c>
-      <c r="B126" t="s" s="5">
-        <v>261</v>
-      </c>
-      <c r="C126" t="s" s="5">
-        <v>54</v>
-      </c>
-      <c r="D126" s="7">
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
+    </row>
+    <row r="127" ht="14.35" customHeight="1">
+      <c r="A127" t="s" s="6">
+        <v>262</v>
+      </c>
+      <c r="B127" t="s" s="6">
+        <v>263</v>
+      </c>
+      <c r="C127" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D127" s="7">
         <v>0.711538461538462</v>
       </c>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6"/>
-      <c r="J126" s="6"/>
-    </row>
-    <row r="127" ht="14.35" customHeight="1">
-      <c r="A127" t="s" s="5">
-        <v>262</v>
-      </c>
-      <c r="B127" t="s" s="5">
-        <v>263</v>
-      </c>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
-      <c r="I127" s="6"/>
-      <c r="J127" s="6"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
     </row>
     <row r="128" ht="14.35" customHeight="1">
-      <c r="A128" t="s" s="5">
+      <c r="A128" t="s" s="6">
         <v>264</v>
       </c>
-      <c r="B128" t="s" s="5">
+      <c r="B128" t="s" s="6">
         <v>265</v>
       </c>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
-      <c r="F128" s="6"/>
-      <c r="G128" s="6"/>
-      <c r="H128" s="6"/>
-      <c r="I128" s="6"/>
-      <c r="J128" s="6"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
     </row>
     <row r="129" ht="14.35" customHeight="1">
-      <c r="A129" t="s" s="5">
+      <c r="A129" t="s" s="6">
         <v>266</v>
       </c>
-      <c r="B129" t="s" s="5">
+      <c r="B129" t="s" s="6">
         <v>267</v>
       </c>
-      <c r="C129" t="s" s="5">
-        <v>45</v>
-      </c>
-      <c r="D129" s="7">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="E129" s="6"/>
-      <c r="F129" s="6"/>
-      <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
-      <c r="I129" s="6"/>
-      <c r="J129" s="6"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="8"/>
+      <c r="J129" s="8"/>
     </row>
     <row r="130" ht="14.35" customHeight="1">
-      <c r="A130" t="s" s="5">
+      <c r="A130" t="s" s="6">
         <v>268</v>
       </c>
-      <c r="B130" t="s" s="5">
+      <c r="B130" t="s" s="6">
         <v>269</v>
       </c>
-      <c r="C130" t="s" s="5">
-        <v>90</v>
+      <c r="C130" t="s" s="6">
+        <v>46</v>
       </c>
       <c r="D130" s="7">
         <v>0.634615384615385</v>
       </c>
-      <c r="E130" s="6"/>
-      <c r="F130" s="6"/>
-      <c r="G130" s="6"/>
-      <c r="H130" s="6"/>
-      <c r="I130" s="6"/>
-      <c r="J130" s="6"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="8"/>
+      <c r="J130" s="8"/>
     </row>
     <row r="131" ht="14.35" customHeight="1">
-      <c r="A131" t="s" s="5">
+      <c r="A131" t="s" s="6">
         <v>270</v>
       </c>
-      <c r="B131" t="s" s="5">
+      <c r="B131" t="s" s="6">
         <v>271</v>
       </c>
-      <c r="C131" t="s" s="5">
-        <v>45</v>
+      <c r="C131" t="s" s="6">
+        <v>90</v>
       </c>
       <c r="D131" s="7">
         <v>0.634615384615385</v>
       </c>
-      <c r="E131" s="6"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
-      <c r="I131" s="6"/>
-      <c r="J131" s="6"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="8"/>
+      <c r="J131" s="8"/>
     </row>
     <row r="132" ht="14.35" customHeight="1">
-      <c r="A132" t="s" s="5">
+      <c r="A132" t="s" s="6">
         <v>272</v>
       </c>
-      <c r="B132" t="s" s="5">
+      <c r="B132" t="s" s="6">
         <v>273</v>
       </c>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
-      <c r="H132" s="6"/>
-      <c r="I132" s="6"/>
-      <c r="J132" s="6"/>
+      <c r="C132" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="D132" s="7">
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
     </row>
     <row r="133" ht="14.35" customHeight="1">
-      <c r="A133" t="s" s="5">
+      <c r="A133" t="s" s="6">
         <v>274</v>
       </c>
-      <c r="B133" t="s" s="5">
+      <c r="B133" t="s" s="6">
         <v>275</v>
       </c>
-      <c r="C133" t="s" s="5">
-        <v>54</v>
-      </c>
-      <c r="D133" s="7">
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
+      <c r="J133" s="8"/>
+    </row>
+    <row r="134" ht="14.35" customHeight="1">
+      <c r="A134" t="s" s="6">
+        <v>276</v>
+      </c>
+      <c r="B134" t="s" s="6">
+        <v>277</v>
+      </c>
+      <c r="C134" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D134" s="7">
         <v>0.75</v>
       </c>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
-      <c r="H133" s="6"/>
-      <c r="I133" s="6"/>
-      <c r="J133" s="6"/>
-    </row>
-    <row r="134" ht="14.35" customHeight="1">
-      <c r="A134" t="s" s="5">
-        <v>276</v>
-      </c>
-      <c r="B134" t="s" s="5">
-        <v>277</v>
-      </c>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="6"/>
-      <c r="G134" s="6"/>
-      <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
-      <c r="J134" s="6"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
     </row>
     <row r="135" ht="14.35" customHeight="1">
-      <c r="A135" t="s" s="5">
+      <c r="A135" t="s" s="6">
         <v>278</v>
       </c>
-      <c r="B135" t="s" s="5">
+      <c r="B135" t="s" s="6">
         <v>279</v>
       </c>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
-      <c r="I135" s="6"/>
-      <c r="J135" s="6"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8"/>
+      <c r="J135" s="8"/>
     </row>
     <row r="136" ht="14.35" customHeight="1">
-      <c r="A136" t="s" s="5">
+      <c r="A136" t="s" s="6">
         <v>280</v>
       </c>
-      <c r="B136" t="s" s="5">
+      <c r="B136" t="s" s="6">
         <v>281</v>
       </c>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
-      <c r="H136" s="6"/>
-      <c r="I136" s="6"/>
-      <c r="J136" s="6"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
     </row>
     <row r="137" ht="14.35" customHeight="1">
-      <c r="A137" t="s" s="5">
+      <c r="A137" t="s" s="6">
         <v>282</v>
       </c>
-      <c r="B137" t="s" s="5">
+      <c r="B137" t="s" s="6">
         <v>283</v>
       </c>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6"/>
-      <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
-      <c r="I137" s="6"/>
-      <c r="J137" s="6"/>
+      <c r="C137" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D137" s="7">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
+      <c r="J137" s="8"/>
     </row>
     <row r="138" ht="14.35" customHeight="1">
-      <c r="A138" t="s" s="5">
+      <c r="A138" t="s" s="6">
         <v>284</v>
       </c>
-      <c r="B138" t="s" s="5">
+      <c r="B138" t="s" s="6">
         <v>285</v>
       </c>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6"/>
-      <c r="G138" s="6"/>
-      <c r="H138" s="6"/>
-      <c r="I138" s="6"/>
-      <c r="J138" s="6"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="8"/>
+      <c r="J138" s="8"/>
     </row>
     <row r="139" ht="14.35" customHeight="1">
-      <c r="A139" t="s" s="5">
+      <c r="A139" t="s" s="6">
         <v>286</v>
       </c>
-      <c r="B139" t="s" s="5">
+      <c r="B139" t="s" s="6">
         <v>287</v>
       </c>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
-      <c r="H139" s="6"/>
-      <c r="I139" s="6"/>
-      <c r="J139" s="6"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="8"/>
+      <c r="J139" s="8"/>
     </row>
     <row r="140" ht="14.35" customHeight="1">
-      <c r="A140" t="s" s="5">
+      <c r="A140" t="s" s="6">
         <v>288</v>
       </c>
-      <c r="B140" t="s" s="5">
+      <c r="B140" t="s" s="6">
         <v>289</v>
       </c>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
-      <c r="F140" s="6"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
     </row>
     <row r="141" ht="14.35" customHeight="1">
-      <c r="A141" t="s" s="5">
+      <c r="A141" t="s" s="6">
         <v>290</v>
       </c>
-      <c r="B141" t="s" s="5">
+      <c r="B141" t="s" s="6">
         <v>291</v>
       </c>
-      <c r="C141" t="s" s="5">
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
+      <c r="J141" s="8"/>
+    </row>
+    <row r="142" ht="14.35" customHeight="1">
+      <c r="A142" t="s" s="6">
+        <v>292</v>
+      </c>
+      <c r="B142" t="s" s="6">
+        <v>293</v>
+      </c>
+      <c r="C142" t="s" s="6">
         <v>90</v>
       </c>
-      <c r="D141" s="7">
+      <c r="D142" s="7">
         <v>0.634615384615385</v>
       </c>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
-      <c r="H141" s="6"/>
-      <c r="I141" s="6"/>
-      <c r="J141" s="6"/>
-    </row>
-    <row r="142" ht="14.35" customHeight="1">
-      <c r="A142" t="s" s="5">
-        <v>292</v>
-      </c>
-      <c r="B142" t="s" s="5">
-        <v>293</v>
-      </c>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
-      <c r="H142" s="6"/>
-      <c r="I142" s="6"/>
-      <c r="J142" s="6"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="8"/>
+      <c r="J142" s="8"/>
     </row>
     <row r="143" ht="14.35" customHeight="1">
-      <c r="A143" t="s" s="5">
+      <c r="A143" t="s" s="6">
         <v>294</v>
       </c>
-      <c r="B143" t="s" s="5">
+      <c r="B143" t="s" s="6">
         <v>295</v>
       </c>
-      <c r="C143" t="s" s="5">
-        <v>42</v>
-      </c>
+      <c r="C143" s="8"/>
       <c r="D143" s="7">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+    </row>
+    <row r="144" ht="14.35" customHeight="1">
+      <c r="A144" t="s" s="6">
+        <v>296</v>
+      </c>
+      <c r="B144" t="s" s="6">
+        <v>297</v>
+      </c>
+      <c r="C144" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D144" s="7">
         <v>0.942307692307692</v>
       </c>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
-    </row>
-    <row r="144" ht="14.35" customHeight="1">
-      <c r="A144" t="s" s="5">
-        <v>296</v>
-      </c>
-      <c r="B144" t="s" s="5">
-        <v>297</v>
-      </c>
-      <c r="C144" t="s" s="5">
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="8"/>
+      <c r="J144" s="8"/>
+    </row>
+    <row r="145" ht="14.35" customHeight="1">
+      <c r="A145" t="s" s="6">
+        <v>298</v>
+      </c>
+      <c r="B145" t="s" s="6">
+        <v>299</v>
+      </c>
+      <c r="C145" t="s" s="6">
         <v>90</v>
       </c>
-      <c r="D144" s="7">
+      <c r="D145" s="7">
         <v>0.634615384615385</v>
       </c>
-      <c r="E144" s="6"/>
-      <c r="F144" s="6"/>
-      <c r="G144" s="6"/>
-      <c r="H144" s="6"/>
-      <c r="I144" s="6"/>
-      <c r="J144" s="6"/>
-    </row>
-    <row r="145" ht="14.35" customHeight="1">
-      <c r="A145" t="s" s="5">
-        <v>298</v>
-      </c>
-      <c r="B145" t="s" s="5">
-        <v>299</v>
-      </c>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6"/>
-      <c r="G145" s="6"/>
-      <c r="H145" s="6"/>
-      <c r="I145" s="6"/>
-      <c r="J145" s="6"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
+      <c r="I145" s="8"/>
+      <c r="J145" s="8"/>
     </row>
     <row r="146" ht="14.35" customHeight="1">
-      <c r="A146" t="s" s="5">
+      <c r="A146" t="s" s="6">
         <v>300</v>
       </c>
-      <c r="B146" t="s" s="5">
+      <c r="B146" t="s" s="6">
         <v>301</v>
       </c>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
-      <c r="F146" s="6"/>
-      <c r="G146" s="6"/>
-      <c r="H146" s="6"/>
-      <c r="I146" s="6"/>
-      <c r="J146" s="6"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="8"/>
+      <c r="J146" s="8"/>
     </row>
     <row r="147" ht="14.35" customHeight="1">
-      <c r="A147" t="s" s="5">
+      <c r="A147" t="s" s="6">
         <v>302</v>
       </c>
-      <c r="B147" t="s" s="5">
+      <c r="B147" t="s" s="6">
         <v>303</v>
       </c>
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
-      <c r="F147" s="6"/>
-      <c r="G147" s="6"/>
-      <c r="H147" s="6"/>
-      <c r="I147" s="6"/>
-      <c r="J147" s="6"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="8"/>
+      <c r="J147" s="8"/>
     </row>
     <row r="148" ht="14.35" customHeight="1">
-      <c r="A148" t="s" s="5">
+      <c r="A148" t="s" s="6">
         <v>304</v>
       </c>
-      <c r="B148" t="s" s="5">
+      <c r="B148" t="s" s="6">
         <v>305</v>
       </c>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
-      <c r="F148" s="6"/>
-      <c r="G148" s="6"/>
-      <c r="H148" s="6"/>
-      <c r="I148" s="6"/>
-      <c r="J148" s="6"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="7">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
+      <c r="J148" s="8"/>
     </row>
     <row r="149" ht="14.35" customHeight="1">
-      <c r="A149" t="s" s="5">
+      <c r="A149" t="s" s="6">
         <v>306</v>
       </c>
-      <c r="B149" t="s" s="5">
+      <c r="B149" t="s" s="6">
         <v>307</v>
       </c>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="6"/>
-      <c r="G149" s="6"/>
-      <c r="H149" s="6"/>
-      <c r="I149" s="6"/>
-      <c r="J149" s="6"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="8"/>
+      <c r="J149" s="8"/>
     </row>
     <row r="150" ht="14.35" customHeight="1">
-      <c r="A150" t="s" s="5">
+      <c r="A150" t="s" s="6">
         <v>308</v>
       </c>
-      <c r="B150" t="s" s="5">
+      <c r="B150" t="s" s="6">
         <v>309</v>
       </c>
-      <c r="C150" s="6"/>
-      <c r="D150" s="7">
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+      <c r="H150" s="8"/>
+      <c r="I150" s="8"/>
+      <c r="J150" s="8"/>
+    </row>
+    <row r="151" ht="14.35" customHeight="1">
+      <c r="A151" t="s" s="6">
+        <v>310</v>
+      </c>
+      <c r="B151" t="s" s="6">
+        <v>311</v>
+      </c>
+      <c r="C151" s="8"/>
+      <c r="D151" s="7">
         <v>0.75</v>
       </c>
-      <c r="E150" s="6"/>
-      <c r="F150" s="6"/>
-      <c r="G150" s="6"/>
-      <c r="H150" s="6"/>
-      <c r="I150" s="6"/>
-      <c r="J150" s="6"/>
-    </row>
-    <row r="151" ht="14.35" customHeight="1">
-      <c r="A151" t="s" s="5">
-        <v>310</v>
-      </c>
-      <c r="B151" t="s" s="5">
-        <v>311</v>
-      </c>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
-      <c r="F151" s="6"/>
-      <c r="G151" s="6"/>
-      <c r="H151" s="6"/>
-      <c r="I151" s="6"/>
-      <c r="J151" s="6"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="8"/>
+      <c r="J151" s="8"/>
     </row>
     <row r="152" ht="14.35" customHeight="1">
-      <c r="A152" t="s" s="5">
+      <c r="A152" t="s" s="6">
         <v>312</v>
       </c>
-      <c r="B152" t="s" s="5">
+      <c r="B152" t="s" s="6">
         <v>313</v>
       </c>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
-      <c r="F152" s="6"/>
-      <c r="G152" s="6"/>
-      <c r="H152" s="6"/>
-      <c r="I152" s="6"/>
-      <c r="J152" s="6"/>
+      <c r="C152" t="s" s="6">
+        <v>90</v>
+      </c>
+      <c r="D152" s="7">
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="8"/>
+      <c r="J152" s="8"/>
     </row>
     <row r="153" ht="14.35" customHeight="1">
-      <c r="A153" t="s" s="5">
+      <c r="A153" t="s" s="6">
         <v>314</v>
       </c>
-      <c r="B153" t="s" s="5">
+      <c r="B153" t="s" s="6">
         <v>315</v>
       </c>
-      <c r="C153" t="s" s="5">
-        <v>45</v>
-      </c>
-      <c r="D153" s="7">
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
+      <c r="H153" s="8"/>
+      <c r="I153" s="8"/>
+      <c r="J153" s="8"/>
+    </row>
+    <row r="154" ht="14.35" customHeight="1">
+      <c r="A154" t="s" s="6">
+        <v>316</v>
+      </c>
+      <c r="B154" t="s" s="6">
+        <v>317</v>
+      </c>
+      <c r="C154" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="D154" s="7">
         <v>0.826923076923077</v>
       </c>
-      <c r="E153" s="6"/>
-      <c r="F153" s="6"/>
-      <c r="G153" s="6"/>
-      <c r="H153" s="6"/>
-      <c r="I153" s="6"/>
-      <c r="J153" s="6"/>
-    </row>
-    <row r="154" ht="14.35" customHeight="1">
-      <c r="A154" t="s" s="5">
-        <v>316</v>
-      </c>
-      <c r="B154" t="s" s="5">
-        <v>317</v>
-      </c>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="6"/>
-      <c r="F154" s="6"/>
-      <c r="G154" s="6"/>
-      <c r="H154" s="6"/>
-      <c r="I154" s="6"/>
-      <c r="J154" s="6"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
+      <c r="H154" s="8"/>
+      <c r="I154" s="8"/>
+      <c r="J154" s="8"/>
     </row>
     <row r="155" ht="14.35" customHeight="1">
-      <c r="A155" t="s" s="5">
+      <c r="A155" t="s" s="6">
         <v>318</v>
       </c>
-      <c r="B155" t="s" s="5">
+      <c r="B155" t="s" s="6">
         <v>319</v>
       </c>
-      <c r="C155" t="s" s="5">
-        <v>45</v>
-      </c>
-      <c r="D155" s="6"/>
-      <c r="E155" s="6"/>
-      <c r="F155" s="6"/>
-      <c r="G155" s="6"/>
-      <c r="H155" s="6"/>
-      <c r="I155" s="6"/>
-      <c r="J155" s="6"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+      <c r="H155" s="8"/>
+      <c r="I155" s="8"/>
+      <c r="J155" s="8"/>
     </row>
     <row r="156" ht="14.35" customHeight="1">
-      <c r="A156" t="s" s="5">
+      <c r="A156" t="s" s="6">
         <v>320</v>
       </c>
-      <c r="B156" t="s" s="5">
+      <c r="B156" t="s" s="6">
         <v>321</v>
       </c>
-      <c r="C156" t="s" s="5">
-        <v>54</v>
-      </c>
-      <c r="D156" s="7">
+      <c r="C156" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
+      <c r="H156" s="8"/>
+      <c r="I156" s="8"/>
+      <c r="J156" s="8"/>
+    </row>
+    <row r="157" ht="14.35" customHeight="1">
+      <c r="A157" t="s" s="6">
+        <v>322</v>
+      </c>
+      <c r="B157" t="s" s="6">
+        <v>323</v>
+      </c>
+      <c r="C157" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D157" s="7">
         <v>0.711538461538462</v>
       </c>
-      <c r="E156" s="6"/>
-      <c r="F156" s="6"/>
-      <c r="G156" s="6"/>
-      <c r="H156" s="6"/>
-      <c r="I156" s="6"/>
-      <c r="J156" s="6"/>
-    </row>
-    <row r="157" ht="14.35" customHeight="1">
-      <c r="A157" t="s" s="5">
-        <v>322</v>
-      </c>
-      <c r="B157" t="s" s="5">
-        <v>323</v>
-      </c>
-      <c r="C157" s="6"/>
-      <c r="D157" s="6"/>
-      <c r="E157" s="6"/>
-      <c r="F157" s="6"/>
-      <c r="G157" s="6"/>
-      <c r="H157" s="6"/>
-      <c r="I157" s="6"/>
-      <c r="J157" s="6"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="8"/>
+      <c r="J157" s="8"/>
     </row>
     <row r="158" ht="14.35" customHeight="1">
-      <c r="A158" t="s" s="5">
+      <c r="A158" t="s" s="6">
         <v>324</v>
       </c>
-      <c r="B158" t="s" s="5">
+      <c r="B158" t="s" s="6">
         <v>325</v>
       </c>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
-      <c r="F158" s="6"/>
-      <c r="G158" s="6"/>
-      <c r="H158" s="6"/>
-      <c r="I158" s="6"/>
-      <c r="J158" s="6"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
+      <c r="H158" s="8"/>
+      <c r="I158" s="8"/>
+      <c r="J158" s="8"/>
     </row>
     <row r="159" ht="14.35" customHeight="1">
-      <c r="A159" t="s" s="5">
+      <c r="A159" t="s" s="6">
         <v>326</v>
       </c>
-      <c r="B159" t="s" s="5">
+      <c r="B159" t="s" s="6">
         <v>327</v>
       </c>
-      <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
-      <c r="E159" s="6"/>
-      <c r="F159" s="6"/>
-      <c r="G159" s="6"/>
-      <c r="H159" s="6"/>
-      <c r="I159" s="6"/>
-      <c r="J159" s="6"/>
+      <c r="C159" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D159" s="7">
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
+      <c r="H159" s="8"/>
+      <c r="I159" s="8"/>
+      <c r="J159" s="8"/>
     </row>
     <row r="160" ht="14.35" customHeight="1">
-      <c r="A160" s="6"/>
-      <c r="B160" s="6"/>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="6"/>
-      <c r="F160" s="6"/>
-      <c r="G160" s="6"/>
-      <c r="H160" s="6"/>
-      <c r="I160" s="6"/>
-      <c r="J160" s="6"/>
+      <c r="A160" t="s" s="6">
+        <v>328</v>
+      </c>
+      <c r="B160" t="s" s="6">
+        <v>329</v>
+      </c>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+      <c r="H160" s="8"/>
+      <c r="I160" s="8"/>
+      <c r="J160" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6315,64 +6426,64 @@
     <hyperlink ref="B98" r:id="rId93" location="" tooltip="" display="H220516A@hit.ac.zw"/>
     <hyperlink ref="B99" r:id="rId94" location="" tooltip="" display="H220183B@hit.ac.zw"/>
     <hyperlink ref="B100" r:id="rId95" location="" tooltip="" display="H220449Q@hit.ac.zw"/>
-    <hyperlink ref="B101" r:id="rId96" location="" tooltip="" display="H220273W@hit.ac.zw"/>
-    <hyperlink ref="B102" r:id="rId97" location="" tooltip="" display="H220087E@hit.ac.zw"/>
-    <hyperlink ref="B103" r:id="rId98" location="" tooltip="" display="H220033G@hit.ac.zw"/>
-    <hyperlink ref="B104" r:id="rId99" location="" tooltip="" display="H220269E@hit.ac.zw"/>
-    <hyperlink ref="B105" r:id="rId100" location="" tooltip="" display="H220595W@hit.ac.zw"/>
-    <hyperlink ref="B106" r:id="rId101" location="" tooltip="" display="H220591F@hit.ac.zw"/>
-    <hyperlink ref="B107" r:id="rId102" location="" tooltip="" display="H220221G@hit.ac.zw"/>
-    <hyperlink ref="B108" r:id="rId103" location="" tooltip="" display="H220242Z@hit.ac.zw"/>
-    <hyperlink ref="B109" r:id="rId104" location="" tooltip="" display="H220348B@hit.ac.zw"/>
-    <hyperlink ref="B110" r:id="rId105" location="" tooltip="" display="H220418Y@hit.ac.zw"/>
-    <hyperlink ref="B111" r:id="rId106" location="" tooltip="" display="H220450T@hit.ac.zw"/>
-    <hyperlink ref="B112" r:id="rId107" location="" tooltip="" display="H220333Q@hit.ac.zw"/>
-    <hyperlink ref="B113" r:id="rId108" location="" tooltip="" display="H220320J@hit.ac.zw"/>
-    <hyperlink ref="B114" r:id="rId109" location="" tooltip="" display="H220311Y@hit.ac.zw"/>
-    <hyperlink ref="B115" r:id="rId110" location="" tooltip="" display="H220138M@hit.ac.zw"/>
-    <hyperlink ref="B116" r:id="rId111" location="" tooltip="" display="h210574b@hit.ac.zw"/>
-    <hyperlink ref="B117" r:id="rId112" location="" tooltip="" display="H220197V@hit.ac.zw"/>
-    <hyperlink ref="B118" r:id="rId113" location="" tooltip="" display="H220247A@hit.ac.zw"/>
-    <hyperlink ref="B119" r:id="rId114" location="" tooltip="" display="H220432X@hit.ac.zw"/>
-    <hyperlink ref="B120" r:id="rId115" location="" tooltip="" display="H220223N@hit.ac.zw"/>
-    <hyperlink ref="B122" r:id="rId116" location="" tooltip="" display="H220272P@hit.ac.zw"/>
-    <hyperlink ref="B123" r:id="rId117" location="" tooltip="" display="H220615W@hit.ac.zw"/>
-    <hyperlink ref="B124" r:id="rId118" location="" tooltip="" display="H220196A@hit.ac.zw"/>
-    <hyperlink ref="B125" r:id="rId119" location="" tooltip="" display="h220535v@hit.ac.zw"/>
-    <hyperlink ref="B126" r:id="rId120" location="" tooltip="" display="h220688a@hit.ac.zw"/>
-    <hyperlink ref="B127" r:id="rId121" location="" tooltip="" display="H220026H@hit.ac.zw"/>
-    <hyperlink ref="B128" r:id="rId122" location="" tooltip="" display="H220533P@hit.ac.zw"/>
-    <hyperlink ref="B129" r:id="rId123" location="" tooltip="" display="H220435X@hit.ac.zw"/>
-    <hyperlink ref="B130" r:id="rId124" location="" tooltip="" display="H220225C@hit.ac.zw"/>
-    <hyperlink ref="B131" r:id="rId125" location="" tooltip="" display="H220198F@hit.ac.zw"/>
-    <hyperlink ref="B132" r:id="rId126" location="" tooltip="" display="H220290G@hit.ac.zw"/>
-    <hyperlink ref="B133" r:id="rId127" location="" tooltip="" display="H220147B@hit.ac.zw"/>
-    <hyperlink ref="B134" r:id="rId128" location="" tooltip="" display="H220076E@hit.ac.zw"/>
-    <hyperlink ref="B135" r:id="rId129" location="" tooltip="" display="H220129A@hit.ac.zw"/>
-    <hyperlink ref="B136" r:id="rId130" location="" tooltip="" display="H220243A@hit.ac.zw"/>
-    <hyperlink ref="B137" r:id="rId131" location="" tooltip="" display="H220554M@hit.ac.zw"/>
-    <hyperlink ref="B138" r:id="rId132" location="" tooltip="" display="H220415J@hit.ac.zw"/>
-    <hyperlink ref="B139" r:id="rId133" location="" tooltip="" display="H220439A@hit.ac.zw"/>
-    <hyperlink ref="B140" r:id="rId134" location="" tooltip="" display="H220390X@hit.ac.zw"/>
-    <hyperlink ref="B141" r:id="rId135" location="" tooltip="" display="H220536M@hit.ac.zw"/>
-    <hyperlink ref="B142" r:id="rId136" location="" tooltip="" display="H220189E@hit.ac.zw"/>
-    <hyperlink ref="B143" r:id="rId137" location="" tooltip="" display="H220146J@hit.ac.zw"/>
-    <hyperlink ref="B144" r:id="rId138" location="" tooltip="" display="H220179T@hit.ac.zw"/>
-    <hyperlink ref="B145" r:id="rId139" location="" tooltip="" display="H220057B@hit.ac.zw"/>
-    <hyperlink ref="B146" r:id="rId140" location="" tooltip="" display="H220586J@hit.ac.zw"/>
-    <hyperlink ref="B147" r:id="rId141" location="" tooltip="" display="H220417Y@hit.ac.zw"/>
-    <hyperlink ref="B148" r:id="rId142" location="" tooltip="" display="H220553G@hit.ac.zw"/>
-    <hyperlink ref="B149" r:id="rId143" location="" tooltip="" display="H220250Q@hit.ac.zw"/>
-    <hyperlink ref="B150" r:id="rId144" location="" tooltip="" display="H220652T@hit.ac.zw"/>
-    <hyperlink ref="B151" r:id="rId145" location="" tooltip="" display="H220426Q@hit.ac.zw"/>
-    <hyperlink ref="B152" r:id="rId146" location="" tooltip="" display="H220072Y@hit.ac.zw"/>
-    <hyperlink ref="B153" r:id="rId147" location="" tooltip="" display="H220028G@hit.ac.zw"/>
-    <hyperlink ref="B154" r:id="rId148" location="" tooltip="" display="H220081X@hit.ac.zw"/>
-    <hyperlink ref="B155" r:id="rId149" location="" tooltip="" display="h210371h@hit.ac.zw"/>
-    <hyperlink ref="B156" r:id="rId150" location="" tooltip="" display="H220105E@hit.ac.zw"/>
-    <hyperlink ref="B157" r:id="rId151" location="" tooltip="" display="H220215E@hit.ac.zw"/>
-    <hyperlink ref="B158" r:id="rId152" location="" tooltip="" display="H220537B@hit.ac.zw"/>
-    <hyperlink ref="B159" r:id="rId153" location="" tooltip="" display="H220411Q@hit.ac.zw"/>
+    <hyperlink ref="B102" r:id="rId96" location="" tooltip="" display="H220273W@hit.ac.zw"/>
+    <hyperlink ref="B103" r:id="rId97" location="" tooltip="" display="H220087E@hit.ac.zw"/>
+    <hyperlink ref="B104" r:id="rId98" location="" tooltip="" display="H220033G@hit.ac.zw"/>
+    <hyperlink ref="B105" r:id="rId99" location="" tooltip="" display="H220269E@hit.ac.zw"/>
+    <hyperlink ref="B106" r:id="rId100" location="" tooltip="" display="H220595W@hit.ac.zw"/>
+    <hyperlink ref="B107" r:id="rId101" location="" tooltip="" display="H220591F@hit.ac.zw"/>
+    <hyperlink ref="B108" r:id="rId102" location="" tooltip="" display="H220221G@hit.ac.zw"/>
+    <hyperlink ref="B109" r:id="rId103" location="" tooltip="" display="H220242Z@hit.ac.zw"/>
+    <hyperlink ref="B110" r:id="rId104" location="" tooltip="" display="H220348B@hit.ac.zw"/>
+    <hyperlink ref="B111" r:id="rId105" location="" tooltip="" display="H220418Y@hit.ac.zw"/>
+    <hyperlink ref="B112" r:id="rId106" location="" tooltip="" display="H220450T@hit.ac.zw"/>
+    <hyperlink ref="B113" r:id="rId107" location="" tooltip="" display="H220333Q@hit.ac.zw"/>
+    <hyperlink ref="B114" r:id="rId108" location="" tooltip="" display="H220320J@hit.ac.zw"/>
+    <hyperlink ref="B115" r:id="rId109" location="" tooltip="" display="H220311Y@hit.ac.zw"/>
+    <hyperlink ref="B116" r:id="rId110" location="" tooltip="" display="H220138M@hit.ac.zw"/>
+    <hyperlink ref="B117" r:id="rId111" location="" tooltip="" display="h210574b@hit.ac.zw"/>
+    <hyperlink ref="B118" r:id="rId112" location="" tooltip="" display="H220197V@hit.ac.zw"/>
+    <hyperlink ref="B119" r:id="rId113" location="" tooltip="" display="H220247A@hit.ac.zw"/>
+    <hyperlink ref="B120" r:id="rId114" location="" tooltip="" display="H220432X@hit.ac.zw"/>
+    <hyperlink ref="B121" r:id="rId115" location="" tooltip="" display="H220223N@hit.ac.zw"/>
+    <hyperlink ref="B123" r:id="rId116" location="" tooltip="" display="H220272P@hit.ac.zw"/>
+    <hyperlink ref="B124" r:id="rId117" location="" tooltip="" display="H220615W@hit.ac.zw"/>
+    <hyperlink ref="B125" r:id="rId118" location="" tooltip="" display="H220196A@hit.ac.zw"/>
+    <hyperlink ref="B126" r:id="rId119" location="" tooltip="" display="h220535v@hit.ac.zw"/>
+    <hyperlink ref="B127" r:id="rId120" location="" tooltip="" display="h220688a@hit.ac.zw"/>
+    <hyperlink ref="B128" r:id="rId121" location="" tooltip="" display="H220026H@hit.ac.zw"/>
+    <hyperlink ref="B129" r:id="rId122" location="" tooltip="" display="H220533P@hit.ac.zw"/>
+    <hyperlink ref="B130" r:id="rId123" location="" tooltip="" display="H220435X@hit.ac.zw"/>
+    <hyperlink ref="B131" r:id="rId124" location="" tooltip="" display="H220225C@hit.ac.zw"/>
+    <hyperlink ref="B132" r:id="rId125" location="" tooltip="" display="H220198F@hit.ac.zw"/>
+    <hyperlink ref="B133" r:id="rId126" location="" tooltip="" display="H220290G@hit.ac.zw"/>
+    <hyperlink ref="B134" r:id="rId127" location="" tooltip="" display="H220147B@hit.ac.zw"/>
+    <hyperlink ref="B135" r:id="rId128" location="" tooltip="" display="H220076E@hit.ac.zw"/>
+    <hyperlink ref="B136" r:id="rId129" location="" tooltip="" display="H220129A@hit.ac.zw"/>
+    <hyperlink ref="B137" r:id="rId130" location="" tooltip="" display="H220243A@hit.ac.zw"/>
+    <hyperlink ref="B138" r:id="rId131" location="" tooltip="" display="H220554M@hit.ac.zw"/>
+    <hyperlink ref="B139" r:id="rId132" location="" tooltip="" display="H220415J@hit.ac.zw"/>
+    <hyperlink ref="B140" r:id="rId133" location="" tooltip="" display="H220439A@hit.ac.zw"/>
+    <hyperlink ref="B141" r:id="rId134" location="" tooltip="" display="H220390X@hit.ac.zw"/>
+    <hyperlink ref="B142" r:id="rId135" location="" tooltip="" display="H220536M@hit.ac.zw"/>
+    <hyperlink ref="B143" r:id="rId136" location="" tooltip="" display="H220189E@hit.ac.zw"/>
+    <hyperlink ref="B144" r:id="rId137" location="" tooltip="" display="H220146J@hit.ac.zw"/>
+    <hyperlink ref="B145" r:id="rId138" location="" tooltip="" display="H220179T@hit.ac.zw"/>
+    <hyperlink ref="B146" r:id="rId139" location="" tooltip="" display="H220057B@hit.ac.zw"/>
+    <hyperlink ref="B147" r:id="rId140" location="" tooltip="" display="H220586J@hit.ac.zw"/>
+    <hyperlink ref="B148" r:id="rId141" location="" tooltip="" display="H220417Y@hit.ac.zw"/>
+    <hyperlink ref="B149" r:id="rId142" location="" tooltip="" display="H220553G@hit.ac.zw"/>
+    <hyperlink ref="B150" r:id="rId143" location="" tooltip="" display="H220250Q@hit.ac.zw"/>
+    <hyperlink ref="B151" r:id="rId144" location="" tooltip="" display="H220652T@hit.ac.zw"/>
+    <hyperlink ref="B152" r:id="rId145" location="" tooltip="" display="H220426Q@hit.ac.zw"/>
+    <hyperlink ref="B153" r:id="rId146" location="" tooltip="" display="H220072Y@hit.ac.zw"/>
+    <hyperlink ref="B154" r:id="rId147" location="" tooltip="" display="H220028G@hit.ac.zw"/>
+    <hyperlink ref="B155" r:id="rId148" location="" tooltip="" display="H220081X@hit.ac.zw"/>
+    <hyperlink ref="B156" r:id="rId149" location="" tooltip="" display="h210371h@hit.ac.zw"/>
+    <hyperlink ref="B157" r:id="rId150" location="" tooltip="" display="H220105E@hit.ac.zw"/>
+    <hyperlink ref="B158" r:id="rId151" location="" tooltip="" display="H220215E@hit.ac.zw"/>
+    <hyperlink ref="B159" r:id="rId152" location="" tooltip="" display="H220537B@hit.ac.zw"/>
+    <hyperlink ref="B160" r:id="rId153" location="" tooltip="" display="H220411Q@hit.ac.zw"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/cw11042022.xlsx
+++ b/cw11042022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="337">
   <si>
     <t>Surname</t>
   </si>
@@ -147,6 +147,9 @@
     </r>
   </si>
   <si>
+    <t>ISE</t>
+  </si>
+  <si>
     <t>Chandiringa</t>
   </si>
   <si>
@@ -259,6 +262,9 @@
     </r>
   </si>
   <si>
+    <t>IT</t>
+  </si>
+  <si>
     <t>Chiku</t>
   </si>
   <si>
@@ -287,9 +293,6 @@
     </r>
   </si>
   <si>
-    <t>ISE</t>
-  </si>
-  <si>
     <t>Chikwanda</t>
   </si>
   <si>
@@ -304,6 +307,12 @@
     </r>
   </si>
   <si>
+    <t>Chimbanje</t>
+  </si>
+  <si>
+    <t>H210079P</t>
+  </si>
+  <si>
     <t>Chimonyo</t>
   </si>
   <si>
@@ -531,6 +540,9 @@
     </r>
   </si>
   <si>
+    <t>H210245E</t>
+  </si>
+  <si>
     <t>Dziro</t>
   </si>
   <si>
@@ -587,9 +599,6 @@
     </r>
   </si>
   <si>
-    <t>IT</t>
-  </si>
-  <si>
     <t>Gayahaya</t>
   </si>
   <si>
@@ -1206,21 +1215,21 @@
         <color indexed="8"/>
         <rFont val="Times Roman"/>
       </rPr>
+      <t>h180617h@hit.ac.zw</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
       <t>H220260C@hit.ac.zw</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>h180617h@hit.ac.zw</t>
-    </r>
-  </si>
-  <si>
     <t>Matenda</t>
   </si>
   <si>
@@ -1507,6 +1516,12 @@
     </r>
   </si>
   <si>
+    <t>Munyanyiwa</t>
+  </si>
+  <si>
+    <t>H170224J</t>
+  </si>
+  <si>
     <t>Murire</t>
   </si>
   <si>
@@ -1631,6 +1646,12 @@
       </rPr>
       <t>h210574b@hit.ac.zw</t>
     </r>
+  </si>
+  <si>
+    <t>Mutangi</t>
+  </si>
+  <si>
+    <t>H220552V</t>
   </si>
   <si>
     <t>Muteera</t>
@@ -2325,7 +2346,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2351,6 +2372,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -3430,7 +3454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J160"/>
+  <dimension ref="A1:J164"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -3531,7 +3555,9 @@
         <v>17</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -3567,7 +3593,9 @@
         <v>21</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="D6" s="7">
+        <v>0.673076923076923</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -3583,7 +3611,9 @@
         <v>23</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -3598,8 +3628,12 @@
       <c r="B8" t="s" s="6">
         <v>25</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="C8" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -3609,13 +3643,15 @@
     </row>
     <row r="9" ht="14.35" customHeight="1">
       <c r="A9" t="s" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s" s="6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -3625,13 +3661,15 @@
     </row>
     <row r="10" ht="14.35" customHeight="1">
       <c r="A10" t="s" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -3641,13 +3679,15 @@
     </row>
     <row r="11" ht="14.35" customHeight="1">
       <c r="A11" t="s" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -3657,13 +3697,15 @@
     </row>
     <row r="12" ht="14.35" customHeight="1">
       <c r="A12" t="s" s="6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s" s="6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -3673,13 +3715,15 @@
     </row>
     <row r="13" ht="14.35" customHeight="1">
       <c r="A13" t="s" s="6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s" s="6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -3689,13 +3733,15 @@
     </row>
     <row r="14" ht="14.35" customHeight="1">
       <c r="A14" t="s" s="6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -3705,10 +3751,10 @@
     </row>
     <row r="15" ht="14.35" customHeight="1">
       <c r="A15" t="s" s="6">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s" s="6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="7">
@@ -3723,13 +3769,17 @@
     </row>
     <row r="16" ht="14.35" customHeight="1">
       <c r="A16" t="s" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s" s="6">
-        <v>41</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="C16" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.711538461538462</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -3739,10 +3789,10 @@
     </row>
     <row r="17" ht="14.35" customHeight="1">
       <c r="A17" t="s" s="6">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s" s="6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s" s="6">
         <v>12</v>
@@ -3759,13 +3809,13 @@
     </row>
     <row r="18" ht="14.35" customHeight="1">
       <c r="A18" t="s" s="6">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s" s="6">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s" s="6">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D18" s="7">
         <v>0.634615384615385</v>
@@ -3779,13 +3829,15 @@
     </row>
     <row r="19" ht="14.35" customHeight="1">
       <c r="A19" t="s" s="6">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s" s="6">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -3795,16 +3847,16 @@
     </row>
     <row r="20" ht="14.35" customHeight="1">
       <c r="A20" t="s" s="6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s" s="6">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s" s="6">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D20" s="7">
-        <v>0.942307692307692</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -3815,13 +3867,17 @@
     </row>
     <row r="21" ht="14.35" customHeight="1">
       <c r="A21" t="s" s="6">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s" s="6">
-        <v>52</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="C21" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.942307692307692</v>
+      </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -3831,13 +3887,13 @@
     </row>
     <row r="22" ht="14.35" customHeight="1">
       <c r="A22" t="s" s="6">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s" s="6">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D22" s="7">
         <v>0.711538461538462</v>
@@ -3851,16 +3907,16 @@
     </row>
     <row r="23" ht="14.35" customHeight="1">
       <c r="A23" t="s" s="6">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s" s="6">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D23" s="7">
-        <v>0.903846153846154</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -3871,13 +3927,17 @@
     </row>
     <row r="24" ht="14.35" customHeight="1">
       <c r="A24" t="s" s="6">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s" s="6">
-        <v>58</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+        <v>59</v>
+      </c>
+      <c r="C24" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.903846153846154</v>
+      </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -3887,13 +3947,15 @@
     </row>
     <row r="25" ht="14.35" customHeight="1">
       <c r="A25" t="s" s="6">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s" s="6">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="D25" s="9">
+        <v>0</v>
+      </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -3903,13 +3965,15 @@
     </row>
     <row r="26" ht="14.35" customHeight="1">
       <c r="A26" t="s" s="6">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s" s="6">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -3919,13 +3983,15 @@
     </row>
     <row r="27" ht="14.35" customHeight="1">
       <c r="A27" t="s" s="6">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s" s="6">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="D27" s="9">
+        <v>0</v>
+      </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -3935,13 +4001,17 @@
     </row>
     <row r="28" ht="14.35" customHeight="1">
       <c r="A28" t="s" s="6">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s" s="6">
-        <v>66</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+        <v>67</v>
+      </c>
+      <c r="C28" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.788461538461538</v>
+      </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -3951,13 +4021,17 @@
     </row>
     <row r="29" ht="14.35" customHeight="1">
       <c r="A29" t="s" s="6">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s" s="6">
-        <v>68</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+        <v>69</v>
+      </c>
+      <c r="C29" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -3967,16 +4041,14 @@
     </row>
     <row r="30" ht="14.35" customHeight="1">
       <c r="A30" t="s" s="6">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s" s="6">
-        <v>70</v>
-      </c>
-      <c r="C30" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="D30" s="7">
-        <v>0.634615384615385</v>
+        <v>71</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9">
+        <v>0</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -3987,16 +4059,16 @@
     </row>
     <row r="31" ht="14.35" customHeight="1">
       <c r="A31" t="s" s="6">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s" s="6">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s" s="6">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D31" s="7">
-        <v>0.692307692307692</v>
+        <v>0.634615384615385</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -4007,13 +4079,17 @@
     </row>
     <row r="32" ht="14.35" customHeight="1">
       <c r="A32" t="s" s="6">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s" s="6">
-        <v>74</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+        <v>75</v>
+      </c>
+      <c r="C32" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.692307692307692</v>
+      </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -4023,13 +4099,17 @@
     </row>
     <row r="33" ht="14.35" customHeight="1">
       <c r="A33" t="s" s="6">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s" s="6">
-        <v>75</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="C33" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0.711538461538462</v>
+      </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
@@ -4042,10 +4122,14 @@
         <v>76</v>
       </c>
       <c r="B34" t="s" s="6">
-        <v>77</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
+        <v>78</v>
+      </c>
+      <c r="C34" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1</v>
+      </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -4055,14 +4139,14 @@
     </row>
     <row r="35" ht="14.35" customHeight="1">
       <c r="A35" t="s" s="6">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s" s="6">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C35" s="8"/>
-      <c r="D35" s="7">
-        <v>0.75</v>
+      <c r="D35" s="9">
+        <v>0</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -4073,16 +4157,14 @@
     </row>
     <row r="36" ht="14.35" customHeight="1">
       <c r="A36" t="s" s="6">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s" s="6">
-        <v>81</v>
-      </c>
-      <c r="C36" t="s" s="6">
-        <v>15</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C36" s="8"/>
       <c r="D36" s="7">
-        <v>0.711538461538462</v>
+        <v>0.75</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -4093,14 +4175,16 @@
     </row>
     <row r="37" ht="14.35" customHeight="1">
       <c r="A37" t="s" s="6">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B37" t="s" s="6">
-        <v>83</v>
-      </c>
-      <c r="C37" s="8"/>
+        <v>84</v>
+      </c>
+      <c r="C37" t="s" s="6">
+        <v>15</v>
+      </c>
       <c r="D37" s="7">
-        <v>0.75</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -4111,13 +4195,17 @@
     </row>
     <row r="38" ht="14.35" customHeight="1">
       <c r="A38" t="s" s="6">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s" s="6">
         <v>85</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
+      <c r="C38" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0.807692307692308</v>
+      </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -4133,7 +4221,9 @@
         <v>87</v>
       </c>
       <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
+      <c r="D39" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -4149,10 +4239,10 @@
         <v>89</v>
       </c>
       <c r="C40" t="s" s="6">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="D40" s="7">
-        <v>0.634615384615385</v>
+        <v>0.75</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -4163,13 +4253,15 @@
     </row>
     <row r="41" ht="14.35" customHeight="1">
       <c r="A41" t="s" s="6">
+        <v>90</v>
+      </c>
+      <c r="B41" t="s" s="6">
         <v>91</v>
       </c>
-      <c r="B41" t="s" s="6">
-        <v>92</v>
-      </c>
       <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
+      <c r="D41" s="9">
+        <v>0</v>
+      </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -4179,16 +4271,16 @@
     </row>
     <row r="42" ht="14.35" customHeight="1">
       <c r="A42" t="s" s="6">
+        <v>92</v>
+      </c>
+      <c r="B42" t="s" s="6">
         <v>93</v>
       </c>
-      <c r="B42" t="s" s="6">
-        <v>94</v>
-      </c>
       <c r="C42" t="s" s="6">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D42" s="7">
-        <v>0.711538461538462</v>
+        <v>0.634615384615385</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -4199,16 +4291,16 @@
     </row>
     <row r="43" ht="14.35" customHeight="1">
       <c r="A43" t="s" s="6">
+        <v>94</v>
+      </c>
+      <c r="B43" t="s" s="6">
         <v>95</v>
       </c>
-      <c r="B43" t="s" s="6">
-        <v>96</v>
-      </c>
       <c r="C43" t="s" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D43" s="7">
-        <v>0.788461538461538</v>
+        <v>0.807692307692308</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -4219,16 +4311,16 @@
     </row>
     <row r="44" ht="14.35" customHeight="1">
       <c r="A44" t="s" s="6">
+        <v>96</v>
+      </c>
+      <c r="B44" t="s" s="6">
         <v>97</v>
       </c>
-      <c r="B44" t="s" s="6">
-        <v>98</v>
-      </c>
       <c r="C44" t="s" s="6">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="D44" s="7">
-        <v>0.788461538461538</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
@@ -4239,14 +4331,16 @@
     </row>
     <row r="45" ht="14.35" customHeight="1">
       <c r="A45" t="s" s="6">
+        <v>98</v>
+      </c>
+      <c r="B45" t="s" s="6">
         <v>99</v>
       </c>
-      <c r="B45" t="s" s="6">
-        <v>100</v>
-      </c>
-      <c r="C45" s="8"/>
+      <c r="C45" t="s" s="6">
+        <v>15</v>
+      </c>
       <c r="D45" s="7">
-        <v>0.711538461538462</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -4257,16 +4351,16 @@
     </row>
     <row r="46" ht="14.35" customHeight="1">
       <c r="A46" t="s" s="6">
+        <v>100</v>
+      </c>
+      <c r="B46" t="s" s="6">
         <v>101</v>
       </c>
-      <c r="B46" t="s" s="6">
-        <v>102</v>
-      </c>
       <c r="C46" t="s" s="6">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D46" s="7">
-        <v>0.711538461538462</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -4277,13 +4371,15 @@
     </row>
     <row r="47" ht="14.35" customHeight="1">
       <c r="A47" t="s" s="6">
+        <v>102</v>
+      </c>
+      <c r="B47" t="s" s="6">
         <v>103</v>
       </c>
-      <c r="B47" t="s" s="6">
-        <v>104</v>
-      </c>
       <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
+      <c r="D47" s="7">
+        <v>0.711538461538462</v>
+      </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -4293,16 +4389,16 @@
     </row>
     <row r="48" ht="14.35" customHeight="1">
       <c r="A48" t="s" s="6">
+        <v>104</v>
+      </c>
+      <c r="B48" t="s" s="6">
         <v>105</v>
       </c>
-      <c r="B48" t="s" s="6">
-        <v>106</v>
-      </c>
       <c r="C48" t="s" s="6">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D48" s="7">
-        <v>0.634615384615385</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -4313,16 +4409,16 @@
     </row>
     <row r="49" ht="14.35" customHeight="1">
       <c r="A49" t="s" s="6">
+        <v>106</v>
+      </c>
+      <c r="B49" t="s" s="6">
         <v>107</v>
-      </c>
-      <c r="B49" t="s" s="6">
-        <v>108</v>
       </c>
       <c r="C49" t="s" s="6">
         <v>15</v>
       </c>
       <c r="D49" s="7">
-        <v>0.75</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
@@ -4333,13 +4429,13 @@
     </row>
     <row r="50" ht="14.35" customHeight="1">
       <c r="A50" t="s" s="6">
+        <v>108</v>
+      </c>
+      <c r="B50" t="s" s="6">
         <v>109</v>
       </c>
-      <c r="B50" t="s" s="6">
-        <v>110</v>
-      </c>
       <c r="C50" t="s" s="6">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D50" s="7">
         <v>0.634615384615385</v>
@@ -4353,13 +4449,17 @@
     </row>
     <row r="51" ht="14.35" customHeight="1">
       <c r="A51" t="s" s="6">
+        <v>110</v>
+      </c>
+      <c r="B51" t="s" s="6">
         <v>111</v>
       </c>
-      <c r="B51" t="s" s="6">
-        <v>112</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
+      <c r="C51" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
@@ -4369,16 +4469,16 @@
     </row>
     <row r="52" ht="14.35" customHeight="1">
       <c r="A52" t="s" s="6">
+        <v>112</v>
+      </c>
+      <c r="B52" t="s" s="6">
         <v>113</v>
       </c>
-      <c r="B52" t="s" s="6">
-        <v>114</v>
-      </c>
       <c r="C52" t="s" s="6">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D52" s="7">
-        <v>0.826923076923077</v>
+        <v>0.634615384615385</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
@@ -4389,13 +4489,17 @@
     </row>
     <row r="53" ht="14.35" customHeight="1">
       <c r="A53" t="s" s="6">
+        <v>114</v>
+      </c>
+      <c r="B53" t="s" s="6">
         <v>115</v>
       </c>
-      <c r="B53" t="s" s="6">
-        <v>116</v>
-      </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
+      <c r="C53" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0.807692307692308</v>
+      </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -4405,16 +4509,16 @@
     </row>
     <row r="54" ht="14.35" customHeight="1">
       <c r="A54" t="s" s="6">
+        <v>116</v>
+      </c>
+      <c r="B54" t="s" s="6">
         <v>117</v>
       </c>
-      <c r="B54" t="s" s="6">
-        <v>118</v>
-      </c>
       <c r="C54" t="s" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D54" s="7">
-        <v>0.711538461538462</v>
+        <v>0.826923076923077</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -4425,13 +4529,15 @@
     </row>
     <row r="55" ht="14.35" customHeight="1">
       <c r="A55" t="s" s="6">
+        <v>118</v>
+      </c>
+      <c r="B55" t="s" s="6">
         <v>119</v>
       </c>
-      <c r="B55" t="s" s="6">
-        <v>120</v>
-      </c>
       <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
+      <c r="D55" s="9">
+        <v>0</v>
+      </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
@@ -4441,13 +4547,17 @@
     </row>
     <row r="56" ht="14.35" customHeight="1">
       <c r="A56" t="s" s="6">
+        <v>120</v>
+      </c>
+      <c r="B56" t="s" s="6">
         <v>121</v>
       </c>
-      <c r="B56" t="s" s="6">
-        <v>122</v>
-      </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
+      <c r="C56" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D56" s="7">
+        <v>0.711538461538462</v>
+      </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -4457,13 +4567,17 @@
     </row>
     <row r="57" ht="14.35" customHeight="1">
       <c r="A57" t="s" s="6">
+        <v>122</v>
+      </c>
+      <c r="B57" t="s" s="6">
         <v>123</v>
       </c>
-      <c r="B57" t="s" s="6">
-        <v>124</v>
-      </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
+      <c r="C57" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="D57" s="7">
+        <v>0.711538461538462</v>
+      </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -4473,16 +4587,14 @@
     </row>
     <row r="58" ht="14.35" customHeight="1">
       <c r="A58" t="s" s="6">
+        <v>124</v>
+      </c>
+      <c r="B58" t="s" s="6">
         <v>125</v>
       </c>
-      <c r="B58" t="s" s="6">
-        <v>126</v>
-      </c>
-      <c r="C58" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="D58" s="7">
-        <v>0.634615384615385</v>
+      <c r="C58" s="8"/>
+      <c r="D58" s="9">
+        <v>0</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
@@ -4493,16 +4605,16 @@
     </row>
     <row r="59" ht="14.35" customHeight="1">
       <c r="A59" t="s" s="6">
+        <v>126</v>
+      </c>
+      <c r="B59" t="s" s="6">
         <v>127</v>
       </c>
-      <c r="B59" t="s" s="6">
-        <v>128</v>
-      </c>
       <c r="C59" t="s" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D59" s="7">
-        <v>0.75</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
@@ -4513,16 +4625,16 @@
     </row>
     <row r="60" ht="14.35" customHeight="1">
       <c r="A60" t="s" s="6">
+        <v>128</v>
+      </c>
+      <c r="B60" t="s" s="6">
         <v>129</v>
       </c>
-      <c r="B60" t="s" s="6">
-        <v>130</v>
-      </c>
       <c r="C60" t="s" s="6">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D60" s="7">
-        <v>0.75</v>
+        <v>0.634615384615385</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
@@ -4533,10 +4645,10 @@
     </row>
     <row r="61" ht="14.35" customHeight="1">
       <c r="A61" t="s" s="6">
+        <v>130</v>
+      </c>
+      <c r="B61" t="s" s="6">
         <v>131</v>
-      </c>
-      <c r="B61" t="s" s="6">
-        <v>132</v>
       </c>
       <c r="C61" t="s" s="6">
         <v>15</v>
@@ -4553,13 +4665,17 @@
     </row>
     <row r="62" ht="14.35" customHeight="1">
       <c r="A62" t="s" s="6">
+        <v>132</v>
+      </c>
+      <c r="B62" t="s" s="6">
         <v>133</v>
       </c>
-      <c r="B62" t="s" s="6">
-        <v>134</v>
-      </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
+      <c r="C62" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="D62" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
@@ -4569,13 +4685,17 @@
     </row>
     <row r="63" ht="14.35" customHeight="1">
       <c r="A63" t="s" s="6">
+        <v>134</v>
+      </c>
+      <c r="B63" t="s" s="6">
         <v>135</v>
       </c>
-      <c r="B63" t="s" s="6">
-        <v>136</v>
-      </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
+      <c r="C63" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D63" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
@@ -4585,16 +4705,14 @@
     </row>
     <row r="64" ht="14.35" customHeight="1">
       <c r="A64" t="s" s="6">
+        <v>136</v>
+      </c>
+      <c r="B64" t="s" s="6">
         <v>137</v>
       </c>
-      <c r="B64" t="s" s="6">
-        <v>138</v>
-      </c>
-      <c r="C64" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="D64" s="7">
-        <v>0.923076923076923</v>
+      <c r="C64" s="8"/>
+      <c r="D64" s="9">
+        <v>0</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -4605,13 +4723,17 @@
     </row>
     <row r="65" ht="14.35" customHeight="1">
       <c r="A65" t="s" s="6">
+        <v>138</v>
+      </c>
+      <c r="B65" t="s" s="6">
         <v>139</v>
       </c>
-      <c r="B65" t="s" s="6">
-        <v>140</v>
-      </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
+      <c r="C65" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="D65" s="7">
+        <v>0.711538461538462</v>
+      </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
@@ -4621,16 +4743,16 @@
     </row>
     <row r="66" ht="14.35" customHeight="1">
       <c r="A66" t="s" s="6">
+        <v>140</v>
+      </c>
+      <c r="B66" t="s" s="6">
         <v>141</v>
       </c>
-      <c r="B66" t="s" s="6">
-        <v>142</v>
-      </c>
       <c r="C66" t="s" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D66" s="7">
-        <v>0.75</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
@@ -4641,16 +4763,16 @@
     </row>
     <row r="67" ht="14.35" customHeight="1">
       <c r="A67" t="s" s="6">
+        <v>142</v>
+      </c>
+      <c r="B67" t="s" s="6">
         <v>143</v>
       </c>
-      <c r="B67" t="s" s="6">
-        <v>144</v>
-      </c>
       <c r="C67" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="D67" s="7">
-        <v>0.826923076923077</v>
+        <v>26</v>
+      </c>
+      <c r="D67" s="9">
+        <v>1</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
@@ -4661,13 +4783,17 @@
     </row>
     <row r="68" ht="14.35" customHeight="1">
       <c r="A68" t="s" s="6">
+        <v>144</v>
+      </c>
+      <c r="B68" t="s" s="6">
         <v>145</v>
       </c>
-      <c r="B68" t="s" s="6">
-        <v>146</v>
-      </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
+      <c r="C68" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D68" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
@@ -4677,16 +4803,16 @@
     </row>
     <row r="69" ht="14.35" customHeight="1">
       <c r="A69" t="s" s="6">
+        <v>146</v>
+      </c>
+      <c r="B69" t="s" s="6">
         <v>147</v>
-      </c>
-      <c r="B69" t="s" s="6">
-        <v>148</v>
       </c>
       <c r="C69" t="s" s="6">
         <v>12</v>
       </c>
       <c r="D69" s="7">
-        <v>0.75</v>
+        <v>0.826923076923077</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
@@ -4697,16 +4823,14 @@
     </row>
     <row r="70" ht="14.35" customHeight="1">
       <c r="A70" t="s" s="6">
+        <v>148</v>
+      </c>
+      <c r="B70" t="s" s="6">
         <v>149</v>
       </c>
-      <c r="B70" t="s" s="6">
-        <v>150</v>
-      </c>
-      <c r="C70" t="s" s="6">
-        <v>90</v>
-      </c>
-      <c r="D70" s="7">
-        <v>0.942307692307692</v>
+      <c r="C70" s="8"/>
+      <c r="D70" s="9">
+        <v>0</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
@@ -4717,16 +4841,16 @@
     </row>
     <row r="71" ht="14.35" customHeight="1">
       <c r="A71" t="s" s="6">
+        <v>150</v>
+      </c>
+      <c r="B71" t="s" s="6">
         <v>151</v>
       </c>
-      <c r="B71" t="s" s="6">
-        <v>152</v>
-      </c>
       <c r="C71" t="s" s="6">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D71" s="7">
-        <v>0.807692307692308</v>
+        <v>0.75</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
@@ -4737,16 +4861,16 @@
     </row>
     <row r="72" ht="14.35" customHeight="1">
       <c r="A72" t="s" s="6">
+        <v>152</v>
+      </c>
+      <c r="B72" t="s" s="6">
         <v>153</v>
       </c>
-      <c r="B72" t="s" s="6">
-        <v>154</v>
-      </c>
       <c r="C72" t="s" s="6">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D72" s="7">
-        <v>0.826923076923077</v>
+        <v>0.942307692307692</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
@@ -4757,13 +4881,17 @@
     </row>
     <row r="73" ht="14.35" customHeight="1">
       <c r="A73" t="s" s="6">
+        <v>154</v>
+      </c>
+      <c r="B73" t="s" s="6">
         <v>155</v>
       </c>
-      <c r="B73" t="s" s="6">
-        <v>156</v>
-      </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
+      <c r="C73" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="D73" s="7">
+        <v>0.807692307692308</v>
+      </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
@@ -4773,13 +4901,17 @@
     </row>
     <row r="74" ht="14.35" customHeight="1">
       <c r="A74" t="s" s="6">
+        <v>156</v>
+      </c>
+      <c r="B74" t="s" s="6">
         <v>157</v>
       </c>
-      <c r="B74" t="s" s="6">
-        <v>158</v>
-      </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
+      <c r="C74" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="D74" s="7">
+        <v>0.826923076923077</v>
+      </c>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
@@ -4789,13 +4921,15 @@
     </row>
     <row r="75" ht="14.35" customHeight="1">
       <c r="A75" t="s" s="6">
+        <v>158</v>
+      </c>
+      <c r="B75" t="s" s="6">
         <v>159</v>
       </c>
-      <c r="B75" t="s" s="6">
-        <v>160</v>
-      </c>
       <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
+      <c r="D75" s="7">
+        <v>0.673076923076923</v>
+      </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
@@ -4805,16 +4939,14 @@
     </row>
     <row r="76" ht="14.35" customHeight="1">
       <c r="A76" t="s" s="6">
+        <v>160</v>
+      </c>
+      <c r="B76" t="s" s="6">
         <v>161</v>
       </c>
-      <c r="B76" t="s" s="6">
-        <v>162</v>
-      </c>
-      <c r="C76" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="D76" s="7">
-        <v>0.826923076923077</v>
+      <c r="C76" s="8"/>
+      <c r="D76" s="9">
+        <v>0</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
@@ -4825,13 +4957,17 @@
     </row>
     <row r="77" ht="14.35" customHeight="1">
       <c r="A77" t="s" s="6">
+        <v>162</v>
+      </c>
+      <c r="B77" t="s" s="6">
         <v>163</v>
       </c>
-      <c r="B77" t="s" s="6">
-        <v>164</v>
-      </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
+      <c r="C77" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="D77" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
@@ -4841,16 +4977,16 @@
     </row>
     <row r="78" ht="14.35" customHeight="1">
       <c r="A78" t="s" s="6">
+        <v>164</v>
+      </c>
+      <c r="B78" t="s" s="6">
         <v>165</v>
       </c>
-      <c r="B78" t="s" s="6">
-        <v>166</v>
-      </c>
       <c r="C78" t="s" s="6">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="D78" s="7">
-        <v>0.923076923076923</v>
+        <v>0.826923076923077</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
@@ -4861,13 +4997,15 @@
     </row>
     <row r="79" ht="14.35" customHeight="1">
       <c r="A79" t="s" s="6">
+        <v>166</v>
+      </c>
+      <c r="B79" t="s" s="6">
         <v>167</v>
       </c>
-      <c r="B79" t="s" s="6">
-        <v>168</v>
-      </c>
       <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
+      <c r="D79" s="9">
+        <v>0</v>
+      </c>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
@@ -4877,13 +5015,17 @@
     </row>
     <row r="80" ht="14.35" customHeight="1">
       <c r="A80" t="s" s="6">
+        <v>168</v>
+      </c>
+      <c r="B80" t="s" s="6">
         <v>169</v>
       </c>
-      <c r="B80" t="s" s="6">
-        <v>170</v>
-      </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
+      <c r="C80" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="D80" s="7">
+        <v>0.923076923076923</v>
+      </c>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
@@ -4893,13 +5035,17 @@
     </row>
     <row r="81" ht="14.35" customHeight="1">
       <c r="A81" t="s" s="6">
+        <v>170</v>
+      </c>
+      <c r="B81" t="s" s="6">
         <v>171</v>
       </c>
-      <c r="B81" t="s" s="6">
-        <v>172</v>
-      </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
+      <c r="C81" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="D81" s="7">
+        <v>0.788461538461538</v>
+      </c>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
@@ -4909,16 +5055,16 @@
     </row>
     <row r="82" ht="14.35" customHeight="1">
       <c r="A82" t="s" s="6">
+        <v>172</v>
+      </c>
+      <c r="B82" t="s" s="6">
         <v>173</v>
       </c>
-      <c r="B82" t="s" s="6">
-        <v>174</v>
-      </c>
       <c r="C82" t="s" s="6">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D82" s="7">
-        <v>0.788461538461538</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
@@ -4929,16 +5075,14 @@
     </row>
     <row r="83" ht="14.35" customHeight="1">
       <c r="A83" t="s" s="6">
+        <v>174</v>
+      </c>
+      <c r="B83" t="s" s="6">
         <v>175</v>
       </c>
-      <c r="B83" t="s" s="6">
-        <v>176</v>
-      </c>
-      <c r="C83" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="D83" s="7">
-        <v>0.75</v>
+      <c r="C83" s="8"/>
+      <c r="D83" s="9">
+        <v>0</v>
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
@@ -4949,16 +5093,16 @@
     </row>
     <row r="84" ht="14.35" customHeight="1">
       <c r="A84" t="s" s="6">
+        <v>176</v>
+      </c>
+      <c r="B84" t="s" s="6">
         <v>177</v>
       </c>
-      <c r="B84" t="s" s="6">
-        <v>178</v>
-      </c>
       <c r="C84" t="s" s="6">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D84" s="7">
-        <v>0.75</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
@@ -4969,16 +5113,16 @@
     </row>
     <row r="85" ht="14.35" customHeight="1">
       <c r="A85" t="s" s="6">
+        <v>178</v>
+      </c>
+      <c r="B85" t="s" s="6">
         <v>179</v>
       </c>
-      <c r="B85" t="s" s="6">
-        <v>180</v>
-      </c>
       <c r="C85" t="s" s="6">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D85" s="7">
-        <v>0.788461538461538</v>
+        <v>0.75</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
@@ -4989,12 +5133,14 @@
     </row>
     <row r="86" ht="14.35" customHeight="1">
       <c r="A86" t="s" s="6">
+        <v>180</v>
+      </c>
+      <c r="B86" t="s" s="6">
         <v>181</v>
       </c>
-      <c r="B86" t="s" s="6">
-        <v>182</v>
-      </c>
-      <c r="C86" s="8"/>
+      <c r="C86" t="s" s="6">
+        <v>43</v>
+      </c>
       <c r="D86" s="7">
         <v>0.75</v>
       </c>
@@ -5007,16 +5153,16 @@
     </row>
     <row r="87" ht="14.35" customHeight="1">
       <c r="A87" t="s" s="6">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B87" t="s" s="6">
         <v>183</v>
       </c>
       <c r="C87" t="s" s="6">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D87" s="7">
-        <v>0.634615384615385</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
@@ -5033,10 +5179,10 @@
         <v>185</v>
       </c>
       <c r="C88" t="s" s="6">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D88" s="7">
-        <v>0.942307692307692</v>
+        <v>0.634615384615385</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
@@ -5047,13 +5193,15 @@
     </row>
     <row r="89" ht="14.35" customHeight="1">
       <c r="A89" t="s" s="6">
+        <v>184</v>
+      </c>
+      <c r="B89" t="s" s="6">
         <v>186</v>
       </c>
-      <c r="B89" t="s" s="6">
-        <v>187</v>
-      </c>
       <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
+      <c r="D89" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
@@ -5063,16 +5211,16 @@
     </row>
     <row r="90" ht="14.35" customHeight="1">
       <c r="A90" t="s" s="6">
+        <v>187</v>
+      </c>
+      <c r="B90" t="s" s="6">
         <v>188</v>
       </c>
-      <c r="B90" t="s" s="6">
-        <v>189</v>
-      </c>
       <c r="C90" t="s" s="6">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D90" s="7">
-        <v>0.634615384615385</v>
+        <v>0.942307692307692</v>
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
@@ -5083,16 +5231,16 @@
     </row>
     <row r="91" ht="14.35" customHeight="1">
       <c r="A91" t="s" s="6">
+        <v>189</v>
+      </c>
+      <c r="B91" t="s" s="6">
         <v>190</v>
       </c>
-      <c r="B91" t="s" s="6">
-        <v>191</v>
-      </c>
       <c r="C91" t="s" s="6">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D91" s="7">
-        <v>0.923076923076923</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
@@ -5103,13 +5251,17 @@
     </row>
     <row r="92" ht="14.35" customHeight="1">
       <c r="A92" t="s" s="6">
+        <v>191</v>
+      </c>
+      <c r="B92" t="s" s="6">
         <v>192</v>
       </c>
-      <c r="B92" t="s" s="6">
-        <v>193</v>
-      </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
+      <c r="C92" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="D92" s="7">
+        <v>0.634615384615385</v>
+      </c>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
@@ -5119,13 +5271,17 @@
     </row>
     <row r="93" ht="14.35" customHeight="1">
       <c r="A93" t="s" s="6">
+        <v>193</v>
+      </c>
+      <c r="B93" t="s" s="6">
         <v>194</v>
       </c>
-      <c r="B93" t="s" s="6">
-        <v>195</v>
-      </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
+      <c r="C93" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="D93" s="7">
+        <v>0.923076923076923</v>
+      </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
@@ -5135,16 +5291,16 @@
     </row>
     <row r="94" ht="14.35" customHeight="1">
       <c r="A94" t="s" s="6">
+        <v>195</v>
+      </c>
+      <c r="B94" t="s" s="6">
         <v>196</v>
       </c>
-      <c r="B94" t="s" s="6">
-        <v>197</v>
-      </c>
       <c r="C94" t="s" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D94" s="7">
-        <v>0.442307692307692</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
@@ -5155,16 +5311,16 @@
     </row>
     <row r="95" ht="14.35" customHeight="1">
       <c r="A95" t="s" s="6">
+        <v>197</v>
+      </c>
+      <c r="B95" t="s" s="6">
         <v>198</v>
-      </c>
-      <c r="B95" t="s" s="6">
-        <v>199</v>
       </c>
       <c r="C95" t="s" s="6">
         <v>15</v>
       </c>
       <c r="D95" s="7">
-        <v>0.711538461538462</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
@@ -5175,16 +5331,16 @@
     </row>
     <row r="96" ht="14.35" customHeight="1">
       <c r="A96" t="s" s="6">
+        <v>199</v>
+      </c>
+      <c r="B96" t="s" s="6">
         <v>200</v>
       </c>
-      <c r="B96" t="s" s="6">
-        <v>201</v>
-      </c>
       <c r="C96" t="s" s="6">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D96" s="7">
-        <v>0.903846153846154</v>
+        <v>0.442307692307692</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
@@ -5195,13 +5351,17 @@
     </row>
     <row r="97" ht="14.35" customHeight="1">
       <c r="A97" t="s" s="6">
+        <v>201</v>
+      </c>
+      <c r="B97" t="s" s="6">
         <v>202</v>
       </c>
-      <c r="B97" t="s" s="6">
-        <v>203</v>
-      </c>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
+      <c r="C97" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D97" s="7">
+        <v>0.711538461538462</v>
+      </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
@@ -5211,13 +5371,17 @@
     </row>
     <row r="98" ht="14.35" customHeight="1">
       <c r="A98" t="s" s="6">
+        <v>203</v>
+      </c>
+      <c r="B98" t="s" s="6">
         <v>204</v>
       </c>
-      <c r="B98" t="s" s="6">
-        <v>205</v>
-      </c>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
+      <c r="C98" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="D98" s="7">
+        <v>0.903846153846154</v>
+      </c>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
@@ -5227,13 +5391,17 @@
     </row>
     <row r="99" ht="14.35" customHeight="1">
       <c r="A99" t="s" s="6">
+        <v>205</v>
+      </c>
+      <c r="B99" t="s" s="6">
         <v>206</v>
       </c>
-      <c r="B99" t="s" s="6">
-        <v>207</v>
-      </c>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
+      <c r="C99" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D99" s="7">
+        <v>0.807692307692308</v>
+      </c>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
@@ -5243,13 +5411,15 @@
     </row>
     <row r="100" ht="14.35" customHeight="1">
       <c r="A100" t="s" s="6">
+        <v>207</v>
+      </c>
+      <c r="B100" t="s" s="6">
         <v>208</v>
       </c>
-      <c r="B100" t="s" s="6">
-        <v>209</v>
-      </c>
       <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
+      <c r="D100" s="9">
+        <v>0</v>
+      </c>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
@@ -5259,16 +5429,14 @@
     </row>
     <row r="101" ht="14.35" customHeight="1">
       <c r="A101" t="s" s="6">
+        <v>209</v>
+      </c>
+      <c r="B101" t="s" s="6">
         <v>210</v>
       </c>
-      <c r="B101" t="s" s="6">
-        <v>211</v>
-      </c>
-      <c r="C101" t="s" s="6">
-        <v>15</v>
-      </c>
+      <c r="C101" s="8"/>
       <c r="D101" s="7">
-        <v>0.711538461538462</v>
+        <v>0.673076923076923</v>
       </c>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
@@ -5279,13 +5447,15 @@
     </row>
     <row r="102" ht="14.35" customHeight="1">
       <c r="A102" t="s" s="6">
+        <v>211</v>
+      </c>
+      <c r="B102" t="s" s="6">
         <v>212</v>
       </c>
-      <c r="B102" t="s" s="6">
-        <v>213</v>
-      </c>
       <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
+      <c r="D102" s="7">
+        <v>0.673076923076923</v>
+      </c>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
@@ -5295,13 +5465,17 @@
     </row>
     <row r="103" ht="14.35" customHeight="1">
       <c r="A103" t="s" s="6">
+        <v>213</v>
+      </c>
+      <c r="B103" t="s" s="6">
         <v>214</v>
       </c>
-      <c r="B103" t="s" s="6">
-        <v>215</v>
-      </c>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
+      <c r="C103" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D103" s="7">
+        <v>0.711538461538462</v>
+      </c>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
@@ -5311,13 +5485,17 @@
     </row>
     <row r="104" ht="14.35" customHeight="1">
       <c r="A104" t="s" s="6">
+        <v>215</v>
+      </c>
+      <c r="B104" t="s" s="6">
         <v>216</v>
       </c>
-      <c r="B104" t="s" s="6">
-        <v>217</v>
-      </c>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
+      <c r="C104" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D104" s="7">
+        <v>0.846153846153846</v>
+      </c>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
@@ -5327,13 +5505,15 @@
     </row>
     <row r="105" ht="14.35" customHeight="1">
       <c r="A105" t="s" s="6">
+        <v>217</v>
+      </c>
+      <c r="B105" t="s" s="6">
         <v>218</v>
       </c>
-      <c r="B105" t="s" s="6">
-        <v>219</v>
-      </c>
       <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
+      <c r="D105" s="9">
+        <v>0</v>
+      </c>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
@@ -5343,16 +5523,16 @@
     </row>
     <row r="106" ht="14.35" customHeight="1">
       <c r="A106" t="s" s="6">
+        <v>219</v>
+      </c>
+      <c r="B106" t="s" s="6">
         <v>220</v>
       </c>
-      <c r="B106" t="s" s="6">
-        <v>221</v>
-      </c>
       <c r="C106" t="s" s="6">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D106" s="7">
-        <v>0.634615384615385</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
@@ -5363,16 +5543,14 @@
     </row>
     <row r="107" ht="14.35" customHeight="1">
       <c r="A107" t="s" s="6">
+        <v>221</v>
+      </c>
+      <c r="B107" t="s" s="6">
         <v>222</v>
       </c>
-      <c r="B107" t="s" s="6">
-        <v>223</v>
-      </c>
-      <c r="C107" t="s" s="6">
-        <v>90</v>
-      </c>
-      <c r="D107" s="7">
-        <v>0.634615384615385</v>
+      <c r="C107" s="8"/>
+      <c r="D107" s="9">
+        <v>0</v>
       </c>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
@@ -5383,14 +5561,16 @@
     </row>
     <row r="108" ht="14.35" customHeight="1">
       <c r="A108" t="s" s="6">
+        <v>223</v>
+      </c>
+      <c r="B108" t="s" s="6">
         <v>224</v>
       </c>
-      <c r="B108" t="s" s="6">
-        <v>225</v>
-      </c>
-      <c r="C108" s="8"/>
+      <c r="C108" t="s" s="6">
+        <v>26</v>
+      </c>
       <c r="D108" s="7">
-        <v>0.711538461538462</v>
+        <v>0.634615384615385</v>
       </c>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
@@ -5401,16 +5581,16 @@
     </row>
     <row r="109" ht="14.35" customHeight="1">
       <c r="A109" t="s" s="6">
+        <v>225</v>
+      </c>
+      <c r="B109" t="s" s="6">
         <v>226</v>
       </c>
-      <c r="B109" t="s" s="6">
-        <v>227</v>
-      </c>
       <c r="C109" t="s" s="6">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D109" s="7">
-        <v>0.903846153846154</v>
+        <v>0.634615384615385</v>
       </c>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
@@ -5421,16 +5601,14 @@
     </row>
     <row r="110" ht="14.35" customHeight="1">
       <c r="A110" t="s" s="6">
+        <v>227</v>
+      </c>
+      <c r="B110" t="s" s="6">
         <v>228</v>
       </c>
-      <c r="B110" t="s" s="6">
-        <v>229</v>
-      </c>
-      <c r="C110" t="s" s="6">
-        <v>90</v>
-      </c>
+      <c r="C110" s="8"/>
       <c r="D110" s="7">
-        <v>0.942307692307692</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
@@ -5441,16 +5619,16 @@
     </row>
     <row r="111" ht="14.35" customHeight="1">
       <c r="A111" t="s" s="6">
+        <v>229</v>
+      </c>
+      <c r="B111" t="s" s="6">
         <v>230</v>
       </c>
-      <c r="B111" t="s" s="6">
-        <v>231</v>
-      </c>
       <c r="C111" t="s" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D111" s="7">
-        <v>0.711538461538462</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
@@ -5461,13 +5639,17 @@
     </row>
     <row r="112" ht="14.35" customHeight="1">
       <c r="A112" t="s" s="6">
+        <v>231</v>
+      </c>
+      <c r="B112" t="s" s="6">
         <v>232</v>
       </c>
-      <c r="B112" t="s" s="6">
-        <v>233</v>
-      </c>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
+      <c r="C112" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="D112" s="7">
+        <v>0.903846153846154</v>
+      </c>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
@@ -5477,13 +5659,17 @@
     </row>
     <row r="113" ht="14.35" customHeight="1">
       <c r="A113" t="s" s="6">
+        <v>233</v>
+      </c>
+      <c r="B113" t="s" s="6">
         <v>234</v>
       </c>
-      <c r="B113" t="s" s="6">
-        <v>235</v>
-      </c>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
+      <c r="C113" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="D113" s="7">
+        <v>0.942307692307692</v>
+      </c>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
@@ -5493,13 +5679,17 @@
     </row>
     <row r="114" ht="14.35" customHeight="1">
       <c r="A114" t="s" s="6">
+        <v>235</v>
+      </c>
+      <c r="B114" t="s" s="6">
         <v>236</v>
       </c>
-      <c r="B114" t="s" s="6">
-        <v>237</v>
-      </c>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
+      <c r="C114" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D114" s="7">
+        <v>0.711538461538462</v>
+      </c>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
@@ -5507,15 +5697,19 @@
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
     </row>
-    <row r="115" ht="28.35" customHeight="1">
+    <row r="115" ht="14.35" customHeight="1">
       <c r="A115" t="s" s="6">
+        <v>237</v>
+      </c>
+      <c r="B115" t="s" s="6">
         <v>238</v>
       </c>
-      <c r="B115" t="s" s="6">
-        <v>239</v>
-      </c>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
+      <c r="C115" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="D115" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
@@ -5525,13 +5719,15 @@
     </row>
     <row r="116" ht="14.35" customHeight="1">
       <c r="A116" t="s" s="6">
+        <v>239</v>
+      </c>
+      <c r="B116" t="s" s="6">
         <v>240</v>
       </c>
-      <c r="B116" t="s" s="6">
-        <v>241</v>
-      </c>
       <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
+      <c r="D116" s="9">
+        <v>0</v>
+      </c>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
@@ -5541,14 +5737,16 @@
     </row>
     <row r="117" ht="14.35" customHeight="1">
       <c r="A117" t="s" s="6">
+        <v>241</v>
+      </c>
+      <c r="B117" t="s" s="6">
         <v>242</v>
       </c>
-      <c r="B117" t="s" s="6">
-        <v>243</v>
-      </c>
-      <c r="C117" s="8"/>
+      <c r="C117" t="s" s="6">
+        <v>26</v>
+      </c>
       <c r="D117" s="7">
-        <v>0.711538461538462</v>
+        <v>0.75</v>
       </c>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
@@ -5557,18 +5755,18 @@
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
     </row>
-    <row r="118" ht="14.35" customHeight="1">
+    <row r="118" ht="28.35" customHeight="1">
       <c r="A118" t="s" s="6">
+        <v>243</v>
+      </c>
+      <c r="B118" t="s" s="6">
         <v>244</v>
       </c>
-      <c r="B118" t="s" s="6">
-        <v>245</v>
-      </c>
       <c r="C118" t="s" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D118" s="7">
-        <v>0.788461538461538</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
@@ -5579,16 +5777,14 @@
     </row>
     <row r="119" ht="14.35" customHeight="1">
       <c r="A119" t="s" s="6">
+        <v>245</v>
+      </c>
+      <c r="B119" t="s" s="6">
         <v>246</v>
       </c>
-      <c r="B119" t="s" s="6">
-        <v>247</v>
-      </c>
-      <c r="C119" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="D119" s="7">
-        <v>0.75</v>
+      <c r="C119" s="8"/>
+      <c r="D119" s="9">
+        <v>0</v>
       </c>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
@@ -5599,16 +5795,14 @@
     </row>
     <row r="120" ht="14.35" customHeight="1">
       <c r="A120" t="s" s="6">
+        <v>247</v>
+      </c>
+      <c r="B120" t="s" s="6">
         <v>248</v>
       </c>
-      <c r="B120" t="s" s="6">
-        <v>249</v>
-      </c>
-      <c r="C120" t="s" s="6">
-        <v>46</v>
-      </c>
+      <c r="C120" s="8"/>
       <c r="D120" s="7">
-        <v>0.634615384615385</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
@@ -5619,16 +5813,16 @@
     </row>
     <row r="121" ht="14.35" customHeight="1">
       <c r="A121" t="s" s="6">
+        <v>249</v>
+      </c>
+      <c r="B121" t="s" s="6">
         <v>250</v>
-      </c>
-      <c r="B121" t="s" s="6">
-        <v>251</v>
       </c>
       <c r="C121" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D121" s="7">
-        <v>0.903846153846154</v>
+      <c r="D121" s="9">
+        <v>1</v>
       </c>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
@@ -5639,10 +5833,10 @@
     </row>
     <row r="122" ht="14.35" customHeight="1">
       <c r="A122" t="s" s="6">
+        <v>251</v>
+      </c>
+      <c r="B122" t="s" s="6">
         <v>252</v>
-      </c>
-      <c r="B122" t="s" s="6">
-        <v>253</v>
       </c>
       <c r="C122" t="s" s="6">
         <v>12</v>
@@ -5659,13 +5853,17 @@
     </row>
     <row r="123" ht="14.35" customHeight="1">
       <c r="A123" t="s" s="6">
+        <v>253</v>
+      </c>
+      <c r="B123" t="s" s="6">
         <v>254</v>
       </c>
-      <c r="B123" t="s" s="6">
-        <v>255</v>
-      </c>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
+      <c r="C123" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D123" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
@@ -5675,13 +5873,17 @@
     </row>
     <row r="124" ht="14.35" customHeight="1">
       <c r="A124" t="s" s="6">
+        <v>255</v>
+      </c>
+      <c r="B124" t="s" s="6">
         <v>256</v>
       </c>
-      <c r="B124" t="s" s="6">
-        <v>257</v>
-      </c>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
+      <c r="C124" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="D124" s="7">
+        <v>0.634615384615385</v>
+      </c>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
@@ -5691,13 +5893,17 @@
     </row>
     <row r="125" ht="14.35" customHeight="1">
       <c r="A125" t="s" s="6">
+        <v>257</v>
+      </c>
+      <c r="B125" t="s" s="6">
         <v>258</v>
       </c>
-      <c r="B125" t="s" s="6">
-        <v>259</v>
-      </c>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
+      <c r="C125" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D125" s="7">
+        <v>0.903846153846154</v>
+      </c>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
@@ -5707,16 +5913,16 @@
     </row>
     <row r="126" ht="14.35" customHeight="1">
       <c r="A126" t="s" s="6">
+        <v>259</v>
+      </c>
+      <c r="B126" t="s" s="6">
         <v>260</v>
       </c>
-      <c r="B126" t="s" s="6">
-        <v>261</v>
-      </c>
       <c r="C126" t="s" s="6">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D126" s="7">
-        <v>0.903846153846154</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
@@ -5727,16 +5933,14 @@
     </row>
     <row r="127" ht="14.35" customHeight="1">
       <c r="A127" t="s" s="6">
+        <v>261</v>
+      </c>
+      <c r="B127" t="s" s="6">
         <v>262</v>
       </c>
-      <c r="B127" t="s" s="6">
-        <v>263</v>
-      </c>
-      <c r="C127" t="s" s="6">
-        <v>15</v>
-      </c>
+      <c r="C127" s="8"/>
       <c r="D127" s="7">
-        <v>0.711538461538462</v>
+        <v>0.673076923076923</v>
       </c>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
@@ -5747,13 +5951,17 @@
     </row>
     <row r="128" ht="14.35" customHeight="1">
       <c r="A128" t="s" s="6">
+        <v>263</v>
+      </c>
+      <c r="B128" t="s" s="6">
         <v>264</v>
       </c>
-      <c r="B128" t="s" s="6">
-        <v>265</v>
-      </c>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
+      <c r="C128" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D128" s="7">
+        <v>0.615384615384615</v>
+      </c>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
@@ -5763,13 +5971,17 @@
     </row>
     <row r="129" ht="14.35" customHeight="1">
       <c r="A129" t="s" s="6">
+        <v>265</v>
+      </c>
+      <c r="B129" t="s" s="6">
         <v>266</v>
       </c>
-      <c r="B129" t="s" s="6">
-        <v>267</v>
-      </c>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
+      <c r="C129" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D129" s="7">
+        <v>0.846153846153846</v>
+      </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
@@ -5779,16 +5991,16 @@
     </row>
     <row r="130" ht="14.35" customHeight="1">
       <c r="A130" t="s" s="6">
+        <v>267</v>
+      </c>
+      <c r="B130" t="s" s="6">
         <v>268</v>
       </c>
-      <c r="B130" t="s" s="6">
-        <v>269</v>
-      </c>
       <c r="C130" t="s" s="6">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D130" s="7">
-        <v>0.634615384615385</v>
+        <v>0.903846153846154</v>
       </c>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
@@ -5799,16 +6011,16 @@
     </row>
     <row r="131" ht="14.35" customHeight="1">
       <c r="A131" t="s" s="6">
+        <v>269</v>
+      </c>
+      <c r="B131" t="s" s="6">
         <v>270</v>
       </c>
-      <c r="B131" t="s" s="6">
-        <v>271</v>
-      </c>
       <c r="C131" t="s" s="6">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D131" s="7">
-        <v>0.634615384615385</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
@@ -5819,16 +6031,14 @@
     </row>
     <row r="132" ht="14.35" customHeight="1">
       <c r="A132" t="s" s="6">
+        <v>271</v>
+      </c>
+      <c r="B132" t="s" s="6">
         <v>272</v>
       </c>
-      <c r="B132" t="s" s="6">
-        <v>273</v>
-      </c>
-      <c r="C132" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="D132" s="7">
-        <v>0.634615384615385</v>
+      <c r="C132" s="8"/>
+      <c r="D132" s="9">
+        <v>0</v>
       </c>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
@@ -5839,13 +6049,15 @@
     </row>
     <row r="133" ht="14.35" customHeight="1">
       <c r="A133" t="s" s="6">
+        <v>273</v>
+      </c>
+      <c r="B133" t="s" s="6">
         <v>274</v>
       </c>
-      <c r="B133" t="s" s="6">
-        <v>275</v>
-      </c>
       <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
+      <c r="D133" s="9">
+        <v>0</v>
+      </c>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
@@ -5855,16 +6067,16 @@
     </row>
     <row r="134" ht="14.35" customHeight="1">
       <c r="A134" t="s" s="6">
+        <v>275</v>
+      </c>
+      <c r="B134" t="s" s="6">
         <v>276</v>
       </c>
-      <c r="B134" t="s" s="6">
-        <v>277</v>
-      </c>
       <c r="C134" t="s" s="6">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D134" s="7">
-        <v>0.75</v>
+        <v>0.634615384615385</v>
       </c>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
@@ -5875,13 +6087,17 @@
     </row>
     <row r="135" ht="14.35" customHeight="1">
       <c r="A135" t="s" s="6">
+        <v>277</v>
+      </c>
+      <c r="B135" t="s" s="6">
         <v>278</v>
       </c>
-      <c r="B135" t="s" s="6">
-        <v>279</v>
-      </c>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
+      <c r="C135" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="D135" s="7">
+        <v>0.634615384615385</v>
+      </c>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
@@ -5891,13 +6107,17 @@
     </row>
     <row r="136" ht="14.35" customHeight="1">
       <c r="A136" t="s" s="6">
+        <v>279</v>
+      </c>
+      <c r="B136" t="s" s="6">
         <v>280</v>
       </c>
-      <c r="B136" t="s" s="6">
-        <v>281</v>
-      </c>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
+      <c r="C136" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="D136" s="7">
+        <v>0.634615384615385</v>
+      </c>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
@@ -5907,16 +6127,14 @@
     </row>
     <row r="137" ht="14.35" customHeight="1">
       <c r="A137" t="s" s="6">
+        <v>281</v>
+      </c>
+      <c r="B137" t="s" s="6">
         <v>282</v>
       </c>
-      <c r="B137" t="s" s="6">
-        <v>283</v>
-      </c>
-      <c r="C137" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="D137" s="7">
-        <v>0.923076923076923</v>
+      <c r="C137" s="8"/>
+      <c r="D137" s="9">
+        <v>0</v>
       </c>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
@@ -5927,13 +6145,17 @@
     </row>
     <row r="138" ht="14.35" customHeight="1">
       <c r="A138" t="s" s="6">
+        <v>283</v>
+      </c>
+      <c r="B138" t="s" s="6">
         <v>284</v>
       </c>
-      <c r="B138" t="s" s="6">
-        <v>285</v>
-      </c>
-      <c r="C138" s="8"/>
-      <c r="D138" s="8"/>
+      <c r="C138" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D138" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
@@ -5943,13 +6165,17 @@
     </row>
     <row r="139" ht="14.35" customHeight="1">
       <c r="A139" t="s" s="6">
+        <v>285</v>
+      </c>
+      <c r="B139" t="s" s="6">
         <v>286</v>
       </c>
-      <c r="B139" t="s" s="6">
-        <v>287</v>
-      </c>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
+      <c r="C139" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="D139" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
@@ -5959,13 +6185,15 @@
     </row>
     <row r="140" ht="14.35" customHeight="1">
       <c r="A140" t="s" s="6">
+        <v>287</v>
+      </c>
+      <c r="B140" t="s" s="6">
         <v>288</v>
       </c>
-      <c r="B140" t="s" s="6">
-        <v>289</v>
-      </c>
       <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
+      <c r="D140" s="9">
+        <v>0</v>
+      </c>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
@@ -5975,13 +6203,17 @@
     </row>
     <row r="141" ht="14.35" customHeight="1">
       <c r="A141" t="s" s="6">
+        <v>289</v>
+      </c>
+      <c r="B141" t="s" s="6">
         <v>290</v>
       </c>
-      <c r="B141" t="s" s="6">
-        <v>291</v>
-      </c>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
+      <c r="C141" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D141" s="7">
+        <v>0.923076923076923</v>
+      </c>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
@@ -5991,16 +6223,14 @@
     </row>
     <row r="142" ht="14.35" customHeight="1">
       <c r="A142" t="s" s="6">
+        <v>291</v>
+      </c>
+      <c r="B142" t="s" s="6">
         <v>292</v>
       </c>
-      <c r="B142" t="s" s="6">
-        <v>293</v>
-      </c>
-      <c r="C142" t="s" s="6">
-        <v>90</v>
-      </c>
-      <c r="D142" s="7">
-        <v>0.634615384615385</v>
+      <c r="C142" s="8"/>
+      <c r="D142" s="9">
+        <v>0</v>
       </c>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
@@ -6011,14 +6241,16 @@
     </row>
     <row r="143" ht="14.35" customHeight="1">
       <c r="A143" t="s" s="6">
+        <v>293</v>
+      </c>
+      <c r="B143" t="s" s="6">
         <v>294</v>
       </c>
-      <c r="B143" t="s" s="6">
-        <v>295</v>
-      </c>
-      <c r="C143" s="8"/>
+      <c r="C143" t="s" s="6">
+        <v>15</v>
+      </c>
       <c r="D143" s="7">
-        <v>0.711538461538462</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
@@ -6029,16 +6261,14 @@
     </row>
     <row r="144" ht="14.35" customHeight="1">
       <c r="A144" t="s" s="6">
+        <v>295</v>
+      </c>
+      <c r="B144" t="s" s="6">
         <v>296</v>
       </c>
-      <c r="B144" t="s" s="6">
-        <v>297</v>
-      </c>
-      <c r="C144" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="D144" s="7">
-        <v>0.942307692307692</v>
+      <c r="C144" s="8"/>
+      <c r="D144" s="9">
+        <v>0</v>
       </c>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
@@ -6049,16 +6279,14 @@
     </row>
     <row r="145" ht="14.35" customHeight="1">
       <c r="A145" t="s" s="6">
+        <v>297</v>
+      </c>
+      <c r="B145" t="s" s="6">
         <v>298</v>
       </c>
-      <c r="B145" t="s" s="6">
-        <v>299</v>
-      </c>
-      <c r="C145" t="s" s="6">
-        <v>90</v>
-      </c>
-      <c r="D145" s="7">
-        <v>0.634615384615385</v>
+      <c r="C145" s="8"/>
+      <c r="D145" s="9">
+        <v>0</v>
       </c>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
@@ -6069,13 +6297,17 @@
     </row>
     <row r="146" ht="14.35" customHeight="1">
       <c r="A146" t="s" s="6">
+        <v>299</v>
+      </c>
+      <c r="B146" t="s" s="6">
         <v>300</v>
       </c>
-      <c r="B146" t="s" s="6">
-        <v>301</v>
-      </c>
-      <c r="C146" s="8"/>
-      <c r="D146" s="8"/>
+      <c r="C146" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="D146" s="7">
+        <v>0.634615384615385</v>
+      </c>
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
@@ -6085,13 +6317,15 @@
     </row>
     <row r="147" ht="14.35" customHeight="1">
       <c r="A147" t="s" s="6">
+        <v>301</v>
+      </c>
+      <c r="B147" t="s" s="6">
         <v>302</v>
       </c>
-      <c r="B147" t="s" s="6">
-        <v>303</v>
-      </c>
       <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
+      <c r="D147" s="7">
+        <v>0.711538461538462</v>
+      </c>
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
@@ -6101,14 +6335,16 @@
     </row>
     <row r="148" ht="14.35" customHeight="1">
       <c r="A148" t="s" s="6">
+        <v>303</v>
+      </c>
+      <c r="B148" t="s" s="6">
         <v>304</v>
       </c>
-      <c r="B148" t="s" s="6">
-        <v>305</v>
-      </c>
-      <c r="C148" s="8"/>
+      <c r="C148" t="s" s="6">
+        <v>12</v>
+      </c>
       <c r="D148" s="7">
-        <v>0.711538461538462</v>
+        <v>0.942307692307692</v>
       </c>
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
@@ -6119,13 +6355,17 @@
     </row>
     <row r="149" ht="14.35" customHeight="1">
       <c r="A149" t="s" s="6">
+        <v>305</v>
+      </c>
+      <c r="B149" t="s" s="6">
         <v>306</v>
       </c>
-      <c r="B149" t="s" s="6">
-        <v>307</v>
-      </c>
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
+      <c r="C149" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="D149" s="7">
+        <v>0.634615384615385</v>
+      </c>
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
@@ -6135,13 +6375,17 @@
     </row>
     <row r="150" ht="14.35" customHeight="1">
       <c r="A150" t="s" s="6">
+        <v>307</v>
+      </c>
+      <c r="B150" t="s" s="6">
         <v>308</v>
       </c>
-      <c r="B150" t="s" s="6">
-        <v>309</v>
-      </c>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
+      <c r="C150" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="D150" s="7">
+        <v>0.807692307692308</v>
+      </c>
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
@@ -6151,14 +6395,14 @@
     </row>
     <row r="151" ht="14.35" customHeight="1">
       <c r="A151" t="s" s="6">
+        <v>309</v>
+      </c>
+      <c r="B151" t="s" s="6">
         <v>310</v>
       </c>
-      <c r="B151" t="s" s="6">
-        <v>311</v>
-      </c>
       <c r="C151" s="8"/>
-      <c r="D151" s="7">
-        <v>0.75</v>
+      <c r="D151" s="9">
+        <v>0</v>
       </c>
       <c r="E151" s="8"/>
       <c r="F151" s="8"/>
@@ -6169,16 +6413,14 @@
     </row>
     <row r="152" ht="14.35" customHeight="1">
       <c r="A152" t="s" s="6">
+        <v>311</v>
+      </c>
+      <c r="B152" t="s" s="6">
         <v>312</v>
       </c>
-      <c r="B152" t="s" s="6">
-        <v>313</v>
-      </c>
-      <c r="C152" t="s" s="6">
-        <v>90</v>
-      </c>
+      <c r="C152" s="8"/>
       <c r="D152" s="7">
-        <v>0.788461538461538</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
@@ -6189,13 +6431,15 @@
     </row>
     <row r="153" ht="14.35" customHeight="1">
       <c r="A153" t="s" s="6">
+        <v>313</v>
+      </c>
+      <c r="B153" t="s" s="6">
         <v>314</v>
       </c>
-      <c r="B153" t="s" s="6">
-        <v>315</v>
-      </c>
       <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
+      <c r="D153" s="9">
+        <v>0</v>
+      </c>
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
       <c r="G153" s="8"/>
@@ -6205,16 +6449,14 @@
     </row>
     <row r="154" ht="14.35" customHeight="1">
       <c r="A154" t="s" s="6">
+        <v>315</v>
+      </c>
+      <c r="B154" t="s" s="6">
         <v>316</v>
       </c>
-      <c r="B154" t="s" s="6">
-        <v>317</v>
-      </c>
-      <c r="C154" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="D154" s="7">
-        <v>0.826923076923077</v>
+      <c r="C154" s="8"/>
+      <c r="D154" s="9">
+        <v>0</v>
       </c>
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
@@ -6225,13 +6467,15 @@
     </row>
     <row r="155" ht="14.35" customHeight="1">
       <c r="A155" t="s" s="6">
+        <v>317</v>
+      </c>
+      <c r="B155" t="s" s="6">
         <v>318</v>
       </c>
-      <c r="B155" t="s" s="6">
-        <v>319</v>
-      </c>
       <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
+      <c r="D155" s="7">
+        <v>0.75</v>
+      </c>
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
@@ -6241,15 +6485,17 @@
     </row>
     <row r="156" ht="14.35" customHeight="1">
       <c r="A156" t="s" s="6">
+        <v>319</v>
+      </c>
+      <c r="B156" t="s" s="6">
         <v>320</v>
       </c>
-      <c r="B156" t="s" s="6">
-        <v>321</v>
-      </c>
       <c r="C156" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="D156" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="D156" s="7">
+        <v>0.788461538461538</v>
+      </c>
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
       <c r="G156" s="8"/>
@@ -6259,16 +6505,16 @@
     </row>
     <row r="157" ht="14.35" customHeight="1">
       <c r="A157" t="s" s="6">
+        <v>321</v>
+      </c>
+      <c r="B157" t="s" s="6">
         <v>322</v>
       </c>
-      <c r="B157" t="s" s="6">
-        <v>323</v>
-      </c>
       <c r="C157" t="s" s="6">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D157" s="7">
-        <v>0.711538461538462</v>
+        <v>1</v>
       </c>
       <c r="E157" s="8"/>
       <c r="F157" s="8"/>
@@ -6279,13 +6525,17 @@
     </row>
     <row r="158" ht="14.35" customHeight="1">
       <c r="A158" t="s" s="6">
+        <v>323</v>
+      </c>
+      <c r="B158" t="s" s="6">
         <v>324</v>
       </c>
-      <c r="B158" t="s" s="6">
-        <v>325</v>
-      </c>
-      <c r="C158" s="8"/>
-      <c r="D158" s="8"/>
+      <c r="C158" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="D158" s="7">
+        <v>0.826923076923077</v>
+      </c>
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
       <c r="G158" s="8"/>
@@ -6295,16 +6545,14 @@
     </row>
     <row r="159" ht="14.35" customHeight="1">
       <c r="A159" t="s" s="6">
+        <v>325</v>
+      </c>
+      <c r="B159" t="s" s="6">
         <v>326</v>
       </c>
-      <c r="B159" t="s" s="6">
-        <v>327</v>
-      </c>
-      <c r="C159" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="D159" s="7">
-        <v>0.788461538461538</v>
+      <c r="C159" s="8"/>
+      <c r="D159" s="9">
+        <v>0</v>
       </c>
       <c r="E159" s="8"/>
       <c r="F159" s="8"/>
@@ -6315,19 +6563,103 @@
     </row>
     <row r="160" ht="14.35" customHeight="1">
       <c r="A160" t="s" s="6">
+        <v>327</v>
+      </c>
+      <c r="B160" t="s" s="6">
         <v>328</v>
       </c>
-      <c r="B160" t="s" s="6">
-        <v>329</v>
-      </c>
-      <c r="C160" s="8"/>
-      <c r="D160" s="8"/>
+      <c r="C160" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="D160" s="7">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
       <c r="I160" s="8"/>
       <c r="J160" s="8"/>
+    </row>
+    <row r="161" ht="14.35" customHeight="1">
+      <c r="A161" t="s" s="6">
+        <v>329</v>
+      </c>
+      <c r="B161" t="s" s="6">
+        <v>330</v>
+      </c>
+      <c r="C161" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D161" s="7">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+      <c r="H161" s="8"/>
+      <c r="I161" s="8"/>
+      <c r="J161" s="8"/>
+    </row>
+    <row r="162" ht="14.35" customHeight="1">
+      <c r="A162" t="s" s="6">
+        <v>331</v>
+      </c>
+      <c r="B162" t="s" s="6">
+        <v>332</v>
+      </c>
+      <c r="C162" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D162" s="7">
+        <v>0.846153846153846</v>
+      </c>
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
+      <c r="H162" s="8"/>
+      <c r="I162" s="8"/>
+      <c r="J162" s="8"/>
+    </row>
+    <row r="163" ht="14.35" customHeight="1">
+      <c r="A163" t="s" s="6">
+        <v>333</v>
+      </c>
+      <c r="B163" t="s" s="6">
+        <v>334</v>
+      </c>
+      <c r="C163" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D163" s="7">
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="8"/>
+      <c r="J163" s="8"/>
+    </row>
+    <row r="164" ht="14.35" customHeight="1">
+      <c r="A164" t="s" s="6">
+        <v>335</v>
+      </c>
+      <c r="B164" t="s" s="6">
+        <v>336</v>
+      </c>
+      <c r="C164" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="D164" s="9">
+        <v>1</v>
+      </c>
+      <c r="E164" s="8"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
+      <c r="H164" s="8"/>
+      <c r="I164" s="8"/>
+      <c r="J164" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6349,141 +6681,141 @@
     <hyperlink ref="B17" r:id="rId16" location="" tooltip="" display="H220351Y@hit.ac.zw"/>
     <hyperlink ref="B18" r:id="rId17" location="" tooltip="" display="H220135C@hit.ac.zw"/>
     <hyperlink ref="B19" r:id="rId18" location="" tooltip="" display="H220424E@hit.ac.zw"/>
-    <hyperlink ref="B20" r:id="rId19" location="" tooltip="" display="H220141M@hit.ac.zw"/>
-    <hyperlink ref="B21" r:id="rId20" location="" tooltip="" display="H220345Y@hit.ac.zw"/>
-    <hyperlink ref="B22" r:id="rId21" location="" tooltip="" display="H220416V@hit.ac.zw"/>
-    <hyperlink ref="B23" r:id="rId22" location="" tooltip="" display="H220302Q@hit.ac.zw"/>
-    <hyperlink ref="B24" r:id="rId23" location="" tooltip="" display="H220662T@hit.ac.zw"/>
-    <hyperlink ref="B25" r:id="rId24" location="" tooltip="" display="h220670z@hit.ac.zw"/>
-    <hyperlink ref="B26" r:id="rId25" location="" tooltip="" display="H220303N@hit.ac.zw"/>
-    <hyperlink ref="B27" r:id="rId26" location="" tooltip="" display="H220091Z@hit.ac.zw"/>
-    <hyperlink ref="B28" r:id="rId27" location="" tooltip="" display="h210065z@hit.ac.zw"/>
-    <hyperlink ref="B29" r:id="rId28" location="" tooltip="" display="H220366V@hit.ac.zw"/>
-    <hyperlink ref="B30" r:id="rId29" location="" tooltip="" display="H220131R@hit.ac.zw"/>
-    <hyperlink ref="B32" r:id="rId30" location="" tooltip="" display="H220144F@hit.ac.zw"/>
-    <hyperlink ref="B33" r:id="rId31" location="" tooltip="" display="H220018Y@hit.ac.zw"/>
-    <hyperlink ref="B34" r:id="rId32" location="" tooltip="" display="H220476V@hit.ac.zw"/>
-    <hyperlink ref="B35" r:id="rId33" location="" tooltip="" display="H220075W@hit.ac.zw"/>
-    <hyperlink ref="B36" r:id="rId34" location="" tooltip="" display="H220283P@hit.ac.zw"/>
-    <hyperlink ref="B37" r:id="rId35" location="" tooltip="" display="H220023E@hit.ac.zw"/>
-    <hyperlink ref="B38" r:id="rId36" location="" tooltip="" display="H220202J@hit.ac.zw"/>
-    <hyperlink ref="B39" r:id="rId37" location="" tooltip="" display="H220431M@hit.ac.zw"/>
-    <hyperlink ref="B40" r:id="rId38" location="" tooltip="" display="H220218P@hit.ac.zw"/>
-    <hyperlink ref="B41" r:id="rId39" location="" tooltip="" display="H220494C@hit.ac.zw"/>
-    <hyperlink ref="B42" r:id="rId40" location="" tooltip="" display="H220582T@hit.ac.zw"/>
-    <hyperlink ref="B43" r:id="rId41" location="" tooltip="" display="H220084C@hit.ac.zw"/>
-    <hyperlink ref="B44" r:id="rId42" location="" tooltip="" display="H220343Y@hit.ac.zw"/>
-    <hyperlink ref="B45" r:id="rId43" location="" tooltip="" display="H220508Q@hit.ac.zw"/>
-    <hyperlink ref="B46" r:id="rId44" location="" tooltip="" display="H220349M@hit.ac.zw"/>
-    <hyperlink ref="B47" r:id="rId45" location="" tooltip="" display="H220045P@hit.ac.zw"/>
-    <hyperlink ref="B48" r:id="rId46" location="" tooltip="" display="H220038B@hit.ac.zw"/>
-    <hyperlink ref="B50" r:id="rId47" location="" tooltip="" display="H220480A@hit.ac.zw"/>
-    <hyperlink ref="B51" r:id="rId48" location="" tooltip="" display="H220052N@hit.ac.zw"/>
-    <hyperlink ref="B52" r:id="rId49" location="" tooltip="" display="H220379X@hit.ac.zw"/>
-    <hyperlink ref="B53" r:id="rId50" location="" tooltip="" display="H220281P@hit.ac.zw"/>
-    <hyperlink ref="B54" r:id="rId51" location="" tooltip="" display="H220413B@hit.ac.zw"/>
-    <hyperlink ref="B55" r:id="rId52" location="" tooltip="" display="H220042V@hit.ac.zw"/>
-    <hyperlink ref="B56" r:id="rId53" location="" tooltip="" display="H220153W@hit.ac.zw"/>
-    <hyperlink ref="B57" r:id="rId54" location="" tooltip="" display="H220094W@hit.ac.zw"/>
-    <hyperlink ref="B58" r:id="rId55" location="" tooltip="" display="H220230R@hit.ac.zw"/>
-    <hyperlink ref="B59" r:id="rId56" location="" tooltip="" display="H220122N@hit.ac.zw"/>
-    <hyperlink ref="B60" r:id="rId57" location="" tooltip="" display="H220152Q@hit.ac.zw"/>
-    <hyperlink ref="B62" r:id="rId58" location="" tooltip="" display="H220585W@hit.ac.zw"/>
-    <hyperlink ref="B63" r:id="rId59" location="" tooltip="" display="H220047M@hit.ac.zw"/>
-    <hyperlink ref="B64" r:id="rId60" location="" tooltip="" display="H220483J@hit.ac.zw"/>
-    <hyperlink ref="B65" r:id="rId61" location="" tooltip="" display="H220015F@hit.ac.zw"/>
-    <hyperlink ref="B66" r:id="rId62" location="" tooltip="" display="H220184Z@hit.ac.zw"/>
-    <hyperlink ref="B67" r:id="rId63" location="" tooltip="" display="H220392X@hit.ac.zw"/>
-    <hyperlink ref="B68" r:id="rId64" location="" tooltip="" display="H220187N@hit.ac.zw"/>
-    <hyperlink ref="B69" r:id="rId65" location="" tooltip="" display="H220421Y@hit.ac.zw"/>
-    <hyperlink ref="B71" r:id="rId66" location="" tooltip="" display="h200799c@hit.ac.zw"/>
-    <hyperlink ref="B72" r:id="rId67" location="" tooltip="" display="H220211V@hit.ac.zw"/>
-    <hyperlink ref="B73" r:id="rId68" location="" tooltip="" display="H220623Z@hit.ac.zw"/>
-    <hyperlink ref="B74" r:id="rId69" location="" tooltip="" display="H220315H@hit.ac.zw"/>
-    <hyperlink ref="B75" r:id="rId70" location="" tooltip="" display="H220063V@hit.ac.zw"/>
-    <hyperlink ref="B76" r:id="rId71" location="" tooltip="" display="H220019B@hit.ac.zw"/>
-    <hyperlink ref="B77" r:id="rId72" location="" tooltip="" display="H220316P@hit.ac.zw"/>
-    <hyperlink ref="B78" r:id="rId73" location="" tooltip="" display="H220550G@hit.ac.zw"/>
-    <hyperlink ref="B79" r:id="rId74" location="" tooltip="" display="H220004A@hit.ac.zw"/>
-    <hyperlink ref="B80" r:id="rId75" location="" tooltip="" display="H220133W@hit.ac.zw"/>
-    <hyperlink ref="B81" r:id="rId76" location="" tooltip="" display="H220313E@hit.ac.zw"/>
-    <hyperlink ref="B82" r:id="rId77" location="" tooltip="" display="H220427Q@hit.ac.zw"/>
-    <hyperlink ref="B83" r:id="rId78" location="" tooltip="" display="H220070V@hit.ac.zw"/>
-    <hyperlink ref="B84" r:id="rId79" location="" tooltip="" display="H220325F@hit.ac.zw"/>
-    <hyperlink ref="B85" r:id="rId80" location="" tooltip="" display="H220478P@hit.ac.zw"/>
-    <hyperlink ref="B86" r:id="rId81" location="" tooltip="" display="H220260C@hit.ac.zw"/>
-    <hyperlink ref="B87" r:id="rId82" location="" tooltip="" display="h180617h@hit.ac.zw"/>
-    <hyperlink ref="B88" r:id="rId83" location="" tooltip="" display="H220624V@hit.ac.zw"/>
-    <hyperlink ref="B89" r:id="rId84" location="" tooltip="" display="H220231W@hit.ac.zw"/>
-    <hyperlink ref="B90" r:id="rId85" location="" tooltip="" display="H220503P@hit.ac.zw"/>
-    <hyperlink ref="B91" r:id="rId86" location="" tooltip="" display="H220130J@hit.ac.zw"/>
-    <hyperlink ref="B92" r:id="rId87" location="" tooltip="" display="H220086F@hit.ac.zw"/>
-    <hyperlink ref="B93" r:id="rId88" location="" tooltip="" display="H220010Q@hit.ac.zw"/>
-    <hyperlink ref="B94" r:id="rId89" location="" tooltip="" display="h180134p@hit.ac.zw"/>
-    <hyperlink ref="B95" r:id="rId90" location="" tooltip="" display="H220564G@hit.ac.zw"/>
-    <hyperlink ref="B96" r:id="rId91" location="" tooltip="" display="H220462G@hit.ac.zw"/>
-    <hyperlink ref="B97" r:id="rId92" location="" tooltip="" display="H220204H@hit.ac.zw"/>
-    <hyperlink ref="B98" r:id="rId93" location="" tooltip="" display="H220516A@hit.ac.zw"/>
-    <hyperlink ref="B99" r:id="rId94" location="" tooltip="" display="H220183B@hit.ac.zw"/>
-    <hyperlink ref="B100" r:id="rId95" location="" tooltip="" display="H220449Q@hit.ac.zw"/>
-    <hyperlink ref="B102" r:id="rId96" location="" tooltip="" display="H220273W@hit.ac.zw"/>
-    <hyperlink ref="B103" r:id="rId97" location="" tooltip="" display="H220087E@hit.ac.zw"/>
-    <hyperlink ref="B104" r:id="rId98" location="" tooltip="" display="H220033G@hit.ac.zw"/>
-    <hyperlink ref="B105" r:id="rId99" location="" tooltip="" display="H220269E@hit.ac.zw"/>
-    <hyperlink ref="B106" r:id="rId100" location="" tooltip="" display="H220595W@hit.ac.zw"/>
-    <hyperlink ref="B107" r:id="rId101" location="" tooltip="" display="H220591F@hit.ac.zw"/>
-    <hyperlink ref="B108" r:id="rId102" location="" tooltip="" display="H220221G@hit.ac.zw"/>
-    <hyperlink ref="B109" r:id="rId103" location="" tooltip="" display="H220242Z@hit.ac.zw"/>
-    <hyperlink ref="B110" r:id="rId104" location="" tooltip="" display="H220348B@hit.ac.zw"/>
-    <hyperlink ref="B111" r:id="rId105" location="" tooltip="" display="H220418Y@hit.ac.zw"/>
-    <hyperlink ref="B112" r:id="rId106" location="" tooltip="" display="H220450T@hit.ac.zw"/>
-    <hyperlink ref="B113" r:id="rId107" location="" tooltip="" display="H220333Q@hit.ac.zw"/>
-    <hyperlink ref="B114" r:id="rId108" location="" tooltip="" display="H220320J@hit.ac.zw"/>
-    <hyperlink ref="B115" r:id="rId109" location="" tooltip="" display="H220311Y@hit.ac.zw"/>
-    <hyperlink ref="B116" r:id="rId110" location="" tooltip="" display="H220138M@hit.ac.zw"/>
-    <hyperlink ref="B117" r:id="rId111" location="" tooltip="" display="h210574b@hit.ac.zw"/>
-    <hyperlink ref="B118" r:id="rId112" location="" tooltip="" display="H220197V@hit.ac.zw"/>
-    <hyperlink ref="B119" r:id="rId113" location="" tooltip="" display="H220247A@hit.ac.zw"/>
-    <hyperlink ref="B120" r:id="rId114" location="" tooltip="" display="H220432X@hit.ac.zw"/>
-    <hyperlink ref="B121" r:id="rId115" location="" tooltip="" display="H220223N@hit.ac.zw"/>
-    <hyperlink ref="B123" r:id="rId116" location="" tooltip="" display="H220272P@hit.ac.zw"/>
-    <hyperlink ref="B124" r:id="rId117" location="" tooltip="" display="H220615W@hit.ac.zw"/>
-    <hyperlink ref="B125" r:id="rId118" location="" tooltip="" display="H220196A@hit.ac.zw"/>
-    <hyperlink ref="B126" r:id="rId119" location="" tooltip="" display="h220535v@hit.ac.zw"/>
-    <hyperlink ref="B127" r:id="rId120" location="" tooltip="" display="h220688a@hit.ac.zw"/>
-    <hyperlink ref="B128" r:id="rId121" location="" tooltip="" display="H220026H@hit.ac.zw"/>
-    <hyperlink ref="B129" r:id="rId122" location="" tooltip="" display="H220533P@hit.ac.zw"/>
-    <hyperlink ref="B130" r:id="rId123" location="" tooltip="" display="H220435X@hit.ac.zw"/>
-    <hyperlink ref="B131" r:id="rId124" location="" tooltip="" display="H220225C@hit.ac.zw"/>
-    <hyperlink ref="B132" r:id="rId125" location="" tooltip="" display="H220198F@hit.ac.zw"/>
-    <hyperlink ref="B133" r:id="rId126" location="" tooltip="" display="H220290G@hit.ac.zw"/>
-    <hyperlink ref="B134" r:id="rId127" location="" tooltip="" display="H220147B@hit.ac.zw"/>
-    <hyperlink ref="B135" r:id="rId128" location="" tooltip="" display="H220076E@hit.ac.zw"/>
-    <hyperlink ref="B136" r:id="rId129" location="" tooltip="" display="H220129A@hit.ac.zw"/>
-    <hyperlink ref="B137" r:id="rId130" location="" tooltip="" display="H220243A@hit.ac.zw"/>
-    <hyperlink ref="B138" r:id="rId131" location="" tooltip="" display="H220554M@hit.ac.zw"/>
-    <hyperlink ref="B139" r:id="rId132" location="" tooltip="" display="H220415J@hit.ac.zw"/>
-    <hyperlink ref="B140" r:id="rId133" location="" tooltip="" display="H220439A@hit.ac.zw"/>
-    <hyperlink ref="B141" r:id="rId134" location="" tooltip="" display="H220390X@hit.ac.zw"/>
-    <hyperlink ref="B142" r:id="rId135" location="" tooltip="" display="H220536M@hit.ac.zw"/>
-    <hyperlink ref="B143" r:id="rId136" location="" tooltip="" display="H220189E@hit.ac.zw"/>
-    <hyperlink ref="B144" r:id="rId137" location="" tooltip="" display="H220146J@hit.ac.zw"/>
-    <hyperlink ref="B145" r:id="rId138" location="" tooltip="" display="H220179T@hit.ac.zw"/>
-    <hyperlink ref="B146" r:id="rId139" location="" tooltip="" display="H220057B@hit.ac.zw"/>
-    <hyperlink ref="B147" r:id="rId140" location="" tooltip="" display="H220586J@hit.ac.zw"/>
-    <hyperlink ref="B148" r:id="rId141" location="" tooltip="" display="H220417Y@hit.ac.zw"/>
-    <hyperlink ref="B149" r:id="rId142" location="" tooltip="" display="H220553G@hit.ac.zw"/>
-    <hyperlink ref="B150" r:id="rId143" location="" tooltip="" display="H220250Q@hit.ac.zw"/>
-    <hyperlink ref="B151" r:id="rId144" location="" tooltip="" display="H220652T@hit.ac.zw"/>
-    <hyperlink ref="B152" r:id="rId145" location="" tooltip="" display="H220426Q@hit.ac.zw"/>
-    <hyperlink ref="B153" r:id="rId146" location="" tooltip="" display="H220072Y@hit.ac.zw"/>
-    <hyperlink ref="B154" r:id="rId147" location="" tooltip="" display="H220028G@hit.ac.zw"/>
-    <hyperlink ref="B155" r:id="rId148" location="" tooltip="" display="H220081X@hit.ac.zw"/>
-    <hyperlink ref="B156" r:id="rId149" location="" tooltip="" display="h210371h@hit.ac.zw"/>
-    <hyperlink ref="B157" r:id="rId150" location="" tooltip="" display="H220105E@hit.ac.zw"/>
-    <hyperlink ref="B158" r:id="rId151" location="" tooltip="" display="H220215E@hit.ac.zw"/>
-    <hyperlink ref="B159" r:id="rId152" location="" tooltip="" display="H220537B@hit.ac.zw"/>
-    <hyperlink ref="B160" r:id="rId153" location="" tooltip="" display="H220411Q@hit.ac.zw"/>
+    <hyperlink ref="B21" r:id="rId19" location="" tooltip="" display="H220141M@hit.ac.zw"/>
+    <hyperlink ref="B22" r:id="rId20" location="" tooltip="" display="H220345Y@hit.ac.zw"/>
+    <hyperlink ref="B23" r:id="rId21" location="" tooltip="" display="H220416V@hit.ac.zw"/>
+    <hyperlink ref="B24" r:id="rId22" location="" tooltip="" display="H220302Q@hit.ac.zw"/>
+    <hyperlink ref="B25" r:id="rId23" location="" tooltip="" display="H220662T@hit.ac.zw"/>
+    <hyperlink ref="B26" r:id="rId24" location="" tooltip="" display="h220670z@hit.ac.zw"/>
+    <hyperlink ref="B27" r:id="rId25" location="" tooltip="" display="H220303N@hit.ac.zw"/>
+    <hyperlink ref="B28" r:id="rId26" location="" tooltip="" display="H220091Z@hit.ac.zw"/>
+    <hyperlink ref="B29" r:id="rId27" location="" tooltip="" display="h210065z@hit.ac.zw"/>
+    <hyperlink ref="B30" r:id="rId28" location="" tooltip="" display="H220366V@hit.ac.zw"/>
+    <hyperlink ref="B31" r:id="rId29" location="" tooltip="" display="H220131R@hit.ac.zw"/>
+    <hyperlink ref="B33" r:id="rId30" location="" tooltip="" display="H220144F@hit.ac.zw"/>
+    <hyperlink ref="B34" r:id="rId31" location="" tooltip="" display="H220018Y@hit.ac.zw"/>
+    <hyperlink ref="B35" r:id="rId32" location="" tooltip="" display="H220476V@hit.ac.zw"/>
+    <hyperlink ref="B36" r:id="rId33" location="" tooltip="" display="H220075W@hit.ac.zw"/>
+    <hyperlink ref="B37" r:id="rId34" location="" tooltip="" display="H220283P@hit.ac.zw"/>
+    <hyperlink ref="B39" r:id="rId35" location="" tooltip="" display="H220023E@hit.ac.zw"/>
+    <hyperlink ref="B40" r:id="rId36" location="" tooltip="" display="H220202J@hit.ac.zw"/>
+    <hyperlink ref="B41" r:id="rId37" location="" tooltip="" display="H220431M@hit.ac.zw"/>
+    <hyperlink ref="B42" r:id="rId38" location="" tooltip="" display="H220218P@hit.ac.zw"/>
+    <hyperlink ref="B43" r:id="rId39" location="" tooltip="" display="H220494C@hit.ac.zw"/>
+    <hyperlink ref="B44" r:id="rId40" location="" tooltip="" display="H220582T@hit.ac.zw"/>
+    <hyperlink ref="B45" r:id="rId41" location="" tooltip="" display="H220084C@hit.ac.zw"/>
+    <hyperlink ref="B46" r:id="rId42" location="" tooltip="" display="H220343Y@hit.ac.zw"/>
+    <hyperlink ref="B47" r:id="rId43" location="" tooltip="" display="H220508Q@hit.ac.zw"/>
+    <hyperlink ref="B48" r:id="rId44" location="" tooltip="" display="H220349M@hit.ac.zw"/>
+    <hyperlink ref="B49" r:id="rId45" location="" tooltip="" display="H220045P@hit.ac.zw"/>
+    <hyperlink ref="B50" r:id="rId46" location="" tooltip="" display="H220038B@hit.ac.zw"/>
+    <hyperlink ref="B52" r:id="rId47" location="" tooltip="" display="H220480A@hit.ac.zw"/>
+    <hyperlink ref="B53" r:id="rId48" location="" tooltip="" display="H220052N@hit.ac.zw"/>
+    <hyperlink ref="B54" r:id="rId49" location="" tooltip="" display="H220379X@hit.ac.zw"/>
+    <hyperlink ref="B55" r:id="rId50" location="" tooltip="" display="H220281P@hit.ac.zw"/>
+    <hyperlink ref="B56" r:id="rId51" location="" tooltip="" display="H220413B@hit.ac.zw"/>
+    <hyperlink ref="B57" r:id="rId52" location="" tooltip="" display="H220042V@hit.ac.zw"/>
+    <hyperlink ref="B58" r:id="rId53" location="" tooltip="" display="H220153W@hit.ac.zw"/>
+    <hyperlink ref="B59" r:id="rId54" location="" tooltip="" display="H220094W@hit.ac.zw"/>
+    <hyperlink ref="B60" r:id="rId55" location="" tooltip="" display="H220230R@hit.ac.zw"/>
+    <hyperlink ref="B61" r:id="rId56" location="" tooltip="" display="H220122N@hit.ac.zw"/>
+    <hyperlink ref="B62" r:id="rId57" location="" tooltip="" display="H220152Q@hit.ac.zw"/>
+    <hyperlink ref="B64" r:id="rId58" location="" tooltip="" display="H220585W@hit.ac.zw"/>
+    <hyperlink ref="B65" r:id="rId59" location="" tooltip="" display="H220047M@hit.ac.zw"/>
+    <hyperlink ref="B66" r:id="rId60" location="" tooltip="" display="H220483J@hit.ac.zw"/>
+    <hyperlink ref="B67" r:id="rId61" location="" tooltip="" display="H220015F@hit.ac.zw"/>
+    <hyperlink ref="B68" r:id="rId62" location="" tooltip="" display="H220184Z@hit.ac.zw"/>
+    <hyperlink ref="B69" r:id="rId63" location="" tooltip="" display="H220392X@hit.ac.zw"/>
+    <hyperlink ref="B70" r:id="rId64" location="" tooltip="" display="H220187N@hit.ac.zw"/>
+    <hyperlink ref="B71" r:id="rId65" location="" tooltip="" display="H220421Y@hit.ac.zw"/>
+    <hyperlink ref="B73" r:id="rId66" location="" tooltip="" display="h200799c@hit.ac.zw"/>
+    <hyperlink ref="B74" r:id="rId67" location="" tooltip="" display="H220211V@hit.ac.zw"/>
+    <hyperlink ref="B75" r:id="rId68" location="" tooltip="" display="H220623Z@hit.ac.zw"/>
+    <hyperlink ref="B76" r:id="rId69" location="" tooltip="" display="H220315H@hit.ac.zw"/>
+    <hyperlink ref="B77" r:id="rId70" location="" tooltip="" display="H220063V@hit.ac.zw"/>
+    <hyperlink ref="B78" r:id="rId71" location="" tooltip="" display="H220019B@hit.ac.zw"/>
+    <hyperlink ref="B79" r:id="rId72" location="" tooltip="" display="H220316P@hit.ac.zw"/>
+    <hyperlink ref="B80" r:id="rId73" location="" tooltip="" display="H220550G@hit.ac.zw"/>
+    <hyperlink ref="B81" r:id="rId74" location="" tooltip="" display="H220004A@hit.ac.zw"/>
+    <hyperlink ref="B82" r:id="rId75" location="" tooltip="" display="H220133W@hit.ac.zw"/>
+    <hyperlink ref="B83" r:id="rId76" location="" tooltip="" display="H220313E@hit.ac.zw"/>
+    <hyperlink ref="B84" r:id="rId77" location="" tooltip="" display="H220427Q@hit.ac.zw"/>
+    <hyperlink ref="B85" r:id="rId78" location="" tooltip="" display="H220070V@hit.ac.zw"/>
+    <hyperlink ref="B86" r:id="rId79" location="" tooltip="" display="H220325F@hit.ac.zw"/>
+    <hyperlink ref="B87" r:id="rId80" location="" tooltip="" display="H220478P@hit.ac.zw"/>
+    <hyperlink ref="B88" r:id="rId81" location="" tooltip="" display="h180617h@hit.ac.zw"/>
+    <hyperlink ref="B89" r:id="rId82" location="" tooltip="" display="H220260C@hit.ac.zw"/>
+    <hyperlink ref="B90" r:id="rId83" location="" tooltip="" display="H220624V@hit.ac.zw"/>
+    <hyperlink ref="B91" r:id="rId84" location="" tooltip="" display="H220231W@hit.ac.zw"/>
+    <hyperlink ref="B92" r:id="rId85" location="" tooltip="" display="H220503P@hit.ac.zw"/>
+    <hyperlink ref="B93" r:id="rId86" location="" tooltip="" display="H220130J@hit.ac.zw"/>
+    <hyperlink ref="B94" r:id="rId87" location="" tooltip="" display="H220086F@hit.ac.zw"/>
+    <hyperlink ref="B95" r:id="rId88" location="" tooltip="" display="H220010Q@hit.ac.zw"/>
+    <hyperlink ref="B96" r:id="rId89" location="" tooltip="" display="h180134p@hit.ac.zw"/>
+    <hyperlink ref="B97" r:id="rId90" location="" tooltip="" display="H220564G@hit.ac.zw"/>
+    <hyperlink ref="B98" r:id="rId91" location="" tooltip="" display="H220462G@hit.ac.zw"/>
+    <hyperlink ref="B99" r:id="rId92" location="" tooltip="" display="H220204H@hit.ac.zw"/>
+    <hyperlink ref="B100" r:id="rId93" location="" tooltip="" display="H220516A@hit.ac.zw"/>
+    <hyperlink ref="B101" r:id="rId94" location="" tooltip="" display="H220183B@hit.ac.zw"/>
+    <hyperlink ref="B102" r:id="rId95" location="" tooltip="" display="H220449Q@hit.ac.zw"/>
+    <hyperlink ref="B104" r:id="rId96" location="" tooltip="" display="H220273W@hit.ac.zw"/>
+    <hyperlink ref="B105" r:id="rId97" location="" tooltip="" display="H220087E@hit.ac.zw"/>
+    <hyperlink ref="B106" r:id="rId98" location="" tooltip="" display="H220033G@hit.ac.zw"/>
+    <hyperlink ref="B107" r:id="rId99" location="" tooltip="" display="H220269E@hit.ac.zw"/>
+    <hyperlink ref="B108" r:id="rId100" location="" tooltip="" display="H220595W@hit.ac.zw"/>
+    <hyperlink ref="B109" r:id="rId101" location="" tooltip="" display="H220591F@hit.ac.zw"/>
+    <hyperlink ref="B110" r:id="rId102" location="" tooltip="" display="H220221G@hit.ac.zw"/>
+    <hyperlink ref="B112" r:id="rId103" location="" tooltip="" display="H220242Z@hit.ac.zw"/>
+    <hyperlink ref="B113" r:id="rId104" location="" tooltip="" display="H220348B@hit.ac.zw"/>
+    <hyperlink ref="B114" r:id="rId105" location="" tooltip="" display="H220418Y@hit.ac.zw"/>
+    <hyperlink ref="B115" r:id="rId106" location="" tooltip="" display="H220450T@hit.ac.zw"/>
+    <hyperlink ref="B116" r:id="rId107" location="" tooltip="" display="H220333Q@hit.ac.zw"/>
+    <hyperlink ref="B117" r:id="rId108" location="" tooltip="" display="H220320J@hit.ac.zw"/>
+    <hyperlink ref="B118" r:id="rId109" location="" tooltip="" display="H220311Y@hit.ac.zw"/>
+    <hyperlink ref="B119" r:id="rId110" location="" tooltip="" display="H220138M@hit.ac.zw"/>
+    <hyperlink ref="B120" r:id="rId111" location="" tooltip="" display="h210574b@hit.ac.zw"/>
+    <hyperlink ref="B122" r:id="rId112" location="" tooltip="" display="H220197V@hit.ac.zw"/>
+    <hyperlink ref="B123" r:id="rId113" location="" tooltip="" display="H220247A@hit.ac.zw"/>
+    <hyperlink ref="B124" r:id="rId114" location="" tooltip="" display="H220432X@hit.ac.zw"/>
+    <hyperlink ref="B125" r:id="rId115" location="" tooltip="" display="H220223N@hit.ac.zw"/>
+    <hyperlink ref="B127" r:id="rId116" location="" tooltip="" display="H220272P@hit.ac.zw"/>
+    <hyperlink ref="B128" r:id="rId117" location="" tooltip="" display="H220615W@hit.ac.zw"/>
+    <hyperlink ref="B129" r:id="rId118" location="" tooltip="" display="H220196A@hit.ac.zw"/>
+    <hyperlink ref="B130" r:id="rId119" location="" tooltip="" display="h220535v@hit.ac.zw"/>
+    <hyperlink ref="B131" r:id="rId120" location="" tooltip="" display="h220688a@hit.ac.zw"/>
+    <hyperlink ref="B132" r:id="rId121" location="" tooltip="" display="H220026H@hit.ac.zw"/>
+    <hyperlink ref="B133" r:id="rId122" location="" tooltip="" display="H220533P@hit.ac.zw"/>
+    <hyperlink ref="B134" r:id="rId123" location="" tooltip="" display="H220435X@hit.ac.zw"/>
+    <hyperlink ref="B135" r:id="rId124" location="" tooltip="" display="H220225C@hit.ac.zw"/>
+    <hyperlink ref="B136" r:id="rId125" location="" tooltip="" display="H220198F@hit.ac.zw"/>
+    <hyperlink ref="B137" r:id="rId126" location="" tooltip="" display="H220290G@hit.ac.zw"/>
+    <hyperlink ref="B138" r:id="rId127" location="" tooltip="" display="H220147B@hit.ac.zw"/>
+    <hyperlink ref="B139" r:id="rId128" location="" tooltip="" display="H220076E@hit.ac.zw"/>
+    <hyperlink ref="B140" r:id="rId129" location="" tooltip="" display="H220129A@hit.ac.zw"/>
+    <hyperlink ref="B141" r:id="rId130" location="" tooltip="" display="H220243A@hit.ac.zw"/>
+    <hyperlink ref="B142" r:id="rId131" location="" tooltip="" display="H220554M@hit.ac.zw"/>
+    <hyperlink ref="B143" r:id="rId132" location="" tooltip="" display="H220415J@hit.ac.zw"/>
+    <hyperlink ref="B144" r:id="rId133" location="" tooltip="" display="H220439A@hit.ac.zw"/>
+    <hyperlink ref="B145" r:id="rId134" location="" tooltip="" display="H220390X@hit.ac.zw"/>
+    <hyperlink ref="B146" r:id="rId135" location="" tooltip="" display="H220536M@hit.ac.zw"/>
+    <hyperlink ref="B147" r:id="rId136" location="" tooltip="" display="H220189E@hit.ac.zw"/>
+    <hyperlink ref="B148" r:id="rId137" location="" tooltip="" display="H220146J@hit.ac.zw"/>
+    <hyperlink ref="B149" r:id="rId138" location="" tooltip="" display="H220179T@hit.ac.zw"/>
+    <hyperlink ref="B150" r:id="rId139" location="" tooltip="" display="H220057B@hit.ac.zw"/>
+    <hyperlink ref="B151" r:id="rId140" location="" tooltip="" display="H220586J@hit.ac.zw"/>
+    <hyperlink ref="B152" r:id="rId141" location="" tooltip="" display="H220417Y@hit.ac.zw"/>
+    <hyperlink ref="B153" r:id="rId142" location="" tooltip="" display="H220553G@hit.ac.zw"/>
+    <hyperlink ref="B154" r:id="rId143" location="" tooltip="" display="H220250Q@hit.ac.zw"/>
+    <hyperlink ref="B155" r:id="rId144" location="" tooltip="" display="H220652T@hit.ac.zw"/>
+    <hyperlink ref="B156" r:id="rId145" location="" tooltip="" display="H220426Q@hit.ac.zw"/>
+    <hyperlink ref="B157" r:id="rId146" location="" tooltip="" display="H220072Y@hit.ac.zw"/>
+    <hyperlink ref="B158" r:id="rId147" location="" tooltip="" display="H220028G@hit.ac.zw"/>
+    <hyperlink ref="B159" r:id="rId148" location="" tooltip="" display="H220081X@hit.ac.zw"/>
+    <hyperlink ref="B160" r:id="rId149" location="" tooltip="" display="h210371h@hit.ac.zw"/>
+    <hyperlink ref="B161" r:id="rId150" location="" tooltip="" display="H220105E@hit.ac.zw"/>
+    <hyperlink ref="B162" r:id="rId151" location="" tooltip="" display="H220215E@hit.ac.zw"/>
+    <hyperlink ref="B163" r:id="rId152" location="" tooltip="" display="H220537B@hit.ac.zw"/>
+    <hyperlink ref="B164" r:id="rId153" location="" tooltip="" display="H220411Q@hit.ac.zw"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/cw11042022.xlsx
+++ b/cw11042022.xlsx
@@ -3835,8 +3835,8 @@
         <v>49</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="9">
-        <v>0</v>
+      <c r="D19" s="7">
+        <v>0.673076923076923</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>

--- a/cw11042022.xlsx
+++ b/cw11042022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="342">
   <si>
     <t>Surname</t>
   </si>
@@ -178,7 +178,7 @@
     </r>
   </si>
   <si>
-    <t>Charakupauuu</t>
+    <t>Charakupa</t>
   </si>
   <si>
     <r>
@@ -571,6 +571,9 @@
     </r>
   </si>
   <si>
+    <t>Gandanga</t>
+  </si>
+  <si>
     <t>Gavi</t>
   </si>
   <si>
@@ -1009,6 +1012,12 @@
     </r>
   </si>
   <si>
+    <t>Makaza</t>
+  </si>
+  <si>
+    <t>H220671P</t>
+  </si>
+  <si>
     <t>Makudo</t>
   </si>
   <si>
@@ -1646,6 +1655,12 @@
       </rPr>
       <t>h210574b@hit.ac.zw</t>
     </r>
+  </si>
+  <si>
+    <t>Mutanda</t>
+  </si>
+  <si>
+    <t>H220724B</t>
   </si>
   <si>
     <t>Mutangi</t>
@@ -2346,7 +2361,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2362,6 +2377,9 @@
     <xf numFmtId="59" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="2" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2369,6 +2387,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="59" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -3454,7 +3475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J164"/>
+  <dimension ref="A1:J167"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -3521,3145 +3542,3229 @@
         <v>0.923076923076923</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" ht="14.35" customHeight="1">
-      <c r="A3" t="s" s="6">
+      <c r="A3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>0.75</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" ht="14.35" customHeight="1">
-      <c r="A4" t="s" s="6">
+      <c r="A4" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="B4" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9">
+      <c r="C4" s="10"/>
+      <c r="D4" s="11">
         <v>0</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" ht="14.35" customHeight="1">
-      <c r="A5" t="s" s="6">
+      <c r="A5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="B5" t="s" s="6">
+      <c r="B5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="C5" t="s" s="6">
+      <c r="C5" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>0.75</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" ht="14.35" customHeight="1">
-      <c r="A6" t="s" s="6">
+      <c r="A6" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="B6" t="s" s="6">
+      <c r="B6" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7">
+      <c r="C6" s="10"/>
+      <c r="D6" s="8">
         <v>0.673076923076923</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" ht="14.35" customHeight="1">
-      <c r="A7" t="s" s="6">
+      <c r="A7" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="B7" t="s" s="6">
+      <c r="B7" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9">
+      <c r="C7" s="10"/>
+      <c r="D7" s="11">
         <v>0</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" ht="14.35" customHeight="1">
-      <c r="A8" t="s" s="6">
+      <c r="A8" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="B8" t="s" s="6">
+      <c r="B8" t="s" s="7">
         <v>25</v>
       </c>
-      <c r="C8" t="s" s="6">
+      <c r="C8" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <v>0.75</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" ht="14.35" customHeight="1">
-      <c r="A9" t="s" s="6">
+      <c r="A9" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="B9" t="s" s="6">
+      <c r="B9" t="s" s="7">
         <v>28</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9">
+      <c r="C9" s="10"/>
+      <c r="D9" s="11">
         <v>0</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" ht="14.35" customHeight="1">
-      <c r="A10" t="s" s="6">
+      <c r="A10" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="B10" t="s" s="6">
+      <c r="B10" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9">
+      <c r="C10" s="10"/>
+      <c r="D10" s="11">
         <v>0</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" ht="14.35" customHeight="1">
-      <c r="A11" t="s" s="6">
+      <c r="A11" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="B11" t="s" s="6">
+      <c r="B11" t="s" s="7">
         <v>32</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9">
+      <c r="C11" s="10"/>
+      <c r="D11" s="11">
         <v>0</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="E11" s="9">
+        <v>0.298701298701299</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" ht="14.35" customHeight="1">
-      <c r="A12" t="s" s="6">
+      <c r="A12" t="s" s="7">
         <v>33</v>
       </c>
-      <c r="B12" t="s" s="6">
+      <c r="B12" t="s" s="7">
         <v>34</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9">
+      <c r="C12" s="10"/>
+      <c r="D12" s="11">
         <v>0</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" ht="14.35" customHeight="1">
-      <c r="A13" t="s" s="6">
+      <c r="A13" t="s" s="7">
         <v>35</v>
       </c>
-      <c r="B13" t="s" s="6">
+      <c r="B13" t="s" s="7">
         <v>36</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9">
+      <c r="C13" s="10"/>
+      <c r="D13" s="11">
         <v>0</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" ht="14.35" customHeight="1">
-      <c r="A14" t="s" s="6">
+      <c r="A14" t="s" s="7">
         <v>37</v>
       </c>
-      <c r="B14" t="s" s="6">
+      <c r="B14" t="s" s="7">
         <v>38</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9">
+      <c r="C14" s="10"/>
+      <c r="D14" s="11">
         <v>0</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" ht="14.35" customHeight="1">
-      <c r="A15" t="s" s="6">
+      <c r="A15" t="s" s="7">
         <v>39</v>
       </c>
-      <c r="B15" t="s" s="6">
+      <c r="B15" t="s" s="7">
         <v>40</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7">
+      <c r="C15" s="10"/>
+      <c r="D15" s="8">
         <v>0.75</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="E15" s="9">
+        <v>0.506493506493506</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" ht="14.35" customHeight="1">
-      <c r="A16" t="s" s="6">
+      <c r="A16" t="s" s="7">
         <v>41</v>
       </c>
-      <c r="B16" t="s" s="6">
+      <c r="B16" t="s" s="7">
         <v>42</v>
       </c>
-      <c r="C16" t="s" s="6">
+      <c r="C16" t="s" s="7">
         <v>43</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
     </row>
     <row r="17" ht="14.35" customHeight="1">
-      <c r="A17" t="s" s="6">
+      <c r="A17" t="s" s="7">
         <v>44</v>
       </c>
-      <c r="B17" t="s" s="6">
+      <c r="B17" t="s" s="7">
         <v>45</v>
       </c>
-      <c r="C17" t="s" s="6">
+      <c r="C17" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" ht="14.35" customHeight="1">
-      <c r="A18" t="s" s="6">
+      <c r="A18" t="s" s="7">
         <v>46</v>
       </c>
-      <c r="B18" t="s" s="6">
+      <c r="B18" t="s" s="7">
         <v>47</v>
       </c>
-      <c r="C18" t="s" s="6">
+      <c r="C18" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
     </row>
     <row r="19" ht="14.35" customHeight="1">
-      <c r="A19" t="s" s="6">
+      <c r="A19" t="s" s="7">
         <v>48</v>
       </c>
-      <c r="B19" t="s" s="6">
+      <c r="B19" t="s" s="7">
         <v>49</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7">
+      <c r="C19" s="10"/>
+      <c r="D19" s="8">
         <v>0.673076923076923</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
     </row>
     <row r="20" ht="14.35" customHeight="1">
-      <c r="A20" t="s" s="6">
+      <c r="A20" t="s" s="7">
         <v>50</v>
       </c>
-      <c r="B20" t="s" s="6">
+      <c r="B20" t="s" s="7">
         <v>51</v>
       </c>
-      <c r="C20" t="s" s="6">
+      <c r="C20" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="8">
         <v>0.7692307692307691</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
     </row>
     <row r="21" ht="14.35" customHeight="1">
-      <c r="A21" t="s" s="6">
+      <c r="A21" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="B21" t="s" s="6">
+      <c r="B21" t="s" s="7">
         <v>53</v>
       </c>
-      <c r="C21" t="s" s="6">
+      <c r="C21" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="8">
         <v>0.942307692307692</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
     </row>
     <row r="22" ht="14.35" customHeight="1">
-      <c r="A22" t="s" s="6">
+      <c r="A22" t="s" s="7">
         <v>54</v>
       </c>
-      <c r="B22" t="s" s="6">
+      <c r="B22" t="s" s="7">
         <v>55</v>
       </c>
-      <c r="C22" t="s" s="6">
+      <c r="C22" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
     </row>
     <row r="23" ht="14.35" customHeight="1">
-      <c r="A23" t="s" s="6">
+      <c r="A23" t="s" s="7">
         <v>56</v>
       </c>
-      <c r="B23" t="s" s="6">
+      <c r="B23" t="s" s="7">
         <v>57</v>
       </c>
-      <c r="C23" t="s" s="6">
+      <c r="C23" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
     </row>
     <row r="24" ht="14.35" customHeight="1">
-      <c r="A24" t="s" s="6">
+      <c r="A24" t="s" s="7">
         <v>58</v>
       </c>
-      <c r="B24" t="s" s="6">
+      <c r="B24" t="s" s="7">
         <v>59</v>
       </c>
-      <c r="C24" t="s" s="6">
+      <c r="C24" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="8">
         <v>0.903846153846154</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
     </row>
     <row r="25" ht="14.35" customHeight="1">
-      <c r="A25" t="s" s="6">
+      <c r="A25" t="s" s="7">
         <v>60</v>
       </c>
-      <c r="B25" t="s" s="6">
+      <c r="B25" t="s" s="7">
         <v>61</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9">
+      <c r="C25" s="10"/>
+      <c r="D25" s="11">
         <v>0</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
     </row>
     <row r="26" ht="14.35" customHeight="1">
-      <c r="A26" t="s" s="6">
+      <c r="A26" t="s" s="7">
         <v>62</v>
       </c>
-      <c r="B26" t="s" s="6">
+      <c r="B26" t="s" s="7">
         <v>63</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9">
+      <c r="C26" s="10"/>
+      <c r="D26" s="11">
         <v>0</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
     </row>
     <row r="27" ht="14.35" customHeight="1">
-      <c r="A27" t="s" s="6">
+      <c r="A27" t="s" s="7">
         <v>64</v>
       </c>
-      <c r="B27" t="s" s="6">
+      <c r="B27" t="s" s="7">
         <v>65</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9">
+      <c r="C27" s="10"/>
+      <c r="D27" s="11">
         <v>0</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
     </row>
     <row r="28" ht="14.35" customHeight="1">
-      <c r="A28" t="s" s="6">
+      <c r="A28" t="s" s="7">
         <v>66</v>
       </c>
-      <c r="B28" t="s" s="6">
+      <c r="B28" t="s" s="7">
         <v>67</v>
       </c>
-      <c r="C28" t="s" s="6">
+      <c r="C28" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
     </row>
     <row r="29" ht="14.35" customHeight="1">
-      <c r="A29" t="s" s="6">
+      <c r="A29" t="s" s="7">
         <v>68</v>
       </c>
-      <c r="B29" t="s" s="6">
+      <c r="B29" t="s" s="7">
         <v>69</v>
       </c>
-      <c r="C29" t="s" s="6">
+      <c r="C29" t="s" s="7">
         <v>43</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="8">
         <v>0.7692307692307691</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
     </row>
     <row r="30" ht="14.35" customHeight="1">
-      <c r="A30" t="s" s="6">
+      <c r="A30" t="s" s="7">
         <v>70</v>
       </c>
-      <c r="B30" t="s" s="6">
+      <c r="B30" t="s" s="7">
         <v>71</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9">
+      <c r="C30" s="10"/>
+      <c r="D30" s="11">
         <v>0</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
     </row>
     <row r="31" ht="14.35" customHeight="1">
-      <c r="A31" t="s" s="6">
+      <c r="A31" t="s" s="7">
         <v>72</v>
       </c>
-      <c r="B31" t="s" s="6">
+      <c r="B31" t="s" s="7">
         <v>73</v>
       </c>
-      <c r="C31" t="s" s="6">
+      <c r="C31" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
     </row>
     <row r="32" ht="14.35" customHeight="1">
-      <c r="A32" t="s" s="6">
+      <c r="A32" t="s" s="7">
         <v>74</v>
       </c>
-      <c r="B32" t="s" s="6">
+      <c r="B32" t="s" s="7">
         <v>75</v>
       </c>
-      <c r="C32" t="s" s="6">
+      <c r="C32" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="8">
         <v>0.692307692307692</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
     </row>
     <row r="33" ht="14.35" customHeight="1">
-      <c r="A33" t="s" s="6">
+      <c r="A33" t="s" s="7">
         <v>76</v>
       </c>
-      <c r="B33" t="s" s="6">
+      <c r="B33" t="s" s="7">
         <v>77</v>
       </c>
-      <c r="C33" t="s" s="6">
+      <c r="C33" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
     </row>
     <row r="34" ht="14.35" customHeight="1">
-      <c r="A34" t="s" s="6">
+      <c r="A34" t="s" s="7">
         <v>76</v>
       </c>
-      <c r="B34" t="s" s="6">
+      <c r="B34" t="s" s="7">
         <v>78</v>
       </c>
-      <c r="C34" t="s" s="6">
+      <c r="C34" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="11">
         <v>1</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
     </row>
     <row r="35" ht="14.35" customHeight="1">
-      <c r="A35" t="s" s="6">
+      <c r="A35" t="s" s="7">
         <v>79</v>
       </c>
-      <c r="B35" t="s" s="6">
+      <c r="B35" t="s" s="7">
         <v>80</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9">
+      <c r="C35" s="10"/>
+      <c r="D35" s="11">
         <v>0</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
     </row>
     <row r="36" ht="14.35" customHeight="1">
-      <c r="A36" t="s" s="6">
+      <c r="A36" t="s" s="7">
         <v>81</v>
       </c>
-      <c r="B36" t="s" s="6">
+      <c r="B36" t="s" s="7">
         <v>82</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="7">
+      <c r="C36" s="10"/>
+      <c r="D36" s="8">
         <v>0.75</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
     </row>
     <row r="37" ht="14.35" customHeight="1">
-      <c r="A37" t="s" s="6">
+      <c r="A37" t="s" s="7">
         <v>83</v>
       </c>
-      <c r="B37" t="s" s="6">
+      <c r="B37" t="s" s="7">
         <v>84</v>
       </c>
-      <c r="C37" t="s" s="6">
+      <c r="C37" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
     </row>
     <row r="38" ht="14.35" customHeight="1">
-      <c r="A38" t="s" s="6">
+      <c r="A38" t="s" s="7">
         <v>83</v>
       </c>
-      <c r="B38" t="s" s="6">
+      <c r="B38" t="s" s="7">
         <v>85</v>
       </c>
-      <c r="C38" t="s" s="6">
+      <c r="C38" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="8">
         <v>0.807692307692308</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
     </row>
     <row r="39" ht="14.35" customHeight="1">
-      <c r="A39" t="s" s="6">
+      <c r="A39" t="s" s="7">
         <v>86</v>
       </c>
-      <c r="B39" t="s" s="6">
+      <c r="B39" t="s" s="7">
         <v>87</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="7">
+      <c r="C39" s="10"/>
+      <c r="D39" s="8">
         <v>0.75</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
+      <c r="E39" s="9">
+        <v>0.441558441558442</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
     </row>
     <row r="40" ht="14.35" customHeight="1">
-      <c r="A40" t="s" s="6">
+      <c r="A40" t="s" s="7">
         <v>88</v>
       </c>
-      <c r="B40" t="s" s="6">
+      <c r="B40" t="s" s="7">
         <v>89</v>
       </c>
-      <c r="C40" t="s" s="6">
+      <c r="C40" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="8">
         <v>0.75</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
     </row>
     <row r="41" ht="14.35" customHeight="1">
-      <c r="A41" t="s" s="6">
+      <c r="A41" t="s" s="7">
         <v>90</v>
       </c>
-      <c r="B41" t="s" s="6">
+      <c r="B41" s="10"/>
+      <c r="C41" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="D41" s="11">
+        <v>0</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0.168831168831169</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+    </row>
+    <row r="42" ht="14.35" customHeight="1">
+      <c r="A42" t="s" s="7">
         <v>91</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9">
+      <c r="B42" t="s" s="7">
+        <v>92</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11">
         <v>0</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-    </row>
-    <row r="42" ht="14.35" customHeight="1">
-      <c r="A42" t="s" s="6">
-        <v>92</v>
-      </c>
-      <c r="B42" t="s" s="6">
+      <c r="E42" s="9"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+    </row>
+    <row r="43" ht="14.35" customHeight="1">
+      <c r="A43" t="s" s="7">
         <v>93</v>
       </c>
-      <c r="C42" t="s" s="6">
+      <c r="B43" t="s" s="7">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s" s="7">
         <v>43</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D43" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-    </row>
-    <row r="43" ht="14.35" customHeight="1">
-      <c r="A43" t="s" s="6">
-        <v>94</v>
-      </c>
-      <c r="B43" t="s" s="6">
+      <c r="E43" s="9"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+    </row>
+    <row r="44" ht="14.35" customHeight="1">
+      <c r="A44" t="s" s="7">
         <v>95</v>
       </c>
-      <c r="C43" t="s" s="6">
+      <c r="B44" t="s" s="7">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D44" s="8">
         <v>0.807692307692308</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-    </row>
-    <row r="44" ht="14.35" customHeight="1">
-      <c r="A44" t="s" s="6">
-        <v>96</v>
-      </c>
-      <c r="B44" t="s" s="6">
+      <c r="E44" s="9"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+    </row>
+    <row r="45" ht="14.35" customHeight="1">
+      <c r="A45" t="s" s="7">
         <v>97</v>
       </c>
-      <c r="C44" t="s" s="6">
+      <c r="B45" t="s" s="7">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D45" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-    </row>
-    <row r="45" ht="14.35" customHeight="1">
-      <c r="A45" t="s" s="6">
-        <v>98</v>
-      </c>
-      <c r="B45" t="s" s="6">
+      <c r="E45" s="9"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+    </row>
+    <row r="46" ht="14.35" customHeight="1">
+      <c r="A46" t="s" s="7">
         <v>99</v>
       </c>
-      <c r="C45" t="s" s="6">
+      <c r="B46" t="s" s="7">
+        <v>100</v>
+      </c>
+      <c r="C46" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D46" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-    </row>
-    <row r="46" ht="14.35" customHeight="1">
-      <c r="A46" t="s" s="6">
-        <v>100</v>
-      </c>
-      <c r="B46" t="s" s="6">
+      <c r="E46" s="9"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+    </row>
+    <row r="47" ht="14.35" customHeight="1">
+      <c r="A47" t="s" s="7">
         <v>101</v>
       </c>
-      <c r="C46" t="s" s="6">
+      <c r="B47" t="s" s="7">
+        <v>102</v>
+      </c>
+      <c r="C47" t="s" s="7">
         <v>43</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D47" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-    </row>
-    <row r="47" ht="14.35" customHeight="1">
-      <c r="A47" t="s" s="6">
-        <v>102</v>
-      </c>
-      <c r="B47" t="s" s="6">
+      <c r="E47" s="9"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+    </row>
+    <row r="48" ht="14.35" customHeight="1">
+      <c r="A48" t="s" s="7">
         <v>103</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="7">
+      <c r="B48" t="s" s="7">
+        <v>104</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-    </row>
-    <row r="48" ht="14.35" customHeight="1">
-      <c r="A48" t="s" s="6">
-        <v>104</v>
-      </c>
-      <c r="B48" t="s" s="6">
+      <c r="E48" s="9"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+    </row>
+    <row r="49" ht="14.35" customHeight="1">
+      <c r="A49" t="s" s="7">
         <v>105</v>
       </c>
-      <c r="C48" t="s" s="6">
+      <c r="B49" t="s" s="7">
+        <v>106</v>
+      </c>
+      <c r="C49" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D49" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-    </row>
-    <row r="49" ht="14.35" customHeight="1">
-      <c r="A49" t="s" s="6">
-        <v>106</v>
-      </c>
-      <c r="B49" t="s" s="6">
+      <c r="E49" s="9"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+    </row>
+    <row r="50" ht="14.35" customHeight="1">
+      <c r="A50" t="s" s="7">
         <v>107</v>
       </c>
-      <c r="C49" t="s" s="6">
+      <c r="B50" t="s" s="7">
+        <v>108</v>
+      </c>
+      <c r="C50" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D50" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-    </row>
-    <row r="50" ht="14.35" customHeight="1">
-      <c r="A50" t="s" s="6">
-        <v>108</v>
-      </c>
-      <c r="B50" t="s" s="6">
+      <c r="E50" s="9"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+    </row>
+    <row r="51" ht="14.35" customHeight="1">
+      <c r="A51" t="s" s="7">
         <v>109</v>
       </c>
-      <c r="C50" t="s" s="6">
+      <c r="B51" t="s" s="7">
+        <v>110</v>
+      </c>
+      <c r="C51" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D51" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-    </row>
-    <row r="51" ht="14.35" customHeight="1">
-      <c r="A51" t="s" s="6">
-        <v>110</v>
-      </c>
-      <c r="B51" t="s" s="6">
+      <c r="E51" s="9"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+    </row>
+    <row r="52" ht="14.35" customHeight="1">
+      <c r="A52" t="s" s="7">
         <v>111</v>
       </c>
-      <c r="C51" t="s" s="6">
+      <c r="B52" t="s" s="7">
+        <v>112</v>
+      </c>
+      <c r="C52" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D52" s="8">
         <v>0.75</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-    </row>
-    <row r="52" ht="14.35" customHeight="1">
-      <c r="A52" t="s" s="6">
-        <v>112</v>
-      </c>
-      <c r="B52" t="s" s="6">
+      <c r="E52" s="9"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+    </row>
+    <row r="53" ht="14.35" customHeight="1">
+      <c r="A53" t="s" s="7">
         <v>113</v>
       </c>
-      <c r="C52" t="s" s="6">
+      <c r="B53" t="s" s="7">
+        <v>114</v>
+      </c>
+      <c r="C53" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D53" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-    </row>
-    <row r="53" ht="14.35" customHeight="1">
-      <c r="A53" t="s" s="6">
-        <v>114</v>
-      </c>
-      <c r="B53" t="s" s="6">
+      <c r="E53" s="9"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+    </row>
+    <row r="54" ht="14.35" customHeight="1">
+      <c r="A54" t="s" s="7">
         <v>115</v>
       </c>
-      <c r="C53" t="s" s="6">
+      <c r="B54" t="s" s="7">
+        <v>116</v>
+      </c>
+      <c r="C54" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D54" s="8">
         <v>0.807692307692308</v>
       </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-    </row>
-    <row r="54" ht="14.35" customHeight="1">
-      <c r="A54" t="s" s="6">
-        <v>116</v>
-      </c>
-      <c r="B54" t="s" s="6">
+      <c r="E54" s="9"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+    </row>
+    <row r="55" ht="14.35" customHeight="1">
+      <c r="A55" t="s" s="7">
         <v>117</v>
       </c>
-      <c r="C54" t="s" s="6">
+      <c r="B55" t="s" s="7">
+        <v>118</v>
+      </c>
+      <c r="C55" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D55" s="8">
         <v>0.826923076923077</v>
       </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-    </row>
-    <row r="55" ht="14.35" customHeight="1">
-      <c r="A55" t="s" s="6">
-        <v>118</v>
-      </c>
-      <c r="B55" t="s" s="6">
+      <c r="E55" s="9"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+    </row>
+    <row r="56" ht="14.35" customHeight="1">
+      <c r="A56" t="s" s="7">
         <v>119</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="9">
+      <c r="B56" t="s" s="7">
+        <v>120</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="11">
         <v>0</v>
       </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-    </row>
-    <row r="56" ht="14.35" customHeight="1">
-      <c r="A56" t="s" s="6">
-        <v>120</v>
-      </c>
-      <c r="B56" t="s" s="6">
+      <c r="E56" s="9"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+    </row>
+    <row r="57" ht="14.35" customHeight="1">
+      <c r="A57" t="s" s="7">
         <v>121</v>
       </c>
-      <c r="C56" t="s" s="6">
+      <c r="B57" t="s" s="7">
+        <v>122</v>
+      </c>
+      <c r="C57" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D57" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-    </row>
-    <row r="57" ht="14.35" customHeight="1">
-      <c r="A57" t="s" s="6">
-        <v>122</v>
-      </c>
-      <c r="B57" t="s" s="6">
+      <c r="E57" s="9"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+    </row>
+    <row r="58" ht="14.35" customHeight="1">
+      <c r="A58" t="s" s="7">
         <v>123</v>
       </c>
-      <c r="C57" t="s" s="6">
+      <c r="B58" t="s" s="7">
+        <v>124</v>
+      </c>
+      <c r="C58" t="s" s="7">
         <v>43</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D58" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-    </row>
-    <row r="58" ht="14.35" customHeight="1">
-      <c r="A58" t="s" s="6">
-        <v>124</v>
-      </c>
-      <c r="B58" t="s" s="6">
+      <c r="E58" s="9"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+    </row>
+    <row r="59" ht="14.35" customHeight="1">
+      <c r="A59" t="s" s="7">
         <v>125</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="9">
+      <c r="B59" t="s" s="7">
+        <v>126</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="11">
         <v>0</v>
       </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-    </row>
-    <row r="59" ht="14.35" customHeight="1">
-      <c r="A59" t="s" s="6">
-        <v>126</v>
-      </c>
-      <c r="B59" t="s" s="6">
+      <c r="E59" s="9"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+    </row>
+    <row r="60" ht="14.35" customHeight="1">
+      <c r="A60" t="s" s="7">
         <v>127</v>
       </c>
-      <c r="C59" t="s" s="6">
+      <c r="B60" t="s" s="7">
+        <v>128</v>
+      </c>
+      <c r="C60" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D60" s="8">
         <v>0.615384615384615</v>
       </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-    </row>
-    <row r="60" ht="14.35" customHeight="1">
-      <c r="A60" t="s" s="6">
-        <v>128</v>
-      </c>
-      <c r="B60" t="s" s="6">
+      <c r="E60" s="9"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+    </row>
+    <row r="61" ht="14.35" customHeight="1">
+      <c r="A61" t="s" s="7">
         <v>129</v>
       </c>
-      <c r="C60" t="s" s="6">
+      <c r="B61" t="s" s="7">
+        <v>130</v>
+      </c>
+      <c r="C61" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D61" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-    </row>
-    <row r="61" ht="14.35" customHeight="1">
-      <c r="A61" t="s" s="6">
-        <v>130</v>
-      </c>
-      <c r="B61" t="s" s="6">
+      <c r="E61" s="9">
+        <v>0.350649350649351</v>
+      </c>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+    </row>
+    <row r="62" ht="14.35" customHeight="1">
+      <c r="A62" t="s" s="7">
         <v>131</v>
       </c>
-      <c r="C61" t="s" s="6">
+      <c r="B62" t="s" s="7">
+        <v>132</v>
+      </c>
+      <c r="C62" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D62" s="8">
         <v>0.75</v>
       </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-    </row>
-    <row r="62" ht="14.35" customHeight="1">
-      <c r="A62" t="s" s="6">
-        <v>132</v>
-      </c>
-      <c r="B62" t="s" s="6">
+      <c r="E62" s="9"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+    </row>
+    <row r="63" ht="14.35" customHeight="1">
+      <c r="A63" t="s" s="7">
         <v>133</v>
       </c>
-      <c r="C62" t="s" s="6">
+      <c r="B63" t="s" s="7">
+        <v>134</v>
+      </c>
+      <c r="C63" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D63" s="8">
         <v>0.75</v>
       </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-    </row>
-    <row r="63" ht="14.35" customHeight="1">
-      <c r="A63" t="s" s="6">
-        <v>134</v>
-      </c>
-      <c r="B63" t="s" s="6">
+      <c r="E63" s="9"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+    </row>
+    <row r="64" ht="14.35" customHeight="1">
+      <c r="A64" t="s" s="7">
         <v>135</v>
       </c>
-      <c r="C63" t="s" s="6">
+      <c r="B64" t="s" s="7">
+        <v>136</v>
+      </c>
+      <c r="C64" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D64" s="8">
         <v>0.75</v>
       </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-    </row>
-    <row r="64" ht="14.35" customHeight="1">
-      <c r="A64" t="s" s="6">
-        <v>136</v>
-      </c>
-      <c r="B64" t="s" s="6">
+      <c r="E64" s="9"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+    </row>
+    <row r="65" ht="14.35" customHeight="1">
+      <c r="A65" t="s" s="7">
         <v>137</v>
       </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="9">
+      <c r="B65" t="s" s="7">
+        <v>138</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="11">
         <v>0</v>
       </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-    </row>
-    <row r="65" ht="14.35" customHeight="1">
-      <c r="A65" t="s" s="6">
-        <v>138</v>
-      </c>
-      <c r="B65" t="s" s="6">
+      <c r="E65" s="9"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+    </row>
+    <row r="66" ht="14.35" customHeight="1">
+      <c r="A66" t="s" s="7">
         <v>139</v>
       </c>
-      <c r="C65" t="s" s="6">
+      <c r="B66" t="s" s="7">
+        <v>140</v>
+      </c>
+      <c r="C66" t="s" s="7">
         <v>43</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D66" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-    </row>
-    <row r="66" ht="14.35" customHeight="1">
-      <c r="A66" t="s" s="6">
-        <v>140</v>
-      </c>
-      <c r="B66" t="s" s="6">
+      <c r="E66" s="9"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+    </row>
+    <row r="67" ht="14.35" customHeight="1">
+      <c r="A67" t="s" s="7">
         <v>141</v>
       </c>
-      <c r="C66" t="s" s="6">
+      <c r="B67" t="s" s="7">
+        <v>142</v>
+      </c>
+      <c r="C67" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D67" s="8">
         <v>0.923076923076923</v>
       </c>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-    </row>
-    <row r="67" ht="14.35" customHeight="1">
-      <c r="A67" t="s" s="6">
-        <v>142</v>
-      </c>
-      <c r="B67" t="s" s="6">
+      <c r="E67" s="9"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+    </row>
+    <row r="68" ht="14.35" customHeight="1">
+      <c r="A68" t="s" s="7">
         <v>143</v>
       </c>
-      <c r="C67" t="s" s="6">
+      <c r="B68" t="s" s="7">
+        <v>144</v>
+      </c>
+      <c r="C68" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D68" s="11">
         <v>1</v>
       </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-    </row>
-    <row r="68" ht="14.35" customHeight="1">
-      <c r="A68" t="s" s="6">
-        <v>144</v>
-      </c>
-      <c r="B68" t="s" s="6">
+      <c r="E68" s="9"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+    </row>
+    <row r="69" ht="14.35" customHeight="1">
+      <c r="A69" t="s" s="7">
         <v>145</v>
       </c>
-      <c r="C68" t="s" s="6">
+      <c r="B69" t="s" s="7">
+        <v>146</v>
+      </c>
+      <c r="C69" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D69" s="8">
         <v>0.75</v>
       </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-    </row>
-    <row r="69" ht="14.35" customHeight="1">
-      <c r="A69" t="s" s="6">
-        <v>146</v>
-      </c>
-      <c r="B69" t="s" s="6">
+      <c r="E69" s="9"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+    </row>
+    <row r="70" ht="14.35" customHeight="1">
+      <c r="A70" t="s" s="7">
         <v>147</v>
       </c>
-      <c r="C69" t="s" s="6">
+      <c r="B70" t="s" s="7">
+        <v>148</v>
+      </c>
+      <c r="C70" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D70" s="8">
         <v>0.826923076923077</v>
       </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-    </row>
-    <row r="70" ht="14.35" customHeight="1">
-      <c r="A70" t="s" s="6">
-        <v>148</v>
-      </c>
-      <c r="B70" t="s" s="6">
+      <c r="E70" s="9">
+        <v>0.337662337662338</v>
+      </c>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+    </row>
+    <row r="71" ht="14.35" customHeight="1">
+      <c r="A71" t="s" s="7">
         <v>149</v>
       </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="9">
+      <c r="B71" t="s" s="7">
+        <v>150</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="11">
         <v>0</v>
       </c>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-    </row>
-    <row r="71" ht="14.35" customHeight="1">
-      <c r="A71" t="s" s="6">
-        <v>150</v>
-      </c>
-      <c r="B71" t="s" s="6">
+      <c r="E71" s="9"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+    </row>
+    <row r="72" ht="14.35" customHeight="1">
+      <c r="A72" t="s" s="7">
         <v>151</v>
       </c>
-      <c r="C71" t="s" s="6">
+      <c r="B72" t="s" s="7">
+        <v>152</v>
+      </c>
+      <c r="C72" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D72" s="8">
         <v>0.75</v>
       </c>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-    </row>
-    <row r="72" ht="14.35" customHeight="1">
-      <c r="A72" t="s" s="6">
-        <v>152</v>
-      </c>
-      <c r="B72" t="s" s="6">
+      <c r="E72" s="9"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+    </row>
+    <row r="73" ht="14.35" customHeight="1">
+      <c r="A73" t="s" s="7">
         <v>153</v>
       </c>
-      <c r="C72" t="s" s="6">
+      <c r="B73" t="s" s="7">
+        <v>154</v>
+      </c>
+      <c r="C73" t="s" s="7">
         <v>43</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D73" s="8">
         <v>0.942307692307692</v>
       </c>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-    </row>
-    <row r="73" ht="14.35" customHeight="1">
-      <c r="A73" t="s" s="6">
-        <v>154</v>
-      </c>
-      <c r="B73" t="s" s="6">
+      <c r="E73" s="9">
+        <v>0.480519480519481</v>
+      </c>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+    </row>
+    <row r="74" ht="14.35" customHeight="1">
+      <c r="A74" t="s" s="7">
         <v>155</v>
       </c>
-      <c r="C73" t="s" s="6">
+      <c r="B74" t="s" s="7">
+        <v>156</v>
+      </c>
+      <c r="C74" t="s" s="7">
         <v>43</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D74" s="8">
         <v>0.807692307692308</v>
       </c>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-    </row>
-    <row r="74" ht="14.35" customHeight="1">
-      <c r="A74" t="s" s="6">
-        <v>156</v>
-      </c>
-      <c r="B74" t="s" s="6">
+      <c r="E74" s="9"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+    </row>
+    <row r="75" ht="14.35" customHeight="1">
+      <c r="A75" t="s" s="7">
         <v>157</v>
       </c>
-      <c r="C74" t="s" s="6">
+      <c r="B75" t="s" s="7">
+        <v>158</v>
+      </c>
+      <c r="C75" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="D75" s="11">
+        <v>0</v>
+      </c>
+      <c r="E75" s="9">
+        <v>0.337662337662338</v>
+      </c>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+    </row>
+    <row r="76" ht="14.35" customHeight="1">
+      <c r="A76" t="s" s="7">
+        <v>159</v>
+      </c>
+      <c r="B76" t="s" s="7">
+        <v>160</v>
+      </c>
+      <c r="C76" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D76" s="8">
         <v>0.826923076923077</v>
       </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-    </row>
-    <row r="75" ht="14.35" customHeight="1">
-      <c r="A75" t="s" s="6">
-        <v>158</v>
-      </c>
-      <c r="B75" t="s" s="6">
-        <v>159</v>
-      </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="7">
+      <c r="E76" s="9"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+    </row>
+    <row r="77" ht="14.35" customHeight="1">
+      <c r="A77" t="s" s="7">
+        <v>161</v>
+      </c>
+      <c r="B77" t="s" s="7">
+        <v>162</v>
+      </c>
+      <c r="C77" s="10"/>
+      <c r="D77" s="8">
         <v>0.673076923076923</v>
       </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-    </row>
-    <row r="76" ht="14.35" customHeight="1">
-      <c r="A76" t="s" s="6">
-        <v>160</v>
-      </c>
-      <c r="B76" t="s" s="6">
-        <v>161</v>
-      </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="9">
+      <c r="E77" s="9"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+    </row>
+    <row r="78" ht="14.35" customHeight="1">
+      <c r="A78" t="s" s="7">
+        <v>163</v>
+      </c>
+      <c r="B78" t="s" s="7">
+        <v>164</v>
+      </c>
+      <c r="C78" s="10"/>
+      <c r="D78" s="11">
         <v>0</v>
       </c>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-    </row>
-    <row r="77" ht="14.35" customHeight="1">
-      <c r="A77" t="s" s="6">
-        <v>162</v>
-      </c>
-      <c r="B77" t="s" s="6">
-        <v>163</v>
-      </c>
-      <c r="C77" t="s" s="6">
+      <c r="E78" s="9"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+    </row>
+    <row r="79" ht="14.35" customHeight="1">
+      <c r="A79" t="s" s="7">
+        <v>165</v>
+      </c>
+      <c r="B79" t="s" s="7">
+        <v>166</v>
+      </c>
+      <c r="C79" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D79" s="8">
         <v>0.75</v>
       </c>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-    </row>
-    <row r="78" ht="14.35" customHeight="1">
-      <c r="A78" t="s" s="6">
-        <v>164</v>
-      </c>
-      <c r="B78" t="s" s="6">
-        <v>165</v>
-      </c>
-      <c r="C78" t="s" s="6">
+      <c r="E79" s="9"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+    </row>
+    <row r="80" ht="14.35" customHeight="1">
+      <c r="A80" t="s" s="7">
+        <v>167</v>
+      </c>
+      <c r="B80" t="s" s="7">
+        <v>168</v>
+      </c>
+      <c r="C80" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D80" s="8">
         <v>0.826923076923077</v>
       </c>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-    </row>
-    <row r="79" ht="14.35" customHeight="1">
-      <c r="A79" t="s" s="6">
-        <v>166</v>
-      </c>
-      <c r="B79" t="s" s="6">
-        <v>167</v>
-      </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="9">
+      <c r="E80" s="9"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+    </row>
+    <row r="81" ht="14.35" customHeight="1">
+      <c r="A81" t="s" s="7">
+        <v>169</v>
+      </c>
+      <c r="B81" t="s" s="7">
+        <v>170</v>
+      </c>
+      <c r="C81" s="10"/>
+      <c r="D81" s="11">
         <v>0</v>
       </c>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-    </row>
-    <row r="80" ht="14.35" customHeight="1">
-      <c r="A80" t="s" s="6">
-        <v>168</v>
-      </c>
-      <c r="B80" t="s" s="6">
-        <v>169</v>
-      </c>
-      <c r="C80" t="s" s="6">
+      <c r="E81" s="9"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+    </row>
+    <row r="82" ht="14.35" customHeight="1">
+      <c r="A82" t="s" s="7">
+        <v>171</v>
+      </c>
+      <c r="B82" t="s" s="7">
+        <v>172</v>
+      </c>
+      <c r="C82" t="s" s="7">
         <v>43</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D82" s="8">
         <v>0.923076923076923</v>
       </c>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-    </row>
-    <row r="81" ht="14.35" customHeight="1">
-      <c r="A81" t="s" s="6">
-        <v>170</v>
-      </c>
-      <c r="B81" t="s" s="6">
-        <v>171</v>
-      </c>
-      <c r="C81" t="s" s="6">
+      <c r="E82" s="9"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+    </row>
+    <row r="83" ht="14.35" customHeight="1">
+      <c r="A83" t="s" s="7">
+        <v>173</v>
+      </c>
+      <c r="B83" t="s" s="7">
+        <v>174</v>
+      </c>
+      <c r="C83" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D83" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-    </row>
-    <row r="82" ht="14.35" customHeight="1">
-      <c r="A82" t="s" s="6">
-        <v>172</v>
-      </c>
-      <c r="B82" t="s" s="6">
-        <v>173</v>
-      </c>
-      <c r="C82" t="s" s="6">
+      <c r="E83" s="9"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+    </row>
+    <row r="84" ht="14.35" customHeight="1">
+      <c r="A84" t="s" s="7">
+        <v>175</v>
+      </c>
+      <c r="B84" t="s" s="7">
+        <v>176</v>
+      </c>
+      <c r="C84" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D84" s="8">
         <v>0.615384615384615</v>
       </c>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-    </row>
-    <row r="83" ht="14.35" customHeight="1">
-      <c r="A83" t="s" s="6">
-        <v>174</v>
-      </c>
-      <c r="B83" t="s" s="6">
-        <v>175</v>
-      </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="9">
+      <c r="E84" s="9"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+    </row>
+    <row r="85" ht="14.35" customHeight="1">
+      <c r="A85" t="s" s="7">
+        <v>177</v>
+      </c>
+      <c r="B85" t="s" s="7">
+        <v>178</v>
+      </c>
+      <c r="C85" s="10"/>
+      <c r="D85" s="11">
         <v>0</v>
       </c>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-    </row>
-    <row r="84" ht="14.35" customHeight="1">
-      <c r="A84" t="s" s="6">
-        <v>176</v>
-      </c>
-      <c r="B84" t="s" s="6">
-        <v>177</v>
-      </c>
-      <c r="C84" t="s" s="6">
+      <c r="E85" s="9"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+    </row>
+    <row r="86" ht="14.35" customHeight="1">
+      <c r="A86" t="s" s="7">
+        <v>179</v>
+      </c>
+      <c r="B86" t="s" s="7">
+        <v>180</v>
+      </c>
+      <c r="C86" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D86" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-    </row>
-    <row r="85" ht="14.35" customHeight="1">
-      <c r="A85" t="s" s="6">
-        <v>178</v>
-      </c>
-      <c r="B85" t="s" s="6">
-        <v>179</v>
-      </c>
-      <c r="C85" t="s" s="6">
+      <c r="E86" s="9"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+    </row>
+    <row r="87" ht="14.35" customHeight="1">
+      <c r="A87" t="s" s="7">
+        <v>181</v>
+      </c>
+      <c r="B87" t="s" s="7">
+        <v>182</v>
+      </c>
+      <c r="C87" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D87" s="8">
         <v>0.75</v>
       </c>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-    </row>
-    <row r="86" ht="14.35" customHeight="1">
-      <c r="A86" t="s" s="6">
-        <v>180</v>
-      </c>
-      <c r="B86" t="s" s="6">
-        <v>181</v>
-      </c>
-      <c r="C86" t="s" s="6">
+      <c r="E87" s="9"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+    </row>
+    <row r="88" ht="14.35" customHeight="1">
+      <c r="A88" t="s" s="7">
+        <v>183</v>
+      </c>
+      <c r="B88" t="s" s="7">
+        <v>184</v>
+      </c>
+      <c r="C88" t="s" s="7">
         <v>43</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D88" s="8">
         <v>0.75</v>
       </c>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
-    </row>
-    <row r="87" ht="14.35" customHeight="1">
-      <c r="A87" t="s" s="6">
-        <v>182</v>
-      </c>
-      <c r="B87" t="s" s="6">
-        <v>183</v>
-      </c>
-      <c r="C87" t="s" s="6">
+      <c r="E88" s="9"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+    </row>
+    <row r="89" ht="14.35" customHeight="1">
+      <c r="A89" t="s" s="7">
+        <v>185</v>
+      </c>
+      <c r="B89" t="s" s="7">
+        <v>186</v>
+      </c>
+      <c r="C89" t="s" s="7">
         <v>43</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D89" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
-    </row>
-    <row r="88" ht="14.35" customHeight="1">
-      <c r="A88" t="s" s="6">
-        <v>184</v>
-      </c>
-      <c r="B88" t="s" s="6">
-        <v>185</v>
-      </c>
-      <c r="C88" t="s" s="6">
+      <c r="E89" s="9"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+    </row>
+    <row r="90" ht="14.35" customHeight="1">
+      <c r="A90" t="s" s="7">
+        <v>187</v>
+      </c>
+      <c r="B90" t="s" s="7">
+        <v>188</v>
+      </c>
+      <c r="C90" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D90" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-    </row>
-    <row r="89" ht="14.35" customHeight="1">
-      <c r="A89" t="s" s="6">
-        <v>184</v>
-      </c>
-      <c r="B89" t="s" s="6">
-        <v>186</v>
-      </c>
-      <c r="C89" s="8"/>
-      <c r="D89" s="7">
+      <c r="E90" s="9"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+    </row>
+    <row r="91" ht="14.35" customHeight="1">
+      <c r="A91" t="s" s="7">
+        <v>187</v>
+      </c>
+      <c r="B91" t="s" s="7">
+        <v>189</v>
+      </c>
+      <c r="C91" s="10"/>
+      <c r="D91" s="8">
         <v>0.75</v>
       </c>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-    </row>
-    <row r="90" ht="14.35" customHeight="1">
-      <c r="A90" t="s" s="6">
-        <v>187</v>
-      </c>
-      <c r="B90" t="s" s="6">
-        <v>188</v>
-      </c>
-      <c r="C90" t="s" s="6">
+      <c r="E91" s="9"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+    </row>
+    <row r="92" ht="14.35" customHeight="1">
+      <c r="A92" t="s" s="7">
+        <v>190</v>
+      </c>
+      <c r="B92" t="s" s="7">
+        <v>191</v>
+      </c>
+      <c r="C92" t="s" s="7">
         <v>43</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D92" s="8">
         <v>0.942307692307692</v>
       </c>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-    </row>
-    <row r="91" ht="14.35" customHeight="1">
-      <c r="A91" t="s" s="6">
-        <v>189</v>
-      </c>
-      <c r="B91" t="s" s="6">
-        <v>190</v>
-      </c>
-      <c r="C91" t="s" s="6">
+      <c r="E92" s="9"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+    </row>
+    <row r="93" ht="14.35" customHeight="1">
+      <c r="A93" t="s" s="7">
+        <v>192</v>
+      </c>
+      <c r="B93" t="s" s="7">
+        <v>193</v>
+      </c>
+      <c r="C93" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D93" s="8">
         <v>0.7692307692307691</v>
       </c>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-    </row>
-    <row r="92" ht="14.35" customHeight="1">
-      <c r="A92" t="s" s="6">
-        <v>191</v>
-      </c>
-      <c r="B92" t="s" s="6">
-        <v>192</v>
-      </c>
-      <c r="C92" t="s" s="6">
+      <c r="E93" s="9"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+    </row>
+    <row r="94" ht="14.35" customHeight="1">
+      <c r="A94" t="s" s="7">
+        <v>194</v>
+      </c>
+      <c r="B94" t="s" s="7">
+        <v>195</v>
+      </c>
+      <c r="C94" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D94" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-    </row>
-    <row r="93" ht="14.35" customHeight="1">
-      <c r="A93" t="s" s="6">
-        <v>193</v>
-      </c>
-      <c r="B93" t="s" s="6">
-        <v>194</v>
-      </c>
-      <c r="C93" t="s" s="6">
+      <c r="E94" s="9"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+    </row>
+    <row r="95" ht="14.35" customHeight="1">
+      <c r="A95" t="s" s="7">
+        <v>196</v>
+      </c>
+      <c r="B95" t="s" s="7">
+        <v>197</v>
+      </c>
+      <c r="C95" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D95" s="8">
         <v>0.923076923076923</v>
       </c>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
-    </row>
-    <row r="94" ht="14.35" customHeight="1">
-      <c r="A94" t="s" s="6">
-        <v>195</v>
-      </c>
-      <c r="B94" t="s" s="6">
-        <v>196</v>
-      </c>
-      <c r="C94" t="s" s="6">
+      <c r="E95" s="9"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+    </row>
+    <row r="96" ht="14.35" customHeight="1">
+      <c r="A96" t="s" s="7">
+        <v>198</v>
+      </c>
+      <c r="B96" t="s" s="7">
+        <v>199</v>
+      </c>
+      <c r="C96" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D96" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
-    </row>
-    <row r="95" ht="14.35" customHeight="1">
-      <c r="A95" t="s" s="6">
-        <v>197</v>
-      </c>
-      <c r="B95" t="s" s="6">
-        <v>198</v>
-      </c>
-      <c r="C95" t="s" s="6">
+      <c r="E96" s="9"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+    </row>
+    <row r="97" ht="14.35" customHeight="1">
+      <c r="A97" t="s" s="7">
+        <v>200</v>
+      </c>
+      <c r="B97" t="s" s="7">
+        <v>201</v>
+      </c>
+      <c r="C97" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D95" s="7">
+      <c r="D97" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-    </row>
-    <row r="96" ht="14.35" customHeight="1">
-      <c r="A96" t="s" s="6">
-        <v>199</v>
-      </c>
-      <c r="B96" t="s" s="6">
-        <v>200</v>
-      </c>
-      <c r="C96" t="s" s="6">
+      <c r="E97" s="9"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+    </row>
+    <row r="98" ht="14.35" customHeight="1">
+      <c r="A98" t="s" s="7">
+        <v>202</v>
+      </c>
+      <c r="B98" t="s" s="7">
+        <v>203</v>
+      </c>
+      <c r="C98" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D98" s="8">
         <v>0.442307692307692</v>
       </c>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
-    </row>
-    <row r="97" ht="14.35" customHeight="1">
-      <c r="A97" t="s" s="6">
-        <v>201</v>
-      </c>
-      <c r="B97" t="s" s="6">
-        <v>202</v>
-      </c>
-      <c r="C97" t="s" s="6">
+      <c r="E98" s="9"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+    </row>
+    <row r="99" ht="14.35" customHeight="1">
+      <c r="A99" t="s" s="7">
+        <v>204</v>
+      </c>
+      <c r="B99" t="s" s="7">
+        <v>205</v>
+      </c>
+      <c r="C99" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D97" s="7">
+      <c r="D99" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
-    </row>
-    <row r="98" ht="14.35" customHeight="1">
-      <c r="A98" t="s" s="6">
-        <v>203</v>
-      </c>
-      <c r="B98" t="s" s="6">
-        <v>204</v>
-      </c>
-      <c r="C98" t="s" s="6">
+      <c r="E99" s="9"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+    </row>
+    <row r="100" ht="14.35" customHeight="1">
+      <c r="A100" t="s" s="7">
+        <v>206</v>
+      </c>
+      <c r="B100" t="s" s="7">
+        <v>207</v>
+      </c>
+      <c r="C100" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D100" s="8">
         <v>0.903846153846154</v>
       </c>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
-    </row>
-    <row r="99" ht="14.35" customHeight="1">
-      <c r="A99" t="s" s="6">
-        <v>205</v>
-      </c>
-      <c r="B99" t="s" s="6">
-        <v>206</v>
-      </c>
-      <c r="C99" t="s" s="6">
+      <c r="E100" s="9"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+    </row>
+    <row r="101" ht="14.35" customHeight="1">
+      <c r="A101" t="s" s="7">
+        <v>208</v>
+      </c>
+      <c r="B101" t="s" s="7">
+        <v>209</v>
+      </c>
+      <c r="C101" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="D99" s="7">
+      <c r="D101" s="8">
         <v>0.807692307692308</v>
       </c>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="8"/>
-    </row>
-    <row r="100" ht="14.35" customHeight="1">
-      <c r="A100" t="s" s="6">
-        <v>207</v>
-      </c>
-      <c r="B100" t="s" s="6">
-        <v>208</v>
-      </c>
-      <c r="C100" s="8"/>
-      <c r="D100" s="9">
+      <c r="E101" s="9"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="10"/>
+    </row>
+    <row r="102" ht="14.35" customHeight="1">
+      <c r="A102" t="s" s="7">
+        <v>210</v>
+      </c>
+      <c r="B102" t="s" s="7">
+        <v>211</v>
+      </c>
+      <c r="C102" s="10"/>
+      <c r="D102" s="11">
         <v>0</v>
       </c>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="8"/>
-    </row>
-    <row r="101" ht="14.35" customHeight="1">
-      <c r="A101" t="s" s="6">
-        <v>209</v>
-      </c>
-      <c r="B101" t="s" s="6">
-        <v>210</v>
-      </c>
-      <c r="C101" s="8"/>
-      <c r="D101" s="7">
+      <c r="E102" s="9"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+    </row>
+    <row r="103" ht="14.35" customHeight="1">
+      <c r="A103" t="s" s="7">
+        <v>212</v>
+      </c>
+      <c r="B103" t="s" s="7">
+        <v>213</v>
+      </c>
+      <c r="C103" s="10"/>
+      <c r="D103" s="8">
         <v>0.673076923076923</v>
       </c>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
-    </row>
-    <row r="102" ht="14.35" customHeight="1">
-      <c r="A102" t="s" s="6">
-        <v>211</v>
-      </c>
-      <c r="B102" t="s" s="6">
-        <v>212</v>
-      </c>
-      <c r="C102" s="8"/>
-      <c r="D102" s="7">
+      <c r="E103" s="9"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+    </row>
+    <row r="104" ht="14.35" customHeight="1">
+      <c r="A104" t="s" s="7">
+        <v>214</v>
+      </c>
+      <c r="B104" t="s" s="7">
+        <v>215</v>
+      </c>
+      <c r="C104" s="10"/>
+      <c r="D104" s="8">
         <v>0.673076923076923</v>
       </c>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="8"/>
-    </row>
-    <row r="103" ht="14.35" customHeight="1">
-      <c r="A103" t="s" s="6">
-        <v>213</v>
-      </c>
-      <c r="B103" t="s" s="6">
-        <v>214</v>
-      </c>
-      <c r="C103" t="s" s="6">
+      <c r="E104" s="9"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
+    </row>
+    <row r="105" ht="14.35" customHeight="1">
+      <c r="A105" t="s" s="7">
+        <v>216</v>
+      </c>
+      <c r="B105" t="s" s="7">
+        <v>217</v>
+      </c>
+      <c r="C105" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D103" s="7">
+      <c r="D105" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
-    </row>
-    <row r="104" ht="14.35" customHeight="1">
-      <c r="A104" t="s" s="6">
-        <v>215</v>
-      </c>
-      <c r="B104" t="s" s="6">
-        <v>216</v>
-      </c>
-      <c r="C104" t="s" s="6">
+      <c r="E105" s="9"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+    </row>
+    <row r="106" ht="14.35" customHeight="1">
+      <c r="A106" t="s" s="7">
+        <v>218</v>
+      </c>
+      <c r="B106" t="s" s="7">
+        <v>219</v>
+      </c>
+      <c r="C106" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D104" s="7">
+      <c r="D106" s="8">
         <v>0.846153846153846</v>
       </c>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
-    </row>
-    <row r="105" ht="14.35" customHeight="1">
-      <c r="A105" t="s" s="6">
-        <v>217</v>
-      </c>
-      <c r="B105" t="s" s="6">
-        <v>218</v>
-      </c>
-      <c r="C105" s="8"/>
-      <c r="D105" s="9">
+      <c r="E106" s="9"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="10"/>
+    </row>
+    <row r="107" ht="14.35" customHeight="1">
+      <c r="A107" t="s" s="7">
+        <v>220</v>
+      </c>
+      <c r="B107" t="s" s="7">
+        <v>221</v>
+      </c>
+      <c r="C107" s="10"/>
+      <c r="D107" s="11">
         <v>0</v>
       </c>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
-      <c r="J105" s="8"/>
-    </row>
-    <row r="106" ht="14.35" customHeight="1">
-      <c r="A106" t="s" s="6">
-        <v>219</v>
-      </c>
-      <c r="B106" t="s" s="6">
-        <v>220</v>
-      </c>
-      <c r="C106" t="s" s="6">
+      <c r="E107" s="9"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10"/>
+    </row>
+    <row r="108" ht="14.35" customHeight="1">
+      <c r="A108" t="s" s="7">
+        <v>222</v>
+      </c>
+      <c r="B108" t="s" s="7">
+        <v>223</v>
+      </c>
+      <c r="C108" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D106" s="7">
+      <c r="D108" s="8">
         <v>0.846153846153846</v>
       </c>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8"/>
-      <c r="J106" s="8"/>
-    </row>
-    <row r="107" ht="14.35" customHeight="1">
-      <c r="A107" t="s" s="6">
-        <v>221</v>
-      </c>
-      <c r="B107" t="s" s="6">
-        <v>222</v>
-      </c>
-      <c r="C107" s="8"/>
-      <c r="D107" s="9">
+      <c r="E108" s="9"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="10"/>
+    </row>
+    <row r="109" ht="14.35" customHeight="1">
+      <c r="A109" t="s" s="7">
+        <v>224</v>
+      </c>
+      <c r="B109" t="s" s="7">
+        <v>225</v>
+      </c>
+      <c r="C109" s="10"/>
+      <c r="D109" s="11">
         <v>0</v>
       </c>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="8"/>
-      <c r="J107" s="8"/>
-    </row>
-    <row r="108" ht="14.35" customHeight="1">
-      <c r="A108" t="s" s="6">
-        <v>223</v>
-      </c>
-      <c r="B108" t="s" s="6">
-        <v>224</v>
-      </c>
-      <c r="C108" t="s" s="6">
+      <c r="E109" s="9"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
+    </row>
+    <row r="110" ht="14.35" customHeight="1">
+      <c r="A110" t="s" s="7">
+        <v>226</v>
+      </c>
+      <c r="B110" t="s" s="7">
+        <v>227</v>
+      </c>
+      <c r="C110" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D108" s="7">
+      <c r="D110" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="8"/>
-      <c r="J108" s="8"/>
-    </row>
-    <row r="109" ht="14.35" customHeight="1">
-      <c r="A109" t="s" s="6">
-        <v>225</v>
-      </c>
-      <c r="B109" t="s" s="6">
-        <v>226</v>
-      </c>
-      <c r="C109" t="s" s="6">
+      <c r="E110" s="9"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
+    </row>
+    <row r="111" ht="14.35" customHeight="1">
+      <c r="A111" t="s" s="7">
+        <v>228</v>
+      </c>
+      <c r="B111" t="s" s="7">
+        <v>229</v>
+      </c>
+      <c r="C111" t="s" s="7">
         <v>43</v>
       </c>
-      <c r="D109" s="7">
+      <c r="D111" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8"/>
-      <c r="J109" s="8"/>
-    </row>
-    <row r="110" ht="14.35" customHeight="1">
-      <c r="A110" t="s" s="6">
-        <v>227</v>
-      </c>
-      <c r="B110" t="s" s="6">
-        <v>228</v>
-      </c>
-      <c r="C110" s="8"/>
-      <c r="D110" s="7">
+      <c r="E111" s="9"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
+    </row>
+    <row r="112" ht="14.35" customHeight="1">
+      <c r="A112" t="s" s="7">
+        <v>230</v>
+      </c>
+      <c r="B112" t="s" s="7">
+        <v>231</v>
+      </c>
+      <c r="C112" s="10"/>
+      <c r="D112" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
-      <c r="J110" s="8"/>
-    </row>
-    <row r="111" ht="14.35" customHeight="1">
-      <c r="A111" t="s" s="6">
-        <v>229</v>
-      </c>
-      <c r="B111" t="s" s="6">
-        <v>230</v>
-      </c>
-      <c r="C111" t="s" s="6">
+      <c r="E112" s="9"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+    </row>
+    <row r="113" ht="14.35" customHeight="1">
+      <c r="A113" t="s" s="7">
+        <v>232</v>
+      </c>
+      <c r="B113" t="s" s="7">
+        <v>233</v>
+      </c>
+      <c r="C113" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="D111" s="7">
+      <c r="D113" s="8">
         <v>0.7692307692307691</v>
       </c>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
-    </row>
-    <row r="112" ht="14.35" customHeight="1">
-      <c r="A112" t="s" s="6">
-        <v>231</v>
-      </c>
-      <c r="B112" t="s" s="6">
-        <v>232</v>
-      </c>
-      <c r="C112" t="s" s="6">
+      <c r="E113" s="9"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="10"/>
+    </row>
+    <row r="114" ht="14.35" customHeight="1">
+      <c r="A114" t="s" s="7">
+        <v>234</v>
+      </c>
+      <c r="B114" t="s" s="7">
+        <v>235</v>
+      </c>
+      <c r="C114" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D112" s="7">
+      <c r="D114" s="8">
         <v>0.903846153846154</v>
       </c>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
-      <c r="J112" s="8"/>
-    </row>
-    <row r="113" ht="14.35" customHeight="1">
-      <c r="A113" t="s" s="6">
-        <v>233</v>
-      </c>
-      <c r="B113" t="s" s="6">
-        <v>234</v>
-      </c>
-      <c r="C113" t="s" s="6">
+      <c r="E114" s="9"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="10"/>
+    </row>
+    <row r="115" ht="14.35" customHeight="1">
+      <c r="A115" t="s" s="7">
+        <v>236</v>
+      </c>
+      <c r="B115" t="s" s="7">
+        <v>237</v>
+      </c>
+      <c r="C115" t="s" s="7">
         <v>43</v>
       </c>
-      <c r="D113" s="7">
+      <c r="D115" s="8">
         <v>0.942307692307692</v>
       </c>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
-      <c r="J113" s="8"/>
-    </row>
-    <row r="114" ht="14.35" customHeight="1">
-      <c r="A114" t="s" s="6">
-        <v>235</v>
-      </c>
-      <c r="B114" t="s" s="6">
-        <v>236</v>
-      </c>
-      <c r="C114" t="s" s="6">
+      <c r="E115" s="9"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
+    </row>
+    <row r="116" ht="14.35" customHeight="1">
+      <c r="A116" t="s" s="7">
+        <v>238</v>
+      </c>
+      <c r="B116" t="s" s="7">
+        <v>239</v>
+      </c>
+      <c r="C116" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D114" s="7">
+      <c r="D116" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8"/>
-      <c r="J114" s="8"/>
-    </row>
-    <row r="115" ht="14.35" customHeight="1">
-      <c r="A115" t="s" s="6">
-        <v>237</v>
-      </c>
-      <c r="B115" t="s" s="6">
-        <v>238</v>
-      </c>
-      <c r="C115" t="s" s="6">
+      <c r="E116" s="9"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="10"/>
+    </row>
+    <row r="117" ht="14.35" customHeight="1">
+      <c r="A117" t="s" s="7">
+        <v>240</v>
+      </c>
+      <c r="B117" t="s" s="7">
+        <v>241</v>
+      </c>
+      <c r="C117" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D115" s="7">
+      <c r="D117" s="8">
         <v>0.615384615384615</v>
       </c>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8"/>
-      <c r="J115" s="8"/>
-    </row>
-    <row r="116" ht="14.35" customHeight="1">
-      <c r="A116" t="s" s="6">
-        <v>239</v>
-      </c>
-      <c r="B116" t="s" s="6">
-        <v>240</v>
-      </c>
-      <c r="C116" s="8"/>
-      <c r="D116" s="9">
+      <c r="E117" s="9"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="10"/>
+    </row>
+    <row r="118" ht="14.35" customHeight="1">
+      <c r="A118" t="s" s="7">
+        <v>242</v>
+      </c>
+      <c r="B118" t="s" s="7">
+        <v>243</v>
+      </c>
+      <c r="C118" s="10"/>
+      <c r="D118" s="11">
         <v>0</v>
       </c>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="8"/>
-      <c r="J116" s="8"/>
-    </row>
-    <row r="117" ht="14.35" customHeight="1">
-      <c r="A117" t="s" s="6">
-        <v>241</v>
-      </c>
-      <c r="B117" t="s" s="6">
-        <v>242</v>
-      </c>
-      <c r="C117" t="s" s="6">
+      <c r="E118" s="9"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="10"/>
+    </row>
+    <row r="119" ht="14.35" customHeight="1">
+      <c r="A119" t="s" s="7">
+        <v>244</v>
+      </c>
+      <c r="B119" t="s" s="7">
+        <v>245</v>
+      </c>
+      <c r="C119" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D117" s="7">
+      <c r="D119" s="8">
         <v>0.75</v>
       </c>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="8"/>
-      <c r="I117" s="8"/>
-      <c r="J117" s="8"/>
-    </row>
-    <row r="118" ht="28.35" customHeight="1">
-      <c r="A118" t="s" s="6">
-        <v>243</v>
-      </c>
-      <c r="B118" t="s" s="6">
-        <v>244</v>
-      </c>
-      <c r="C118" t="s" s="6">
+      <c r="E119" s="9"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="10"/>
+    </row>
+    <row r="120" ht="28.35" customHeight="1">
+      <c r="A120" t="s" s="7">
+        <v>246</v>
+      </c>
+      <c r="B120" t="s" s="7">
+        <v>247</v>
+      </c>
+      <c r="C120" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D118" s="7">
+      <c r="D120" s="8">
         <v>0.846153846153846</v>
       </c>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
-    </row>
-    <row r="119" ht="14.35" customHeight="1">
-      <c r="A119" t="s" s="6">
-        <v>245</v>
-      </c>
-      <c r="B119" t="s" s="6">
-        <v>246</v>
-      </c>
-      <c r="C119" s="8"/>
-      <c r="D119" s="9">
+      <c r="E120" s="9"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+      <c r="I120" s="10"/>
+      <c r="J120" s="10"/>
+    </row>
+    <row r="121" ht="14.35" customHeight="1">
+      <c r="A121" t="s" s="7">
+        <v>248</v>
+      </c>
+      <c r="B121" t="s" s="7">
+        <v>249</v>
+      </c>
+      <c r="C121" s="10"/>
+      <c r="D121" s="11">
         <v>0</v>
       </c>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="8"/>
-      <c r="J119" s="8"/>
-    </row>
-    <row r="120" ht="14.35" customHeight="1">
-      <c r="A120" t="s" s="6">
-        <v>247</v>
-      </c>
-      <c r="B120" t="s" s="6">
-        <v>248</v>
-      </c>
-      <c r="C120" s="8"/>
-      <c r="D120" s="7">
+      <c r="E121" s="9"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="10"/>
+    </row>
+    <row r="122" ht="14.35" customHeight="1">
+      <c r="A122" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="B122" t="s" s="7">
+        <v>251</v>
+      </c>
+      <c r="C122" s="10"/>
+      <c r="D122" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="8"/>
-      <c r="J120" s="8"/>
-    </row>
-    <row r="121" ht="14.35" customHeight="1">
-      <c r="A121" t="s" s="6">
-        <v>249</v>
-      </c>
-      <c r="B121" t="s" s="6">
-        <v>250</v>
-      </c>
-      <c r="C121" t="s" s="6">
+      <c r="E122" s="9"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
+      <c r="I122" s="10"/>
+      <c r="J122" s="10"/>
+    </row>
+    <row r="123" ht="14.35" customHeight="1">
+      <c r="A123" t="s" s="7">
+        <v>252</v>
+      </c>
+      <c r="B123" t="s" s="7">
+        <v>253</v>
+      </c>
+      <c r="C123" s="10"/>
+      <c r="D123" s="11">
+        <v>0</v>
+      </c>
+      <c r="E123" s="9">
+        <v>0.194805194805195</v>
+      </c>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="10"/>
+    </row>
+    <row r="124" ht="14.35" customHeight="1">
+      <c r="A124" t="s" s="7">
+        <v>254</v>
+      </c>
+      <c r="B124" t="s" s="7">
+        <v>255</v>
+      </c>
+      <c r="C124" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D121" s="9">
+      <c r="D124" s="11">
         <v>1</v>
       </c>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="8"/>
-      <c r="J121" s="8"/>
-    </row>
-    <row r="122" ht="14.35" customHeight="1">
-      <c r="A122" t="s" s="6">
-        <v>251</v>
-      </c>
-      <c r="B122" t="s" s="6">
-        <v>252</v>
-      </c>
-      <c r="C122" t="s" s="6">
+      <c r="E124" s="9">
+        <v>0.402597402597403</v>
+      </c>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="10"/>
+    </row>
+    <row r="125" ht="14.35" customHeight="1">
+      <c r="A125" t="s" s="7">
+        <v>256</v>
+      </c>
+      <c r="B125" t="s" s="7">
+        <v>257</v>
+      </c>
+      <c r="C125" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="D122" s="7">
+      <c r="D125" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="8"/>
-      <c r="J122" s="8"/>
-    </row>
-    <row r="123" ht="14.35" customHeight="1">
-      <c r="A123" t="s" s="6">
-        <v>253</v>
-      </c>
-      <c r="B123" t="s" s="6">
-        <v>254</v>
-      </c>
-      <c r="C123" t="s" s="6">
+      <c r="E125" s="9"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="10"/>
+    </row>
+    <row r="126" ht="14.35" customHeight="1">
+      <c r="A126" t="s" s="7">
+        <v>258</v>
+      </c>
+      <c r="B126" t="s" s="7">
+        <v>259</v>
+      </c>
+      <c r="C126" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="D123" s="7">
+      <c r="D126" s="8">
         <v>0.75</v>
       </c>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="8"/>
-      <c r="J123" s="8"/>
-    </row>
-    <row r="124" ht="14.35" customHeight="1">
-      <c r="A124" t="s" s="6">
-        <v>255</v>
-      </c>
-      <c r="B124" t="s" s="6">
-        <v>256</v>
-      </c>
-      <c r="C124" t="s" s="6">
+      <c r="E126" s="9"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
+      <c r="I126" s="10"/>
+      <c r="J126" s="10"/>
+    </row>
+    <row r="127" ht="14.35" customHeight="1">
+      <c r="A127" t="s" s="7">
+        <v>260</v>
+      </c>
+      <c r="B127" t="s" s="7">
+        <v>261</v>
+      </c>
+      <c r="C127" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D124" s="7">
+      <c r="D127" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="8"/>
-      <c r="J124" s="8"/>
-    </row>
-    <row r="125" ht="14.35" customHeight="1">
-      <c r="A125" t="s" s="6">
-        <v>257</v>
-      </c>
-      <c r="B125" t="s" s="6">
-        <v>258</v>
-      </c>
-      <c r="C125" t="s" s="6">
+      <c r="E127" s="9"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="10"/>
+    </row>
+    <row r="128" ht="14.35" customHeight="1">
+      <c r="A128" t="s" s="7">
+        <v>262</v>
+      </c>
+      <c r="B128" t="s" s="7">
+        <v>263</v>
+      </c>
+      <c r="C128" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D125" s="7">
+      <c r="D128" s="8">
         <v>0.903846153846154</v>
       </c>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="8"/>
-      <c r="I125" s="8"/>
-      <c r="J125" s="8"/>
-    </row>
-    <row r="126" ht="14.35" customHeight="1">
-      <c r="A126" t="s" s="6">
-        <v>259</v>
-      </c>
-      <c r="B126" t="s" s="6">
-        <v>260</v>
-      </c>
-      <c r="C126" t="s" s="6">
+      <c r="E128" s="9"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
+      <c r="I128" s="10"/>
+      <c r="J128" s="10"/>
+    </row>
+    <row r="129" ht="14.35" customHeight="1">
+      <c r="A129" t="s" s="7">
+        <v>264</v>
+      </c>
+      <c r="B129" t="s" s="7">
+        <v>265</v>
+      </c>
+      <c r="C129" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="D126" s="7">
+      <c r="D129" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="8"/>
-      <c r="I126" s="8"/>
-      <c r="J126" s="8"/>
-    </row>
-    <row r="127" ht="14.35" customHeight="1">
-      <c r="A127" t="s" s="6">
-        <v>261</v>
-      </c>
-      <c r="B127" t="s" s="6">
-        <v>262</v>
-      </c>
-      <c r="C127" s="8"/>
-      <c r="D127" s="7">
+      <c r="E129" s="9"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="10"/>
+    </row>
+    <row r="130" ht="14.35" customHeight="1">
+      <c r="A130" t="s" s="7">
+        <v>266</v>
+      </c>
+      <c r="B130" t="s" s="7">
+        <v>267</v>
+      </c>
+      <c r="C130" s="10"/>
+      <c r="D130" s="8">
         <v>0.673076923076923</v>
       </c>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="8"/>
-      <c r="I127" s="8"/>
-      <c r="J127" s="8"/>
-    </row>
-    <row r="128" ht="14.35" customHeight="1">
-      <c r="A128" t="s" s="6">
-        <v>263</v>
-      </c>
-      <c r="B128" t="s" s="6">
-        <v>264</v>
-      </c>
-      <c r="C128" t="s" s="6">
+      <c r="E130" s="9"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
+      <c r="I130" s="10"/>
+      <c r="J130" s="10"/>
+    </row>
+    <row r="131" ht="14.35" customHeight="1">
+      <c r="A131" t="s" s="7">
+        <v>268</v>
+      </c>
+      <c r="B131" t="s" s="7">
+        <v>269</v>
+      </c>
+      <c r="C131" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="D128" s="7">
+      <c r="D131" s="8">
         <v>0.615384615384615</v>
       </c>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
-      <c r="I128" s="8"/>
-      <c r="J128" s="8"/>
-    </row>
-    <row r="129" ht="14.35" customHeight="1">
-      <c r="A129" t="s" s="6">
-        <v>265</v>
-      </c>
-      <c r="B129" t="s" s="6">
-        <v>266</v>
-      </c>
-      <c r="C129" t="s" s="6">
+      <c r="E131" s="9"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="10"/>
+    </row>
+    <row r="132" ht="14.35" customHeight="1">
+      <c r="A132" t="s" s="7">
+        <v>270</v>
+      </c>
+      <c r="B132" t="s" s="7">
+        <v>271</v>
+      </c>
+      <c r="C132" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D129" s="7">
+      <c r="D132" s="8">
         <v>0.846153846153846</v>
       </c>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="8"/>
-      <c r="I129" s="8"/>
-      <c r="J129" s="8"/>
-    </row>
-    <row r="130" ht="14.35" customHeight="1">
-      <c r="A130" t="s" s="6">
-        <v>267</v>
-      </c>
-      <c r="B130" t="s" s="6">
-        <v>268</v>
-      </c>
-      <c r="C130" t="s" s="6">
+      <c r="E132" s="9"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="10"/>
+    </row>
+    <row r="133" ht="14.35" customHeight="1">
+      <c r="A133" t="s" s="7">
+        <v>272</v>
+      </c>
+      <c r="B133" t="s" s="7">
+        <v>273</v>
+      </c>
+      <c r="C133" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D130" s="7">
+      <c r="D133" s="8">
         <v>0.903846153846154</v>
       </c>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
-      <c r="I130" s="8"/>
-      <c r="J130" s="8"/>
-    </row>
-    <row r="131" ht="14.35" customHeight="1">
-      <c r="A131" t="s" s="6">
-        <v>269</v>
-      </c>
-      <c r="B131" t="s" s="6">
-        <v>270</v>
-      </c>
-      <c r="C131" t="s" s="6">
+      <c r="E133" s="9"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="10"/>
+      <c r="I133" s="10"/>
+      <c r="J133" s="10"/>
+    </row>
+    <row r="134" ht="14.35" customHeight="1">
+      <c r="A134" t="s" s="7">
+        <v>274</v>
+      </c>
+      <c r="B134" t="s" s="7">
+        <v>275</v>
+      </c>
+      <c r="C134" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D131" s="7">
+      <c r="D134" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="8"/>
-      <c r="I131" s="8"/>
-      <c r="J131" s="8"/>
-    </row>
-    <row r="132" ht="14.35" customHeight="1">
-      <c r="A132" t="s" s="6">
-        <v>271</v>
-      </c>
-      <c r="B132" t="s" s="6">
-        <v>272</v>
-      </c>
-      <c r="C132" s="8"/>
-      <c r="D132" s="9">
+      <c r="E134" s="9"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="10"/>
+      <c r="I134" s="10"/>
+      <c r="J134" s="10"/>
+    </row>
+    <row r="135" ht="14.35" customHeight="1">
+      <c r="A135" t="s" s="7">
+        <v>276</v>
+      </c>
+      <c r="B135" t="s" s="7">
+        <v>277</v>
+      </c>
+      <c r="C135" s="10"/>
+      <c r="D135" s="11">
         <v>0</v>
       </c>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="8"/>
-      <c r="I132" s="8"/>
-      <c r="J132" s="8"/>
-    </row>
-    <row r="133" ht="14.35" customHeight="1">
-      <c r="A133" t="s" s="6">
-        <v>273</v>
-      </c>
-      <c r="B133" t="s" s="6">
-        <v>274</v>
-      </c>
-      <c r="C133" s="8"/>
-      <c r="D133" s="9">
+      <c r="E135" s="9"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="10"/>
+      <c r="I135" s="10"/>
+      <c r="J135" s="10"/>
+    </row>
+    <row r="136" ht="14.35" customHeight="1">
+      <c r="A136" t="s" s="7">
+        <v>278</v>
+      </c>
+      <c r="B136" t="s" s="7">
+        <v>279</v>
+      </c>
+      <c r="C136" s="10"/>
+      <c r="D136" s="11">
         <v>0</v>
       </c>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
-      <c r="I133" s="8"/>
-      <c r="J133" s="8"/>
-    </row>
-    <row r="134" ht="14.35" customHeight="1">
-      <c r="A134" t="s" s="6">
-        <v>275</v>
-      </c>
-      <c r="B134" t="s" s="6">
-        <v>276</v>
-      </c>
-      <c r="C134" t="s" s="6">
+      <c r="E136" s="9"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
+      <c r="H136" s="10"/>
+      <c r="I136" s="10"/>
+      <c r="J136" s="10"/>
+    </row>
+    <row r="137" ht="14.35" customHeight="1">
+      <c r="A137" t="s" s="7">
+        <v>280</v>
+      </c>
+      <c r="B137" t="s" s="7">
+        <v>281</v>
+      </c>
+      <c r="C137" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D134" s="7">
+      <c r="D137" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
-      <c r="I134" s="8"/>
-      <c r="J134" s="8"/>
-    </row>
-    <row r="135" ht="14.35" customHeight="1">
-      <c r="A135" t="s" s="6">
-        <v>277</v>
-      </c>
-      <c r="B135" t="s" s="6">
-        <v>278</v>
-      </c>
-      <c r="C135" t="s" s="6">
+      <c r="E137" s="9"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="10"/>
+      <c r="I137" s="10"/>
+      <c r="J137" s="10"/>
+    </row>
+    <row r="138" ht="14.35" customHeight="1">
+      <c r="A138" t="s" s="7">
+        <v>282</v>
+      </c>
+      <c r="B138" t="s" s="7">
+        <v>283</v>
+      </c>
+      <c r="C138" t="s" s="7">
         <v>43</v>
       </c>
-      <c r="D135" s="7">
+      <c r="D138" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="8"/>
-      <c r="H135" s="8"/>
-      <c r="I135" s="8"/>
-      <c r="J135" s="8"/>
-    </row>
-    <row r="136" ht="14.35" customHeight="1">
-      <c r="A136" t="s" s="6">
-        <v>279</v>
-      </c>
-      <c r="B136" t="s" s="6">
-        <v>280</v>
-      </c>
-      <c r="C136" t="s" s="6">
+      <c r="E138" s="9">
+        <v>0.506493506493506</v>
+      </c>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="10"/>
+      <c r="I138" s="10"/>
+      <c r="J138" s="10"/>
+    </row>
+    <row r="139" ht="14.35" customHeight="1">
+      <c r="A139" t="s" s="7">
+        <v>284</v>
+      </c>
+      <c r="B139" t="s" s="7">
+        <v>285</v>
+      </c>
+      <c r="C139" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D136" s="7">
+      <c r="D139" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="8"/>
-      <c r="I136" s="8"/>
-      <c r="J136" s="8"/>
-    </row>
-    <row r="137" ht="14.35" customHeight="1">
-      <c r="A137" t="s" s="6">
-        <v>281</v>
-      </c>
-      <c r="B137" t="s" s="6">
-        <v>282</v>
-      </c>
-      <c r="C137" s="8"/>
-      <c r="D137" s="9">
+      <c r="E139" s="9"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
+      <c r="H139" s="10"/>
+      <c r="I139" s="10"/>
+      <c r="J139" s="10"/>
+    </row>
+    <row r="140" ht="14.35" customHeight="1">
+      <c r="A140" t="s" s="7">
+        <v>286</v>
+      </c>
+      <c r="B140" t="s" s="7">
+        <v>287</v>
+      </c>
+      <c r="C140" s="10"/>
+      <c r="D140" s="11">
         <v>0</v>
       </c>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="8"/>
-      <c r="H137" s="8"/>
-      <c r="I137" s="8"/>
-      <c r="J137" s="8"/>
-    </row>
-    <row r="138" ht="14.35" customHeight="1">
-      <c r="A138" t="s" s="6">
-        <v>283</v>
-      </c>
-      <c r="B138" t="s" s="6">
-        <v>284</v>
-      </c>
-      <c r="C138" t="s" s="6">
+      <c r="E140" s="9"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="10"/>
+      <c r="I140" s="10"/>
+      <c r="J140" s="10"/>
+    </row>
+    <row r="141" ht="14.35" customHeight="1">
+      <c r="A141" t="s" s="7">
+        <v>288</v>
+      </c>
+      <c r="B141" t="s" s="7">
+        <v>289</v>
+      </c>
+      <c r="C141" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D138" s="7">
+      <c r="D141" s="8">
         <v>0.75</v>
       </c>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8"/>
-      <c r="G138" s="8"/>
-      <c r="H138" s="8"/>
-      <c r="I138" s="8"/>
-      <c r="J138" s="8"/>
-    </row>
-    <row r="139" ht="14.35" customHeight="1">
-      <c r="A139" t="s" s="6">
-        <v>285</v>
-      </c>
-      <c r="B139" t="s" s="6">
-        <v>286</v>
-      </c>
-      <c r="C139" t="s" s="6">
+      <c r="E141" s="9"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="10"/>
+      <c r="I141" s="10"/>
+      <c r="J141" s="10"/>
+    </row>
+    <row r="142" ht="14.35" customHeight="1">
+      <c r="A142" t="s" s="7">
+        <v>290</v>
+      </c>
+      <c r="B142" t="s" s="7">
+        <v>291</v>
+      </c>
+      <c r="C142" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D139" s="7">
+      <c r="D142" s="8">
         <v>0.75</v>
       </c>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="8"/>
-      <c r="J139" s="8"/>
-    </row>
-    <row r="140" ht="14.35" customHeight="1">
-      <c r="A140" t="s" s="6">
-        <v>287</v>
-      </c>
-      <c r="B140" t="s" s="6">
-        <v>288</v>
-      </c>
-      <c r="C140" s="8"/>
-      <c r="D140" s="9">
+      <c r="E142" s="9"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="10"/>
+      <c r="I142" s="10"/>
+      <c r="J142" s="10"/>
+    </row>
+    <row r="143" ht="14.35" customHeight="1">
+      <c r="A143" t="s" s="7">
+        <v>292</v>
+      </c>
+      <c r="B143" t="s" s="7">
+        <v>293</v>
+      </c>
+      <c r="C143" s="10"/>
+      <c r="D143" s="11">
         <v>0</v>
       </c>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-    </row>
-    <row r="141" ht="14.35" customHeight="1">
-      <c r="A141" t="s" s="6">
-        <v>289</v>
-      </c>
-      <c r="B141" t="s" s="6">
-        <v>290</v>
-      </c>
-      <c r="C141" t="s" s="6">
+      <c r="E143" s="9"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="10"/>
+      <c r="I143" s="10"/>
+      <c r="J143" s="10"/>
+    </row>
+    <row r="144" ht="14.35" customHeight="1">
+      <c r="A144" t="s" s="7">
+        <v>294</v>
+      </c>
+      <c r="B144" t="s" s="7">
+        <v>295</v>
+      </c>
+      <c r="C144" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="D141" s="7">
+      <c r="D144" s="8">
         <v>0.923076923076923</v>
       </c>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="8"/>
-      <c r="H141" s="8"/>
-      <c r="I141" s="8"/>
-      <c r="J141" s="8"/>
-    </row>
-    <row r="142" ht="14.35" customHeight="1">
-      <c r="A142" t="s" s="6">
-        <v>291</v>
-      </c>
-      <c r="B142" t="s" s="6">
-        <v>292</v>
-      </c>
-      <c r="C142" s="8"/>
-      <c r="D142" s="9">
+      <c r="E144" s="9"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
+      <c r="H144" s="10"/>
+      <c r="I144" s="10"/>
+      <c r="J144" s="10"/>
+    </row>
+    <row r="145" ht="14.35" customHeight="1">
+      <c r="A145" t="s" s="7">
+        <v>296</v>
+      </c>
+      <c r="B145" t="s" s="7">
+        <v>297</v>
+      </c>
+      <c r="C145" s="10"/>
+      <c r="D145" s="11">
         <v>0</v>
       </c>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="8"/>
-      <c r="J142" s="8"/>
-    </row>
-    <row r="143" ht="14.35" customHeight="1">
-      <c r="A143" t="s" s="6">
-        <v>293</v>
-      </c>
-      <c r="B143" t="s" s="6">
-        <v>294</v>
-      </c>
-      <c r="C143" t="s" s="6">
+      <c r="E145" s="9">
+        <v>0.532467532467532</v>
+      </c>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="10"/>
+      <c r="I145" s="10"/>
+      <c r="J145" s="10"/>
+    </row>
+    <row r="146" ht="14.35" customHeight="1">
+      <c r="A146" t="s" s="7">
+        <v>298</v>
+      </c>
+      <c r="B146" t="s" s="7">
+        <v>299</v>
+      </c>
+      <c r="C146" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D143" s="7">
+      <c r="D146" s="8">
         <v>0.846153846153846</v>
       </c>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
-    </row>
-    <row r="144" ht="14.35" customHeight="1">
-      <c r="A144" t="s" s="6">
-        <v>295</v>
-      </c>
-      <c r="B144" t="s" s="6">
-        <v>296</v>
-      </c>
-      <c r="C144" s="8"/>
-      <c r="D144" s="9">
+      <c r="E146" s="9">
+        <v>0.532467532467532</v>
+      </c>
+      <c r="F146" s="10"/>
+      <c r="G146" s="10"/>
+      <c r="H146" s="10"/>
+      <c r="I146" s="10"/>
+      <c r="J146" s="10"/>
+    </row>
+    <row r="147" ht="14.35" customHeight="1">
+      <c r="A147" t="s" s="7">
+        <v>300</v>
+      </c>
+      <c r="B147" t="s" s="7">
+        <v>301</v>
+      </c>
+      <c r="C147" s="10"/>
+      <c r="D147" s="11">
         <v>0</v>
       </c>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8"/>
-      <c r="G144" s="8"/>
-      <c r="H144" s="8"/>
-      <c r="I144" s="8"/>
-      <c r="J144" s="8"/>
-    </row>
-    <row r="145" ht="14.35" customHeight="1">
-      <c r="A145" t="s" s="6">
-        <v>297</v>
-      </c>
-      <c r="B145" t="s" s="6">
-        <v>298</v>
-      </c>
-      <c r="C145" s="8"/>
-      <c r="D145" s="9">
+      <c r="E147" s="9"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="10"/>
+      <c r="I147" s="10"/>
+      <c r="J147" s="10"/>
+    </row>
+    <row r="148" ht="14.35" customHeight="1">
+      <c r="A148" t="s" s="7">
+        <v>302</v>
+      </c>
+      <c r="B148" t="s" s="7">
+        <v>303</v>
+      </c>
+      <c r="C148" s="10"/>
+      <c r="D148" s="11">
         <v>0</v>
       </c>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8"/>
-      <c r="G145" s="8"/>
-      <c r="H145" s="8"/>
-      <c r="I145" s="8"/>
-      <c r="J145" s="8"/>
-    </row>
-    <row r="146" ht="14.35" customHeight="1">
-      <c r="A146" t="s" s="6">
-        <v>299</v>
-      </c>
-      <c r="B146" t="s" s="6">
-        <v>300</v>
-      </c>
-      <c r="C146" t="s" s="6">
+      <c r="E148" s="9"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10"/>
+      <c r="H148" s="10"/>
+      <c r="I148" s="10"/>
+      <c r="J148" s="10"/>
+    </row>
+    <row r="149" ht="14.35" customHeight="1">
+      <c r="A149" t="s" s="7">
+        <v>304</v>
+      </c>
+      <c r="B149" t="s" s="7">
+        <v>305</v>
+      </c>
+      <c r="C149" t="s" s="7">
         <v>43</v>
       </c>
-      <c r="D146" s="7">
+      <c r="D149" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="8"/>
-      <c r="H146" s="8"/>
-      <c r="I146" s="8"/>
-      <c r="J146" s="8"/>
-    </row>
-    <row r="147" ht="14.35" customHeight="1">
-      <c r="A147" t="s" s="6">
-        <v>301</v>
-      </c>
-      <c r="B147" t="s" s="6">
-        <v>302</v>
-      </c>
-      <c r="C147" s="8"/>
-      <c r="D147" s="7">
+      <c r="E149" s="9"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
+      <c r="H149" s="10"/>
+      <c r="I149" s="10"/>
+      <c r="J149" s="10"/>
+    </row>
+    <row r="150" ht="14.35" customHeight="1">
+      <c r="A150" t="s" s="7">
+        <v>306</v>
+      </c>
+      <c r="B150" t="s" s="7">
+        <v>307</v>
+      </c>
+      <c r="C150" s="10"/>
+      <c r="D150" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E147" s="8"/>
-      <c r="F147" s="8"/>
-      <c r="G147" s="8"/>
-      <c r="H147" s="8"/>
-      <c r="I147" s="8"/>
-      <c r="J147" s="8"/>
-    </row>
-    <row r="148" ht="14.35" customHeight="1">
-      <c r="A148" t="s" s="6">
-        <v>303</v>
-      </c>
-      <c r="B148" t="s" s="6">
-        <v>304</v>
-      </c>
-      <c r="C148" t="s" s="6">
+      <c r="E150" s="9"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="10"/>
+      <c r="H150" s="10"/>
+      <c r="I150" s="10"/>
+      <c r="J150" s="10"/>
+    </row>
+    <row r="151" ht="14.35" customHeight="1">
+      <c r="A151" t="s" s="7">
+        <v>308</v>
+      </c>
+      <c r="B151" t="s" s="7">
+        <v>309</v>
+      </c>
+      <c r="C151" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="D148" s="7">
+      <c r="D151" s="8">
         <v>0.942307692307692</v>
       </c>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="8"/>
-      <c r="H148" s="8"/>
-      <c r="I148" s="8"/>
-      <c r="J148" s="8"/>
-    </row>
-    <row r="149" ht="14.35" customHeight="1">
-      <c r="A149" t="s" s="6">
-        <v>305</v>
-      </c>
-      <c r="B149" t="s" s="6">
-        <v>306</v>
-      </c>
-      <c r="C149" t="s" s="6">
+      <c r="E151" s="9"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
+      <c r="H151" s="10"/>
+      <c r="I151" s="10"/>
+      <c r="J151" s="10"/>
+    </row>
+    <row r="152" ht="14.35" customHeight="1">
+      <c r="A152" t="s" s="7">
+        <v>310</v>
+      </c>
+      <c r="B152" t="s" s="7">
+        <v>311</v>
+      </c>
+      <c r="C152" t="s" s="7">
         <v>43</v>
       </c>
-      <c r="D149" s="7">
+      <c r="D152" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E149" s="8"/>
-      <c r="F149" s="8"/>
-      <c r="G149" s="8"/>
-      <c r="H149" s="8"/>
-      <c r="I149" s="8"/>
-      <c r="J149" s="8"/>
-    </row>
-    <row r="150" ht="14.35" customHeight="1">
-      <c r="A150" t="s" s="6">
-        <v>307</v>
-      </c>
-      <c r="B150" t="s" s="6">
-        <v>308</v>
-      </c>
-      <c r="C150" t="s" s="6">
+      <c r="E152" s="9"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
+      <c r="H152" s="10"/>
+      <c r="I152" s="10"/>
+      <c r="J152" s="10"/>
+    </row>
+    <row r="153" ht="14.35" customHeight="1">
+      <c r="A153" t="s" s="7">
+        <v>312</v>
+      </c>
+      <c r="B153" t="s" s="7">
+        <v>313</v>
+      </c>
+      <c r="C153" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D150" s="7">
+      <c r="D153" s="8">
         <v>0.807692307692308</v>
       </c>
-      <c r="E150" s="8"/>
-      <c r="F150" s="8"/>
-      <c r="G150" s="8"/>
-      <c r="H150" s="8"/>
-      <c r="I150" s="8"/>
-      <c r="J150" s="8"/>
-    </row>
-    <row r="151" ht="14.35" customHeight="1">
-      <c r="A151" t="s" s="6">
-        <v>309</v>
-      </c>
-      <c r="B151" t="s" s="6">
-        <v>310</v>
-      </c>
-      <c r="C151" s="8"/>
-      <c r="D151" s="9">
+      <c r="E153" s="9"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
+      <c r="H153" s="10"/>
+      <c r="I153" s="10"/>
+      <c r="J153" s="10"/>
+    </row>
+    <row r="154" ht="14.35" customHeight="1">
+      <c r="A154" t="s" s="7">
+        <v>314</v>
+      </c>
+      <c r="B154" t="s" s="7">
+        <v>315</v>
+      </c>
+      <c r="C154" s="10"/>
+      <c r="D154" s="11">
         <v>0</v>
       </c>
-      <c r="E151" s="8"/>
-      <c r="F151" s="8"/>
-      <c r="G151" s="8"/>
-      <c r="H151" s="8"/>
-      <c r="I151" s="8"/>
-      <c r="J151" s="8"/>
-    </row>
-    <row r="152" ht="14.35" customHeight="1">
-      <c r="A152" t="s" s="6">
-        <v>311</v>
-      </c>
-      <c r="B152" t="s" s="6">
-        <v>312</v>
-      </c>
-      <c r="C152" s="8"/>
-      <c r="D152" s="7">
+      <c r="E154" s="9"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="10"/>
+      <c r="I154" s="10"/>
+      <c r="J154" s="10"/>
+    </row>
+    <row r="155" ht="14.35" customHeight="1">
+      <c r="A155" t="s" s="7">
+        <v>316</v>
+      </c>
+      <c r="B155" t="s" s="7">
+        <v>317</v>
+      </c>
+      <c r="C155" s="10"/>
+      <c r="D155" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E152" s="8"/>
-      <c r="F152" s="8"/>
-      <c r="G152" s="8"/>
-      <c r="H152" s="8"/>
-      <c r="I152" s="8"/>
-      <c r="J152" s="8"/>
-    </row>
-    <row r="153" ht="14.35" customHeight="1">
-      <c r="A153" t="s" s="6">
-        <v>313</v>
-      </c>
-      <c r="B153" t="s" s="6">
-        <v>314</v>
-      </c>
-      <c r="C153" s="8"/>
-      <c r="D153" s="9">
+      <c r="E155" s="9"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="10"/>
+      <c r="I155" s="10"/>
+      <c r="J155" s="10"/>
+    </row>
+    <row r="156" ht="14.35" customHeight="1">
+      <c r="A156" t="s" s="7">
+        <v>318</v>
+      </c>
+      <c r="B156" t="s" s="7">
+        <v>319</v>
+      </c>
+      <c r="C156" s="10"/>
+      <c r="D156" s="11">
         <v>0</v>
       </c>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8"/>
-      <c r="G153" s="8"/>
-      <c r="H153" s="8"/>
-      <c r="I153" s="8"/>
-      <c r="J153" s="8"/>
-    </row>
-    <row r="154" ht="14.35" customHeight="1">
-      <c r="A154" t="s" s="6">
-        <v>315</v>
-      </c>
-      <c r="B154" t="s" s="6">
-        <v>316</v>
-      </c>
-      <c r="C154" s="8"/>
-      <c r="D154" s="9">
+      <c r="E156" s="9"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="10"/>
+      <c r="I156" s="10"/>
+      <c r="J156" s="10"/>
+    </row>
+    <row r="157" ht="14.35" customHeight="1">
+      <c r="A157" t="s" s="7">
+        <v>320</v>
+      </c>
+      <c r="B157" t="s" s="7">
+        <v>321</v>
+      </c>
+      <c r="C157" s="10"/>
+      <c r="D157" s="11">
         <v>0</v>
       </c>
-      <c r="E154" s="8"/>
-      <c r="F154" s="8"/>
-      <c r="G154" s="8"/>
-      <c r="H154" s="8"/>
-      <c r="I154" s="8"/>
-      <c r="J154" s="8"/>
-    </row>
-    <row r="155" ht="14.35" customHeight="1">
-      <c r="A155" t="s" s="6">
-        <v>317</v>
-      </c>
-      <c r="B155" t="s" s="6">
-        <v>318</v>
-      </c>
-      <c r="C155" s="8"/>
-      <c r="D155" s="7">
+      <c r="E157" s="9"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="10"/>
+      <c r="H157" s="10"/>
+      <c r="I157" s="10"/>
+      <c r="J157" s="10"/>
+    </row>
+    <row r="158" ht="14.35" customHeight="1">
+      <c r="A158" t="s" s="7">
+        <v>322</v>
+      </c>
+      <c r="B158" t="s" s="7">
+        <v>323</v>
+      </c>
+      <c r="C158" s="10"/>
+      <c r="D158" s="8">
         <v>0.75</v>
       </c>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8"/>
-      <c r="G155" s="8"/>
-      <c r="H155" s="8"/>
-      <c r="I155" s="8"/>
-      <c r="J155" s="8"/>
-    </row>
-    <row r="156" ht="14.35" customHeight="1">
-      <c r="A156" t="s" s="6">
-        <v>319</v>
-      </c>
-      <c r="B156" t="s" s="6">
-        <v>320</v>
-      </c>
-      <c r="C156" t="s" s="6">
+      <c r="E158" s="9"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="10"/>
+      <c r="H158" s="10"/>
+      <c r="I158" s="10"/>
+      <c r="J158" s="10"/>
+    </row>
+    <row r="159" ht="14.35" customHeight="1">
+      <c r="A159" t="s" s="7">
+        <v>324</v>
+      </c>
+      <c r="B159" t="s" s="7">
+        <v>325</v>
+      </c>
+      <c r="C159" t="s" s="7">
         <v>43</v>
       </c>
-      <c r="D156" s="7">
+      <c r="D159" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E156" s="8"/>
-      <c r="F156" s="8"/>
-      <c r="G156" s="8"/>
-      <c r="H156" s="8"/>
-      <c r="I156" s="8"/>
-      <c r="J156" s="8"/>
-    </row>
-    <row r="157" ht="14.35" customHeight="1">
-      <c r="A157" t="s" s="6">
-        <v>321</v>
-      </c>
-      <c r="B157" t="s" s="6">
-        <v>322</v>
-      </c>
-      <c r="C157" t="s" s="6">
+      <c r="E159" s="9"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="10"/>
+      <c r="H159" s="10"/>
+      <c r="I159" s="10"/>
+      <c r="J159" s="10"/>
+    </row>
+    <row r="160" ht="14.35" customHeight="1">
+      <c r="A160" t="s" s="7">
+        <v>326</v>
+      </c>
+      <c r="B160" t="s" s="7">
+        <v>327</v>
+      </c>
+      <c r="C160" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D157" s="7">
+      <c r="D160" s="8">
         <v>1</v>
       </c>
-      <c r="E157" s="8"/>
-      <c r="F157" s="8"/>
-      <c r="G157" s="8"/>
-      <c r="H157" s="8"/>
-      <c r="I157" s="8"/>
-      <c r="J157" s="8"/>
-    </row>
-    <row r="158" ht="14.35" customHeight="1">
-      <c r="A158" t="s" s="6">
-        <v>323</v>
-      </c>
-      <c r="B158" t="s" s="6">
-        <v>324</v>
-      </c>
-      <c r="C158" t="s" s="6">
+      <c r="E160" s="9"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
+      <c r="H160" s="10"/>
+      <c r="I160" s="10"/>
+      <c r="J160" s="10"/>
+    </row>
+    <row r="161" ht="14.35" customHeight="1">
+      <c r="A161" t="s" s="7">
+        <v>328</v>
+      </c>
+      <c r="B161" t="s" s="7">
+        <v>329</v>
+      </c>
+      <c r="C161" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D158" s="7">
+      <c r="D161" s="8">
         <v>0.826923076923077</v>
       </c>
-      <c r="E158" s="8"/>
-      <c r="F158" s="8"/>
-      <c r="G158" s="8"/>
-      <c r="H158" s="8"/>
-      <c r="I158" s="8"/>
-      <c r="J158" s="8"/>
-    </row>
-    <row r="159" ht="14.35" customHeight="1">
-      <c r="A159" t="s" s="6">
-        <v>325</v>
-      </c>
-      <c r="B159" t="s" s="6">
-        <v>326</v>
-      </c>
-      <c r="C159" s="8"/>
-      <c r="D159" s="9">
+      <c r="E161" s="9"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="10"/>
+      <c r="H161" s="10"/>
+      <c r="I161" s="10"/>
+      <c r="J161" s="10"/>
+    </row>
+    <row r="162" ht="14.35" customHeight="1">
+      <c r="A162" t="s" s="7">
+        <v>330</v>
+      </c>
+      <c r="B162" t="s" s="7">
+        <v>331</v>
+      </c>
+      <c r="C162" s="10"/>
+      <c r="D162" s="11">
         <v>0</v>
       </c>
-      <c r="E159" s="8"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="8"/>
-      <c r="H159" s="8"/>
-      <c r="I159" s="8"/>
-      <c r="J159" s="8"/>
-    </row>
-    <row r="160" ht="14.35" customHeight="1">
-      <c r="A160" t="s" s="6">
-        <v>327</v>
-      </c>
-      <c r="B160" t="s" s="6">
-        <v>328</v>
-      </c>
-      <c r="C160" t="s" s="6">
+      <c r="E162" s="9"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="10"/>
+      <c r="H162" s="10"/>
+      <c r="I162" s="10"/>
+      <c r="J162" s="10"/>
+    </row>
+    <row r="163" ht="14.35" customHeight="1">
+      <c r="A163" t="s" s="7">
+        <v>332</v>
+      </c>
+      <c r="B163" t="s" s="7">
+        <v>333</v>
+      </c>
+      <c r="C163" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D160" s="7">
+      <c r="D163" s="8">
         <v>0.7692307692307691</v>
       </c>
-      <c r="E160" s="8"/>
-      <c r="F160" s="8"/>
-      <c r="G160" s="8"/>
-      <c r="H160" s="8"/>
-      <c r="I160" s="8"/>
-      <c r="J160" s="8"/>
-    </row>
-    <row r="161" ht="14.35" customHeight="1">
-      <c r="A161" t="s" s="6">
-        <v>329</v>
-      </c>
-      <c r="B161" t="s" s="6">
-        <v>330</v>
-      </c>
-      <c r="C161" t="s" s="6">
+      <c r="E163" s="9"/>
+      <c r="F163" s="10"/>
+      <c r="G163" s="10"/>
+      <c r="H163" s="10"/>
+      <c r="I163" s="10"/>
+      <c r="J163" s="10"/>
+    </row>
+    <row r="164" ht="14.35" customHeight="1">
+      <c r="A164" t="s" s="7">
+        <v>334</v>
+      </c>
+      <c r="B164" t="s" s="7">
+        <v>335</v>
+      </c>
+      <c r="C164" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D161" s="7">
+      <c r="D164" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E161" s="8"/>
-      <c r="F161" s="8"/>
-      <c r="G161" s="8"/>
-      <c r="H161" s="8"/>
-      <c r="I161" s="8"/>
-      <c r="J161" s="8"/>
-    </row>
-    <row r="162" ht="14.35" customHeight="1">
-      <c r="A162" t="s" s="6">
-        <v>331</v>
-      </c>
-      <c r="B162" t="s" s="6">
-        <v>332</v>
-      </c>
-      <c r="C162" t="s" s="6">
+      <c r="E164" s="9"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10"/>
+      <c r="H164" s="10"/>
+      <c r="I164" s="10"/>
+      <c r="J164" s="10"/>
+    </row>
+    <row r="165" ht="14.35" customHeight="1">
+      <c r="A165" t="s" s="7">
+        <v>336</v>
+      </c>
+      <c r="B165" t="s" s="7">
+        <v>337</v>
+      </c>
+      <c r="C165" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D162" s="7">
+      <c r="D165" s="8">
         <v>0.846153846153846</v>
       </c>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8"/>
-      <c r="G162" s="8"/>
-      <c r="H162" s="8"/>
-      <c r="I162" s="8"/>
-      <c r="J162" s="8"/>
-    </row>
-    <row r="163" ht="14.35" customHeight="1">
-      <c r="A163" t="s" s="6">
-        <v>333</v>
-      </c>
-      <c r="B163" t="s" s="6">
-        <v>334</v>
-      </c>
-      <c r="C163" t="s" s="6">
+      <c r="E165" s="9">
+        <v>0.532467532467532</v>
+      </c>
+      <c r="F165" s="10"/>
+      <c r="G165" s="10"/>
+      <c r="H165" s="10"/>
+      <c r="I165" s="10"/>
+      <c r="J165" s="10"/>
+    </row>
+    <row r="166" ht="14.35" customHeight="1">
+      <c r="A166" t="s" s="7">
+        <v>338</v>
+      </c>
+      <c r="B166" t="s" s="7">
+        <v>339</v>
+      </c>
+      <c r="C166" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D163" s="7">
+      <c r="D166" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E163" s="8"/>
-      <c r="F163" s="8"/>
-      <c r="G163" s="8"/>
-      <c r="H163" s="8"/>
-      <c r="I163" s="8"/>
-      <c r="J163" s="8"/>
-    </row>
-    <row r="164" ht="14.35" customHeight="1">
-      <c r="A164" t="s" s="6">
-        <v>335</v>
-      </c>
-      <c r="B164" t="s" s="6">
-        <v>336</v>
-      </c>
-      <c r="C164" t="s" s="6">
+      <c r="E166" s="9"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
+      <c r="H166" s="10"/>
+      <c r="I166" s="10"/>
+      <c r="J166" s="10"/>
+    </row>
+    <row r="167" ht="14.35" customHeight="1">
+      <c r="A167" t="s" s="7">
+        <v>340</v>
+      </c>
+      <c r="B167" t="s" s="7">
+        <v>341</v>
+      </c>
+      <c r="C167" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="D164" s="9">
+      <c r="D167" s="11">
         <v>1</v>
       </c>
-      <c r="E164" s="8"/>
-      <c r="F164" s="8"/>
-      <c r="G164" s="8"/>
-      <c r="H164" s="8"/>
-      <c r="I164" s="8"/>
-      <c r="J164" s="8"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="10"/>
+      <c r="H167" s="10"/>
+      <c r="I167" s="10"/>
+      <c r="J167" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6699,123 +6804,123 @@
     <hyperlink ref="B37" r:id="rId34" location="" tooltip="" display="H220283P@hit.ac.zw"/>
     <hyperlink ref="B39" r:id="rId35" location="" tooltip="" display="H220023E@hit.ac.zw"/>
     <hyperlink ref="B40" r:id="rId36" location="" tooltip="" display="H220202J@hit.ac.zw"/>
-    <hyperlink ref="B41" r:id="rId37" location="" tooltip="" display="H220431M@hit.ac.zw"/>
-    <hyperlink ref="B42" r:id="rId38" location="" tooltip="" display="H220218P@hit.ac.zw"/>
-    <hyperlink ref="B43" r:id="rId39" location="" tooltip="" display="H220494C@hit.ac.zw"/>
-    <hyperlink ref="B44" r:id="rId40" location="" tooltip="" display="H220582T@hit.ac.zw"/>
-    <hyperlink ref="B45" r:id="rId41" location="" tooltip="" display="H220084C@hit.ac.zw"/>
-    <hyperlink ref="B46" r:id="rId42" location="" tooltip="" display="H220343Y@hit.ac.zw"/>
-    <hyperlink ref="B47" r:id="rId43" location="" tooltip="" display="H220508Q@hit.ac.zw"/>
-    <hyperlink ref="B48" r:id="rId44" location="" tooltip="" display="H220349M@hit.ac.zw"/>
-    <hyperlink ref="B49" r:id="rId45" location="" tooltip="" display="H220045P@hit.ac.zw"/>
-    <hyperlink ref="B50" r:id="rId46" location="" tooltip="" display="H220038B@hit.ac.zw"/>
-    <hyperlink ref="B52" r:id="rId47" location="" tooltip="" display="H220480A@hit.ac.zw"/>
-    <hyperlink ref="B53" r:id="rId48" location="" tooltip="" display="H220052N@hit.ac.zw"/>
-    <hyperlink ref="B54" r:id="rId49" location="" tooltip="" display="H220379X@hit.ac.zw"/>
-    <hyperlink ref="B55" r:id="rId50" location="" tooltip="" display="H220281P@hit.ac.zw"/>
-    <hyperlink ref="B56" r:id="rId51" location="" tooltip="" display="H220413B@hit.ac.zw"/>
-    <hyperlink ref="B57" r:id="rId52" location="" tooltip="" display="H220042V@hit.ac.zw"/>
-    <hyperlink ref="B58" r:id="rId53" location="" tooltip="" display="H220153W@hit.ac.zw"/>
-    <hyperlink ref="B59" r:id="rId54" location="" tooltip="" display="H220094W@hit.ac.zw"/>
-    <hyperlink ref="B60" r:id="rId55" location="" tooltip="" display="H220230R@hit.ac.zw"/>
-    <hyperlink ref="B61" r:id="rId56" location="" tooltip="" display="H220122N@hit.ac.zw"/>
-    <hyperlink ref="B62" r:id="rId57" location="" tooltip="" display="H220152Q@hit.ac.zw"/>
-    <hyperlink ref="B64" r:id="rId58" location="" tooltip="" display="H220585W@hit.ac.zw"/>
-    <hyperlink ref="B65" r:id="rId59" location="" tooltip="" display="H220047M@hit.ac.zw"/>
-    <hyperlink ref="B66" r:id="rId60" location="" tooltip="" display="H220483J@hit.ac.zw"/>
-    <hyperlink ref="B67" r:id="rId61" location="" tooltip="" display="H220015F@hit.ac.zw"/>
-    <hyperlink ref="B68" r:id="rId62" location="" tooltip="" display="H220184Z@hit.ac.zw"/>
-    <hyperlink ref="B69" r:id="rId63" location="" tooltip="" display="H220392X@hit.ac.zw"/>
-    <hyperlink ref="B70" r:id="rId64" location="" tooltip="" display="H220187N@hit.ac.zw"/>
-    <hyperlink ref="B71" r:id="rId65" location="" tooltip="" display="H220421Y@hit.ac.zw"/>
-    <hyperlink ref="B73" r:id="rId66" location="" tooltip="" display="h200799c@hit.ac.zw"/>
-    <hyperlink ref="B74" r:id="rId67" location="" tooltip="" display="H220211V@hit.ac.zw"/>
-    <hyperlink ref="B75" r:id="rId68" location="" tooltip="" display="H220623Z@hit.ac.zw"/>
-    <hyperlink ref="B76" r:id="rId69" location="" tooltip="" display="H220315H@hit.ac.zw"/>
-    <hyperlink ref="B77" r:id="rId70" location="" tooltip="" display="H220063V@hit.ac.zw"/>
-    <hyperlink ref="B78" r:id="rId71" location="" tooltip="" display="H220019B@hit.ac.zw"/>
-    <hyperlink ref="B79" r:id="rId72" location="" tooltip="" display="H220316P@hit.ac.zw"/>
-    <hyperlink ref="B80" r:id="rId73" location="" tooltip="" display="H220550G@hit.ac.zw"/>
-    <hyperlink ref="B81" r:id="rId74" location="" tooltip="" display="H220004A@hit.ac.zw"/>
-    <hyperlink ref="B82" r:id="rId75" location="" tooltip="" display="H220133W@hit.ac.zw"/>
-    <hyperlink ref="B83" r:id="rId76" location="" tooltip="" display="H220313E@hit.ac.zw"/>
-    <hyperlink ref="B84" r:id="rId77" location="" tooltip="" display="H220427Q@hit.ac.zw"/>
-    <hyperlink ref="B85" r:id="rId78" location="" tooltip="" display="H220070V@hit.ac.zw"/>
-    <hyperlink ref="B86" r:id="rId79" location="" tooltip="" display="H220325F@hit.ac.zw"/>
-    <hyperlink ref="B87" r:id="rId80" location="" tooltip="" display="H220478P@hit.ac.zw"/>
-    <hyperlink ref="B88" r:id="rId81" location="" tooltip="" display="h180617h@hit.ac.zw"/>
-    <hyperlink ref="B89" r:id="rId82" location="" tooltip="" display="H220260C@hit.ac.zw"/>
-    <hyperlink ref="B90" r:id="rId83" location="" tooltip="" display="H220624V@hit.ac.zw"/>
-    <hyperlink ref="B91" r:id="rId84" location="" tooltip="" display="H220231W@hit.ac.zw"/>
-    <hyperlink ref="B92" r:id="rId85" location="" tooltip="" display="H220503P@hit.ac.zw"/>
-    <hyperlink ref="B93" r:id="rId86" location="" tooltip="" display="H220130J@hit.ac.zw"/>
-    <hyperlink ref="B94" r:id="rId87" location="" tooltip="" display="H220086F@hit.ac.zw"/>
-    <hyperlink ref="B95" r:id="rId88" location="" tooltip="" display="H220010Q@hit.ac.zw"/>
-    <hyperlink ref="B96" r:id="rId89" location="" tooltip="" display="h180134p@hit.ac.zw"/>
-    <hyperlink ref="B97" r:id="rId90" location="" tooltip="" display="H220564G@hit.ac.zw"/>
-    <hyperlink ref="B98" r:id="rId91" location="" tooltip="" display="H220462G@hit.ac.zw"/>
-    <hyperlink ref="B99" r:id="rId92" location="" tooltip="" display="H220204H@hit.ac.zw"/>
-    <hyperlink ref="B100" r:id="rId93" location="" tooltip="" display="H220516A@hit.ac.zw"/>
-    <hyperlink ref="B101" r:id="rId94" location="" tooltip="" display="H220183B@hit.ac.zw"/>
-    <hyperlink ref="B102" r:id="rId95" location="" tooltip="" display="H220449Q@hit.ac.zw"/>
-    <hyperlink ref="B104" r:id="rId96" location="" tooltip="" display="H220273W@hit.ac.zw"/>
-    <hyperlink ref="B105" r:id="rId97" location="" tooltip="" display="H220087E@hit.ac.zw"/>
-    <hyperlink ref="B106" r:id="rId98" location="" tooltip="" display="H220033G@hit.ac.zw"/>
-    <hyperlink ref="B107" r:id="rId99" location="" tooltip="" display="H220269E@hit.ac.zw"/>
-    <hyperlink ref="B108" r:id="rId100" location="" tooltip="" display="H220595W@hit.ac.zw"/>
-    <hyperlink ref="B109" r:id="rId101" location="" tooltip="" display="H220591F@hit.ac.zw"/>
-    <hyperlink ref="B110" r:id="rId102" location="" tooltip="" display="H220221G@hit.ac.zw"/>
-    <hyperlink ref="B112" r:id="rId103" location="" tooltip="" display="H220242Z@hit.ac.zw"/>
-    <hyperlink ref="B113" r:id="rId104" location="" tooltip="" display="H220348B@hit.ac.zw"/>
-    <hyperlink ref="B114" r:id="rId105" location="" tooltip="" display="H220418Y@hit.ac.zw"/>
-    <hyperlink ref="B115" r:id="rId106" location="" tooltip="" display="H220450T@hit.ac.zw"/>
-    <hyperlink ref="B116" r:id="rId107" location="" tooltip="" display="H220333Q@hit.ac.zw"/>
-    <hyperlink ref="B117" r:id="rId108" location="" tooltip="" display="H220320J@hit.ac.zw"/>
-    <hyperlink ref="B118" r:id="rId109" location="" tooltip="" display="H220311Y@hit.ac.zw"/>
-    <hyperlink ref="B119" r:id="rId110" location="" tooltip="" display="H220138M@hit.ac.zw"/>
-    <hyperlink ref="B120" r:id="rId111" location="" tooltip="" display="h210574b@hit.ac.zw"/>
-    <hyperlink ref="B122" r:id="rId112" location="" tooltip="" display="H220197V@hit.ac.zw"/>
-    <hyperlink ref="B123" r:id="rId113" location="" tooltip="" display="H220247A@hit.ac.zw"/>
-    <hyperlink ref="B124" r:id="rId114" location="" tooltip="" display="H220432X@hit.ac.zw"/>
-    <hyperlink ref="B125" r:id="rId115" location="" tooltip="" display="H220223N@hit.ac.zw"/>
-    <hyperlink ref="B127" r:id="rId116" location="" tooltip="" display="H220272P@hit.ac.zw"/>
-    <hyperlink ref="B128" r:id="rId117" location="" tooltip="" display="H220615W@hit.ac.zw"/>
-    <hyperlink ref="B129" r:id="rId118" location="" tooltip="" display="H220196A@hit.ac.zw"/>
-    <hyperlink ref="B130" r:id="rId119" location="" tooltip="" display="h220535v@hit.ac.zw"/>
-    <hyperlink ref="B131" r:id="rId120" location="" tooltip="" display="h220688a@hit.ac.zw"/>
-    <hyperlink ref="B132" r:id="rId121" location="" tooltip="" display="H220026H@hit.ac.zw"/>
-    <hyperlink ref="B133" r:id="rId122" location="" tooltip="" display="H220533P@hit.ac.zw"/>
-    <hyperlink ref="B134" r:id="rId123" location="" tooltip="" display="H220435X@hit.ac.zw"/>
-    <hyperlink ref="B135" r:id="rId124" location="" tooltip="" display="H220225C@hit.ac.zw"/>
-    <hyperlink ref="B136" r:id="rId125" location="" tooltip="" display="H220198F@hit.ac.zw"/>
-    <hyperlink ref="B137" r:id="rId126" location="" tooltip="" display="H220290G@hit.ac.zw"/>
-    <hyperlink ref="B138" r:id="rId127" location="" tooltip="" display="H220147B@hit.ac.zw"/>
-    <hyperlink ref="B139" r:id="rId128" location="" tooltip="" display="H220076E@hit.ac.zw"/>
-    <hyperlink ref="B140" r:id="rId129" location="" tooltip="" display="H220129A@hit.ac.zw"/>
-    <hyperlink ref="B141" r:id="rId130" location="" tooltip="" display="H220243A@hit.ac.zw"/>
-    <hyperlink ref="B142" r:id="rId131" location="" tooltip="" display="H220554M@hit.ac.zw"/>
-    <hyperlink ref="B143" r:id="rId132" location="" tooltip="" display="H220415J@hit.ac.zw"/>
-    <hyperlink ref="B144" r:id="rId133" location="" tooltip="" display="H220439A@hit.ac.zw"/>
-    <hyperlink ref="B145" r:id="rId134" location="" tooltip="" display="H220390X@hit.ac.zw"/>
-    <hyperlink ref="B146" r:id="rId135" location="" tooltip="" display="H220536M@hit.ac.zw"/>
-    <hyperlink ref="B147" r:id="rId136" location="" tooltip="" display="H220189E@hit.ac.zw"/>
-    <hyperlink ref="B148" r:id="rId137" location="" tooltip="" display="H220146J@hit.ac.zw"/>
-    <hyperlink ref="B149" r:id="rId138" location="" tooltip="" display="H220179T@hit.ac.zw"/>
-    <hyperlink ref="B150" r:id="rId139" location="" tooltip="" display="H220057B@hit.ac.zw"/>
-    <hyperlink ref="B151" r:id="rId140" location="" tooltip="" display="H220586J@hit.ac.zw"/>
-    <hyperlink ref="B152" r:id="rId141" location="" tooltip="" display="H220417Y@hit.ac.zw"/>
-    <hyperlink ref="B153" r:id="rId142" location="" tooltip="" display="H220553G@hit.ac.zw"/>
-    <hyperlink ref="B154" r:id="rId143" location="" tooltip="" display="H220250Q@hit.ac.zw"/>
-    <hyperlink ref="B155" r:id="rId144" location="" tooltip="" display="H220652T@hit.ac.zw"/>
-    <hyperlink ref="B156" r:id="rId145" location="" tooltip="" display="H220426Q@hit.ac.zw"/>
-    <hyperlink ref="B157" r:id="rId146" location="" tooltip="" display="H220072Y@hit.ac.zw"/>
-    <hyperlink ref="B158" r:id="rId147" location="" tooltip="" display="H220028G@hit.ac.zw"/>
-    <hyperlink ref="B159" r:id="rId148" location="" tooltip="" display="H220081X@hit.ac.zw"/>
-    <hyperlink ref="B160" r:id="rId149" location="" tooltip="" display="h210371h@hit.ac.zw"/>
-    <hyperlink ref="B161" r:id="rId150" location="" tooltip="" display="H220105E@hit.ac.zw"/>
-    <hyperlink ref="B162" r:id="rId151" location="" tooltip="" display="H220215E@hit.ac.zw"/>
-    <hyperlink ref="B163" r:id="rId152" location="" tooltip="" display="H220537B@hit.ac.zw"/>
-    <hyperlink ref="B164" r:id="rId153" location="" tooltip="" display="H220411Q@hit.ac.zw"/>
+    <hyperlink ref="B42" r:id="rId37" location="" tooltip="" display="H220431M@hit.ac.zw"/>
+    <hyperlink ref="B43" r:id="rId38" location="" tooltip="" display="H220218P@hit.ac.zw"/>
+    <hyperlink ref="B44" r:id="rId39" location="" tooltip="" display="H220494C@hit.ac.zw"/>
+    <hyperlink ref="B45" r:id="rId40" location="" tooltip="" display="H220582T@hit.ac.zw"/>
+    <hyperlink ref="B46" r:id="rId41" location="" tooltip="" display="H220084C@hit.ac.zw"/>
+    <hyperlink ref="B47" r:id="rId42" location="" tooltip="" display="H220343Y@hit.ac.zw"/>
+    <hyperlink ref="B48" r:id="rId43" location="" tooltip="" display="H220508Q@hit.ac.zw"/>
+    <hyperlink ref="B49" r:id="rId44" location="" tooltip="" display="H220349M@hit.ac.zw"/>
+    <hyperlink ref="B50" r:id="rId45" location="" tooltip="" display="H220045P@hit.ac.zw"/>
+    <hyperlink ref="B51" r:id="rId46" location="" tooltip="" display="H220038B@hit.ac.zw"/>
+    <hyperlink ref="B53" r:id="rId47" location="" tooltip="" display="H220480A@hit.ac.zw"/>
+    <hyperlink ref="B54" r:id="rId48" location="" tooltip="" display="H220052N@hit.ac.zw"/>
+    <hyperlink ref="B55" r:id="rId49" location="" tooltip="" display="H220379X@hit.ac.zw"/>
+    <hyperlink ref="B56" r:id="rId50" location="" tooltip="" display="H220281P@hit.ac.zw"/>
+    <hyperlink ref="B57" r:id="rId51" location="" tooltip="" display="H220413B@hit.ac.zw"/>
+    <hyperlink ref="B58" r:id="rId52" location="" tooltip="" display="H220042V@hit.ac.zw"/>
+    <hyperlink ref="B59" r:id="rId53" location="" tooltip="" display="H220153W@hit.ac.zw"/>
+    <hyperlink ref="B60" r:id="rId54" location="" tooltip="" display="H220094W@hit.ac.zw"/>
+    <hyperlink ref="B61" r:id="rId55" location="" tooltip="" display="H220230R@hit.ac.zw"/>
+    <hyperlink ref="B62" r:id="rId56" location="" tooltip="" display="H220122N@hit.ac.zw"/>
+    <hyperlink ref="B63" r:id="rId57" location="" tooltip="" display="H220152Q@hit.ac.zw"/>
+    <hyperlink ref="B65" r:id="rId58" location="" tooltip="" display="H220585W@hit.ac.zw"/>
+    <hyperlink ref="B66" r:id="rId59" location="" tooltip="" display="H220047M@hit.ac.zw"/>
+    <hyperlink ref="B67" r:id="rId60" location="" tooltip="" display="H220483J@hit.ac.zw"/>
+    <hyperlink ref="B68" r:id="rId61" location="" tooltip="" display="H220015F@hit.ac.zw"/>
+    <hyperlink ref="B69" r:id="rId62" location="" tooltip="" display="H220184Z@hit.ac.zw"/>
+    <hyperlink ref="B70" r:id="rId63" location="" tooltip="" display="H220392X@hit.ac.zw"/>
+    <hyperlink ref="B71" r:id="rId64" location="" tooltip="" display="H220187N@hit.ac.zw"/>
+    <hyperlink ref="B72" r:id="rId65" location="" tooltip="" display="H220421Y@hit.ac.zw"/>
+    <hyperlink ref="B74" r:id="rId66" location="" tooltip="" display="h200799c@hit.ac.zw"/>
+    <hyperlink ref="B76" r:id="rId67" location="" tooltip="" display="H220211V@hit.ac.zw"/>
+    <hyperlink ref="B77" r:id="rId68" location="" tooltip="" display="H220623Z@hit.ac.zw"/>
+    <hyperlink ref="B78" r:id="rId69" location="" tooltip="" display="H220315H@hit.ac.zw"/>
+    <hyperlink ref="B79" r:id="rId70" location="" tooltip="" display="H220063V@hit.ac.zw"/>
+    <hyperlink ref="B80" r:id="rId71" location="" tooltip="" display="H220019B@hit.ac.zw"/>
+    <hyperlink ref="B81" r:id="rId72" location="" tooltip="" display="H220316P@hit.ac.zw"/>
+    <hyperlink ref="B82" r:id="rId73" location="" tooltip="" display="H220550G@hit.ac.zw"/>
+    <hyperlink ref="B83" r:id="rId74" location="" tooltip="" display="H220004A@hit.ac.zw"/>
+    <hyperlink ref="B84" r:id="rId75" location="" tooltip="" display="H220133W@hit.ac.zw"/>
+    <hyperlink ref="B85" r:id="rId76" location="" tooltip="" display="H220313E@hit.ac.zw"/>
+    <hyperlink ref="B86" r:id="rId77" location="" tooltip="" display="H220427Q@hit.ac.zw"/>
+    <hyperlink ref="B87" r:id="rId78" location="" tooltip="" display="H220070V@hit.ac.zw"/>
+    <hyperlink ref="B88" r:id="rId79" location="" tooltip="" display="H220325F@hit.ac.zw"/>
+    <hyperlink ref="B89" r:id="rId80" location="" tooltip="" display="H220478P@hit.ac.zw"/>
+    <hyperlink ref="B90" r:id="rId81" location="" tooltip="" display="h180617h@hit.ac.zw"/>
+    <hyperlink ref="B91" r:id="rId82" location="" tooltip="" display="H220260C@hit.ac.zw"/>
+    <hyperlink ref="B92" r:id="rId83" location="" tooltip="" display="H220624V@hit.ac.zw"/>
+    <hyperlink ref="B93" r:id="rId84" location="" tooltip="" display="H220231W@hit.ac.zw"/>
+    <hyperlink ref="B94" r:id="rId85" location="" tooltip="" display="H220503P@hit.ac.zw"/>
+    <hyperlink ref="B95" r:id="rId86" location="" tooltip="" display="H220130J@hit.ac.zw"/>
+    <hyperlink ref="B96" r:id="rId87" location="" tooltip="" display="H220086F@hit.ac.zw"/>
+    <hyperlink ref="B97" r:id="rId88" location="" tooltip="" display="H220010Q@hit.ac.zw"/>
+    <hyperlink ref="B98" r:id="rId89" location="" tooltip="" display="h180134p@hit.ac.zw"/>
+    <hyperlink ref="B99" r:id="rId90" location="" tooltip="" display="H220564G@hit.ac.zw"/>
+    <hyperlink ref="B100" r:id="rId91" location="" tooltip="" display="H220462G@hit.ac.zw"/>
+    <hyperlink ref="B101" r:id="rId92" location="" tooltip="" display="H220204H@hit.ac.zw"/>
+    <hyperlink ref="B102" r:id="rId93" location="" tooltip="" display="H220516A@hit.ac.zw"/>
+    <hyperlink ref="B103" r:id="rId94" location="" tooltip="" display="H220183B@hit.ac.zw"/>
+    <hyperlink ref="B104" r:id="rId95" location="" tooltip="" display="H220449Q@hit.ac.zw"/>
+    <hyperlink ref="B106" r:id="rId96" location="" tooltip="" display="H220273W@hit.ac.zw"/>
+    <hyperlink ref="B107" r:id="rId97" location="" tooltip="" display="H220087E@hit.ac.zw"/>
+    <hyperlink ref="B108" r:id="rId98" location="" tooltip="" display="H220033G@hit.ac.zw"/>
+    <hyperlink ref="B109" r:id="rId99" location="" tooltip="" display="H220269E@hit.ac.zw"/>
+    <hyperlink ref="B110" r:id="rId100" location="" tooltip="" display="H220595W@hit.ac.zw"/>
+    <hyperlink ref="B111" r:id="rId101" location="" tooltip="" display="H220591F@hit.ac.zw"/>
+    <hyperlink ref="B112" r:id="rId102" location="" tooltip="" display="H220221G@hit.ac.zw"/>
+    <hyperlink ref="B114" r:id="rId103" location="" tooltip="" display="H220242Z@hit.ac.zw"/>
+    <hyperlink ref="B115" r:id="rId104" location="" tooltip="" display="H220348B@hit.ac.zw"/>
+    <hyperlink ref="B116" r:id="rId105" location="" tooltip="" display="H220418Y@hit.ac.zw"/>
+    <hyperlink ref="B117" r:id="rId106" location="" tooltip="" display="H220450T@hit.ac.zw"/>
+    <hyperlink ref="B118" r:id="rId107" location="" tooltip="" display="H220333Q@hit.ac.zw"/>
+    <hyperlink ref="B119" r:id="rId108" location="" tooltip="" display="H220320J@hit.ac.zw"/>
+    <hyperlink ref="B120" r:id="rId109" location="" tooltip="" display="H220311Y@hit.ac.zw"/>
+    <hyperlink ref="B121" r:id="rId110" location="" tooltip="" display="H220138M@hit.ac.zw"/>
+    <hyperlink ref="B122" r:id="rId111" location="" tooltip="" display="h210574b@hit.ac.zw"/>
+    <hyperlink ref="B125" r:id="rId112" location="" tooltip="" display="H220197V@hit.ac.zw"/>
+    <hyperlink ref="B126" r:id="rId113" location="" tooltip="" display="H220247A@hit.ac.zw"/>
+    <hyperlink ref="B127" r:id="rId114" location="" tooltip="" display="H220432X@hit.ac.zw"/>
+    <hyperlink ref="B128" r:id="rId115" location="" tooltip="" display="H220223N@hit.ac.zw"/>
+    <hyperlink ref="B130" r:id="rId116" location="" tooltip="" display="H220272P@hit.ac.zw"/>
+    <hyperlink ref="B131" r:id="rId117" location="" tooltip="" display="H220615W@hit.ac.zw"/>
+    <hyperlink ref="B132" r:id="rId118" location="" tooltip="" display="H220196A@hit.ac.zw"/>
+    <hyperlink ref="B133" r:id="rId119" location="" tooltip="" display="h220535v@hit.ac.zw"/>
+    <hyperlink ref="B134" r:id="rId120" location="" tooltip="" display="h220688a@hit.ac.zw"/>
+    <hyperlink ref="B135" r:id="rId121" location="" tooltip="" display="H220026H@hit.ac.zw"/>
+    <hyperlink ref="B136" r:id="rId122" location="" tooltip="" display="H220533P@hit.ac.zw"/>
+    <hyperlink ref="B137" r:id="rId123" location="" tooltip="" display="H220435X@hit.ac.zw"/>
+    <hyperlink ref="B138" r:id="rId124" location="" tooltip="" display="H220225C@hit.ac.zw"/>
+    <hyperlink ref="B139" r:id="rId125" location="" tooltip="" display="H220198F@hit.ac.zw"/>
+    <hyperlink ref="B140" r:id="rId126" location="" tooltip="" display="H220290G@hit.ac.zw"/>
+    <hyperlink ref="B141" r:id="rId127" location="" tooltip="" display="H220147B@hit.ac.zw"/>
+    <hyperlink ref="B142" r:id="rId128" location="" tooltip="" display="H220076E@hit.ac.zw"/>
+    <hyperlink ref="B143" r:id="rId129" location="" tooltip="" display="H220129A@hit.ac.zw"/>
+    <hyperlink ref="B144" r:id="rId130" location="" tooltip="" display="H220243A@hit.ac.zw"/>
+    <hyperlink ref="B145" r:id="rId131" location="" tooltip="" display="H220554M@hit.ac.zw"/>
+    <hyperlink ref="B146" r:id="rId132" location="" tooltip="" display="H220415J@hit.ac.zw"/>
+    <hyperlink ref="B147" r:id="rId133" location="" tooltip="" display="H220439A@hit.ac.zw"/>
+    <hyperlink ref="B148" r:id="rId134" location="" tooltip="" display="H220390X@hit.ac.zw"/>
+    <hyperlink ref="B149" r:id="rId135" location="" tooltip="" display="H220536M@hit.ac.zw"/>
+    <hyperlink ref="B150" r:id="rId136" location="" tooltip="" display="H220189E@hit.ac.zw"/>
+    <hyperlink ref="B151" r:id="rId137" location="" tooltip="" display="H220146J@hit.ac.zw"/>
+    <hyperlink ref="B152" r:id="rId138" location="" tooltip="" display="H220179T@hit.ac.zw"/>
+    <hyperlink ref="B153" r:id="rId139" location="" tooltip="" display="H220057B@hit.ac.zw"/>
+    <hyperlink ref="B154" r:id="rId140" location="" tooltip="" display="H220586J@hit.ac.zw"/>
+    <hyperlink ref="B155" r:id="rId141" location="" tooltip="" display="H220417Y@hit.ac.zw"/>
+    <hyperlink ref="B156" r:id="rId142" location="" tooltip="" display="H220553G@hit.ac.zw"/>
+    <hyperlink ref="B157" r:id="rId143" location="" tooltip="" display="H220250Q@hit.ac.zw"/>
+    <hyperlink ref="B158" r:id="rId144" location="" tooltip="" display="H220652T@hit.ac.zw"/>
+    <hyperlink ref="B159" r:id="rId145" location="" tooltip="" display="H220426Q@hit.ac.zw"/>
+    <hyperlink ref="B160" r:id="rId146" location="" tooltip="" display="H220072Y@hit.ac.zw"/>
+    <hyperlink ref="B161" r:id="rId147" location="" tooltip="" display="H220028G@hit.ac.zw"/>
+    <hyperlink ref="B162" r:id="rId148" location="" tooltip="" display="H220081X@hit.ac.zw"/>
+    <hyperlink ref="B163" r:id="rId149" location="" tooltip="" display="h210371h@hit.ac.zw"/>
+    <hyperlink ref="B164" r:id="rId150" location="" tooltip="" display="H220105E@hit.ac.zw"/>
+    <hyperlink ref="B165" r:id="rId151" location="" tooltip="" display="H220215E@hit.ac.zw"/>
+    <hyperlink ref="B166" r:id="rId152" location="" tooltip="" display="H220537B@hit.ac.zw"/>
+    <hyperlink ref="B167" r:id="rId153" location="" tooltip="" display="H220411Q@hit.ac.zw"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/cw11042022.xlsx
+++ b/cw11042022.xlsx
@@ -3963,7 +3963,9 @@
       <c r="D24" s="8">
         <v>0.903846153846154</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="9">
+        <v>0.61038961038961</v>
+      </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
@@ -4155,7 +4157,9 @@
       <c r="D34" s="11">
         <v>1</v>
       </c>
-      <c r="E34" s="9"/>
+      <c r="E34" s="9">
+        <v>0.506493506493506</v>
+      </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -4823,7 +4827,9 @@
       <c r="D68" s="11">
         <v>1</v>
       </c>
-      <c r="E68" s="9"/>
+      <c r="E68" s="9">
+        <v>0.467532467532468</v>
+      </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
@@ -4987,7 +4993,9 @@
       <c r="D76" s="8">
         <v>0.826923076923077</v>
       </c>
-      <c r="E76" s="9"/>
+      <c r="E76" s="9">
+        <v>0.519480519480519</v>
+      </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
@@ -5337,7 +5345,9 @@
       <c r="D94" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E94" s="9"/>
+      <c r="E94" s="9">
+        <v>0.272727272727273</v>
+      </c>
       <c r="F94" s="10"/>
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
@@ -5765,7 +5775,9 @@
       <c r="D116" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E116" s="9"/>
+      <c r="E116" s="9">
+        <v>0.363636363636364</v>
+      </c>
       <c r="F116" s="10"/>
       <c r="G116" s="10"/>
       <c r="H116" s="10"/>
@@ -6507,7 +6519,9 @@
       <c r="D154" s="11">
         <v>0</v>
       </c>
-      <c r="E154" s="9"/>
+      <c r="E154" s="9">
+        <v>0.493506493506494</v>
+      </c>
       <c r="F154" s="10"/>
       <c r="G154" s="10"/>
       <c r="H154" s="10"/>
@@ -6579,7 +6593,9 @@
       <c r="D158" s="8">
         <v>0.75</v>
       </c>
-      <c r="E158" s="9"/>
+      <c r="E158" s="9">
+        <v>0.636363636363636</v>
+      </c>
       <c r="F158" s="10"/>
       <c r="G158" s="10"/>
       <c r="H158" s="10"/>

--- a/cw11042022.xlsx
+++ b/cw11042022.xlsx
@@ -3617,7 +3617,9 @@
       <c r="D6" s="8">
         <v>0.673076923076923</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="9">
+        <v>0.272727272727273</v>
+      </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -3687,11 +3689,15 @@
       <c r="B10" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" t="s" s="7">
+        <v>26</v>
+      </c>
       <c r="D10" s="11">
         <v>0</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="9">
+        <v>0.337662337662338</v>
+      </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -4551,7 +4557,9 @@
       <c r="D54" s="8">
         <v>0.807692307692308</v>
       </c>
-      <c r="E54" s="9"/>
+      <c r="E54" s="9">
+        <v>0.61038961038961</v>
+      </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
@@ -4585,11 +4593,15 @@
       <c r="B56" t="s" s="7">
         <v>120</v>
       </c>
-      <c r="C56" s="10"/>
+      <c r="C56" t="s" s="7">
+        <v>43</v>
+      </c>
       <c r="D56" s="11">
         <v>0</v>
       </c>
-      <c r="E56" s="9"/>
+      <c r="E56" s="9">
+        <v>0.298701298701299</v>
+      </c>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
@@ -5633,11 +5645,15 @@
       <c r="B109" t="s" s="7">
         <v>225</v>
       </c>
-      <c r="C109" s="10"/>
+      <c r="C109" t="s" s="7">
+        <v>12</v>
+      </c>
       <c r="D109" s="11">
         <v>0</v>
       </c>
-      <c r="E109" s="9"/>
+      <c r="E109" s="9">
+        <v>0.636363636363636</v>
+      </c>
       <c r="F109" s="10"/>
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
@@ -5735,7 +5751,9 @@
       <c r="D114" s="8">
         <v>0.903846153846154</v>
       </c>
-      <c r="E114" s="9"/>
+      <c r="E114" s="9">
+        <v>0.714285714285714</v>
+      </c>
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
@@ -5953,7 +5971,9 @@
       <c r="D125" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E125" s="9"/>
+      <c r="E125" s="9">
+        <v>0.701298701298701</v>
+      </c>
       <c r="F125" s="10"/>
       <c r="G125" s="10"/>
       <c r="H125" s="10"/>
@@ -6229,7 +6249,9 @@
       <c r="D139" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E139" s="9"/>
+      <c r="E139" s="9">
+        <v>0.571428571428571</v>
+      </c>
       <c r="F139" s="10"/>
       <c r="G139" s="10"/>
       <c r="H139" s="10"/>
@@ -6501,7 +6523,9 @@
       <c r="D153" s="8">
         <v>0.807692307692308</v>
       </c>
-      <c r="E153" s="9"/>
+      <c r="E153" s="9">
+        <v>0.727272727272727</v>
+      </c>
       <c r="F153" s="10"/>
       <c r="G153" s="10"/>
       <c r="H153" s="10"/>
@@ -6693,7 +6717,9 @@
       <c r="D163" s="8">
         <v>0.7692307692307691</v>
       </c>
-      <c r="E163" s="9"/>
+      <c r="E163" s="9">
+        <v>0.636363636363636</v>
+      </c>
       <c r="F163" s="10"/>
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
@@ -6775,7 +6801,9 @@
       <c r="D167" s="11">
         <v>1</v>
       </c>
-      <c r="E167" s="9"/>
+      <c r="E167" s="9">
+        <v>0.545454545454545</v>
+      </c>
       <c r="F167" s="10"/>
       <c r="G167" s="10"/>
       <c r="H167" s="10"/>

--- a/cw11042022.xlsx
+++ b/cw11042022.xlsx
@@ -3657,7 +3657,9 @@
       <c r="D8" s="8">
         <v>0.75</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="9">
+        <v>0.649350649350649</v>
+      </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -3767,11 +3769,15 @@
       <c r="B14" t="s" s="7">
         <v>38</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" t="s" s="7">
+        <v>26</v>
+      </c>
       <c r="D14" s="11">
         <v>0</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="9">
+        <v>0.506493506493506</v>
+      </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -4457,7 +4463,9 @@
       <c r="D49" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E49" s="9"/>
+      <c r="E49" s="9">
+        <v>0.5844155844155841</v>
+      </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
@@ -4963,7 +4971,9 @@
       <c r="D74" s="8">
         <v>0.807692307692308</v>
       </c>
-      <c r="E74" s="9"/>
+      <c r="E74" s="9">
+        <v>0.493506493506494</v>
+      </c>
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
@@ -5083,7 +5093,9 @@
       <c r="D80" s="8">
         <v>0.826923076923077</v>
       </c>
-      <c r="E80" s="9"/>
+      <c r="E80" s="9">
+        <v>0.74025974025974</v>
+      </c>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
@@ -5121,7 +5133,9 @@
       <c r="D82" s="8">
         <v>0.923076923076923</v>
       </c>
-      <c r="E82" s="9"/>
+      <c r="E82" s="9">
+        <v>0.220779220779221</v>
+      </c>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
@@ -5161,7 +5175,9 @@
       <c r="D84" s="8">
         <v>0.615384615384615</v>
       </c>
-      <c r="E84" s="9"/>
+      <c r="E84" s="9">
+        <v>0.571428571428571</v>
+      </c>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
@@ -5479,7 +5495,9 @@
       <c r="D100" s="8">
         <v>0.903846153846154</v>
       </c>
-      <c r="E100" s="9"/>
+      <c r="E100" s="9">
+        <v>0.662337662337662</v>
+      </c>
       <c r="F100" s="10"/>
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
@@ -5673,7 +5691,9 @@
       <c r="D110" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E110" s="9"/>
+      <c r="E110" s="9">
+        <v>0.545454545454545</v>
+      </c>
       <c r="F110" s="10"/>
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
@@ -6165,11 +6185,15 @@
       <c r="B135" t="s" s="7">
         <v>277</v>
       </c>
-      <c r="C135" s="10"/>
+      <c r="C135" t="s" s="7">
+        <v>15</v>
+      </c>
       <c r="D135" s="11">
         <v>0</v>
       </c>
-      <c r="E135" s="9"/>
+      <c r="E135" s="9">
+        <v>0.428571428571429</v>
+      </c>
       <c r="F135" s="10"/>
       <c r="G135" s="10"/>
       <c r="H135" s="10"/>
@@ -6323,11 +6347,15 @@
       <c r="B143" t="s" s="7">
         <v>293</v>
       </c>
-      <c r="C143" s="10"/>
+      <c r="C143" t="s" s="7">
+        <v>26</v>
+      </c>
       <c r="D143" s="11">
         <v>0</v>
       </c>
-      <c r="E143" s="9"/>
+      <c r="E143" s="9">
+        <v>0.597402597402597</v>
+      </c>
       <c r="F143" s="10"/>
       <c r="G143" s="10"/>
       <c r="H143" s="10"/>
@@ -6503,7 +6531,9 @@
       <c r="D152" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E152" s="9"/>
+      <c r="E152" s="9">
+        <v>0.688311688311688</v>
+      </c>
       <c r="F152" s="10"/>
       <c r="G152" s="10"/>
       <c r="H152" s="10"/>
@@ -6595,11 +6625,15 @@
       <c r="B157" t="s" s="7">
         <v>321</v>
       </c>
-      <c r="C157" s="10"/>
+      <c r="C157" t="s" s="7">
+        <v>12</v>
+      </c>
       <c r="D157" s="11">
         <v>0</v>
       </c>
-      <c r="E157" s="9"/>
+      <c r="E157" s="9">
+        <v>0.636363636363636</v>
+      </c>
       <c r="F157" s="10"/>
       <c r="G157" s="10"/>
       <c r="H157" s="10"/>

--- a/cw11042022.xlsx
+++ b/cw11042022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="344">
   <si>
     <t>Surname</t>
   </si>
@@ -133,6 +133,9 @@
     </r>
   </si>
   <si>
+    <t>IT</t>
+  </si>
+  <si>
     <t>Chakwizira</t>
   </si>
   <si>
@@ -262,9 +265,6 @@
     </r>
   </si>
   <si>
-    <t>IT</t>
-  </si>
-  <si>
     <t>Chiku</t>
   </si>
   <si>
@@ -642,6 +642,12 @@
       </rPr>
       <t>H220084C@hit.ac.zw</t>
     </r>
+  </si>
+  <si>
+    <t>Goteka</t>
+  </si>
+  <si>
+    <t>H220714J</t>
   </si>
   <si>
     <t>Gwaze</t>
@@ -3475,7 +3481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J167"/>
+  <dimension ref="A1:J168"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -3633,11 +3639,15 @@
       <c r="B7" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" t="s" s="7">
+        <v>24</v>
+      </c>
       <c r="D7" s="11">
         <v>0</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="9">
+        <v>0.441558441558442</v>
+      </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -3646,13 +3656,13 @@
     </row>
     <row r="8" ht="14.35" customHeight="1">
       <c r="A8" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="8">
         <v>0.75</v>
@@ -3668,10 +3678,10 @@
     </row>
     <row r="9" ht="14.35" customHeight="1">
       <c r="A9" t="s" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="11">
@@ -3686,13 +3696,13 @@
     </row>
     <row r="10" ht="14.35" customHeight="1">
       <c r="A10" t="s" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="11">
         <v>0</v>
@@ -3708,10 +3718,10 @@
     </row>
     <row r="11" ht="14.35" customHeight="1">
       <c r="A11" t="s" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="11">
@@ -3728,10 +3738,10 @@
     </row>
     <row r="12" ht="14.35" customHeight="1">
       <c r="A12" t="s" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="11">
@@ -3746,10 +3756,10 @@
     </row>
     <row r="13" ht="14.35" customHeight="1">
       <c r="A13" t="s" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="11">
@@ -3764,13 +3774,13 @@
     </row>
     <row r="14" ht="14.35" customHeight="1">
       <c r="A14" t="s" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" s="11">
         <v>0</v>
@@ -3786,10 +3796,10 @@
     </row>
     <row r="15" ht="14.35" customHeight="1">
       <c r="A15" t="s" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="8">
@@ -3806,13 +3816,13 @@
     </row>
     <row r="16" ht="14.35" customHeight="1">
       <c r="A16" t="s" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s" s="7">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D16" s="8">
         <v>0.711538461538462</v>
@@ -3852,12 +3862,14 @@
         <v>47</v>
       </c>
       <c r="C18" t="s" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="9">
+        <v>0.350649350649351</v>
+      </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
@@ -3910,7 +3922,7 @@
         <v>53</v>
       </c>
       <c r="C21" t="s" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" s="8">
         <v>0.942307692307692</v>
@@ -4066,7 +4078,7 @@
         <v>69</v>
       </c>
       <c r="C29" t="s" s="7">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D29" s="8">
         <v>0.7692307692307691</v>
@@ -4104,7 +4116,7 @@
         <v>73</v>
       </c>
       <c r="C31" t="s" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D31" s="8">
         <v>0.634615384615385</v>
@@ -4164,7 +4176,7 @@
         <v>78</v>
       </c>
       <c r="C34" t="s" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D34" s="11">
         <v>1</v>
@@ -4189,7 +4201,9 @@
       <c r="D35" s="11">
         <v>0</v>
       </c>
-      <c r="E35" s="9"/>
+      <c r="E35" s="9">
+        <v>0.376623376623377</v>
+      </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -4282,7 +4296,7 @@
         <v>89</v>
       </c>
       <c r="C40" t="s" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D40" s="8">
         <v>0.75</v>
@@ -4340,7 +4354,7 @@
         <v>94</v>
       </c>
       <c r="C43" t="s" s="7">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D43" s="8">
         <v>0.634615384615385</v>
@@ -4365,7 +4379,9 @@
       <c r="D44" s="8">
         <v>0.807692307692308</v>
       </c>
-      <c r="E44" s="9"/>
+      <c r="E44" s="9">
+        <v>0.727272727272727</v>
+      </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
@@ -4380,7 +4396,7 @@
         <v>98</v>
       </c>
       <c r="C45" t="s" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D45" s="8">
         <v>0.711538461538462</v>
@@ -4419,13 +4435,13 @@
       <c r="B47" t="s" s="7">
         <v>102</v>
       </c>
-      <c r="C47" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="D47" s="8">
-        <v>0.788461538461538</v>
-      </c>
-      <c r="E47" s="9"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="11">
+        <v>0</v>
+      </c>
+      <c r="E47" s="9">
+        <v>0.311688311688312</v>
+      </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -4439,9 +4455,11 @@
       <c r="B48" t="s" s="7">
         <v>104</v>
       </c>
-      <c r="C48" s="10"/>
+      <c r="C48" t="s" s="7">
+        <v>24</v>
+      </c>
       <c r="D48" s="8">
-        <v>0.711538461538462</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="10"/>
@@ -4457,15 +4475,11 @@
       <c r="B49" t="s" s="7">
         <v>106</v>
       </c>
-      <c r="C49" t="s" s="7">
-        <v>15</v>
-      </c>
+      <c r="C49" s="10"/>
       <c r="D49" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E49" s="9">
-        <v>0.5844155844155841</v>
-      </c>
+      <c r="E49" s="9"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
@@ -4483,9 +4497,11 @@
         <v>15</v>
       </c>
       <c r="D50" s="8">
-        <v>0.788461538461538</v>
-      </c>
-      <c r="E50" s="9"/>
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E50" s="9">
+        <v>0.5844155844155841</v>
+      </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
@@ -4500,10 +4516,10 @@
         <v>110</v>
       </c>
       <c r="C51" t="s" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D51" s="8">
-        <v>0.634615384615385</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="10"/>
@@ -4520,10 +4536,10 @@
         <v>112</v>
       </c>
       <c r="C52" t="s" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D52" s="8">
-        <v>0.75</v>
+        <v>0.634615384615385</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="10"/>
@@ -4540,10 +4556,10 @@
         <v>114</v>
       </c>
       <c r="C53" t="s" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D53" s="8">
-        <v>0.634615384615385</v>
+        <v>0.75</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="10"/>
@@ -4560,14 +4576,12 @@
         <v>116</v>
       </c>
       <c r="C54" t="s" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D54" s="8">
-        <v>0.807692307692308</v>
-      </c>
-      <c r="E54" s="9">
-        <v>0.61038961038961</v>
-      </c>
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E54" s="9"/>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
@@ -4585,9 +4599,11 @@
         <v>12</v>
       </c>
       <c r="D55" s="8">
-        <v>0.826923076923077</v>
-      </c>
-      <c r="E55" s="9"/>
+        <v>0.807692307692308</v>
+      </c>
+      <c r="E55" s="9">
+        <v>0.61038961038961</v>
+      </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
@@ -4602,14 +4618,12 @@
         <v>120</v>
       </c>
       <c r="C56" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="D56" s="11">
-        <v>0</v>
-      </c>
-      <c r="E56" s="9">
-        <v>0.298701298701299</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D56" s="8">
+        <v>0.826923076923077</v>
+      </c>
+      <c r="E56" s="9"/>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
@@ -4624,12 +4638,14 @@
         <v>122</v>
       </c>
       <c r="C57" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D57" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E57" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="D57" s="11">
+        <v>0</v>
+      </c>
+      <c r="E57" s="9">
+        <v>0.298701298701299</v>
+      </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
@@ -4644,7 +4660,7 @@
         <v>124</v>
       </c>
       <c r="C58" t="s" s="7">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D58" s="8">
         <v>0.711538461538462</v>
@@ -4663,9 +4679,11 @@
       <c r="B59" t="s" s="7">
         <v>126</v>
       </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="11">
-        <v>0</v>
+      <c r="C59" t="s" s="7">
+        <v>24</v>
+      </c>
+      <c r="D59" s="8">
+        <v>0.711538461538462</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="10"/>
@@ -4681,11 +4699,9 @@
       <c r="B60" t="s" s="7">
         <v>128</v>
       </c>
-      <c r="C60" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D60" s="8">
-        <v>0.615384615384615</v>
+      <c r="C60" s="10"/>
+      <c r="D60" s="11">
+        <v>0</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="10"/>
@@ -4702,14 +4718,12 @@
         <v>130</v>
       </c>
       <c r="C61" t="s" s="7">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D61" s="8">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="E61" s="9">
-        <v>0.350649350649351</v>
-      </c>
+        <v>0.615384615384615</v>
+      </c>
+      <c r="E61" s="9"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
@@ -4724,12 +4738,14 @@
         <v>132</v>
       </c>
       <c r="C62" t="s" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D62" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E62" s="9"/>
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E62" s="9">
+        <v>0.350649350649351</v>
+      </c>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
@@ -4744,7 +4760,7 @@
         <v>134</v>
       </c>
       <c r="C63" t="s" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D63" s="8">
         <v>0.75</v>
@@ -4764,7 +4780,7 @@
         <v>136</v>
       </c>
       <c r="C64" t="s" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D64" s="8">
         <v>0.75</v>
@@ -4783,9 +4799,11 @@
       <c r="B65" t="s" s="7">
         <v>138</v>
       </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="11">
-        <v>0</v>
+      <c r="C65" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="D65" s="8">
+        <v>0.75</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="10"/>
@@ -4801,11 +4819,9 @@
       <c r="B66" t="s" s="7">
         <v>140</v>
       </c>
-      <c r="C66" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="D66" s="8">
-        <v>0.711538461538462</v>
+      <c r="C66" s="10"/>
+      <c r="D66" s="11">
+        <v>0</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="10"/>
@@ -4822,10 +4838,10 @@
         <v>142</v>
       </c>
       <c r="C67" t="s" s="7">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D67" s="8">
-        <v>0.923076923076923</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="10"/>
@@ -4842,14 +4858,12 @@
         <v>144</v>
       </c>
       <c r="C68" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="D68" s="11">
-        <v>1</v>
-      </c>
-      <c r="E68" s="9">
-        <v>0.467532467532468</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D68" s="8">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="E68" s="9"/>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
@@ -4864,12 +4878,14 @@
         <v>146</v>
       </c>
       <c r="C69" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D69" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E69" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D69" s="11">
+        <v>1</v>
+      </c>
+      <c r="E69" s="9">
+        <v>0.467532467532468</v>
+      </c>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
@@ -4884,14 +4900,12 @@
         <v>148</v>
       </c>
       <c r="C70" t="s" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D70" s="8">
-        <v>0.826923076923077</v>
-      </c>
-      <c r="E70" s="9">
-        <v>0.337662337662338</v>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="E70" s="9"/>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
@@ -4905,11 +4919,15 @@
       <c r="B71" t="s" s="7">
         <v>150</v>
       </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="11">
-        <v>0</v>
-      </c>
-      <c r="E71" s="9"/>
+      <c r="C71" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="D71" s="8">
+        <v>0.826923076923077</v>
+      </c>
+      <c r="E71" s="9">
+        <v>0.337662337662338</v>
+      </c>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
@@ -4923,11 +4941,9 @@
       <c r="B72" t="s" s="7">
         <v>152</v>
       </c>
-      <c r="C72" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D72" s="8">
-        <v>0.75</v>
+      <c r="C72" s="10"/>
+      <c r="D72" s="11">
+        <v>0</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="10"/>
@@ -4944,14 +4960,12 @@
         <v>154</v>
       </c>
       <c r="C73" t="s" s="7">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D73" s="8">
-        <v>0.942307692307692</v>
-      </c>
-      <c r="E73" s="9">
-        <v>0.480519480519481</v>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="E73" s="9"/>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
@@ -4966,13 +4980,13 @@
         <v>156</v>
       </c>
       <c r="C74" t="s" s="7">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D74" s="8">
-        <v>0.807692307692308</v>
+        <v>0.942307692307692</v>
       </c>
       <c r="E74" s="9">
-        <v>0.493506493506494</v>
+        <v>0.480519480519481</v>
       </c>
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
@@ -4988,13 +5002,13 @@
         <v>158</v>
       </c>
       <c r="C75" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D75" s="11">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="D75" s="8">
+        <v>0.807692307692308</v>
       </c>
       <c r="E75" s="9">
-        <v>0.337662337662338</v>
+        <v>0.493506493506494</v>
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
@@ -5010,13 +5024,13 @@
         <v>160</v>
       </c>
       <c r="C76" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="D76" s="8">
-        <v>0.826923076923077</v>
+        <v>15</v>
+      </c>
+      <c r="D76" s="11">
+        <v>0</v>
       </c>
       <c r="E76" s="9">
-        <v>0.519480519480519</v>
+        <v>0.337662337662338</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
@@ -5031,11 +5045,15 @@
       <c r="B77" t="s" s="7">
         <v>162</v>
       </c>
-      <c r="C77" s="10"/>
+      <c r="C77" t="s" s="7">
+        <v>27</v>
+      </c>
       <c r="D77" s="8">
-        <v>0.673076923076923</v>
-      </c>
-      <c r="E77" s="9"/>
+        <v>0.826923076923077</v>
+      </c>
+      <c r="E77" s="9">
+        <v>0.519480519480519</v>
+      </c>
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
@@ -5050,8 +5068,8 @@
         <v>164</v>
       </c>
       <c r="C78" s="10"/>
-      <c r="D78" s="11">
-        <v>0</v>
+      <c r="D78" s="8">
+        <v>0.673076923076923</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="10"/>
@@ -5067,11 +5085,9 @@
       <c r="B79" t="s" s="7">
         <v>166</v>
       </c>
-      <c r="C79" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="D79" s="8">
-        <v>0.75</v>
+      <c r="C79" s="10"/>
+      <c r="D79" s="11">
+        <v>0</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="10"/>
@@ -5088,14 +5104,12 @@
         <v>168</v>
       </c>
       <c r="C80" t="s" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D80" s="8">
-        <v>0.826923076923077</v>
-      </c>
-      <c r="E80" s="9">
-        <v>0.74025974025974</v>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="E80" s="9"/>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
@@ -5109,11 +5123,15 @@
       <c r="B81" t="s" s="7">
         <v>170</v>
       </c>
-      <c r="C81" s="10"/>
-      <c r="D81" s="11">
-        <v>0</v>
-      </c>
-      <c r="E81" s="9"/>
+      <c r="C81" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="D81" s="8">
+        <v>0.826923076923077</v>
+      </c>
+      <c r="E81" s="9">
+        <v>0.74025974025974</v>
+      </c>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
@@ -5127,15 +5145,11 @@
       <c r="B82" t="s" s="7">
         <v>172</v>
       </c>
-      <c r="C82" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="D82" s="8">
-        <v>0.923076923076923</v>
-      </c>
-      <c r="E82" s="9">
-        <v>0.220779220779221</v>
-      </c>
+      <c r="C82" s="10"/>
+      <c r="D82" s="11">
+        <v>0</v>
+      </c>
+      <c r="E82" s="9"/>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
@@ -5150,12 +5164,14 @@
         <v>174</v>
       </c>
       <c r="C83" t="s" s="7">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D83" s="8">
-        <v>0.788461538461538</v>
-      </c>
-      <c r="E83" s="9"/>
+        <v>0.923076923076923</v>
+      </c>
+      <c r="E83" s="9">
+        <v>0.220779220779221</v>
+      </c>
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
@@ -5170,13 +5186,13 @@
         <v>176</v>
       </c>
       <c r="C84" t="s" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D84" s="8">
-        <v>0.615384615384615</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E84" s="9">
-        <v>0.571428571428571</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
@@ -5191,11 +5207,15 @@
       <c r="B85" t="s" s="7">
         <v>178</v>
       </c>
-      <c r="C85" s="10"/>
-      <c r="D85" s="11">
-        <v>0</v>
-      </c>
-      <c r="E85" s="9"/>
+      <c r="C85" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="D85" s="8">
+        <v>0.615384615384615</v>
+      </c>
+      <c r="E85" s="9">
+        <v>0.571428571428571</v>
+      </c>
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
@@ -5209,11 +5229,9 @@
       <c r="B86" t="s" s="7">
         <v>180</v>
       </c>
-      <c r="C86" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D86" s="8">
-        <v>0.788461538461538</v>
+      <c r="C86" s="10"/>
+      <c r="D86" s="11">
+        <v>0</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="10"/>
@@ -5230,10 +5248,10 @@
         <v>182</v>
       </c>
       <c r="C87" t="s" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D87" s="8">
-        <v>0.75</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="10"/>
@@ -5250,7 +5268,7 @@
         <v>184</v>
       </c>
       <c r="C88" t="s" s="7">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D88" s="8">
         <v>0.75</v>
@@ -5270,10 +5288,10 @@
         <v>186</v>
       </c>
       <c r="C89" t="s" s="7">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D89" s="8">
-        <v>0.788461538461538</v>
+        <v>0.75</v>
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="10"/>
@@ -5290,10 +5308,10 @@
         <v>188</v>
       </c>
       <c r="C90" t="s" s="7">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D90" s="8">
-        <v>0.634615384615385</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="10"/>
@@ -5304,14 +5322,16 @@
     </row>
     <row r="91" ht="14.35" customHeight="1">
       <c r="A91" t="s" s="7">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B91" t="s" s="7">
-        <v>189</v>
-      </c>
-      <c r="C91" s="10"/>
+        <v>190</v>
+      </c>
+      <c r="C91" t="s" s="7">
+        <v>12</v>
+      </c>
       <c r="D91" s="8">
-        <v>0.75</v>
+        <v>0.634615384615385</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="10"/>
@@ -5322,16 +5342,14 @@
     </row>
     <row r="92" ht="14.35" customHeight="1">
       <c r="A92" t="s" s="7">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B92" t="s" s="7">
         <v>191</v>
       </c>
-      <c r="C92" t="s" s="7">
-        <v>43</v>
-      </c>
+      <c r="C92" s="10"/>
       <c r="D92" s="8">
-        <v>0.942307692307692</v>
+        <v>0.75</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="10"/>
@@ -5348,10 +5366,10 @@
         <v>193</v>
       </c>
       <c r="C93" t="s" s="7">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D93" s="8">
-        <v>0.7692307692307691</v>
+        <v>0.942307692307692</v>
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="10"/>
@@ -5368,14 +5386,12 @@
         <v>195</v>
       </c>
       <c r="C94" t="s" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D94" s="8">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="E94" s="9">
-        <v>0.272727272727273</v>
-      </c>
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="E94" s="9"/>
       <c r="F94" s="10"/>
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
@@ -5390,12 +5406,14 @@
         <v>197</v>
       </c>
       <c r="C95" t="s" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D95" s="8">
-        <v>0.923076923076923</v>
-      </c>
-      <c r="E95" s="9"/>
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E95" s="9">
+        <v>0.272727272727273</v>
+      </c>
       <c r="F95" s="10"/>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
@@ -5410,10 +5428,10 @@
         <v>199</v>
       </c>
       <c r="C96" t="s" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D96" s="8">
-        <v>0.788461538461538</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="E96" s="9"/>
       <c r="F96" s="10"/>
@@ -5430,12 +5448,14 @@
         <v>201</v>
       </c>
       <c r="C97" t="s" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D97" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E97" s="9"/>
+      <c r="E97" s="9">
+        <v>0.5844155844155841</v>
+      </c>
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
@@ -5453,7 +5473,7 @@
         <v>15</v>
       </c>
       <c r="D98" s="8">
-        <v>0.442307692307692</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="10"/>
@@ -5473,7 +5493,7 @@
         <v>15</v>
       </c>
       <c r="D99" s="8">
-        <v>0.711538461538462</v>
+        <v>0.442307692307692</v>
       </c>
       <c r="E99" s="9"/>
       <c r="F99" s="10"/>
@@ -5490,14 +5510,12 @@
         <v>207</v>
       </c>
       <c r="C100" t="s" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D100" s="8">
-        <v>0.903846153846154</v>
-      </c>
-      <c r="E100" s="9">
-        <v>0.662337662337662</v>
-      </c>
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E100" s="9"/>
       <c r="F100" s="10"/>
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
@@ -5512,12 +5530,14 @@
         <v>209</v>
       </c>
       <c r="C101" t="s" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D101" s="8">
-        <v>0.807692307692308</v>
-      </c>
-      <c r="E101" s="9"/>
+        <v>0.903846153846154</v>
+      </c>
+      <c r="E101" s="9">
+        <v>0.662337662337662</v>
+      </c>
       <c r="F101" s="10"/>
       <c r="G101" s="10"/>
       <c r="H101" s="10"/>
@@ -5531,9 +5551,11 @@
       <c r="B102" t="s" s="7">
         <v>211</v>
       </c>
-      <c r="C102" s="10"/>
-      <c r="D102" s="11">
-        <v>0</v>
+      <c r="C102" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="D102" s="8">
+        <v>0.807692307692308</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="10"/>
@@ -5550,8 +5572,8 @@
         <v>213</v>
       </c>
       <c r="C103" s="10"/>
-      <c r="D103" s="8">
-        <v>0.673076923076923</v>
+      <c r="D103" s="11">
+        <v>0</v>
       </c>
       <c r="E103" s="9"/>
       <c r="F103" s="10"/>
@@ -5585,11 +5607,9 @@
       <c r="B105" t="s" s="7">
         <v>217</v>
       </c>
-      <c r="C105" t="s" s="7">
-        <v>15</v>
-      </c>
+      <c r="C105" s="10"/>
       <c r="D105" s="8">
-        <v>0.711538461538462</v>
+        <v>0.673076923076923</v>
       </c>
       <c r="E105" s="9"/>
       <c r="F105" s="10"/>
@@ -5609,7 +5629,7 @@
         <v>15</v>
       </c>
       <c r="D106" s="8">
-        <v>0.846153846153846</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="E106" s="9"/>
       <c r="F106" s="10"/>
@@ -5625,9 +5645,11 @@
       <c r="B107" t="s" s="7">
         <v>221</v>
       </c>
-      <c r="C107" s="10"/>
-      <c r="D107" s="11">
-        <v>0</v>
+      <c r="C107" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="D107" s="8">
+        <v>0.846153846153846</v>
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="10"/>
@@ -5643,11 +5665,9 @@
       <c r="B108" t="s" s="7">
         <v>223</v>
       </c>
-      <c r="C108" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D108" s="8">
-        <v>0.846153846153846</v>
+      <c r="C108" s="10"/>
+      <c r="D108" s="11">
+        <v>0</v>
       </c>
       <c r="E108" s="9"/>
       <c r="F108" s="10"/>
@@ -5664,13 +5684,13 @@
         <v>225</v>
       </c>
       <c r="C109" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D109" s="11">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="D109" s="8">
+        <v>0.846153846153846</v>
       </c>
       <c r="E109" s="9">
-        <v>0.636363636363636</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="F109" s="10"/>
       <c r="G109" s="10"/>
@@ -5686,13 +5706,13 @@
         <v>227</v>
       </c>
       <c r="C110" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="D110" s="8">
-        <v>0.634615384615385</v>
+        <v>12</v>
+      </c>
+      <c r="D110" s="11">
+        <v>0</v>
       </c>
       <c r="E110" s="9">
-        <v>0.545454545454545</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="F110" s="10"/>
       <c r="G110" s="10"/>
@@ -5708,12 +5728,14 @@
         <v>229</v>
       </c>
       <c r="C111" t="s" s="7">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D111" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E111" s="9"/>
+      <c r="E111" s="9">
+        <v>0.545454545454545</v>
+      </c>
       <c r="F111" s="10"/>
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
@@ -5727,11 +5749,15 @@
       <c r="B112" t="s" s="7">
         <v>231</v>
       </c>
-      <c r="C112" s="10"/>
+      <c r="C112" t="s" s="7">
+        <v>24</v>
+      </c>
       <c r="D112" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E112" s="9"/>
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E112" s="9">
+        <v>0.701298701298701</v>
+      </c>
       <c r="F112" s="10"/>
       <c r="G112" s="10"/>
       <c r="H112" s="10"/>
@@ -5745,11 +5771,9 @@
       <c r="B113" t="s" s="7">
         <v>233</v>
       </c>
-      <c r="C113" t="s" s="7">
-        <v>12</v>
-      </c>
+      <c r="C113" s="10"/>
       <c r="D113" s="8">
-        <v>0.7692307692307691</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="10"/>
@@ -5766,14 +5790,12 @@
         <v>235</v>
       </c>
       <c r="C114" t="s" s="7">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D114" s="8">
-        <v>0.903846153846154</v>
-      </c>
-      <c r="E114" s="9">
-        <v>0.714285714285714</v>
-      </c>
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="E114" s="9"/>
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
@@ -5788,12 +5810,14 @@
         <v>237</v>
       </c>
       <c r="C115" t="s" s="7">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D115" s="8">
-        <v>0.942307692307692</v>
-      </c>
-      <c r="E115" s="9"/>
+        <v>0.903846153846154</v>
+      </c>
+      <c r="E115" s="9">
+        <v>0.714285714285714</v>
+      </c>
       <c r="F115" s="10"/>
       <c r="G115" s="10"/>
       <c r="H115" s="10"/>
@@ -5808,14 +5832,12 @@
         <v>239</v>
       </c>
       <c r="C116" t="s" s="7">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D116" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E116" s="9">
-        <v>0.363636363636364</v>
-      </c>
+        <v>0.942307692307692</v>
+      </c>
+      <c r="E116" s="9"/>
       <c r="F116" s="10"/>
       <c r="G116" s="10"/>
       <c r="H116" s="10"/>
@@ -5830,12 +5852,14 @@
         <v>241</v>
       </c>
       <c r="C117" t="s" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D117" s="8">
-        <v>0.615384615384615</v>
-      </c>
-      <c r="E117" s="9"/>
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E117" s="9">
+        <v>0.363636363636364</v>
+      </c>
       <c r="F117" s="10"/>
       <c r="G117" s="10"/>
       <c r="H117" s="10"/>
@@ -5849,9 +5873,11 @@
       <c r="B118" t="s" s="7">
         <v>243</v>
       </c>
-      <c r="C118" s="10"/>
-      <c r="D118" s="11">
-        <v>0</v>
+      <c r="C118" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="D118" s="8">
+        <v>0.615384615384615</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="10"/>
@@ -5867,11 +5893,9 @@
       <c r="B119" t="s" s="7">
         <v>245</v>
       </c>
-      <c r="C119" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="D119" s="8">
-        <v>0.75</v>
+      <c r="C119" s="10"/>
+      <c r="D119" s="11">
+        <v>0</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="10"/>
@@ -5880,7 +5904,7 @@
       <c r="I119" s="10"/>
       <c r="J119" s="10"/>
     </row>
-    <row r="120" ht="28.35" customHeight="1">
+    <row r="120" ht="14.35" customHeight="1">
       <c r="A120" t="s" s="7">
         <v>246</v>
       </c>
@@ -5888,10 +5912,10 @@
         <v>247</v>
       </c>
       <c r="C120" t="s" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D120" s="8">
-        <v>0.846153846153846</v>
+        <v>0.75</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="10"/>
@@ -5900,16 +5924,18 @@
       <c r="I120" s="10"/>
       <c r="J120" s="10"/>
     </row>
-    <row r="121" ht="14.35" customHeight="1">
+    <row r="121" ht="28.35" customHeight="1">
       <c r="A121" t="s" s="7">
         <v>248</v>
       </c>
       <c r="B121" t="s" s="7">
         <v>249</v>
       </c>
-      <c r="C121" s="10"/>
-      <c r="D121" s="11">
-        <v>0</v>
+      <c r="C121" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="D121" s="8">
+        <v>0.846153846153846</v>
       </c>
       <c r="E121" s="9"/>
       <c r="F121" s="10"/>
@@ -5926,8 +5952,8 @@
         <v>251</v>
       </c>
       <c r="C122" s="10"/>
-      <c r="D122" s="8">
-        <v>0.711538461538462</v>
+      <c r="D122" s="11">
+        <v>0</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="10"/>
@@ -5944,12 +5970,10 @@
         <v>253</v>
       </c>
       <c r="C123" s="10"/>
-      <c r="D123" s="11">
-        <v>0</v>
-      </c>
-      <c r="E123" s="9">
-        <v>0.194805194805195</v>
-      </c>
+      <c r="D123" s="8">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E123" s="9"/>
       <c r="F123" s="10"/>
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
@@ -5963,14 +5987,12 @@
       <c r="B124" t="s" s="7">
         <v>255</v>
       </c>
-      <c r="C124" t="s" s="7">
-        <v>15</v>
-      </c>
+      <c r="C124" s="10"/>
       <c r="D124" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124" s="9">
-        <v>0.402597402597403</v>
+        <v>0.194805194805195</v>
       </c>
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
@@ -5986,13 +6008,13 @@
         <v>257</v>
       </c>
       <c r="C125" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D125" s="8">
-        <v>0.788461538461538</v>
+        <v>15</v>
+      </c>
+      <c r="D125" s="11">
+        <v>1</v>
       </c>
       <c r="E125" s="9">
-        <v>0.701298701298701</v>
+        <v>0.402597402597403</v>
       </c>
       <c r="F125" s="10"/>
       <c r="G125" s="10"/>
@@ -6011,9 +6033,11 @@
         <v>12</v>
       </c>
       <c r="D126" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E126" s="9"/>
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E126" s="9">
+        <v>0.701298701298701</v>
+      </c>
       <c r="F126" s="10"/>
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
@@ -6028,10 +6052,10 @@
         <v>261</v>
       </c>
       <c r="C127" t="s" s="7">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D127" s="8">
-        <v>0.634615384615385</v>
+        <v>0.75</v>
       </c>
       <c r="E127" s="9"/>
       <c r="F127" s="10"/>
@@ -6048,12 +6072,14 @@
         <v>263</v>
       </c>
       <c r="C128" t="s" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D128" s="8">
-        <v>0.903846153846154</v>
-      </c>
-      <c r="E128" s="9"/>
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E128" s="9">
+        <v>0.519480519480519</v>
+      </c>
       <c r="F128" s="10"/>
       <c r="G128" s="10"/>
       <c r="H128" s="10"/>
@@ -6068,10 +6094,10 @@
         <v>265</v>
       </c>
       <c r="C129" t="s" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D129" s="8">
-        <v>0.788461538461538</v>
+        <v>0.903846153846154</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="10"/>
@@ -6087,9 +6113,11 @@
       <c r="B130" t="s" s="7">
         <v>267</v>
       </c>
-      <c r="C130" s="10"/>
+      <c r="C130" t="s" s="7">
+        <v>12</v>
+      </c>
       <c r="D130" s="8">
-        <v>0.673076923076923</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E130" s="9"/>
       <c r="F130" s="10"/>
@@ -6105,11 +6133,9 @@
       <c r="B131" t="s" s="7">
         <v>269</v>
       </c>
-      <c r="C131" t="s" s="7">
-        <v>12</v>
-      </c>
+      <c r="C131" s="10"/>
       <c r="D131" s="8">
-        <v>0.615384615384615</v>
+        <v>0.673076923076923</v>
       </c>
       <c r="E131" s="9"/>
       <c r="F131" s="10"/>
@@ -6126,10 +6152,10 @@
         <v>271</v>
       </c>
       <c r="C132" t="s" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D132" s="8">
-        <v>0.846153846153846</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="10"/>
@@ -6146,10 +6172,10 @@
         <v>273</v>
       </c>
       <c r="C133" t="s" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D133" s="8">
-        <v>0.903846153846154</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="E133" s="9"/>
       <c r="F133" s="10"/>
@@ -6166,10 +6192,10 @@
         <v>275</v>
       </c>
       <c r="C134" t="s" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D134" s="8">
-        <v>0.711538461538462</v>
+        <v>0.903846153846154</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="10"/>
@@ -6188,12 +6214,10 @@
       <c r="C135" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D135" s="11">
-        <v>0</v>
-      </c>
-      <c r="E135" s="9">
-        <v>0.428571428571429</v>
-      </c>
+      <c r="D135" s="8">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E135" s="9"/>
       <c r="F135" s="10"/>
       <c r="G135" s="10"/>
       <c r="H135" s="10"/>
@@ -6207,11 +6231,15 @@
       <c r="B136" t="s" s="7">
         <v>279</v>
       </c>
-      <c r="C136" s="10"/>
+      <c r="C136" t="s" s="7">
+        <v>15</v>
+      </c>
       <c r="D136" s="11">
         <v>0</v>
       </c>
-      <c r="E136" s="9"/>
+      <c r="E136" s="9">
+        <v>0.428571428571429</v>
+      </c>
       <c r="F136" s="10"/>
       <c r="G136" s="10"/>
       <c r="H136" s="10"/>
@@ -6225,11 +6253,9 @@
       <c r="B137" t="s" s="7">
         <v>281</v>
       </c>
-      <c r="C137" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="D137" s="8">
-        <v>0.634615384615385</v>
+      <c r="C137" s="10"/>
+      <c r="D137" s="11">
+        <v>0</v>
       </c>
       <c r="E137" s="9"/>
       <c r="F137" s="10"/>
@@ -6246,14 +6272,12 @@
         <v>283</v>
       </c>
       <c r="C138" t="s" s="7">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D138" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E138" s="9">
-        <v>0.506493506493506</v>
-      </c>
+      <c r="E138" s="9"/>
       <c r="F138" s="10"/>
       <c r="G138" s="10"/>
       <c r="H138" s="10"/>
@@ -6268,13 +6292,13 @@
         <v>285</v>
       </c>
       <c r="C139" t="s" s="7">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D139" s="8">
         <v>0.634615384615385</v>
       </c>
       <c r="E139" s="9">
-        <v>0.571428571428571</v>
+        <v>0.506493506493506</v>
       </c>
       <c r="F139" s="10"/>
       <c r="G139" s="10"/>
@@ -6289,11 +6313,15 @@
       <c r="B140" t="s" s="7">
         <v>287</v>
       </c>
-      <c r="C140" s="10"/>
-      <c r="D140" s="11">
-        <v>0</v>
-      </c>
-      <c r="E140" s="9"/>
+      <c r="C140" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="D140" s="8">
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E140" s="9">
+        <v>0.571428571428571</v>
+      </c>
       <c r="F140" s="10"/>
       <c r="G140" s="10"/>
       <c r="H140" s="10"/>
@@ -6307,11 +6335,9 @@
       <c r="B141" t="s" s="7">
         <v>289</v>
       </c>
-      <c r="C141" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D141" s="8">
-        <v>0.75</v>
+      <c r="C141" s="10"/>
+      <c r="D141" s="11">
+        <v>0</v>
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="10"/>
@@ -6328,7 +6354,7 @@
         <v>291</v>
       </c>
       <c r="C142" t="s" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D142" s="8">
         <v>0.75</v>
@@ -6348,14 +6374,12 @@
         <v>293</v>
       </c>
       <c r="C143" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="D143" s="11">
-        <v>0</v>
-      </c>
-      <c r="E143" s="9">
-        <v>0.597402597402597</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D143" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="E143" s="9"/>
       <c r="F143" s="10"/>
       <c r="G143" s="10"/>
       <c r="H143" s="10"/>
@@ -6370,12 +6394,14 @@
         <v>295</v>
       </c>
       <c r="C144" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D144" s="8">
-        <v>0.923076923076923</v>
-      </c>
-      <c r="E144" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D144" s="11">
+        <v>0</v>
+      </c>
+      <c r="E144" s="9">
+        <v>0.597402597402597</v>
+      </c>
       <c r="F144" s="10"/>
       <c r="G144" s="10"/>
       <c r="H144" s="10"/>
@@ -6389,13 +6415,13 @@
       <c r="B145" t="s" s="7">
         <v>297</v>
       </c>
-      <c r="C145" s="10"/>
-      <c r="D145" s="11">
-        <v>0</v>
-      </c>
-      <c r="E145" s="9">
-        <v>0.532467532467532</v>
-      </c>
+      <c r="C145" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="D145" s="8">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="E145" s="9"/>
       <c r="F145" s="10"/>
       <c r="G145" s="10"/>
       <c r="H145" s="10"/>
@@ -6409,11 +6435,9 @@
       <c r="B146" t="s" s="7">
         <v>299</v>
       </c>
-      <c r="C146" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D146" s="8">
-        <v>0.846153846153846</v>
+      <c r="C146" s="10"/>
+      <c r="D146" s="11">
+        <v>0</v>
       </c>
       <c r="E146" s="9">
         <v>0.532467532467532</v>
@@ -6431,11 +6455,15 @@
       <c r="B147" t="s" s="7">
         <v>301</v>
       </c>
-      <c r="C147" s="10"/>
-      <c r="D147" s="11">
-        <v>0</v>
-      </c>
-      <c r="E147" s="9"/>
+      <c r="C147" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="D147" s="8">
+        <v>0.846153846153846</v>
+      </c>
+      <c r="E147" s="9">
+        <v>0.532467532467532</v>
+      </c>
       <c r="F147" s="10"/>
       <c r="G147" s="10"/>
       <c r="H147" s="10"/>
@@ -6467,11 +6495,9 @@
       <c r="B149" t="s" s="7">
         <v>305</v>
       </c>
-      <c r="C149" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="D149" s="8">
-        <v>0.634615384615385</v>
+      <c r="C149" s="10"/>
+      <c r="D149" s="11">
+        <v>0</v>
       </c>
       <c r="E149" s="9"/>
       <c r="F149" s="10"/>
@@ -6487,9 +6513,11 @@
       <c r="B150" t="s" s="7">
         <v>307</v>
       </c>
-      <c r="C150" s="10"/>
+      <c r="C150" t="s" s="7">
+        <v>24</v>
+      </c>
       <c r="D150" s="8">
-        <v>0.711538461538462</v>
+        <v>0.634615384615385</v>
       </c>
       <c r="E150" s="9"/>
       <c r="F150" s="10"/>
@@ -6505,11 +6533,9 @@
       <c r="B151" t="s" s="7">
         <v>309</v>
       </c>
-      <c r="C151" t="s" s="7">
-        <v>12</v>
-      </c>
+      <c r="C151" s="10"/>
       <c r="D151" s="8">
-        <v>0.942307692307692</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="E151" s="9"/>
       <c r="F151" s="10"/>
@@ -6526,14 +6552,12 @@
         <v>311</v>
       </c>
       <c r="C152" t="s" s="7">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D152" s="8">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="E152" s="9">
-        <v>0.688311688311688</v>
-      </c>
+        <v>0.942307692307692</v>
+      </c>
+      <c r="E152" s="9"/>
       <c r="F152" s="10"/>
       <c r="G152" s="10"/>
       <c r="H152" s="10"/>
@@ -6548,13 +6572,13 @@
         <v>313</v>
       </c>
       <c r="C153" t="s" s="7">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D153" s="8">
-        <v>0.807692307692308</v>
+        <v>0.634615384615385</v>
       </c>
       <c r="E153" s="9">
-        <v>0.727272727272727</v>
+        <v>0.688311688311688</v>
       </c>
       <c r="F153" s="10"/>
       <c r="G153" s="10"/>
@@ -6569,12 +6593,14 @@
       <c r="B154" t="s" s="7">
         <v>315</v>
       </c>
-      <c r="C154" s="10"/>
-      <c r="D154" s="11">
-        <v>0</v>
+      <c r="C154" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="D154" s="8">
+        <v>0.807692307692308</v>
       </c>
       <c r="E154" s="9">
-        <v>0.493506493506494</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="F154" s="10"/>
       <c r="G154" s="10"/>
@@ -6590,10 +6616,12 @@
         <v>317</v>
       </c>
       <c r="C155" s="10"/>
-      <c r="D155" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E155" s="9"/>
+      <c r="D155" s="11">
+        <v>0</v>
+      </c>
+      <c r="E155" s="9">
+        <v>0.493506493506494</v>
+      </c>
       <c r="F155" s="10"/>
       <c r="G155" s="10"/>
       <c r="H155" s="10"/>
@@ -6608,8 +6636,8 @@
         <v>319</v>
       </c>
       <c r="C156" s="10"/>
-      <c r="D156" s="11">
-        <v>0</v>
+      <c r="D156" s="8">
+        <v>0.711538461538462</v>
       </c>
       <c r="E156" s="9"/>
       <c r="F156" s="10"/>
@@ -6625,15 +6653,11 @@
       <c r="B157" t="s" s="7">
         <v>321</v>
       </c>
-      <c r="C157" t="s" s="7">
-        <v>12</v>
-      </c>
+      <c r="C157" s="10"/>
       <c r="D157" s="11">
         <v>0</v>
       </c>
-      <c r="E157" s="9">
-        <v>0.636363636363636</v>
-      </c>
+      <c r="E157" s="9"/>
       <c r="F157" s="10"/>
       <c r="G157" s="10"/>
       <c r="H157" s="10"/>
@@ -6647,9 +6671,11 @@
       <c r="B158" t="s" s="7">
         <v>323</v>
       </c>
-      <c r="C158" s="10"/>
-      <c r="D158" s="8">
-        <v>0.75</v>
+      <c r="C158" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="D158" s="11">
+        <v>0</v>
       </c>
       <c r="E158" s="9">
         <v>0.636363636363636</v>
@@ -6667,13 +6693,13 @@
       <c r="B159" t="s" s="7">
         <v>325</v>
       </c>
-      <c r="C159" t="s" s="7">
-        <v>43</v>
-      </c>
+      <c r="C159" s="10"/>
       <c r="D159" s="8">
-        <v>0.788461538461538</v>
-      </c>
-      <c r="E159" s="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="E159" s="9">
+        <v>0.636363636363636</v>
+      </c>
       <c r="F159" s="10"/>
       <c r="G159" s="10"/>
       <c r="H159" s="10"/>
@@ -6688,10 +6714,10 @@
         <v>327</v>
       </c>
       <c r="C160" t="s" s="7">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D160" s="8">
-        <v>1</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E160" s="9"/>
       <c r="F160" s="10"/>
@@ -6708,12 +6734,14 @@
         <v>329</v>
       </c>
       <c r="C161" t="s" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D161" s="8">
-        <v>0.826923076923077</v>
-      </c>
-      <c r="E161" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="E161" s="9">
+        <v>0.623376623376623</v>
+      </c>
       <c r="F161" s="10"/>
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
@@ -6727,9 +6755,11 @@
       <c r="B162" t="s" s="7">
         <v>331</v>
       </c>
-      <c r="C162" s="10"/>
-      <c r="D162" s="11">
-        <v>0</v>
+      <c r="C162" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="D162" s="8">
+        <v>0.826923076923077</v>
       </c>
       <c r="E162" s="9"/>
       <c r="F162" s="10"/>
@@ -6745,15 +6775,11 @@
       <c r="B163" t="s" s="7">
         <v>333</v>
       </c>
-      <c r="C163" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="D163" s="8">
-        <v>0.7692307692307691</v>
-      </c>
-      <c r="E163" s="9">
-        <v>0.636363636363636</v>
-      </c>
+      <c r="C163" s="10"/>
+      <c r="D163" s="11">
+        <v>0</v>
+      </c>
+      <c r="E163" s="9"/>
       <c r="F163" s="10"/>
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
@@ -6768,12 +6794,14 @@
         <v>335</v>
       </c>
       <c r="C164" t="s" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D164" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E164" s="9"/>
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="E164" s="9">
+        <v>0.636363636363636</v>
+      </c>
       <c r="F164" s="10"/>
       <c r="G164" s="10"/>
       <c r="H164" s="10"/>
@@ -6791,11 +6819,9 @@
         <v>15</v>
       </c>
       <c r="D165" s="8">
-        <v>0.846153846153846</v>
-      </c>
-      <c r="E165" s="9">
-        <v>0.532467532467532</v>
-      </c>
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E165" s="9"/>
       <c r="F165" s="10"/>
       <c r="G165" s="10"/>
       <c r="H165" s="10"/>
@@ -6813,9 +6839,11 @@
         <v>15</v>
       </c>
       <c r="D166" s="8">
-        <v>0.788461538461538</v>
-      </c>
-      <c r="E166" s="9"/>
+        <v>0.846153846153846</v>
+      </c>
+      <c r="E166" s="9">
+        <v>0.532467532467532</v>
+      </c>
       <c r="F166" s="10"/>
       <c r="G166" s="10"/>
       <c r="H166" s="10"/>
@@ -6830,19 +6858,39 @@
         <v>341</v>
       </c>
       <c r="C167" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="D167" s="11">
-        <v>1</v>
-      </c>
-      <c r="E167" s="9">
-        <v>0.545454545454545</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D167" s="8">
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E167" s="9"/>
       <c r="F167" s="10"/>
       <c r="G167" s="10"/>
       <c r="H167" s="10"/>
       <c r="I167" s="10"/>
       <c r="J167" s="10"/>
+    </row>
+    <row r="168" ht="14.35" customHeight="1">
+      <c r="A168" t="s" s="7">
+        <v>342</v>
+      </c>
+      <c r="B168" t="s" s="7">
+        <v>343</v>
+      </c>
+      <c r="C168" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="D168" s="11">
+        <v>1</v>
+      </c>
+      <c r="E168" s="9">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="F168" s="10"/>
+      <c r="G168" s="10"/>
+      <c r="H168" s="10"/>
+      <c r="I168" s="10"/>
+      <c r="J168" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6887,118 +6935,118 @@
     <hyperlink ref="B44" r:id="rId39" location="" tooltip="" display="H220494C@hit.ac.zw"/>
     <hyperlink ref="B45" r:id="rId40" location="" tooltip="" display="H220582T@hit.ac.zw"/>
     <hyperlink ref="B46" r:id="rId41" location="" tooltip="" display="H220084C@hit.ac.zw"/>
-    <hyperlink ref="B47" r:id="rId42" location="" tooltip="" display="H220343Y@hit.ac.zw"/>
-    <hyperlink ref="B48" r:id="rId43" location="" tooltip="" display="H220508Q@hit.ac.zw"/>
-    <hyperlink ref="B49" r:id="rId44" location="" tooltip="" display="H220349M@hit.ac.zw"/>
-    <hyperlink ref="B50" r:id="rId45" location="" tooltip="" display="H220045P@hit.ac.zw"/>
-    <hyperlink ref="B51" r:id="rId46" location="" tooltip="" display="H220038B@hit.ac.zw"/>
-    <hyperlink ref="B53" r:id="rId47" location="" tooltip="" display="H220480A@hit.ac.zw"/>
-    <hyperlink ref="B54" r:id="rId48" location="" tooltip="" display="H220052N@hit.ac.zw"/>
-    <hyperlink ref="B55" r:id="rId49" location="" tooltip="" display="H220379X@hit.ac.zw"/>
-    <hyperlink ref="B56" r:id="rId50" location="" tooltip="" display="H220281P@hit.ac.zw"/>
-    <hyperlink ref="B57" r:id="rId51" location="" tooltip="" display="H220413B@hit.ac.zw"/>
-    <hyperlink ref="B58" r:id="rId52" location="" tooltip="" display="H220042V@hit.ac.zw"/>
-    <hyperlink ref="B59" r:id="rId53" location="" tooltip="" display="H220153W@hit.ac.zw"/>
-    <hyperlink ref="B60" r:id="rId54" location="" tooltip="" display="H220094W@hit.ac.zw"/>
-    <hyperlink ref="B61" r:id="rId55" location="" tooltip="" display="H220230R@hit.ac.zw"/>
-    <hyperlink ref="B62" r:id="rId56" location="" tooltip="" display="H220122N@hit.ac.zw"/>
-    <hyperlink ref="B63" r:id="rId57" location="" tooltip="" display="H220152Q@hit.ac.zw"/>
-    <hyperlink ref="B65" r:id="rId58" location="" tooltip="" display="H220585W@hit.ac.zw"/>
-    <hyperlink ref="B66" r:id="rId59" location="" tooltip="" display="H220047M@hit.ac.zw"/>
-    <hyperlink ref="B67" r:id="rId60" location="" tooltip="" display="H220483J@hit.ac.zw"/>
-    <hyperlink ref="B68" r:id="rId61" location="" tooltip="" display="H220015F@hit.ac.zw"/>
-    <hyperlink ref="B69" r:id="rId62" location="" tooltip="" display="H220184Z@hit.ac.zw"/>
-    <hyperlink ref="B70" r:id="rId63" location="" tooltip="" display="H220392X@hit.ac.zw"/>
-    <hyperlink ref="B71" r:id="rId64" location="" tooltip="" display="H220187N@hit.ac.zw"/>
-    <hyperlink ref="B72" r:id="rId65" location="" tooltip="" display="H220421Y@hit.ac.zw"/>
-    <hyperlink ref="B74" r:id="rId66" location="" tooltip="" display="h200799c@hit.ac.zw"/>
-    <hyperlink ref="B76" r:id="rId67" location="" tooltip="" display="H220211V@hit.ac.zw"/>
-    <hyperlink ref="B77" r:id="rId68" location="" tooltip="" display="H220623Z@hit.ac.zw"/>
-    <hyperlink ref="B78" r:id="rId69" location="" tooltip="" display="H220315H@hit.ac.zw"/>
-    <hyperlink ref="B79" r:id="rId70" location="" tooltip="" display="H220063V@hit.ac.zw"/>
-    <hyperlink ref="B80" r:id="rId71" location="" tooltip="" display="H220019B@hit.ac.zw"/>
-    <hyperlink ref="B81" r:id="rId72" location="" tooltip="" display="H220316P@hit.ac.zw"/>
-    <hyperlink ref="B82" r:id="rId73" location="" tooltip="" display="H220550G@hit.ac.zw"/>
-    <hyperlink ref="B83" r:id="rId74" location="" tooltip="" display="H220004A@hit.ac.zw"/>
-    <hyperlink ref="B84" r:id="rId75" location="" tooltip="" display="H220133W@hit.ac.zw"/>
-    <hyperlink ref="B85" r:id="rId76" location="" tooltip="" display="H220313E@hit.ac.zw"/>
-    <hyperlink ref="B86" r:id="rId77" location="" tooltip="" display="H220427Q@hit.ac.zw"/>
-    <hyperlink ref="B87" r:id="rId78" location="" tooltip="" display="H220070V@hit.ac.zw"/>
-    <hyperlink ref="B88" r:id="rId79" location="" tooltip="" display="H220325F@hit.ac.zw"/>
-    <hyperlink ref="B89" r:id="rId80" location="" tooltip="" display="H220478P@hit.ac.zw"/>
-    <hyperlink ref="B90" r:id="rId81" location="" tooltip="" display="h180617h@hit.ac.zw"/>
-    <hyperlink ref="B91" r:id="rId82" location="" tooltip="" display="H220260C@hit.ac.zw"/>
-    <hyperlink ref="B92" r:id="rId83" location="" tooltip="" display="H220624V@hit.ac.zw"/>
-    <hyperlink ref="B93" r:id="rId84" location="" tooltip="" display="H220231W@hit.ac.zw"/>
-    <hyperlink ref="B94" r:id="rId85" location="" tooltip="" display="H220503P@hit.ac.zw"/>
-    <hyperlink ref="B95" r:id="rId86" location="" tooltip="" display="H220130J@hit.ac.zw"/>
-    <hyperlink ref="B96" r:id="rId87" location="" tooltip="" display="H220086F@hit.ac.zw"/>
-    <hyperlink ref="B97" r:id="rId88" location="" tooltip="" display="H220010Q@hit.ac.zw"/>
-    <hyperlink ref="B98" r:id="rId89" location="" tooltip="" display="h180134p@hit.ac.zw"/>
-    <hyperlink ref="B99" r:id="rId90" location="" tooltip="" display="H220564G@hit.ac.zw"/>
-    <hyperlink ref="B100" r:id="rId91" location="" tooltip="" display="H220462G@hit.ac.zw"/>
-    <hyperlink ref="B101" r:id="rId92" location="" tooltip="" display="H220204H@hit.ac.zw"/>
-    <hyperlink ref="B102" r:id="rId93" location="" tooltip="" display="H220516A@hit.ac.zw"/>
-    <hyperlink ref="B103" r:id="rId94" location="" tooltip="" display="H220183B@hit.ac.zw"/>
-    <hyperlink ref="B104" r:id="rId95" location="" tooltip="" display="H220449Q@hit.ac.zw"/>
-    <hyperlink ref="B106" r:id="rId96" location="" tooltip="" display="H220273W@hit.ac.zw"/>
-    <hyperlink ref="B107" r:id="rId97" location="" tooltip="" display="H220087E@hit.ac.zw"/>
-    <hyperlink ref="B108" r:id="rId98" location="" tooltip="" display="H220033G@hit.ac.zw"/>
-    <hyperlink ref="B109" r:id="rId99" location="" tooltip="" display="H220269E@hit.ac.zw"/>
-    <hyperlink ref="B110" r:id="rId100" location="" tooltip="" display="H220595W@hit.ac.zw"/>
-    <hyperlink ref="B111" r:id="rId101" location="" tooltip="" display="H220591F@hit.ac.zw"/>
-    <hyperlink ref="B112" r:id="rId102" location="" tooltip="" display="H220221G@hit.ac.zw"/>
-    <hyperlink ref="B114" r:id="rId103" location="" tooltip="" display="H220242Z@hit.ac.zw"/>
-    <hyperlink ref="B115" r:id="rId104" location="" tooltip="" display="H220348B@hit.ac.zw"/>
-    <hyperlink ref="B116" r:id="rId105" location="" tooltip="" display="H220418Y@hit.ac.zw"/>
-    <hyperlink ref="B117" r:id="rId106" location="" tooltip="" display="H220450T@hit.ac.zw"/>
-    <hyperlink ref="B118" r:id="rId107" location="" tooltip="" display="H220333Q@hit.ac.zw"/>
-    <hyperlink ref="B119" r:id="rId108" location="" tooltip="" display="H220320J@hit.ac.zw"/>
-    <hyperlink ref="B120" r:id="rId109" location="" tooltip="" display="H220311Y@hit.ac.zw"/>
-    <hyperlink ref="B121" r:id="rId110" location="" tooltip="" display="H220138M@hit.ac.zw"/>
-    <hyperlink ref="B122" r:id="rId111" location="" tooltip="" display="h210574b@hit.ac.zw"/>
-    <hyperlink ref="B125" r:id="rId112" location="" tooltip="" display="H220197V@hit.ac.zw"/>
-    <hyperlink ref="B126" r:id="rId113" location="" tooltip="" display="H220247A@hit.ac.zw"/>
-    <hyperlink ref="B127" r:id="rId114" location="" tooltip="" display="H220432X@hit.ac.zw"/>
-    <hyperlink ref="B128" r:id="rId115" location="" tooltip="" display="H220223N@hit.ac.zw"/>
-    <hyperlink ref="B130" r:id="rId116" location="" tooltip="" display="H220272P@hit.ac.zw"/>
-    <hyperlink ref="B131" r:id="rId117" location="" tooltip="" display="H220615W@hit.ac.zw"/>
-    <hyperlink ref="B132" r:id="rId118" location="" tooltip="" display="H220196A@hit.ac.zw"/>
-    <hyperlink ref="B133" r:id="rId119" location="" tooltip="" display="h220535v@hit.ac.zw"/>
-    <hyperlink ref="B134" r:id="rId120" location="" tooltip="" display="h220688a@hit.ac.zw"/>
-    <hyperlink ref="B135" r:id="rId121" location="" tooltip="" display="H220026H@hit.ac.zw"/>
-    <hyperlink ref="B136" r:id="rId122" location="" tooltip="" display="H220533P@hit.ac.zw"/>
-    <hyperlink ref="B137" r:id="rId123" location="" tooltip="" display="H220435X@hit.ac.zw"/>
-    <hyperlink ref="B138" r:id="rId124" location="" tooltip="" display="H220225C@hit.ac.zw"/>
-    <hyperlink ref="B139" r:id="rId125" location="" tooltip="" display="H220198F@hit.ac.zw"/>
-    <hyperlink ref="B140" r:id="rId126" location="" tooltip="" display="H220290G@hit.ac.zw"/>
-    <hyperlink ref="B141" r:id="rId127" location="" tooltip="" display="H220147B@hit.ac.zw"/>
-    <hyperlink ref="B142" r:id="rId128" location="" tooltip="" display="H220076E@hit.ac.zw"/>
-    <hyperlink ref="B143" r:id="rId129" location="" tooltip="" display="H220129A@hit.ac.zw"/>
-    <hyperlink ref="B144" r:id="rId130" location="" tooltip="" display="H220243A@hit.ac.zw"/>
-    <hyperlink ref="B145" r:id="rId131" location="" tooltip="" display="H220554M@hit.ac.zw"/>
-    <hyperlink ref="B146" r:id="rId132" location="" tooltip="" display="H220415J@hit.ac.zw"/>
-    <hyperlink ref="B147" r:id="rId133" location="" tooltip="" display="H220439A@hit.ac.zw"/>
-    <hyperlink ref="B148" r:id="rId134" location="" tooltip="" display="H220390X@hit.ac.zw"/>
-    <hyperlink ref="B149" r:id="rId135" location="" tooltip="" display="H220536M@hit.ac.zw"/>
-    <hyperlink ref="B150" r:id="rId136" location="" tooltip="" display="H220189E@hit.ac.zw"/>
-    <hyperlink ref="B151" r:id="rId137" location="" tooltip="" display="H220146J@hit.ac.zw"/>
-    <hyperlink ref="B152" r:id="rId138" location="" tooltip="" display="H220179T@hit.ac.zw"/>
-    <hyperlink ref="B153" r:id="rId139" location="" tooltip="" display="H220057B@hit.ac.zw"/>
-    <hyperlink ref="B154" r:id="rId140" location="" tooltip="" display="H220586J@hit.ac.zw"/>
-    <hyperlink ref="B155" r:id="rId141" location="" tooltip="" display="H220417Y@hit.ac.zw"/>
-    <hyperlink ref="B156" r:id="rId142" location="" tooltip="" display="H220553G@hit.ac.zw"/>
-    <hyperlink ref="B157" r:id="rId143" location="" tooltip="" display="H220250Q@hit.ac.zw"/>
-    <hyperlink ref="B158" r:id="rId144" location="" tooltip="" display="H220652T@hit.ac.zw"/>
-    <hyperlink ref="B159" r:id="rId145" location="" tooltip="" display="H220426Q@hit.ac.zw"/>
-    <hyperlink ref="B160" r:id="rId146" location="" tooltip="" display="H220072Y@hit.ac.zw"/>
-    <hyperlink ref="B161" r:id="rId147" location="" tooltip="" display="H220028G@hit.ac.zw"/>
-    <hyperlink ref="B162" r:id="rId148" location="" tooltip="" display="H220081X@hit.ac.zw"/>
-    <hyperlink ref="B163" r:id="rId149" location="" tooltip="" display="h210371h@hit.ac.zw"/>
-    <hyperlink ref="B164" r:id="rId150" location="" tooltip="" display="H220105E@hit.ac.zw"/>
-    <hyperlink ref="B165" r:id="rId151" location="" tooltip="" display="H220215E@hit.ac.zw"/>
-    <hyperlink ref="B166" r:id="rId152" location="" tooltip="" display="H220537B@hit.ac.zw"/>
-    <hyperlink ref="B167" r:id="rId153" location="" tooltip="" display="H220411Q@hit.ac.zw"/>
+    <hyperlink ref="B48" r:id="rId42" location="" tooltip="" display="H220343Y@hit.ac.zw"/>
+    <hyperlink ref="B49" r:id="rId43" location="" tooltip="" display="H220508Q@hit.ac.zw"/>
+    <hyperlink ref="B50" r:id="rId44" location="" tooltip="" display="H220349M@hit.ac.zw"/>
+    <hyperlink ref="B51" r:id="rId45" location="" tooltip="" display="H220045P@hit.ac.zw"/>
+    <hyperlink ref="B52" r:id="rId46" location="" tooltip="" display="H220038B@hit.ac.zw"/>
+    <hyperlink ref="B54" r:id="rId47" location="" tooltip="" display="H220480A@hit.ac.zw"/>
+    <hyperlink ref="B55" r:id="rId48" location="" tooltip="" display="H220052N@hit.ac.zw"/>
+    <hyperlink ref="B56" r:id="rId49" location="" tooltip="" display="H220379X@hit.ac.zw"/>
+    <hyperlink ref="B57" r:id="rId50" location="" tooltip="" display="H220281P@hit.ac.zw"/>
+    <hyperlink ref="B58" r:id="rId51" location="" tooltip="" display="H220413B@hit.ac.zw"/>
+    <hyperlink ref="B59" r:id="rId52" location="" tooltip="" display="H220042V@hit.ac.zw"/>
+    <hyperlink ref="B60" r:id="rId53" location="" tooltip="" display="H220153W@hit.ac.zw"/>
+    <hyperlink ref="B61" r:id="rId54" location="" tooltip="" display="H220094W@hit.ac.zw"/>
+    <hyperlink ref="B62" r:id="rId55" location="" tooltip="" display="H220230R@hit.ac.zw"/>
+    <hyperlink ref="B63" r:id="rId56" location="" tooltip="" display="H220122N@hit.ac.zw"/>
+    <hyperlink ref="B64" r:id="rId57" location="" tooltip="" display="H220152Q@hit.ac.zw"/>
+    <hyperlink ref="B66" r:id="rId58" location="" tooltip="" display="H220585W@hit.ac.zw"/>
+    <hyperlink ref="B67" r:id="rId59" location="" tooltip="" display="H220047M@hit.ac.zw"/>
+    <hyperlink ref="B68" r:id="rId60" location="" tooltip="" display="H220483J@hit.ac.zw"/>
+    <hyperlink ref="B69" r:id="rId61" location="" tooltip="" display="H220015F@hit.ac.zw"/>
+    <hyperlink ref="B70" r:id="rId62" location="" tooltip="" display="H220184Z@hit.ac.zw"/>
+    <hyperlink ref="B71" r:id="rId63" location="" tooltip="" display="H220392X@hit.ac.zw"/>
+    <hyperlink ref="B72" r:id="rId64" location="" tooltip="" display="H220187N@hit.ac.zw"/>
+    <hyperlink ref="B73" r:id="rId65" location="" tooltip="" display="H220421Y@hit.ac.zw"/>
+    <hyperlink ref="B75" r:id="rId66" location="" tooltip="" display="h200799c@hit.ac.zw"/>
+    <hyperlink ref="B77" r:id="rId67" location="" tooltip="" display="H220211V@hit.ac.zw"/>
+    <hyperlink ref="B78" r:id="rId68" location="" tooltip="" display="H220623Z@hit.ac.zw"/>
+    <hyperlink ref="B79" r:id="rId69" location="" tooltip="" display="H220315H@hit.ac.zw"/>
+    <hyperlink ref="B80" r:id="rId70" location="" tooltip="" display="H220063V@hit.ac.zw"/>
+    <hyperlink ref="B81" r:id="rId71" location="" tooltip="" display="H220019B@hit.ac.zw"/>
+    <hyperlink ref="B82" r:id="rId72" location="" tooltip="" display="H220316P@hit.ac.zw"/>
+    <hyperlink ref="B83" r:id="rId73" location="" tooltip="" display="H220550G@hit.ac.zw"/>
+    <hyperlink ref="B84" r:id="rId74" location="" tooltip="" display="H220004A@hit.ac.zw"/>
+    <hyperlink ref="B85" r:id="rId75" location="" tooltip="" display="H220133W@hit.ac.zw"/>
+    <hyperlink ref="B86" r:id="rId76" location="" tooltip="" display="H220313E@hit.ac.zw"/>
+    <hyperlink ref="B87" r:id="rId77" location="" tooltip="" display="H220427Q@hit.ac.zw"/>
+    <hyperlink ref="B88" r:id="rId78" location="" tooltip="" display="H220070V@hit.ac.zw"/>
+    <hyperlink ref="B89" r:id="rId79" location="" tooltip="" display="H220325F@hit.ac.zw"/>
+    <hyperlink ref="B90" r:id="rId80" location="" tooltip="" display="H220478P@hit.ac.zw"/>
+    <hyperlink ref="B91" r:id="rId81" location="" tooltip="" display="h180617h@hit.ac.zw"/>
+    <hyperlink ref="B92" r:id="rId82" location="" tooltip="" display="H220260C@hit.ac.zw"/>
+    <hyperlink ref="B93" r:id="rId83" location="" tooltip="" display="H220624V@hit.ac.zw"/>
+    <hyperlink ref="B94" r:id="rId84" location="" tooltip="" display="H220231W@hit.ac.zw"/>
+    <hyperlink ref="B95" r:id="rId85" location="" tooltip="" display="H220503P@hit.ac.zw"/>
+    <hyperlink ref="B96" r:id="rId86" location="" tooltip="" display="H220130J@hit.ac.zw"/>
+    <hyperlink ref="B97" r:id="rId87" location="" tooltip="" display="H220086F@hit.ac.zw"/>
+    <hyperlink ref="B98" r:id="rId88" location="" tooltip="" display="H220010Q@hit.ac.zw"/>
+    <hyperlink ref="B99" r:id="rId89" location="" tooltip="" display="h180134p@hit.ac.zw"/>
+    <hyperlink ref="B100" r:id="rId90" location="" tooltip="" display="H220564G@hit.ac.zw"/>
+    <hyperlink ref="B101" r:id="rId91" location="" tooltip="" display="H220462G@hit.ac.zw"/>
+    <hyperlink ref="B102" r:id="rId92" location="" tooltip="" display="H220204H@hit.ac.zw"/>
+    <hyperlink ref="B103" r:id="rId93" location="" tooltip="" display="H220516A@hit.ac.zw"/>
+    <hyperlink ref="B104" r:id="rId94" location="" tooltip="" display="H220183B@hit.ac.zw"/>
+    <hyperlink ref="B105" r:id="rId95" location="" tooltip="" display="H220449Q@hit.ac.zw"/>
+    <hyperlink ref="B107" r:id="rId96" location="" tooltip="" display="H220273W@hit.ac.zw"/>
+    <hyperlink ref="B108" r:id="rId97" location="" tooltip="" display="H220087E@hit.ac.zw"/>
+    <hyperlink ref="B109" r:id="rId98" location="" tooltip="" display="H220033G@hit.ac.zw"/>
+    <hyperlink ref="B110" r:id="rId99" location="" tooltip="" display="H220269E@hit.ac.zw"/>
+    <hyperlink ref="B111" r:id="rId100" location="" tooltip="" display="H220595W@hit.ac.zw"/>
+    <hyperlink ref="B112" r:id="rId101" location="" tooltip="" display="H220591F@hit.ac.zw"/>
+    <hyperlink ref="B113" r:id="rId102" location="" tooltip="" display="H220221G@hit.ac.zw"/>
+    <hyperlink ref="B115" r:id="rId103" location="" tooltip="" display="H220242Z@hit.ac.zw"/>
+    <hyperlink ref="B116" r:id="rId104" location="" tooltip="" display="H220348B@hit.ac.zw"/>
+    <hyperlink ref="B117" r:id="rId105" location="" tooltip="" display="H220418Y@hit.ac.zw"/>
+    <hyperlink ref="B118" r:id="rId106" location="" tooltip="" display="H220450T@hit.ac.zw"/>
+    <hyperlink ref="B119" r:id="rId107" location="" tooltip="" display="H220333Q@hit.ac.zw"/>
+    <hyperlink ref="B120" r:id="rId108" location="" tooltip="" display="H220320J@hit.ac.zw"/>
+    <hyperlink ref="B121" r:id="rId109" location="" tooltip="" display="H220311Y@hit.ac.zw"/>
+    <hyperlink ref="B122" r:id="rId110" location="" tooltip="" display="H220138M@hit.ac.zw"/>
+    <hyperlink ref="B123" r:id="rId111" location="" tooltip="" display="h210574b@hit.ac.zw"/>
+    <hyperlink ref="B126" r:id="rId112" location="" tooltip="" display="H220197V@hit.ac.zw"/>
+    <hyperlink ref="B127" r:id="rId113" location="" tooltip="" display="H220247A@hit.ac.zw"/>
+    <hyperlink ref="B128" r:id="rId114" location="" tooltip="" display="H220432X@hit.ac.zw"/>
+    <hyperlink ref="B129" r:id="rId115" location="" tooltip="" display="H220223N@hit.ac.zw"/>
+    <hyperlink ref="B131" r:id="rId116" location="" tooltip="" display="H220272P@hit.ac.zw"/>
+    <hyperlink ref="B132" r:id="rId117" location="" tooltip="" display="H220615W@hit.ac.zw"/>
+    <hyperlink ref="B133" r:id="rId118" location="" tooltip="" display="H220196A@hit.ac.zw"/>
+    <hyperlink ref="B134" r:id="rId119" location="" tooltip="" display="h220535v@hit.ac.zw"/>
+    <hyperlink ref="B135" r:id="rId120" location="" tooltip="" display="h220688a@hit.ac.zw"/>
+    <hyperlink ref="B136" r:id="rId121" location="" tooltip="" display="H220026H@hit.ac.zw"/>
+    <hyperlink ref="B137" r:id="rId122" location="" tooltip="" display="H220533P@hit.ac.zw"/>
+    <hyperlink ref="B138" r:id="rId123" location="" tooltip="" display="H220435X@hit.ac.zw"/>
+    <hyperlink ref="B139" r:id="rId124" location="" tooltip="" display="H220225C@hit.ac.zw"/>
+    <hyperlink ref="B140" r:id="rId125" location="" tooltip="" display="H220198F@hit.ac.zw"/>
+    <hyperlink ref="B141" r:id="rId126" location="" tooltip="" display="H220290G@hit.ac.zw"/>
+    <hyperlink ref="B142" r:id="rId127" location="" tooltip="" display="H220147B@hit.ac.zw"/>
+    <hyperlink ref="B143" r:id="rId128" location="" tooltip="" display="H220076E@hit.ac.zw"/>
+    <hyperlink ref="B144" r:id="rId129" location="" tooltip="" display="H220129A@hit.ac.zw"/>
+    <hyperlink ref="B145" r:id="rId130" location="" tooltip="" display="H220243A@hit.ac.zw"/>
+    <hyperlink ref="B146" r:id="rId131" location="" tooltip="" display="H220554M@hit.ac.zw"/>
+    <hyperlink ref="B147" r:id="rId132" location="" tooltip="" display="H220415J@hit.ac.zw"/>
+    <hyperlink ref="B148" r:id="rId133" location="" tooltip="" display="H220439A@hit.ac.zw"/>
+    <hyperlink ref="B149" r:id="rId134" location="" tooltip="" display="H220390X@hit.ac.zw"/>
+    <hyperlink ref="B150" r:id="rId135" location="" tooltip="" display="H220536M@hit.ac.zw"/>
+    <hyperlink ref="B151" r:id="rId136" location="" tooltip="" display="H220189E@hit.ac.zw"/>
+    <hyperlink ref="B152" r:id="rId137" location="" tooltip="" display="H220146J@hit.ac.zw"/>
+    <hyperlink ref="B153" r:id="rId138" location="" tooltip="" display="H220179T@hit.ac.zw"/>
+    <hyperlink ref="B154" r:id="rId139" location="" tooltip="" display="H220057B@hit.ac.zw"/>
+    <hyperlink ref="B155" r:id="rId140" location="" tooltip="" display="H220586J@hit.ac.zw"/>
+    <hyperlink ref="B156" r:id="rId141" location="" tooltip="" display="H220417Y@hit.ac.zw"/>
+    <hyperlink ref="B157" r:id="rId142" location="" tooltip="" display="H220553G@hit.ac.zw"/>
+    <hyperlink ref="B158" r:id="rId143" location="" tooltip="" display="H220250Q@hit.ac.zw"/>
+    <hyperlink ref="B159" r:id="rId144" location="" tooltip="" display="H220652T@hit.ac.zw"/>
+    <hyperlink ref="B160" r:id="rId145" location="" tooltip="" display="H220426Q@hit.ac.zw"/>
+    <hyperlink ref="B161" r:id="rId146" location="" tooltip="" display="H220072Y@hit.ac.zw"/>
+    <hyperlink ref="B162" r:id="rId147" location="" tooltip="" display="H220028G@hit.ac.zw"/>
+    <hyperlink ref="B163" r:id="rId148" location="" tooltip="" display="H220081X@hit.ac.zw"/>
+    <hyperlink ref="B164" r:id="rId149" location="" tooltip="" display="h210371h@hit.ac.zw"/>
+    <hyperlink ref="B165" r:id="rId150" location="" tooltip="" display="H220105E@hit.ac.zw"/>
+    <hyperlink ref="B166" r:id="rId151" location="" tooltip="" display="H220215E@hit.ac.zw"/>
+    <hyperlink ref="B167" r:id="rId152" location="" tooltip="" display="H220537B@hit.ac.zw"/>
+    <hyperlink ref="B168" r:id="rId153" location="" tooltip="" display="H220411Q@hit.ac.zw"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/cw11042022.xlsx
+++ b/cw11042022.xlsx
@@ -2003,7 +2003,7 @@
     </r>
   </si>
   <si>
-    <t>Rupinya</t>
+    <t>Rupiya</t>
   </si>
   <si>
     <r>
@@ -4217,11 +4217,15 @@
       <c r="B36" t="s" s="7">
         <v>82</v>
       </c>
-      <c r="C36" s="10"/>
+      <c r="C36" t="s" s="7">
+        <v>24</v>
+      </c>
       <c r="D36" s="8">
         <v>0.75</v>
       </c>
-      <c r="E36" s="9"/>
+      <c r="E36" s="9">
+        <v>0.623376623376623</v>
+      </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -5371,7 +5375,9 @@
       <c r="D93" s="8">
         <v>0.942307692307692</v>
       </c>
-      <c r="E93" s="9"/>
+      <c r="E93" s="9">
+        <v>0.298701298701299</v>
+      </c>
       <c r="F93" s="10"/>
       <c r="G93" s="10"/>
       <c r="H93" s="10"/>
@@ -6519,7 +6525,9 @@
       <c r="D150" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E150" s="9"/>
+      <c r="E150" s="9">
+        <v>0.350649350649351</v>
+      </c>
       <c r="F150" s="10"/>
       <c r="G150" s="10"/>
       <c r="H150" s="10"/>

--- a/cw11042022.xlsx
+++ b/cw11042022.xlsx
@@ -3605,7 +3605,9 @@
       <c r="D5" s="8">
         <v>0.75</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="9">
+        <v>0.454545454545455</v>
+      </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -4021,11 +4023,15 @@
       <c r="B26" t="s" s="7">
         <v>63</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" t="s" s="7">
+        <v>15</v>
+      </c>
       <c r="D26" s="11">
         <v>0</v>
       </c>
-      <c r="E26" s="9"/>
+      <c r="E26" s="9">
+        <v>0.545454545454545</v>
+      </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
@@ -4689,7 +4695,9 @@
       <c r="D59" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E59" s="9"/>
+      <c r="E59" s="9">
+        <v>0.415584415584416</v>
+      </c>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
@@ -4703,11 +4711,15 @@
       <c r="B60" t="s" s="7">
         <v>128</v>
       </c>
-      <c r="C60" s="10"/>
+      <c r="C60" t="s" s="7">
+        <v>27</v>
+      </c>
       <c r="D60" s="11">
         <v>0</v>
       </c>
-      <c r="E60" s="9"/>
+      <c r="E60" s="9">
+        <v>0.571428571428571</v>
+      </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
@@ -4847,7 +4859,9 @@
       <c r="D67" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E67" s="9"/>
+      <c r="E67" s="9">
+        <v>0.337662337662338</v>
+      </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
@@ -5089,11 +5103,15 @@
       <c r="B79" t="s" s="7">
         <v>166</v>
       </c>
-      <c r="C79" s="10"/>
+      <c r="C79" t="s" s="7">
+        <v>12</v>
+      </c>
       <c r="D79" s="11">
         <v>0</v>
       </c>
-      <c r="E79" s="9"/>
+      <c r="E79" s="9">
+        <v>0.363636363636364</v>
+      </c>
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
@@ -5595,11 +5613,15 @@
       <c r="B104" t="s" s="7">
         <v>215</v>
       </c>
-      <c r="C104" s="10"/>
+      <c r="C104" t="s" s="7">
+        <v>24</v>
+      </c>
       <c r="D104" s="8">
         <v>0.673076923076923</v>
       </c>
-      <c r="E104" s="9"/>
+      <c r="E104" s="9">
+        <v>0.402597402597403</v>
+      </c>
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
@@ -5843,7 +5865,9 @@
       <c r="D116" s="8">
         <v>0.942307692307692</v>
       </c>
-      <c r="E116" s="9"/>
+      <c r="E116" s="9">
+        <v>0.532467532467532</v>
+      </c>
       <c r="F116" s="10"/>
       <c r="G116" s="10"/>
       <c r="H116" s="10"/>
@@ -6105,7 +6129,9 @@
       <c r="D129" s="8">
         <v>0.903846153846154</v>
       </c>
-      <c r="E129" s="9"/>
+      <c r="E129" s="9">
+        <v>0.61038961038961</v>
+      </c>
       <c r="F129" s="10"/>
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
@@ -6163,7 +6189,9 @@
       <c r="D132" s="8">
         <v>0.615384615384615</v>
       </c>
-      <c r="E132" s="9"/>
+      <c r="E132" s="9">
+        <v>0.5844155844155841</v>
+      </c>
       <c r="F132" s="10"/>
       <c r="G132" s="10"/>
       <c r="H132" s="10"/>
@@ -6223,7 +6251,9 @@
       <c r="D135" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E135" s="9"/>
+      <c r="E135" s="9">
+        <v>0.5844155844155841</v>
+      </c>
       <c r="F135" s="10"/>
       <c r="G135" s="10"/>
       <c r="H135" s="10"/>
@@ -6483,11 +6513,15 @@
       <c r="B148" t="s" s="7">
         <v>303</v>
       </c>
-      <c r="C148" s="10"/>
+      <c r="C148" t="s" s="7">
+        <v>15</v>
+      </c>
       <c r="D148" s="11">
         <v>0</v>
       </c>
-      <c r="E148" s="9"/>
+      <c r="E148" s="9">
+        <v>0.597402597402597</v>
+      </c>
       <c r="F148" s="10"/>
       <c r="G148" s="10"/>
       <c r="H148" s="10"/>
@@ -6665,7 +6699,9 @@
       <c r="D157" s="11">
         <v>0</v>
       </c>
-      <c r="E157" s="9"/>
+      <c r="E157" s="9">
+        <v>0.506493506493506</v>
+      </c>
       <c r="F157" s="10"/>
       <c r="G157" s="10"/>
       <c r="H157" s="10"/>

--- a/cw11042022.xlsx
+++ b/cw11042022.xlsx
@@ -3567,7 +3567,9 @@
       <c r="D3" s="8">
         <v>0.75</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="9">
+        <v>0.415584415584416</v>
+      </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -3581,11 +3583,15 @@
       <c r="B4" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" t="s" s="7">
+        <v>12</v>
+      </c>
       <c r="D4" s="11">
         <v>0</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="9">
+        <v>0.545454545454545</v>
+      </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -3949,7 +3955,9 @@
       <c r="D22" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="9">
+        <v>0.623376623376623</v>
+      </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
@@ -4005,11 +4013,15 @@
       <c r="B25" t="s" s="7">
         <v>61</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" t="s" s="7">
+        <v>12</v>
+      </c>
       <c r="D25" s="11">
         <v>0</v>
       </c>
-      <c r="E25" s="9"/>
+      <c r="E25" s="9">
+        <v>0.506493506493506</v>
+      </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -4224,7 +4236,7 @@
         <v>82</v>
       </c>
       <c r="C36" t="s" s="7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D36" s="8">
         <v>0.75</v>
@@ -4311,7 +4323,9 @@
       <c r="D40" s="8">
         <v>0.75</v>
       </c>
-      <c r="E40" s="9"/>
+      <c r="E40" s="9">
+        <v>0.506493506493506</v>
+      </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
@@ -4345,11 +4359,15 @@
       <c r="B42" t="s" s="7">
         <v>92</v>
       </c>
-      <c r="C42" s="10"/>
+      <c r="C42" t="s" s="7">
+        <v>12</v>
+      </c>
       <c r="D42" s="11">
         <v>0</v>
       </c>
-      <c r="E42" s="9"/>
+      <c r="E42" s="9">
+        <v>0.597402597402597</v>
+      </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
@@ -4369,7 +4387,9 @@
       <c r="D43" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E43" s="9"/>
+      <c r="E43" s="9">
+        <v>0.480519480519481</v>
+      </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -4390,7 +4410,7 @@
         <v>0.807692307692308</v>
       </c>
       <c r="E44" s="9">
-        <v>0.727272727272727</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
@@ -4471,7 +4491,9 @@
       <c r="D48" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E48" s="9"/>
+      <c r="E48" s="9">
+        <v>0.493506493506494</v>
+      </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
@@ -4489,7 +4511,9 @@
       <c r="D49" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E49" s="9"/>
+      <c r="E49" s="9">
+        <v>0.415584415584416</v>
+      </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
@@ -4571,7 +4595,9 @@
       <c r="D53" s="8">
         <v>0.75</v>
       </c>
-      <c r="E53" s="9"/>
+      <c r="E53" s="9">
+        <v>0.454545454545455</v>
+      </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
@@ -4591,7 +4617,9 @@
       <c r="D54" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E54" s="9"/>
+      <c r="E54" s="9">
+        <v>0.5844155844155841</v>
+      </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
@@ -4781,7 +4809,9 @@
       <c r="D63" s="8">
         <v>0.75</v>
       </c>
-      <c r="E63" s="9"/>
+      <c r="E63" s="9">
+        <v>0.480519480519481</v>
+      </c>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
@@ -4801,7 +4831,9 @@
       <c r="D64" s="8">
         <v>0.75</v>
       </c>
-      <c r="E64" s="9"/>
+      <c r="E64" s="9">
+        <v>0.61038961038961</v>
+      </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
@@ -4821,7 +4853,9 @@
       <c r="D65" s="8">
         <v>0.75</v>
       </c>
-      <c r="E65" s="9"/>
+      <c r="E65" s="9">
+        <v>0.363636363636364</v>
+      </c>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
@@ -4963,7 +4997,9 @@
       <c r="D72" s="11">
         <v>0</v>
       </c>
-      <c r="E72" s="9"/>
+      <c r="E72" s="9">
+        <v>0.649350649350649</v>
+      </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
@@ -4983,7 +5019,9 @@
       <c r="D73" s="8">
         <v>0.75</v>
       </c>
-      <c r="E73" s="9"/>
+      <c r="E73" s="9">
+        <v>0.571428571428571</v>
+      </c>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
@@ -5089,7 +5127,9 @@
       <c r="D78" s="8">
         <v>0.673076923076923</v>
       </c>
-      <c r="E78" s="9"/>
+      <c r="E78" s="9">
+        <v>0.207792207792208</v>
+      </c>
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
@@ -5131,7 +5171,9 @@
       <c r="D80" s="8">
         <v>0.75</v>
       </c>
-      <c r="E80" s="9"/>
+      <c r="E80" s="9">
+        <v>0.597402597402597</v>
+      </c>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
@@ -5167,11 +5209,15 @@
       <c r="B82" t="s" s="7">
         <v>172</v>
       </c>
-      <c r="C82" s="10"/>
+      <c r="C82" t="s" s="7">
+        <v>12</v>
+      </c>
       <c r="D82" s="11">
         <v>0</v>
       </c>
-      <c r="E82" s="9"/>
+      <c r="E82" s="9">
+        <v>0.545454545454545</v>
+      </c>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
@@ -5275,7 +5321,9 @@
       <c r="D87" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E87" s="9"/>
+      <c r="E87" s="9">
+        <v>0.714285714285714</v>
+      </c>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
@@ -5295,7 +5343,9 @@
       <c r="D88" s="8">
         <v>0.75</v>
       </c>
-      <c r="E88" s="9"/>
+      <c r="E88" s="9">
+        <v>0.636363636363636</v>
+      </c>
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
@@ -5457,7 +5507,9 @@
       <c r="D96" s="8">
         <v>0.923076923076923</v>
       </c>
-      <c r="E96" s="9"/>
+      <c r="E96" s="9">
+        <v>0.571428571428571</v>
+      </c>
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
@@ -5499,7 +5551,9 @@
       <c r="D98" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E98" s="9"/>
+      <c r="E98" s="9">
+        <v>0.363636363636364</v>
+      </c>
       <c r="F98" s="10"/>
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
@@ -5539,7 +5593,9 @@
       <c r="D100" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E100" s="9"/>
+      <c r="E100" s="9">
+        <v>0.428571428571429</v>
+      </c>
       <c r="F100" s="10"/>
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
@@ -5679,7 +5735,9 @@
       <c r="D107" s="8">
         <v>0.846153846153846</v>
       </c>
-      <c r="E107" s="9"/>
+      <c r="E107" s="9">
+        <v>0.38961038961039</v>
+      </c>
       <c r="F107" s="10"/>
       <c r="G107" s="10"/>
       <c r="H107" s="10"/>
@@ -5909,7 +5967,9 @@
       <c r="D118" s="8">
         <v>0.615384615384615</v>
       </c>
-      <c r="E118" s="9"/>
+      <c r="E118" s="9">
+        <v>0.675324675324675</v>
+      </c>
       <c r="F118" s="10"/>
       <c r="G118" s="10"/>
       <c r="H118" s="10"/>
@@ -5947,7 +6007,9 @@
       <c r="D120" s="8">
         <v>0.75</v>
       </c>
-      <c r="E120" s="9"/>
+      <c r="E120" s="9">
+        <v>0.532467532467532</v>
+      </c>
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
       <c r="H120" s="10"/>
@@ -6293,7 +6355,9 @@
       <c r="D137" s="11">
         <v>0</v>
       </c>
-      <c r="E137" s="9"/>
+      <c r="E137" s="9">
+        <v>0.675324675324675</v>
+      </c>
       <c r="F137" s="10"/>
       <c r="G137" s="10"/>
       <c r="H137" s="10"/>
@@ -6395,7 +6459,9 @@
       <c r="D142" s="8">
         <v>0.75</v>
       </c>
-      <c r="E142" s="9"/>
+      <c r="E142" s="9">
+        <v>0.38961038961039</v>
+      </c>
       <c r="F142" s="10"/>
       <c r="G142" s="10"/>
       <c r="H142" s="10"/>
@@ -6599,7 +6665,9 @@
       <c r="D152" s="8">
         <v>0.942307692307692</v>
       </c>
-      <c r="E152" s="9"/>
+      <c r="E152" s="9">
+        <v>0.467532467532468</v>
+      </c>
       <c r="F152" s="10"/>
       <c r="G152" s="10"/>
       <c r="H152" s="10"/>
@@ -6677,11 +6745,15 @@
       <c r="B156" t="s" s="7">
         <v>319</v>
       </c>
-      <c r="C156" s="10"/>
+      <c r="C156" t="s" s="7">
+        <v>12</v>
+      </c>
       <c r="D156" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E156" s="9"/>
+      <c r="E156" s="9">
+        <v>0.61038961038961</v>
+      </c>
       <c r="F156" s="10"/>
       <c r="G156" s="10"/>
       <c r="H156" s="10"/>
@@ -6907,7 +6979,9 @@
       <c r="D167" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E167" s="9"/>
+      <c r="E167" s="9">
+        <v>0.506493506493506</v>
+      </c>
       <c r="F167" s="10"/>
       <c r="G167" s="10"/>
       <c r="H167" s="10"/>

--- a/cw11042022.xlsx
+++ b/cw11042022.xlsx
@@ -3547,7 +3547,9 @@
       <c r="D2" s="4">
         <v>0.923076923076923</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5">
+        <v>0.25974025974026</v>
+      </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3691,11 +3693,15 @@
       <c r="B9" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" t="s" s="7">
+        <v>12</v>
+      </c>
       <c r="D9" s="11">
         <v>0</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="9">
+        <v>0.350649350649351</v>
+      </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -4575,7 +4581,9 @@
       <c r="D52" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E52" s="9"/>
+      <c r="E52" s="9">
+        <v>0.506493506493506</v>
+      </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
@@ -4661,7 +4669,9 @@
       <c r="D56" s="8">
         <v>0.826923076923077</v>
       </c>
-      <c r="E56" s="9"/>
+      <c r="E56" s="9">
+        <v>0.363636363636364</v>
+      </c>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
@@ -4915,7 +4925,9 @@
       <c r="D68" s="8">
         <v>0.923076923076923</v>
       </c>
-      <c r="E68" s="9"/>
+      <c r="E68" s="9">
+        <v>0.467532467532468</v>
+      </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
@@ -5857,11 +5869,15 @@
       <c r="B113" t="s" s="7">
         <v>233</v>
       </c>
-      <c r="C113" s="10"/>
+      <c r="C113" t="s" s="7">
+        <v>12</v>
+      </c>
       <c r="D113" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E113" s="9"/>
+      <c r="E113" s="9">
+        <v>0.675324675324675</v>
+      </c>
       <c r="F113" s="10"/>
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
@@ -6029,7 +6045,9 @@
       <c r="D121" s="8">
         <v>0.846153846153846</v>
       </c>
-      <c r="E121" s="9"/>
+      <c r="E121" s="9">
+        <v>0.25974025974026</v>
+      </c>
       <c r="F121" s="10"/>
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
@@ -6061,11 +6079,15 @@
       <c r="B123" t="s" s="7">
         <v>253</v>
       </c>
-      <c r="C123" s="10"/>
+      <c r="C123" t="s" s="7">
+        <v>12</v>
+      </c>
       <c r="D123" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E123" s="9"/>
+      <c r="E123" s="9">
+        <v>0.597402597402597</v>
+      </c>
       <c r="F123" s="10"/>
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
@@ -6213,7 +6235,9 @@
       <c r="D130" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E130" s="9"/>
+      <c r="E130" s="9">
+        <v>0.246753246753247</v>
+      </c>
       <c r="F130" s="10"/>
       <c r="G130" s="10"/>
       <c r="H130" s="10"/>
@@ -6231,7 +6255,9 @@
       <c r="D131" s="8">
         <v>0.673076923076923</v>
       </c>
-      <c r="E131" s="9"/>
+      <c r="E131" s="9">
+        <v>0.571428571428571</v>
+      </c>
       <c r="F131" s="10"/>
       <c r="G131" s="10"/>
       <c r="H131" s="10"/>

--- a/cw11042022.xlsx
+++ b/cw11042022.xlsx
@@ -3861,7 +3861,9 @@
       <c r="D17" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="9">
+        <v>0.597402597402597</v>
+      </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -3901,7 +3903,9 @@
       <c r="D19" s="8">
         <v>0.673076923076923</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="9">
+        <v>0.402597402597403</v>
+      </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
@@ -4063,11 +4067,15 @@
       <c r="B27" t="s" s="7">
         <v>65</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" t="s" s="7">
+        <v>24</v>
+      </c>
       <c r="D27" s="11">
         <v>0</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="9">
+        <v>0.402597402597403</v>
+      </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -4561,7 +4569,9 @@
       <c r="D51" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E51" s="9"/>
+      <c r="E51" s="9">
+        <v>0.493506493506494</v>
+      </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
@@ -4713,7 +4723,9 @@
       <c r="D58" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E58" s="9"/>
+      <c r="E58" s="9">
+        <v>0.519480519480519</v>
+      </c>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
@@ -4777,7 +4789,9 @@
       <c r="D61" s="8">
         <v>0.615384615384615</v>
       </c>
-      <c r="E61" s="9"/>
+      <c r="E61" s="9">
+        <v>0.571428571428571</v>
+      </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
@@ -4969,7 +4983,9 @@
       <c r="D70" s="8">
         <v>0.75</v>
       </c>
-      <c r="E70" s="9"/>
+      <c r="E70" s="9">
+        <v>0.493506493506494</v>
+      </c>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
@@ -5309,11 +5325,15 @@
       <c r="B86" t="s" s="7">
         <v>180</v>
       </c>
-      <c r="C86" s="10"/>
+      <c r="C86" t="s" s="7">
+        <v>24</v>
+      </c>
       <c r="D86" s="11">
         <v>0</v>
       </c>
-      <c r="E86" s="9"/>
+      <c r="E86" s="9">
+        <v>0.532467532467532</v>
+      </c>
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
@@ -5377,7 +5397,9 @@
       <c r="D89" s="8">
         <v>0.75</v>
       </c>
-      <c r="E89" s="9"/>
+      <c r="E89" s="9">
+        <v>0.597402597402597</v>
+      </c>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
@@ -5431,11 +5453,15 @@
       <c r="B92" t="s" s="7">
         <v>191</v>
       </c>
-      <c r="C92" s="10"/>
+      <c r="C92" t="s" s="7">
+        <v>15</v>
+      </c>
       <c r="D92" s="8">
         <v>0.75</v>
       </c>
-      <c r="E92" s="9"/>
+      <c r="E92" s="9">
+        <v>0.558441558441558</v>
+      </c>
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
@@ -5649,7 +5675,9 @@
       <c r="D102" s="8">
         <v>0.807692307692308</v>
       </c>
-      <c r="E102" s="9"/>
+      <c r="E102" s="9">
+        <v>0.597402597402597</v>
+      </c>
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
@@ -5667,7 +5695,9 @@
       <c r="D103" s="11">
         <v>0</v>
       </c>
-      <c r="E103" s="9"/>
+      <c r="E103" s="9">
+        <v>0.493506493506494</v>
+      </c>
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
@@ -5707,7 +5737,9 @@
       <c r="D105" s="8">
         <v>0.673076923076923</v>
       </c>
-      <c r="E105" s="9"/>
+      <c r="E105" s="9">
+        <v>0.337662337662338</v>
+      </c>
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
@@ -5763,11 +5795,15 @@
       <c r="B108" t="s" s="7">
         <v>223</v>
       </c>
-      <c r="C108" s="10"/>
+      <c r="C108" t="s" s="7">
+        <v>12</v>
+      </c>
       <c r="D108" s="11">
         <v>0</v>
       </c>
-      <c r="E108" s="9"/>
+      <c r="E108" s="9">
+        <v>0.376623376623377</v>
+      </c>
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
       <c r="H108" s="10"/>
@@ -5897,7 +5933,9 @@
       <c r="D114" s="8">
         <v>0.7692307692307691</v>
       </c>
-      <c r="E114" s="9"/>
+      <c r="E114" s="9">
+        <v>0.5844155844155841</v>
+      </c>
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
@@ -6061,11 +6099,15 @@
       <c r="B122" t="s" s="7">
         <v>251</v>
       </c>
-      <c r="C122" s="10"/>
+      <c r="C122" t="s" s="7">
+        <v>24</v>
+      </c>
       <c r="D122" s="11">
         <v>0</v>
       </c>
-      <c r="E122" s="9"/>
+      <c r="E122" s="9">
+        <v>0.428571428571429</v>
+      </c>
       <c r="F122" s="10"/>
       <c r="G122" s="10"/>
       <c r="H122" s="10"/>
@@ -6299,7 +6341,9 @@
       <c r="D133" s="8">
         <v>0.846153846153846</v>
       </c>
-      <c r="E133" s="9"/>
+      <c r="E133" s="9">
+        <v>0.493506493506494</v>
+      </c>
       <c r="F133" s="10"/>
       <c r="G133" s="10"/>
       <c r="H133" s="10"/>
@@ -6549,7 +6593,9 @@
       <c r="D145" s="8">
         <v>0.923076923076923</v>
       </c>
-      <c r="E145" s="9"/>
+      <c r="E145" s="9">
+        <v>0.649350649350649</v>
+      </c>
       <c r="F145" s="10"/>
       <c r="G145" s="10"/>
       <c r="H145" s="10"/>
@@ -6627,11 +6673,15 @@
       <c r="B149" t="s" s="7">
         <v>305</v>
       </c>
-      <c r="C149" s="10"/>
+      <c r="C149" t="s" s="7">
+        <v>24</v>
+      </c>
       <c r="D149" s="11">
         <v>0</v>
       </c>
-      <c r="E149" s="9"/>
+      <c r="E149" s="9">
+        <v>0.324675324675325</v>
+      </c>
       <c r="F149" s="10"/>
       <c r="G149" s="10"/>
       <c r="H149" s="10"/>
@@ -6667,11 +6717,15 @@
       <c r="B151" t="s" s="7">
         <v>309</v>
       </c>
-      <c r="C151" s="10"/>
+      <c r="C151" t="s" s="7">
+        <v>12</v>
+      </c>
       <c r="D151" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E151" s="9"/>
+      <c r="E151" s="9">
+        <v>0.506493506493506</v>
+      </c>
       <c r="F151" s="10"/>
       <c r="G151" s="10"/>
       <c r="H151" s="10"/>
@@ -6861,7 +6915,9 @@
       <c r="D160" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E160" s="9"/>
+      <c r="E160" s="9">
+        <v>0.467532467532468</v>
+      </c>
       <c r="F160" s="10"/>
       <c r="G160" s="10"/>
       <c r="H160" s="10"/>
@@ -6963,7 +7019,9 @@
       <c r="D165" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E165" s="9"/>
+      <c r="E165" s="9">
+        <v>0.402597402597403</v>
+      </c>
       <c r="F165" s="10"/>
       <c r="G165" s="10"/>
       <c r="H165" s="10"/>

--- a/cw11042022.xlsx
+++ b/cw11042022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="346">
   <si>
     <t>Surname</t>
   </si>
@@ -496,6 +496,12 @@
       </rPr>
       <t>H220018Y@hit.ac.zw</t>
     </r>
+  </si>
+  <si>
+    <t>Daka</t>
+  </si>
+  <si>
+    <t>H220711P</t>
   </si>
   <si>
     <t>Debwe</t>
@@ -3481,7 +3487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J168"/>
+  <dimension ref="A1:J169"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -3757,11 +3763,15 @@
       <c r="B12" t="s" s="7">
         <v>35</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" t="s" s="7">
+        <v>24</v>
+      </c>
       <c r="D12" s="11">
         <v>0</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="9">
+        <v>0.324675324675325</v>
+      </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -3779,7 +3789,9 @@
       <c r="D13" s="11">
         <v>0</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="9">
+        <v>0.493506493506494</v>
+      </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -3841,7 +3853,9 @@
       <c r="D16" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="9">
+        <v>0.623376623376623</v>
+      </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -3925,7 +3939,9 @@
       <c r="D20" s="8">
         <v>0.7692307692307691</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
@@ -3945,7 +3961,9 @@
       <c r="D21" s="8">
         <v>0.942307692307692</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="9">
+        <v>0.428571428571429</v>
+      </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
@@ -3987,7 +4005,9 @@
       <c r="D23" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E23" s="9"/>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
@@ -4095,7 +4115,9 @@
       <c r="D28" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E28" s="9"/>
+      <c r="E28" s="9">
+        <v>0.233766233766234</v>
+      </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -4115,7 +4137,9 @@
       <c r="D29" s="8">
         <v>0.7692307692307691</v>
       </c>
-      <c r="E29" s="9"/>
+      <c r="E29" s="9">
+        <v>0</v>
+      </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
@@ -4129,11 +4153,15 @@
       <c r="B30" t="s" s="7">
         <v>71</v>
       </c>
-      <c r="C30" s="10"/>
+      <c r="C30" t="s" s="7">
+        <v>24</v>
+      </c>
       <c r="D30" s="11">
         <v>0</v>
       </c>
-      <c r="E30" s="9"/>
+      <c r="E30" s="9">
+        <v>0.662337662337662</v>
+      </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
@@ -4153,7 +4181,9 @@
       <c r="D31" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E31" s="9"/>
+      <c r="E31" s="9">
+        <v>0.480519480519481</v>
+      </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
@@ -4173,7 +4203,9 @@
       <c r="D32" s="8">
         <v>0.692307692307692</v>
       </c>
-      <c r="E32" s="9"/>
+      <c r="E32" s="9">
+        <v>0.636363636363636</v>
+      </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
@@ -4193,7 +4225,9 @@
       <c r="D33" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E33" s="9"/>
+      <c r="E33" s="9">
+        <v>0.701298701298701</v>
+      </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -4229,7 +4263,9 @@
       <c r="B35" t="s" s="7">
         <v>80</v>
       </c>
-      <c r="C35" s="10"/>
+      <c r="C35" t="s" s="7">
+        <v>24</v>
+      </c>
       <c r="D35" s="11">
         <v>0</v>
       </c>
@@ -4249,14 +4285,12 @@
       <c r="B36" t="s" s="7">
         <v>82</v>
       </c>
-      <c r="C36" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D36" s="8">
-        <v>0.75</v>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11">
+        <v>0</v>
       </c>
       <c r="E36" s="9">
-        <v>0.623376623376623</v>
+        <v>0.376623376623377</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -4275,9 +4309,11 @@
         <v>15</v>
       </c>
       <c r="D37" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E37" s="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0.623376623376623</v>
+      </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -4286,18 +4322,20 @@
     </row>
     <row r="38" ht="14.35" customHeight="1">
       <c r="A38" t="s" s="7">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B38" t="s" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D38" s="8">
-        <v>0.807692307692308</v>
-      </c>
-      <c r="E38" s="9"/>
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E38" s="9">
+        <v>0</v>
+      </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -4306,17 +4344,19 @@
     </row>
     <row r="39" ht="14.35" customHeight="1">
       <c r="A39" t="s" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s" s="7">
         <v>87</v>
       </c>
-      <c r="C39" s="10"/>
+      <c r="C39" t="s" s="7">
+        <v>12</v>
+      </c>
       <c r="D39" s="8">
-        <v>0.75</v>
+        <v>0.807692307692308</v>
       </c>
       <c r="E39" s="9">
-        <v>0.441558441558442</v>
+        <v>0</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -4331,14 +4371,12 @@
       <c r="B40" t="s" s="7">
         <v>89</v>
       </c>
-      <c r="C40" t="s" s="7">
-        <v>27</v>
-      </c>
+      <c r="C40" s="10"/>
       <c r="D40" s="8">
         <v>0.75</v>
       </c>
       <c r="E40" s="9">
-        <v>0.506493506493506</v>
+        <v>0.441558441558442</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
@@ -4350,15 +4388,17 @@
       <c r="A41" t="s" s="7">
         <v>90</v>
       </c>
-      <c r="B41" s="10"/>
+      <c r="B41" t="s" s="7">
+        <v>91</v>
+      </c>
       <c r="C41" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D41" s="11">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="D41" s="8">
+        <v>0.75</v>
       </c>
       <c r="E41" s="9">
-        <v>0.168831168831169</v>
+        <v>0.506493506493506</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -4368,11 +4408,9 @@
     </row>
     <row r="42" ht="14.35" customHeight="1">
       <c r="A42" t="s" s="7">
-        <v>91</v>
-      </c>
-      <c r="B42" t="s" s="7">
         <v>92</v>
       </c>
+      <c r="B42" s="10"/>
       <c r="C42" t="s" s="7">
         <v>12</v>
       </c>
@@ -4380,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="9">
-        <v>0.597402597402597</v>
+        <v>0.168831168831169</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
@@ -4396,13 +4434,13 @@
         <v>94</v>
       </c>
       <c r="C43" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="D43" s="8">
-        <v>0.634615384615385</v>
+        <v>12</v>
+      </c>
+      <c r="D43" s="11">
+        <v>0</v>
       </c>
       <c r="E43" s="9">
-        <v>0.480519480519481</v>
+        <v>0.597402597402597</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
@@ -4418,13 +4456,13 @@
         <v>96</v>
       </c>
       <c r="C44" t="s" s="7">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D44" s="8">
-        <v>0.807692307692308</v>
+        <v>0.634615384615385</v>
       </c>
       <c r="E44" s="9">
-        <v>0.636363636363636</v>
+        <v>0.480519480519481</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
@@ -4440,12 +4478,14 @@
         <v>98</v>
       </c>
       <c r="C45" t="s" s="7">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D45" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E45" s="9"/>
+        <v>0.807692307692308</v>
+      </c>
+      <c r="E45" s="9">
+        <v>0.636363636363636</v>
+      </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -4460,12 +4500,14 @@
         <v>100</v>
       </c>
       <c r="C46" t="s" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D46" s="8">
-        <v>0.788461538461538</v>
-      </c>
-      <c r="E46" s="9"/>
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E46" s="9">
+        <v>0.727272727272727</v>
+      </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
@@ -4479,12 +4521,14 @@
       <c r="B47" t="s" s="7">
         <v>102</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="11">
-        <v>0</v>
+      <c r="C47" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="D47" s="8">
+        <v>0.788461538461538</v>
       </c>
       <c r="E47" s="9">
-        <v>0.311688311688312</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -4499,14 +4543,12 @@
       <c r="B48" t="s" s="7">
         <v>104</v>
       </c>
-      <c r="C48" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="D48" s="8">
-        <v>0.788461538461538</v>
+      <c r="C48" s="10"/>
+      <c r="D48" s="11">
+        <v>0</v>
       </c>
       <c r="E48" s="9">
-        <v>0.493506493506494</v>
+        <v>0.311688311688312</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
@@ -4521,12 +4563,14 @@
       <c r="B49" t="s" s="7">
         <v>106</v>
       </c>
-      <c r="C49" s="10"/>
+      <c r="C49" t="s" s="7">
+        <v>24</v>
+      </c>
       <c r="D49" s="8">
-        <v>0.711538461538462</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E49" s="9">
-        <v>0.415584415584416</v>
+        <v>0.493506493506494</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -4541,14 +4585,12 @@
       <c r="B50" t="s" s="7">
         <v>108</v>
       </c>
-      <c r="C50" t="s" s="7">
-        <v>15</v>
-      </c>
+      <c r="C50" s="10"/>
       <c r="D50" s="8">
         <v>0.711538461538462</v>
       </c>
       <c r="E50" s="9">
-        <v>0.5844155844155841</v>
+        <v>0.415584415584416</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
@@ -4567,10 +4609,10 @@
         <v>15</v>
       </c>
       <c r="D51" s="8">
-        <v>0.788461538461538</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="E51" s="9">
-        <v>0.493506493506494</v>
+        <v>0.5844155844155841</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
@@ -4586,13 +4628,13 @@
         <v>112</v>
       </c>
       <c r="C52" t="s" s="7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D52" s="8">
-        <v>0.634615384615385</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E52" s="9">
-        <v>0.506493506493506</v>
+        <v>0.493506493506494</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -4608,13 +4650,13 @@
         <v>114</v>
       </c>
       <c r="C53" t="s" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D53" s="8">
-        <v>0.75</v>
+        <v>0.634615384615385</v>
       </c>
       <c r="E53" s="9">
-        <v>0.454545454545455</v>
+        <v>0.506493506493506</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
@@ -4630,13 +4672,13 @@
         <v>116</v>
       </c>
       <c r="C54" t="s" s="7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D54" s="8">
-        <v>0.634615384615385</v>
+        <v>0.75</v>
       </c>
       <c r="E54" s="9">
-        <v>0.5844155844155841</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
@@ -4652,13 +4694,13 @@
         <v>118</v>
       </c>
       <c r="C55" t="s" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D55" s="8">
-        <v>0.807692307692308</v>
+        <v>0.634615384615385</v>
       </c>
       <c r="E55" s="9">
-        <v>0.61038961038961</v>
+        <v>0.5844155844155841</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
@@ -4677,10 +4719,10 @@
         <v>12</v>
       </c>
       <c r="D56" s="8">
-        <v>0.826923076923077</v>
+        <v>0.807692307692308</v>
       </c>
       <c r="E56" s="9">
-        <v>0.363636363636364</v>
+        <v>0.61038961038961</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
@@ -4696,13 +4738,13 @@
         <v>122</v>
       </c>
       <c r="C57" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="D57" s="11">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="D57" s="8">
+        <v>0.826923076923077</v>
       </c>
       <c r="E57" s="9">
-        <v>0.298701298701299</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
@@ -4718,13 +4760,13 @@
         <v>124</v>
       </c>
       <c r="C58" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D58" s="8">
-        <v>0.711538461538462</v>
+        <v>24</v>
+      </c>
+      <c r="D58" s="11">
+        <v>0</v>
       </c>
       <c r="E58" s="9">
-        <v>0.519480519480519</v>
+        <v>0.298701298701299</v>
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
@@ -4740,13 +4782,13 @@
         <v>126</v>
       </c>
       <c r="C59" t="s" s="7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D59" s="8">
         <v>0.711538461538462</v>
       </c>
       <c r="E59" s="9">
-        <v>0.415584415584416</v>
+        <v>0.519480519480519</v>
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
@@ -4762,13 +4804,13 @@
         <v>128</v>
       </c>
       <c r="C60" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D60" s="11">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="D60" s="8">
+        <v>0.711538461538462</v>
       </c>
       <c r="E60" s="9">
-        <v>0.571428571428571</v>
+        <v>0.415584415584416</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
@@ -4784,10 +4826,10 @@
         <v>130</v>
       </c>
       <c r="C61" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D61" s="8">
-        <v>0.615384615384615</v>
+        <v>27</v>
+      </c>
+      <c r="D61" s="11">
+        <v>0</v>
       </c>
       <c r="E61" s="9">
         <v>0.571428571428571</v>
@@ -4806,13 +4848,13 @@
         <v>132</v>
       </c>
       <c r="C62" t="s" s="7">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D62" s="8">
-        <v>0.634615384615385</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E62" s="9">
-        <v>0.350649350649351</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
@@ -4828,13 +4870,13 @@
         <v>134</v>
       </c>
       <c r="C63" t="s" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D63" s="8">
-        <v>0.75</v>
+        <v>0.634615384615385</v>
       </c>
       <c r="E63" s="9">
-        <v>0.480519480519481</v>
+        <v>0.350649350649351</v>
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
@@ -4850,13 +4892,13 @@
         <v>136</v>
       </c>
       <c r="C64" t="s" s="7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D64" s="8">
         <v>0.75</v>
       </c>
       <c r="E64" s="9">
-        <v>0.61038961038961</v>
+        <v>0.480519480519481</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
@@ -4872,13 +4914,13 @@
         <v>138</v>
       </c>
       <c r="C65" t="s" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D65" s="8">
         <v>0.75</v>
       </c>
       <c r="E65" s="9">
-        <v>0.363636363636364</v>
+        <v>0.61038961038961</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
@@ -4893,11 +4935,15 @@
       <c r="B66" t="s" s="7">
         <v>140</v>
       </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="11">
-        <v>0</v>
-      </c>
-      <c r="E66" s="9"/>
+      <c r="C66" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="D66" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="E66" s="9">
+        <v>0.363636363636364</v>
+      </c>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
@@ -4911,14 +4957,12 @@
       <c r="B67" t="s" s="7">
         <v>142</v>
       </c>
-      <c r="C67" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="D67" s="8">
-        <v>0.711538461538462</v>
+      <c r="C67" s="10"/>
+      <c r="D67" s="11">
+        <v>0</v>
       </c>
       <c r="E67" s="9">
-        <v>0.337662337662338</v>
+        <v>0</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
@@ -4934,13 +4978,13 @@
         <v>144</v>
       </c>
       <c r="C68" t="s" s="7">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D68" s="8">
-        <v>0.923076923076923</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="E68" s="9">
-        <v>0.467532467532468</v>
+        <v>0.337662337662338</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
@@ -4956,10 +5000,10 @@
         <v>146</v>
       </c>
       <c r="C69" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D69" s="11">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D69" s="8">
+        <v>0.923076923076923</v>
       </c>
       <c r="E69" s="9">
         <v>0.467532467532468</v>
@@ -4978,13 +5022,13 @@
         <v>148</v>
       </c>
       <c r="C70" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D70" s="8">
-        <v>0.75</v>
+        <v>27</v>
+      </c>
+      <c r="D70" s="11">
+        <v>1</v>
       </c>
       <c r="E70" s="9">
-        <v>0.493506493506494</v>
+        <v>0.467532467532468</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
@@ -5000,13 +5044,13 @@
         <v>150</v>
       </c>
       <c r="C71" t="s" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D71" s="8">
-        <v>0.826923076923077</v>
+        <v>0.75</v>
       </c>
       <c r="E71" s="9">
-        <v>0.337662337662338</v>
+        <v>0.493506493506494</v>
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
@@ -5021,12 +5065,14 @@
       <c r="B72" t="s" s="7">
         <v>152</v>
       </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="11">
-        <v>0</v>
+      <c r="C72" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="D72" s="8">
+        <v>0.826923076923077</v>
       </c>
       <c r="E72" s="9">
-        <v>0.649350649350649</v>
+        <v>0.337662337662338</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
@@ -5041,14 +5087,12 @@
       <c r="B73" t="s" s="7">
         <v>154</v>
       </c>
-      <c r="C73" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D73" s="8">
-        <v>0.75</v>
+      <c r="C73" s="10"/>
+      <c r="D73" s="11">
+        <v>0</v>
       </c>
       <c r="E73" s="9">
-        <v>0.571428571428571</v>
+        <v>0.649350649350649</v>
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
@@ -5064,13 +5108,13 @@
         <v>156</v>
       </c>
       <c r="C74" t="s" s="7">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D74" s="8">
-        <v>0.942307692307692</v>
+        <v>0.75</v>
       </c>
       <c r="E74" s="9">
-        <v>0.480519480519481</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
@@ -5089,10 +5133,10 @@
         <v>24</v>
       </c>
       <c r="D75" s="8">
-        <v>0.807692307692308</v>
+        <v>0.942307692307692</v>
       </c>
       <c r="E75" s="9">
-        <v>0.493506493506494</v>
+        <v>0.480519480519481</v>
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
@@ -5108,13 +5152,13 @@
         <v>160</v>
       </c>
       <c r="C76" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D76" s="11">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="D76" s="8">
+        <v>0.807692307692308</v>
       </c>
       <c r="E76" s="9">
-        <v>0.337662337662338</v>
+        <v>0.493506493506494</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
@@ -5130,13 +5174,13 @@
         <v>162</v>
       </c>
       <c r="C77" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D77" s="8">
-        <v>0.826923076923077</v>
+        <v>15</v>
+      </c>
+      <c r="D77" s="11">
+        <v>0</v>
       </c>
       <c r="E77" s="9">
-        <v>0.519480519480519</v>
+        <v>0.337662337662338</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
@@ -5151,12 +5195,14 @@
       <c r="B78" t="s" s="7">
         <v>164</v>
       </c>
-      <c r="C78" s="10"/>
+      <c r="C78" t="s" s="7">
+        <v>27</v>
+      </c>
       <c r="D78" s="8">
-        <v>0.673076923076923</v>
+        <v>0.826923076923077</v>
       </c>
       <c r="E78" s="9">
-        <v>0.207792207792208</v>
+        <v>0.519480519480519</v>
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
@@ -5171,14 +5217,12 @@
       <c r="B79" t="s" s="7">
         <v>166</v>
       </c>
-      <c r="C79" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D79" s="11">
-        <v>0</v>
+      <c r="C79" s="10"/>
+      <c r="D79" s="8">
+        <v>0.673076923076923</v>
       </c>
       <c r="E79" s="9">
-        <v>0.363636363636364</v>
+        <v>0.207792207792208</v>
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
@@ -5194,13 +5238,13 @@
         <v>168</v>
       </c>
       <c r="C80" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D80" s="8">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="D80" s="11">
+        <v>0</v>
       </c>
       <c r="E80" s="9">
-        <v>0.597402597402597</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
@@ -5219,10 +5263,10 @@
         <v>27</v>
       </c>
       <c r="D81" s="8">
-        <v>0.826923076923077</v>
+        <v>0.75</v>
       </c>
       <c r="E81" s="9">
-        <v>0.74025974025974</v>
+        <v>0.597402597402597</v>
       </c>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
@@ -5238,13 +5282,13 @@
         <v>172</v>
       </c>
       <c r="C82" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D82" s="11">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="D82" s="8">
+        <v>0.826923076923077</v>
       </c>
       <c r="E82" s="9">
-        <v>0.545454545454545</v>
+        <v>0.74025974025974</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
@@ -5260,13 +5304,13 @@
         <v>174</v>
       </c>
       <c r="C83" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="D83" s="8">
-        <v>0.923076923076923</v>
+        <v>12</v>
+      </c>
+      <c r="D83" s="11">
+        <v>0</v>
       </c>
       <c r="E83" s="9">
-        <v>0.220779220779221</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
@@ -5282,13 +5326,13 @@
         <v>176</v>
       </c>
       <c r="C84" t="s" s="7">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D84" s="8">
-        <v>0.788461538461538</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="E84" s="9">
-        <v>0.454545454545455</v>
+        <v>0.220779220779221</v>
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
@@ -5307,10 +5351,10 @@
         <v>27</v>
       </c>
       <c r="D85" s="8">
-        <v>0.615384615384615</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E85" s="9">
-        <v>0.571428571428571</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
@@ -5326,13 +5370,13 @@
         <v>180</v>
       </c>
       <c r="C86" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="D86" s="11">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="D86" s="8">
+        <v>0.615384615384615</v>
       </c>
       <c r="E86" s="9">
-        <v>0.532467532467532</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
@@ -5348,13 +5392,13 @@
         <v>182</v>
       </c>
       <c r="C87" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D87" s="8">
-        <v>0.788461538461538</v>
+        <v>24</v>
+      </c>
+      <c r="D87" s="11">
+        <v>0</v>
       </c>
       <c r="E87" s="9">
-        <v>0.714285714285714</v>
+        <v>0.532467532467532</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
@@ -5370,13 +5414,13 @@
         <v>184</v>
       </c>
       <c r="C88" t="s" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D88" s="8">
-        <v>0.75</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E88" s="9">
-        <v>0.636363636363636</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
@@ -5392,13 +5436,13 @@
         <v>186</v>
       </c>
       <c r="C89" t="s" s="7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D89" s="8">
         <v>0.75</v>
       </c>
       <c r="E89" s="9">
-        <v>0.597402597402597</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
@@ -5417,9 +5461,11 @@
         <v>24</v>
       </c>
       <c r="D90" s="8">
-        <v>0.788461538461538</v>
-      </c>
-      <c r="E90" s="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="E90" s="9">
+        <v>0.597402597402597</v>
+      </c>
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
       <c r="H90" s="10"/>
@@ -5434,12 +5480,14 @@
         <v>190</v>
       </c>
       <c r="C91" t="s" s="7">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D91" s="8">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="E91" s="9"/>
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E91" s="9">
+        <v>0.454545454545455</v>
+      </c>
       <c r="F91" s="10"/>
       <c r="G91" s="10"/>
       <c r="H91" s="10"/>
@@ -5448,19 +5496,19 @@
     </row>
     <row r="92" ht="14.35" customHeight="1">
       <c r="A92" t="s" s="7">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B92" t="s" s="7">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C92" t="s" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D92" s="8">
-        <v>0.75</v>
+        <v>0.634615384615385</v>
       </c>
       <c r="E92" s="9">
-        <v>0.558441558441558</v>
+        <v>0.38961038961039</v>
       </c>
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
@@ -5470,19 +5518,19 @@
     </row>
     <row r="93" ht="14.35" customHeight="1">
       <c r="A93" t="s" s="7">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B93" t="s" s="7">
         <v>193</v>
       </c>
       <c r="C93" t="s" s="7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D93" s="8">
-        <v>0.942307692307692</v>
+        <v>0.75</v>
       </c>
       <c r="E93" s="9">
-        <v>0.298701298701299</v>
+        <v>0.558441558441558</v>
       </c>
       <c r="F93" s="10"/>
       <c r="G93" s="10"/>
@@ -5498,12 +5546,14 @@
         <v>195</v>
       </c>
       <c r="C94" t="s" s="7">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D94" s="8">
-        <v>0.7692307692307691</v>
-      </c>
-      <c r="E94" s="9"/>
+        <v>0.942307692307692</v>
+      </c>
+      <c r="E94" s="9">
+        <v>0.298701298701299</v>
+      </c>
       <c r="F94" s="10"/>
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
@@ -5521,10 +5571,10 @@
         <v>27</v>
       </c>
       <c r="D95" s="8">
-        <v>0.634615384615385</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E95" s="9">
-        <v>0.272727272727273</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="F95" s="10"/>
       <c r="G95" s="10"/>
@@ -5543,10 +5593,10 @@
         <v>27</v>
       </c>
       <c r="D96" s="8">
-        <v>0.923076923076923</v>
+        <v>0.634615384615385</v>
       </c>
       <c r="E96" s="9">
-        <v>0.571428571428571</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
@@ -5562,13 +5612,13 @@
         <v>201</v>
       </c>
       <c r="C97" t="s" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D97" s="8">
-        <v>0.788461538461538</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="E97" s="9">
-        <v>0.5844155844155841</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
@@ -5584,13 +5634,13 @@
         <v>203</v>
       </c>
       <c r="C98" t="s" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D98" s="8">
         <v>0.788461538461538</v>
       </c>
       <c r="E98" s="9">
-        <v>0.363636363636364</v>
+        <v>0.5844155844155841</v>
       </c>
       <c r="F98" s="10"/>
       <c r="G98" s="10"/>
@@ -5609,9 +5659,11 @@
         <v>15</v>
       </c>
       <c r="D99" s="8">
-        <v>0.442307692307692</v>
-      </c>
-      <c r="E99" s="9"/>
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E99" s="9">
+        <v>0.363636363636364</v>
+      </c>
       <c r="F99" s="10"/>
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
@@ -5629,10 +5681,10 @@
         <v>15</v>
       </c>
       <c r="D100" s="8">
-        <v>0.711538461538462</v>
+        <v>0.442307692307692</v>
       </c>
       <c r="E100" s="9">
-        <v>0.428571428571429</v>
+        <v>0.441558441558442</v>
       </c>
       <c r="F100" s="10"/>
       <c r="G100" s="10"/>
@@ -5648,13 +5700,13 @@
         <v>209</v>
       </c>
       <c r="C101" t="s" s="7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D101" s="8">
-        <v>0.903846153846154</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="E101" s="9">
-        <v>0.662337662337662</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="F101" s="10"/>
       <c r="G101" s="10"/>
@@ -5670,13 +5722,13 @@
         <v>211</v>
       </c>
       <c r="C102" t="s" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D102" s="8">
-        <v>0.807692307692308</v>
+        <v>0.903846153846154</v>
       </c>
       <c r="E102" s="9">
-        <v>0.597402597402597</v>
+        <v>0.662337662337662</v>
       </c>
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
@@ -5691,12 +5743,14 @@
       <c r="B103" t="s" s="7">
         <v>213</v>
       </c>
-      <c r="C103" s="10"/>
-      <c r="D103" s="11">
-        <v>0</v>
+      <c r="C103" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="D103" s="8">
+        <v>0.807692307692308</v>
       </c>
       <c r="E103" s="9">
-        <v>0.493506493506494</v>
+        <v>0.597402597402597</v>
       </c>
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
@@ -5711,14 +5765,12 @@
       <c r="B104" t="s" s="7">
         <v>215</v>
       </c>
-      <c r="C104" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="D104" s="8">
-        <v>0.673076923076923</v>
+      <c r="C104" s="10"/>
+      <c r="D104" s="11">
+        <v>0</v>
       </c>
       <c r="E104" s="9">
-        <v>0.402597402597403</v>
+        <v>0.493506493506494</v>
       </c>
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
@@ -5733,12 +5785,14 @@
       <c r="B105" t="s" s="7">
         <v>217</v>
       </c>
-      <c r="C105" s="10"/>
+      <c r="C105" t="s" s="7">
+        <v>24</v>
+      </c>
       <c r="D105" s="8">
         <v>0.673076923076923</v>
       </c>
       <c r="E105" s="9">
-        <v>0.337662337662338</v>
+        <v>0.402597402597403</v>
       </c>
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
@@ -5753,13 +5807,13 @@
       <c r="B106" t="s" s="7">
         <v>219</v>
       </c>
-      <c r="C106" t="s" s="7">
-        <v>15</v>
-      </c>
+      <c r="C106" s="10"/>
       <c r="D106" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E106" s="9"/>
+        <v>0.673076923076923</v>
+      </c>
+      <c r="E106" s="9">
+        <v>0.337662337662338</v>
+      </c>
       <c r="F106" s="10"/>
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
@@ -5777,10 +5831,10 @@
         <v>15</v>
       </c>
       <c r="D107" s="8">
-        <v>0.846153846153846</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="E107" s="9">
-        <v>0.38961038961039</v>
+        <v>0.415584415584416</v>
       </c>
       <c r="F107" s="10"/>
       <c r="G107" s="10"/>
@@ -5796,13 +5850,13 @@
         <v>223</v>
       </c>
       <c r="C108" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D108" s="11">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="D108" s="8">
+        <v>0.846153846153846</v>
       </c>
       <c r="E108" s="9">
-        <v>0.376623376623377</v>
+        <v>0.38961038961039</v>
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
@@ -5818,13 +5872,13 @@
         <v>225</v>
       </c>
       <c r="C109" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D109" s="8">
-        <v>0.846153846153846</v>
+        <v>12</v>
+      </c>
+      <c r="D109" s="11">
+        <v>0</v>
       </c>
       <c r="E109" s="9">
-        <v>0.363636363636364</v>
+        <v>0.376623376623377</v>
       </c>
       <c r="F109" s="10"/>
       <c r="G109" s="10"/>
@@ -5840,13 +5894,13 @@
         <v>227</v>
       </c>
       <c r="C110" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D110" s="11">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="D110" s="8">
+        <v>0.846153846153846</v>
       </c>
       <c r="E110" s="9">
-        <v>0.636363636363636</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="F110" s="10"/>
       <c r="G110" s="10"/>
@@ -5862,13 +5916,13 @@
         <v>229</v>
       </c>
       <c r="C111" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D111" s="8">
-        <v>0.634615384615385</v>
+        <v>12</v>
+      </c>
+      <c r="D111" s="11">
+        <v>0</v>
       </c>
       <c r="E111" s="9">
-        <v>0.545454545454545</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="F111" s="10"/>
       <c r="G111" s="10"/>
@@ -5884,13 +5938,13 @@
         <v>231</v>
       </c>
       <c r="C112" t="s" s="7">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D112" s="8">
         <v>0.634615384615385</v>
       </c>
       <c r="E112" s="9">
-        <v>0.701298701298701</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="F112" s="10"/>
       <c r="G112" s="10"/>
@@ -5906,13 +5960,13 @@
         <v>233</v>
       </c>
       <c r="C113" t="s" s="7">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D113" s="8">
-        <v>0.711538461538462</v>
+        <v>0.634615384615385</v>
       </c>
       <c r="E113" s="9">
-        <v>0.675324675324675</v>
+        <v>0.701298701298701</v>
       </c>
       <c r="F113" s="10"/>
       <c r="G113" s="10"/>
@@ -5931,10 +5985,10 @@
         <v>12</v>
       </c>
       <c r="D114" s="8">
-        <v>0.7692307692307691</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="E114" s="9">
-        <v>0.5844155844155841</v>
+        <v>0.675324675324675</v>
       </c>
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
@@ -5950,13 +6004,13 @@
         <v>237</v>
       </c>
       <c r="C115" t="s" s="7">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D115" s="8">
-        <v>0.903846153846154</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E115" s="9">
-        <v>0.714285714285714</v>
+        <v>0.5844155844155841</v>
       </c>
       <c r="F115" s="10"/>
       <c r="G115" s="10"/>
@@ -5972,13 +6026,13 @@
         <v>239</v>
       </c>
       <c r="C116" t="s" s="7">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D116" s="8">
-        <v>0.942307692307692</v>
+        <v>0.903846153846154</v>
       </c>
       <c r="E116" s="9">
-        <v>0.532467532467532</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="F116" s="10"/>
       <c r="G116" s="10"/>
@@ -5994,13 +6048,13 @@
         <v>241</v>
       </c>
       <c r="C117" t="s" s="7">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D117" s="8">
-        <v>0.711538461538462</v>
+        <v>0.942307692307692</v>
       </c>
       <c r="E117" s="9">
-        <v>0.363636363636364</v>
+        <v>0.532467532467532</v>
       </c>
       <c r="F117" s="10"/>
       <c r="G117" s="10"/>
@@ -6016,13 +6070,13 @@
         <v>243</v>
       </c>
       <c r="C118" t="s" s="7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D118" s="8">
-        <v>0.615384615384615</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="E118" s="9">
-        <v>0.675324675324675</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="F118" s="10"/>
       <c r="G118" s="10"/>
@@ -6037,11 +6091,15 @@
       <c r="B119" t="s" s="7">
         <v>245</v>
       </c>
-      <c r="C119" s="10"/>
-      <c r="D119" s="11">
-        <v>0</v>
-      </c>
-      <c r="E119" s="9"/>
+      <c r="C119" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="D119" s="8">
+        <v>0.615384615384615</v>
+      </c>
+      <c r="E119" s="9">
+        <v>0.675324675324675</v>
+      </c>
       <c r="F119" s="10"/>
       <c r="G119" s="10"/>
       <c r="H119" s="10"/>
@@ -6056,13 +6114,13 @@
         <v>247</v>
       </c>
       <c r="C120" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D120" s="8">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="D120" s="11">
+        <v>0</v>
       </c>
       <c r="E120" s="9">
-        <v>0.532467532467532</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
@@ -6070,7 +6128,7 @@
       <c r="I120" s="10"/>
       <c r="J120" s="10"/>
     </row>
-    <row r="121" ht="28.35" customHeight="1">
+    <row r="121" ht="14.35" customHeight="1">
       <c r="A121" t="s" s="7">
         <v>248</v>
       </c>
@@ -6078,13 +6136,13 @@
         <v>249</v>
       </c>
       <c r="C121" t="s" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D121" s="8">
-        <v>0.846153846153846</v>
+        <v>0.75</v>
       </c>
       <c r="E121" s="9">
-        <v>0.25974025974026</v>
+        <v>0.532467532467532</v>
       </c>
       <c r="F121" s="10"/>
       <c r="G121" s="10"/>
@@ -6092,7 +6150,7 @@
       <c r="I121" s="10"/>
       <c r="J121" s="10"/>
     </row>
-    <row r="122" ht="14.35" customHeight="1">
+    <row r="122" ht="28.35" customHeight="1">
       <c r="A122" t="s" s="7">
         <v>250</v>
       </c>
@@ -6100,13 +6158,13 @@
         <v>251</v>
       </c>
       <c r="C122" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="D122" s="11">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="D122" s="8">
+        <v>0.846153846153846</v>
       </c>
       <c r="E122" s="9">
-        <v>0.428571428571429</v>
+        <v>0.25974025974026</v>
       </c>
       <c r="F122" s="10"/>
       <c r="G122" s="10"/>
@@ -6122,13 +6180,13 @@
         <v>253</v>
       </c>
       <c r="C123" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D123" s="8">
-        <v>0.711538461538462</v>
+        <v>24</v>
+      </c>
+      <c r="D123" s="11">
+        <v>0</v>
       </c>
       <c r="E123" s="9">
-        <v>0.597402597402597</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="F123" s="10"/>
       <c r="G123" s="10"/>
@@ -6143,12 +6201,14 @@
       <c r="B124" t="s" s="7">
         <v>255</v>
       </c>
-      <c r="C124" s="10"/>
-      <c r="D124" s="11">
-        <v>0</v>
+      <c r="C124" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="D124" s="8">
+        <v>0.711538461538462</v>
       </c>
       <c r="E124" s="9">
-        <v>0.194805194805195</v>
+        <v>0.597402597402597</v>
       </c>
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
@@ -6163,14 +6223,12 @@
       <c r="B125" t="s" s="7">
         <v>257</v>
       </c>
-      <c r="C125" t="s" s="7">
-        <v>15</v>
-      </c>
+      <c r="C125" s="10"/>
       <c r="D125" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125" s="9">
-        <v>0.402597402597403</v>
+        <v>0.194805194805195</v>
       </c>
       <c r="F125" s="10"/>
       <c r="G125" s="10"/>
@@ -6186,13 +6244,13 @@
         <v>259</v>
       </c>
       <c r="C126" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D126" s="8">
-        <v>0.788461538461538</v>
+        <v>15</v>
+      </c>
+      <c r="D126" s="11">
+        <v>1</v>
       </c>
       <c r="E126" s="9">
-        <v>0.701298701298701</v>
+        <v>0.402597402597403</v>
       </c>
       <c r="F126" s="10"/>
       <c r="G126" s="10"/>
@@ -6211,9 +6269,11 @@
         <v>12</v>
       </c>
       <c r="D127" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E127" s="9"/>
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E127" s="9">
+        <v>0.701298701298701</v>
+      </c>
       <c r="F127" s="10"/>
       <c r="G127" s="10"/>
       <c r="H127" s="10"/>
@@ -6228,13 +6288,13 @@
         <v>263</v>
       </c>
       <c r="C128" t="s" s="7">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D128" s="8">
-        <v>0.634615384615385</v>
+        <v>0.75</v>
       </c>
       <c r="E128" s="9">
-        <v>0.519480519480519</v>
+        <v>0.558441558441558</v>
       </c>
       <c r="F128" s="10"/>
       <c r="G128" s="10"/>
@@ -6250,13 +6310,13 @@
         <v>265</v>
       </c>
       <c r="C129" t="s" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D129" s="8">
-        <v>0.903846153846154</v>
+        <v>0.634615384615385</v>
       </c>
       <c r="E129" s="9">
-        <v>0.61038961038961</v>
+        <v>0.519480519480519</v>
       </c>
       <c r="F129" s="10"/>
       <c r="G129" s="10"/>
@@ -6272,13 +6332,13 @@
         <v>267</v>
       </c>
       <c r="C130" t="s" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D130" s="8">
-        <v>0.788461538461538</v>
+        <v>0.903846153846154</v>
       </c>
       <c r="E130" s="9">
-        <v>0.246753246753247</v>
+        <v>0.61038961038961</v>
       </c>
       <c r="F130" s="10"/>
       <c r="G130" s="10"/>
@@ -6293,12 +6353,14 @@
       <c r="B131" t="s" s="7">
         <v>269</v>
       </c>
-      <c r="C131" s="10"/>
+      <c r="C131" t="s" s="7">
+        <v>12</v>
+      </c>
       <c r="D131" s="8">
-        <v>0.673076923076923</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E131" s="9">
-        <v>0.571428571428571</v>
+        <v>0.246753246753247</v>
       </c>
       <c r="F131" s="10"/>
       <c r="G131" s="10"/>
@@ -6313,14 +6375,12 @@
       <c r="B132" t="s" s="7">
         <v>271</v>
       </c>
-      <c r="C132" t="s" s="7">
-        <v>12</v>
-      </c>
+      <c r="C132" s="10"/>
       <c r="D132" s="8">
-        <v>0.615384615384615</v>
+        <v>0.673076923076923</v>
       </c>
       <c r="E132" s="9">
-        <v>0.5844155844155841</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="F132" s="10"/>
       <c r="G132" s="10"/>
@@ -6336,13 +6396,13 @@
         <v>273</v>
       </c>
       <c r="C133" t="s" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D133" s="8">
-        <v>0.846153846153846</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E133" s="9">
-        <v>0.493506493506494</v>
+        <v>0.5844155844155841</v>
       </c>
       <c r="F133" s="10"/>
       <c r="G133" s="10"/>
@@ -6358,12 +6418,14 @@
         <v>275</v>
       </c>
       <c r="C134" t="s" s="7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D134" s="8">
-        <v>0.903846153846154</v>
-      </c>
-      <c r="E134" s="9"/>
+        <v>0.846153846153846</v>
+      </c>
+      <c r="E134" s="9">
+        <v>0.493506493506494</v>
+      </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10"/>
       <c r="H134" s="10"/>
@@ -6378,13 +6440,13 @@
         <v>277</v>
       </c>
       <c r="C135" t="s" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D135" s="8">
-        <v>0.711538461538462</v>
+        <v>0.903846153846154</v>
       </c>
       <c r="E135" s="9">
-        <v>0.5844155844155841</v>
+        <v>0.467532467532468</v>
       </c>
       <c r="F135" s="10"/>
       <c r="G135" s="10"/>
@@ -6402,11 +6464,11 @@
       <c r="C136" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D136" s="11">
-        <v>0</v>
+      <c r="D136" s="8">
+        <v>0.711538461538462</v>
       </c>
       <c r="E136" s="9">
-        <v>0.428571428571429</v>
+        <v>0.5844155844155841</v>
       </c>
       <c r="F136" s="10"/>
       <c r="G136" s="10"/>
@@ -6421,12 +6483,14 @@
       <c r="B137" t="s" s="7">
         <v>281</v>
       </c>
-      <c r="C137" s="10"/>
+      <c r="C137" t="s" s="7">
+        <v>15</v>
+      </c>
       <c r="D137" s="11">
         <v>0</v>
       </c>
       <c r="E137" s="9">
-        <v>0.675324675324675</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="F137" s="10"/>
       <c r="G137" s="10"/>
@@ -6441,13 +6505,13 @@
       <c r="B138" t="s" s="7">
         <v>283</v>
       </c>
-      <c r="C138" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D138" s="8">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="E138" s="9"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="11">
+        <v>0</v>
+      </c>
+      <c r="E138" s="9">
+        <v>0.675324675324675</v>
+      </c>
       <c r="F138" s="10"/>
       <c r="G138" s="10"/>
       <c r="H138" s="10"/>
@@ -6462,13 +6526,13 @@
         <v>285</v>
       </c>
       <c r="C139" t="s" s="7">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D139" s="8">
         <v>0.634615384615385</v>
       </c>
       <c r="E139" s="9">
-        <v>0.506493506493506</v>
+        <v>0.350649350649351</v>
       </c>
       <c r="F139" s="10"/>
       <c r="G139" s="10"/>
@@ -6484,13 +6548,13 @@
         <v>287</v>
       </c>
       <c r="C140" t="s" s="7">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D140" s="8">
         <v>0.634615384615385</v>
       </c>
       <c r="E140" s="9">
-        <v>0.571428571428571</v>
+        <v>0.506493506493506</v>
       </c>
       <c r="F140" s="10"/>
       <c r="G140" s="10"/>
@@ -6505,11 +6569,15 @@
       <c r="B141" t="s" s="7">
         <v>289</v>
       </c>
-      <c r="C141" s="10"/>
-      <c r="D141" s="11">
-        <v>0</v>
-      </c>
-      <c r="E141" s="9"/>
+      <c r="C141" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="D141" s="8">
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E141" s="9">
+        <v>0.571428571428571</v>
+      </c>
       <c r="F141" s="10"/>
       <c r="G141" s="10"/>
       <c r="H141" s="10"/>
@@ -6523,14 +6591,12 @@
       <c r="B142" t="s" s="7">
         <v>291</v>
       </c>
-      <c r="C142" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D142" s="8">
-        <v>0.75</v>
+      <c r="C142" s="10"/>
+      <c r="D142" s="11">
+        <v>0</v>
       </c>
       <c r="E142" s="9">
-        <v>0.38961038961039</v>
+        <v>0.337662337662338</v>
       </c>
       <c r="F142" s="10"/>
       <c r="G142" s="10"/>
@@ -6546,12 +6612,14 @@
         <v>293</v>
       </c>
       <c r="C143" t="s" s="7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D143" s="8">
         <v>0.75</v>
       </c>
-      <c r="E143" s="9"/>
+      <c r="E143" s="9">
+        <v>0.38961038961039</v>
+      </c>
       <c r="F143" s="10"/>
       <c r="G143" s="10"/>
       <c r="H143" s="10"/>
@@ -6568,11 +6636,11 @@
       <c r="C144" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="D144" s="11">
-        <v>0</v>
+      <c r="D144" s="8">
+        <v>0.75</v>
       </c>
       <c r="E144" s="9">
-        <v>0.597402597402597</v>
+        <v>0.493506493506494</v>
       </c>
       <c r="F144" s="10"/>
       <c r="G144" s="10"/>
@@ -6588,13 +6656,13 @@
         <v>297</v>
       </c>
       <c r="C145" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D145" s="8">
-        <v>0.923076923076923</v>
+        <v>27</v>
+      </c>
+      <c r="D145" s="11">
+        <v>0</v>
       </c>
       <c r="E145" s="9">
-        <v>0.649350649350649</v>
+        <v>0.597402597402597</v>
       </c>
       <c r="F145" s="10"/>
       <c r="G145" s="10"/>
@@ -6609,12 +6677,14 @@
       <c r="B146" t="s" s="7">
         <v>299</v>
       </c>
-      <c r="C146" s="10"/>
-      <c r="D146" s="11">
-        <v>0</v>
+      <c r="C146" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="D146" s="8">
+        <v>0.923076923076923</v>
       </c>
       <c r="E146" s="9">
-        <v>0.532467532467532</v>
+        <v>0.649350649350649</v>
       </c>
       <c r="F146" s="10"/>
       <c r="G146" s="10"/>
@@ -6629,11 +6699,9 @@
       <c r="B147" t="s" s="7">
         <v>301</v>
       </c>
-      <c r="C147" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D147" s="8">
-        <v>0.846153846153846</v>
+      <c r="C147" s="10"/>
+      <c r="D147" s="11">
+        <v>0</v>
       </c>
       <c r="E147" s="9">
         <v>0.532467532467532</v>
@@ -6654,11 +6722,11 @@
       <c r="C148" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D148" s="11">
-        <v>0</v>
+      <c r="D148" s="8">
+        <v>0.846153846153846</v>
       </c>
       <c r="E148" s="9">
-        <v>0.597402597402597</v>
+        <v>0.532467532467532</v>
       </c>
       <c r="F148" s="10"/>
       <c r="G148" s="10"/>
@@ -6674,13 +6742,13 @@
         <v>305</v>
       </c>
       <c r="C149" t="s" s="7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D149" s="11">
         <v>0</v>
       </c>
       <c r="E149" s="9">
-        <v>0.324675324675325</v>
+        <v>0.597402597402597</v>
       </c>
       <c r="F149" s="10"/>
       <c r="G149" s="10"/>
@@ -6698,11 +6766,11 @@
       <c r="C150" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="D150" s="8">
-        <v>0.634615384615385</v>
+      <c r="D150" s="11">
+        <v>0</v>
       </c>
       <c r="E150" s="9">
-        <v>0.350649350649351</v>
+        <v>0.324675324675325</v>
       </c>
       <c r="F150" s="10"/>
       <c r="G150" s="10"/>
@@ -6718,13 +6786,13 @@
         <v>309</v>
       </c>
       <c r="C151" t="s" s="7">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D151" s="8">
-        <v>0.711538461538462</v>
+        <v>0.634615384615385</v>
       </c>
       <c r="E151" s="9">
-        <v>0.506493506493506</v>
+        <v>0.350649350649351</v>
       </c>
       <c r="F151" s="10"/>
       <c r="G151" s="10"/>
@@ -6743,10 +6811,10 @@
         <v>12</v>
       </c>
       <c r="D152" s="8">
-        <v>0.942307692307692</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="E152" s="9">
-        <v>0.467532467532468</v>
+        <v>0.506493506493506</v>
       </c>
       <c r="F152" s="10"/>
       <c r="G152" s="10"/>
@@ -6762,13 +6830,13 @@
         <v>313</v>
       </c>
       <c r="C153" t="s" s="7">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D153" s="8">
-        <v>0.634615384615385</v>
+        <v>0.942307692307692</v>
       </c>
       <c r="E153" s="9">
-        <v>0.688311688311688</v>
+        <v>0.467532467532468</v>
       </c>
       <c r="F153" s="10"/>
       <c r="G153" s="10"/>
@@ -6784,13 +6852,13 @@
         <v>315</v>
       </c>
       <c r="C154" t="s" s="7">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D154" s="8">
-        <v>0.807692307692308</v>
+        <v>0.634615384615385</v>
       </c>
       <c r="E154" s="9">
-        <v>0.727272727272727</v>
+        <v>0.688311688311688</v>
       </c>
       <c r="F154" s="10"/>
       <c r="G154" s="10"/>
@@ -6805,12 +6873,14 @@
       <c r="B155" t="s" s="7">
         <v>317</v>
       </c>
-      <c r="C155" s="10"/>
-      <c r="D155" s="11">
-        <v>0</v>
+      <c r="C155" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="D155" s="8">
+        <v>0.807692307692308</v>
       </c>
       <c r="E155" s="9">
-        <v>0.493506493506494</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="F155" s="10"/>
       <c r="G155" s="10"/>
@@ -6825,14 +6895,12 @@
       <c r="B156" t="s" s="7">
         <v>319</v>
       </c>
-      <c r="C156" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D156" s="8">
-        <v>0.711538461538462</v>
+      <c r="C156" s="10"/>
+      <c r="D156" s="11">
+        <v>0</v>
       </c>
       <c r="E156" s="9">
-        <v>0.61038961038961</v>
+        <v>0.493506493506494</v>
       </c>
       <c r="F156" s="10"/>
       <c r="G156" s="10"/>
@@ -6847,12 +6915,14 @@
       <c r="B157" t="s" s="7">
         <v>321</v>
       </c>
-      <c r="C157" s="10"/>
-      <c r="D157" s="11">
-        <v>0</v>
+      <c r="C157" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="D157" s="8">
+        <v>0.711538461538462</v>
       </c>
       <c r="E157" s="9">
-        <v>0.506493506493506</v>
+        <v>0.61038961038961</v>
       </c>
       <c r="F157" s="10"/>
       <c r="G157" s="10"/>
@@ -6867,14 +6937,12 @@
       <c r="B158" t="s" s="7">
         <v>323</v>
       </c>
-      <c r="C158" t="s" s="7">
-        <v>12</v>
-      </c>
+      <c r="C158" s="10"/>
       <c r="D158" s="11">
         <v>0</v>
       </c>
       <c r="E158" s="9">
-        <v>0.636363636363636</v>
+        <v>0.506493506493506</v>
       </c>
       <c r="F158" s="10"/>
       <c r="G158" s="10"/>
@@ -6889,9 +6957,11 @@
       <c r="B159" t="s" s="7">
         <v>325</v>
       </c>
-      <c r="C159" s="10"/>
-      <c r="D159" s="8">
-        <v>0.75</v>
+      <c r="C159" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="D159" s="11">
+        <v>0</v>
       </c>
       <c r="E159" s="9">
         <v>0.636363636363636</v>
@@ -6909,14 +6979,12 @@
       <c r="B160" t="s" s="7">
         <v>327</v>
       </c>
-      <c r="C160" t="s" s="7">
-        <v>24</v>
-      </c>
+      <c r="C160" s="10"/>
       <c r="D160" s="8">
-        <v>0.788461538461538</v>
+        <v>0.75</v>
       </c>
       <c r="E160" s="9">
-        <v>0.467532467532468</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="F160" s="10"/>
       <c r="G160" s="10"/>
@@ -6932,13 +7000,13 @@
         <v>329</v>
       </c>
       <c r="C161" t="s" s="7">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D161" s="8">
-        <v>1</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E161" s="9">
-        <v>0.623376623376623</v>
+        <v>0.467532467532468</v>
       </c>
       <c r="F161" s="10"/>
       <c r="G161" s="10"/>
@@ -6957,9 +7025,11 @@
         <v>27</v>
       </c>
       <c r="D162" s="8">
-        <v>0.826923076923077</v>
-      </c>
-      <c r="E162" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="E162" s="9">
+        <v>0.623376623376623</v>
+      </c>
       <c r="F162" s="10"/>
       <c r="G162" s="10"/>
       <c r="H162" s="10"/>
@@ -6973,11 +7043,15 @@
       <c r="B163" t="s" s="7">
         <v>333</v>
       </c>
-      <c r="C163" s="10"/>
-      <c r="D163" s="11">
-        <v>0</v>
-      </c>
-      <c r="E163" s="9"/>
+      <c r="C163" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="D163" s="8">
+        <v>0.826923076923077</v>
+      </c>
+      <c r="E163" s="9">
+        <v>0.519480519480519</v>
+      </c>
       <c r="F163" s="10"/>
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
@@ -6992,13 +7066,13 @@
         <v>335</v>
       </c>
       <c r="C164" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D164" s="8">
-        <v>0.7692307692307691</v>
+        <v>12</v>
+      </c>
+      <c r="D164" s="11">
+        <v>0</v>
       </c>
       <c r="E164" s="9">
-        <v>0.636363636363636</v>
+        <v>0.480519480519481</v>
       </c>
       <c r="F164" s="10"/>
       <c r="G164" s="10"/>
@@ -7014,13 +7088,13 @@
         <v>337</v>
       </c>
       <c r="C165" t="s" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D165" s="8">
-        <v>0.711538461538462</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E165" s="9">
-        <v>0.402597402597403</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="F165" s="10"/>
       <c r="G165" s="10"/>
@@ -7039,10 +7113,10 @@
         <v>15</v>
       </c>
       <c r="D166" s="8">
-        <v>0.846153846153846</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="E166" s="9">
-        <v>0.532467532467532</v>
+        <v>0.402597402597403</v>
       </c>
       <c r="F166" s="10"/>
       <c r="G166" s="10"/>
@@ -7061,10 +7135,10 @@
         <v>15</v>
       </c>
       <c r="D167" s="8">
-        <v>0.788461538461538</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="E167" s="9">
-        <v>0.506493506493506</v>
+        <v>0.532467532467532</v>
       </c>
       <c r="F167" s="10"/>
       <c r="G167" s="10"/>
@@ -7080,19 +7154,41 @@
         <v>343</v>
       </c>
       <c r="C168" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D168" s="11">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="D168" s="8">
+        <v>0.788461538461538</v>
       </c>
       <c r="E168" s="9">
-        <v>0.545454545454545</v>
+        <v>0.506493506493506</v>
       </c>
       <c r="F168" s="10"/>
       <c r="G168" s="10"/>
       <c r="H168" s="10"/>
       <c r="I168" s="10"/>
       <c r="J168" s="10"/>
+    </row>
+    <row r="169" ht="14.35" customHeight="1">
+      <c r="A169" t="s" s="7">
+        <v>344</v>
+      </c>
+      <c r="B169" t="s" s="7">
+        <v>345</v>
+      </c>
+      <c r="C169" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="D169" s="11">
+        <v>1</v>
+      </c>
+      <c r="E169" s="9">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="F169" s="10"/>
+      <c r="G169" s="10"/>
+      <c r="H169" s="10"/>
+      <c r="I169" s="10"/>
+      <c r="J169" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7127,128 +7223,128 @@
     <hyperlink ref="B31" r:id="rId29" location="" tooltip="" display="H220131R@hit.ac.zw"/>
     <hyperlink ref="B33" r:id="rId30" location="" tooltip="" display="H220144F@hit.ac.zw"/>
     <hyperlink ref="B34" r:id="rId31" location="" tooltip="" display="H220018Y@hit.ac.zw"/>
-    <hyperlink ref="B35" r:id="rId32" location="" tooltip="" display="H220476V@hit.ac.zw"/>
-    <hyperlink ref="B36" r:id="rId33" location="" tooltip="" display="H220075W@hit.ac.zw"/>
-    <hyperlink ref="B37" r:id="rId34" location="" tooltip="" display="H220283P@hit.ac.zw"/>
-    <hyperlink ref="B39" r:id="rId35" location="" tooltip="" display="H220023E@hit.ac.zw"/>
-    <hyperlink ref="B40" r:id="rId36" location="" tooltip="" display="H220202J@hit.ac.zw"/>
-    <hyperlink ref="B42" r:id="rId37" location="" tooltip="" display="H220431M@hit.ac.zw"/>
-    <hyperlink ref="B43" r:id="rId38" location="" tooltip="" display="H220218P@hit.ac.zw"/>
-    <hyperlink ref="B44" r:id="rId39" location="" tooltip="" display="H220494C@hit.ac.zw"/>
-    <hyperlink ref="B45" r:id="rId40" location="" tooltip="" display="H220582T@hit.ac.zw"/>
-    <hyperlink ref="B46" r:id="rId41" location="" tooltip="" display="H220084C@hit.ac.zw"/>
-    <hyperlink ref="B48" r:id="rId42" location="" tooltip="" display="H220343Y@hit.ac.zw"/>
-    <hyperlink ref="B49" r:id="rId43" location="" tooltip="" display="H220508Q@hit.ac.zw"/>
-    <hyperlink ref="B50" r:id="rId44" location="" tooltip="" display="H220349M@hit.ac.zw"/>
-    <hyperlink ref="B51" r:id="rId45" location="" tooltip="" display="H220045P@hit.ac.zw"/>
-    <hyperlink ref="B52" r:id="rId46" location="" tooltip="" display="H220038B@hit.ac.zw"/>
-    <hyperlink ref="B54" r:id="rId47" location="" tooltip="" display="H220480A@hit.ac.zw"/>
-    <hyperlink ref="B55" r:id="rId48" location="" tooltip="" display="H220052N@hit.ac.zw"/>
-    <hyperlink ref="B56" r:id="rId49" location="" tooltip="" display="H220379X@hit.ac.zw"/>
-    <hyperlink ref="B57" r:id="rId50" location="" tooltip="" display="H220281P@hit.ac.zw"/>
-    <hyperlink ref="B58" r:id="rId51" location="" tooltip="" display="H220413B@hit.ac.zw"/>
-    <hyperlink ref="B59" r:id="rId52" location="" tooltip="" display="H220042V@hit.ac.zw"/>
-    <hyperlink ref="B60" r:id="rId53" location="" tooltip="" display="H220153W@hit.ac.zw"/>
-    <hyperlink ref="B61" r:id="rId54" location="" tooltip="" display="H220094W@hit.ac.zw"/>
-    <hyperlink ref="B62" r:id="rId55" location="" tooltip="" display="H220230R@hit.ac.zw"/>
-    <hyperlink ref="B63" r:id="rId56" location="" tooltip="" display="H220122N@hit.ac.zw"/>
-    <hyperlink ref="B64" r:id="rId57" location="" tooltip="" display="H220152Q@hit.ac.zw"/>
-    <hyperlink ref="B66" r:id="rId58" location="" tooltip="" display="H220585W@hit.ac.zw"/>
-    <hyperlink ref="B67" r:id="rId59" location="" tooltip="" display="H220047M@hit.ac.zw"/>
-    <hyperlink ref="B68" r:id="rId60" location="" tooltip="" display="H220483J@hit.ac.zw"/>
-    <hyperlink ref="B69" r:id="rId61" location="" tooltip="" display="H220015F@hit.ac.zw"/>
-    <hyperlink ref="B70" r:id="rId62" location="" tooltip="" display="H220184Z@hit.ac.zw"/>
-    <hyperlink ref="B71" r:id="rId63" location="" tooltip="" display="H220392X@hit.ac.zw"/>
-    <hyperlink ref="B72" r:id="rId64" location="" tooltip="" display="H220187N@hit.ac.zw"/>
-    <hyperlink ref="B73" r:id="rId65" location="" tooltip="" display="H220421Y@hit.ac.zw"/>
-    <hyperlink ref="B75" r:id="rId66" location="" tooltip="" display="h200799c@hit.ac.zw"/>
-    <hyperlink ref="B77" r:id="rId67" location="" tooltip="" display="H220211V@hit.ac.zw"/>
-    <hyperlink ref="B78" r:id="rId68" location="" tooltip="" display="H220623Z@hit.ac.zw"/>
-    <hyperlink ref="B79" r:id="rId69" location="" tooltip="" display="H220315H@hit.ac.zw"/>
-    <hyperlink ref="B80" r:id="rId70" location="" tooltip="" display="H220063V@hit.ac.zw"/>
-    <hyperlink ref="B81" r:id="rId71" location="" tooltip="" display="H220019B@hit.ac.zw"/>
-    <hyperlink ref="B82" r:id="rId72" location="" tooltip="" display="H220316P@hit.ac.zw"/>
-    <hyperlink ref="B83" r:id="rId73" location="" tooltip="" display="H220550G@hit.ac.zw"/>
-    <hyperlink ref="B84" r:id="rId74" location="" tooltip="" display="H220004A@hit.ac.zw"/>
-    <hyperlink ref="B85" r:id="rId75" location="" tooltip="" display="H220133W@hit.ac.zw"/>
-    <hyperlink ref="B86" r:id="rId76" location="" tooltip="" display="H220313E@hit.ac.zw"/>
-    <hyperlink ref="B87" r:id="rId77" location="" tooltip="" display="H220427Q@hit.ac.zw"/>
-    <hyperlink ref="B88" r:id="rId78" location="" tooltip="" display="H220070V@hit.ac.zw"/>
-    <hyperlink ref="B89" r:id="rId79" location="" tooltip="" display="H220325F@hit.ac.zw"/>
-    <hyperlink ref="B90" r:id="rId80" location="" tooltip="" display="H220478P@hit.ac.zw"/>
-    <hyperlink ref="B91" r:id="rId81" location="" tooltip="" display="h180617h@hit.ac.zw"/>
-    <hyperlink ref="B92" r:id="rId82" location="" tooltip="" display="H220260C@hit.ac.zw"/>
-    <hyperlink ref="B93" r:id="rId83" location="" tooltip="" display="H220624V@hit.ac.zw"/>
-    <hyperlink ref="B94" r:id="rId84" location="" tooltip="" display="H220231W@hit.ac.zw"/>
-    <hyperlink ref="B95" r:id="rId85" location="" tooltip="" display="H220503P@hit.ac.zw"/>
-    <hyperlink ref="B96" r:id="rId86" location="" tooltip="" display="H220130J@hit.ac.zw"/>
-    <hyperlink ref="B97" r:id="rId87" location="" tooltip="" display="H220086F@hit.ac.zw"/>
-    <hyperlink ref="B98" r:id="rId88" location="" tooltip="" display="H220010Q@hit.ac.zw"/>
-    <hyperlink ref="B99" r:id="rId89" location="" tooltip="" display="h180134p@hit.ac.zw"/>
-    <hyperlink ref="B100" r:id="rId90" location="" tooltip="" display="H220564G@hit.ac.zw"/>
-    <hyperlink ref="B101" r:id="rId91" location="" tooltip="" display="H220462G@hit.ac.zw"/>
-    <hyperlink ref="B102" r:id="rId92" location="" tooltip="" display="H220204H@hit.ac.zw"/>
-    <hyperlink ref="B103" r:id="rId93" location="" tooltip="" display="H220516A@hit.ac.zw"/>
-    <hyperlink ref="B104" r:id="rId94" location="" tooltip="" display="H220183B@hit.ac.zw"/>
-    <hyperlink ref="B105" r:id="rId95" location="" tooltip="" display="H220449Q@hit.ac.zw"/>
-    <hyperlink ref="B107" r:id="rId96" location="" tooltip="" display="H220273W@hit.ac.zw"/>
-    <hyperlink ref="B108" r:id="rId97" location="" tooltip="" display="H220087E@hit.ac.zw"/>
-    <hyperlink ref="B109" r:id="rId98" location="" tooltip="" display="H220033G@hit.ac.zw"/>
-    <hyperlink ref="B110" r:id="rId99" location="" tooltip="" display="H220269E@hit.ac.zw"/>
-    <hyperlink ref="B111" r:id="rId100" location="" tooltip="" display="H220595W@hit.ac.zw"/>
-    <hyperlink ref="B112" r:id="rId101" location="" tooltip="" display="H220591F@hit.ac.zw"/>
-    <hyperlink ref="B113" r:id="rId102" location="" tooltip="" display="H220221G@hit.ac.zw"/>
-    <hyperlink ref="B115" r:id="rId103" location="" tooltip="" display="H220242Z@hit.ac.zw"/>
-    <hyperlink ref="B116" r:id="rId104" location="" tooltip="" display="H220348B@hit.ac.zw"/>
-    <hyperlink ref="B117" r:id="rId105" location="" tooltip="" display="H220418Y@hit.ac.zw"/>
-    <hyperlink ref="B118" r:id="rId106" location="" tooltip="" display="H220450T@hit.ac.zw"/>
-    <hyperlink ref="B119" r:id="rId107" location="" tooltip="" display="H220333Q@hit.ac.zw"/>
-    <hyperlink ref="B120" r:id="rId108" location="" tooltip="" display="H220320J@hit.ac.zw"/>
-    <hyperlink ref="B121" r:id="rId109" location="" tooltip="" display="H220311Y@hit.ac.zw"/>
-    <hyperlink ref="B122" r:id="rId110" location="" tooltip="" display="H220138M@hit.ac.zw"/>
-    <hyperlink ref="B123" r:id="rId111" location="" tooltip="" display="h210574b@hit.ac.zw"/>
-    <hyperlink ref="B126" r:id="rId112" location="" tooltip="" display="H220197V@hit.ac.zw"/>
-    <hyperlink ref="B127" r:id="rId113" location="" tooltip="" display="H220247A@hit.ac.zw"/>
-    <hyperlink ref="B128" r:id="rId114" location="" tooltip="" display="H220432X@hit.ac.zw"/>
-    <hyperlink ref="B129" r:id="rId115" location="" tooltip="" display="H220223N@hit.ac.zw"/>
-    <hyperlink ref="B131" r:id="rId116" location="" tooltip="" display="H220272P@hit.ac.zw"/>
-    <hyperlink ref="B132" r:id="rId117" location="" tooltip="" display="H220615W@hit.ac.zw"/>
-    <hyperlink ref="B133" r:id="rId118" location="" tooltip="" display="H220196A@hit.ac.zw"/>
-    <hyperlink ref="B134" r:id="rId119" location="" tooltip="" display="h220535v@hit.ac.zw"/>
-    <hyperlink ref="B135" r:id="rId120" location="" tooltip="" display="h220688a@hit.ac.zw"/>
-    <hyperlink ref="B136" r:id="rId121" location="" tooltip="" display="H220026H@hit.ac.zw"/>
-    <hyperlink ref="B137" r:id="rId122" location="" tooltip="" display="H220533P@hit.ac.zw"/>
-    <hyperlink ref="B138" r:id="rId123" location="" tooltip="" display="H220435X@hit.ac.zw"/>
-    <hyperlink ref="B139" r:id="rId124" location="" tooltip="" display="H220225C@hit.ac.zw"/>
-    <hyperlink ref="B140" r:id="rId125" location="" tooltip="" display="H220198F@hit.ac.zw"/>
-    <hyperlink ref="B141" r:id="rId126" location="" tooltip="" display="H220290G@hit.ac.zw"/>
-    <hyperlink ref="B142" r:id="rId127" location="" tooltip="" display="H220147B@hit.ac.zw"/>
-    <hyperlink ref="B143" r:id="rId128" location="" tooltip="" display="H220076E@hit.ac.zw"/>
-    <hyperlink ref="B144" r:id="rId129" location="" tooltip="" display="H220129A@hit.ac.zw"/>
-    <hyperlink ref="B145" r:id="rId130" location="" tooltip="" display="H220243A@hit.ac.zw"/>
-    <hyperlink ref="B146" r:id="rId131" location="" tooltip="" display="H220554M@hit.ac.zw"/>
-    <hyperlink ref="B147" r:id="rId132" location="" tooltip="" display="H220415J@hit.ac.zw"/>
-    <hyperlink ref="B148" r:id="rId133" location="" tooltip="" display="H220439A@hit.ac.zw"/>
-    <hyperlink ref="B149" r:id="rId134" location="" tooltip="" display="H220390X@hit.ac.zw"/>
-    <hyperlink ref="B150" r:id="rId135" location="" tooltip="" display="H220536M@hit.ac.zw"/>
-    <hyperlink ref="B151" r:id="rId136" location="" tooltip="" display="H220189E@hit.ac.zw"/>
-    <hyperlink ref="B152" r:id="rId137" location="" tooltip="" display="H220146J@hit.ac.zw"/>
-    <hyperlink ref="B153" r:id="rId138" location="" tooltip="" display="H220179T@hit.ac.zw"/>
-    <hyperlink ref="B154" r:id="rId139" location="" tooltip="" display="H220057B@hit.ac.zw"/>
-    <hyperlink ref="B155" r:id="rId140" location="" tooltip="" display="H220586J@hit.ac.zw"/>
-    <hyperlink ref="B156" r:id="rId141" location="" tooltip="" display="H220417Y@hit.ac.zw"/>
-    <hyperlink ref="B157" r:id="rId142" location="" tooltip="" display="H220553G@hit.ac.zw"/>
-    <hyperlink ref="B158" r:id="rId143" location="" tooltip="" display="H220250Q@hit.ac.zw"/>
-    <hyperlink ref="B159" r:id="rId144" location="" tooltip="" display="H220652T@hit.ac.zw"/>
-    <hyperlink ref="B160" r:id="rId145" location="" tooltip="" display="H220426Q@hit.ac.zw"/>
-    <hyperlink ref="B161" r:id="rId146" location="" tooltip="" display="H220072Y@hit.ac.zw"/>
-    <hyperlink ref="B162" r:id="rId147" location="" tooltip="" display="H220028G@hit.ac.zw"/>
-    <hyperlink ref="B163" r:id="rId148" location="" tooltip="" display="H220081X@hit.ac.zw"/>
-    <hyperlink ref="B164" r:id="rId149" location="" tooltip="" display="h210371h@hit.ac.zw"/>
-    <hyperlink ref="B165" r:id="rId150" location="" tooltip="" display="H220105E@hit.ac.zw"/>
-    <hyperlink ref="B166" r:id="rId151" location="" tooltip="" display="H220215E@hit.ac.zw"/>
-    <hyperlink ref="B167" r:id="rId152" location="" tooltip="" display="H220537B@hit.ac.zw"/>
-    <hyperlink ref="B168" r:id="rId153" location="" tooltip="" display="H220411Q@hit.ac.zw"/>
+    <hyperlink ref="B36" r:id="rId32" location="" tooltip="" display="H220476V@hit.ac.zw"/>
+    <hyperlink ref="B37" r:id="rId33" location="" tooltip="" display="H220075W@hit.ac.zw"/>
+    <hyperlink ref="B38" r:id="rId34" location="" tooltip="" display="H220283P@hit.ac.zw"/>
+    <hyperlink ref="B40" r:id="rId35" location="" tooltip="" display="H220023E@hit.ac.zw"/>
+    <hyperlink ref="B41" r:id="rId36" location="" tooltip="" display="H220202J@hit.ac.zw"/>
+    <hyperlink ref="B43" r:id="rId37" location="" tooltip="" display="H220431M@hit.ac.zw"/>
+    <hyperlink ref="B44" r:id="rId38" location="" tooltip="" display="H220218P@hit.ac.zw"/>
+    <hyperlink ref="B45" r:id="rId39" location="" tooltip="" display="H220494C@hit.ac.zw"/>
+    <hyperlink ref="B46" r:id="rId40" location="" tooltip="" display="H220582T@hit.ac.zw"/>
+    <hyperlink ref="B47" r:id="rId41" location="" tooltip="" display="H220084C@hit.ac.zw"/>
+    <hyperlink ref="B49" r:id="rId42" location="" tooltip="" display="H220343Y@hit.ac.zw"/>
+    <hyperlink ref="B50" r:id="rId43" location="" tooltip="" display="H220508Q@hit.ac.zw"/>
+    <hyperlink ref="B51" r:id="rId44" location="" tooltip="" display="H220349M@hit.ac.zw"/>
+    <hyperlink ref="B52" r:id="rId45" location="" tooltip="" display="H220045P@hit.ac.zw"/>
+    <hyperlink ref="B53" r:id="rId46" location="" tooltip="" display="H220038B@hit.ac.zw"/>
+    <hyperlink ref="B55" r:id="rId47" location="" tooltip="" display="H220480A@hit.ac.zw"/>
+    <hyperlink ref="B56" r:id="rId48" location="" tooltip="" display="H220052N@hit.ac.zw"/>
+    <hyperlink ref="B57" r:id="rId49" location="" tooltip="" display="H220379X@hit.ac.zw"/>
+    <hyperlink ref="B58" r:id="rId50" location="" tooltip="" display="H220281P@hit.ac.zw"/>
+    <hyperlink ref="B59" r:id="rId51" location="" tooltip="" display="H220413B@hit.ac.zw"/>
+    <hyperlink ref="B60" r:id="rId52" location="" tooltip="" display="H220042V@hit.ac.zw"/>
+    <hyperlink ref="B61" r:id="rId53" location="" tooltip="" display="H220153W@hit.ac.zw"/>
+    <hyperlink ref="B62" r:id="rId54" location="" tooltip="" display="H220094W@hit.ac.zw"/>
+    <hyperlink ref="B63" r:id="rId55" location="" tooltip="" display="H220230R@hit.ac.zw"/>
+    <hyperlink ref="B64" r:id="rId56" location="" tooltip="" display="H220122N@hit.ac.zw"/>
+    <hyperlink ref="B65" r:id="rId57" location="" tooltip="" display="H220152Q@hit.ac.zw"/>
+    <hyperlink ref="B67" r:id="rId58" location="" tooltip="" display="H220585W@hit.ac.zw"/>
+    <hyperlink ref="B68" r:id="rId59" location="" tooltip="" display="H220047M@hit.ac.zw"/>
+    <hyperlink ref="B69" r:id="rId60" location="" tooltip="" display="H220483J@hit.ac.zw"/>
+    <hyperlink ref="B70" r:id="rId61" location="" tooltip="" display="H220015F@hit.ac.zw"/>
+    <hyperlink ref="B71" r:id="rId62" location="" tooltip="" display="H220184Z@hit.ac.zw"/>
+    <hyperlink ref="B72" r:id="rId63" location="" tooltip="" display="H220392X@hit.ac.zw"/>
+    <hyperlink ref="B73" r:id="rId64" location="" tooltip="" display="H220187N@hit.ac.zw"/>
+    <hyperlink ref="B74" r:id="rId65" location="" tooltip="" display="H220421Y@hit.ac.zw"/>
+    <hyperlink ref="B76" r:id="rId66" location="" tooltip="" display="h200799c@hit.ac.zw"/>
+    <hyperlink ref="B78" r:id="rId67" location="" tooltip="" display="H220211V@hit.ac.zw"/>
+    <hyperlink ref="B79" r:id="rId68" location="" tooltip="" display="H220623Z@hit.ac.zw"/>
+    <hyperlink ref="B80" r:id="rId69" location="" tooltip="" display="H220315H@hit.ac.zw"/>
+    <hyperlink ref="B81" r:id="rId70" location="" tooltip="" display="H220063V@hit.ac.zw"/>
+    <hyperlink ref="B82" r:id="rId71" location="" tooltip="" display="H220019B@hit.ac.zw"/>
+    <hyperlink ref="B83" r:id="rId72" location="" tooltip="" display="H220316P@hit.ac.zw"/>
+    <hyperlink ref="B84" r:id="rId73" location="" tooltip="" display="H220550G@hit.ac.zw"/>
+    <hyperlink ref="B85" r:id="rId74" location="" tooltip="" display="H220004A@hit.ac.zw"/>
+    <hyperlink ref="B86" r:id="rId75" location="" tooltip="" display="H220133W@hit.ac.zw"/>
+    <hyperlink ref="B87" r:id="rId76" location="" tooltip="" display="H220313E@hit.ac.zw"/>
+    <hyperlink ref="B88" r:id="rId77" location="" tooltip="" display="H220427Q@hit.ac.zw"/>
+    <hyperlink ref="B89" r:id="rId78" location="" tooltip="" display="H220070V@hit.ac.zw"/>
+    <hyperlink ref="B90" r:id="rId79" location="" tooltip="" display="H220325F@hit.ac.zw"/>
+    <hyperlink ref="B91" r:id="rId80" location="" tooltip="" display="H220478P@hit.ac.zw"/>
+    <hyperlink ref="B92" r:id="rId81" location="" tooltip="" display="h180617h@hit.ac.zw"/>
+    <hyperlink ref="B93" r:id="rId82" location="" tooltip="" display="H220260C@hit.ac.zw"/>
+    <hyperlink ref="B94" r:id="rId83" location="" tooltip="" display="H220624V@hit.ac.zw"/>
+    <hyperlink ref="B95" r:id="rId84" location="" tooltip="" display="H220231W@hit.ac.zw"/>
+    <hyperlink ref="B96" r:id="rId85" location="" tooltip="" display="H220503P@hit.ac.zw"/>
+    <hyperlink ref="B97" r:id="rId86" location="" tooltip="" display="H220130J@hit.ac.zw"/>
+    <hyperlink ref="B98" r:id="rId87" location="" tooltip="" display="H220086F@hit.ac.zw"/>
+    <hyperlink ref="B99" r:id="rId88" location="" tooltip="" display="H220010Q@hit.ac.zw"/>
+    <hyperlink ref="B100" r:id="rId89" location="" tooltip="" display="h180134p@hit.ac.zw"/>
+    <hyperlink ref="B101" r:id="rId90" location="" tooltip="" display="H220564G@hit.ac.zw"/>
+    <hyperlink ref="B102" r:id="rId91" location="" tooltip="" display="H220462G@hit.ac.zw"/>
+    <hyperlink ref="B103" r:id="rId92" location="" tooltip="" display="H220204H@hit.ac.zw"/>
+    <hyperlink ref="B104" r:id="rId93" location="" tooltip="" display="H220516A@hit.ac.zw"/>
+    <hyperlink ref="B105" r:id="rId94" location="" tooltip="" display="H220183B@hit.ac.zw"/>
+    <hyperlink ref="B106" r:id="rId95" location="" tooltip="" display="H220449Q@hit.ac.zw"/>
+    <hyperlink ref="B108" r:id="rId96" location="" tooltip="" display="H220273W@hit.ac.zw"/>
+    <hyperlink ref="B109" r:id="rId97" location="" tooltip="" display="H220087E@hit.ac.zw"/>
+    <hyperlink ref="B110" r:id="rId98" location="" tooltip="" display="H220033G@hit.ac.zw"/>
+    <hyperlink ref="B111" r:id="rId99" location="" tooltip="" display="H220269E@hit.ac.zw"/>
+    <hyperlink ref="B112" r:id="rId100" location="" tooltip="" display="H220595W@hit.ac.zw"/>
+    <hyperlink ref="B113" r:id="rId101" location="" tooltip="" display="H220591F@hit.ac.zw"/>
+    <hyperlink ref="B114" r:id="rId102" location="" tooltip="" display="H220221G@hit.ac.zw"/>
+    <hyperlink ref="B116" r:id="rId103" location="" tooltip="" display="H220242Z@hit.ac.zw"/>
+    <hyperlink ref="B117" r:id="rId104" location="" tooltip="" display="H220348B@hit.ac.zw"/>
+    <hyperlink ref="B118" r:id="rId105" location="" tooltip="" display="H220418Y@hit.ac.zw"/>
+    <hyperlink ref="B119" r:id="rId106" location="" tooltip="" display="H220450T@hit.ac.zw"/>
+    <hyperlink ref="B120" r:id="rId107" location="" tooltip="" display="H220333Q@hit.ac.zw"/>
+    <hyperlink ref="B121" r:id="rId108" location="" tooltip="" display="H220320J@hit.ac.zw"/>
+    <hyperlink ref="B122" r:id="rId109" location="" tooltip="" display="H220311Y@hit.ac.zw"/>
+    <hyperlink ref="B123" r:id="rId110" location="" tooltip="" display="H220138M@hit.ac.zw"/>
+    <hyperlink ref="B124" r:id="rId111" location="" tooltip="" display="h210574b@hit.ac.zw"/>
+    <hyperlink ref="B127" r:id="rId112" location="" tooltip="" display="H220197V@hit.ac.zw"/>
+    <hyperlink ref="B128" r:id="rId113" location="" tooltip="" display="H220247A@hit.ac.zw"/>
+    <hyperlink ref="B129" r:id="rId114" location="" tooltip="" display="H220432X@hit.ac.zw"/>
+    <hyperlink ref="B130" r:id="rId115" location="" tooltip="" display="H220223N@hit.ac.zw"/>
+    <hyperlink ref="B132" r:id="rId116" location="" tooltip="" display="H220272P@hit.ac.zw"/>
+    <hyperlink ref="B133" r:id="rId117" location="" tooltip="" display="H220615W@hit.ac.zw"/>
+    <hyperlink ref="B134" r:id="rId118" location="" tooltip="" display="H220196A@hit.ac.zw"/>
+    <hyperlink ref="B135" r:id="rId119" location="" tooltip="" display="h220535v@hit.ac.zw"/>
+    <hyperlink ref="B136" r:id="rId120" location="" tooltip="" display="h220688a@hit.ac.zw"/>
+    <hyperlink ref="B137" r:id="rId121" location="" tooltip="" display="H220026H@hit.ac.zw"/>
+    <hyperlink ref="B138" r:id="rId122" location="" tooltip="" display="H220533P@hit.ac.zw"/>
+    <hyperlink ref="B139" r:id="rId123" location="" tooltip="" display="H220435X@hit.ac.zw"/>
+    <hyperlink ref="B140" r:id="rId124" location="" tooltip="" display="H220225C@hit.ac.zw"/>
+    <hyperlink ref="B141" r:id="rId125" location="" tooltip="" display="H220198F@hit.ac.zw"/>
+    <hyperlink ref="B142" r:id="rId126" location="" tooltip="" display="H220290G@hit.ac.zw"/>
+    <hyperlink ref="B143" r:id="rId127" location="" tooltip="" display="H220147B@hit.ac.zw"/>
+    <hyperlink ref="B144" r:id="rId128" location="" tooltip="" display="H220076E@hit.ac.zw"/>
+    <hyperlink ref="B145" r:id="rId129" location="" tooltip="" display="H220129A@hit.ac.zw"/>
+    <hyperlink ref="B146" r:id="rId130" location="" tooltip="" display="H220243A@hit.ac.zw"/>
+    <hyperlink ref="B147" r:id="rId131" location="" tooltip="" display="H220554M@hit.ac.zw"/>
+    <hyperlink ref="B148" r:id="rId132" location="" tooltip="" display="H220415J@hit.ac.zw"/>
+    <hyperlink ref="B149" r:id="rId133" location="" tooltip="" display="H220439A@hit.ac.zw"/>
+    <hyperlink ref="B150" r:id="rId134" location="" tooltip="" display="H220390X@hit.ac.zw"/>
+    <hyperlink ref="B151" r:id="rId135" location="" tooltip="" display="H220536M@hit.ac.zw"/>
+    <hyperlink ref="B152" r:id="rId136" location="" tooltip="" display="H220189E@hit.ac.zw"/>
+    <hyperlink ref="B153" r:id="rId137" location="" tooltip="" display="H220146J@hit.ac.zw"/>
+    <hyperlink ref="B154" r:id="rId138" location="" tooltip="" display="H220179T@hit.ac.zw"/>
+    <hyperlink ref="B155" r:id="rId139" location="" tooltip="" display="H220057B@hit.ac.zw"/>
+    <hyperlink ref="B156" r:id="rId140" location="" tooltip="" display="H220586J@hit.ac.zw"/>
+    <hyperlink ref="B157" r:id="rId141" location="" tooltip="" display="H220417Y@hit.ac.zw"/>
+    <hyperlink ref="B158" r:id="rId142" location="" tooltip="" display="H220553G@hit.ac.zw"/>
+    <hyperlink ref="B159" r:id="rId143" location="" tooltip="" display="H220250Q@hit.ac.zw"/>
+    <hyperlink ref="B160" r:id="rId144" location="" tooltip="" display="H220652T@hit.ac.zw"/>
+    <hyperlink ref="B161" r:id="rId145" location="" tooltip="" display="H220426Q@hit.ac.zw"/>
+    <hyperlink ref="B162" r:id="rId146" location="" tooltip="" display="H220072Y@hit.ac.zw"/>
+    <hyperlink ref="B163" r:id="rId147" location="" tooltip="" display="H220028G@hit.ac.zw"/>
+    <hyperlink ref="B164" r:id="rId148" location="" tooltip="" display="H220081X@hit.ac.zw"/>
+    <hyperlink ref="B165" r:id="rId149" location="" tooltip="" display="h210371h@hit.ac.zw"/>
+    <hyperlink ref="B166" r:id="rId150" location="" tooltip="" display="H220105E@hit.ac.zw"/>
+    <hyperlink ref="B167" r:id="rId151" location="" tooltip="" display="H220215E@hit.ac.zw"/>
+    <hyperlink ref="B168" r:id="rId152" location="" tooltip="" display="H220537B@hit.ac.zw"/>
+    <hyperlink ref="B169" r:id="rId153" location="" tooltip="" display="H220411Q@hit.ac.zw"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/cw11042022.xlsx
+++ b/cw11042022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="356">
   <si>
     <t>Surname</t>
   </si>
@@ -25,21 +25,21 @@
     <t>AS_1</t>
   </si>
   <si>
+    <t>AS_2</t>
+  </si>
+  <si>
+    <t>AS_3</t>
+  </si>
+  <si>
+    <t>Quiz_1</t>
+  </si>
+  <si>
     <t>Test_1</t>
   </si>
   <si>
     <t>Test_2</t>
   </si>
   <si>
-    <t>AS_2</t>
-  </si>
-  <si>
-    <t>Quiz_1</t>
-  </si>
-  <si>
-    <t>AS_3</t>
-  </si>
-  <si>
     <t>CW</t>
   </si>
   <si>
@@ -119,6 +119,9 @@
     </r>
   </si>
   <si>
+    <t>IT</t>
+  </si>
+  <si>
     <t>Chadzinga</t>
   </si>
   <si>
@@ -133,9 +136,6 @@
     </r>
   </si>
   <si>
-    <t>IT</t>
-  </si>
-  <si>
     <t>Chakwizira</t>
   </si>
   <si>
@@ -223,6 +223,18 @@
     </r>
   </si>
   <si>
+    <t>Chidyamapuka</t>
+  </si>
+  <si>
+    <t>H220746R</t>
+  </si>
+  <si>
+    <t>Chigudududze</t>
+  </si>
+  <si>
+    <t>H220730V</t>
+  </si>
+  <si>
     <t>Chigwa</t>
   </si>
   <si>
@@ -535,6 +547,9 @@
     <t>Dube</t>
   </si>
   <si>
+    <t>H210245E</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u val="single"/>
@@ -546,9 +561,6 @@
     </r>
   </si>
   <si>
-    <t>H210245E</t>
-  </si>
-  <si>
     <t>Dziro</t>
   </si>
   <si>
@@ -1236,21 +1248,21 @@
         <color indexed="8"/>
         <rFont val="Times Roman"/>
       </rPr>
+      <t>H220260C@hit.ac.zw</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
       <t>h180617h@hit.ac.zw</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>H220260C@hit.ac.zw</t>
-    </r>
-  </si>
-  <si>
     <t>Matenda</t>
   </si>
   <si>
@@ -1321,6 +1333,12 @@
     </r>
   </si>
   <si>
+    <t>Mbangani</t>
+  </si>
+  <si>
+    <t>H220342Q</t>
+  </si>
+  <si>
     <t>Mharakurwa</t>
   </si>
   <si>
@@ -2149,6 +2167,12 @@
     </r>
   </si>
   <si>
+    <t>Sithole</t>
+  </si>
+  <si>
+    <t>H220760C</t>
+  </si>
+  <si>
     <t>Tagara</t>
   </si>
   <si>
@@ -2231,6 +2255,12 @@
       </rPr>
       <t>H220105E@hit.ac.zw</t>
     </r>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>H220548H</t>
   </si>
   <si>
     <t>Zikali</t>
@@ -2389,10 +2419,10 @@
     <xf numFmtId="59" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2401,10 +2431,10 @@
     <xf numFmtId="59" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -3487,7 +3517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J169"/>
+  <dimension ref="A1:J174"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -3499,11 +3529,11 @@
     <col min="2" max="2" width="21" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.57812" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.40625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.73438" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54688" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.0781" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6016" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.22656" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.0781" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.22656" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6016" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.73438" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.54688" style="1" customWidth="1"/>
     <col min="10" max="10" width="21" style="1" customWidth="1"/>
     <col min="11" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
@@ -3553,14 +3583,16 @@
       <c r="D2" s="4">
         <v>0.923076923076923</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
         <v>0.25974025974026</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" ht="14.35" customHeight="1">
       <c r="A3" t="s" s="7">
@@ -3575,14 +3607,16 @@
       <c r="D3" s="8">
         <v>0.75</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10">
+        <v>0.890625</v>
+      </c>
+      <c r="H3" s="10">
         <v>0.415584415584416</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" ht="14.35" customHeight="1">
       <c r="A4" t="s" s="7">
@@ -3597,14 +3631,16 @@
       <c r="D4" s="11">
         <v>0</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10">
+        <v>0.84375</v>
+      </c>
+      <c r="H4" s="10">
         <v>0.545454545454545</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" ht="14.35" customHeight="1">
       <c r="A5" t="s" s="7">
@@ -3619,14 +3655,16 @@
       <c r="D5" s="8">
         <v>0.75</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="H5" s="10">
         <v>0.454545454545455</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" ht="14.35" customHeight="1">
       <c r="A6" t="s" s="7">
@@ -3635,40 +3673,46 @@
       <c r="B6" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" t="s" s="7">
+        <v>22</v>
+      </c>
       <c r="D6" s="8">
         <v>0.673076923076923</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10">
+        <v>0.96875</v>
+      </c>
+      <c r="H6" s="10">
         <v>0.272727272727273</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" ht="14.35" customHeight="1">
       <c r="A7" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s" s="7">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s" s="7">
         <v>22</v>
-      </c>
-      <c r="B7" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s" s="7">
-        <v>24</v>
       </c>
       <c r="D7" s="11">
         <v>0</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10">
+        <v>0.84375</v>
+      </c>
+      <c r="H7" s="10">
         <v>0.441558441558442</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" ht="14.35" customHeight="1">
       <c r="A8" t="s" s="7">
@@ -3683,14 +3727,16 @@
       <c r="D8" s="8">
         <v>0.75</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10">
+        <v>0.765625</v>
+      </c>
+      <c r="H8" s="10">
         <v>0.649350649350649</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" ht="14.35" customHeight="1">
       <c r="A9" t="s" s="7">
@@ -3705,14 +3751,16 @@
       <c r="D9" s="11">
         <v>0</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10">
+        <v>0.671875</v>
+      </c>
+      <c r="H9" s="10">
         <v>0.350649350649351</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" ht="14.35" customHeight="1">
       <c r="A10" t="s" s="7">
@@ -3727,14 +3775,16 @@
       <c r="D10" s="11">
         <v>0</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10">
+        <v>0.859375</v>
+      </c>
+      <c r="H10" s="10">
         <v>0.337662337662338</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" ht="14.35" customHeight="1">
       <c r="A11" t="s" s="7">
@@ -3743,18 +3793,22 @@
       <c r="B11" t="s" s="7">
         <v>33</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" t="s" s="7">
+        <v>12</v>
+      </c>
       <c r="D11" s="11">
         <v>0</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10">
+        <v>0.796875</v>
+      </c>
+      <c r="H11" s="10">
         <v>0.298701298701299</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" ht="14.35" customHeight="1">
       <c r="A12" t="s" s="7">
@@ -3764,19 +3818,21 @@
         <v>35</v>
       </c>
       <c r="C12" t="s" s="7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="11">
         <v>0</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10">
+        <v>0.8125</v>
+      </c>
+      <c r="H12" s="10">
         <v>0.324675324675325</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" ht="14.35" customHeight="1">
       <c r="A13" t="s" s="7">
@@ -3785,18 +3841,22 @@
       <c r="B13" t="s" s="7">
         <v>37</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" t="s" s="7">
+        <v>12</v>
+      </c>
       <c r="D13" s="11">
         <v>0</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10">
+        <v>0.921875</v>
+      </c>
+      <c r="H13" s="10">
         <v>0.493506493506494</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" ht="14.35" customHeight="1">
       <c r="A14" t="s" s="7">
@@ -3806,19 +3866,21 @@
         <v>39</v>
       </c>
       <c r="C14" t="s" s="7">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D14" s="11">
         <v>0</v>
       </c>
-      <c r="E14" s="9">
-        <v>0.506493506493506</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10">
+        <v>0.921875</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" ht="14.35" customHeight="1">
       <c r="A15" t="s" s="7">
@@ -3827,18 +3889,22 @@
       <c r="B15" t="s" s="7">
         <v>41</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0.506493506493506</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="C15" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10">
+        <v>0.859375</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" ht="14.35" customHeight="1">
       <c r="A16" t="s" s="7">
@@ -3848,19 +3914,21 @@
         <v>43</v>
       </c>
       <c r="C16" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0.623376623376623</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0.506493506493506</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" ht="14.35" customHeight="1">
       <c r="A17" t="s" s="7">
@@ -3870,19 +3938,21 @@
         <v>45</v>
       </c>
       <c r="C17" t="s" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D17" s="8">
-        <v>0.788461538461538</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0.597402597402597</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+        <v>0.75</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10">
+        <v>0.734375</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0.506493506493506</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" ht="14.35" customHeight="1">
       <c r="A18" t="s" s="7">
@@ -3892,19 +3962,21 @@
         <v>47</v>
       </c>
       <c r="C18" t="s" s="7">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D18" s="8">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0.350649350649351</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10">
+        <v>0.90625</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0.623376623376623</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" ht="14.35" customHeight="1">
       <c r="A19" t="s" s="7">
@@ -3913,18 +3985,22 @@
       <c r="B19" t="s" s="7">
         <v>49</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" t="s" s="7">
+        <v>12</v>
+      </c>
       <c r="D19" s="8">
-        <v>0.673076923076923</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0.402597402597403</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10">
+        <v>0.921875</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0.597402597402597</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" ht="14.35" customHeight="1">
       <c r="A20" t="s" s="7">
@@ -3934,19 +4010,21 @@
         <v>51</v>
       </c>
       <c r="C20" t="s" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D20" s="8">
-        <v>0.7692307692307691</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10">
+        <v>0.640625</v>
+      </c>
+      <c r="H20" s="10">
+        <v>0.350649350649351</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" ht="14.35" customHeight="1">
       <c r="A21" t="s" s="7">
@@ -3956,19 +4034,21 @@
         <v>53</v>
       </c>
       <c r="C21" t="s" s="7">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D21" s="8">
-        <v>0.942307692307692</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0.428571428571429</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+        <v>0.673076923076923</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10">
+        <v>0.828125</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0.402597402597403</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" ht="14.35" customHeight="1">
       <c r="A22" t="s" s="7">
@@ -3981,16 +4061,18 @@
         <v>12</v>
       </c>
       <c r="D22" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E22" s="9">
-        <v>0.623376623376623</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10">
+        <v>0.890625</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0.441558441558442</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" ht="14.35" customHeight="1">
       <c r="A23" t="s" s="7">
@@ -4000,19 +4082,21 @@
         <v>57</v>
       </c>
       <c r="C23" t="s" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D23" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E23" s="9">
-        <v>0</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+        <v>0.942307692307692</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10">
+        <v>0.71875</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" ht="14.35" customHeight="1">
       <c r="A24" t="s" s="7">
@@ -4025,16 +4109,18 @@
         <v>12</v>
       </c>
       <c r="D24" s="8">
-        <v>0.903846153846154</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0.61038961038961</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10">
+        <v>0.765625</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0.623376623376623</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" ht="14.35" customHeight="1">
       <c r="A25" t="s" s="7">
@@ -4044,19 +4130,21 @@
         <v>61</v>
       </c>
       <c r="C25" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D25" s="11">
+        <v>15</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10">
+        <v>0.859375</v>
+      </c>
+      <c r="H25" s="10">
         <v>0</v>
       </c>
-      <c r="E25" s="9">
-        <v>0.506493506493506</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" ht="14.35" customHeight="1">
       <c r="A26" t="s" s="7">
@@ -4066,19 +4154,21 @@
         <v>63</v>
       </c>
       <c r="C26" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D26" s="11">
-        <v>0</v>
-      </c>
-      <c r="E26" s="9">
-        <v>0.545454545454545</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0.903846153846154</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10">
+        <v>0.796875</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0.61038961038961</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
     </row>
     <row r="27" ht="14.35" customHeight="1">
       <c r="A27" t="s" s="7">
@@ -4088,19 +4178,21 @@
         <v>65</v>
       </c>
       <c r="C27" t="s" s="7">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D27" s="11">
         <v>0</v>
       </c>
-      <c r="E27" s="9">
-        <v>0.402597402597403</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10">
+        <v>0.828125</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0.506493506493506</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
     </row>
     <row r="28" ht="14.35" customHeight="1">
       <c r="A28" t="s" s="7">
@@ -4112,17 +4204,19 @@
       <c r="C28" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D28" s="8">
-        <v>0.788461538461538</v>
-      </c>
-      <c r="E28" s="9">
-        <v>0.233766233766234</v>
-      </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="D28" s="11">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="H28" s="10">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
     </row>
     <row r="29" ht="14.35" customHeight="1">
       <c r="A29" t="s" s="7">
@@ -4132,19 +4226,21 @@
         <v>69</v>
       </c>
       <c r="C29" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0.7692307692307691</v>
-      </c>
-      <c r="E29" s="9">
+        <v>22</v>
+      </c>
+      <c r="D29" s="11">
         <v>0</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10">
+        <v>0.8125</v>
+      </c>
+      <c r="H29" s="10">
+        <v>0.402597402597403</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
     </row>
     <row r="30" ht="14.35" customHeight="1">
       <c r="A30" t="s" s="7">
@@ -4154,19 +4250,21 @@
         <v>71</v>
       </c>
       <c r="C30" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="D30" s="11">
-        <v>0</v>
-      </c>
-      <c r="E30" s="9">
-        <v>0.662337662337662</v>
-      </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10">
+        <v>0.609375</v>
+      </c>
+      <c r="H30" s="10">
+        <v>0.233766233766234</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
     </row>
     <row r="31" ht="14.35" customHeight="1">
       <c r="A31" t="s" s="7">
@@ -4176,19 +4274,21 @@
         <v>73</v>
       </c>
       <c r="C31" t="s" s="7">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D31" s="8">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="E31" s="9">
-        <v>0.480519480519481</v>
-      </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10">
+        <v>0.828125</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
     </row>
     <row r="32" ht="14.35" customHeight="1">
       <c r="A32" t="s" s="7">
@@ -4198,19 +4298,21 @@
         <v>75</v>
       </c>
       <c r="C32" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D32" s="8">
-        <v>0.692307692307692</v>
-      </c>
-      <c r="E32" s="9">
-        <v>0.636363636363636</v>
-      </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="D32" s="11">
+        <v>0</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10">
+        <v>0.890625</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0.662337662337662</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
     </row>
     <row r="33" ht="14.35" customHeight="1">
       <c r="A33" t="s" s="7">
@@ -4220,83 +4322,93 @@
         <v>77</v>
       </c>
       <c r="C33" t="s" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D33" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E33" s="9">
-        <v>0.701298701298701</v>
-      </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10">
+        <v>0.875</v>
+      </c>
+      <c r="H33" s="10">
+        <v>0.480519480519481</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
     </row>
     <row r="34" ht="14.35" customHeight="1">
       <c r="A34" t="s" s="7">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B34" t="s" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D34" s="11">
-        <v>1</v>
-      </c>
-      <c r="E34" s="9">
-        <v>0.506493506493506</v>
-      </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0.692307692307692</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10">
+        <v>0.703125</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
     </row>
     <row r="35" ht="14.35" customHeight="1">
       <c r="A35" t="s" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="D35" s="11">
-        <v>0</v>
-      </c>
-      <c r="E35" s="9">
-        <v>0.376623376623377</v>
-      </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10">
+        <v>0.984375</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0.701298701298701</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
     </row>
     <row r="36" ht="14.35" customHeight="1">
       <c r="A36" t="s" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36" t="s" s="7">
         <v>82</v>
       </c>
-      <c r="C36" s="10"/>
+      <c r="C36" t="s" s="7">
+        <v>27</v>
+      </c>
       <c r="D36" s="11">
+        <v>1</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="10">
         <v>0</v>
       </c>
-      <c r="E36" s="9">
-        <v>0.376623376623377</v>
-      </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
+      <c r="H36" s="10">
+        <v>0.506493506493506</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
     </row>
     <row r="37" ht="14.35" customHeight="1">
       <c r="A37" t="s" s="7">
@@ -4306,19 +4418,21 @@
         <v>84</v>
       </c>
       <c r="C37" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D37" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E37" s="9">
-        <v>0.623376623376623</v>
-      </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="D37" s="11">
+        <v>0</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="10">
+        <v>0.765625</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0.376623376623377</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
     </row>
     <row r="38" ht="14.35" customHeight="1">
       <c r="A38" t="s" s="7">
@@ -4328,147 +4442,163 @@
         <v>86</v>
       </c>
       <c r="C38" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D38" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E38" s="9">
+        <v>27</v>
+      </c>
+      <c r="D38" s="11">
         <v>0</v>
       </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10">
+        <v>0.6875</v>
+      </c>
+      <c r="H38" s="10">
+        <v>0.376623376623377</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
     </row>
     <row r="39" ht="14.35" customHeight="1">
       <c r="A39" t="s" s="7">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B39" t="s" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D39" s="8">
-        <v>0.807692307692308</v>
-      </c>
-      <c r="E39" s="9">
-        <v>0</v>
-      </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
+        <v>0.75</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="10">
+        <v>0.90625</v>
+      </c>
+      <c r="H39" s="10">
+        <v>0.623376623376623</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
     </row>
     <row r="40" ht="14.35" customHeight="1">
       <c r="A40" t="s" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B40" t="s" s="7">
-        <v>89</v>
-      </c>
-      <c r="C40" s="10"/>
+        <v>90</v>
+      </c>
+      <c r="C40" t="s" s="7">
+        <v>12</v>
+      </c>
       <c r="D40" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E40" s="9">
-        <v>0.441558441558442</v>
-      </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
+        <v>0.807692307692308</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="10">
+        <v>0.692307692307692</v>
+      </c>
+      <c r="H40" s="10">
+        <v>0</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
     </row>
     <row r="41" ht="14.35" customHeight="1">
       <c r="A41" t="s" s="7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B41" t="s" s="7">
         <v>91</v>
       </c>
       <c r="C41" t="s" s="7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D41" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E41" s="9">
-        <v>0.506493506493506</v>
-      </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="10">
+        <v>0.734375</v>
+      </c>
+      <c r="H41" s="10">
+        <v>0</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
     </row>
     <row r="42" ht="14.35" customHeight="1">
       <c r="A42" t="s" s="7">
         <v>92</v>
       </c>
-      <c r="B42" s="10"/>
+      <c r="B42" t="s" s="7">
+        <v>93</v>
+      </c>
       <c r="C42" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D42" s="11">
-        <v>0</v>
-      </c>
-      <c r="E42" s="9">
-        <v>0.168831168831169</v>
-      </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="D42" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="10">
+        <v>0.8125</v>
+      </c>
+      <c r="H42" s="10">
+        <v>0.441558441558442</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
     </row>
     <row r="43" ht="14.35" customHeight="1">
       <c r="A43" t="s" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B43" t="s" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C43" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D43" s="11">
-        <v>0</v>
-      </c>
-      <c r="E43" s="9">
-        <v>0.597402597402597</v>
-      </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="D43" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="H43" s="10">
+        <v>0.506493506493506</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
     </row>
     <row r="44" ht="14.35" customHeight="1">
       <c r="A44" t="s" s="7">
-        <v>95</v>
-      </c>
-      <c r="B44" t="s" s="7">
         <v>96</v>
       </c>
+      <c r="B44" s="9"/>
       <c r="C44" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="D44" s="8">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="E44" s="9">
-        <v>0.480519480519481</v>
-      </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="D44" s="11">
+        <v>0</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10">
+        <v>0</v>
+      </c>
+      <c r="H44" s="10">
+        <v>0.168831168831169</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
     </row>
     <row r="45" ht="14.35" customHeight="1">
       <c r="A45" t="s" s="7">
@@ -4480,17 +4610,19 @@
       <c r="C45" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="D45" s="8">
-        <v>0.807692307692308</v>
-      </c>
-      <c r="E45" s="9">
-        <v>0.636363636363636</v>
-      </c>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
+      <c r="D45" s="11">
+        <v>0</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="10">
+        <v>0.875</v>
+      </c>
+      <c r="H45" s="10">
+        <v>0.597402597402597</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
     </row>
     <row r="46" ht="14.35" customHeight="1">
       <c r="A46" t="s" s="7">
@@ -4500,19 +4632,21 @@
         <v>100</v>
       </c>
       <c r="C46" t="s" s="7">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D46" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E46" s="9">
-        <v>0.727272727272727</v>
-      </c>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="H46" s="10">
+        <v>0.480519480519481</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
     </row>
     <row r="47" ht="14.35" customHeight="1">
       <c r="A47" t="s" s="7">
@@ -4522,19 +4656,21 @@
         <v>102</v>
       </c>
       <c r="C47" t="s" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D47" s="8">
-        <v>0.788461538461538</v>
-      </c>
-      <c r="E47" s="9">
-        <v>0.454545454545455</v>
-      </c>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
+        <v>0.807692307692308</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="10">
+        <v>0.890625</v>
+      </c>
+      <c r="H47" s="10">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
     </row>
     <row r="48" ht="14.35" customHeight="1">
       <c r="A48" t="s" s="7">
@@ -4543,18 +4679,22 @@
       <c r="B48" t="s" s="7">
         <v>104</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="11">
-        <v>0</v>
-      </c>
-      <c r="E48" s="9">
-        <v>0.311688311688312</v>
-      </c>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
+      <c r="C48" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="D48" s="8">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="10">
+        <v>0.8125</v>
+      </c>
+      <c r="H48" s="10">
+        <v>0.727272727272727</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
     </row>
     <row r="49" ht="14.35" customHeight="1">
       <c r="A49" t="s" s="7">
@@ -4564,19 +4704,21 @@
         <v>106</v>
       </c>
       <c r="C49" t="s" s="7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D49" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E49" s="9">
-        <v>0.493506493506494</v>
-      </c>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="10">
+        <v>0.90625</v>
+      </c>
+      <c r="H49" s="10">
+        <v>0.454545454545455</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
     </row>
     <row r="50" ht="14.35" customHeight="1">
       <c r="A50" t="s" s="7">
@@ -4585,18 +4727,22 @@
       <c r="B50" t="s" s="7">
         <v>108</v>
       </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E50" s="9">
-        <v>0.415584415584416</v>
-      </c>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
+      <c r="C50" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="D50" s="11">
+        <v>0</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="10">
+        <v>0.78125</v>
+      </c>
+      <c r="H50" s="10">
+        <v>0.311688311688312</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
     </row>
     <row r="51" ht="14.35" customHeight="1">
       <c r="A51" t="s" s="7">
@@ -4606,19 +4752,21 @@
         <v>110</v>
       </c>
       <c r="C51" t="s" s="7">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D51" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E51" s="9">
-        <v>0.5844155844155841</v>
-      </c>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="10">
+        <v>0.734375</v>
+      </c>
+      <c r="H51" s="10">
+        <v>0.493506493506494</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
     </row>
     <row r="52" ht="14.35" customHeight="1">
       <c r="A52" t="s" s="7">
@@ -4627,20 +4775,20 @@
       <c r="B52" t="s" s="7">
         <v>112</v>
       </c>
-      <c r="C52" t="s" s="7">
-        <v>15</v>
-      </c>
+      <c r="C52" s="9"/>
       <c r="D52" s="8">
-        <v>0.788461538461538</v>
-      </c>
-      <c r="E52" s="9">
-        <v>0.493506493506494</v>
-      </c>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="10">
+        <v>0.90625</v>
+      </c>
+      <c r="H52" s="10">
+        <v>0.415584415584416</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
     </row>
     <row r="53" ht="14.35" customHeight="1">
       <c r="A53" t="s" s="7">
@@ -4650,19 +4798,21 @@
         <v>114</v>
       </c>
       <c r="C53" t="s" s="7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D53" s="8">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="E53" s="9">
-        <v>0.506493506493506</v>
-      </c>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="10">
+        <v>0.734375</v>
+      </c>
+      <c r="H53" s="10">
+        <v>0.5844155844155841</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
     </row>
     <row r="54" ht="14.35" customHeight="1">
       <c r="A54" t="s" s="7">
@@ -4675,16 +4825,18 @@
         <v>15</v>
       </c>
       <c r="D54" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E54" s="9">
-        <v>0.454545454545455</v>
-      </c>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="10">
+        <v>0.8125</v>
+      </c>
+      <c r="H54" s="10">
+        <v>0.493506493506494</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
     </row>
     <row r="55" ht="14.35" customHeight="1">
       <c r="A55" t="s" s="7">
@@ -4699,14 +4851,16 @@
       <c r="D55" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E55" s="9">
-        <v>0.5844155844155841</v>
-      </c>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="10">
+        <v>0.921875</v>
+      </c>
+      <c r="H55" s="10">
+        <v>0.506493506493506</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
     </row>
     <row r="56" ht="14.35" customHeight="1">
       <c r="A56" t="s" s="7">
@@ -4716,19 +4870,21 @@
         <v>120</v>
       </c>
       <c r="C56" t="s" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D56" s="8">
-        <v>0.807692307692308</v>
-      </c>
-      <c r="E56" s="9">
-        <v>0.61038961038961</v>
-      </c>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
+        <v>0.75</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="10">
+        <v>0.8125</v>
+      </c>
+      <c r="H56" s="10">
+        <v>0.454545454545455</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
     </row>
     <row r="57" ht="14.35" customHeight="1">
       <c r="A57" t="s" s="7">
@@ -4738,19 +4894,21 @@
         <v>122</v>
       </c>
       <c r="C57" t="s" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D57" s="8">
-        <v>0.826923076923077</v>
-      </c>
-      <c r="E57" s="9">
-        <v>0.363636363636364</v>
-      </c>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="10">
+        <v>0.859375</v>
+      </c>
+      <c r="H57" s="10">
+        <v>0.5844155844155841</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
     </row>
     <row r="58" ht="14.35" customHeight="1">
       <c r="A58" t="s" s="7">
@@ -4760,19 +4918,21 @@
         <v>124</v>
       </c>
       <c r="C58" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="D58" s="11">
-        <v>0</v>
-      </c>
-      <c r="E58" s="9">
-        <v>0.298701298701299</v>
-      </c>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="D58" s="8">
+        <v>0.807692307692308</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="10">
+        <v>0.828125</v>
+      </c>
+      <c r="H58" s="10">
+        <v>0.61038961038961</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
     </row>
     <row r="59" ht="14.35" customHeight="1">
       <c r="A59" t="s" s="7">
@@ -4782,19 +4942,21 @@
         <v>126</v>
       </c>
       <c r="C59" t="s" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D59" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E59" s="9">
-        <v>0.519480519480519</v>
-      </c>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
+        <v>0.826923076923077</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="10">
+        <v>0.890625</v>
+      </c>
+      <c r="H59" s="10">
+        <v>0.363636363636364</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
     </row>
     <row r="60" ht="14.35" customHeight="1">
       <c r="A60" t="s" s="7">
@@ -4804,19 +4966,21 @@
         <v>128</v>
       </c>
       <c r="C60" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="D60" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E60" s="9">
-        <v>0.415584415584416</v>
-      </c>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="D60" s="11">
+        <v>0</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="10">
+        <v>0.84375</v>
+      </c>
+      <c r="H60" s="10">
+        <v>0.298701298701299</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
     </row>
     <row r="61" ht="14.35" customHeight="1">
       <c r="A61" t="s" s="7">
@@ -4826,19 +4990,21 @@
         <v>130</v>
       </c>
       <c r="C61" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D61" s="11">
-        <v>0</v>
-      </c>
-      <c r="E61" s="9">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="D61" s="8">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="10">
+        <v>0.875</v>
+      </c>
+      <c r="H61" s="10">
+        <v>0.519480519480519</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
     </row>
     <row r="62" ht="14.35" customHeight="1">
       <c r="A62" t="s" s="7">
@@ -4848,19 +5014,21 @@
         <v>132</v>
       </c>
       <c r="C62" t="s" s="7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D62" s="8">
-        <v>0.615384615384615</v>
-      </c>
-      <c r="E62" s="9">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="10">
+        <v>1</v>
+      </c>
+      <c r="H62" s="10">
+        <v>0.415584415584416</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
     </row>
     <row r="63" ht="14.35" customHeight="1">
       <c r="A63" t="s" s="7">
@@ -4872,17 +5040,19 @@
       <c r="C63" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="D63" s="8">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="E63" s="9">
-        <v>0.350649350649351</v>
-      </c>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
+      <c r="D63" s="11">
+        <v>0</v>
+      </c>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="10">
+        <v>0.84375</v>
+      </c>
+      <c r="H63" s="10">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
     </row>
     <row r="64" ht="14.35" customHeight="1">
       <c r="A64" t="s" s="7">
@@ -4892,19 +5062,21 @@
         <v>136</v>
       </c>
       <c r="C64" t="s" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D64" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E64" s="9">
-        <v>0.480519480519481</v>
-      </c>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
+        <v>0.615384615384615</v>
+      </c>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="10">
+        <v>0.859375</v>
+      </c>
+      <c r="H64" s="10">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
     </row>
     <row r="65" ht="14.35" customHeight="1">
       <c r="A65" t="s" s="7">
@@ -4917,16 +5089,18 @@
         <v>27</v>
       </c>
       <c r="D65" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E65" s="9">
-        <v>0.61038961038961</v>
-      </c>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="10">
+        <v>0</v>
+      </c>
+      <c r="H65" s="10">
+        <v>0.350649350649351</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
     </row>
     <row r="66" ht="14.35" customHeight="1">
       <c r="A66" t="s" s="7">
@@ -4941,14 +5115,16 @@
       <c r="D66" s="8">
         <v>0.75</v>
       </c>
-      <c r="E66" s="9">
-        <v>0.363636363636364</v>
-      </c>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="10">
+        <v>0.890625</v>
+      </c>
+      <c r="H66" s="10">
+        <v>0.480519480519481</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
     </row>
     <row r="67" ht="14.35" customHeight="1">
       <c r="A67" t="s" s="7">
@@ -4957,18 +5133,22 @@
       <c r="B67" t="s" s="7">
         <v>142</v>
       </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="11">
-        <v>0</v>
-      </c>
-      <c r="E67" s="9">
-        <v>0</v>
-      </c>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
+      <c r="C67" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="D67" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="10">
+        <v>0.875</v>
+      </c>
+      <c r="H67" s="10">
+        <v>0.61038961038961</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
     </row>
     <row r="68" ht="14.35" customHeight="1">
       <c r="A68" t="s" s="7">
@@ -4978,19 +5158,21 @@
         <v>144</v>
       </c>
       <c r="C68" t="s" s="7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D68" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E68" s="9">
-        <v>0.337662337662338</v>
-      </c>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
+        <v>0.75</v>
+      </c>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="10">
+        <v>0.46875</v>
+      </c>
+      <c r="H68" s="10">
+        <v>0.363636363636364</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
     </row>
     <row r="69" ht="14.35" customHeight="1">
       <c r="A69" t="s" s="7">
@@ -4999,20 +5181,20 @@
       <c r="B69" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="C69" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D69" s="8">
-        <v>0.923076923076923</v>
-      </c>
-      <c r="E69" s="9">
-        <v>0.467532467532468</v>
-      </c>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="11">
+        <v>0</v>
+      </c>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="10">
+        <v>0</v>
+      </c>
+      <c r="H69" s="10">
+        <v>0</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
     </row>
     <row r="70" ht="14.35" customHeight="1">
       <c r="A70" t="s" s="7">
@@ -5022,19 +5204,21 @@
         <v>148</v>
       </c>
       <c r="C70" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D70" s="11">
-        <v>1</v>
-      </c>
-      <c r="E70" s="9">
-        <v>0.467532467532468</v>
-      </c>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="D70" s="8">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="10">
+        <v>0.90625</v>
+      </c>
+      <c r="H70" s="10">
+        <v>0.337662337662338</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
     </row>
     <row r="71" ht="14.35" customHeight="1">
       <c r="A71" t="s" s="7">
@@ -5044,19 +5228,21 @@
         <v>150</v>
       </c>
       <c r="C71" t="s" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D71" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E71" s="9">
-        <v>0.493506493506494</v>
-      </c>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
+        <v>0.923076923076923</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="H71" s="10">
+        <v>0.467532467532468</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
     </row>
     <row r="72" ht="14.35" customHeight="1">
       <c r="A72" t="s" s="7">
@@ -5066,19 +5252,21 @@
         <v>152</v>
       </c>
       <c r="C72" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D72" s="8">
-        <v>0.826923076923077</v>
-      </c>
-      <c r="E72" s="9">
-        <v>0.337662337662338</v>
-      </c>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="D72" s="11">
+        <v>1</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="10">
+        <v>0</v>
+      </c>
+      <c r="H72" s="10">
+        <v>0.467532467532468</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
     </row>
     <row r="73" ht="14.35" customHeight="1">
       <c r="A73" t="s" s="7">
@@ -5087,18 +5275,22 @@
       <c r="B73" t="s" s="7">
         <v>154</v>
       </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="11">
-        <v>0</v>
-      </c>
-      <c r="E73" s="9">
-        <v>0.649350649350649</v>
-      </c>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
+      <c r="C73" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="D73" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="10">
+        <v>0.84375</v>
+      </c>
+      <c r="H73" s="10">
+        <v>0.493506493506494</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
     </row>
     <row r="74" ht="14.35" customHeight="1">
       <c r="A74" t="s" s="7">
@@ -5111,16 +5303,18 @@
         <v>12</v>
       </c>
       <c r="D74" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E74" s="9">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
+        <v>0.826923076923077</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="10">
+        <v>0.765625</v>
+      </c>
+      <c r="H74" s="10">
+        <v>0.337662337662338</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
     </row>
     <row r="75" ht="14.35" customHeight="1">
       <c r="A75" t="s" s="7">
@@ -5130,19 +5324,21 @@
         <v>158</v>
       </c>
       <c r="C75" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="D75" s="8">
-        <v>0.942307692307692</v>
-      </c>
-      <c r="E75" s="9">
-        <v>0.480519480519481</v>
-      </c>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="D75" s="11">
+        <v>0</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="10">
+        <v>0.875</v>
+      </c>
+      <c r="H75" s="10">
+        <v>0.649350649350649</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
     </row>
     <row r="76" ht="14.35" customHeight="1">
       <c r="A76" t="s" s="7">
@@ -5152,19 +5348,21 @@
         <v>160</v>
       </c>
       <c r="C76" t="s" s="7">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D76" s="8">
-        <v>0.807692307692308</v>
-      </c>
-      <c r="E76" s="9">
-        <v>0.493506493506494</v>
-      </c>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
+        <v>0.75</v>
+      </c>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="10">
+        <v>0.671875</v>
+      </c>
+      <c r="H76" s="10">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
     </row>
     <row r="77" ht="14.35" customHeight="1">
       <c r="A77" t="s" s="7">
@@ -5174,19 +5372,21 @@
         <v>162</v>
       </c>
       <c r="C77" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D77" s="11">
-        <v>0</v>
-      </c>
-      <c r="E77" s="9">
-        <v>0.337662337662338</v>
-      </c>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="D77" s="8">
+        <v>0.942307692307692</v>
+      </c>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="10">
+        <v>0.8125</v>
+      </c>
+      <c r="H77" s="10">
+        <v>0.480519480519481</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
     </row>
     <row r="78" ht="14.35" customHeight="1">
       <c r="A78" t="s" s="7">
@@ -5196,19 +5396,21 @@
         <v>164</v>
       </c>
       <c r="C78" t="s" s="7">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D78" s="8">
-        <v>0.826923076923077</v>
-      </c>
-      <c r="E78" s="9">
-        <v>0.519480519480519</v>
-      </c>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
+        <v>0.807692307692308</v>
+      </c>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="10">
+        <v>0.84375</v>
+      </c>
+      <c r="H78" s="10">
+        <v>0.493506493506494</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
     </row>
     <row r="79" ht="14.35" customHeight="1">
       <c r="A79" t="s" s="7">
@@ -5217,18 +5419,22 @@
       <c r="B79" t="s" s="7">
         <v>166</v>
       </c>
-      <c r="C79" s="10"/>
-      <c r="D79" s="8">
-        <v>0.673076923076923</v>
-      </c>
-      <c r="E79" s="9">
-        <v>0.207792207792208</v>
-      </c>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
+      <c r="C79" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="D79" s="11">
+        <v>0</v>
+      </c>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="10">
+        <v>0.78125</v>
+      </c>
+      <c r="H79" s="10">
+        <v>0.337662337662338</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
     </row>
     <row r="80" ht="14.35" customHeight="1">
       <c r="A80" t="s" s="7">
@@ -5238,19 +5444,21 @@
         <v>168</v>
       </c>
       <c r="C80" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D80" s="11">
-        <v>0</v>
-      </c>
-      <c r="E80" s="9">
-        <v>0.363636363636364</v>
-      </c>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="D80" s="8">
+        <v>0.826923076923077</v>
+      </c>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="10">
+        <v>0.828125</v>
+      </c>
+      <c r="H80" s="10">
+        <v>0.519480519480519</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
     </row>
     <row r="81" ht="14.35" customHeight="1">
       <c r="A81" t="s" s="7">
@@ -5260,19 +5468,21 @@
         <v>170</v>
       </c>
       <c r="C81" t="s" s="7">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D81" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E81" s="9">
-        <v>0.597402597402597</v>
-      </c>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
+        <v>0.673076923076923</v>
+      </c>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="10">
+        <v>0.78125</v>
+      </c>
+      <c r="H81" s="10">
+        <v>0.207792207792208</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
     </row>
     <row r="82" ht="14.35" customHeight="1">
       <c r="A82" t="s" s="7">
@@ -5282,19 +5492,21 @@
         <v>172</v>
       </c>
       <c r="C82" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D82" s="8">
-        <v>0.826923076923077</v>
-      </c>
-      <c r="E82" s="9">
-        <v>0.74025974025974</v>
-      </c>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="D82" s="11">
+        <v>0</v>
+      </c>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="10">
+        <v>0.859375</v>
+      </c>
+      <c r="H82" s="10">
+        <v>0.363636363636364</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
     </row>
     <row r="83" ht="14.35" customHeight="1">
       <c r="A83" t="s" s="7">
@@ -5304,19 +5516,21 @@
         <v>174</v>
       </c>
       <c r="C83" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D83" s="11">
-        <v>0</v>
-      </c>
-      <c r="E83" s="9">
-        <v>0.545454545454545</v>
-      </c>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="D83" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="10">
+        <v>0.84375</v>
+      </c>
+      <c r="H83" s="10">
+        <v>0.597402597402597</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
     </row>
     <row r="84" ht="14.35" customHeight="1">
       <c r="A84" t="s" s="7">
@@ -5326,19 +5540,21 @@
         <v>176</v>
       </c>
       <c r="C84" t="s" s="7">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D84" s="8">
-        <v>0.923076923076923</v>
-      </c>
-      <c r="E84" s="9">
-        <v>0.220779220779221</v>
-      </c>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
+        <v>0.826923076923077</v>
+      </c>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="H84" s="10">
+        <v>0.74025974025974</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
     </row>
     <row r="85" ht="14.35" customHeight="1">
       <c r="A85" t="s" s="7">
@@ -5348,19 +5564,21 @@
         <v>178</v>
       </c>
       <c r="C85" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D85" s="8">
-        <v>0.788461538461538</v>
-      </c>
-      <c r="E85" s="9">
-        <v>0.454545454545455</v>
-      </c>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="D85" s="11">
+        <v>0</v>
+      </c>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="10">
+        <v>0.90625</v>
+      </c>
+      <c r="H85" s="10">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
     </row>
     <row r="86" ht="14.35" customHeight="1">
       <c r="A86" t="s" s="7">
@@ -5370,19 +5588,21 @@
         <v>180</v>
       </c>
       <c r="C86" t="s" s="7">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D86" s="8">
-        <v>0.615384615384615</v>
-      </c>
-      <c r="E86" s="9">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="10"/>
+        <v>0.923076923076923</v>
+      </c>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="H86" s="10">
+        <v>0.220779220779221</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
     </row>
     <row r="87" ht="14.35" customHeight="1">
       <c r="A87" t="s" s="7">
@@ -5392,19 +5612,21 @@
         <v>182</v>
       </c>
       <c r="C87" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="D87" s="11">
-        <v>0</v>
-      </c>
-      <c r="E87" s="9">
-        <v>0.532467532467532</v>
-      </c>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="D87" s="8">
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="10">
+        <v>0.859375</v>
+      </c>
+      <c r="H87" s="10">
+        <v>0.454545454545455</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
     </row>
     <row r="88" ht="14.35" customHeight="1">
       <c r="A88" t="s" s="7">
@@ -5414,19 +5636,21 @@
         <v>184</v>
       </c>
       <c r="C88" t="s" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D88" s="8">
-        <v>0.788461538461538</v>
-      </c>
-      <c r="E88" s="9">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="10"/>
+        <v>0.615384615384615</v>
+      </c>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="10">
+        <v>0.90625</v>
+      </c>
+      <c r="H88" s="10">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
     </row>
     <row r="89" ht="14.35" customHeight="1">
       <c r="A89" t="s" s="7">
@@ -5436,19 +5660,21 @@
         <v>186</v>
       </c>
       <c r="C89" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D89" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E89" s="9">
-        <v>0.636363636363636</v>
-      </c>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="D89" s="11">
+        <v>0</v>
+      </c>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="10">
+        <v>0.953125</v>
+      </c>
+      <c r="H89" s="10">
+        <v>0.532467532467532</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
     </row>
     <row r="90" ht="14.35" customHeight="1">
       <c r="A90" t="s" s="7">
@@ -5458,19 +5684,21 @@
         <v>188</v>
       </c>
       <c r="C90" t="s" s="7">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D90" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E90" s="9">
-        <v>0.597402597402597</v>
-      </c>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10"/>
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="10">
+        <v>0</v>
+      </c>
+      <c r="H90" s="10">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
     </row>
     <row r="91" ht="14.35" customHeight="1">
       <c r="A91" t="s" s="7">
@@ -5480,19 +5708,21 @@
         <v>190</v>
       </c>
       <c r="C91" t="s" s="7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D91" s="8">
-        <v>0.788461538461538</v>
-      </c>
-      <c r="E91" s="9">
-        <v>0.454545454545455</v>
-      </c>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10"/>
+        <v>0.75</v>
+      </c>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="10">
+        <v>0.84375</v>
+      </c>
+      <c r="H91" s="10">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
     </row>
     <row r="92" ht="14.35" customHeight="1">
       <c r="A92" t="s" s="7">
@@ -5502,85 +5732,93 @@
         <v>192</v>
       </c>
       <c r="C92" t="s" s="7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D92" s="8">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="E92" s="9">
-        <v>0.38961038961039</v>
-      </c>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="10"/>
+        <v>0.75</v>
+      </c>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="10">
+        <v>0.78125</v>
+      </c>
+      <c r="H92" s="10">
+        <v>0.597402597402597</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
     </row>
     <row r="93" ht="14.35" customHeight="1">
       <c r="A93" t="s" s="7">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B93" t="s" s="7">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C93" t="s" s="7">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D93" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E93" s="9">
-        <v>0.558441558441558</v>
-      </c>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="10"/>
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="10">
+        <v>0.859375</v>
+      </c>
+      <c r="H93" s="10">
+        <v>0.454545454545455</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
     </row>
     <row r="94" ht="14.35" customHeight="1">
       <c r="A94" t="s" s="7">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B94" t="s" s="7">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C94" t="s" s="7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D94" s="8">
-        <v>0.942307692307692</v>
-      </c>
-      <c r="E94" s="9">
-        <v>0.298701298701299</v>
-      </c>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="10"/>
+        <v>0.75</v>
+      </c>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="10">
+        <v>0.71875</v>
+      </c>
+      <c r="H94" s="10">
+        <v>0.558441558441558</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
     </row>
     <row r="95" ht="14.35" customHeight="1">
       <c r="A95" t="s" s="7">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B95" t="s" s="7">
         <v>197</v>
       </c>
       <c r="C95" t="s" s="7">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D95" s="8">
-        <v>0.7692307692307691</v>
-      </c>
-      <c r="E95" s="9">
-        <v>0.285714285714286</v>
-      </c>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10"/>
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="10">
+        <v>0.8125</v>
+      </c>
+      <c r="H95" s="10">
+        <v>0.38961038961039</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
     </row>
     <row r="96" ht="14.35" customHeight="1">
       <c r="A96" t="s" s="7">
@@ -5590,19 +5828,21 @@
         <v>199</v>
       </c>
       <c r="C96" t="s" s="7">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D96" s="8">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="E96" s="9">
-        <v>0.272727272727273</v>
-      </c>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="10"/>
+        <v>0.942307692307692</v>
+      </c>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="10">
+        <v>0.875</v>
+      </c>
+      <c r="H96" s="10">
+        <v>0.298701298701299</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
     </row>
     <row r="97" ht="14.35" customHeight="1">
       <c r="A97" t="s" s="7">
@@ -5615,16 +5855,18 @@
         <v>27</v>
       </c>
       <c r="D97" s="8">
-        <v>0.923076923076923</v>
-      </c>
-      <c r="E97" s="9">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10"/>
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="10">
+        <v>0</v>
+      </c>
+      <c r="H97" s="10">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
     </row>
     <row r="98" ht="14.35" customHeight="1">
       <c r="A98" t="s" s="7">
@@ -5634,19 +5876,21 @@
         <v>203</v>
       </c>
       <c r="C98" t="s" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D98" s="8">
-        <v>0.788461538461538</v>
-      </c>
-      <c r="E98" s="9">
-        <v>0.5844155844155841</v>
-      </c>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10"/>
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="10">
+        <v>0.875</v>
+      </c>
+      <c r="H98" s="10">
+        <v>0.272727272727273</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
     </row>
     <row r="99" ht="14.35" customHeight="1">
       <c r="A99" t="s" s="7">
@@ -5656,19 +5900,21 @@
         <v>205</v>
       </c>
       <c r="C99" t="s" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D99" s="8">
-        <v>0.788461538461538</v>
-      </c>
-      <c r="E99" s="9">
-        <v>0.363636363636364</v>
-      </c>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="10"/>
+        <v>0.923076923076923</v>
+      </c>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="10">
+        <v>0.78125</v>
+      </c>
+      <c r="H99" s="10">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
     </row>
     <row r="100" ht="14.35" customHeight="1">
       <c r="A100" t="s" s="7">
@@ -5678,19 +5924,21 @@
         <v>207</v>
       </c>
       <c r="C100" t="s" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D100" s="8">
-        <v>0.442307692307692</v>
-      </c>
-      <c r="E100" s="9">
-        <v>0.441558441558442</v>
-      </c>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="10"/>
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="10">
+        <v>0.78125</v>
+      </c>
+      <c r="H100" s="10">
+        <v>0.5844155844155841</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
     </row>
     <row r="101" ht="14.35" customHeight="1">
       <c r="A101" t="s" s="7">
@@ -5700,19 +5948,21 @@
         <v>209</v>
       </c>
       <c r="C101" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D101" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E101" s="9">
-        <v>0.428571428571429</v>
-      </c>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="D101" s="11">
+        <v>0</v>
+      </c>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="10">
+        <v>0.84375</v>
+      </c>
+      <c r="H101" s="10">
+        <v>0</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
     </row>
     <row r="102" ht="14.35" customHeight="1">
       <c r="A102" t="s" s="7">
@@ -5722,19 +5972,21 @@
         <v>211</v>
       </c>
       <c r="C102" t="s" s="7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D102" s="8">
-        <v>0.903846153846154</v>
-      </c>
-      <c r="E102" s="9">
-        <v>0.662337662337662</v>
-      </c>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="10"/>
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="10">
+        <v>0.84375</v>
+      </c>
+      <c r="H102" s="10">
+        <v>0.363636363636364</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
     </row>
     <row r="103" ht="14.35" customHeight="1">
       <c r="A103" t="s" s="7">
@@ -5744,19 +5996,21 @@
         <v>213</v>
       </c>
       <c r="C103" t="s" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D103" s="8">
-        <v>0.807692307692308</v>
-      </c>
-      <c r="E103" s="9">
-        <v>0.597402597402597</v>
-      </c>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10"/>
-      <c r="I103" s="10"/>
-      <c r="J103" s="10"/>
+        <v>0.442307692307692</v>
+      </c>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="10">
+        <v>0.84375</v>
+      </c>
+      <c r="H103" s="10">
+        <v>0.441558441558442</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
     </row>
     <row r="104" ht="14.35" customHeight="1">
       <c r="A104" t="s" s="7">
@@ -5765,18 +6019,22 @@
       <c r="B104" t="s" s="7">
         <v>215</v>
       </c>
-      <c r="C104" s="10"/>
-      <c r="D104" s="11">
-        <v>0</v>
-      </c>
-      <c r="E104" s="9">
-        <v>0.493506493506494</v>
-      </c>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="10"/>
-      <c r="I104" s="10"/>
-      <c r="J104" s="10"/>
+      <c r="C104" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="D104" s="8">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="H104" s="10">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
     </row>
     <row r="105" ht="14.35" customHeight="1">
       <c r="A105" t="s" s="7">
@@ -5786,19 +6044,21 @@
         <v>217</v>
       </c>
       <c r="C105" t="s" s="7">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D105" s="8">
-        <v>0.673076923076923</v>
-      </c>
-      <c r="E105" s="9">
-        <v>0.402597402597403</v>
-      </c>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="10"/>
+        <v>0.903846153846154</v>
+      </c>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="10">
+        <v>0.8125</v>
+      </c>
+      <c r="H105" s="10">
+        <v>0.662337662337662</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
     </row>
     <row r="106" ht="14.35" customHeight="1">
       <c r="A106" t="s" s="7">
@@ -5807,18 +6067,22 @@
       <c r="B106" t="s" s="7">
         <v>219</v>
       </c>
-      <c r="C106" s="10"/>
+      <c r="C106" t="s" s="7">
+        <v>12</v>
+      </c>
       <c r="D106" s="8">
-        <v>0.673076923076923</v>
-      </c>
-      <c r="E106" s="9">
-        <v>0.337662337662338</v>
-      </c>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="10"/>
-      <c r="J106" s="10"/>
+        <v>0.807692307692308</v>
+      </c>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="10">
+        <v>0.828125</v>
+      </c>
+      <c r="H106" s="10">
+        <v>0.597402597402597</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
     </row>
     <row r="107" ht="14.35" customHeight="1">
       <c r="A107" t="s" s="7">
@@ -5828,19 +6092,21 @@
         <v>221</v>
       </c>
       <c r="C107" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D107" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E107" s="9">
-        <v>0.415584415584416</v>
-      </c>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
-      <c r="I107" s="10"/>
-      <c r="J107" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="D107" s="11">
+        <v>0</v>
+      </c>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="10">
+        <v>0.890625</v>
+      </c>
+      <c r="H107" s="10">
+        <v>0.493506493506494</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
     </row>
     <row r="108" ht="14.35" customHeight="1">
       <c r="A108" t="s" s="7">
@@ -5850,19 +6116,21 @@
         <v>223</v>
       </c>
       <c r="C108" t="s" s="7">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D108" s="8">
-        <v>0.846153846153846</v>
-      </c>
-      <c r="E108" s="9">
-        <v>0.38961038961039</v>
-      </c>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="10"/>
-      <c r="I108" s="10"/>
-      <c r="J108" s="10"/>
+        <v>0.673076923076923</v>
+      </c>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="10">
+        <v>0.828125</v>
+      </c>
+      <c r="H108" s="10">
+        <v>0.402597402597403</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
     </row>
     <row r="109" ht="14.35" customHeight="1">
       <c r="A109" t="s" s="7">
@@ -5872,19 +6140,21 @@
         <v>225</v>
       </c>
       <c r="C109" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D109" s="11">
-        <v>0</v>
-      </c>
-      <c r="E109" s="9">
-        <v>0.376623376623377</v>
-      </c>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="D109" s="8">
+        <v>0.673076923076923</v>
+      </c>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="10">
+        <v>0.859375</v>
+      </c>
+      <c r="H109" s="10">
+        <v>0.337662337662338</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
     </row>
     <row r="110" ht="14.35" customHeight="1">
       <c r="A110" t="s" s="7">
@@ -5897,16 +6167,18 @@
         <v>15</v>
       </c>
       <c r="D110" s="8">
-        <v>0.846153846153846</v>
-      </c>
-      <c r="E110" s="9">
-        <v>0.363636363636364</v>
-      </c>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
-      <c r="I110" s="10"/>
-      <c r="J110" s="10"/>
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="10">
+        <v>0</v>
+      </c>
+      <c r="H110" s="10">
+        <v>0.415584415584416</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
     </row>
     <row r="111" ht="14.35" customHeight="1">
       <c r="A111" t="s" s="7">
@@ -5916,19 +6188,21 @@
         <v>229</v>
       </c>
       <c r="C111" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D111" s="11">
-        <v>0</v>
-      </c>
-      <c r="E111" s="9">
-        <v>0.636363636363636</v>
-      </c>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="10"/>
-      <c r="J111" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="D111" s="8">
+        <v>0.846153846153846</v>
+      </c>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="10">
+        <v>0.84375</v>
+      </c>
+      <c r="H111" s="10">
+        <v>0.38961038961039</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
     </row>
     <row r="112" ht="14.35" customHeight="1">
       <c r="A112" t="s" s="7">
@@ -5938,19 +6212,21 @@
         <v>231</v>
       </c>
       <c r="C112" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D112" s="8">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="E112" s="9">
-        <v>0.545454545454545</v>
-      </c>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="10"/>
-      <c r="I112" s="10"/>
-      <c r="J112" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="D112" s="11">
+        <v>0</v>
+      </c>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="10">
+        <v>0.84375</v>
+      </c>
+      <c r="H112" s="10">
+        <v>0.376623376623377</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
     </row>
     <row r="113" ht="14.35" customHeight="1">
       <c r="A113" t="s" s="7">
@@ -5960,19 +6236,21 @@
         <v>233</v>
       </c>
       <c r="C113" t="s" s="7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D113" s="8">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="E113" s="9">
-        <v>0.701298701298701</v>
-      </c>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="10"/>
-      <c r="I113" s="10"/>
-      <c r="J113" s="10"/>
+        <v>0.846153846153846</v>
+      </c>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="10">
+        <v>0.609375</v>
+      </c>
+      <c r="H113" s="10">
+        <v>0.363636363636364</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
     </row>
     <row r="114" ht="14.35" customHeight="1">
       <c r="A114" t="s" s="7">
@@ -5984,17 +6262,19 @@
       <c r="C114" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="D114" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E114" s="9">
-        <v>0.675324675324675</v>
-      </c>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="10"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="10"/>
+      <c r="D114" s="11">
+        <v>0</v>
+      </c>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="10">
+        <v>0.90625</v>
+      </c>
+      <c r="H114" s="10">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
     </row>
     <row r="115" ht="14.35" customHeight="1">
       <c r="A115" t="s" s="7">
@@ -6004,19 +6284,21 @@
         <v>237</v>
       </c>
       <c r="C115" t="s" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D115" s="8">
-        <v>0.7692307692307691</v>
-      </c>
-      <c r="E115" s="9">
-        <v>0.5844155844155841</v>
-      </c>
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
-      <c r="H115" s="10"/>
-      <c r="I115" s="10"/>
-      <c r="J115" s="10"/>
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="10">
+        <v>0.90625</v>
+      </c>
+      <c r="H115" s="10">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
     </row>
     <row r="116" ht="14.35" customHeight="1">
       <c r="A116" t="s" s="7">
@@ -6026,19 +6308,21 @@
         <v>239</v>
       </c>
       <c r="C116" t="s" s="7">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D116" s="8">
-        <v>0.903846153846154</v>
-      </c>
-      <c r="E116" s="9">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
-      <c r="H116" s="10"/>
-      <c r="I116" s="10"/>
-      <c r="J116" s="10"/>
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="H116" s="10">
+        <v>0.701298701298701</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
     </row>
     <row r="117" ht="14.35" customHeight="1">
       <c r="A117" t="s" s="7">
@@ -6048,19 +6332,21 @@
         <v>241</v>
       </c>
       <c r="C117" t="s" s="7">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D117" s="8">
-        <v>0.942307692307692</v>
-      </c>
-      <c r="E117" s="9">
-        <v>0.532467532467532</v>
-      </c>
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="10"/>
-      <c r="I117" s="10"/>
-      <c r="J117" s="10"/>
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="10">
+        <v>0.71875</v>
+      </c>
+      <c r="H117" s="10">
+        <v>0.675324675324675</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
     </row>
     <row r="118" ht="14.35" customHeight="1">
       <c r="A118" t="s" s="7">
@@ -6070,19 +6356,21 @@
         <v>243</v>
       </c>
       <c r="C118" t="s" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D118" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E118" s="9">
-        <v>0.363636363636364</v>
-      </c>
-      <c r="F118" s="10"/>
-      <c r="G118" s="10"/>
-      <c r="H118" s="10"/>
-      <c r="I118" s="10"/>
-      <c r="J118" s="10"/>
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="10">
+        <v>0.640625</v>
+      </c>
+      <c r="H118" s="10">
+        <v>0.5844155844155841</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
     </row>
     <row r="119" ht="14.35" customHeight="1">
       <c r="A119" t="s" s="7">
@@ -6095,16 +6383,18 @@
         <v>27</v>
       </c>
       <c r="D119" s="8">
-        <v>0.615384615384615</v>
-      </c>
-      <c r="E119" s="9">
-        <v>0.675324675324675</v>
-      </c>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
-      <c r="H119" s="10"/>
-      <c r="I119" s="10"/>
-      <c r="J119" s="10"/>
+        <v>0.903846153846154</v>
+      </c>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="10">
+        <v>0.78125</v>
+      </c>
+      <c r="H119" s="10">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
     </row>
     <row r="120" ht="14.35" customHeight="1">
       <c r="A120" t="s" s="7">
@@ -6114,19 +6404,21 @@
         <v>247</v>
       </c>
       <c r="C120" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D120" s="11">
-        <v>0</v>
-      </c>
-      <c r="E120" s="9">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
-      <c r="H120" s="10"/>
-      <c r="I120" s="10"/>
-      <c r="J120" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="D120" s="8">
+        <v>0.942307692307692</v>
+      </c>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="10">
+        <v>0.859375</v>
+      </c>
+      <c r="H120" s="10">
+        <v>0.532467532467532</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
     </row>
     <row r="121" ht="14.35" customHeight="1">
       <c r="A121" t="s" s="7">
@@ -6136,21 +6428,23 @@
         <v>249</v>
       </c>
       <c r="C121" t="s" s="7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D121" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E121" s="9">
-        <v>0.532467532467532</v>
-      </c>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
-      <c r="I121" s="10"/>
-      <c r="J121" s="10"/>
-    </row>
-    <row r="122" ht="28.35" customHeight="1">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="10">
+        <v>0.703125</v>
+      </c>
+      <c r="H121" s="10">
+        <v>0.363636363636364</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+    </row>
+    <row r="122" ht="14.35" customHeight="1">
       <c r="A122" t="s" s="7">
         <v>250</v>
       </c>
@@ -6158,19 +6452,21 @@
         <v>251</v>
       </c>
       <c r="C122" t="s" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D122" s="8">
-        <v>0.846153846153846</v>
-      </c>
-      <c r="E122" s="9">
-        <v>0.25974025974026</v>
-      </c>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="10"/>
-      <c r="I122" s="10"/>
-      <c r="J122" s="10"/>
+        <v>0.615384615384615</v>
+      </c>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="10">
+        <v>0.953125</v>
+      </c>
+      <c r="H122" s="10">
+        <v>0.675324675324675</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
     </row>
     <row r="123" ht="14.35" customHeight="1">
       <c r="A123" t="s" s="7">
@@ -6180,19 +6476,21 @@
         <v>253</v>
       </c>
       <c r="C123" t="s" s="7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D123" s="11">
         <v>0</v>
       </c>
-      <c r="E123" s="9">
-        <v>0.428571428571429</v>
-      </c>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="10"/>
-      <c r="I123" s="10"/>
-      <c r="J123" s="10"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="10">
+        <v>0.8125</v>
+      </c>
+      <c r="H123" s="10">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
     </row>
     <row r="124" ht="14.35" customHeight="1">
       <c r="A124" t="s" s="7">
@@ -6202,39 +6500,45 @@
         <v>255</v>
       </c>
       <c r="C124" t="s" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D124" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E124" s="9">
-        <v>0.597402597402597</v>
-      </c>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
-      <c r="I124" s="10"/>
-      <c r="J124" s="10"/>
-    </row>
-    <row r="125" ht="14.35" customHeight="1">
+        <v>0.75</v>
+      </c>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="10">
+        <v>0.828125</v>
+      </c>
+      <c r="H124" s="10">
+        <v>0.532467532467532</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+    </row>
+    <row r="125" ht="28.35" customHeight="1">
       <c r="A125" t="s" s="7">
         <v>256</v>
       </c>
       <c r="B125" t="s" s="7">
         <v>257</v>
       </c>
-      <c r="C125" s="10"/>
-      <c r="D125" s="11">
+      <c r="C125" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="D125" s="8">
+        <v>0.846153846153846</v>
+      </c>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="10">
         <v>0</v>
       </c>
-      <c r="E125" s="9">
-        <v>0.194805194805195</v>
-      </c>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10"/>
-      <c r="I125" s="10"/>
-      <c r="J125" s="10"/>
+      <c r="H125" s="10">
+        <v>0.25974025974026</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
     </row>
     <row r="126" ht="14.35" customHeight="1">
       <c r="A126" t="s" s="7">
@@ -6244,19 +6548,21 @@
         <v>259</v>
       </c>
       <c r="C126" t="s" s="7">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D126" s="11">
-        <v>1</v>
-      </c>
-      <c r="E126" s="9">
-        <v>0.402597402597403</v>
-      </c>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
-      <c r="H126" s="10"/>
-      <c r="I126" s="10"/>
-      <c r="J126" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="10">
+        <v>0.875</v>
+      </c>
+      <c r="H126" s="10">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
     </row>
     <row r="127" ht="14.35" customHeight="1">
       <c r="A127" t="s" s="7">
@@ -6269,16 +6575,18 @@
         <v>12</v>
       </c>
       <c r="D127" s="8">
-        <v>0.788461538461538</v>
-      </c>
-      <c r="E127" s="9">
-        <v>0.701298701298701</v>
-      </c>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="10"/>
-      <c r="I127" s="10"/>
-      <c r="J127" s="10"/>
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="10">
+        <v>0</v>
+      </c>
+      <c r="H127" s="10">
+        <v>0.597402597402597</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
     </row>
     <row r="128" ht="14.35" customHeight="1">
       <c r="A128" t="s" s="7">
@@ -6287,20 +6595,20 @@
       <c r="B128" t="s" s="7">
         <v>263</v>
       </c>
-      <c r="C128" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D128" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E128" s="9">
-        <v>0.558441558441558</v>
-      </c>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="10"/>
-      <c r="I128" s="10"/>
-      <c r="J128" s="10"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="11">
+        <v>0</v>
+      </c>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="10">
+        <v>0</v>
+      </c>
+      <c r="H128" s="10">
+        <v>0.194805194805195</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
     </row>
     <row r="129" ht="14.35" customHeight="1">
       <c r="A129" t="s" s="7">
@@ -6310,19 +6618,21 @@
         <v>265</v>
       </c>
       <c r="C129" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D129" s="8">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="E129" s="9">
-        <v>0.519480519480519</v>
-      </c>
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="10"/>
-      <c r="I129" s="10"/>
-      <c r="J129" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="D129" s="11">
+        <v>1</v>
+      </c>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="10">
+        <v>0</v>
+      </c>
+      <c r="H129" s="10">
+        <v>0.402597402597403</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
     </row>
     <row r="130" ht="14.35" customHeight="1">
       <c r="A130" t="s" s="7">
@@ -6332,19 +6642,21 @@
         <v>267</v>
       </c>
       <c r="C130" t="s" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D130" s="8">
-        <v>0.903846153846154</v>
-      </c>
-      <c r="E130" s="9">
-        <v>0.61038961038961</v>
-      </c>
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="10"/>
-      <c r="I130" s="10"/>
-      <c r="J130" s="10"/>
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="10">
+        <v>0.859375</v>
+      </c>
+      <c r="H130" s="10">
+        <v>0.701298701298701</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
     </row>
     <row r="131" ht="14.35" customHeight="1">
       <c r="A131" t="s" s="7">
@@ -6357,16 +6669,18 @@
         <v>12</v>
       </c>
       <c r="D131" s="8">
-        <v>0.788461538461538</v>
-      </c>
-      <c r="E131" s="9">
-        <v>0.246753246753247</v>
-      </c>
-      <c r="F131" s="10"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="10"/>
-      <c r="I131" s="10"/>
-      <c r="J131" s="10"/>
+        <v>0.75</v>
+      </c>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="10">
+        <v>0.765625</v>
+      </c>
+      <c r="H131" s="10">
+        <v>0.558441558441558</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
     </row>
     <row r="132" ht="14.35" customHeight="1">
       <c r="A132" t="s" s="7">
@@ -6375,18 +6689,22 @@
       <c r="B132" t="s" s="7">
         <v>271</v>
       </c>
-      <c r="C132" s="10"/>
+      <c r="C132" t="s" s="7">
+        <v>27</v>
+      </c>
       <c r="D132" s="8">
-        <v>0.673076923076923</v>
-      </c>
-      <c r="E132" s="9">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="F132" s="10"/>
-      <c r="G132" s="10"/>
-      <c r="H132" s="10"/>
-      <c r="I132" s="10"/>
-      <c r="J132" s="10"/>
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="10">
+        <v>0.96875</v>
+      </c>
+      <c r="H132" s="10">
+        <v>0.519480519480519</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
     </row>
     <row r="133" ht="14.35" customHeight="1">
       <c r="A133" t="s" s="7">
@@ -6396,19 +6714,21 @@
         <v>273</v>
       </c>
       <c r="C133" t="s" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D133" s="8">
-        <v>0.615384615384615</v>
-      </c>
-      <c r="E133" s="9">
-        <v>0.5844155844155841</v>
-      </c>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="10"/>
-      <c r="I133" s="10"/>
-      <c r="J133" s="10"/>
+        <v>0.903846153846154</v>
+      </c>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="10">
+        <v>0.90625</v>
+      </c>
+      <c r="H133" s="10">
+        <v>0.61038961038961</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
     </row>
     <row r="134" ht="14.35" customHeight="1">
       <c r="A134" t="s" s="7">
@@ -6418,19 +6738,21 @@
         <v>275</v>
       </c>
       <c r="C134" t="s" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D134" s="8">
-        <v>0.846153846153846</v>
-      </c>
-      <c r="E134" s="9">
-        <v>0.493506493506494</v>
-      </c>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
-      <c r="H134" s="10"/>
-      <c r="I134" s="10"/>
-      <c r="J134" s="10"/>
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="10">
+        <v>0.90625</v>
+      </c>
+      <c r="H134" s="10">
+        <v>0.246753246753247</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
     </row>
     <row r="135" ht="14.35" customHeight="1">
       <c r="A135" t="s" s="7">
@@ -6439,20 +6761,20 @@
       <c r="B135" t="s" s="7">
         <v>277</v>
       </c>
-      <c r="C135" t="s" s="7">
-        <v>27</v>
-      </c>
+      <c r="C135" s="9"/>
       <c r="D135" s="8">
-        <v>0.903846153846154</v>
-      </c>
-      <c r="E135" s="9">
-        <v>0.467532467532468</v>
-      </c>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="10"/>
-      <c r="I135" s="10"/>
-      <c r="J135" s="10"/>
+        <v>0.673076923076923</v>
+      </c>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="10">
+        <v>0.84375</v>
+      </c>
+      <c r="H135" s="10">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
     </row>
     <row r="136" ht="14.35" customHeight="1">
       <c r="A136" t="s" s="7">
@@ -6462,19 +6784,21 @@
         <v>279</v>
       </c>
       <c r="C136" t="s" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D136" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E136" s="9">
+        <v>0.615384615384615</v>
+      </c>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="10">
+        <v>0.90625</v>
+      </c>
+      <c r="H136" s="10">
         <v>0.5844155844155841</v>
       </c>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
-      <c r="H136" s="10"/>
-      <c r="I136" s="10"/>
-      <c r="J136" s="10"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
     </row>
     <row r="137" ht="14.35" customHeight="1">
       <c r="A137" t="s" s="7">
@@ -6486,17 +6810,19 @@
       <c r="C137" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D137" s="11">
-        <v>0</v>
-      </c>
-      <c r="E137" s="9">
-        <v>0.428571428571429</v>
-      </c>
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
-      <c r="H137" s="10"/>
-      <c r="I137" s="10"/>
-      <c r="J137" s="10"/>
+      <c r="D137" s="8">
+        <v>0.846153846153846</v>
+      </c>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="10">
+        <v>0.828125</v>
+      </c>
+      <c r="H137" s="10">
+        <v>0.493506493506494</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
     </row>
     <row r="138" ht="14.35" customHeight="1">
       <c r="A138" t="s" s="7">
@@ -6505,18 +6831,22 @@
       <c r="B138" t="s" s="7">
         <v>283</v>
       </c>
-      <c r="C138" s="10"/>
-      <c r="D138" s="11">
-        <v>0</v>
-      </c>
-      <c r="E138" s="9">
-        <v>0.675324675324675</v>
-      </c>
-      <c r="F138" s="10"/>
-      <c r="G138" s="10"/>
-      <c r="H138" s="10"/>
-      <c r="I138" s="10"/>
-      <c r="J138" s="10"/>
+      <c r="C138" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="D138" s="8">
+        <v>0.903846153846154</v>
+      </c>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="10">
+        <v>0.640625</v>
+      </c>
+      <c r="H138" s="10">
+        <v>0.467532467532468</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
     </row>
     <row r="139" ht="14.35" customHeight="1">
       <c r="A139" t="s" s="7">
@@ -6526,19 +6856,21 @@
         <v>285</v>
       </c>
       <c r="C139" t="s" s="7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D139" s="8">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="E139" s="9">
-        <v>0.350649350649351</v>
-      </c>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
-      <c r="H139" s="10"/>
-      <c r="I139" s="10"/>
-      <c r="J139" s="10"/>
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="10">
+        <v>0.84375</v>
+      </c>
+      <c r="H139" s="10">
+        <v>0.5844155844155841</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
     </row>
     <row r="140" ht="14.35" customHeight="1">
       <c r="A140" t="s" s="7">
@@ -6548,19 +6880,21 @@
         <v>287</v>
       </c>
       <c r="C140" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="D140" s="8">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="E140" s="9">
-        <v>0.506493506493506</v>
-      </c>
-      <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
-      <c r="H140" s="10"/>
-      <c r="I140" s="10"/>
-      <c r="J140" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="D140" s="11">
+        <v>0</v>
+      </c>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="10">
+        <v>0.859375</v>
+      </c>
+      <c r="H140" s="10">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
     </row>
     <row r="141" ht="14.35" customHeight="1">
       <c r="A141" t="s" s="7">
@@ -6569,20 +6903,20 @@
       <c r="B141" t="s" s="7">
         <v>289</v>
       </c>
-      <c r="C141" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D141" s="8">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="E141" s="9">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="10"/>
-      <c r="I141" s="10"/>
-      <c r="J141" s="10"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="11">
+        <v>0</v>
+      </c>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="10">
+        <v>0</v>
+      </c>
+      <c r="H141" s="10">
+        <v>0.675324675324675</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
     </row>
     <row r="142" ht="14.35" customHeight="1">
       <c r="A142" t="s" s="7">
@@ -6591,18 +6925,22 @@
       <c r="B142" t="s" s="7">
         <v>291</v>
       </c>
-      <c r="C142" s="10"/>
-      <c r="D142" s="11">
-        <v>0</v>
-      </c>
-      <c r="E142" s="9">
-        <v>0.337662337662338</v>
-      </c>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="10"/>
-      <c r="I142" s="10"/>
-      <c r="J142" s="10"/>
+      <c r="C142" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="D142" s="8">
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="10">
+        <v>0.734375</v>
+      </c>
+      <c r="H142" s="10">
+        <v>0.350649350649351</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
     </row>
     <row r="143" ht="14.35" customHeight="1">
       <c r="A143" t="s" s="7">
@@ -6612,19 +6950,21 @@
         <v>293</v>
       </c>
       <c r="C143" t="s" s="7">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D143" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E143" s="9">
-        <v>0.38961038961039</v>
-      </c>
-      <c r="F143" s="10"/>
-      <c r="G143" s="10"/>
-      <c r="H143" s="10"/>
-      <c r="I143" s="10"/>
-      <c r="J143" s="10"/>
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="10">
+        <v>0.8125</v>
+      </c>
+      <c r="H143" s="10">
+        <v>0.506493506493506</v>
+      </c>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
     </row>
     <row r="144" ht="14.35" customHeight="1">
       <c r="A144" t="s" s="7">
@@ -6637,16 +6977,18 @@
         <v>27</v>
       </c>
       <c r="D144" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E144" s="9">
-        <v>0.493506493506494</v>
-      </c>
-      <c r="F144" s="10"/>
-      <c r="G144" s="10"/>
-      <c r="H144" s="10"/>
-      <c r="I144" s="10"/>
-      <c r="J144" s="10"/>
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="10">
+        <v>0.765625</v>
+      </c>
+      <c r="H144" s="10">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
     </row>
     <row r="145" ht="14.35" customHeight="1">
       <c r="A145" t="s" s="7">
@@ -6656,19 +6998,21 @@
         <v>297</v>
       </c>
       <c r="C145" t="s" s="7">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D145" s="11">
         <v>0</v>
       </c>
-      <c r="E145" s="9">
-        <v>0.597402597402597</v>
-      </c>
-      <c r="F145" s="10"/>
-      <c r="G145" s="10"/>
-      <c r="H145" s="10"/>
-      <c r="I145" s="10"/>
-      <c r="J145" s="10"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="10">
+        <v>0.8125</v>
+      </c>
+      <c r="H145" s="10">
+        <v>0.337662337662338</v>
+      </c>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
     </row>
     <row r="146" ht="14.35" customHeight="1">
       <c r="A146" t="s" s="7">
@@ -6678,19 +7022,21 @@
         <v>299</v>
       </c>
       <c r="C146" t="s" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D146" s="8">
-        <v>0.923076923076923</v>
-      </c>
-      <c r="E146" s="9">
-        <v>0.649350649350649</v>
-      </c>
-      <c r="F146" s="10"/>
-      <c r="G146" s="10"/>
-      <c r="H146" s="10"/>
-      <c r="I146" s="10"/>
-      <c r="J146" s="10"/>
+        <v>0.75</v>
+      </c>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="10">
+        <v>0.84375</v>
+      </c>
+      <c r="H146" s="10">
+        <v>0.38961038961039</v>
+      </c>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
     </row>
     <row r="147" ht="14.35" customHeight="1">
       <c r="A147" t="s" s="7">
@@ -6699,18 +7045,22 @@
       <c r="B147" t="s" s="7">
         <v>301</v>
       </c>
-      <c r="C147" s="10"/>
-      <c r="D147" s="11">
-        <v>0</v>
-      </c>
-      <c r="E147" s="9">
-        <v>0.532467532467532</v>
-      </c>
-      <c r="F147" s="10"/>
-      <c r="G147" s="10"/>
-      <c r="H147" s="10"/>
-      <c r="I147" s="10"/>
-      <c r="J147" s="10"/>
+      <c r="C147" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="D147" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="10">
+        <v>0.890625</v>
+      </c>
+      <c r="H147" s="10">
+        <v>0.493506493506494</v>
+      </c>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
     </row>
     <row r="148" ht="14.35" customHeight="1">
       <c r="A148" t="s" s="7">
@@ -6720,19 +7070,21 @@
         <v>303</v>
       </c>
       <c r="C148" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D148" s="8">
-        <v>0.846153846153846</v>
-      </c>
-      <c r="E148" s="9">
-        <v>0.532467532467532</v>
-      </c>
-      <c r="F148" s="10"/>
-      <c r="G148" s="10"/>
-      <c r="H148" s="10"/>
-      <c r="I148" s="10"/>
-      <c r="J148" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="D148" s="11">
+        <v>0</v>
+      </c>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="10">
+        <v>0.890625</v>
+      </c>
+      <c r="H148" s="10">
+        <v>0.597402597402597</v>
+      </c>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
     </row>
     <row r="149" ht="14.35" customHeight="1">
       <c r="A149" t="s" s="7">
@@ -6742,19 +7094,21 @@
         <v>305</v>
       </c>
       <c r="C149" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D149" s="11">
+        <v>12</v>
+      </c>
+      <c r="D149" s="8">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="10">
         <v>0</v>
       </c>
-      <c r="E149" s="9">
-        <v>0.597402597402597</v>
-      </c>
-      <c r="F149" s="10"/>
-      <c r="G149" s="10"/>
-      <c r="H149" s="10"/>
-      <c r="I149" s="10"/>
-      <c r="J149" s="10"/>
+      <c r="H149" s="10">
+        <v>0.649350649350649</v>
+      </c>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
     </row>
     <row r="150" ht="14.35" customHeight="1">
       <c r="A150" t="s" s="7">
@@ -6763,20 +7117,20 @@
       <c r="B150" t="s" s="7">
         <v>307</v>
       </c>
-      <c r="C150" t="s" s="7">
-        <v>24</v>
-      </c>
+      <c r="C150" s="9"/>
       <c r="D150" s="11">
         <v>0</v>
       </c>
-      <c r="E150" s="9">
-        <v>0.324675324675325</v>
-      </c>
-      <c r="F150" s="10"/>
-      <c r="G150" s="10"/>
-      <c r="H150" s="10"/>
-      <c r="I150" s="10"/>
-      <c r="J150" s="10"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="10">
+        <v>0.90625</v>
+      </c>
+      <c r="H150" s="10">
+        <v>0.532467532467532</v>
+      </c>
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
     </row>
     <row r="151" ht="14.35" customHeight="1">
       <c r="A151" t="s" s="7">
@@ -6786,19 +7140,21 @@
         <v>309</v>
       </c>
       <c r="C151" t="s" s="7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D151" s="8">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="E151" s="9">
-        <v>0.350649350649351</v>
-      </c>
-      <c r="F151" s="10"/>
-      <c r="G151" s="10"/>
-      <c r="H151" s="10"/>
-      <c r="I151" s="10"/>
-      <c r="J151" s="10"/>
+        <v>0.846153846153846</v>
+      </c>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="10">
+        <v>0.71875</v>
+      </c>
+      <c r="H151" s="10">
+        <v>0.532467532467532</v>
+      </c>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
     </row>
     <row r="152" ht="14.35" customHeight="1">
       <c r="A152" t="s" s="7">
@@ -6808,19 +7164,21 @@
         <v>311</v>
       </c>
       <c r="C152" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D152" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E152" s="9">
-        <v>0.506493506493506</v>
-      </c>
-      <c r="F152" s="10"/>
-      <c r="G152" s="10"/>
-      <c r="H152" s="10"/>
-      <c r="I152" s="10"/>
-      <c r="J152" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="D152" s="11">
+        <v>0</v>
+      </c>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="10">
+        <v>0.84375</v>
+      </c>
+      <c r="H152" s="10">
+        <v>0.597402597402597</v>
+      </c>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
     </row>
     <row r="153" ht="14.35" customHeight="1">
       <c r="A153" t="s" s="7">
@@ -6830,19 +7188,21 @@
         <v>313</v>
       </c>
       <c r="C153" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D153" s="8">
-        <v>0.942307692307692</v>
-      </c>
-      <c r="E153" s="9">
-        <v>0.467532467532468</v>
-      </c>
-      <c r="F153" s="10"/>
-      <c r="G153" s="10"/>
-      <c r="H153" s="10"/>
-      <c r="I153" s="10"/>
-      <c r="J153" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="D153" s="11">
+        <v>0</v>
+      </c>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="10">
+        <v>0.890625</v>
+      </c>
+      <c r="H153" s="10">
+        <v>0.324675324675325</v>
+      </c>
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
     </row>
     <row r="154" ht="14.35" customHeight="1">
       <c r="A154" t="s" s="7">
@@ -6852,19 +7212,21 @@
         <v>315</v>
       </c>
       <c r="C154" t="s" s="7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D154" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E154" s="9">
-        <v>0.688311688311688</v>
-      </c>
-      <c r="F154" s="10"/>
-      <c r="G154" s="10"/>
-      <c r="H154" s="10"/>
-      <c r="I154" s="10"/>
-      <c r="J154" s="10"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="H154" s="10">
+        <v>0.350649350649351</v>
+      </c>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
     </row>
     <row r="155" ht="14.35" customHeight="1">
       <c r="A155" t="s" s="7">
@@ -6874,19 +7236,21 @@
         <v>317</v>
       </c>
       <c r="C155" t="s" s="7">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D155" s="8">
-        <v>0.807692307692308</v>
-      </c>
-      <c r="E155" s="9">
-        <v>0.727272727272727</v>
-      </c>
-      <c r="F155" s="10"/>
-      <c r="G155" s="10"/>
-      <c r="H155" s="10"/>
-      <c r="I155" s="10"/>
-      <c r="J155" s="10"/>
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="10">
+        <v>0.765625</v>
+      </c>
+      <c r="H155" s="10">
+        <v>0.506493506493506</v>
+      </c>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
     </row>
     <row r="156" ht="14.35" customHeight="1">
       <c r="A156" t="s" s="7">
@@ -6895,18 +7259,22 @@
       <c r="B156" t="s" s="7">
         <v>319</v>
       </c>
-      <c r="C156" s="10"/>
-      <c r="D156" s="11">
-        <v>0</v>
-      </c>
-      <c r="E156" s="9">
-        <v>0.493506493506494</v>
-      </c>
-      <c r="F156" s="10"/>
-      <c r="G156" s="10"/>
-      <c r="H156" s="10"/>
-      <c r="I156" s="10"/>
-      <c r="J156" s="10"/>
+      <c r="C156" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="D156" s="8">
+        <v>0.942307692307692</v>
+      </c>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="10">
+        <v>0.859375</v>
+      </c>
+      <c r="H156" s="10">
+        <v>0.467532467532468</v>
+      </c>
+      <c r="I156" s="9"/>
+      <c r="J156" s="9"/>
     </row>
     <row r="157" ht="14.35" customHeight="1">
       <c r="A157" t="s" s="7">
@@ -6916,19 +7284,21 @@
         <v>321</v>
       </c>
       <c r="C157" t="s" s="7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D157" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E157" s="9">
-        <v>0.61038961038961</v>
-      </c>
-      <c r="F157" s="10"/>
-      <c r="G157" s="10"/>
-      <c r="H157" s="10"/>
-      <c r="I157" s="10"/>
-      <c r="J157" s="10"/>
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="H157" s="10">
+        <v>0.688311688311688</v>
+      </c>
+      <c r="I157" s="9"/>
+      <c r="J157" s="9"/>
     </row>
     <row r="158" ht="14.35" customHeight="1">
       <c r="A158" t="s" s="7">
@@ -6937,18 +7307,22 @@
       <c r="B158" t="s" s="7">
         <v>323</v>
       </c>
-      <c r="C158" s="10"/>
-      <c r="D158" s="11">
-        <v>0</v>
-      </c>
-      <c r="E158" s="9">
-        <v>0.506493506493506</v>
-      </c>
-      <c r="F158" s="10"/>
-      <c r="G158" s="10"/>
-      <c r="H158" s="10"/>
-      <c r="I158" s="10"/>
-      <c r="J158" s="10"/>
+      <c r="C158" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="D158" s="8">
+        <v>0.807692307692308</v>
+      </c>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="H158" s="10">
+        <v>0.727272727272727</v>
+      </c>
+      <c r="I158" s="9"/>
+      <c r="J158" s="9"/>
     </row>
     <row r="159" ht="14.35" customHeight="1">
       <c r="A159" t="s" s="7">
@@ -6958,19 +7332,21 @@
         <v>325</v>
       </c>
       <c r="C159" t="s" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D159" s="11">
         <v>0</v>
       </c>
-      <c r="E159" s="9">
-        <v>0.636363636363636</v>
-      </c>
-      <c r="F159" s="10"/>
-      <c r="G159" s="10"/>
-      <c r="H159" s="10"/>
-      <c r="I159" s="10"/>
-      <c r="J159" s="10"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="10">
+        <v>0.71875</v>
+      </c>
+      <c r="H159" s="10">
+        <v>0.493506493506494</v>
+      </c>
+      <c r="I159" s="9"/>
+      <c r="J159" s="9"/>
     </row>
     <row r="160" ht="14.35" customHeight="1">
       <c r="A160" t="s" s="7">
@@ -6979,18 +7355,22 @@
       <c r="B160" t="s" s="7">
         <v>327</v>
       </c>
-      <c r="C160" s="10"/>
+      <c r="C160" t="s" s="7">
+        <v>12</v>
+      </c>
       <c r="D160" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E160" s="9">
-        <v>0.636363636363636</v>
-      </c>
-      <c r="F160" s="10"/>
-      <c r="G160" s="10"/>
-      <c r="H160" s="10"/>
-      <c r="I160" s="10"/>
-      <c r="J160" s="10"/>
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="10">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H160" s="10">
+        <v>0.61038961038961</v>
+      </c>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9"/>
     </row>
     <row r="161" ht="14.35" customHeight="1">
       <c r="A161" t="s" s="7">
@@ -6999,20 +7379,20 @@
       <c r="B161" t="s" s="7">
         <v>329</v>
       </c>
-      <c r="C161" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="D161" s="8">
-        <v>0.788461538461538</v>
-      </c>
-      <c r="E161" s="9">
-        <v>0.467532467532468</v>
-      </c>
-      <c r="F161" s="10"/>
-      <c r="G161" s="10"/>
-      <c r="H161" s="10"/>
-      <c r="I161" s="10"/>
-      <c r="J161" s="10"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="11">
+        <v>0</v>
+      </c>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="10">
+        <v>0.84375</v>
+      </c>
+      <c r="H161" s="10">
+        <v>0.506493506493506</v>
+      </c>
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
     </row>
     <row r="162" ht="14.35" customHeight="1">
       <c r="A162" t="s" s="7">
@@ -7022,19 +7402,21 @@
         <v>331</v>
       </c>
       <c r="C162" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D162" s="8">
-        <v>1</v>
-      </c>
-      <c r="E162" s="9">
-        <v>0.623376623376623</v>
-      </c>
-      <c r="F162" s="10"/>
-      <c r="G162" s="10"/>
-      <c r="H162" s="10"/>
-      <c r="I162" s="10"/>
-      <c r="J162" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="D162" s="11">
+        <v>0</v>
+      </c>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="10">
+        <v>0.875</v>
+      </c>
+      <c r="H162" s="10">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="I162" s="9"/>
+      <c r="J162" s="9"/>
     </row>
     <row r="163" ht="14.35" customHeight="1">
       <c r="A163" t="s" s="7">
@@ -7044,19 +7426,21 @@
         <v>333</v>
       </c>
       <c r="C163" t="s" s="7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D163" s="8">
-        <v>0.826923076923077</v>
-      </c>
-      <c r="E163" s="9">
-        <v>0.519480519480519</v>
-      </c>
-      <c r="F163" s="10"/>
-      <c r="G163" s="10"/>
-      <c r="H163" s="10"/>
-      <c r="I163" s="10"/>
-      <c r="J163" s="10"/>
+        <v>0.75</v>
+      </c>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="10">
+        <v>0.703125</v>
+      </c>
+      <c r="H163" s="10">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="I163" s="9"/>
+      <c r="J163" s="9"/>
     </row>
     <row r="164" ht="14.35" customHeight="1">
       <c r="A164" t="s" s="7">
@@ -7071,14 +7455,16 @@
       <c r="D164" s="11">
         <v>0</v>
       </c>
-      <c r="E164" s="9">
-        <v>0.480519480519481</v>
-      </c>
-      <c r="F164" s="10"/>
-      <c r="G164" s="10"/>
-      <c r="H164" s="10"/>
-      <c r="I164" s="10"/>
-      <c r="J164" s="10"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="10">
+        <v>0.71875</v>
+      </c>
+      <c r="H164" s="10">
+        <v>0</v>
+      </c>
+      <c r="I164" s="9"/>
+      <c r="J164" s="9"/>
     </row>
     <row r="165" ht="14.35" customHeight="1">
       <c r="A165" t="s" s="7">
@@ -7088,19 +7474,21 @@
         <v>337</v>
       </c>
       <c r="C165" t="s" s="7">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D165" s="8">
-        <v>0.7692307692307691</v>
-      </c>
-      <c r="E165" s="9">
-        <v>0.636363636363636</v>
-      </c>
-      <c r="F165" s="10"/>
-      <c r="G165" s="10"/>
-      <c r="H165" s="10"/>
-      <c r="I165" s="10"/>
-      <c r="J165" s="10"/>
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="10">
+        <v>0.875</v>
+      </c>
+      <c r="H165" s="10">
+        <v>0.467532467532468</v>
+      </c>
+      <c r="I165" s="9"/>
+      <c r="J165" s="9"/>
     </row>
     <row r="166" ht="14.35" customHeight="1">
       <c r="A166" t="s" s="7">
@@ -7110,19 +7498,21 @@
         <v>339</v>
       </c>
       <c r="C166" t="s" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D166" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E166" s="9">
-        <v>0.402597402597403</v>
-      </c>
-      <c r="F166" s="10"/>
-      <c r="G166" s="10"/>
-      <c r="H166" s="10"/>
-      <c r="I166" s="10"/>
-      <c r="J166" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="10">
+        <v>0.671875</v>
+      </c>
+      <c r="H166" s="10">
+        <v>0.623376623376623</v>
+      </c>
+      <c r="I166" s="9"/>
+      <c r="J166" s="9"/>
     </row>
     <row r="167" ht="14.35" customHeight="1">
       <c r="A167" t="s" s="7">
@@ -7132,19 +7522,21 @@
         <v>341</v>
       </c>
       <c r="C167" t="s" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D167" s="8">
-        <v>0.846153846153846</v>
-      </c>
-      <c r="E167" s="9">
-        <v>0.532467532467532</v>
-      </c>
-      <c r="F167" s="10"/>
-      <c r="G167" s="10"/>
-      <c r="H167" s="10"/>
-      <c r="I167" s="10"/>
-      <c r="J167" s="10"/>
+        <v>0.826923076923077</v>
+      </c>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="10">
+        <v>0.53</v>
+      </c>
+      <c r="H167" s="10">
+        <v>0.519480519480519</v>
+      </c>
+      <c r="I167" s="9"/>
+      <c r="J167" s="9"/>
     </row>
     <row r="168" ht="14.35" customHeight="1">
       <c r="A168" t="s" s="7">
@@ -7154,19 +7546,21 @@
         <v>343</v>
       </c>
       <c r="C168" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D168" s="8">
-        <v>0.788461538461538</v>
-      </c>
-      <c r="E168" s="9">
-        <v>0.506493506493506</v>
-      </c>
-      <c r="F168" s="10"/>
-      <c r="G168" s="10"/>
-      <c r="H168" s="10"/>
-      <c r="I168" s="10"/>
-      <c r="J168" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="D168" s="11">
+        <v>0</v>
+      </c>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="10">
+        <v>0.90625</v>
+      </c>
+      <c r="H168" s="10">
+        <v>0.480519480519481</v>
+      </c>
+      <c r="I168" s="9"/>
+      <c r="J168" s="9"/>
     </row>
     <row r="169" ht="14.35" customHeight="1">
       <c r="A169" t="s" s="7">
@@ -7178,17 +7572,139 @@
       <c r="C169" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="D169" s="11">
+      <c r="D169" s="8">
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="10">
+        <v>0.8125</v>
+      </c>
+      <c r="H169" s="10">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="I169" s="9"/>
+      <c r="J169" s="9"/>
+    </row>
+    <row r="170" ht="14.35" customHeight="1">
+      <c r="A170" t="s" s="7">
+        <v>346</v>
+      </c>
+      <c r="B170" t="s" s="7">
+        <v>347</v>
+      </c>
+      <c r="C170" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="D170" s="8">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="10">
+        <v>0.84375</v>
+      </c>
+      <c r="H170" s="10">
+        <v>0.402597402597403</v>
+      </c>
+      <c r="I170" s="9"/>
+      <c r="J170" s="9"/>
+    </row>
+    <row r="171" ht="14.35" customHeight="1">
+      <c r="A171" t="s" s="7">
+        <v>348</v>
+      </c>
+      <c r="B171" t="s" s="7">
+        <v>349</v>
+      </c>
+      <c r="C171" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="D171" s="11">
+        <v>0</v>
+      </c>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="10">
+        <v>0.765625</v>
+      </c>
+      <c r="H171" s="10">
+        <v>0</v>
+      </c>
+      <c r="I171" s="9"/>
+      <c r="J171" s="9"/>
+    </row>
+    <row r="172" ht="14.35" customHeight="1">
+      <c r="A172" t="s" s="7">
+        <v>350</v>
+      </c>
+      <c r="B172" t="s" s="7">
+        <v>351</v>
+      </c>
+      <c r="C172" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="D172" s="8">
+        <v>0.846153846153846</v>
+      </c>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="10">
+        <v>0.875</v>
+      </c>
+      <c r="H172" s="10">
+        <v>0.532467532467532</v>
+      </c>
+      <c r="I172" s="9"/>
+      <c r="J172" s="9"/>
+    </row>
+    <row r="173" ht="14.35" customHeight="1">
+      <c r="A173" t="s" s="7">
+        <v>352</v>
+      </c>
+      <c r="B173" t="s" s="7">
+        <v>353</v>
+      </c>
+      <c r="C173" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="D173" s="8">
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
+      <c r="G173" s="10">
+        <v>0.84375</v>
+      </c>
+      <c r="H173" s="10">
+        <v>0.506493506493506</v>
+      </c>
+      <c r="I173" s="9"/>
+      <c r="J173" s="9"/>
+    </row>
+    <row r="174" ht="14.35" customHeight="1">
+      <c r="A174" t="s" s="7">
+        <v>354</v>
+      </c>
+      <c r="B174" t="s" s="7">
+        <v>355</v>
+      </c>
+      <c r="C174" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="D174" s="11">
         <v>1</v>
       </c>
-      <c r="E169" s="9">
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="10">
+        <v>0.875</v>
+      </c>
+      <c r="H174" s="10">
         <v>0.545454545454545</v>
       </c>
-      <c r="F169" s="10"/>
-      <c r="G169" s="10"/>
-      <c r="H169" s="10"/>
-      <c r="I169" s="10"/>
-      <c r="J169" s="10"/>
+      <c r="I174" s="9"/>
+      <c r="J174" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7204,147 +7720,147 @@
     <hyperlink ref="B11" r:id="rId10" location="" tooltip="" display="H220013Y@hit.ac.zw"/>
     <hyperlink ref="B12" r:id="rId11" location="" tooltip="" display="H220456T@hit.ac.zw"/>
     <hyperlink ref="B13" r:id="rId12" location="" tooltip="" display="H220239E@hit.ac.zw"/>
-    <hyperlink ref="B14" r:id="rId13" location="" tooltip="" display="H220396Z@hit.ac.zw"/>
-    <hyperlink ref="B15" r:id="rId14" location="" tooltip="" display="H220538A@hit.ac.zw"/>
-    <hyperlink ref="B16" r:id="rId15" location="" tooltip="" display="H220096J@hit.ac.zw"/>
-    <hyperlink ref="B17" r:id="rId16" location="" tooltip="" display="H220351Y@hit.ac.zw"/>
-    <hyperlink ref="B18" r:id="rId17" location="" tooltip="" display="H220135C@hit.ac.zw"/>
-    <hyperlink ref="B19" r:id="rId18" location="" tooltip="" display="H220424E@hit.ac.zw"/>
-    <hyperlink ref="B21" r:id="rId19" location="" tooltip="" display="H220141M@hit.ac.zw"/>
-    <hyperlink ref="B22" r:id="rId20" location="" tooltip="" display="H220345Y@hit.ac.zw"/>
-    <hyperlink ref="B23" r:id="rId21" location="" tooltip="" display="H220416V@hit.ac.zw"/>
-    <hyperlink ref="B24" r:id="rId22" location="" tooltip="" display="H220302Q@hit.ac.zw"/>
-    <hyperlink ref="B25" r:id="rId23" location="" tooltip="" display="H220662T@hit.ac.zw"/>
-    <hyperlink ref="B26" r:id="rId24" location="" tooltip="" display="h220670z@hit.ac.zw"/>
-    <hyperlink ref="B27" r:id="rId25" location="" tooltip="" display="H220303N@hit.ac.zw"/>
-    <hyperlink ref="B28" r:id="rId26" location="" tooltip="" display="H220091Z@hit.ac.zw"/>
-    <hyperlink ref="B29" r:id="rId27" location="" tooltip="" display="h210065z@hit.ac.zw"/>
-    <hyperlink ref="B30" r:id="rId28" location="" tooltip="" display="H220366V@hit.ac.zw"/>
-    <hyperlink ref="B31" r:id="rId29" location="" tooltip="" display="H220131R@hit.ac.zw"/>
-    <hyperlink ref="B33" r:id="rId30" location="" tooltip="" display="H220144F@hit.ac.zw"/>
-    <hyperlink ref="B34" r:id="rId31" location="" tooltip="" display="H220018Y@hit.ac.zw"/>
-    <hyperlink ref="B36" r:id="rId32" location="" tooltip="" display="H220476V@hit.ac.zw"/>
-    <hyperlink ref="B37" r:id="rId33" location="" tooltip="" display="H220075W@hit.ac.zw"/>
-    <hyperlink ref="B38" r:id="rId34" location="" tooltip="" display="H220283P@hit.ac.zw"/>
-    <hyperlink ref="B40" r:id="rId35" location="" tooltip="" display="H220023E@hit.ac.zw"/>
-    <hyperlink ref="B41" r:id="rId36" location="" tooltip="" display="H220202J@hit.ac.zw"/>
-    <hyperlink ref="B43" r:id="rId37" location="" tooltip="" display="H220431M@hit.ac.zw"/>
-    <hyperlink ref="B44" r:id="rId38" location="" tooltip="" display="H220218P@hit.ac.zw"/>
-    <hyperlink ref="B45" r:id="rId39" location="" tooltip="" display="H220494C@hit.ac.zw"/>
-    <hyperlink ref="B46" r:id="rId40" location="" tooltip="" display="H220582T@hit.ac.zw"/>
-    <hyperlink ref="B47" r:id="rId41" location="" tooltip="" display="H220084C@hit.ac.zw"/>
-    <hyperlink ref="B49" r:id="rId42" location="" tooltip="" display="H220343Y@hit.ac.zw"/>
-    <hyperlink ref="B50" r:id="rId43" location="" tooltip="" display="H220508Q@hit.ac.zw"/>
-    <hyperlink ref="B51" r:id="rId44" location="" tooltip="" display="H220349M@hit.ac.zw"/>
-    <hyperlink ref="B52" r:id="rId45" location="" tooltip="" display="H220045P@hit.ac.zw"/>
-    <hyperlink ref="B53" r:id="rId46" location="" tooltip="" display="H220038B@hit.ac.zw"/>
-    <hyperlink ref="B55" r:id="rId47" location="" tooltip="" display="H220480A@hit.ac.zw"/>
-    <hyperlink ref="B56" r:id="rId48" location="" tooltip="" display="H220052N@hit.ac.zw"/>
-    <hyperlink ref="B57" r:id="rId49" location="" tooltip="" display="H220379X@hit.ac.zw"/>
-    <hyperlink ref="B58" r:id="rId50" location="" tooltip="" display="H220281P@hit.ac.zw"/>
-    <hyperlink ref="B59" r:id="rId51" location="" tooltip="" display="H220413B@hit.ac.zw"/>
-    <hyperlink ref="B60" r:id="rId52" location="" tooltip="" display="H220042V@hit.ac.zw"/>
-    <hyperlink ref="B61" r:id="rId53" location="" tooltip="" display="H220153W@hit.ac.zw"/>
-    <hyperlink ref="B62" r:id="rId54" location="" tooltip="" display="H220094W@hit.ac.zw"/>
-    <hyperlink ref="B63" r:id="rId55" location="" tooltip="" display="H220230R@hit.ac.zw"/>
-    <hyperlink ref="B64" r:id="rId56" location="" tooltip="" display="H220122N@hit.ac.zw"/>
-    <hyperlink ref="B65" r:id="rId57" location="" tooltip="" display="H220152Q@hit.ac.zw"/>
-    <hyperlink ref="B67" r:id="rId58" location="" tooltip="" display="H220585W@hit.ac.zw"/>
-    <hyperlink ref="B68" r:id="rId59" location="" tooltip="" display="H220047M@hit.ac.zw"/>
-    <hyperlink ref="B69" r:id="rId60" location="" tooltip="" display="H220483J@hit.ac.zw"/>
-    <hyperlink ref="B70" r:id="rId61" location="" tooltip="" display="H220015F@hit.ac.zw"/>
-    <hyperlink ref="B71" r:id="rId62" location="" tooltip="" display="H220184Z@hit.ac.zw"/>
-    <hyperlink ref="B72" r:id="rId63" location="" tooltip="" display="H220392X@hit.ac.zw"/>
-    <hyperlink ref="B73" r:id="rId64" location="" tooltip="" display="H220187N@hit.ac.zw"/>
-    <hyperlink ref="B74" r:id="rId65" location="" tooltip="" display="H220421Y@hit.ac.zw"/>
-    <hyperlink ref="B76" r:id="rId66" location="" tooltip="" display="h200799c@hit.ac.zw"/>
-    <hyperlink ref="B78" r:id="rId67" location="" tooltip="" display="H220211V@hit.ac.zw"/>
-    <hyperlink ref="B79" r:id="rId68" location="" tooltip="" display="H220623Z@hit.ac.zw"/>
-    <hyperlink ref="B80" r:id="rId69" location="" tooltip="" display="H220315H@hit.ac.zw"/>
-    <hyperlink ref="B81" r:id="rId70" location="" tooltip="" display="H220063V@hit.ac.zw"/>
-    <hyperlink ref="B82" r:id="rId71" location="" tooltip="" display="H220019B@hit.ac.zw"/>
-    <hyperlink ref="B83" r:id="rId72" location="" tooltip="" display="H220316P@hit.ac.zw"/>
-    <hyperlink ref="B84" r:id="rId73" location="" tooltip="" display="H220550G@hit.ac.zw"/>
-    <hyperlink ref="B85" r:id="rId74" location="" tooltip="" display="H220004A@hit.ac.zw"/>
-    <hyperlink ref="B86" r:id="rId75" location="" tooltip="" display="H220133W@hit.ac.zw"/>
-    <hyperlink ref="B87" r:id="rId76" location="" tooltip="" display="H220313E@hit.ac.zw"/>
-    <hyperlink ref="B88" r:id="rId77" location="" tooltip="" display="H220427Q@hit.ac.zw"/>
-    <hyperlink ref="B89" r:id="rId78" location="" tooltip="" display="H220070V@hit.ac.zw"/>
-    <hyperlink ref="B90" r:id="rId79" location="" tooltip="" display="H220325F@hit.ac.zw"/>
-    <hyperlink ref="B91" r:id="rId80" location="" tooltip="" display="H220478P@hit.ac.zw"/>
-    <hyperlink ref="B92" r:id="rId81" location="" tooltip="" display="h180617h@hit.ac.zw"/>
-    <hyperlink ref="B93" r:id="rId82" location="" tooltip="" display="H220260C@hit.ac.zw"/>
-    <hyperlink ref="B94" r:id="rId83" location="" tooltip="" display="H220624V@hit.ac.zw"/>
-    <hyperlink ref="B95" r:id="rId84" location="" tooltip="" display="H220231W@hit.ac.zw"/>
-    <hyperlink ref="B96" r:id="rId85" location="" tooltip="" display="H220503P@hit.ac.zw"/>
-    <hyperlink ref="B97" r:id="rId86" location="" tooltip="" display="H220130J@hit.ac.zw"/>
-    <hyperlink ref="B98" r:id="rId87" location="" tooltip="" display="H220086F@hit.ac.zw"/>
-    <hyperlink ref="B99" r:id="rId88" location="" tooltip="" display="H220010Q@hit.ac.zw"/>
-    <hyperlink ref="B100" r:id="rId89" location="" tooltip="" display="h180134p@hit.ac.zw"/>
-    <hyperlink ref="B101" r:id="rId90" location="" tooltip="" display="H220564G@hit.ac.zw"/>
-    <hyperlink ref="B102" r:id="rId91" location="" tooltip="" display="H220462G@hit.ac.zw"/>
-    <hyperlink ref="B103" r:id="rId92" location="" tooltip="" display="H220204H@hit.ac.zw"/>
-    <hyperlink ref="B104" r:id="rId93" location="" tooltip="" display="H220516A@hit.ac.zw"/>
-    <hyperlink ref="B105" r:id="rId94" location="" tooltip="" display="H220183B@hit.ac.zw"/>
-    <hyperlink ref="B106" r:id="rId95" location="" tooltip="" display="H220449Q@hit.ac.zw"/>
-    <hyperlink ref="B108" r:id="rId96" location="" tooltip="" display="H220273W@hit.ac.zw"/>
-    <hyperlink ref="B109" r:id="rId97" location="" tooltip="" display="H220087E@hit.ac.zw"/>
-    <hyperlink ref="B110" r:id="rId98" location="" tooltip="" display="H220033G@hit.ac.zw"/>
-    <hyperlink ref="B111" r:id="rId99" location="" tooltip="" display="H220269E@hit.ac.zw"/>
-    <hyperlink ref="B112" r:id="rId100" location="" tooltip="" display="H220595W@hit.ac.zw"/>
-    <hyperlink ref="B113" r:id="rId101" location="" tooltip="" display="H220591F@hit.ac.zw"/>
-    <hyperlink ref="B114" r:id="rId102" location="" tooltip="" display="H220221G@hit.ac.zw"/>
-    <hyperlink ref="B116" r:id="rId103" location="" tooltip="" display="H220242Z@hit.ac.zw"/>
-    <hyperlink ref="B117" r:id="rId104" location="" tooltip="" display="H220348B@hit.ac.zw"/>
-    <hyperlink ref="B118" r:id="rId105" location="" tooltip="" display="H220418Y@hit.ac.zw"/>
-    <hyperlink ref="B119" r:id="rId106" location="" tooltip="" display="H220450T@hit.ac.zw"/>
-    <hyperlink ref="B120" r:id="rId107" location="" tooltip="" display="H220333Q@hit.ac.zw"/>
-    <hyperlink ref="B121" r:id="rId108" location="" tooltip="" display="H220320J@hit.ac.zw"/>
-    <hyperlink ref="B122" r:id="rId109" location="" tooltip="" display="H220311Y@hit.ac.zw"/>
-    <hyperlink ref="B123" r:id="rId110" location="" tooltip="" display="H220138M@hit.ac.zw"/>
-    <hyperlink ref="B124" r:id="rId111" location="" tooltip="" display="h210574b@hit.ac.zw"/>
-    <hyperlink ref="B127" r:id="rId112" location="" tooltip="" display="H220197V@hit.ac.zw"/>
-    <hyperlink ref="B128" r:id="rId113" location="" tooltip="" display="H220247A@hit.ac.zw"/>
-    <hyperlink ref="B129" r:id="rId114" location="" tooltip="" display="H220432X@hit.ac.zw"/>
-    <hyperlink ref="B130" r:id="rId115" location="" tooltip="" display="H220223N@hit.ac.zw"/>
-    <hyperlink ref="B132" r:id="rId116" location="" tooltip="" display="H220272P@hit.ac.zw"/>
-    <hyperlink ref="B133" r:id="rId117" location="" tooltip="" display="H220615W@hit.ac.zw"/>
-    <hyperlink ref="B134" r:id="rId118" location="" tooltip="" display="H220196A@hit.ac.zw"/>
-    <hyperlink ref="B135" r:id="rId119" location="" tooltip="" display="h220535v@hit.ac.zw"/>
-    <hyperlink ref="B136" r:id="rId120" location="" tooltip="" display="h220688a@hit.ac.zw"/>
-    <hyperlink ref="B137" r:id="rId121" location="" tooltip="" display="H220026H@hit.ac.zw"/>
-    <hyperlink ref="B138" r:id="rId122" location="" tooltip="" display="H220533P@hit.ac.zw"/>
-    <hyperlink ref="B139" r:id="rId123" location="" tooltip="" display="H220435X@hit.ac.zw"/>
-    <hyperlink ref="B140" r:id="rId124" location="" tooltip="" display="H220225C@hit.ac.zw"/>
-    <hyperlink ref="B141" r:id="rId125" location="" tooltip="" display="H220198F@hit.ac.zw"/>
-    <hyperlink ref="B142" r:id="rId126" location="" tooltip="" display="H220290G@hit.ac.zw"/>
-    <hyperlink ref="B143" r:id="rId127" location="" tooltip="" display="H220147B@hit.ac.zw"/>
-    <hyperlink ref="B144" r:id="rId128" location="" tooltip="" display="H220076E@hit.ac.zw"/>
-    <hyperlink ref="B145" r:id="rId129" location="" tooltip="" display="H220129A@hit.ac.zw"/>
-    <hyperlink ref="B146" r:id="rId130" location="" tooltip="" display="H220243A@hit.ac.zw"/>
-    <hyperlink ref="B147" r:id="rId131" location="" tooltip="" display="H220554M@hit.ac.zw"/>
-    <hyperlink ref="B148" r:id="rId132" location="" tooltip="" display="H220415J@hit.ac.zw"/>
-    <hyperlink ref="B149" r:id="rId133" location="" tooltip="" display="H220439A@hit.ac.zw"/>
-    <hyperlink ref="B150" r:id="rId134" location="" tooltip="" display="H220390X@hit.ac.zw"/>
-    <hyperlink ref="B151" r:id="rId135" location="" tooltip="" display="H220536M@hit.ac.zw"/>
-    <hyperlink ref="B152" r:id="rId136" location="" tooltip="" display="H220189E@hit.ac.zw"/>
-    <hyperlink ref="B153" r:id="rId137" location="" tooltip="" display="H220146J@hit.ac.zw"/>
-    <hyperlink ref="B154" r:id="rId138" location="" tooltip="" display="H220179T@hit.ac.zw"/>
-    <hyperlink ref="B155" r:id="rId139" location="" tooltip="" display="H220057B@hit.ac.zw"/>
-    <hyperlink ref="B156" r:id="rId140" location="" tooltip="" display="H220586J@hit.ac.zw"/>
-    <hyperlink ref="B157" r:id="rId141" location="" tooltip="" display="H220417Y@hit.ac.zw"/>
-    <hyperlink ref="B158" r:id="rId142" location="" tooltip="" display="H220553G@hit.ac.zw"/>
-    <hyperlink ref="B159" r:id="rId143" location="" tooltip="" display="H220250Q@hit.ac.zw"/>
-    <hyperlink ref="B160" r:id="rId144" location="" tooltip="" display="H220652T@hit.ac.zw"/>
-    <hyperlink ref="B161" r:id="rId145" location="" tooltip="" display="H220426Q@hit.ac.zw"/>
-    <hyperlink ref="B162" r:id="rId146" location="" tooltip="" display="H220072Y@hit.ac.zw"/>
-    <hyperlink ref="B163" r:id="rId147" location="" tooltip="" display="H220028G@hit.ac.zw"/>
-    <hyperlink ref="B164" r:id="rId148" location="" tooltip="" display="H220081X@hit.ac.zw"/>
-    <hyperlink ref="B165" r:id="rId149" location="" tooltip="" display="h210371h@hit.ac.zw"/>
-    <hyperlink ref="B166" r:id="rId150" location="" tooltip="" display="H220105E@hit.ac.zw"/>
-    <hyperlink ref="B167" r:id="rId151" location="" tooltip="" display="H220215E@hit.ac.zw"/>
-    <hyperlink ref="B168" r:id="rId152" location="" tooltip="" display="H220537B@hit.ac.zw"/>
-    <hyperlink ref="B169" r:id="rId153" location="" tooltip="" display="H220411Q@hit.ac.zw"/>
+    <hyperlink ref="B16" r:id="rId13" location="" tooltip="" display="H220396Z@hit.ac.zw"/>
+    <hyperlink ref="B17" r:id="rId14" location="" tooltip="" display="H220538A@hit.ac.zw"/>
+    <hyperlink ref="B18" r:id="rId15" location="" tooltip="" display="H220096J@hit.ac.zw"/>
+    <hyperlink ref="B19" r:id="rId16" location="" tooltip="" display="H220351Y@hit.ac.zw"/>
+    <hyperlink ref="B20" r:id="rId17" location="" tooltip="" display="H220135C@hit.ac.zw"/>
+    <hyperlink ref="B21" r:id="rId18" location="" tooltip="" display="H220424E@hit.ac.zw"/>
+    <hyperlink ref="B23" r:id="rId19" location="" tooltip="" display="H220141M@hit.ac.zw"/>
+    <hyperlink ref="B24" r:id="rId20" location="" tooltip="" display="H220345Y@hit.ac.zw"/>
+    <hyperlink ref="B25" r:id="rId21" location="" tooltip="" display="H220416V@hit.ac.zw"/>
+    <hyperlink ref="B26" r:id="rId22" location="" tooltip="" display="H220302Q@hit.ac.zw"/>
+    <hyperlink ref="B27" r:id="rId23" location="" tooltip="" display="H220662T@hit.ac.zw"/>
+    <hyperlink ref="B28" r:id="rId24" location="" tooltip="" display="h220670z@hit.ac.zw"/>
+    <hyperlink ref="B29" r:id="rId25" location="" tooltip="" display="H220303N@hit.ac.zw"/>
+    <hyperlink ref="B30" r:id="rId26" location="" tooltip="" display="H220091Z@hit.ac.zw"/>
+    <hyperlink ref="B31" r:id="rId27" location="" tooltip="" display="h210065z@hit.ac.zw"/>
+    <hyperlink ref="B32" r:id="rId28" location="" tooltip="" display="H220366V@hit.ac.zw"/>
+    <hyperlink ref="B33" r:id="rId29" location="" tooltip="" display="H220131R@hit.ac.zw"/>
+    <hyperlink ref="B35" r:id="rId30" location="" tooltip="" display="H220144F@hit.ac.zw"/>
+    <hyperlink ref="B36" r:id="rId31" location="" tooltip="" display="H220018Y@hit.ac.zw"/>
+    <hyperlink ref="B38" r:id="rId32" location="" tooltip="" display="H220476V@hit.ac.zw"/>
+    <hyperlink ref="B39" r:id="rId33" location="" tooltip="" display="H220075W@hit.ac.zw"/>
+    <hyperlink ref="B41" r:id="rId34" location="" tooltip="" display="H220283P@hit.ac.zw"/>
+    <hyperlink ref="B42" r:id="rId35" location="" tooltip="" display="H220023E@hit.ac.zw"/>
+    <hyperlink ref="B43" r:id="rId36" location="" tooltip="" display="H220202J@hit.ac.zw"/>
+    <hyperlink ref="B45" r:id="rId37" location="" tooltip="" display="H220431M@hit.ac.zw"/>
+    <hyperlink ref="B46" r:id="rId38" location="" tooltip="" display="H220218P@hit.ac.zw"/>
+    <hyperlink ref="B47" r:id="rId39" location="" tooltip="" display="H220494C@hit.ac.zw"/>
+    <hyperlink ref="B48" r:id="rId40" location="" tooltip="" display="H220582T@hit.ac.zw"/>
+    <hyperlink ref="B49" r:id="rId41" location="" tooltip="" display="H220084C@hit.ac.zw"/>
+    <hyperlink ref="B51" r:id="rId42" location="" tooltip="" display="H220343Y@hit.ac.zw"/>
+    <hyperlink ref="B52" r:id="rId43" location="" tooltip="" display="H220508Q@hit.ac.zw"/>
+    <hyperlink ref="B53" r:id="rId44" location="" tooltip="" display="H220349M@hit.ac.zw"/>
+    <hyperlink ref="B54" r:id="rId45" location="" tooltip="" display="H220045P@hit.ac.zw"/>
+    <hyperlink ref="B55" r:id="rId46" location="" tooltip="" display="H220038B@hit.ac.zw"/>
+    <hyperlink ref="B57" r:id="rId47" location="" tooltip="" display="H220480A@hit.ac.zw"/>
+    <hyperlink ref="B58" r:id="rId48" location="" tooltip="" display="H220052N@hit.ac.zw"/>
+    <hyperlink ref="B59" r:id="rId49" location="" tooltip="" display="H220379X@hit.ac.zw"/>
+    <hyperlink ref="B60" r:id="rId50" location="" tooltip="" display="H220281P@hit.ac.zw"/>
+    <hyperlink ref="B61" r:id="rId51" location="" tooltip="" display="H220413B@hit.ac.zw"/>
+    <hyperlink ref="B62" r:id="rId52" location="" tooltip="" display="H220042V@hit.ac.zw"/>
+    <hyperlink ref="B63" r:id="rId53" location="" tooltip="" display="H220153W@hit.ac.zw"/>
+    <hyperlink ref="B64" r:id="rId54" location="" tooltip="" display="H220094W@hit.ac.zw"/>
+    <hyperlink ref="B65" r:id="rId55" location="" tooltip="" display="H220230R@hit.ac.zw"/>
+    <hyperlink ref="B66" r:id="rId56" location="" tooltip="" display="H220122N@hit.ac.zw"/>
+    <hyperlink ref="B67" r:id="rId57" location="" tooltip="" display="H220152Q@hit.ac.zw"/>
+    <hyperlink ref="B69" r:id="rId58" location="" tooltip="" display="H220585W@hit.ac.zw"/>
+    <hyperlink ref="B70" r:id="rId59" location="" tooltip="" display="H220047M@hit.ac.zw"/>
+    <hyperlink ref="B71" r:id="rId60" location="" tooltip="" display="H220483J@hit.ac.zw"/>
+    <hyperlink ref="B72" r:id="rId61" location="" tooltip="" display="H220015F@hit.ac.zw"/>
+    <hyperlink ref="B73" r:id="rId62" location="" tooltip="" display="H220184Z@hit.ac.zw"/>
+    <hyperlink ref="B74" r:id="rId63" location="" tooltip="" display="H220392X@hit.ac.zw"/>
+    <hyperlink ref="B75" r:id="rId64" location="" tooltip="" display="H220187N@hit.ac.zw"/>
+    <hyperlink ref="B76" r:id="rId65" location="" tooltip="" display="H220421Y@hit.ac.zw"/>
+    <hyperlink ref="B78" r:id="rId66" location="" tooltip="" display="h200799c@hit.ac.zw"/>
+    <hyperlink ref="B80" r:id="rId67" location="" tooltip="" display="H220211V@hit.ac.zw"/>
+    <hyperlink ref="B81" r:id="rId68" location="" tooltip="" display="H220623Z@hit.ac.zw"/>
+    <hyperlink ref="B82" r:id="rId69" location="" tooltip="" display="H220315H@hit.ac.zw"/>
+    <hyperlink ref="B83" r:id="rId70" location="" tooltip="" display="H220063V@hit.ac.zw"/>
+    <hyperlink ref="B84" r:id="rId71" location="" tooltip="" display="H220019B@hit.ac.zw"/>
+    <hyperlink ref="B85" r:id="rId72" location="" tooltip="" display="H220316P@hit.ac.zw"/>
+    <hyperlink ref="B86" r:id="rId73" location="" tooltip="" display="H220550G@hit.ac.zw"/>
+    <hyperlink ref="B87" r:id="rId74" location="" tooltip="" display="H220004A@hit.ac.zw"/>
+    <hyperlink ref="B88" r:id="rId75" location="" tooltip="" display="H220133W@hit.ac.zw"/>
+    <hyperlink ref="B89" r:id="rId76" location="" tooltip="" display="H220313E@hit.ac.zw"/>
+    <hyperlink ref="B90" r:id="rId77" location="" tooltip="" display="H220427Q@hit.ac.zw"/>
+    <hyperlink ref="B91" r:id="rId78" location="" tooltip="" display="H220070V@hit.ac.zw"/>
+    <hyperlink ref="B92" r:id="rId79" location="" tooltip="" display="H220325F@hit.ac.zw"/>
+    <hyperlink ref="B93" r:id="rId80" location="" tooltip="" display="H220478P@hit.ac.zw"/>
+    <hyperlink ref="B94" r:id="rId81" location="" tooltip="" display="H220260C@hit.ac.zw"/>
+    <hyperlink ref="B95" r:id="rId82" location="" tooltip="" display="h180617h@hit.ac.zw"/>
+    <hyperlink ref="B96" r:id="rId83" location="" tooltip="" display="H220624V@hit.ac.zw"/>
+    <hyperlink ref="B97" r:id="rId84" location="" tooltip="" display="H220231W@hit.ac.zw"/>
+    <hyperlink ref="B98" r:id="rId85" location="" tooltip="" display="H220503P@hit.ac.zw"/>
+    <hyperlink ref="B99" r:id="rId86" location="" tooltip="" display="H220130J@hit.ac.zw"/>
+    <hyperlink ref="B100" r:id="rId87" location="" tooltip="" display="H220086F@hit.ac.zw"/>
+    <hyperlink ref="B102" r:id="rId88" location="" tooltip="" display="H220010Q@hit.ac.zw"/>
+    <hyperlink ref="B103" r:id="rId89" location="" tooltip="" display="h180134p@hit.ac.zw"/>
+    <hyperlink ref="B104" r:id="rId90" location="" tooltip="" display="H220564G@hit.ac.zw"/>
+    <hyperlink ref="B105" r:id="rId91" location="" tooltip="" display="H220462G@hit.ac.zw"/>
+    <hyperlink ref="B106" r:id="rId92" location="" tooltip="" display="H220204H@hit.ac.zw"/>
+    <hyperlink ref="B107" r:id="rId93" location="" tooltip="" display="H220516A@hit.ac.zw"/>
+    <hyperlink ref="B108" r:id="rId94" location="" tooltip="" display="H220183B@hit.ac.zw"/>
+    <hyperlink ref="B109" r:id="rId95" location="" tooltip="" display="H220449Q@hit.ac.zw"/>
+    <hyperlink ref="B111" r:id="rId96" location="" tooltip="" display="H220273W@hit.ac.zw"/>
+    <hyperlink ref="B112" r:id="rId97" location="" tooltip="" display="H220087E@hit.ac.zw"/>
+    <hyperlink ref="B113" r:id="rId98" location="" tooltip="" display="H220033G@hit.ac.zw"/>
+    <hyperlink ref="B114" r:id="rId99" location="" tooltip="" display="H220269E@hit.ac.zw"/>
+    <hyperlink ref="B115" r:id="rId100" location="" tooltip="" display="H220595W@hit.ac.zw"/>
+    <hyperlink ref="B116" r:id="rId101" location="" tooltip="" display="H220591F@hit.ac.zw"/>
+    <hyperlink ref="B117" r:id="rId102" location="" tooltip="" display="H220221G@hit.ac.zw"/>
+    <hyperlink ref="B119" r:id="rId103" location="" tooltip="" display="H220242Z@hit.ac.zw"/>
+    <hyperlink ref="B120" r:id="rId104" location="" tooltip="" display="H220348B@hit.ac.zw"/>
+    <hyperlink ref="B121" r:id="rId105" location="" tooltip="" display="H220418Y@hit.ac.zw"/>
+    <hyperlink ref="B122" r:id="rId106" location="" tooltip="" display="H220450T@hit.ac.zw"/>
+    <hyperlink ref="B123" r:id="rId107" location="" tooltip="" display="H220333Q@hit.ac.zw"/>
+    <hyperlink ref="B124" r:id="rId108" location="" tooltip="" display="H220320J@hit.ac.zw"/>
+    <hyperlink ref="B125" r:id="rId109" location="" tooltip="" display="H220311Y@hit.ac.zw"/>
+    <hyperlink ref="B126" r:id="rId110" location="" tooltip="" display="H220138M@hit.ac.zw"/>
+    <hyperlink ref="B127" r:id="rId111" location="" tooltip="" display="h210574b@hit.ac.zw"/>
+    <hyperlink ref="B130" r:id="rId112" location="" tooltip="" display="H220197V@hit.ac.zw"/>
+    <hyperlink ref="B131" r:id="rId113" location="" tooltip="" display="H220247A@hit.ac.zw"/>
+    <hyperlink ref="B132" r:id="rId114" location="" tooltip="" display="H220432X@hit.ac.zw"/>
+    <hyperlink ref="B133" r:id="rId115" location="" tooltip="" display="H220223N@hit.ac.zw"/>
+    <hyperlink ref="B135" r:id="rId116" location="" tooltip="" display="H220272P@hit.ac.zw"/>
+    <hyperlink ref="B136" r:id="rId117" location="" tooltip="" display="H220615W@hit.ac.zw"/>
+    <hyperlink ref="B137" r:id="rId118" location="" tooltip="" display="H220196A@hit.ac.zw"/>
+    <hyperlink ref="B138" r:id="rId119" location="" tooltip="" display="h220535v@hit.ac.zw"/>
+    <hyperlink ref="B139" r:id="rId120" location="" tooltip="" display="h220688a@hit.ac.zw"/>
+    <hyperlink ref="B140" r:id="rId121" location="" tooltip="" display="H220026H@hit.ac.zw"/>
+    <hyperlink ref="B141" r:id="rId122" location="" tooltip="" display="H220533P@hit.ac.zw"/>
+    <hyperlink ref="B142" r:id="rId123" location="" tooltip="" display="H220435X@hit.ac.zw"/>
+    <hyperlink ref="B143" r:id="rId124" location="" tooltip="" display="H220225C@hit.ac.zw"/>
+    <hyperlink ref="B144" r:id="rId125" location="" tooltip="" display="H220198F@hit.ac.zw"/>
+    <hyperlink ref="B145" r:id="rId126" location="" tooltip="" display="H220290G@hit.ac.zw"/>
+    <hyperlink ref="B146" r:id="rId127" location="" tooltip="" display="H220147B@hit.ac.zw"/>
+    <hyperlink ref="B147" r:id="rId128" location="" tooltip="" display="H220076E@hit.ac.zw"/>
+    <hyperlink ref="B148" r:id="rId129" location="" tooltip="" display="H220129A@hit.ac.zw"/>
+    <hyperlink ref="B149" r:id="rId130" location="" tooltip="" display="H220243A@hit.ac.zw"/>
+    <hyperlink ref="B150" r:id="rId131" location="" tooltip="" display="H220554M@hit.ac.zw"/>
+    <hyperlink ref="B151" r:id="rId132" location="" tooltip="" display="H220415J@hit.ac.zw"/>
+    <hyperlink ref="B152" r:id="rId133" location="" tooltip="" display="H220439A@hit.ac.zw"/>
+    <hyperlink ref="B153" r:id="rId134" location="" tooltip="" display="H220390X@hit.ac.zw"/>
+    <hyperlink ref="B154" r:id="rId135" location="" tooltip="" display="H220536M@hit.ac.zw"/>
+    <hyperlink ref="B155" r:id="rId136" location="" tooltip="" display="H220189E@hit.ac.zw"/>
+    <hyperlink ref="B156" r:id="rId137" location="" tooltip="" display="H220146J@hit.ac.zw"/>
+    <hyperlink ref="B157" r:id="rId138" location="" tooltip="" display="H220179T@hit.ac.zw"/>
+    <hyperlink ref="B158" r:id="rId139" location="" tooltip="" display="H220057B@hit.ac.zw"/>
+    <hyperlink ref="B159" r:id="rId140" location="" tooltip="" display="H220586J@hit.ac.zw"/>
+    <hyperlink ref="B160" r:id="rId141" location="" tooltip="" display="H220417Y@hit.ac.zw"/>
+    <hyperlink ref="B161" r:id="rId142" location="" tooltip="" display="H220553G@hit.ac.zw"/>
+    <hyperlink ref="B162" r:id="rId143" location="" tooltip="" display="H220250Q@hit.ac.zw"/>
+    <hyperlink ref="B163" r:id="rId144" location="" tooltip="" display="H220652T@hit.ac.zw"/>
+    <hyperlink ref="B165" r:id="rId145" location="" tooltip="" display="H220426Q@hit.ac.zw"/>
+    <hyperlink ref="B166" r:id="rId146" location="" tooltip="" display="H220072Y@hit.ac.zw"/>
+    <hyperlink ref="B167" r:id="rId147" location="" tooltip="" display="H220028G@hit.ac.zw"/>
+    <hyperlink ref="B168" r:id="rId148" location="" tooltip="" display="H220081X@hit.ac.zw"/>
+    <hyperlink ref="B169" r:id="rId149" location="" tooltip="" display="h210371h@hit.ac.zw"/>
+    <hyperlink ref="B170" r:id="rId150" location="" tooltip="" display="H220105E@hit.ac.zw"/>
+    <hyperlink ref="B172" r:id="rId151" location="" tooltip="" display="H220215E@hit.ac.zw"/>
+    <hyperlink ref="B173" r:id="rId152" location="" tooltip="" display="H220537B@hit.ac.zw"/>
+    <hyperlink ref="B174" r:id="rId153" location="" tooltip="" display="H220411Q@hit.ac.zw"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/cw11042022.xlsx
+++ b/cw11042022.xlsx
@@ -3591,7 +3591,7 @@
       <c r="H2" s="6">
         <v>0.25974025974026</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="5"/>
     </row>
     <row r="3" ht="14.35" customHeight="1">
@@ -3615,7 +3615,7 @@
       <c r="H3" s="10">
         <v>0.415584415584416</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="9"/>
     </row>
     <row r="4" ht="14.35" customHeight="1">
@@ -3639,7 +3639,7 @@
       <c r="H4" s="10">
         <v>0.545454545454545</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="I4" s="10"/>
       <c r="J4" s="9"/>
     </row>
     <row r="5" ht="14.35" customHeight="1">
@@ -3663,7 +3663,7 @@
       <c r="H5" s="10">
         <v>0.454545454545455</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="10"/>
       <c r="J5" s="9"/>
     </row>
     <row r="6" ht="14.35" customHeight="1">
@@ -3687,7 +3687,7 @@
       <c r="H6" s="10">
         <v>0.272727272727273</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="9"/>
     </row>
     <row r="7" ht="14.35" customHeight="1">
@@ -3711,7 +3711,7 @@
       <c r="H7" s="10">
         <v>0.441558441558442</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" ht="14.35" customHeight="1">
@@ -3735,7 +3735,7 @@
       <c r="H8" s="10">
         <v>0.649350649350649</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="10"/>
       <c r="J8" s="9"/>
     </row>
     <row r="9" ht="14.35" customHeight="1">
@@ -3759,7 +3759,7 @@
       <c r="H9" s="10">
         <v>0.350649350649351</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="I9" s="10"/>
       <c r="J9" s="9"/>
     </row>
     <row r="10" ht="14.35" customHeight="1">
@@ -3783,7 +3783,7 @@
       <c r="H10" s="10">
         <v>0.337662337662338</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="10"/>
       <c r="J10" s="9"/>
     </row>
     <row r="11" ht="14.35" customHeight="1">
@@ -3807,7 +3807,9 @@
       <c r="H11" s="10">
         <v>0.298701298701299</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="10">
+        <v>0.257142857142857</v>
+      </c>
       <c r="J11" s="9"/>
     </row>
     <row r="12" ht="14.35" customHeight="1">
@@ -3831,7 +3833,7 @@
       <c r="H12" s="10">
         <v>0.324675324675325</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="9"/>
     </row>
     <row r="13" ht="14.35" customHeight="1">
@@ -3855,7 +3857,7 @@
       <c r="H13" s="10">
         <v>0.493506493506494</v>
       </c>
-      <c r="I13" s="9"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="9"/>
     </row>
     <row r="14" ht="14.35" customHeight="1">
@@ -3879,7 +3881,7 @@
       <c r="H14" s="10">
         <v>0</v>
       </c>
-      <c r="I14" s="9"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="9"/>
     </row>
     <row r="15" ht="14.35" customHeight="1">
@@ -3903,7 +3905,7 @@
       <c r="H15" s="10">
         <v>0</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="9"/>
     </row>
     <row r="16" ht="14.35" customHeight="1">
@@ -3927,7 +3929,7 @@
       <c r="H16" s="10">
         <v>0.506493506493506</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="I16" s="10"/>
       <c r="J16" s="9"/>
     </row>
     <row r="17" ht="14.35" customHeight="1">
@@ -3951,7 +3953,7 @@
       <c r="H17" s="10">
         <v>0.506493506493506</v>
       </c>
-      <c r="I17" s="9"/>
+      <c r="I17" s="10"/>
       <c r="J17" s="9"/>
     </row>
     <row r="18" ht="14.35" customHeight="1">
@@ -3975,7 +3977,7 @@
       <c r="H18" s="10">
         <v>0.623376623376623</v>
       </c>
-      <c r="I18" s="9"/>
+      <c r="I18" s="10"/>
       <c r="J18" s="9"/>
     </row>
     <row r="19" ht="14.35" customHeight="1">
@@ -3999,7 +4001,7 @@
       <c r="H19" s="10">
         <v>0.597402597402597</v>
       </c>
-      <c r="I19" s="9"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="9"/>
     </row>
     <row r="20" ht="14.35" customHeight="1">
@@ -4023,7 +4025,7 @@
       <c r="H20" s="10">
         <v>0.350649350649351</v>
       </c>
-      <c r="I20" s="9"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="9"/>
     </row>
     <row r="21" ht="14.35" customHeight="1">
@@ -4047,7 +4049,7 @@
       <c r="H21" s="10">
         <v>0.402597402597403</v>
       </c>
-      <c r="I21" s="9"/>
+      <c r="I21" s="10"/>
       <c r="J21" s="9"/>
     </row>
     <row r="22" ht="14.35" customHeight="1">
@@ -4071,7 +4073,7 @@
       <c r="H22" s="10">
         <v>0.441558441558442</v>
       </c>
-      <c r="I22" s="9"/>
+      <c r="I22" s="10"/>
       <c r="J22" s="9"/>
     </row>
     <row r="23" ht="14.35" customHeight="1">
@@ -4095,7 +4097,7 @@
       <c r="H23" s="10">
         <v>0.428571428571429</v>
       </c>
-      <c r="I23" s="9"/>
+      <c r="I23" s="10"/>
       <c r="J23" s="9"/>
     </row>
     <row r="24" ht="14.35" customHeight="1">
@@ -4119,7 +4121,7 @@
       <c r="H24" s="10">
         <v>0.623376623376623</v>
       </c>
-      <c r="I24" s="9"/>
+      <c r="I24" s="10"/>
       <c r="J24" s="9"/>
     </row>
     <row r="25" ht="14.35" customHeight="1">
@@ -4143,7 +4145,7 @@
       <c r="H25" s="10">
         <v>0</v>
       </c>
-      <c r="I25" s="9"/>
+      <c r="I25" s="10"/>
       <c r="J25" s="9"/>
     </row>
     <row r="26" ht="14.35" customHeight="1">
@@ -4167,7 +4169,7 @@
       <c r="H26" s="10">
         <v>0.61038961038961</v>
       </c>
-      <c r="I26" s="9"/>
+      <c r="I26" s="10"/>
       <c r="J26" s="9"/>
     </row>
     <row r="27" ht="14.35" customHeight="1">
@@ -4191,7 +4193,7 @@
       <c r="H27" s="10">
         <v>0.506493506493506</v>
       </c>
-      <c r="I27" s="9"/>
+      <c r="I27" s="10"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" ht="14.35" customHeight="1">
@@ -4215,7 +4217,7 @@
       <c r="H28" s="10">
         <v>0.545454545454545</v>
       </c>
-      <c r="I28" s="9"/>
+      <c r="I28" s="10"/>
       <c r="J28" s="9"/>
     </row>
     <row r="29" ht="14.35" customHeight="1">
@@ -4239,7 +4241,7 @@
       <c r="H29" s="10">
         <v>0.402597402597403</v>
       </c>
-      <c r="I29" s="9"/>
+      <c r="I29" s="10"/>
       <c r="J29" s="9"/>
     </row>
     <row r="30" ht="14.35" customHeight="1">
@@ -4263,7 +4265,7 @@
       <c r="H30" s="10">
         <v>0.233766233766234</v>
       </c>
-      <c r="I30" s="9"/>
+      <c r="I30" s="10"/>
       <c r="J30" s="9"/>
     </row>
     <row r="31" ht="14.35" customHeight="1">
@@ -4287,7 +4289,7 @@
       <c r="H31" s="10">
         <v>0</v>
       </c>
-      <c r="I31" s="9"/>
+      <c r="I31" s="10"/>
       <c r="J31" s="9"/>
     </row>
     <row r="32" ht="14.35" customHeight="1">
@@ -4311,7 +4313,7 @@
       <c r="H32" s="10">
         <v>0.662337662337662</v>
       </c>
-      <c r="I32" s="9"/>
+      <c r="I32" s="10"/>
       <c r="J32" s="9"/>
     </row>
     <row r="33" ht="14.35" customHeight="1">
@@ -4335,7 +4337,7 @@
       <c r="H33" s="10">
         <v>0.480519480519481</v>
       </c>
-      <c r="I33" s="9"/>
+      <c r="I33" s="10"/>
       <c r="J33" s="9"/>
     </row>
     <row r="34" ht="14.35" customHeight="1">
@@ -4359,7 +4361,7 @@
       <c r="H34" s="10">
         <v>0.636363636363636</v>
       </c>
-      <c r="I34" s="9"/>
+      <c r="I34" s="10"/>
       <c r="J34" s="9"/>
     </row>
     <row r="35" ht="14.35" customHeight="1">
@@ -4383,7 +4385,7 @@
       <c r="H35" s="10">
         <v>0.701298701298701</v>
       </c>
-      <c r="I35" s="9"/>
+      <c r="I35" s="10"/>
       <c r="J35" s="9"/>
     </row>
     <row r="36" ht="14.35" customHeight="1">
@@ -4407,7 +4409,7 @@
       <c r="H36" s="10">
         <v>0.506493506493506</v>
       </c>
-      <c r="I36" s="9"/>
+      <c r="I36" s="10"/>
       <c r="J36" s="9"/>
     </row>
     <row r="37" ht="14.35" customHeight="1">
@@ -4431,7 +4433,7 @@
       <c r="H37" s="10">
         <v>0.376623376623377</v>
       </c>
-      <c r="I37" s="9"/>
+      <c r="I37" s="10"/>
       <c r="J37" s="9"/>
     </row>
     <row r="38" ht="14.35" customHeight="1">
@@ -4455,7 +4457,7 @@
       <c r="H38" s="10">
         <v>0.376623376623377</v>
       </c>
-      <c r="I38" s="9"/>
+      <c r="I38" s="10"/>
       <c r="J38" s="9"/>
     </row>
     <row r="39" ht="14.35" customHeight="1">
@@ -4479,7 +4481,7 @@
       <c r="H39" s="10">
         <v>0.623376623376623</v>
       </c>
-      <c r="I39" s="9"/>
+      <c r="I39" s="10"/>
       <c r="J39" s="9"/>
     </row>
     <row r="40" ht="14.35" customHeight="1">
@@ -4503,7 +4505,7 @@
       <c r="H40" s="10">
         <v>0</v>
       </c>
-      <c r="I40" s="9"/>
+      <c r="I40" s="10"/>
       <c r="J40" s="9"/>
     </row>
     <row r="41" ht="14.35" customHeight="1">
@@ -4527,7 +4529,7 @@
       <c r="H41" s="10">
         <v>0</v>
       </c>
-      <c r="I41" s="9"/>
+      <c r="I41" s="10"/>
       <c r="J41" s="9"/>
     </row>
     <row r="42" ht="14.35" customHeight="1">
@@ -4551,7 +4553,7 @@
       <c r="H42" s="10">
         <v>0.441558441558442</v>
       </c>
-      <c r="I42" s="9"/>
+      <c r="I42" s="10"/>
       <c r="J42" s="9"/>
     </row>
     <row r="43" ht="14.35" customHeight="1">
@@ -4575,7 +4577,7 @@
       <c r="H43" s="10">
         <v>0.506493506493506</v>
       </c>
-      <c r="I43" s="9"/>
+      <c r="I43" s="10"/>
       <c r="J43" s="9"/>
     </row>
     <row r="44" ht="14.35" customHeight="1">
@@ -4597,7 +4599,7 @@
       <c r="H44" s="10">
         <v>0.168831168831169</v>
       </c>
-      <c r="I44" s="9"/>
+      <c r="I44" s="10"/>
       <c r="J44" s="9"/>
     </row>
     <row r="45" ht="14.35" customHeight="1">
@@ -4621,7 +4623,7 @@
       <c r="H45" s="10">
         <v>0.597402597402597</v>
       </c>
-      <c r="I45" s="9"/>
+      <c r="I45" s="10"/>
       <c r="J45" s="9"/>
     </row>
     <row r="46" ht="14.35" customHeight="1">
@@ -4645,7 +4647,9 @@
       <c r="H46" s="10">
         <v>0.480519480519481</v>
       </c>
-      <c r="I46" s="9"/>
+      <c r="I46" s="10">
+        <v>0.785714285714286</v>
+      </c>
       <c r="J46" s="9"/>
     </row>
     <row r="47" ht="14.35" customHeight="1">
@@ -4669,7 +4673,7 @@
       <c r="H47" s="10">
         <v>0.636363636363636</v>
       </c>
-      <c r="I47" s="9"/>
+      <c r="I47" s="10"/>
       <c r="J47" s="9"/>
     </row>
     <row r="48" ht="14.35" customHeight="1">
@@ -4693,7 +4697,7 @@
       <c r="H48" s="10">
         <v>0.727272727272727</v>
       </c>
-      <c r="I48" s="9"/>
+      <c r="I48" s="10"/>
       <c r="J48" s="9"/>
     </row>
     <row r="49" ht="14.35" customHeight="1">
@@ -4717,7 +4721,7 @@
       <c r="H49" s="10">
         <v>0.454545454545455</v>
       </c>
-      <c r="I49" s="9"/>
+      <c r="I49" s="10"/>
       <c r="J49" s="9"/>
     </row>
     <row r="50" ht="14.35" customHeight="1">
@@ -4741,7 +4745,7 @@
       <c r="H50" s="10">
         <v>0.311688311688312</v>
       </c>
-      <c r="I50" s="9"/>
+      <c r="I50" s="10"/>
       <c r="J50" s="9"/>
     </row>
     <row r="51" ht="14.35" customHeight="1">
@@ -4765,7 +4769,7 @@
       <c r="H51" s="10">
         <v>0.493506493506494</v>
       </c>
-      <c r="I51" s="9"/>
+      <c r="I51" s="10"/>
       <c r="J51" s="9"/>
     </row>
     <row r="52" ht="14.35" customHeight="1">
@@ -4787,7 +4791,7 @@
       <c r="H52" s="10">
         <v>0.415584415584416</v>
       </c>
-      <c r="I52" s="9"/>
+      <c r="I52" s="10"/>
       <c r="J52" s="9"/>
     </row>
     <row r="53" ht="14.35" customHeight="1">
@@ -4811,7 +4815,7 @@
       <c r="H53" s="10">
         <v>0.5844155844155841</v>
       </c>
-      <c r="I53" s="9"/>
+      <c r="I53" s="10"/>
       <c r="J53" s="9"/>
     </row>
     <row r="54" ht="14.35" customHeight="1">
@@ -4835,7 +4839,7 @@
       <c r="H54" s="10">
         <v>0.493506493506494</v>
       </c>
-      <c r="I54" s="9"/>
+      <c r="I54" s="10"/>
       <c r="J54" s="9"/>
     </row>
     <row r="55" ht="14.35" customHeight="1">
@@ -4859,7 +4863,7 @@
       <c r="H55" s="10">
         <v>0.506493506493506</v>
       </c>
-      <c r="I55" s="9"/>
+      <c r="I55" s="10"/>
       <c r="J55" s="9"/>
     </row>
     <row r="56" ht="14.35" customHeight="1">
@@ -4883,7 +4887,7 @@
       <c r="H56" s="10">
         <v>0.454545454545455</v>
       </c>
-      <c r="I56" s="9"/>
+      <c r="I56" s="10"/>
       <c r="J56" s="9"/>
     </row>
     <row r="57" ht="14.35" customHeight="1">
@@ -4907,7 +4911,7 @@
       <c r="H57" s="10">
         <v>0.5844155844155841</v>
       </c>
-      <c r="I57" s="9"/>
+      <c r="I57" s="10"/>
       <c r="J57" s="9"/>
     </row>
     <row r="58" ht="14.35" customHeight="1">
@@ -4931,7 +4935,7 @@
       <c r="H58" s="10">
         <v>0.61038961038961</v>
       </c>
-      <c r="I58" s="9"/>
+      <c r="I58" s="10"/>
       <c r="J58" s="9"/>
     </row>
     <row r="59" ht="14.35" customHeight="1">
@@ -4955,7 +4959,7 @@
       <c r="H59" s="10">
         <v>0.363636363636364</v>
       </c>
-      <c r="I59" s="9"/>
+      <c r="I59" s="10"/>
       <c r="J59" s="9"/>
     </row>
     <row r="60" ht="14.35" customHeight="1">
@@ -4979,7 +4983,7 @@
       <c r="H60" s="10">
         <v>0.298701298701299</v>
       </c>
-      <c r="I60" s="9"/>
+      <c r="I60" s="10"/>
       <c r="J60" s="9"/>
     </row>
     <row r="61" ht="14.35" customHeight="1">
@@ -5003,7 +5007,7 @@
       <c r="H61" s="10">
         <v>0.519480519480519</v>
       </c>
-      <c r="I61" s="9"/>
+      <c r="I61" s="10"/>
       <c r="J61" s="9"/>
     </row>
     <row r="62" ht="14.35" customHeight="1">
@@ -5027,7 +5031,7 @@
       <c r="H62" s="10">
         <v>0.415584415584416</v>
       </c>
-      <c r="I62" s="9"/>
+      <c r="I62" s="10"/>
       <c r="J62" s="9"/>
     </row>
     <row r="63" ht="14.35" customHeight="1">
@@ -5051,7 +5055,7 @@
       <c r="H63" s="10">
         <v>0.571428571428571</v>
       </c>
-      <c r="I63" s="9"/>
+      <c r="I63" s="10"/>
       <c r="J63" s="9"/>
     </row>
     <row r="64" ht="14.35" customHeight="1">
@@ -5075,7 +5079,7 @@
       <c r="H64" s="10">
         <v>0.571428571428571</v>
       </c>
-      <c r="I64" s="9"/>
+      <c r="I64" s="10"/>
       <c r="J64" s="9"/>
     </row>
     <row r="65" ht="14.35" customHeight="1">
@@ -5099,7 +5103,7 @@
       <c r="H65" s="10">
         <v>0.350649350649351</v>
       </c>
-      <c r="I65" s="9"/>
+      <c r="I65" s="10"/>
       <c r="J65" s="9"/>
     </row>
     <row r="66" ht="14.35" customHeight="1">
@@ -5123,7 +5127,7 @@
       <c r="H66" s="10">
         <v>0.480519480519481</v>
       </c>
-      <c r="I66" s="9"/>
+      <c r="I66" s="10"/>
       <c r="J66" s="9"/>
     </row>
     <row r="67" ht="14.35" customHeight="1">
@@ -5147,7 +5151,7 @@
       <c r="H67" s="10">
         <v>0.61038961038961</v>
       </c>
-      <c r="I67" s="9"/>
+      <c r="I67" s="10"/>
       <c r="J67" s="9"/>
     </row>
     <row r="68" ht="14.35" customHeight="1">
@@ -5171,7 +5175,7 @@
       <c r="H68" s="10">
         <v>0.363636363636364</v>
       </c>
-      <c r="I68" s="9"/>
+      <c r="I68" s="10"/>
       <c r="J68" s="9"/>
     </row>
     <row r="69" ht="14.35" customHeight="1">
@@ -5193,7 +5197,7 @@
       <c r="H69" s="10">
         <v>0</v>
       </c>
-      <c r="I69" s="9"/>
+      <c r="I69" s="10"/>
       <c r="J69" s="9"/>
     </row>
     <row r="70" ht="14.35" customHeight="1">
@@ -5217,7 +5221,7 @@
       <c r="H70" s="10">
         <v>0.337662337662338</v>
       </c>
-      <c r="I70" s="9"/>
+      <c r="I70" s="10"/>
       <c r="J70" s="9"/>
     </row>
     <row r="71" ht="14.35" customHeight="1">
@@ -5241,7 +5245,7 @@
       <c r="H71" s="10">
         <v>0.467532467532468</v>
       </c>
-      <c r="I71" s="9"/>
+      <c r="I71" s="10"/>
       <c r="J71" s="9"/>
     </row>
     <row r="72" ht="14.35" customHeight="1">
@@ -5265,7 +5269,7 @@
       <c r="H72" s="10">
         <v>0.467532467532468</v>
       </c>
-      <c r="I72" s="9"/>
+      <c r="I72" s="10"/>
       <c r="J72" s="9"/>
     </row>
     <row r="73" ht="14.35" customHeight="1">
@@ -5289,7 +5293,7 @@
       <c r="H73" s="10">
         <v>0.493506493506494</v>
       </c>
-      <c r="I73" s="9"/>
+      <c r="I73" s="10"/>
       <c r="J73" s="9"/>
     </row>
     <row r="74" ht="14.35" customHeight="1">
@@ -5313,7 +5317,7 @@
       <c r="H74" s="10">
         <v>0.337662337662338</v>
       </c>
-      <c r="I74" s="9"/>
+      <c r="I74" s="10"/>
       <c r="J74" s="9"/>
     </row>
     <row r="75" ht="14.35" customHeight="1">
@@ -5337,7 +5341,7 @@
       <c r="H75" s="10">
         <v>0.649350649350649</v>
       </c>
-      <c r="I75" s="9"/>
+      <c r="I75" s="10"/>
       <c r="J75" s="9"/>
     </row>
     <row r="76" ht="14.35" customHeight="1">
@@ -5361,7 +5365,7 @@
       <c r="H76" s="10">
         <v>0.571428571428571</v>
       </c>
-      <c r="I76" s="9"/>
+      <c r="I76" s="10"/>
       <c r="J76" s="9"/>
     </row>
     <row r="77" ht="14.35" customHeight="1">
@@ -5385,7 +5389,7 @@
       <c r="H77" s="10">
         <v>0.480519480519481</v>
       </c>
-      <c r="I77" s="9"/>
+      <c r="I77" s="10"/>
       <c r="J77" s="9"/>
     </row>
     <row r="78" ht="14.35" customHeight="1">
@@ -5409,7 +5413,7 @@
       <c r="H78" s="10">
         <v>0.493506493506494</v>
       </c>
-      <c r="I78" s="9"/>
+      <c r="I78" s="10"/>
       <c r="J78" s="9"/>
     </row>
     <row r="79" ht="14.35" customHeight="1">
@@ -5433,7 +5437,7 @@
       <c r="H79" s="10">
         <v>0.337662337662338</v>
       </c>
-      <c r="I79" s="9"/>
+      <c r="I79" s="10"/>
       <c r="J79" s="9"/>
     </row>
     <row r="80" ht="14.35" customHeight="1">
@@ -5457,7 +5461,7 @@
       <c r="H80" s="10">
         <v>0.519480519480519</v>
       </c>
-      <c r="I80" s="9"/>
+      <c r="I80" s="10"/>
       <c r="J80" s="9"/>
     </row>
     <row r="81" ht="14.35" customHeight="1">
@@ -5481,7 +5485,7 @@
       <c r="H81" s="10">
         <v>0.207792207792208</v>
       </c>
-      <c r="I81" s="9"/>
+      <c r="I81" s="10"/>
       <c r="J81" s="9"/>
     </row>
     <row r="82" ht="14.35" customHeight="1">
@@ -5505,7 +5509,7 @@
       <c r="H82" s="10">
         <v>0.363636363636364</v>
       </c>
-      <c r="I82" s="9"/>
+      <c r="I82" s="10"/>
       <c r="J82" s="9"/>
     </row>
     <row r="83" ht="14.35" customHeight="1">
@@ -5529,7 +5533,7 @@
       <c r="H83" s="10">
         <v>0.597402597402597</v>
       </c>
-      <c r="I83" s="9"/>
+      <c r="I83" s="10"/>
       <c r="J83" s="9"/>
     </row>
     <row r="84" ht="14.35" customHeight="1">
@@ -5553,7 +5557,7 @@
       <c r="H84" s="10">
         <v>0.74025974025974</v>
       </c>
-      <c r="I84" s="9"/>
+      <c r="I84" s="10"/>
       <c r="J84" s="9"/>
     </row>
     <row r="85" ht="14.35" customHeight="1">
@@ -5577,7 +5581,7 @@
       <c r="H85" s="10">
         <v>0.545454545454545</v>
       </c>
-      <c r="I85" s="9"/>
+      <c r="I85" s="10"/>
       <c r="J85" s="9"/>
     </row>
     <row r="86" ht="14.35" customHeight="1">
@@ -5601,7 +5605,7 @@
       <c r="H86" s="10">
         <v>0.220779220779221</v>
       </c>
-      <c r="I86" s="9"/>
+      <c r="I86" s="10"/>
       <c r="J86" s="9"/>
     </row>
     <row r="87" ht="14.35" customHeight="1">
@@ -5625,7 +5629,7 @@
       <c r="H87" s="10">
         <v>0.454545454545455</v>
       </c>
-      <c r="I87" s="9"/>
+      <c r="I87" s="10"/>
       <c r="J87" s="9"/>
     </row>
     <row r="88" ht="14.35" customHeight="1">
@@ -5649,7 +5653,7 @@
       <c r="H88" s="10">
         <v>0.571428571428571</v>
       </c>
-      <c r="I88" s="9"/>
+      <c r="I88" s="10"/>
       <c r="J88" s="9"/>
     </row>
     <row r="89" ht="14.35" customHeight="1">
@@ -5673,7 +5677,7 @@
       <c r="H89" s="10">
         <v>0.532467532467532</v>
       </c>
-      <c r="I89" s="9"/>
+      <c r="I89" s="10"/>
       <c r="J89" s="9"/>
     </row>
     <row r="90" ht="14.35" customHeight="1">
@@ -5697,7 +5701,7 @@
       <c r="H90" s="10">
         <v>0.714285714285714</v>
       </c>
-      <c r="I90" s="9"/>
+      <c r="I90" s="10"/>
       <c r="J90" s="9"/>
     </row>
     <row r="91" ht="14.35" customHeight="1">
@@ -5721,7 +5725,7 @@
       <c r="H91" s="10">
         <v>0.636363636363636</v>
       </c>
-      <c r="I91" s="9"/>
+      <c r="I91" s="10"/>
       <c r="J91" s="9"/>
     </row>
     <row r="92" ht="14.35" customHeight="1">
@@ -5745,7 +5749,7 @@
       <c r="H92" s="10">
         <v>0.597402597402597</v>
       </c>
-      <c r="I92" s="9"/>
+      <c r="I92" s="10"/>
       <c r="J92" s="9"/>
     </row>
     <row r="93" ht="14.35" customHeight="1">
@@ -5769,7 +5773,7 @@
       <c r="H93" s="10">
         <v>0.454545454545455</v>
       </c>
-      <c r="I93" s="9"/>
+      <c r="I93" s="10"/>
       <c r="J93" s="9"/>
     </row>
     <row r="94" ht="14.35" customHeight="1">
@@ -5793,7 +5797,7 @@
       <c r="H94" s="10">
         <v>0.558441558441558</v>
       </c>
-      <c r="I94" s="9"/>
+      <c r="I94" s="10"/>
       <c r="J94" s="9"/>
     </row>
     <row r="95" ht="14.35" customHeight="1">
@@ -5817,7 +5821,7 @@
       <c r="H95" s="10">
         <v>0.38961038961039</v>
       </c>
-      <c r="I95" s="9"/>
+      <c r="I95" s="10"/>
       <c r="J95" s="9"/>
     </row>
     <row r="96" ht="14.35" customHeight="1">
@@ -5841,7 +5845,7 @@
       <c r="H96" s="10">
         <v>0.298701298701299</v>
       </c>
-      <c r="I96" s="9"/>
+      <c r="I96" s="10"/>
       <c r="J96" s="9"/>
     </row>
     <row r="97" ht="14.35" customHeight="1">
@@ -5865,7 +5869,7 @@
       <c r="H97" s="10">
         <v>0.285714285714286</v>
       </c>
-      <c r="I97" s="9"/>
+      <c r="I97" s="10"/>
       <c r="J97" s="9"/>
     </row>
     <row r="98" ht="14.35" customHeight="1">
@@ -5889,7 +5893,7 @@
       <c r="H98" s="10">
         <v>0.272727272727273</v>
       </c>
-      <c r="I98" s="9"/>
+      <c r="I98" s="10"/>
       <c r="J98" s="9"/>
     </row>
     <row r="99" ht="14.35" customHeight="1">
@@ -5913,7 +5917,7 @@
       <c r="H99" s="10">
         <v>0.571428571428571</v>
       </c>
-      <c r="I99" s="9"/>
+      <c r="I99" s="10"/>
       <c r="J99" s="9"/>
     </row>
     <row r="100" ht="14.35" customHeight="1">
@@ -5937,7 +5941,9 @@
       <c r="H100" s="10">
         <v>0.5844155844155841</v>
       </c>
-      <c r="I100" s="9"/>
+      <c r="I100" s="10">
+        <v>0.728571428571429</v>
+      </c>
       <c r="J100" s="9"/>
     </row>
     <row r="101" ht="14.35" customHeight="1">
@@ -5961,7 +5967,7 @@
       <c r="H101" s="10">
         <v>0</v>
       </c>
-      <c r="I101" s="9"/>
+      <c r="I101" s="10"/>
       <c r="J101" s="9"/>
     </row>
     <row r="102" ht="14.35" customHeight="1">
@@ -5985,7 +5991,7 @@
       <c r="H102" s="10">
         <v>0.363636363636364</v>
       </c>
-      <c r="I102" s="9"/>
+      <c r="I102" s="10"/>
       <c r="J102" s="9"/>
     </row>
     <row r="103" ht="14.35" customHeight="1">
@@ -6009,7 +6015,7 @@
       <c r="H103" s="10">
         <v>0.441558441558442</v>
       </c>
-      <c r="I103" s="9"/>
+      <c r="I103" s="10"/>
       <c r="J103" s="9"/>
     </row>
     <row r="104" ht="14.35" customHeight="1">
@@ -6033,7 +6039,7 @@
       <c r="H104" s="10">
         <v>0.428571428571429</v>
       </c>
-      <c r="I104" s="9"/>
+      <c r="I104" s="10"/>
       <c r="J104" s="9"/>
     </row>
     <row r="105" ht="14.35" customHeight="1">
@@ -6057,7 +6063,7 @@
       <c r="H105" s="10">
         <v>0.662337662337662</v>
       </c>
-      <c r="I105" s="9"/>
+      <c r="I105" s="10"/>
       <c r="J105" s="9"/>
     </row>
     <row r="106" ht="14.35" customHeight="1">
@@ -6081,7 +6087,7 @@
       <c r="H106" s="10">
         <v>0.597402597402597</v>
       </c>
-      <c r="I106" s="9"/>
+      <c r="I106" s="10"/>
       <c r="J106" s="9"/>
     </row>
     <row r="107" ht="14.35" customHeight="1">
@@ -6105,7 +6111,7 @@
       <c r="H107" s="10">
         <v>0.493506493506494</v>
       </c>
-      <c r="I107" s="9"/>
+      <c r="I107" s="10"/>
       <c r="J107" s="9"/>
     </row>
     <row r="108" ht="14.35" customHeight="1">
@@ -6129,7 +6135,7 @@
       <c r="H108" s="10">
         <v>0.402597402597403</v>
       </c>
-      <c r="I108" s="9"/>
+      <c r="I108" s="10"/>
       <c r="J108" s="9"/>
     </row>
     <row r="109" ht="14.35" customHeight="1">
@@ -6153,7 +6159,7 @@
       <c r="H109" s="10">
         <v>0.337662337662338</v>
       </c>
-      <c r="I109" s="9"/>
+      <c r="I109" s="10"/>
       <c r="J109" s="9"/>
     </row>
     <row r="110" ht="14.35" customHeight="1">
@@ -6177,7 +6183,7 @@
       <c r="H110" s="10">
         <v>0.415584415584416</v>
       </c>
-      <c r="I110" s="9"/>
+      <c r="I110" s="10"/>
       <c r="J110" s="9"/>
     </row>
     <row r="111" ht="14.35" customHeight="1">
@@ -6201,7 +6207,7 @@
       <c r="H111" s="10">
         <v>0.38961038961039</v>
       </c>
-      <c r="I111" s="9"/>
+      <c r="I111" s="10"/>
       <c r="J111" s="9"/>
     </row>
     <row r="112" ht="14.35" customHeight="1">
@@ -6225,7 +6231,7 @@
       <c r="H112" s="10">
         <v>0.376623376623377</v>
       </c>
-      <c r="I112" s="9"/>
+      <c r="I112" s="10"/>
       <c r="J112" s="9"/>
     </row>
     <row r="113" ht="14.35" customHeight="1">
@@ -6249,7 +6255,7 @@
       <c r="H113" s="10">
         <v>0.363636363636364</v>
       </c>
-      <c r="I113" s="9"/>
+      <c r="I113" s="10"/>
       <c r="J113" s="9"/>
     </row>
     <row r="114" ht="14.35" customHeight="1">
@@ -6273,7 +6279,7 @@
       <c r="H114" s="10">
         <v>0.636363636363636</v>
       </c>
-      <c r="I114" s="9"/>
+      <c r="I114" s="10"/>
       <c r="J114" s="9"/>
     </row>
     <row r="115" ht="14.35" customHeight="1">
@@ -6297,7 +6303,7 @@
       <c r="H115" s="10">
         <v>0.545454545454545</v>
       </c>
-      <c r="I115" s="9"/>
+      <c r="I115" s="10"/>
       <c r="J115" s="9"/>
     </row>
     <row r="116" ht="14.35" customHeight="1">
@@ -6321,7 +6327,7 @@
       <c r="H116" s="10">
         <v>0.701298701298701</v>
       </c>
-      <c r="I116" s="9"/>
+      <c r="I116" s="10"/>
       <c r="J116" s="9"/>
     </row>
     <row r="117" ht="14.35" customHeight="1">
@@ -6345,7 +6351,7 @@
       <c r="H117" s="10">
         <v>0.675324675324675</v>
       </c>
-      <c r="I117" s="9"/>
+      <c r="I117" s="10"/>
       <c r="J117" s="9"/>
     </row>
     <row r="118" ht="14.35" customHeight="1">
@@ -6369,7 +6375,7 @@
       <c r="H118" s="10">
         <v>0.5844155844155841</v>
       </c>
-      <c r="I118" s="9"/>
+      <c r="I118" s="10"/>
       <c r="J118" s="9"/>
     </row>
     <row r="119" ht="14.35" customHeight="1">
@@ -6393,7 +6399,7 @@
       <c r="H119" s="10">
         <v>0.714285714285714</v>
       </c>
-      <c r="I119" s="9"/>
+      <c r="I119" s="10"/>
       <c r="J119" s="9"/>
     </row>
     <row r="120" ht="14.35" customHeight="1">
@@ -6417,7 +6423,7 @@
       <c r="H120" s="10">
         <v>0.532467532467532</v>
       </c>
-      <c r="I120" s="9"/>
+      <c r="I120" s="10"/>
       <c r="J120" s="9"/>
     </row>
     <row r="121" ht="14.35" customHeight="1">
@@ -6441,7 +6447,7 @@
       <c r="H121" s="10">
         <v>0.363636363636364</v>
       </c>
-      <c r="I121" s="9"/>
+      <c r="I121" s="10"/>
       <c r="J121" s="9"/>
     </row>
     <row r="122" ht="14.35" customHeight="1">
@@ -6465,7 +6471,7 @@
       <c r="H122" s="10">
         <v>0.675324675324675</v>
       </c>
-      <c r="I122" s="9"/>
+      <c r="I122" s="10"/>
       <c r="J122" s="9"/>
     </row>
     <row r="123" ht="14.35" customHeight="1">
@@ -6489,7 +6495,7 @@
       <c r="H123" s="10">
         <v>0.571428571428571</v>
       </c>
-      <c r="I123" s="9"/>
+      <c r="I123" s="10"/>
       <c r="J123" s="9"/>
     </row>
     <row r="124" ht="14.35" customHeight="1">
@@ -6513,7 +6519,7 @@
       <c r="H124" s="10">
         <v>0.532467532467532</v>
       </c>
-      <c r="I124" s="9"/>
+      <c r="I124" s="10"/>
       <c r="J124" s="9"/>
     </row>
     <row r="125" ht="28.35" customHeight="1">
@@ -6537,7 +6543,7 @@
       <c r="H125" s="10">
         <v>0.25974025974026</v>
       </c>
-      <c r="I125" s="9"/>
+      <c r="I125" s="10"/>
       <c r="J125" s="9"/>
     </row>
     <row r="126" ht="14.35" customHeight="1">
@@ -6561,7 +6567,7 @@
       <c r="H126" s="10">
         <v>0.428571428571429</v>
       </c>
-      <c r="I126" s="9"/>
+      <c r="I126" s="10"/>
       <c r="J126" s="9"/>
     </row>
     <row r="127" ht="14.35" customHeight="1">
@@ -6585,7 +6591,7 @@
       <c r="H127" s="10">
         <v>0.597402597402597</v>
       </c>
-      <c r="I127" s="9"/>
+      <c r="I127" s="10"/>
       <c r="J127" s="9"/>
     </row>
     <row r="128" ht="14.35" customHeight="1">
@@ -6607,7 +6613,7 @@
       <c r="H128" s="10">
         <v>0.194805194805195</v>
       </c>
-      <c r="I128" s="9"/>
+      <c r="I128" s="10"/>
       <c r="J128" s="9"/>
     </row>
     <row r="129" ht="14.35" customHeight="1">
@@ -6631,7 +6637,7 @@
       <c r="H129" s="10">
         <v>0.402597402597403</v>
       </c>
-      <c r="I129" s="9"/>
+      <c r="I129" s="10"/>
       <c r="J129" s="9"/>
     </row>
     <row r="130" ht="14.35" customHeight="1">
@@ -6655,7 +6661,7 @@
       <c r="H130" s="10">
         <v>0.701298701298701</v>
       </c>
-      <c r="I130" s="9"/>
+      <c r="I130" s="10"/>
       <c r="J130" s="9"/>
     </row>
     <row r="131" ht="14.35" customHeight="1">
@@ -6679,7 +6685,7 @@
       <c r="H131" s="10">
         <v>0.558441558441558</v>
       </c>
-      <c r="I131" s="9"/>
+      <c r="I131" s="10"/>
       <c r="J131" s="9"/>
     </row>
     <row r="132" ht="14.35" customHeight="1">
@@ -6703,7 +6709,7 @@
       <c r="H132" s="10">
         <v>0.519480519480519</v>
       </c>
-      <c r="I132" s="9"/>
+      <c r="I132" s="10"/>
       <c r="J132" s="9"/>
     </row>
     <row r="133" ht="14.35" customHeight="1">
@@ -6727,7 +6733,7 @@
       <c r="H133" s="10">
         <v>0.61038961038961</v>
       </c>
-      <c r="I133" s="9"/>
+      <c r="I133" s="10"/>
       <c r="J133" s="9"/>
     </row>
     <row r="134" ht="14.35" customHeight="1">
@@ -6751,7 +6757,7 @@
       <c r="H134" s="10">
         <v>0.246753246753247</v>
       </c>
-      <c r="I134" s="9"/>
+      <c r="I134" s="10"/>
       <c r="J134" s="9"/>
     </row>
     <row r="135" ht="14.35" customHeight="1">
@@ -6773,7 +6779,7 @@
       <c r="H135" s="10">
         <v>0.571428571428571</v>
       </c>
-      <c r="I135" s="9"/>
+      <c r="I135" s="10"/>
       <c r="J135" s="9"/>
     </row>
     <row r="136" ht="14.35" customHeight="1">
@@ -6797,7 +6803,7 @@
       <c r="H136" s="10">
         <v>0.5844155844155841</v>
       </c>
-      <c r="I136" s="9"/>
+      <c r="I136" s="10"/>
       <c r="J136" s="9"/>
     </row>
     <row r="137" ht="14.35" customHeight="1">
@@ -6821,7 +6827,7 @@
       <c r="H137" s="10">
         <v>0.493506493506494</v>
       </c>
-      <c r="I137" s="9"/>
+      <c r="I137" s="10"/>
       <c r="J137" s="9"/>
     </row>
     <row r="138" ht="14.35" customHeight="1">
@@ -6845,7 +6851,7 @@
       <c r="H138" s="10">
         <v>0.467532467532468</v>
       </c>
-      <c r="I138" s="9"/>
+      <c r="I138" s="10"/>
       <c r="J138" s="9"/>
     </row>
     <row r="139" ht="14.35" customHeight="1">
@@ -6869,7 +6875,7 @@
       <c r="H139" s="10">
         <v>0.5844155844155841</v>
       </c>
-      <c r="I139" s="9"/>
+      <c r="I139" s="10"/>
       <c r="J139" s="9"/>
     </row>
     <row r="140" ht="14.35" customHeight="1">
@@ -6893,7 +6899,7 @@
       <c r="H140" s="10">
         <v>0.428571428571429</v>
       </c>
-      <c r="I140" s="9"/>
+      <c r="I140" s="10"/>
       <c r="J140" s="9"/>
     </row>
     <row r="141" ht="14.35" customHeight="1">
@@ -6915,7 +6921,7 @@
       <c r="H141" s="10">
         <v>0.675324675324675</v>
       </c>
-      <c r="I141" s="9"/>
+      <c r="I141" s="10"/>
       <c r="J141" s="9"/>
     </row>
     <row r="142" ht="14.35" customHeight="1">
@@ -6939,7 +6945,7 @@
       <c r="H142" s="10">
         <v>0.350649350649351</v>
       </c>
-      <c r="I142" s="9"/>
+      <c r="I142" s="10"/>
       <c r="J142" s="9"/>
     </row>
     <row r="143" ht="14.35" customHeight="1">
@@ -6963,7 +6969,9 @@
       <c r="H143" s="10">
         <v>0.506493506493506</v>
       </c>
-      <c r="I143" s="9"/>
+      <c r="I143" s="10">
+        <v>0.785714285714286</v>
+      </c>
       <c r="J143" s="9"/>
     </row>
     <row r="144" ht="14.35" customHeight="1">
@@ -6987,7 +6995,7 @@
       <c r="H144" s="10">
         <v>0.571428571428571</v>
       </c>
-      <c r="I144" s="9"/>
+      <c r="I144" s="10"/>
       <c r="J144" s="9"/>
     </row>
     <row r="145" ht="14.35" customHeight="1">
@@ -7011,7 +7019,7 @@
       <c r="H145" s="10">
         <v>0.337662337662338</v>
       </c>
-      <c r="I145" s="9"/>
+      <c r="I145" s="10"/>
       <c r="J145" s="9"/>
     </row>
     <row r="146" ht="14.35" customHeight="1">
@@ -7035,7 +7043,7 @@
       <c r="H146" s="10">
         <v>0.38961038961039</v>
       </c>
-      <c r="I146" s="9"/>
+      <c r="I146" s="10"/>
       <c r="J146" s="9"/>
     </row>
     <row r="147" ht="14.35" customHeight="1">
@@ -7059,7 +7067,7 @@
       <c r="H147" s="10">
         <v>0.493506493506494</v>
       </c>
-      <c r="I147" s="9"/>
+      <c r="I147" s="10"/>
       <c r="J147" s="9"/>
     </row>
     <row r="148" ht="14.35" customHeight="1">
@@ -7083,7 +7091,7 @@
       <c r="H148" s="10">
         <v>0.597402597402597</v>
       </c>
-      <c r="I148" s="9"/>
+      <c r="I148" s="10"/>
       <c r="J148" s="9"/>
     </row>
     <row r="149" ht="14.35" customHeight="1">
@@ -7107,7 +7115,7 @@
       <c r="H149" s="10">
         <v>0.649350649350649</v>
       </c>
-      <c r="I149" s="9"/>
+      <c r="I149" s="10"/>
       <c r="J149" s="9"/>
     </row>
     <row r="150" ht="14.35" customHeight="1">
@@ -7129,7 +7137,7 @@
       <c r="H150" s="10">
         <v>0.532467532467532</v>
       </c>
-      <c r="I150" s="9"/>
+      <c r="I150" s="10"/>
       <c r="J150" s="9"/>
     </row>
     <row r="151" ht="14.35" customHeight="1">
@@ -7153,7 +7161,7 @@
       <c r="H151" s="10">
         <v>0.532467532467532</v>
       </c>
-      <c r="I151" s="9"/>
+      <c r="I151" s="10"/>
       <c r="J151" s="9"/>
     </row>
     <row r="152" ht="14.35" customHeight="1">
@@ -7177,7 +7185,7 @@
       <c r="H152" s="10">
         <v>0.597402597402597</v>
       </c>
-      <c r="I152" s="9"/>
+      <c r="I152" s="10"/>
       <c r="J152" s="9"/>
     </row>
     <row r="153" ht="14.35" customHeight="1">
@@ -7201,7 +7209,7 @@
       <c r="H153" s="10">
         <v>0.324675324675325</v>
       </c>
-      <c r="I153" s="9"/>
+      <c r="I153" s="10"/>
       <c r="J153" s="9"/>
     </row>
     <row r="154" ht="14.35" customHeight="1">
@@ -7225,7 +7233,7 @@
       <c r="H154" s="10">
         <v>0.350649350649351</v>
       </c>
-      <c r="I154" s="9"/>
+      <c r="I154" s="10"/>
       <c r="J154" s="9"/>
     </row>
     <row r="155" ht="14.35" customHeight="1">
@@ -7249,7 +7257,7 @@
       <c r="H155" s="10">
         <v>0.506493506493506</v>
       </c>
-      <c r="I155" s="9"/>
+      <c r="I155" s="10"/>
       <c r="J155" s="9"/>
     </row>
     <row r="156" ht="14.35" customHeight="1">
@@ -7273,7 +7281,7 @@
       <c r="H156" s="10">
         <v>0.467532467532468</v>
       </c>
-      <c r="I156" s="9"/>
+      <c r="I156" s="10"/>
       <c r="J156" s="9"/>
     </row>
     <row r="157" ht="14.35" customHeight="1">
@@ -7297,7 +7305,9 @@
       <c r="H157" s="10">
         <v>0.688311688311688</v>
       </c>
-      <c r="I157" s="9"/>
+      <c r="I157" s="10">
+        <v>0.871428571428571</v>
+      </c>
       <c r="J157" s="9"/>
     </row>
     <row r="158" ht="14.35" customHeight="1">
@@ -7321,7 +7331,7 @@
       <c r="H158" s="10">
         <v>0.727272727272727</v>
       </c>
-      <c r="I158" s="9"/>
+      <c r="I158" s="10"/>
       <c r="J158" s="9"/>
     </row>
     <row r="159" ht="14.35" customHeight="1">
@@ -7345,7 +7355,7 @@
       <c r="H159" s="10">
         <v>0.493506493506494</v>
       </c>
-      <c r="I159" s="9"/>
+      <c r="I159" s="10"/>
       <c r="J159" s="9"/>
     </row>
     <row r="160" ht="14.35" customHeight="1">
@@ -7369,7 +7379,7 @@
       <c r="H160" s="10">
         <v>0.61038961038961</v>
       </c>
-      <c r="I160" s="9"/>
+      <c r="I160" s="10"/>
       <c r="J160" s="9"/>
     </row>
     <row r="161" ht="14.35" customHeight="1">
@@ -7391,7 +7401,7 @@
       <c r="H161" s="10">
         <v>0.506493506493506</v>
       </c>
-      <c r="I161" s="9"/>
+      <c r="I161" s="10"/>
       <c r="J161" s="9"/>
     </row>
     <row r="162" ht="14.35" customHeight="1">
@@ -7415,7 +7425,7 @@
       <c r="H162" s="10">
         <v>0.636363636363636</v>
       </c>
-      <c r="I162" s="9"/>
+      <c r="I162" s="10"/>
       <c r="J162" s="9"/>
     </row>
     <row r="163" ht="14.35" customHeight="1">
@@ -7439,7 +7449,7 @@
       <c r="H163" s="10">
         <v>0.636363636363636</v>
       </c>
-      <c r="I163" s="9"/>
+      <c r="I163" s="10"/>
       <c r="J163" s="9"/>
     </row>
     <row r="164" ht="14.35" customHeight="1">
@@ -7463,7 +7473,7 @@
       <c r="H164" s="10">
         <v>0</v>
       </c>
-      <c r="I164" s="9"/>
+      <c r="I164" s="10"/>
       <c r="J164" s="9"/>
     </row>
     <row r="165" ht="14.35" customHeight="1">
@@ -7487,7 +7497,7 @@
       <c r="H165" s="10">
         <v>0.467532467532468</v>
       </c>
-      <c r="I165" s="9"/>
+      <c r="I165" s="10"/>
       <c r="J165" s="9"/>
     </row>
     <row r="166" ht="14.35" customHeight="1">
@@ -7511,7 +7521,7 @@
       <c r="H166" s="10">
         <v>0.623376623376623</v>
       </c>
-      <c r="I166" s="9"/>
+      <c r="I166" s="10"/>
       <c r="J166" s="9"/>
     </row>
     <row r="167" ht="14.35" customHeight="1">
@@ -7535,7 +7545,7 @@
       <c r="H167" s="10">
         <v>0.519480519480519</v>
       </c>
-      <c r="I167" s="9"/>
+      <c r="I167" s="10"/>
       <c r="J167" s="9"/>
     </row>
     <row r="168" ht="14.35" customHeight="1">
@@ -7559,7 +7569,7 @@
       <c r="H168" s="10">
         <v>0.480519480519481</v>
       </c>
-      <c r="I168" s="9"/>
+      <c r="I168" s="10"/>
       <c r="J168" s="9"/>
     </row>
     <row r="169" ht="14.35" customHeight="1">
@@ -7583,7 +7593,7 @@
       <c r="H169" s="10">
         <v>0.636363636363636</v>
       </c>
-      <c r="I169" s="9"/>
+      <c r="I169" s="10"/>
       <c r="J169" s="9"/>
     </row>
     <row r="170" ht="14.35" customHeight="1">
@@ -7607,7 +7617,7 @@
       <c r="H170" s="10">
         <v>0.402597402597403</v>
       </c>
-      <c r="I170" s="9"/>
+      <c r="I170" s="10"/>
       <c r="J170" s="9"/>
     </row>
     <row r="171" ht="14.35" customHeight="1">
@@ -7631,7 +7641,7 @@
       <c r="H171" s="10">
         <v>0</v>
       </c>
-      <c r="I171" s="9"/>
+      <c r="I171" s="10"/>
       <c r="J171" s="9"/>
     </row>
     <row r="172" ht="14.35" customHeight="1">
@@ -7655,7 +7665,7 @@
       <c r="H172" s="10">
         <v>0.532467532467532</v>
       </c>
-      <c r="I172" s="9"/>
+      <c r="I172" s="10"/>
       <c r="J172" s="9"/>
     </row>
     <row r="173" ht="14.35" customHeight="1">
@@ -7679,7 +7689,7 @@
       <c r="H173" s="10">
         <v>0.506493506493506</v>
       </c>
-      <c r="I173" s="9"/>
+      <c r="I173" s="10"/>
       <c r="J173" s="9"/>
     </row>
     <row r="174" ht="14.35" customHeight="1">
@@ -7703,7 +7713,7 @@
       <c r="H174" s="10">
         <v>0.545454545454545</v>
       </c>
-      <c r="I174" s="9"/>
+      <c r="I174" s="10"/>
       <c r="J174" s="9"/>
     </row>
   </sheetData>

--- a/cw11042022.xlsx
+++ b/cw11042022.xlsx
@@ -2419,10 +2419,10 @@
     <xf numFmtId="59" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2431,10 +2431,10 @@
     <xf numFmtId="59" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -3517,7 +3517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J174"/>
+  <dimension ref="A1:J175"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -3583,16 +3583,18 @@
       <c r="D2" s="4">
         <v>0.923076923076923</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6">
+      <c r="E2" s="5">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5">
         <v>0</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>0.25974025974026</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" ht="14.35" customHeight="1">
       <c r="A3" t="s" s="7">
@@ -3607,16 +3609,18 @@
       <c r="D3" s="8">
         <v>0.75</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10">
+      <c r="E3" s="9">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="9">
         <v>0.890625</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>0.415584415584416</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" ht="14.35" customHeight="1">
       <c r="A4" t="s" s="7">
@@ -3632,15 +3636,15 @@
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10">
+      <c r="F4" s="10"/>
+      <c r="G4" s="9">
         <v>0.84375</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>0.545454545454545</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" ht="14.35" customHeight="1">
       <c r="A5" t="s" s="7">
@@ -3655,16 +3659,18 @@
       <c r="D5" s="8">
         <v>0.75</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10">
+      <c r="E5" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="9">
         <v>0.9375</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>0.454545454545455</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" ht="14.35" customHeight="1">
       <c r="A6" t="s" s="7">
@@ -3680,15 +3686,15 @@
         <v>0.673076923076923</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10">
+      <c r="F6" s="10"/>
+      <c r="G6" s="9">
         <v>0.96875</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>0.272727272727273</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" ht="14.35" customHeight="1">
       <c r="A7" t="s" s="7">
@@ -3703,16 +3709,18 @@
       <c r="D7" s="11">
         <v>0</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10">
+      <c r="E7" s="9">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9">
         <v>0.84375</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>0.441558441558442</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" ht="14.35" customHeight="1">
       <c r="A8" t="s" s="7">
@@ -3728,15 +3736,15 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10">
+      <c r="F8" s="10"/>
+      <c r="G8" s="9">
         <v>0.765625</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>0.649350649350649</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" ht="14.35" customHeight="1">
       <c r="A9" t="s" s="7">
@@ -3752,15 +3760,15 @@
         <v>0</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10">
+      <c r="F9" s="10"/>
+      <c r="G9" s="9">
         <v>0.671875</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>0.350649350649351</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" ht="14.35" customHeight="1">
       <c r="A10" t="s" s="7">
@@ -3776,15 +3784,15 @@
         <v>0</v>
       </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10">
+      <c r="F10" s="10"/>
+      <c r="G10" s="9">
         <v>0.859375</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>0.337662337662338</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" ht="14.35" customHeight="1">
       <c r="A11" t="s" s="7">
@@ -3800,17 +3808,17 @@
         <v>0</v>
       </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10">
+      <c r="F11" s="10"/>
+      <c r="G11" s="9">
         <v>0.796875</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>0.298701298701299</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <v>0.257142857142857</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" ht="14.35" customHeight="1">
       <c r="A12" t="s" s="7">
@@ -3825,16 +3833,18 @@
       <c r="D12" s="11">
         <v>0</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10">
+      <c r="E12" s="9">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="9">
         <v>0.8125</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>0.324675324675325</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" ht="14.35" customHeight="1">
       <c r="A13" t="s" s="7">
@@ -3850,15 +3860,15 @@
         <v>0</v>
       </c>
       <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10">
+      <c r="F13" s="10"/>
+      <c r="G13" s="9">
         <v>0.921875</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>0.493506493506494</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" ht="14.35" customHeight="1">
       <c r="A14" t="s" s="7">
@@ -3874,15 +3884,15 @@
         <v>0</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10">
+      <c r="F14" s="10"/>
+      <c r="G14" s="9">
         <v>0.921875</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>0</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" ht="14.35" customHeight="1">
       <c r="A15" t="s" s="7">
@@ -3898,15 +3908,15 @@
         <v>0</v>
       </c>
       <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10">
+      <c r="F15" s="10"/>
+      <c r="G15" s="9">
         <v>0.859375</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <v>0</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" ht="14.35" customHeight="1">
       <c r="A16" t="s" s="7">
@@ -3922,15 +3932,15 @@
         <v>0</v>
       </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10">
+      <c r="F16" s="10"/>
+      <c r="G16" s="9">
         <v>0.9375</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <v>0.506493506493506</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="10"/>
     </row>
     <row r="17" ht="14.35" customHeight="1">
       <c r="A17" t="s" s="7">
@@ -3945,16 +3955,18 @@
       <c r="D17" s="8">
         <v>0.75</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10">
+      <c r="E17" s="9">
+        <v>0.607142857142857</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="9">
         <v>0.734375</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="9">
         <v>0.506493506493506</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" ht="14.35" customHeight="1">
       <c r="A18" t="s" s="7">
@@ -3970,15 +3982,15 @@
         <v>0.711538461538462</v>
       </c>
       <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10">
+      <c r="F18" s="10"/>
+      <c r="G18" s="9">
         <v>0.90625</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="9">
         <v>0.623376623376623</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="10"/>
     </row>
     <row r="19" ht="14.35" customHeight="1">
       <c r="A19" t="s" s="7">
@@ -3994,15 +4006,15 @@
         <v>0.788461538461538</v>
       </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10">
+      <c r="F19" s="10"/>
+      <c r="G19" s="9">
         <v>0.921875</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="9">
         <v>0.597402597402597</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10"/>
     </row>
     <row r="20" ht="14.35" customHeight="1">
       <c r="A20" t="s" s="7">
@@ -4018,15 +4030,15 @@
         <v>0.634615384615385</v>
       </c>
       <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10">
+      <c r="F20" s="10"/>
+      <c r="G20" s="9">
         <v>0.640625</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="9">
         <v>0.350649350649351</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="10"/>
     </row>
     <row r="21" ht="14.35" customHeight="1">
       <c r="A21" t="s" s="7">
@@ -4042,15 +4054,15 @@
         <v>0.673076923076923</v>
       </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10">
+      <c r="F21" s="10"/>
+      <c r="G21" s="9">
         <v>0.828125</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="9">
         <v>0.402597402597403</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="10"/>
     </row>
     <row r="22" ht="14.35" customHeight="1">
       <c r="A22" t="s" s="7">
@@ -4065,16 +4077,18 @@
       <c r="D22" s="8">
         <v>0.7692307692307691</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10">
+      <c r="E22" s="9">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="9">
         <v>0.890625</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <v>0.441558441558442</v>
       </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="10"/>
     </row>
     <row r="23" ht="14.35" customHeight="1">
       <c r="A23" t="s" s="7">
@@ -4089,16 +4103,18 @@
       <c r="D23" s="8">
         <v>0.942307692307692</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10">
+      <c r="E23" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="9">
         <v>0.71875</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="9">
         <v>0.428571428571429</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="10"/>
     </row>
     <row r="24" ht="14.35" customHeight="1">
       <c r="A24" t="s" s="7">
@@ -4114,15 +4130,15 @@
         <v>0.711538461538462</v>
       </c>
       <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10">
+      <c r="F24" s="10"/>
+      <c r="G24" s="9">
         <v>0.765625</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="9">
         <v>0.623376623376623</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="10"/>
     </row>
     <row r="25" ht="14.35" customHeight="1">
       <c r="A25" t="s" s="7">
@@ -4138,15 +4154,15 @@
         <v>0.711538461538462</v>
       </c>
       <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10">
+      <c r="F25" s="10"/>
+      <c r="G25" s="9">
         <v>0.859375</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="9">
         <v>0</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="10"/>
     </row>
     <row r="26" ht="14.35" customHeight="1">
       <c r="A26" t="s" s="7">
@@ -4162,15 +4178,15 @@
         <v>0.903846153846154</v>
       </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="10">
+      <c r="F26" s="10"/>
+      <c r="G26" s="9">
         <v>0.796875</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <v>0.61038961038961</v>
       </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="10"/>
     </row>
     <row r="27" ht="14.35" customHeight="1">
       <c r="A27" t="s" s="7">
@@ -4186,15 +4202,15 @@
         <v>0</v>
       </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="10">
+      <c r="F27" s="10"/>
+      <c r="G27" s="9">
         <v>0.828125</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <v>0.506493506493506</v>
       </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="10"/>
     </row>
     <row r="28" ht="14.35" customHeight="1">
       <c r="A28" t="s" s="7">
@@ -4210,15 +4226,15 @@
         <v>0</v>
       </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="10">
+      <c r="F28" s="10"/>
+      <c r="G28" s="9">
         <v>0.9375</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <v>0.545454545454545</v>
       </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="10"/>
     </row>
     <row r="29" ht="14.35" customHeight="1">
       <c r="A29" t="s" s="7">
@@ -4233,16 +4249,18 @@
       <c r="D29" s="11">
         <v>0</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="10">
+      <c r="E29" s="9">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="9">
         <v>0.8125</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <v>0.402597402597403</v>
       </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="10"/>
     </row>
     <row r="30" ht="14.35" customHeight="1">
       <c r="A30" t="s" s="7">
@@ -4258,15 +4276,15 @@
         <v>0.788461538461538</v>
       </c>
       <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="10">
+      <c r="F30" s="10"/>
+      <c r="G30" s="9">
         <v>0.609375</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <v>0.233766233766234</v>
       </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="10"/>
     </row>
     <row r="31" ht="14.35" customHeight="1">
       <c r="A31" t="s" s="7">
@@ -4281,16 +4299,18 @@
       <c r="D31" s="8">
         <v>0.7692307692307691</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="10">
+      <c r="E31" s="9">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="9">
         <v>0.828125</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <v>0</v>
       </c>
-      <c r="I31" s="10"/>
-      <c r="J31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="10"/>
     </row>
     <row r="32" ht="14.35" customHeight="1">
       <c r="A32" t="s" s="7">
@@ -4306,15 +4326,15 @@
         <v>0</v>
       </c>
       <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="10">
+      <c r="F32" s="10"/>
+      <c r="G32" s="9">
         <v>0.890625</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="9">
         <v>0.662337662337662</v>
       </c>
-      <c r="I32" s="10"/>
-      <c r="J32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="10"/>
     </row>
     <row r="33" ht="14.35" customHeight="1">
       <c r="A33" t="s" s="7">
@@ -4330,15 +4350,15 @@
         <v>0.634615384615385</v>
       </c>
       <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="10">
+      <c r="F33" s="10"/>
+      <c r="G33" s="9">
         <v>0.875</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="9">
         <v>0.480519480519481</v>
       </c>
-      <c r="I33" s="10"/>
-      <c r="J33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="10"/>
     </row>
     <row r="34" ht="14.35" customHeight="1">
       <c r="A34" t="s" s="7">
@@ -4353,16 +4373,18 @@
       <c r="D34" s="8">
         <v>0.692307692307692</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="10">
+      <c r="E34" s="9">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="9">
         <v>0.703125</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="9">
         <v>0.636363636363636</v>
       </c>
-      <c r="I34" s="10"/>
-      <c r="J34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="10"/>
     </row>
     <row r="35" ht="14.35" customHeight="1">
       <c r="A35" t="s" s="7">
@@ -4378,15 +4400,15 @@
         <v>0.711538461538462</v>
       </c>
       <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="10">
+      <c r="F35" s="10"/>
+      <c r="G35" s="9">
         <v>0.984375</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="9">
         <v>0.701298701298701</v>
       </c>
-      <c r="I35" s="10"/>
-      <c r="J35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="10"/>
     </row>
     <row r="36" ht="14.35" customHeight="1">
       <c r="A36" t="s" s="7">
@@ -4402,15 +4424,15 @@
         <v>1</v>
       </c>
       <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="10">
+      <c r="F36" s="10"/>
+      <c r="G36" s="9">
         <v>0</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="9">
         <v>0.506493506493506</v>
       </c>
-      <c r="I36" s="10"/>
-      <c r="J36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="10"/>
     </row>
     <row r="37" ht="14.35" customHeight="1">
       <c r="A37" t="s" s="7">
@@ -4426,15 +4448,15 @@
         <v>0</v>
       </c>
       <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="10">
+      <c r="F37" s="10"/>
+      <c r="G37" s="9">
         <v>0.765625</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37" s="9">
         <v>0.376623376623377</v>
       </c>
-      <c r="I37" s="10"/>
-      <c r="J37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="10"/>
     </row>
     <row r="38" ht="14.35" customHeight="1">
       <c r="A38" t="s" s="7">
@@ -4450,15 +4472,15 @@
         <v>0</v>
       </c>
       <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="10">
+      <c r="F38" s="10"/>
+      <c r="G38" s="9">
         <v>0.6875</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="9">
         <v>0.376623376623377</v>
       </c>
-      <c r="I38" s="10"/>
-      <c r="J38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="10"/>
     </row>
     <row r="39" ht="14.35" customHeight="1">
       <c r="A39" t="s" s="7">
@@ -4473,16 +4495,18 @@
       <c r="D39" s="8">
         <v>0.75</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="10">
+      <c r="E39" s="9">
+        <v>0.607142857142857</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="9">
         <v>0.90625</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="9">
         <v>0.623376623376623</v>
       </c>
-      <c r="I39" s="10"/>
-      <c r="J39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="10"/>
     </row>
     <row r="40" ht="14.35" customHeight="1">
       <c r="A40" t="s" s="7">
@@ -4498,15 +4522,15 @@
         <v>0.807692307692308</v>
       </c>
       <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="10">
+      <c r="F40" s="10"/>
+      <c r="G40" s="9">
         <v>0.692307692307692</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="9">
         <v>0</v>
       </c>
-      <c r="I40" s="10"/>
-      <c r="J40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="10"/>
     </row>
     <row r="41" ht="14.35" customHeight="1">
       <c r="A41" t="s" s="7">
@@ -4522,15 +4546,15 @@
         <v>0.711538461538462</v>
       </c>
       <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="10">
+      <c r="F41" s="10"/>
+      <c r="G41" s="9">
         <v>0.734375</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="9">
         <v>0</v>
       </c>
-      <c r="I41" s="10"/>
-      <c r="J41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="10"/>
     </row>
     <row r="42" ht="14.35" customHeight="1">
       <c r="A42" t="s" s="7">
@@ -4545,16 +4569,18 @@
       <c r="D42" s="8">
         <v>0.75</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="10">
+      <c r="E42" s="9">
+        <v>0.607142857142857</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="9">
         <v>0.8125</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="9">
         <v>0.441558441558442</v>
       </c>
-      <c r="I42" s="10"/>
-      <c r="J42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="10"/>
     </row>
     <row r="43" ht="14.35" customHeight="1">
       <c r="A43" t="s" s="7">
@@ -4570,21 +4596,21 @@
         <v>0.75</v>
       </c>
       <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="10">
+      <c r="F43" s="10"/>
+      <c r="G43" s="9">
         <v>0.75</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43" s="9">
         <v>0.506493506493506</v>
       </c>
-      <c r="I43" s="10"/>
-      <c r="J43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="10"/>
     </row>
     <row r="44" ht="14.35" customHeight="1">
       <c r="A44" t="s" s="7">
         <v>96</v>
       </c>
-      <c r="B44" s="9"/>
+      <c r="B44" s="10"/>
       <c r="C44" t="s" s="7">
         <v>12</v>
       </c>
@@ -4592,15 +4618,15 @@
         <v>0</v>
       </c>
       <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="10">
+      <c r="F44" s="10"/>
+      <c r="G44" s="9">
         <v>0</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="9">
         <v>0.168831168831169</v>
       </c>
-      <c r="I44" s="10"/>
-      <c r="J44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="10"/>
     </row>
     <row r="45" ht="14.35" customHeight="1">
       <c r="A45" t="s" s="7">
@@ -4616,15 +4642,15 @@
         <v>0</v>
       </c>
       <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="10">
+      <c r="F45" s="10"/>
+      <c r="G45" s="9">
         <v>0.875</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H45" s="9">
         <v>0.597402597402597</v>
       </c>
-      <c r="I45" s="10"/>
-      <c r="J45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="10"/>
     </row>
     <row r="46" ht="14.35" customHeight="1">
       <c r="A46" t="s" s="7">
@@ -4639,18 +4665,20 @@
       <c r="D46" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="10">
+      <c r="E46" s="9">
+        <v>0.678571428571429</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="G46" s="9">
         <v>0.625</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="9">
         <v>0.480519480519481</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I46" s="9">
         <v>0.785714285714286</v>
       </c>
-      <c r="J46" s="9"/>
+      <c r="J46" s="10"/>
     </row>
     <row r="47" ht="14.35" customHeight="1">
       <c r="A47" t="s" s="7">
@@ -4666,15 +4694,15 @@
         <v>0.807692307692308</v>
       </c>
       <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="10">
+      <c r="F47" s="10"/>
+      <c r="G47" s="9">
         <v>0.890625</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H47" s="9">
         <v>0.636363636363636</v>
       </c>
-      <c r="I47" s="10"/>
-      <c r="J47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="10"/>
     </row>
     <row r="48" ht="14.35" customHeight="1">
       <c r="A48" t="s" s="7">
@@ -4690,15 +4718,15 @@
         <v>0.711538461538462</v>
       </c>
       <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="10">
+      <c r="F48" s="10"/>
+      <c r="G48" s="9">
         <v>0.8125</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H48" s="9">
         <v>0.727272727272727</v>
       </c>
-      <c r="I48" s="10"/>
-      <c r="J48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="10"/>
     </row>
     <row r="49" ht="14.35" customHeight="1">
       <c r="A49" t="s" s="7">
@@ -4714,15 +4742,15 @@
         <v>0.788461538461538</v>
       </c>
       <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="10">
+      <c r="F49" s="10"/>
+      <c r="G49" s="9">
         <v>0.90625</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H49" s="9">
         <v>0.454545454545455</v>
       </c>
-      <c r="I49" s="10"/>
-      <c r="J49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="10"/>
     </row>
     <row r="50" ht="14.35" customHeight="1">
       <c r="A50" t="s" s="7">
@@ -4738,15 +4766,15 @@
         <v>0</v>
       </c>
       <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="10">
+      <c r="F50" s="10"/>
+      <c r="G50" s="9">
         <v>0.78125</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H50" s="9">
         <v>0.311688311688312</v>
       </c>
-      <c r="I50" s="10"/>
-      <c r="J50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="10"/>
     </row>
     <row r="51" ht="14.35" customHeight="1">
       <c r="A51" t="s" s="7">
@@ -4762,15 +4790,15 @@
         <v>0.788461538461538</v>
       </c>
       <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="10">
+      <c r="F51" s="10"/>
+      <c r="G51" s="9">
         <v>0.734375</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H51" s="9">
         <v>0.493506493506494</v>
       </c>
-      <c r="I51" s="10"/>
-      <c r="J51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="10"/>
     </row>
     <row r="52" ht="14.35" customHeight="1">
       <c r="A52" t="s" s="7">
@@ -4779,20 +4807,20 @@
       <c r="B52" t="s" s="7">
         <v>112</v>
       </c>
-      <c r="C52" s="9"/>
+      <c r="C52" s="10"/>
       <c r="D52" s="8">
         <v>0.711538461538462</v>
       </c>
       <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="10">
+      <c r="F52" s="10"/>
+      <c r="G52" s="9">
         <v>0.90625</v>
       </c>
-      <c r="H52" s="10">
+      <c r="H52" s="9">
         <v>0.415584415584416</v>
       </c>
-      <c r="I52" s="10"/>
-      <c r="J52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="10"/>
     </row>
     <row r="53" ht="14.35" customHeight="1">
       <c r="A53" t="s" s="7">
@@ -4808,15 +4836,15 @@
         <v>0.711538461538462</v>
       </c>
       <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="10">
+      <c r="F53" s="10"/>
+      <c r="G53" s="9">
         <v>0.734375</v>
       </c>
-      <c r="H53" s="10">
+      <c r="H53" s="9">
         <v>0.5844155844155841</v>
       </c>
-      <c r="I53" s="10"/>
-      <c r="J53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="10"/>
     </row>
     <row r="54" ht="14.35" customHeight="1">
       <c r="A54" t="s" s="7">
@@ -4832,15 +4860,15 @@
         <v>0.788461538461538</v>
       </c>
       <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="10">
+      <c r="F54" s="10"/>
+      <c r="G54" s="9">
         <v>0.8125</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H54" s="9">
         <v>0.493506493506494</v>
       </c>
-      <c r="I54" s="10"/>
-      <c r="J54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="10"/>
     </row>
     <row r="55" ht="14.35" customHeight="1">
       <c r="A55" t="s" s="7">
@@ -4856,15 +4884,15 @@
         <v>0.634615384615385</v>
       </c>
       <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="10">
+      <c r="F55" s="10"/>
+      <c r="G55" s="9">
         <v>0.921875</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H55" s="9">
         <v>0.506493506493506</v>
       </c>
-      <c r="I55" s="10"/>
-      <c r="J55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="10"/>
     </row>
     <row r="56" ht="14.35" customHeight="1">
       <c r="A56" t="s" s="7">
@@ -4880,15 +4908,15 @@
         <v>0.75</v>
       </c>
       <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="10">
+      <c r="F56" s="10"/>
+      <c r="G56" s="9">
         <v>0.8125</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H56" s="9">
         <v>0.454545454545455</v>
       </c>
-      <c r="I56" s="10"/>
-      <c r="J56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="10"/>
     </row>
     <row r="57" ht="14.35" customHeight="1">
       <c r="A57" t="s" s="7">
@@ -4904,15 +4932,15 @@
         <v>0.634615384615385</v>
       </c>
       <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="10">
+      <c r="F57" s="10"/>
+      <c r="G57" s="9">
         <v>0.859375</v>
       </c>
-      <c r="H57" s="10">
+      <c r="H57" s="9">
         <v>0.5844155844155841</v>
       </c>
-      <c r="I57" s="10"/>
-      <c r="J57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="10"/>
     </row>
     <row r="58" ht="14.35" customHeight="1">
       <c r="A58" t="s" s="7">
@@ -4928,15 +4956,15 @@
         <v>0.807692307692308</v>
       </c>
       <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="10">
+      <c r="F58" s="10"/>
+      <c r="G58" s="9">
         <v>0.828125</v>
       </c>
-      <c r="H58" s="10">
+      <c r="H58" s="9">
         <v>0.61038961038961</v>
       </c>
-      <c r="I58" s="10"/>
-      <c r="J58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="10"/>
     </row>
     <row r="59" ht="14.35" customHeight="1">
       <c r="A59" t="s" s="7">
@@ -4952,15 +4980,15 @@
         <v>0.826923076923077</v>
       </c>
       <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="10">
+      <c r="F59" s="10"/>
+      <c r="G59" s="9">
         <v>0.890625</v>
       </c>
-      <c r="H59" s="10">
+      <c r="H59" s="9">
         <v>0.363636363636364</v>
       </c>
-      <c r="I59" s="10"/>
-      <c r="J59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="10"/>
     </row>
     <row r="60" ht="14.35" customHeight="1">
       <c r="A60" t="s" s="7">
@@ -4976,15 +5004,15 @@
         <v>0</v>
       </c>
       <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="10">
+      <c r="F60" s="10"/>
+      <c r="G60" s="9">
         <v>0.84375</v>
       </c>
-      <c r="H60" s="10">
+      <c r="H60" s="9">
         <v>0.298701298701299</v>
       </c>
-      <c r="I60" s="10"/>
-      <c r="J60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="10"/>
     </row>
     <row r="61" ht="14.35" customHeight="1">
       <c r="A61" t="s" s="7">
@@ -4999,16 +5027,18 @@
       <c r="D61" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="10">
+      <c r="E61" s="9">
+        <v>0.678571428571429</v>
+      </c>
+      <c r="F61" s="10"/>
+      <c r="G61" s="9">
         <v>0.875</v>
       </c>
-      <c r="H61" s="10">
+      <c r="H61" s="9">
         <v>0.519480519480519</v>
       </c>
-      <c r="I61" s="10"/>
-      <c r="J61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="10"/>
     </row>
     <row r="62" ht="14.35" customHeight="1">
       <c r="A62" t="s" s="7">
@@ -5024,15 +5054,15 @@
         <v>0.711538461538462</v>
       </c>
       <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="10">
+      <c r="F62" s="10"/>
+      <c r="G62" s="9">
         <v>1</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H62" s="9">
         <v>0.415584415584416</v>
       </c>
-      <c r="I62" s="10"/>
-      <c r="J62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="10"/>
     </row>
     <row r="63" ht="14.35" customHeight="1">
       <c r="A63" t="s" s="7">
@@ -5048,15 +5078,15 @@
         <v>0</v>
       </c>
       <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="10">
+      <c r="F63" s="10"/>
+      <c r="G63" s="9">
         <v>0.84375</v>
       </c>
-      <c r="H63" s="10">
+      <c r="H63" s="9">
         <v>0.571428571428571</v>
       </c>
-      <c r="I63" s="10"/>
-      <c r="J63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="10"/>
     </row>
     <row r="64" ht="14.35" customHeight="1">
       <c r="A64" t="s" s="7">
@@ -5072,15 +5102,15 @@
         <v>0.615384615384615</v>
       </c>
       <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="10">
+      <c r="F64" s="10"/>
+      <c r="G64" s="9">
         <v>0.859375</v>
       </c>
-      <c r="H64" s="10">
+      <c r="H64" s="9">
         <v>0.571428571428571</v>
       </c>
-      <c r="I64" s="10"/>
-      <c r="J64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="10"/>
     </row>
     <row r="65" ht="14.35" customHeight="1">
       <c r="A65" t="s" s="7">
@@ -5096,15 +5126,15 @@
         <v>0.634615384615385</v>
       </c>
       <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="10">
+      <c r="F65" s="10"/>
+      <c r="G65" s="9">
         <v>0</v>
       </c>
-      <c r="H65" s="10">
+      <c r="H65" s="9">
         <v>0.350649350649351</v>
       </c>
-      <c r="I65" s="10"/>
-      <c r="J65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="10"/>
     </row>
     <row r="66" ht="14.35" customHeight="1">
       <c r="A66" t="s" s="7">
@@ -5120,15 +5150,15 @@
         <v>0.75</v>
       </c>
       <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="10">
+      <c r="F66" s="10"/>
+      <c r="G66" s="9">
         <v>0.890625</v>
       </c>
-      <c r="H66" s="10">
+      <c r="H66" s="9">
         <v>0.480519480519481</v>
       </c>
-      <c r="I66" s="10"/>
-      <c r="J66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="10"/>
     </row>
     <row r="67" ht="14.35" customHeight="1">
       <c r="A67" t="s" s="7">
@@ -5144,15 +5174,15 @@
         <v>0.75</v>
       </c>
       <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="10">
+      <c r="F67" s="10"/>
+      <c r="G67" s="9">
         <v>0.875</v>
       </c>
-      <c r="H67" s="10">
+      <c r="H67" s="9">
         <v>0.61038961038961</v>
       </c>
-      <c r="I67" s="10"/>
-      <c r="J67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="10"/>
     </row>
     <row r="68" ht="14.35" customHeight="1">
       <c r="A68" t="s" s="7">
@@ -5168,15 +5198,15 @@
         <v>0.75</v>
       </c>
       <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="10">
+      <c r="F68" s="10"/>
+      <c r="G68" s="9">
         <v>0.46875</v>
       </c>
-      <c r="H68" s="10">
+      <c r="H68" s="9">
         <v>0.363636363636364</v>
       </c>
-      <c r="I68" s="10"/>
-      <c r="J68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="10"/>
     </row>
     <row r="69" ht="14.35" customHeight="1">
       <c r="A69" t="s" s="7">
@@ -5185,20 +5215,20 @@
       <c r="B69" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="C69" s="9"/>
+      <c r="C69" s="10"/>
       <c r="D69" s="11">
         <v>0</v>
       </c>
       <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="10">
+      <c r="F69" s="10"/>
+      <c r="G69" s="9">
         <v>0</v>
       </c>
-      <c r="H69" s="10">
+      <c r="H69" s="9">
         <v>0</v>
       </c>
-      <c r="I69" s="10"/>
-      <c r="J69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="10"/>
     </row>
     <row r="70" ht="14.35" customHeight="1">
       <c r="A70" t="s" s="7">
@@ -5214,15 +5244,15 @@
         <v>0.711538461538462</v>
       </c>
       <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="10">
+      <c r="F70" s="10"/>
+      <c r="G70" s="9">
         <v>0.90625</v>
       </c>
-      <c r="H70" s="10">
+      <c r="H70" s="9">
         <v>0.337662337662338</v>
       </c>
-      <c r="I70" s="10"/>
-      <c r="J70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="10"/>
     </row>
     <row r="71" ht="14.35" customHeight="1">
       <c r="A71" t="s" s="7">
@@ -5237,16 +5267,18 @@
       <c r="D71" s="8">
         <v>0.923076923076923</v>
       </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="10">
+      <c r="E71" s="9">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F71" s="10"/>
+      <c r="G71" s="9">
         <v>0.9375</v>
       </c>
-      <c r="H71" s="10">
+      <c r="H71" s="9">
         <v>0.467532467532468</v>
       </c>
-      <c r="I71" s="10"/>
-      <c r="J71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="10"/>
     </row>
     <row r="72" ht="14.35" customHeight="1">
       <c r="A72" t="s" s="7">
@@ -5262,15 +5294,15 @@
         <v>1</v>
       </c>
       <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="10">
+      <c r="F72" s="10"/>
+      <c r="G72" s="9">
         <v>0</v>
       </c>
-      <c r="H72" s="10">
+      <c r="H72" s="9">
         <v>0.467532467532468</v>
       </c>
-      <c r="I72" s="10"/>
-      <c r="J72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="10"/>
     </row>
     <row r="73" ht="14.35" customHeight="1">
       <c r="A73" t="s" s="7">
@@ -5286,15 +5318,15 @@
         <v>0.75</v>
       </c>
       <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="10">
+      <c r="F73" s="10"/>
+      <c r="G73" s="9">
         <v>0.84375</v>
       </c>
-      <c r="H73" s="10">
+      <c r="H73" s="9">
         <v>0.493506493506494</v>
       </c>
-      <c r="I73" s="10"/>
-      <c r="J73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="10"/>
     </row>
     <row r="74" ht="14.35" customHeight="1">
       <c r="A74" t="s" s="7">
@@ -5310,15 +5342,15 @@
         <v>0.826923076923077</v>
       </c>
       <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="10">
+      <c r="F74" s="10"/>
+      <c r="G74" s="9">
         <v>0.765625</v>
       </c>
-      <c r="H74" s="10">
+      <c r="H74" s="9">
         <v>0.337662337662338</v>
       </c>
-      <c r="I74" s="10"/>
-      <c r="J74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="10"/>
     </row>
     <row r="75" ht="14.35" customHeight="1">
       <c r="A75" t="s" s="7">
@@ -5333,16 +5365,18 @@
       <c r="D75" s="11">
         <v>0</v>
       </c>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="10">
+      <c r="E75" s="9">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F75" s="10"/>
+      <c r="G75" s="9">
         <v>0.875</v>
       </c>
-      <c r="H75" s="10">
+      <c r="H75" s="9">
         <v>0.649350649350649</v>
       </c>
-      <c r="I75" s="10"/>
-      <c r="J75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="10"/>
     </row>
     <row r="76" ht="14.35" customHeight="1">
       <c r="A76" t="s" s="7">
@@ -5358,15 +5392,15 @@
         <v>0.75</v>
       </c>
       <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="10">
+      <c r="F76" s="10"/>
+      <c r="G76" s="9">
         <v>0.671875</v>
       </c>
-      <c r="H76" s="10">
+      <c r="H76" s="9">
         <v>0.571428571428571</v>
       </c>
-      <c r="I76" s="10"/>
-      <c r="J76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="10"/>
     </row>
     <row r="77" ht="14.35" customHeight="1">
       <c r="A77" t="s" s="7">
@@ -5381,16 +5415,18 @@
       <c r="D77" s="8">
         <v>0.942307692307692</v>
       </c>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="10">
+      <c r="E77" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F77" s="10"/>
+      <c r="G77" s="9">
         <v>0.8125</v>
       </c>
-      <c r="H77" s="10">
+      <c r="H77" s="9">
         <v>0.480519480519481</v>
       </c>
-      <c r="I77" s="10"/>
-      <c r="J77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="10"/>
     </row>
     <row r="78" ht="14.35" customHeight="1">
       <c r="A78" t="s" s="7">
@@ -5406,15 +5442,15 @@
         <v>0.807692307692308</v>
       </c>
       <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="10">
+      <c r="F78" s="10"/>
+      <c r="G78" s="9">
         <v>0.84375</v>
       </c>
-      <c r="H78" s="10">
+      <c r="H78" s="9">
         <v>0.493506493506494</v>
       </c>
-      <c r="I78" s="10"/>
-      <c r="J78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="10"/>
     </row>
     <row r="79" ht="14.35" customHeight="1">
       <c r="A79" t="s" s="7">
@@ -5429,16 +5465,18 @@
       <c r="D79" s="11">
         <v>0</v>
       </c>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="10">
+      <c r="E79" s="9">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F79" s="10"/>
+      <c r="G79" s="9">
         <v>0.78125</v>
       </c>
-      <c r="H79" s="10">
+      <c r="H79" s="9">
         <v>0.337662337662338</v>
       </c>
-      <c r="I79" s="10"/>
-      <c r="J79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="10"/>
     </row>
     <row r="80" ht="14.35" customHeight="1">
       <c r="A80" t="s" s="7">
@@ -5454,15 +5492,15 @@
         <v>0.826923076923077</v>
       </c>
       <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="10">
+      <c r="F80" s="10"/>
+      <c r="G80" s="9">
         <v>0.828125</v>
       </c>
-      <c r="H80" s="10">
+      <c r="H80" s="9">
         <v>0.519480519480519</v>
       </c>
-      <c r="I80" s="10"/>
-      <c r="J80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="10"/>
     </row>
     <row r="81" ht="14.35" customHeight="1">
       <c r="A81" t="s" s="7">
@@ -5478,15 +5516,15 @@
         <v>0.673076923076923</v>
       </c>
       <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="10">
+      <c r="F81" s="10"/>
+      <c r="G81" s="9">
         <v>0.78125</v>
       </c>
-      <c r="H81" s="10">
+      <c r="H81" s="9">
         <v>0.207792207792208</v>
       </c>
-      <c r="I81" s="10"/>
-      <c r="J81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="10"/>
     </row>
     <row r="82" ht="14.35" customHeight="1">
       <c r="A82" t="s" s="7">
@@ -5502,15 +5540,15 @@
         <v>0</v>
       </c>
       <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="10">
+      <c r="F82" s="10"/>
+      <c r="G82" s="9">
         <v>0.859375</v>
       </c>
-      <c r="H82" s="10">
+      <c r="H82" s="9">
         <v>0.363636363636364</v>
       </c>
-      <c r="I82" s="10"/>
-      <c r="J82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="10"/>
     </row>
     <row r="83" ht="14.35" customHeight="1">
       <c r="A83" t="s" s="7">
@@ -5526,15 +5564,15 @@
         <v>0.75</v>
       </c>
       <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="10">
+      <c r="F83" s="10"/>
+      <c r="G83" s="9">
         <v>0.84375</v>
       </c>
-      <c r="H83" s="10">
+      <c r="H83" s="9">
         <v>0.597402597402597</v>
       </c>
-      <c r="I83" s="10"/>
-      <c r="J83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="10"/>
     </row>
     <row r="84" ht="14.35" customHeight="1">
       <c r="A84" t="s" s="7">
@@ -5550,15 +5588,15 @@
         <v>0.826923076923077</v>
       </c>
       <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="10">
+      <c r="F84" s="10"/>
+      <c r="G84" s="9">
         <v>0.9375</v>
       </c>
-      <c r="H84" s="10">
+      <c r="H84" s="9">
         <v>0.74025974025974</v>
       </c>
-      <c r="I84" s="10"/>
-      <c r="J84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="10"/>
     </row>
     <row r="85" ht="14.35" customHeight="1">
       <c r="A85" t="s" s="7">
@@ -5574,15 +5612,15 @@
         <v>0</v>
       </c>
       <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="10">
+      <c r="F85" s="10"/>
+      <c r="G85" s="9">
         <v>0.90625</v>
       </c>
-      <c r="H85" s="10">
+      <c r="H85" s="9">
         <v>0.545454545454545</v>
       </c>
-      <c r="I85" s="10"/>
-      <c r="J85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="10"/>
     </row>
     <row r="86" ht="14.35" customHeight="1">
       <c r="A86" t="s" s="7">
@@ -5597,16 +5635,18 @@
       <c r="D86" s="8">
         <v>0.923076923076923</v>
       </c>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="10">
+      <c r="E86" s="9">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F86" s="10"/>
+      <c r="G86" s="9">
         <v>0.9375</v>
       </c>
-      <c r="H86" s="10">
+      <c r="H86" s="9">
         <v>0.220779220779221</v>
       </c>
-      <c r="I86" s="10"/>
-      <c r="J86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="10"/>
     </row>
     <row r="87" ht="14.35" customHeight="1">
       <c r="A87" t="s" s="7">
@@ -5622,15 +5662,15 @@
         <v>0.788461538461538</v>
       </c>
       <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="10">
+      <c r="F87" s="10"/>
+      <c r="G87" s="9">
         <v>0.859375</v>
       </c>
-      <c r="H87" s="10">
+      <c r="H87" s="9">
         <v>0.454545454545455</v>
       </c>
-      <c r="I87" s="10"/>
-      <c r="J87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="10"/>
     </row>
     <row r="88" ht="14.35" customHeight="1">
       <c r="A88" t="s" s="7">
@@ -5646,15 +5686,15 @@
         <v>0.615384615384615</v>
       </c>
       <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="10">
+      <c r="F88" s="10"/>
+      <c r="G88" s="9">
         <v>0.90625</v>
       </c>
-      <c r="H88" s="10">
+      <c r="H88" s="9">
         <v>0.571428571428571</v>
       </c>
-      <c r="I88" s="10"/>
-      <c r="J88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="10"/>
     </row>
     <row r="89" ht="14.35" customHeight="1">
       <c r="A89" t="s" s="7">
@@ -5669,16 +5709,18 @@
       <c r="D89" s="11">
         <v>0</v>
       </c>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="10">
+      <c r="E89" s="9">
+        <v>0.678571428571429</v>
+      </c>
+      <c r="F89" s="10"/>
+      <c r="G89" s="9">
         <v>0.953125</v>
       </c>
-      <c r="H89" s="10">
+      <c r="H89" s="9">
         <v>0.532467532467532</v>
       </c>
-      <c r="I89" s="10"/>
-      <c r="J89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="10"/>
     </row>
     <row r="90" ht="14.35" customHeight="1">
       <c r="A90" t="s" s="7">
@@ -5694,15 +5736,15 @@
         <v>0.788461538461538</v>
       </c>
       <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="10">
+      <c r="F90" s="10"/>
+      <c r="G90" s="9">
         <v>0</v>
       </c>
-      <c r="H90" s="10">
+      <c r="H90" s="9">
         <v>0.714285714285714</v>
       </c>
-      <c r="I90" s="10"/>
-      <c r="J90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="10"/>
     </row>
     <row r="91" ht="14.35" customHeight="1">
       <c r="A91" t="s" s="7">
@@ -5718,15 +5760,15 @@
         <v>0.75</v>
       </c>
       <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="10">
+      <c r="F91" s="10"/>
+      <c r="G91" s="9">
         <v>0.84375</v>
       </c>
-      <c r="H91" s="10">
+      <c r="H91" s="9">
         <v>0.636363636363636</v>
       </c>
-      <c r="I91" s="10"/>
-      <c r="J91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="10"/>
     </row>
     <row r="92" ht="14.35" customHeight="1">
       <c r="A92" t="s" s="7">
@@ -5741,16 +5783,18 @@
       <c r="D92" s="8">
         <v>0.75</v>
       </c>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="10">
+      <c r="E92" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F92" s="10"/>
+      <c r="G92" s="9">
         <v>0.78125</v>
       </c>
-      <c r="H92" s="10">
+      <c r="H92" s="9">
         <v>0.597402597402597</v>
       </c>
-      <c r="I92" s="10"/>
-      <c r="J92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="10"/>
     </row>
     <row r="93" ht="14.35" customHeight="1">
       <c r="A93" t="s" s="7">
@@ -5766,15 +5810,15 @@
         <v>0.788461538461538</v>
       </c>
       <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="10">
+      <c r="F93" s="10"/>
+      <c r="G93" s="9">
         <v>0.859375</v>
       </c>
-      <c r="H93" s="10">
+      <c r="H93" s="9">
         <v>0.454545454545455</v>
       </c>
-      <c r="I93" s="10"/>
-      <c r="J93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="10"/>
     </row>
     <row r="94" ht="14.35" customHeight="1">
       <c r="A94" t="s" s="7">
@@ -5789,16 +5833,18 @@
       <c r="D94" s="8">
         <v>0.75</v>
       </c>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="10">
+      <c r="E94" s="9">
+        <v>0.607142857142857</v>
+      </c>
+      <c r="F94" s="10"/>
+      <c r="G94" s="9">
         <v>0.71875</v>
       </c>
-      <c r="H94" s="10">
+      <c r="H94" s="9">
         <v>0.558441558441558</v>
       </c>
-      <c r="I94" s="10"/>
-      <c r="J94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="10"/>
     </row>
     <row r="95" ht="14.35" customHeight="1">
       <c r="A95" t="s" s="7">
@@ -5814,15 +5860,15 @@
         <v>0.634615384615385</v>
       </c>
       <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="10">
+      <c r="F95" s="10"/>
+      <c r="G95" s="9">
         <v>0.8125</v>
       </c>
-      <c r="H95" s="10">
+      <c r="H95" s="9">
         <v>0.38961038961039</v>
       </c>
-      <c r="I95" s="10"/>
-      <c r="J95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="10"/>
     </row>
     <row r="96" ht="14.35" customHeight="1">
       <c r="A96" t="s" s="7">
@@ -5837,16 +5883,18 @@
       <c r="D96" s="8">
         <v>0.942307692307692</v>
       </c>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="10">
+      <c r="E96" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F96" s="10"/>
+      <c r="G96" s="9">
         <v>0.875</v>
       </c>
-      <c r="H96" s="10">
+      <c r="H96" s="9">
         <v>0.298701298701299</v>
       </c>
-      <c r="I96" s="10"/>
-      <c r="J96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="10"/>
     </row>
     <row r="97" ht="14.35" customHeight="1">
       <c r="A97" t="s" s="7">
@@ -5862,15 +5910,15 @@
         <v>0.7692307692307691</v>
       </c>
       <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="10">
+      <c r="F97" s="10"/>
+      <c r="G97" s="9">
         <v>0</v>
       </c>
-      <c r="H97" s="10">
+      <c r="H97" s="9">
         <v>0.285714285714286</v>
       </c>
-      <c r="I97" s="10"/>
-      <c r="J97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="10"/>
     </row>
     <row r="98" ht="14.35" customHeight="1">
       <c r="A98" t="s" s="7">
@@ -5886,15 +5934,15 @@
         <v>0.634615384615385</v>
       </c>
       <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="10">
+      <c r="F98" s="10"/>
+      <c r="G98" s="9">
         <v>0.875</v>
       </c>
-      <c r="H98" s="10">
+      <c r="H98" s="9">
         <v>0.272727272727273</v>
       </c>
-      <c r="I98" s="10"/>
-      <c r="J98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="10"/>
     </row>
     <row r="99" ht="14.35" customHeight="1">
       <c r="A99" t="s" s="7">
@@ -5909,16 +5957,18 @@
       <c r="D99" s="8">
         <v>0.923076923076923</v>
       </c>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="10">
+      <c r="E99" s="9">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F99" s="10"/>
+      <c r="G99" s="9">
         <v>0.78125</v>
       </c>
-      <c r="H99" s="10">
+      <c r="H99" s="9">
         <v>0.571428571428571</v>
       </c>
-      <c r="I99" s="10"/>
-      <c r="J99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="10"/>
     </row>
     <row r="100" ht="14.35" customHeight="1">
       <c r="A100" t="s" s="7">
@@ -5934,17 +5984,17 @@
         <v>0.788461538461538</v>
       </c>
       <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="10">
+      <c r="F100" s="10"/>
+      <c r="G100" s="9">
         <v>0.78125</v>
       </c>
-      <c r="H100" s="10">
+      <c r="H100" s="9">
         <v>0.5844155844155841</v>
       </c>
-      <c r="I100" s="10">
+      <c r="I100" s="9">
         <v>0.728571428571429</v>
       </c>
-      <c r="J100" s="9"/>
+      <c r="J100" s="10"/>
     </row>
     <row r="101" ht="14.35" customHeight="1">
       <c r="A101" t="s" s="7">
@@ -5960,15 +6010,15 @@
         <v>0</v>
       </c>
       <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="10">
+      <c r="F101" s="10"/>
+      <c r="G101" s="9">
         <v>0.84375</v>
       </c>
-      <c r="H101" s="10">
+      <c r="H101" s="9">
         <v>0</v>
       </c>
-      <c r="I101" s="10"/>
-      <c r="J101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="10"/>
     </row>
     <row r="102" ht="14.35" customHeight="1">
       <c r="A102" t="s" s="7">
@@ -5984,15 +6034,15 @@
         <v>0.788461538461538</v>
       </c>
       <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="10">
+      <c r="F102" s="10"/>
+      <c r="G102" s="9">
         <v>0.84375</v>
       </c>
-      <c r="H102" s="10">
+      <c r="H102" s="9">
         <v>0.363636363636364</v>
       </c>
-      <c r="I102" s="10"/>
-      <c r="J102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="10"/>
     </row>
     <row r="103" ht="14.35" customHeight="1">
       <c r="A103" t="s" s="7">
@@ -6008,15 +6058,15 @@
         <v>0.442307692307692</v>
       </c>
       <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="10">
+      <c r="F103" s="10"/>
+      <c r="G103" s="9">
         <v>0.84375</v>
       </c>
-      <c r="H103" s="10">
+      <c r="H103" s="9">
         <v>0.441558441558442</v>
       </c>
-      <c r="I103" s="10"/>
-      <c r="J103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="10"/>
     </row>
     <row r="104" ht="14.35" customHeight="1">
       <c r="A104" t="s" s="7">
@@ -6032,15 +6082,15 @@
         <v>0.711538461538462</v>
       </c>
       <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="10">
+      <c r="F104" s="10"/>
+      <c r="G104" s="9">
         <v>0.9375</v>
       </c>
-      <c r="H104" s="10">
+      <c r="H104" s="9">
         <v>0.428571428571429</v>
       </c>
-      <c r="I104" s="10"/>
-      <c r="J104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="10"/>
     </row>
     <row r="105" ht="14.35" customHeight="1">
       <c r="A105" t="s" s="7">
@@ -6056,15 +6106,15 @@
         <v>0.903846153846154</v>
       </c>
       <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="10">
+      <c r="F105" s="10"/>
+      <c r="G105" s="9">
         <v>0.8125</v>
       </c>
-      <c r="H105" s="10">
+      <c r="H105" s="9">
         <v>0.662337662337662</v>
       </c>
-      <c r="I105" s="10"/>
-      <c r="J105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="10"/>
     </row>
     <row r="106" ht="14.35" customHeight="1">
       <c r="A106" t="s" s="7">
@@ -6080,15 +6130,15 @@
         <v>0.807692307692308</v>
       </c>
       <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="10">
+      <c r="F106" s="10"/>
+      <c r="G106" s="9">
         <v>0.828125</v>
       </c>
-      <c r="H106" s="10">
+      <c r="H106" s="9">
         <v>0.597402597402597</v>
       </c>
-      <c r="I106" s="10"/>
-      <c r="J106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="10"/>
     </row>
     <row r="107" ht="14.35" customHeight="1">
       <c r="A107" t="s" s="7">
@@ -6104,15 +6154,15 @@
         <v>0</v>
       </c>
       <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="10">
+      <c r="F107" s="10"/>
+      <c r="G107" s="9">
         <v>0.890625</v>
       </c>
-      <c r="H107" s="10">
+      <c r="H107" s="9">
         <v>0.493506493506494</v>
       </c>
-      <c r="I107" s="10"/>
-      <c r="J107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="10"/>
     </row>
     <row r="108" ht="14.35" customHeight="1">
       <c r="A108" t="s" s="7">
@@ -6128,15 +6178,15 @@
         <v>0.673076923076923</v>
       </c>
       <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="10">
+      <c r="F108" s="10"/>
+      <c r="G108" s="9">
         <v>0.828125</v>
       </c>
-      <c r="H108" s="10">
+      <c r="H108" s="9">
         <v>0.402597402597403</v>
       </c>
-      <c r="I108" s="10"/>
-      <c r="J108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="10"/>
     </row>
     <row r="109" ht="14.35" customHeight="1">
       <c r="A109" t="s" s="7">
@@ -6152,15 +6202,15 @@
         <v>0.673076923076923</v>
       </c>
       <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="10">
+      <c r="F109" s="10"/>
+      <c r="G109" s="9">
         <v>0.859375</v>
       </c>
-      <c r="H109" s="10">
+      <c r="H109" s="9">
         <v>0.337662337662338</v>
       </c>
-      <c r="I109" s="10"/>
-      <c r="J109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="10"/>
     </row>
     <row r="110" ht="14.35" customHeight="1">
       <c r="A110" t="s" s="7">
@@ -6176,15 +6226,15 @@
         <v>0.711538461538462</v>
       </c>
       <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="10">
+      <c r="F110" s="10"/>
+      <c r="G110" s="9">
         <v>0</v>
       </c>
-      <c r="H110" s="10">
+      <c r="H110" s="9">
         <v>0.415584415584416</v>
       </c>
-      <c r="I110" s="10"/>
-      <c r="J110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="10"/>
     </row>
     <row r="111" ht="14.35" customHeight="1">
       <c r="A111" t="s" s="7">
@@ -6200,15 +6250,15 @@
         <v>0.846153846153846</v>
       </c>
       <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="10">
+      <c r="F111" s="10"/>
+      <c r="G111" s="9">
         <v>0.84375</v>
       </c>
-      <c r="H111" s="10">
+      <c r="H111" s="9">
         <v>0.38961038961039</v>
       </c>
-      <c r="I111" s="10"/>
-      <c r="J111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="10"/>
     </row>
     <row r="112" ht="14.35" customHeight="1">
       <c r="A112" t="s" s="7">
@@ -6224,15 +6274,15 @@
         <v>0</v>
       </c>
       <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="10">
+      <c r="F112" s="10"/>
+      <c r="G112" s="9">
         <v>0.84375</v>
       </c>
-      <c r="H112" s="10">
+      <c r="H112" s="9">
         <v>0.376623376623377</v>
       </c>
-      <c r="I112" s="10"/>
-      <c r="J112" s="9"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="10"/>
     </row>
     <row r="113" ht="14.35" customHeight="1">
       <c r="A113" t="s" s="7">
@@ -6248,15 +6298,15 @@
         <v>0.846153846153846</v>
       </c>
       <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="10">
+      <c r="F113" s="10"/>
+      <c r="G113" s="9">
         <v>0.609375</v>
       </c>
-      <c r="H113" s="10">
+      <c r="H113" s="9">
         <v>0.363636363636364</v>
       </c>
-      <c r="I113" s="10"/>
-      <c r="J113" s="9"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="10"/>
     </row>
     <row r="114" ht="14.35" customHeight="1">
       <c r="A114" t="s" s="7">
@@ -6272,15 +6322,15 @@
         <v>0</v>
       </c>
       <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="10">
+      <c r="F114" s="10"/>
+      <c r="G114" s="9">
         <v>0.90625</v>
       </c>
-      <c r="H114" s="10">
+      <c r="H114" s="9">
         <v>0.636363636363636</v>
       </c>
-      <c r="I114" s="10"/>
-      <c r="J114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="10"/>
     </row>
     <row r="115" ht="14.35" customHeight="1">
       <c r="A115" t="s" s="7">
@@ -6296,15 +6346,15 @@
         <v>0.634615384615385</v>
       </c>
       <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="10">
+      <c r="F115" s="10"/>
+      <c r="G115" s="9">
         <v>0.90625</v>
       </c>
-      <c r="H115" s="10">
+      <c r="H115" s="9">
         <v>0.545454545454545</v>
       </c>
-      <c r="I115" s="10"/>
-      <c r="J115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="10"/>
     </row>
     <row r="116" ht="14.35" customHeight="1">
       <c r="A116" t="s" s="7">
@@ -6319,16 +6369,18 @@
       <c r="D116" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="10">
+      <c r="E116" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F116" s="10"/>
+      <c r="G116" s="9">
         <v>0.9375</v>
       </c>
-      <c r="H116" s="10">
+      <c r="H116" s="9">
         <v>0.701298701298701</v>
       </c>
-      <c r="I116" s="10"/>
-      <c r="J116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="10"/>
     </row>
     <row r="117" ht="14.35" customHeight="1">
       <c r="A117" t="s" s="7">
@@ -6344,15 +6396,15 @@
         <v>0.711538461538462</v>
       </c>
       <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="10">
+      <c r="F117" s="10"/>
+      <c r="G117" s="9">
         <v>0.71875</v>
       </c>
-      <c r="H117" s="10">
+      <c r="H117" s="9">
         <v>0.675324675324675</v>
       </c>
-      <c r="I117" s="10"/>
-      <c r="J117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="10"/>
     </row>
     <row r="118" ht="14.35" customHeight="1">
       <c r="A118" t="s" s="7">
@@ -6367,16 +6419,18 @@
       <c r="D118" s="8">
         <v>0.7692307692307691</v>
       </c>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="10">
+      <c r="E118" s="9">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F118" s="10"/>
+      <c r="G118" s="9">
         <v>0.640625</v>
       </c>
-      <c r="H118" s="10">
+      <c r="H118" s="9">
         <v>0.5844155844155841</v>
       </c>
-      <c r="I118" s="10"/>
-      <c r="J118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="10"/>
     </row>
     <row r="119" ht="14.35" customHeight="1">
       <c r="A119" t="s" s="7">
@@ -6392,15 +6446,15 @@
         <v>0.903846153846154</v>
       </c>
       <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="10">
+      <c r="F119" s="10"/>
+      <c r="G119" s="9">
         <v>0.78125</v>
       </c>
-      <c r="H119" s="10">
+      <c r="H119" s="9">
         <v>0.714285714285714</v>
       </c>
-      <c r="I119" s="10"/>
-      <c r="J119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="10"/>
     </row>
     <row r="120" ht="14.35" customHeight="1">
       <c r="A120" t="s" s="7">
@@ -6415,16 +6469,18 @@
       <c r="D120" s="8">
         <v>0.942307692307692</v>
       </c>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="10">
+      <c r="E120" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F120" s="10"/>
+      <c r="G120" s="9">
         <v>0.859375</v>
       </c>
-      <c r="H120" s="10">
+      <c r="H120" s="9">
         <v>0.532467532467532</v>
       </c>
-      <c r="I120" s="10"/>
-      <c r="J120" s="9"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="10"/>
     </row>
     <row r="121" ht="14.35" customHeight="1">
       <c r="A121" t="s" s="7">
@@ -6440,15 +6496,15 @@
         <v>0.711538461538462</v>
       </c>
       <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="10">
+      <c r="F121" s="10"/>
+      <c r="G121" s="9">
         <v>0.703125</v>
       </c>
-      <c r="H121" s="10">
+      <c r="H121" s="9">
         <v>0.363636363636364</v>
       </c>
-      <c r="I121" s="10"/>
-      <c r="J121" s="9"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="10"/>
     </row>
     <row r="122" ht="14.35" customHeight="1">
       <c r="A122" t="s" s="7">
@@ -6464,15 +6520,15 @@
         <v>0.615384615384615</v>
       </c>
       <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="10">
+      <c r="F122" s="10"/>
+      <c r="G122" s="9">
         <v>0.953125</v>
       </c>
-      <c r="H122" s="10">
+      <c r="H122" s="9">
         <v>0.675324675324675</v>
       </c>
-      <c r="I122" s="10"/>
-      <c r="J122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="10"/>
     </row>
     <row r="123" ht="14.35" customHeight="1">
       <c r="A123" t="s" s="7">
@@ -6488,15 +6544,15 @@
         <v>0</v>
       </c>
       <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="10">
+      <c r="F123" s="10"/>
+      <c r="G123" s="9">
         <v>0.8125</v>
       </c>
-      <c r="H123" s="10">
+      <c r="H123" s="9">
         <v>0.571428571428571</v>
       </c>
-      <c r="I123" s="10"/>
-      <c r="J123" s="9"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="10"/>
     </row>
     <row r="124" ht="14.35" customHeight="1">
       <c r="A124" t="s" s="7">
@@ -6512,15 +6568,15 @@
         <v>0.75</v>
       </c>
       <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="10">
+      <c r="F124" s="10"/>
+      <c r="G124" s="9">
         <v>0.828125</v>
       </c>
-      <c r="H124" s="10">
+      <c r="H124" s="9">
         <v>0.532467532467532</v>
       </c>
-      <c r="I124" s="10"/>
-      <c r="J124" s="9"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="10"/>
     </row>
     <row r="125" ht="28.35" customHeight="1">
       <c r="A125" t="s" s="7">
@@ -6536,15 +6592,15 @@
         <v>0.846153846153846</v>
       </c>
       <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="10">
+      <c r="F125" s="10"/>
+      <c r="G125" s="9">
         <v>0</v>
       </c>
-      <c r="H125" s="10">
+      <c r="H125" s="9">
         <v>0.25974025974026</v>
       </c>
-      <c r="I125" s="10"/>
-      <c r="J125" s="9"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="10"/>
     </row>
     <row r="126" ht="14.35" customHeight="1">
       <c r="A126" t="s" s="7">
@@ -6559,16 +6615,18 @@
       <c r="D126" s="11">
         <v>0</v>
       </c>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="10">
+      <c r="E126" s="9">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F126" s="10"/>
+      <c r="G126" s="9">
         <v>0.875</v>
       </c>
-      <c r="H126" s="10">
+      <c r="H126" s="9">
         <v>0.428571428571429</v>
       </c>
-      <c r="I126" s="10"/>
-      <c r="J126" s="9"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="10"/>
     </row>
     <row r="127" ht="14.35" customHeight="1">
       <c r="A127" t="s" s="7">
@@ -6584,15 +6642,15 @@
         <v>0.711538461538462</v>
       </c>
       <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="10">
+      <c r="F127" s="10"/>
+      <c r="G127" s="9">
         <v>0</v>
       </c>
-      <c r="H127" s="10">
+      <c r="H127" s="9">
         <v>0.597402597402597</v>
       </c>
-      <c r="I127" s="10"/>
-      <c r="J127" s="9"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="10"/>
     </row>
     <row r="128" ht="14.35" customHeight="1">
       <c r="A128" t="s" s="7">
@@ -6601,20 +6659,20 @@
       <c r="B128" t="s" s="7">
         <v>263</v>
       </c>
-      <c r="C128" s="9"/>
+      <c r="C128" s="10"/>
       <c r="D128" s="11">
         <v>0</v>
       </c>
       <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="10">
+      <c r="F128" s="10"/>
+      <c r="G128" s="9">
         <v>0</v>
       </c>
-      <c r="H128" s="10">
+      <c r="H128" s="9">
         <v>0.194805194805195</v>
       </c>
-      <c r="I128" s="10"/>
-      <c r="J128" s="9"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="10"/>
     </row>
     <row r="129" ht="14.35" customHeight="1">
       <c r="A129" t="s" s="7">
@@ -6630,15 +6688,15 @@
         <v>1</v>
       </c>
       <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="10">
+      <c r="F129" s="10"/>
+      <c r="G129" s="9">
         <v>0</v>
       </c>
-      <c r="H129" s="10">
+      <c r="H129" s="9">
         <v>0.402597402597403</v>
       </c>
-      <c r="I129" s="10"/>
-      <c r="J129" s="9"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="10"/>
     </row>
     <row r="130" ht="14.35" customHeight="1">
       <c r="A130" t="s" s="7">
@@ -6654,15 +6712,15 @@
         <v>0.788461538461538</v>
       </c>
       <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="10">
+      <c r="F130" s="10"/>
+      <c r="G130" s="9">
         <v>0.859375</v>
       </c>
-      <c r="H130" s="10">
+      <c r="H130" s="9">
         <v>0.701298701298701</v>
       </c>
-      <c r="I130" s="10"/>
-      <c r="J130" s="9"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="10"/>
     </row>
     <row r="131" ht="14.35" customHeight="1">
       <c r="A131" t="s" s="7">
@@ -6678,15 +6736,15 @@
         <v>0.75</v>
       </c>
       <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="10">
+      <c r="F131" s="10"/>
+      <c r="G131" s="9">
         <v>0.765625</v>
       </c>
-      <c r="H131" s="10">
+      <c r="H131" s="9">
         <v>0.558441558441558</v>
       </c>
-      <c r="I131" s="10"/>
-      <c r="J131" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="10"/>
     </row>
     <row r="132" ht="14.35" customHeight="1">
       <c r="A132" t="s" s="7">
@@ -6702,15 +6760,15 @@
         <v>0.634615384615385</v>
       </c>
       <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="10">
+      <c r="F132" s="10"/>
+      <c r="G132" s="9">
         <v>0.96875</v>
       </c>
-      <c r="H132" s="10">
+      <c r="H132" s="9">
         <v>0.519480519480519</v>
       </c>
-      <c r="I132" s="10"/>
-      <c r="J132" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="10"/>
     </row>
     <row r="133" ht="14.35" customHeight="1">
       <c r="A133" t="s" s="7">
@@ -6726,15 +6784,15 @@
         <v>0.903846153846154</v>
       </c>
       <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="10">
+      <c r="F133" s="10"/>
+      <c r="G133" s="9">
         <v>0.90625</v>
       </c>
-      <c r="H133" s="10">
+      <c r="H133" s="9">
         <v>0.61038961038961</v>
       </c>
-      <c r="I133" s="10"/>
-      <c r="J133" s="9"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="10"/>
     </row>
     <row r="134" ht="14.35" customHeight="1">
       <c r="A134" t="s" s="7">
@@ -6750,15 +6808,15 @@
         <v>0.788461538461538</v>
       </c>
       <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="10">
+      <c r="F134" s="10"/>
+      <c r="G134" s="9">
         <v>0.90625</v>
       </c>
-      <c r="H134" s="10">
+      <c r="H134" s="9">
         <v>0.246753246753247</v>
       </c>
-      <c r="I134" s="10"/>
-      <c r="J134" s="9"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="10"/>
     </row>
     <row r="135" ht="14.35" customHeight="1">
       <c r="A135" t="s" s="7">
@@ -6767,20 +6825,20 @@
       <c r="B135" t="s" s="7">
         <v>277</v>
       </c>
-      <c r="C135" s="9"/>
+      <c r="C135" s="10"/>
       <c r="D135" s="8">
         <v>0.673076923076923</v>
       </c>
       <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="10">
+      <c r="F135" s="10"/>
+      <c r="G135" s="9">
         <v>0.84375</v>
       </c>
-      <c r="H135" s="10">
+      <c r="H135" s="9">
         <v>0.571428571428571</v>
       </c>
-      <c r="I135" s="10"/>
-      <c r="J135" s="9"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="10"/>
     </row>
     <row r="136" ht="14.35" customHeight="1">
       <c r="A136" t="s" s="7">
@@ -6796,15 +6854,15 @@
         <v>0.615384615384615</v>
       </c>
       <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="10">
+      <c r="F136" s="10"/>
+      <c r="G136" s="9">
         <v>0.90625</v>
       </c>
-      <c r="H136" s="10">
+      <c r="H136" s="9">
         <v>0.5844155844155841</v>
       </c>
-      <c r="I136" s="10"/>
-      <c r="J136" s="9"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="10"/>
     </row>
     <row r="137" ht="14.35" customHeight="1">
       <c r="A137" t="s" s="7">
@@ -6820,15 +6878,15 @@
         <v>0.846153846153846</v>
       </c>
       <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="10">
+      <c r="F137" s="10"/>
+      <c r="G137" s="9">
         <v>0.828125</v>
       </c>
-      <c r="H137" s="10">
+      <c r="H137" s="9">
         <v>0.493506493506494</v>
       </c>
-      <c r="I137" s="10"/>
-      <c r="J137" s="9"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="10"/>
     </row>
     <row r="138" ht="14.35" customHeight="1">
       <c r="A138" t="s" s="7">
@@ -6844,15 +6902,15 @@
         <v>0.903846153846154</v>
       </c>
       <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="10">
+      <c r="F138" s="10"/>
+      <c r="G138" s="9">
         <v>0.640625</v>
       </c>
-      <c r="H138" s="10">
+      <c r="H138" s="9">
         <v>0.467532467532468</v>
       </c>
-      <c r="I138" s="10"/>
-      <c r="J138" s="9"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="10"/>
     </row>
     <row r="139" ht="14.35" customHeight="1">
       <c r="A139" t="s" s="7">
@@ -6868,15 +6926,15 @@
         <v>0.711538461538462</v>
       </c>
       <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="10">
+      <c r="F139" s="10"/>
+      <c r="G139" s="9">
         <v>0.84375</v>
       </c>
-      <c r="H139" s="10">
+      <c r="H139" s="9">
         <v>0.5844155844155841</v>
       </c>
-      <c r="I139" s="10"/>
-      <c r="J139" s="9"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="10"/>
     </row>
     <row r="140" ht="14.35" customHeight="1">
       <c r="A140" t="s" s="7">
@@ -6891,16 +6949,18 @@
       <c r="D140" s="11">
         <v>0</v>
       </c>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="10">
+      <c r="E140" s="9">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F140" s="10"/>
+      <c r="G140" s="9">
         <v>0.859375</v>
       </c>
-      <c r="H140" s="10">
+      <c r="H140" s="9">
         <v>0.428571428571429</v>
       </c>
-      <c r="I140" s="10"/>
-      <c r="J140" s="9"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="10"/>
     </row>
     <row r="141" ht="14.35" customHeight="1">
       <c r="A141" t="s" s="7">
@@ -6909,20 +6969,20 @@
       <c r="B141" t="s" s="7">
         <v>289</v>
       </c>
-      <c r="C141" s="9"/>
+      <c r="C141" s="10"/>
       <c r="D141" s="11">
         <v>0</v>
       </c>
       <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="10">
+      <c r="F141" s="10"/>
+      <c r="G141" s="9">
         <v>0</v>
       </c>
-      <c r="H141" s="10">
+      <c r="H141" s="9">
         <v>0.675324675324675</v>
       </c>
-      <c r="I141" s="10"/>
-      <c r="J141" s="9"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="10"/>
     </row>
     <row r="142" ht="14.35" customHeight="1">
       <c r="A142" t="s" s="7">
@@ -6938,15 +6998,15 @@
         <v>0.634615384615385</v>
       </c>
       <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="10">
+      <c r="F142" s="10"/>
+      <c r="G142" s="9">
         <v>0.734375</v>
       </c>
-      <c r="H142" s="10">
+      <c r="H142" s="9">
         <v>0.350649350649351</v>
       </c>
-      <c r="I142" s="10"/>
-      <c r="J142" s="9"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="10"/>
     </row>
     <row r="143" ht="14.35" customHeight="1">
       <c r="A143" t="s" s="7">
@@ -6961,18 +7021,20 @@
       <c r="D143" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E143" s="9"/>
-      <c r="F143" s="9"/>
-      <c r="G143" s="10">
+      <c r="E143" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F143" s="10"/>
+      <c r="G143" s="9">
         <v>0.8125</v>
       </c>
-      <c r="H143" s="10">
+      <c r="H143" s="9">
         <v>0.506493506493506</v>
       </c>
-      <c r="I143" s="10">
+      <c r="I143" s="9">
         <v>0.785714285714286</v>
       </c>
-      <c r="J143" s="9"/>
+      <c r="J143" s="10"/>
     </row>
     <row r="144" ht="14.35" customHeight="1">
       <c r="A144" t="s" s="7">
@@ -6988,15 +7050,15 @@
         <v>0.634615384615385</v>
       </c>
       <c r="E144" s="9"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="10">
+      <c r="F144" s="10"/>
+      <c r="G144" s="9">
         <v>0.765625</v>
       </c>
-      <c r="H144" s="10">
+      <c r="H144" s="9">
         <v>0.571428571428571</v>
       </c>
-      <c r="I144" s="10"/>
-      <c r="J144" s="9"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="10"/>
     </row>
     <row r="145" ht="14.35" customHeight="1">
       <c r="A145" t="s" s="7">
@@ -7012,15 +7074,15 @@
         <v>0</v>
       </c>
       <c r="E145" s="9"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="10">
+      <c r="F145" s="10"/>
+      <c r="G145" s="9">
         <v>0.8125</v>
       </c>
-      <c r="H145" s="10">
+      <c r="H145" s="9">
         <v>0.337662337662338</v>
       </c>
-      <c r="I145" s="10"/>
-      <c r="J145" s="9"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="10"/>
     </row>
     <row r="146" ht="14.35" customHeight="1">
       <c r="A146" t="s" s="7">
@@ -7036,15 +7098,15 @@
         <v>0.75</v>
       </c>
       <c r="E146" s="9"/>
-      <c r="F146" s="9"/>
-      <c r="G146" s="10">
+      <c r="F146" s="10"/>
+      <c r="G146" s="9">
         <v>0.84375</v>
       </c>
-      <c r="H146" s="10">
+      <c r="H146" s="9">
         <v>0.38961038961039</v>
       </c>
-      <c r="I146" s="10"/>
-      <c r="J146" s="9"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="10"/>
     </row>
     <row r="147" ht="14.35" customHeight="1">
       <c r="A147" t="s" s="7">
@@ -7060,15 +7122,15 @@
         <v>0.75</v>
       </c>
       <c r="E147" s="9"/>
-      <c r="F147" s="9"/>
-      <c r="G147" s="10">
+      <c r="F147" s="10"/>
+      <c r="G147" s="9">
         <v>0.890625</v>
       </c>
-      <c r="H147" s="10">
+      <c r="H147" s="9">
         <v>0.493506493506494</v>
       </c>
-      <c r="I147" s="10"/>
-      <c r="J147" s="9"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="10"/>
     </row>
     <row r="148" ht="14.35" customHeight="1">
       <c r="A148" t="s" s="7">
@@ -7084,15 +7146,15 @@
         <v>0</v>
       </c>
       <c r="E148" s="9"/>
-      <c r="F148" s="9"/>
-      <c r="G148" s="10">
+      <c r="F148" s="10"/>
+      <c r="G148" s="9">
         <v>0.890625</v>
       </c>
-      <c r="H148" s="10">
+      <c r="H148" s="9">
         <v>0.597402597402597</v>
       </c>
-      <c r="I148" s="10"/>
-      <c r="J148" s="9"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="10"/>
     </row>
     <row r="149" ht="14.35" customHeight="1">
       <c r="A149" t="s" s="7">
@@ -7107,16 +7169,18 @@
       <c r="D149" s="8">
         <v>0.923076923076923</v>
       </c>
-      <c r="E149" s="9"/>
-      <c r="F149" s="9"/>
-      <c r="G149" s="10">
+      <c r="E149" s="9">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F149" s="10"/>
+      <c r="G149" s="9">
         <v>0</v>
       </c>
-      <c r="H149" s="10">
+      <c r="H149" s="9">
         <v>0.649350649350649</v>
       </c>
-      <c r="I149" s="10"/>
-      <c r="J149" s="9"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="10"/>
     </row>
     <row r="150" ht="14.35" customHeight="1">
       <c r="A150" t="s" s="7">
@@ -7125,20 +7189,20 @@
       <c r="B150" t="s" s="7">
         <v>307</v>
       </c>
-      <c r="C150" s="9"/>
+      <c r="C150" s="10"/>
       <c r="D150" s="11">
         <v>0</v>
       </c>
       <c r="E150" s="9"/>
-      <c r="F150" s="9"/>
-      <c r="G150" s="10">
+      <c r="F150" s="10"/>
+      <c r="G150" s="9">
         <v>0.90625</v>
       </c>
-      <c r="H150" s="10">
+      <c r="H150" s="9">
         <v>0.532467532467532</v>
       </c>
-      <c r="I150" s="10"/>
-      <c r="J150" s="9"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="10"/>
     </row>
     <row r="151" ht="14.35" customHeight="1">
       <c r="A151" t="s" s="7">
@@ -7154,15 +7218,15 @@
         <v>0.846153846153846</v>
       </c>
       <c r="E151" s="9"/>
-      <c r="F151" s="9"/>
-      <c r="G151" s="10">
+      <c r="F151" s="10"/>
+      <c r="G151" s="9">
         <v>0.71875</v>
       </c>
-      <c r="H151" s="10">
+      <c r="H151" s="9">
         <v>0.532467532467532</v>
       </c>
-      <c r="I151" s="10"/>
-      <c r="J151" s="9"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="10"/>
     </row>
     <row r="152" ht="14.35" customHeight="1">
       <c r="A152" t="s" s="7">
@@ -7177,16 +7241,18 @@
       <c r="D152" s="11">
         <v>0</v>
       </c>
-      <c r="E152" s="9"/>
-      <c r="F152" s="9"/>
-      <c r="G152" s="10">
+      <c r="E152" s="9">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F152" s="10"/>
+      <c r="G152" s="9">
         <v>0.84375</v>
       </c>
-      <c r="H152" s="10">
+      <c r="H152" s="9">
         <v>0.597402597402597</v>
       </c>
-      <c r="I152" s="10"/>
-      <c r="J152" s="9"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="10"/>
     </row>
     <row r="153" ht="14.35" customHeight="1">
       <c r="A153" t="s" s="7">
@@ -7201,16 +7267,18 @@
       <c r="D153" s="11">
         <v>0</v>
       </c>
-      <c r="E153" s="9"/>
-      <c r="F153" s="9"/>
-      <c r="G153" s="10">
+      <c r="E153" s="9">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F153" s="10"/>
+      <c r="G153" s="9">
         <v>0.890625</v>
       </c>
-      <c r="H153" s="10">
+      <c r="H153" s="9">
         <v>0.324675324675325</v>
       </c>
-      <c r="I153" s="10"/>
-      <c r="J153" s="9"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="10"/>
     </row>
     <row r="154" ht="14.35" customHeight="1">
       <c r="A154" t="s" s="7">
@@ -7225,16 +7293,18 @@
       <c r="D154" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E154" s="9"/>
-      <c r="F154" s="9"/>
-      <c r="G154" s="10">
+      <c r="E154" s="9">
+        <v>0.678571428571429</v>
+      </c>
+      <c r="F154" s="10"/>
+      <c r="G154" s="9">
         <v>0.625</v>
       </c>
-      <c r="H154" s="10">
+      <c r="H154" s="9">
         <v>0.350649350649351</v>
       </c>
-      <c r="I154" s="10"/>
-      <c r="J154" s="9"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="10"/>
     </row>
     <row r="155" ht="14.35" customHeight="1">
       <c r="A155" t="s" s="7">
@@ -7250,15 +7320,15 @@
         <v>0.711538461538462</v>
       </c>
       <c r="E155" s="9"/>
-      <c r="F155" s="9"/>
-      <c r="G155" s="10">
+      <c r="F155" s="10"/>
+      <c r="G155" s="9">
         <v>0.765625</v>
       </c>
-      <c r="H155" s="10">
+      <c r="H155" s="9">
         <v>0.506493506493506</v>
       </c>
-      <c r="I155" s="10"/>
-      <c r="J155" s="9"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="10"/>
     </row>
     <row r="156" ht="14.35" customHeight="1">
       <c r="A156" t="s" s="7">
@@ -7273,16 +7343,18 @@
       <c r="D156" s="8">
         <v>0.942307692307692</v>
       </c>
-      <c r="E156" s="9"/>
-      <c r="F156" s="9"/>
-      <c r="G156" s="10">
+      <c r="E156" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F156" s="10"/>
+      <c r="G156" s="9">
         <v>0.859375</v>
       </c>
-      <c r="H156" s="10">
+      <c r="H156" s="9">
         <v>0.467532467532468</v>
       </c>
-      <c r="I156" s="10"/>
-      <c r="J156" s="9"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="10"/>
     </row>
     <row r="157" ht="14.35" customHeight="1">
       <c r="A157" t="s" s="7">
@@ -7297,18 +7369,20 @@
       <c r="D157" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E157" s="9"/>
-      <c r="F157" s="9"/>
-      <c r="G157" s="10">
+      <c r="E157" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F157" s="10"/>
+      <c r="G157" s="9">
         <v>0.9375</v>
       </c>
-      <c r="H157" s="10">
+      <c r="H157" s="9">
         <v>0.688311688311688</v>
       </c>
-      <c r="I157" s="10">
+      <c r="I157" s="9">
         <v>0.871428571428571</v>
       </c>
-      <c r="J157" s="9"/>
+      <c r="J157" s="10"/>
     </row>
     <row r="158" ht="14.35" customHeight="1">
       <c r="A158" t="s" s="7">
@@ -7324,15 +7398,15 @@
         <v>0.807692307692308</v>
       </c>
       <c r="E158" s="9"/>
-      <c r="F158" s="9"/>
-      <c r="G158" s="10">
+      <c r="F158" s="10"/>
+      <c r="G158" s="9">
         <v>0.75</v>
       </c>
-      <c r="H158" s="10">
+      <c r="H158" s="9">
         <v>0.727272727272727</v>
       </c>
-      <c r="I158" s="10"/>
-      <c r="J158" s="9"/>
+      <c r="I158" s="9"/>
+      <c r="J158" s="10"/>
     </row>
     <row r="159" ht="14.35" customHeight="1">
       <c r="A159" t="s" s="7">
@@ -7347,16 +7421,18 @@
       <c r="D159" s="11">
         <v>0</v>
       </c>
-      <c r="E159" s="9"/>
-      <c r="F159" s="9"/>
-      <c r="G159" s="10">
+      <c r="E159" s="9">
+        <v>0.678571428571429</v>
+      </c>
+      <c r="F159" s="10"/>
+      <c r="G159" s="9">
         <v>0.71875</v>
       </c>
-      <c r="H159" s="10">
+      <c r="H159" s="9">
         <v>0.493506493506494</v>
       </c>
-      <c r="I159" s="10"/>
-      <c r="J159" s="9"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="10"/>
     </row>
     <row r="160" ht="14.35" customHeight="1">
       <c r="A160" t="s" s="7">
@@ -7372,15 +7448,15 @@
         <v>0.711538461538462</v>
       </c>
       <c r="E160" s="9"/>
-      <c r="F160" s="9"/>
-      <c r="G160" s="10">
+      <c r="F160" s="10"/>
+      <c r="G160" s="9">
         <v>0.666666666666667</v>
       </c>
-      <c r="H160" s="10">
+      <c r="H160" s="9">
         <v>0.61038961038961</v>
       </c>
-      <c r="I160" s="10"/>
-      <c r="J160" s="9"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="10"/>
     </row>
     <row r="161" ht="14.35" customHeight="1">
       <c r="A161" t="s" s="7">
@@ -7389,20 +7465,22 @@
       <c r="B161" t="s" s="7">
         <v>329</v>
       </c>
-      <c r="C161" s="9"/>
+      <c r="C161" s="10"/>
       <c r="D161" s="11">
         <v>0</v>
       </c>
-      <c r="E161" s="9"/>
-      <c r="F161" s="9"/>
-      <c r="G161" s="10">
+      <c r="E161" s="9">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F161" s="10"/>
+      <c r="G161" s="9">
         <v>0.84375</v>
       </c>
-      <c r="H161" s="10">
+      <c r="H161" s="9">
         <v>0.506493506493506</v>
       </c>
-      <c r="I161" s="10"/>
-      <c r="J161" s="9"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="10"/>
     </row>
     <row r="162" ht="14.35" customHeight="1">
       <c r="A162" t="s" s="7">
@@ -7418,15 +7496,15 @@
         <v>0</v>
       </c>
       <c r="E162" s="9"/>
-      <c r="F162" s="9"/>
-      <c r="G162" s="10">
+      <c r="F162" s="10"/>
+      <c r="G162" s="9">
         <v>0.875</v>
       </c>
-      <c r="H162" s="10">
+      <c r="H162" s="9">
         <v>0.636363636363636</v>
       </c>
-      <c r="I162" s="10"/>
-      <c r="J162" s="9"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="10"/>
     </row>
     <row r="163" ht="14.35" customHeight="1">
       <c r="A163" t="s" s="7">
@@ -7441,16 +7519,18 @@
       <c r="D163" s="8">
         <v>0.75</v>
       </c>
-      <c r="E163" s="9"/>
-      <c r="F163" s="9"/>
-      <c r="G163" s="10">
+      <c r="E163" s="9">
+        <v>0.607142857142857</v>
+      </c>
+      <c r="F163" s="10"/>
+      <c r="G163" s="9">
         <v>0.703125</v>
       </c>
-      <c r="H163" s="10">
+      <c r="H163" s="9">
         <v>0.636363636363636</v>
       </c>
-      <c r="I163" s="10"/>
-      <c r="J163" s="9"/>
+      <c r="I163" s="9"/>
+      <c r="J163" s="10"/>
     </row>
     <row r="164" ht="14.35" customHeight="1">
       <c r="A164" t="s" s="7">
@@ -7466,15 +7546,15 @@
         <v>0</v>
       </c>
       <c r="E164" s="9"/>
-      <c r="F164" s="9"/>
-      <c r="G164" s="10">
+      <c r="F164" s="10"/>
+      <c r="G164" s="9">
         <v>0.71875</v>
       </c>
-      <c r="H164" s="10">
+      <c r="H164" s="9">
         <v>0</v>
       </c>
-      <c r="I164" s="10"/>
-      <c r="J164" s="9"/>
+      <c r="I164" s="9"/>
+      <c r="J164" s="10"/>
     </row>
     <row r="165" ht="14.35" customHeight="1">
       <c r="A165" t="s" s="7">
@@ -7490,15 +7570,15 @@
         <v>0.788461538461538</v>
       </c>
       <c r="E165" s="9"/>
-      <c r="F165" s="9"/>
-      <c r="G165" s="10">
+      <c r="F165" s="10"/>
+      <c r="G165" s="9">
         <v>0.875</v>
       </c>
-      <c r="H165" s="10">
+      <c r="H165" s="9">
         <v>0.467532467532468</v>
       </c>
-      <c r="I165" s="10"/>
-      <c r="J165" s="9"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="10"/>
     </row>
     <row r="166" ht="14.35" customHeight="1">
       <c r="A166" t="s" s="7">
@@ -7514,15 +7594,15 @@
         <v>1</v>
       </c>
       <c r="E166" s="9"/>
-      <c r="F166" s="9"/>
-      <c r="G166" s="10">
+      <c r="F166" s="10"/>
+      <c r="G166" s="9">
         <v>0.671875</v>
       </c>
-      <c r="H166" s="10">
+      <c r="H166" s="9">
         <v>0.623376623376623</v>
       </c>
-      <c r="I166" s="10"/>
-      <c r="J166" s="9"/>
+      <c r="I166" s="9"/>
+      <c r="J166" s="10"/>
     </row>
     <row r="167" ht="14.35" customHeight="1">
       <c r="A167" t="s" s="7">
@@ -7538,15 +7618,15 @@
         <v>0.826923076923077</v>
       </c>
       <c r="E167" s="9"/>
-      <c r="F167" s="9"/>
-      <c r="G167" s="10">
+      <c r="F167" s="10"/>
+      <c r="G167" s="9">
         <v>0.53</v>
       </c>
-      <c r="H167" s="10">
+      <c r="H167" s="9">
         <v>0.519480519480519</v>
       </c>
-      <c r="I167" s="10"/>
-      <c r="J167" s="9"/>
+      <c r="I167" s="9"/>
+      <c r="J167" s="10"/>
     </row>
     <row r="168" ht="14.35" customHeight="1">
       <c r="A168" t="s" s="7">
@@ -7562,15 +7642,15 @@
         <v>0</v>
       </c>
       <c r="E168" s="9"/>
-      <c r="F168" s="9"/>
-      <c r="G168" s="10">
+      <c r="F168" s="10"/>
+      <c r="G168" s="9">
         <v>0.90625</v>
       </c>
-      <c r="H168" s="10">
+      <c r="H168" s="9">
         <v>0.480519480519481</v>
       </c>
-      <c r="I168" s="10"/>
-      <c r="J168" s="9"/>
+      <c r="I168" s="9"/>
+      <c r="J168" s="10"/>
     </row>
     <row r="169" ht="14.35" customHeight="1">
       <c r="A169" t="s" s="7">
@@ -7585,16 +7665,18 @@
       <c r="D169" s="8">
         <v>0.7692307692307691</v>
       </c>
-      <c r="E169" s="9"/>
-      <c r="F169" s="9"/>
-      <c r="G169" s="10">
+      <c r="E169" s="9">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F169" s="10"/>
+      <c r="G169" s="9">
         <v>0.8125</v>
       </c>
-      <c r="H169" s="10">
+      <c r="H169" s="9">
         <v>0.636363636363636</v>
       </c>
-      <c r="I169" s="10"/>
-      <c r="J169" s="9"/>
+      <c r="I169" s="9"/>
+      <c r="J169" s="10"/>
     </row>
     <row r="170" ht="14.35" customHeight="1">
       <c r="A170" t="s" s="7">
@@ -7610,15 +7692,15 @@
         <v>0.711538461538462</v>
       </c>
       <c r="E170" s="9"/>
-      <c r="F170" s="9"/>
-      <c r="G170" s="10">
+      <c r="F170" s="10"/>
+      <c r="G170" s="9">
         <v>0.84375</v>
       </c>
-      <c r="H170" s="10">
+      <c r="H170" s="9">
         <v>0.402597402597403</v>
       </c>
-      <c r="I170" s="10"/>
-      <c r="J170" s="9"/>
+      <c r="I170" s="9"/>
+      <c r="J170" s="10"/>
     </row>
     <row r="171" ht="14.35" customHeight="1">
       <c r="A171" t="s" s="7">
@@ -7633,16 +7715,18 @@
       <c r="D171" s="11">
         <v>0</v>
       </c>
-      <c r="E171" s="9"/>
-      <c r="F171" s="9"/>
-      <c r="G171" s="10">
+      <c r="E171" s="9">
+        <v>0.607142857142857</v>
+      </c>
+      <c r="F171" s="10"/>
+      <c r="G171" s="9">
         <v>0.765625</v>
       </c>
-      <c r="H171" s="10">
+      <c r="H171" s="9">
         <v>0</v>
       </c>
-      <c r="I171" s="10"/>
-      <c r="J171" s="9"/>
+      <c r="I171" s="9"/>
+      <c r="J171" s="10"/>
     </row>
     <row r="172" ht="14.35" customHeight="1">
       <c r="A172" t="s" s="7">
@@ -7658,15 +7742,15 @@
         <v>0.846153846153846</v>
       </c>
       <c r="E172" s="9"/>
-      <c r="F172" s="9"/>
-      <c r="G172" s="10">
+      <c r="F172" s="10"/>
+      <c r="G172" s="9">
         <v>0.875</v>
       </c>
-      <c r="H172" s="10">
+      <c r="H172" s="9">
         <v>0.532467532467532</v>
       </c>
-      <c r="I172" s="10"/>
-      <c r="J172" s="9"/>
+      <c r="I172" s="9"/>
+      <c r="J172" s="10"/>
     </row>
     <row r="173" ht="14.35" customHeight="1">
       <c r="A173" t="s" s="7">
@@ -7682,15 +7766,15 @@
         <v>0.788461538461538</v>
       </c>
       <c r="E173" s="9"/>
-      <c r="F173" s="9"/>
-      <c r="G173" s="10">
+      <c r="F173" s="10"/>
+      <c r="G173" s="9">
         <v>0.84375</v>
       </c>
-      <c r="H173" s="10">
+      <c r="H173" s="9">
         <v>0.506493506493506</v>
       </c>
-      <c r="I173" s="10"/>
-      <c r="J173" s="9"/>
+      <c r="I173" s="9"/>
+      <c r="J173" s="10"/>
     </row>
     <row r="174" ht="14.35" customHeight="1">
       <c r="A174" t="s" s="7">
@@ -7706,15 +7790,27 @@
         <v>1</v>
       </c>
       <c r="E174" s="9"/>
-      <c r="F174" s="9"/>
-      <c r="G174" s="10">
+      <c r="F174" s="10"/>
+      <c r="G174" s="9">
         <v>0.875</v>
       </c>
-      <c r="H174" s="10">
+      <c r="H174" s="9">
         <v>0.545454545454545</v>
       </c>
-      <c r="I174" s="10"/>
-      <c r="J174" s="9"/>
+      <c r="I174" s="9"/>
+      <c r="J174" s="10"/>
+    </row>
+    <row r="175" ht="14.35" customHeight="1">
+      <c r="A175" s="10"/>
+      <c r="B175" s="10"/>
+      <c r="C175" s="10"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="10"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="9"/>
+      <c r="I175" s="9"/>
+      <c r="J175" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/cw11042022.xlsx
+++ b/cw11042022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="359">
   <si>
     <t>Surname</t>
   </si>
@@ -988,6 +988,12 @@
     </r>
   </si>
   <si>
+    <t>Magorimbo</t>
+  </si>
+  <si>
+    <t>H220726Q</t>
+  </si>
+  <si>
     <t>Magosi</t>
   </si>
   <si>
@@ -2109,6 +2115,9 @@
       </rPr>
       <t>H220586J@hit.ac.zw</t>
     </r>
+  </si>
+  <si>
+    <t>H190782H</t>
   </si>
   <si>
     <t>Sibanda</t>
@@ -3517,7 +3526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J175"/>
+  <dimension ref="A1:J176"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -3635,7 +3644,9 @@
       <c r="D4" s="11">
         <v>0</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="9">
+        <v>0.857142857142857</v>
+      </c>
       <c r="F4" s="10"/>
       <c r="G4" s="9">
         <v>0.84375</v>
@@ -3859,7 +3870,9 @@
       <c r="D13" s="11">
         <v>0</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="9">
+        <v>0.857142857142857</v>
+      </c>
       <c r="F13" s="10"/>
       <c r="G13" s="9">
         <v>0.921875</v>
@@ -3883,7 +3896,9 @@
       <c r="D14" s="11">
         <v>0</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="9">
+        <v>0.714285714285714</v>
+      </c>
       <c r="F14" s="10"/>
       <c r="G14" s="9">
         <v>0.921875</v>
@@ -3907,7 +3922,9 @@
       <c r="D15" s="11">
         <v>0</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="9">
+        <v>0.714285714285714</v>
+      </c>
       <c r="F15" s="10"/>
       <c r="G15" s="9">
         <v>0.859375</v>
@@ -4325,7 +4342,9 @@
       <c r="D32" s="11">
         <v>0</v>
       </c>
-      <c r="E32" s="9"/>
+      <c r="E32" s="9">
+        <v>0.857142857142857</v>
+      </c>
       <c r="F32" s="10"/>
       <c r="G32" s="9">
         <v>0.890625</v>
@@ -4349,7 +4368,9 @@
       <c r="D33" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E33" s="9"/>
+      <c r="E33" s="9">
+        <v>0.75</v>
+      </c>
       <c r="F33" s="10"/>
       <c r="G33" s="9">
         <v>0.875</v>
@@ -4447,7 +4468,9 @@
       <c r="D37" s="11">
         <v>0</v>
       </c>
-      <c r="E37" s="9"/>
+      <c r="E37" s="9">
+        <v>0.857142857142857</v>
+      </c>
       <c r="F37" s="10"/>
       <c r="G37" s="9">
         <v>0.765625</v>
@@ -4617,7 +4640,9 @@
       <c r="D44" s="11">
         <v>0</v>
       </c>
-      <c r="E44" s="9"/>
+      <c r="E44" s="9">
+        <v>0.714285714285714</v>
+      </c>
       <c r="F44" s="10"/>
       <c r="G44" s="9">
         <v>0</v>
@@ -4641,7 +4666,9 @@
       <c r="D45" s="11">
         <v>0</v>
       </c>
-      <c r="E45" s="9"/>
+      <c r="E45" s="9">
+        <v>0.857142857142857</v>
+      </c>
       <c r="F45" s="10"/>
       <c r="G45" s="9">
         <v>0.875</v>
@@ -4741,7 +4768,9 @@
       <c r="D49" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E49" s="9"/>
+      <c r="E49" s="9">
+        <v>0.821428571428571</v>
+      </c>
       <c r="F49" s="10"/>
       <c r="G49" s="9">
         <v>0.90625</v>
@@ -4765,7 +4794,9 @@
       <c r="D50" s="11">
         <v>0</v>
       </c>
-      <c r="E50" s="9"/>
+      <c r="E50" s="9">
+        <v>0.857142857142857</v>
+      </c>
       <c r="F50" s="10"/>
       <c r="G50" s="9">
         <v>0.78125</v>
@@ -4789,7 +4820,9 @@
       <c r="D51" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E51" s="9"/>
+      <c r="E51" s="9">
+        <v>0.821428571428571</v>
+      </c>
       <c r="F51" s="10"/>
       <c r="G51" s="9">
         <v>0.734375</v>
@@ -5125,7 +5158,9 @@
       <c r="D65" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E65" s="9"/>
+      <c r="E65" s="9">
+        <v>0.75</v>
+      </c>
       <c r="F65" s="10"/>
       <c r="G65" s="9">
         <v>0</v>
@@ -5366,15 +5401,11 @@
         <v>0</v>
       </c>
       <c r="E75" s="9">
-        <v>0.821428571428571</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="F75" s="10"/>
-      <c r="G75" s="9">
-        <v>0.875</v>
-      </c>
-      <c r="H75" s="9">
-        <v>0.649350649350649</v>
-      </c>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
       <c r="I75" s="9"/>
       <c r="J75" s="10"/>
     </row>
@@ -5386,18 +5417,20 @@
         <v>160</v>
       </c>
       <c r="C76" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D76" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E76" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D76" s="11">
+        <v>0</v>
+      </c>
+      <c r="E76" s="9">
+        <v>0.821428571428571</v>
+      </c>
       <c r="F76" s="10"/>
       <c r="G76" s="9">
-        <v>0.671875</v>
+        <v>0.875</v>
       </c>
       <c r="H76" s="9">
-        <v>0.571428571428571</v>
+        <v>0.649350649350649</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="10"/>
@@ -5410,20 +5443,18 @@
         <v>162</v>
       </c>
       <c r="C77" t="s" s="7">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D77" s="8">
-        <v>0.942307692307692</v>
-      </c>
-      <c r="E77" s="9">
-        <v>0.785714285714286</v>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="E77" s="9"/>
       <c r="F77" s="10"/>
       <c r="G77" s="9">
-        <v>0.8125</v>
+        <v>0.671875</v>
       </c>
       <c r="H77" s="9">
-        <v>0.480519480519481</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="10"/>
@@ -5439,15 +5470,17 @@
         <v>22</v>
       </c>
       <c r="D78" s="8">
-        <v>0.807692307692308</v>
-      </c>
-      <c r="E78" s="9"/>
+        <v>0.942307692307692</v>
+      </c>
+      <c r="E78" s="9">
+        <v>0.785714285714286</v>
+      </c>
       <c r="F78" s="10"/>
       <c r="G78" s="9">
-        <v>0.84375</v>
+        <v>0.8125</v>
       </c>
       <c r="H78" s="9">
-        <v>0.493506493506494</v>
+        <v>0.480519480519481</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="10"/>
@@ -5460,20 +5493,18 @@
         <v>166</v>
       </c>
       <c r="C79" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D79" s="11">
-        <v>0</v>
-      </c>
-      <c r="E79" s="9">
-        <v>0.821428571428571</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D79" s="8">
+        <v>0.807692307692308</v>
+      </c>
+      <c r="E79" s="9"/>
       <c r="F79" s="10"/>
       <c r="G79" s="9">
-        <v>0.78125</v>
+        <v>0.84375</v>
       </c>
       <c r="H79" s="9">
-        <v>0.337662337662338</v>
+        <v>0.493506493506494</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="10"/>
@@ -5486,18 +5517,20 @@
         <v>168</v>
       </c>
       <c r="C80" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D80" s="8">
-        <v>0.826923076923077</v>
-      </c>
-      <c r="E80" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D80" s="11">
+        <v>0</v>
+      </c>
+      <c r="E80" s="9">
+        <v>0.821428571428571</v>
+      </c>
       <c r="F80" s="10"/>
       <c r="G80" s="9">
-        <v>0.828125</v>
+        <v>0.78125</v>
       </c>
       <c r="H80" s="9">
-        <v>0.519480519480519</v>
+        <v>0.337662337662338</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="10"/>
@@ -5510,18 +5543,18 @@
         <v>170</v>
       </c>
       <c r="C81" t="s" s="7">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D81" s="8">
-        <v>0.673076923076923</v>
+        <v>0.826923076923077</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="10"/>
       <c r="G81" s="9">
-        <v>0.78125</v>
+        <v>0.828125</v>
       </c>
       <c r="H81" s="9">
-        <v>0.207792207792208</v>
+        <v>0.519480519480519</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="10"/>
@@ -5534,18 +5567,18 @@
         <v>172</v>
       </c>
       <c r="C82" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D82" s="11">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="D82" s="8">
+        <v>0.673076923076923</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="10"/>
       <c r="G82" s="9">
-        <v>0.859375</v>
+        <v>0.78125</v>
       </c>
       <c r="H82" s="9">
-        <v>0.363636363636364</v>
+        <v>0.207792207792208</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="10"/>
@@ -5558,18 +5591,18 @@
         <v>174</v>
       </c>
       <c r="C83" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D83" s="8">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="D83" s="11">
+        <v>0</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="10"/>
       <c r="G83" s="9">
-        <v>0.84375</v>
+        <v>0.859375</v>
       </c>
       <c r="H83" s="9">
-        <v>0.597402597402597</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="10"/>
@@ -5585,15 +5618,15 @@
         <v>27</v>
       </c>
       <c r="D84" s="8">
-        <v>0.826923076923077</v>
+        <v>0.75</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="10"/>
       <c r="G84" s="9">
-        <v>0.9375</v>
+        <v>0.84375</v>
       </c>
       <c r="H84" s="9">
-        <v>0.74025974025974</v>
+        <v>0.597402597402597</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="10"/>
@@ -5606,18 +5639,18 @@
         <v>178</v>
       </c>
       <c r="C85" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D85" s="11">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="D85" s="8">
+        <v>0.826923076923077</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="10"/>
       <c r="G85" s="9">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="H85" s="9">
-        <v>0.545454545454545</v>
+        <v>0.74025974025974</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="10"/>
@@ -5630,20 +5663,20 @@
         <v>180</v>
       </c>
       <c r="C86" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="D86" s="8">
-        <v>0.923076923076923</v>
+        <v>12</v>
+      </c>
+      <c r="D86" s="11">
+        <v>0</v>
       </c>
       <c r="E86" s="9">
-        <v>0.821428571428571</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="F86" s="10"/>
       <c r="G86" s="9">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="H86" s="9">
-        <v>0.220779220779221</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="10"/>
@@ -5656,18 +5689,20 @@
         <v>182</v>
       </c>
       <c r="C87" t="s" s="7">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D87" s="8">
-        <v>0.788461538461538</v>
-      </c>
-      <c r="E87" s="9"/>
+        <v>0.923076923076923</v>
+      </c>
+      <c r="E87" s="9">
+        <v>0.821428571428571</v>
+      </c>
       <c r="F87" s="10"/>
       <c r="G87" s="9">
-        <v>0.859375</v>
+        <v>0.9375</v>
       </c>
       <c r="H87" s="9">
-        <v>0.454545454545455</v>
+        <v>0.220779220779221</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="10"/>
@@ -5683,15 +5718,15 @@
         <v>27</v>
       </c>
       <c r="D88" s="8">
-        <v>0.615384615384615</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="10"/>
       <c r="G88" s="9">
-        <v>0.90625</v>
+        <v>0.859375</v>
       </c>
       <c r="H88" s="9">
-        <v>0.571428571428571</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="10"/>
@@ -5704,20 +5739,18 @@
         <v>186</v>
       </c>
       <c r="C89" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="D89" s="11">
-        <v>0</v>
-      </c>
-      <c r="E89" s="9">
-        <v>0.678571428571429</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D89" s="8">
+        <v>0.615384615384615</v>
+      </c>
+      <c r="E89" s="9"/>
       <c r="F89" s="10"/>
       <c r="G89" s="9">
-        <v>0.953125</v>
+        <v>0.90625</v>
       </c>
       <c r="H89" s="9">
-        <v>0.532467532467532</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="10"/>
@@ -5730,18 +5763,20 @@
         <v>188</v>
       </c>
       <c r="C90" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D90" s="8">
-        <v>0.788461538461538</v>
-      </c>
-      <c r="E90" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="D90" s="11">
+        <v>0</v>
+      </c>
+      <c r="E90" s="9">
+        <v>0.678571428571429</v>
+      </c>
       <c r="F90" s="10"/>
       <c r="G90" s="9">
-        <v>0</v>
+        <v>0.953125</v>
       </c>
       <c r="H90" s="9">
-        <v>0.714285714285714</v>
+        <v>0.532467532467532</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="10"/>
@@ -5754,18 +5789,18 @@
         <v>190</v>
       </c>
       <c r="C91" t="s" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D91" s="8">
-        <v>0.75</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="10"/>
       <c r="G91" s="9">
-        <v>0.84375</v>
+        <v>0</v>
       </c>
       <c r="H91" s="9">
-        <v>0.636363636363636</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="10"/>
@@ -5778,20 +5813,18 @@
         <v>192</v>
       </c>
       <c r="C92" t="s" s="7">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D92" s="8">
         <v>0.75</v>
       </c>
-      <c r="E92" s="9">
-        <v>0.785714285714286</v>
-      </c>
+      <c r="E92" s="9"/>
       <c r="F92" s="10"/>
       <c r="G92" s="9">
-        <v>0.78125</v>
+        <v>0.84375</v>
       </c>
       <c r="H92" s="9">
-        <v>0.597402597402597</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="10"/>
@@ -5807,15 +5840,17 @@
         <v>22</v>
       </c>
       <c r="D93" s="8">
-        <v>0.788461538461538</v>
-      </c>
-      <c r="E93" s="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="E93" s="9">
+        <v>0.785714285714286</v>
+      </c>
       <c r="F93" s="10"/>
       <c r="G93" s="9">
-        <v>0.859375</v>
+        <v>0.78125</v>
       </c>
       <c r="H93" s="9">
-        <v>0.454545454545455</v>
+        <v>0.597402597402597</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="10"/>
@@ -5828,70 +5863,70 @@
         <v>196</v>
       </c>
       <c r="C94" t="s" s="7">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D94" s="8">
-        <v>0.75</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E94" s="9">
-        <v>0.607142857142857</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="F94" s="10"/>
       <c r="G94" s="9">
-        <v>0.71875</v>
+        <v>0.859375</v>
       </c>
       <c r="H94" s="9">
-        <v>0.558441558441558</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="10"/>
     </row>
     <row r="95" ht="14.35" customHeight="1">
       <c r="A95" t="s" s="7">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B95" t="s" s="7">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C95" t="s" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D95" s="8">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="E95" s="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="E95" s="9">
+        <v>0.607142857142857</v>
+      </c>
       <c r="F95" s="10"/>
       <c r="G95" s="9">
-        <v>0.8125</v>
+        <v>0.71875</v>
       </c>
       <c r="H95" s="9">
-        <v>0.38961038961039</v>
+        <v>0.558441558441558</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="10"/>
     </row>
     <row r="96" ht="14.35" customHeight="1">
       <c r="A96" t="s" s="7">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B96" t="s" s="7">
         <v>199</v>
       </c>
       <c r="C96" t="s" s="7">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D96" s="8">
-        <v>0.942307692307692</v>
-      </c>
-      <c r="E96" s="9">
-        <v>0.785714285714286</v>
-      </c>
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E96" s="9"/>
       <c r="F96" s="10"/>
       <c r="G96" s="9">
-        <v>0.875</v>
+        <v>0.8125</v>
       </c>
       <c r="H96" s="9">
-        <v>0.298701298701299</v>
+        <v>0.38961038961039</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="10"/>
@@ -5904,18 +5939,20 @@
         <v>201</v>
       </c>
       <c r="C97" t="s" s="7">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D97" s="8">
-        <v>0.7692307692307691</v>
-      </c>
-      <c r="E97" s="9"/>
+        <v>0.942307692307692</v>
+      </c>
+      <c r="E97" s="9">
+        <v>0.785714285714286</v>
+      </c>
       <c r="F97" s="10"/>
       <c r="G97" s="9">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="H97" s="9">
-        <v>0.285714285714286</v>
+        <v>0.298701298701299</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="10"/>
@@ -5931,15 +5968,15 @@
         <v>27</v>
       </c>
       <c r="D98" s="8">
-        <v>0.634615384615385</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="10"/>
       <c r="G98" s="9">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="H98" s="9">
-        <v>0.272727272727273</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="10"/>
@@ -5955,17 +5992,15 @@
         <v>27</v>
       </c>
       <c r="D99" s="8">
-        <v>0.923076923076923</v>
-      </c>
-      <c r="E99" s="9">
-        <v>0.821428571428571</v>
-      </c>
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E99" s="9"/>
       <c r="F99" s="10"/>
       <c r="G99" s="9">
-        <v>0.78125</v>
+        <v>0.875</v>
       </c>
       <c r="H99" s="9">
-        <v>0.571428571428571</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="10"/>
@@ -5978,22 +6013,22 @@
         <v>207</v>
       </c>
       <c r="C100" t="s" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D100" s="8">
-        <v>0.788461538461538</v>
-      </c>
-      <c r="E100" s="9"/>
+        <v>0.923076923076923</v>
+      </c>
+      <c r="E100" s="9">
+        <v>0.821428571428571</v>
+      </c>
       <c r="F100" s="10"/>
       <c r="G100" s="9">
         <v>0.78125</v>
       </c>
       <c r="H100" s="9">
-        <v>0.5844155844155841</v>
-      </c>
-      <c r="I100" s="9">
-        <v>0.728571428571429</v>
-      </c>
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I100" s="9"/>
       <c r="J100" s="10"/>
     </row>
     <row r="101" ht="14.35" customHeight="1">
@@ -6006,18 +6041,20 @@
       <c r="C101" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="D101" s="11">
-        <v>0</v>
+      <c r="D101" s="8">
+        <v>0.788461538461538</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="10"/>
       <c r="G101" s="9">
-        <v>0.84375</v>
+        <v>0.78125</v>
       </c>
       <c r="H101" s="9">
-        <v>0</v>
-      </c>
-      <c r="I101" s="9"/>
+        <v>0.5844155844155841</v>
+      </c>
+      <c r="I101" s="9">
+        <v>0.728571428571429</v>
+      </c>
       <c r="J101" s="10"/>
     </row>
     <row r="102" ht="14.35" customHeight="1">
@@ -6028,10 +6065,10 @@
         <v>211</v>
       </c>
       <c r="C102" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D102" s="8">
-        <v>0.788461538461538</v>
+        <v>12</v>
+      </c>
+      <c r="D102" s="11">
+        <v>0</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="10"/>
@@ -6039,7 +6076,7 @@
         <v>0.84375</v>
       </c>
       <c r="H102" s="9">
-        <v>0.363636363636364</v>
+        <v>0</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="10"/>
@@ -6055,7 +6092,7 @@
         <v>15</v>
       </c>
       <c r="D103" s="8">
-        <v>0.442307692307692</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E103" s="9"/>
       <c r="F103" s="10"/>
@@ -6063,7 +6100,7 @@
         <v>0.84375</v>
       </c>
       <c r="H103" s="9">
-        <v>0.441558441558442</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="10"/>
@@ -6079,15 +6116,17 @@
         <v>15</v>
       </c>
       <c r="D104" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E104" s="9"/>
+        <v>0.442307692307692</v>
+      </c>
+      <c r="E104" s="9">
+        <v>0.714285714285714</v>
+      </c>
       <c r="F104" s="10"/>
       <c r="G104" s="9">
-        <v>0.9375</v>
+        <v>0.84375</v>
       </c>
       <c r="H104" s="9">
-        <v>0.428571428571429</v>
+        <v>0.441558441558442</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="10"/>
@@ -6100,18 +6139,18 @@
         <v>217</v>
       </c>
       <c r="C105" t="s" s="7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D105" s="8">
-        <v>0.903846153846154</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="E105" s="9"/>
       <c r="F105" s="10"/>
       <c r="G105" s="9">
-        <v>0.8125</v>
+        <v>0.9375</v>
       </c>
       <c r="H105" s="9">
-        <v>0.662337662337662</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="10"/>
@@ -6124,18 +6163,18 @@
         <v>219</v>
       </c>
       <c r="C106" t="s" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D106" s="8">
-        <v>0.807692307692308</v>
+        <v>0.903846153846154</v>
       </c>
       <c r="E106" s="9"/>
       <c r="F106" s="10"/>
       <c r="G106" s="9">
-        <v>0.828125</v>
+        <v>0.8125</v>
       </c>
       <c r="H106" s="9">
-        <v>0.597402597402597</v>
+        <v>0.662337662337662</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="10"/>
@@ -6148,18 +6187,18 @@
         <v>221</v>
       </c>
       <c r="C107" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="D107" s="11">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="D107" s="8">
+        <v>0.807692307692308</v>
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="10"/>
       <c r="G107" s="9">
-        <v>0.890625</v>
+        <v>0.828125</v>
       </c>
       <c r="H107" s="9">
-        <v>0.493506493506494</v>
+        <v>0.597402597402597</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="10"/>
@@ -6174,16 +6213,18 @@
       <c r="C108" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="D108" s="8">
-        <v>0.673076923076923</v>
-      </c>
-      <c r="E108" s="9"/>
+      <c r="D108" s="11">
+        <v>0</v>
+      </c>
+      <c r="E108" s="9">
+        <v>0.857142857142857</v>
+      </c>
       <c r="F108" s="10"/>
       <c r="G108" s="9">
-        <v>0.828125</v>
+        <v>0.890625</v>
       </c>
       <c r="H108" s="9">
-        <v>0.402597402597403</v>
+        <v>0.493506493506494</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="10"/>
@@ -6204,10 +6245,10 @@
       <c r="E109" s="9"/>
       <c r="F109" s="10"/>
       <c r="G109" s="9">
-        <v>0.859375</v>
+        <v>0.828125</v>
       </c>
       <c r="H109" s="9">
-        <v>0.337662337662338</v>
+        <v>0.402597402597403</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="10"/>
@@ -6220,18 +6261,18 @@
         <v>227</v>
       </c>
       <c r="C110" t="s" s="7">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D110" s="8">
-        <v>0.711538461538462</v>
+        <v>0.673076923076923</v>
       </c>
       <c r="E110" s="9"/>
       <c r="F110" s="10"/>
       <c r="G110" s="9">
-        <v>0</v>
+        <v>0.859375</v>
       </c>
       <c r="H110" s="9">
-        <v>0.415584415584416</v>
+        <v>0.337662337662338</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="10"/>
@@ -6247,15 +6288,15 @@
         <v>15</v>
       </c>
       <c r="D111" s="8">
-        <v>0.846153846153846</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="E111" s="9"/>
       <c r="F111" s="10"/>
       <c r="G111" s="9">
-        <v>0.84375</v>
+        <v>0</v>
       </c>
       <c r="H111" s="9">
-        <v>0.38961038961039</v>
+        <v>0.415584415584416</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="10"/>
@@ -6268,18 +6309,20 @@
         <v>231</v>
       </c>
       <c r="C112" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D112" s="11">
-        <v>0</v>
-      </c>
-      <c r="E112" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D112" s="8">
+        <v>0.846153846153846</v>
+      </c>
+      <c r="E112" s="9">
+        <v>0.642857142857143</v>
+      </c>
       <c r="F112" s="10"/>
       <c r="G112" s="9">
         <v>0.84375</v>
       </c>
       <c r="H112" s="9">
-        <v>0.376623376623377</v>
+        <v>0.38961038961039</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="10"/>
@@ -6292,18 +6335,18 @@
         <v>233</v>
       </c>
       <c r="C113" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D113" s="8">
-        <v>0.846153846153846</v>
+        <v>12</v>
+      </c>
+      <c r="D113" s="11">
+        <v>0</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="10"/>
       <c r="G113" s="9">
-        <v>0.609375</v>
+        <v>0.84375</v>
       </c>
       <c r="H113" s="9">
-        <v>0.363636363636364</v>
+        <v>0.376623376623377</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="10"/>
@@ -6316,18 +6359,20 @@
         <v>235</v>
       </c>
       <c r="C114" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D114" s="11">
-        <v>0</v>
-      </c>
-      <c r="E114" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D114" s="8">
+        <v>0.846153846153846</v>
+      </c>
+      <c r="E114" s="9">
+        <v>0.642857142857143</v>
+      </c>
       <c r="F114" s="10"/>
       <c r="G114" s="9">
-        <v>0.90625</v>
+        <v>0.609375</v>
       </c>
       <c r="H114" s="9">
-        <v>0.636363636363636</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="10"/>
@@ -6340,10 +6385,10 @@
         <v>237</v>
       </c>
       <c r="C115" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D115" s="8">
-        <v>0.634615384615385</v>
+        <v>12</v>
+      </c>
+      <c r="D115" s="11">
+        <v>0</v>
       </c>
       <c r="E115" s="9"/>
       <c r="F115" s="10"/>
@@ -6351,7 +6396,7 @@
         <v>0.90625</v>
       </c>
       <c r="H115" s="9">
-        <v>0.545454545454545</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="10"/>
@@ -6364,20 +6409,20 @@
         <v>239</v>
       </c>
       <c r="C116" t="s" s="7">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D116" s="8">
         <v>0.634615384615385</v>
       </c>
       <c r="E116" s="9">
-        <v>0.785714285714286</v>
+        <v>0.75</v>
       </c>
       <c r="F116" s="10"/>
       <c r="G116" s="9">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="H116" s="9">
-        <v>0.701298701298701</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="10"/>
@@ -6390,18 +6435,20 @@
         <v>241</v>
       </c>
       <c r="C117" t="s" s="7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D117" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E117" s="9"/>
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E117" s="9">
+        <v>0.785714285714286</v>
+      </c>
       <c r="F117" s="10"/>
       <c r="G117" s="9">
-        <v>0.71875</v>
+        <v>0.9375</v>
       </c>
       <c r="H117" s="9">
-        <v>0.675324675324675</v>
+        <v>0.701298701298701</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="10"/>
@@ -6417,17 +6464,15 @@
         <v>12</v>
       </c>
       <c r="D118" s="8">
-        <v>0.7692307692307691</v>
-      </c>
-      <c r="E118" s="9">
-        <v>0.714285714285714</v>
-      </c>
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E118" s="9"/>
       <c r="F118" s="10"/>
       <c r="G118" s="9">
-        <v>0.640625</v>
+        <v>0.71875</v>
       </c>
       <c r="H118" s="9">
-        <v>0.5844155844155841</v>
+        <v>0.675324675324675</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="10"/>
@@ -6440,18 +6485,20 @@
         <v>245</v>
       </c>
       <c r="C119" t="s" s="7">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D119" s="8">
-        <v>0.903846153846154</v>
-      </c>
-      <c r="E119" s="9"/>
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="E119" s="9">
+        <v>0.714285714285714</v>
+      </c>
       <c r="F119" s="10"/>
       <c r="G119" s="9">
-        <v>0.78125</v>
+        <v>0.640625</v>
       </c>
       <c r="H119" s="9">
-        <v>0.714285714285714</v>
+        <v>0.5844155844155841</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="10"/>
@@ -6464,20 +6511,18 @@
         <v>247</v>
       </c>
       <c r="C120" t="s" s="7">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D120" s="8">
-        <v>0.942307692307692</v>
-      </c>
-      <c r="E120" s="9">
-        <v>0.785714285714286</v>
-      </c>
+        <v>0.903846153846154</v>
+      </c>
+      <c r="E120" s="9"/>
       <c r="F120" s="10"/>
       <c r="G120" s="9">
-        <v>0.859375</v>
+        <v>0.78125</v>
       </c>
       <c r="H120" s="9">
-        <v>0.532467532467532</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="10"/>
@@ -6490,18 +6535,20 @@
         <v>249</v>
       </c>
       <c r="C121" t="s" s="7">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D121" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E121" s="9"/>
+        <v>0.942307692307692</v>
+      </c>
+      <c r="E121" s="9">
+        <v>0.785714285714286</v>
+      </c>
       <c r="F121" s="10"/>
       <c r="G121" s="9">
-        <v>0.703125</v>
+        <v>0.859375</v>
       </c>
       <c r="H121" s="9">
-        <v>0.363636363636364</v>
+        <v>0.532467532467532</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="10"/>
@@ -6514,18 +6561,18 @@
         <v>251</v>
       </c>
       <c r="C122" t="s" s="7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D122" s="8">
-        <v>0.615384615384615</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="10"/>
       <c r="G122" s="9">
-        <v>0.953125</v>
+        <v>0.703125</v>
       </c>
       <c r="H122" s="9">
-        <v>0.675324675324675</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="10"/>
@@ -6538,18 +6585,18 @@
         <v>253</v>
       </c>
       <c r="C123" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D123" s="11">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="D123" s="8">
+        <v>0.615384615384615</v>
       </c>
       <c r="E123" s="9"/>
       <c r="F123" s="10"/>
       <c r="G123" s="9">
-        <v>0.8125</v>
+        <v>0.953125</v>
       </c>
       <c r="H123" s="9">
-        <v>0.571428571428571</v>
+        <v>0.675324675324675</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="10"/>
@@ -6562,23 +6609,23 @@
         <v>255</v>
       </c>
       <c r="C124" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D124" s="8">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="D124" s="11">
+        <v>0</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="10"/>
       <c r="G124" s="9">
-        <v>0.828125</v>
+        <v>0.8125</v>
       </c>
       <c r="H124" s="9">
-        <v>0.532467532467532</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="10"/>
     </row>
-    <row r="125" ht="28.35" customHeight="1">
+    <row r="125" ht="14.35" customHeight="1">
       <c r="A125" t="s" s="7">
         <v>256</v>
       </c>
@@ -6586,23 +6633,23 @@
         <v>257</v>
       </c>
       <c r="C125" t="s" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D125" s="8">
-        <v>0.846153846153846</v>
+        <v>0.75</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="10"/>
       <c r="G125" s="9">
-        <v>0</v>
+        <v>0.828125</v>
       </c>
       <c r="H125" s="9">
-        <v>0.25974025974026</v>
+        <v>0.532467532467532</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="10"/>
     </row>
-    <row r="126" ht="14.35" customHeight="1">
+    <row r="126" ht="28.35" customHeight="1">
       <c r="A126" t="s" s="7">
         <v>258</v>
       </c>
@@ -6610,20 +6657,20 @@
         <v>259</v>
       </c>
       <c r="C126" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="D126" s="11">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="D126" s="8">
+        <v>0.846153846153846</v>
       </c>
       <c r="E126" s="9">
-        <v>0.714285714285714</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="F126" s="10"/>
       <c r="G126" s="9">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="H126" s="9">
-        <v>0.428571428571429</v>
+        <v>0.25974025974026</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="10"/>
@@ -6636,18 +6683,20 @@
         <v>261</v>
       </c>
       <c r="C127" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D127" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E127" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="D127" s="11">
+        <v>0</v>
+      </c>
+      <c r="E127" s="9">
+        <v>0.714285714285714</v>
+      </c>
       <c r="F127" s="10"/>
       <c r="G127" s="9">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="H127" s="9">
-        <v>0.597402597402597</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="10"/>
@@ -6659,9 +6708,11 @@
       <c r="B128" t="s" s="7">
         <v>263</v>
       </c>
-      <c r="C128" s="10"/>
-      <c r="D128" s="11">
-        <v>0</v>
+      <c r="C128" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="D128" s="8">
+        <v>0.711538461538462</v>
       </c>
       <c r="E128" s="9"/>
       <c r="F128" s="10"/>
@@ -6669,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="H128" s="9">
-        <v>0.194805194805195</v>
+        <v>0.597402597402597</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="10"/>
@@ -6681,11 +6732,9 @@
       <c r="B129" t="s" s="7">
         <v>265</v>
       </c>
-      <c r="C129" t="s" s="7">
-        <v>15</v>
-      </c>
+      <c r="C129" s="10"/>
       <c r="D129" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="10"/>
@@ -6693,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="H129" s="9">
-        <v>0.402597402597403</v>
+        <v>0.194805194805195</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="10"/>
@@ -6706,18 +6755,18 @@
         <v>267</v>
       </c>
       <c r="C130" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D130" s="8">
-        <v>0.788461538461538</v>
+        <v>15</v>
+      </c>
+      <c r="D130" s="11">
+        <v>1</v>
       </c>
       <c r="E130" s="9"/>
       <c r="F130" s="10"/>
       <c r="G130" s="9">
-        <v>0.859375</v>
+        <v>0</v>
       </c>
       <c r="H130" s="9">
-        <v>0.701298701298701</v>
+        <v>0.402597402597403</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="10"/>
@@ -6733,15 +6782,15 @@
         <v>12</v>
       </c>
       <c r="D131" s="8">
-        <v>0.75</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E131" s="9"/>
       <c r="F131" s="10"/>
       <c r="G131" s="9">
-        <v>0.765625</v>
+        <v>0.859375</v>
       </c>
       <c r="H131" s="9">
-        <v>0.558441558441558</v>
+        <v>0.701298701298701</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="10"/>
@@ -6754,18 +6803,18 @@
         <v>271</v>
       </c>
       <c r="C132" t="s" s="7">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D132" s="8">
-        <v>0.634615384615385</v>
+        <v>0.75</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="10"/>
       <c r="G132" s="9">
-        <v>0.96875</v>
+        <v>0.765625</v>
       </c>
       <c r="H132" s="9">
-        <v>0.519480519480519</v>
+        <v>0.558441558441558</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="10"/>
@@ -6778,18 +6827,20 @@
         <v>273</v>
       </c>
       <c r="C133" t="s" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D133" s="8">
-        <v>0.903846153846154</v>
-      </c>
-      <c r="E133" s="9"/>
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E133" s="9">
+        <v>0.75</v>
+      </c>
       <c r="F133" s="10"/>
       <c r="G133" s="9">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="H133" s="9">
-        <v>0.61038961038961</v>
+        <v>0.519480519480519</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="10"/>
@@ -6802,10 +6853,10 @@
         <v>275</v>
       </c>
       <c r="C134" t="s" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D134" s="8">
-        <v>0.788461538461538</v>
+        <v>0.903846153846154</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="10"/>
@@ -6813,7 +6864,7 @@
         <v>0.90625</v>
       </c>
       <c r="H134" s="9">
-        <v>0.246753246753247</v>
+        <v>0.61038961038961</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="10"/>
@@ -6825,17 +6876,19 @@
       <c r="B135" t="s" s="7">
         <v>277</v>
       </c>
-      <c r="C135" s="10"/>
+      <c r="C135" t="s" s="7">
+        <v>12</v>
+      </c>
       <c r="D135" s="8">
-        <v>0.673076923076923</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E135" s="9"/>
       <c r="F135" s="10"/>
       <c r="G135" s="9">
-        <v>0.84375</v>
+        <v>0.90625</v>
       </c>
       <c r="H135" s="9">
-        <v>0.571428571428571</v>
+        <v>0.246753246753247</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="10"/>
@@ -6847,19 +6900,17 @@
       <c r="B136" t="s" s="7">
         <v>279</v>
       </c>
-      <c r="C136" t="s" s="7">
-        <v>12</v>
-      </c>
+      <c r="C136" s="10"/>
       <c r="D136" s="8">
-        <v>0.615384615384615</v>
+        <v>0.673076923076923</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="10"/>
       <c r="G136" s="9">
-        <v>0.90625</v>
+        <v>0.84375</v>
       </c>
       <c r="H136" s="9">
-        <v>0.5844155844155841</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="10"/>
@@ -6872,18 +6923,18 @@
         <v>281</v>
       </c>
       <c r="C137" t="s" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D137" s="8">
-        <v>0.846153846153846</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E137" s="9"/>
       <c r="F137" s="10"/>
       <c r="G137" s="9">
-        <v>0.828125</v>
+        <v>0.90625</v>
       </c>
       <c r="H137" s="9">
-        <v>0.493506493506494</v>
+        <v>0.5844155844155841</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="10"/>
@@ -6896,18 +6947,18 @@
         <v>283</v>
       </c>
       <c r="C138" t="s" s="7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D138" s="8">
-        <v>0.903846153846154</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="E138" s="9"/>
       <c r="F138" s="10"/>
       <c r="G138" s="9">
-        <v>0.640625</v>
+        <v>0.828125</v>
       </c>
       <c r="H138" s="9">
-        <v>0.467532467532468</v>
+        <v>0.493506493506494</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="10"/>
@@ -6920,18 +6971,18 @@
         <v>285</v>
       </c>
       <c r="C139" t="s" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D139" s="8">
-        <v>0.711538461538462</v>
+        <v>0.903846153846154</v>
       </c>
       <c r="E139" s="9"/>
       <c r="F139" s="10"/>
       <c r="G139" s="9">
-        <v>0.84375</v>
+        <v>0.640625</v>
       </c>
       <c r="H139" s="9">
-        <v>0.5844155844155841</v>
+        <v>0.467532467532468</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="10"/>
@@ -6946,18 +6997,16 @@
       <c r="C140" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D140" s="11">
-        <v>0</v>
-      </c>
-      <c r="E140" s="9">
-        <v>0.821428571428571</v>
-      </c>
+      <c r="D140" s="8">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E140" s="9"/>
       <c r="F140" s="10"/>
       <c r="G140" s="9">
-        <v>0.859375</v>
+        <v>0.84375</v>
       </c>
       <c r="H140" s="9">
-        <v>0.428571428571429</v>
+        <v>0.5844155844155841</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="10"/>
@@ -6969,17 +7018,21 @@
       <c r="B141" t="s" s="7">
         <v>289</v>
       </c>
-      <c r="C141" s="10"/>
+      <c r="C141" t="s" s="7">
+        <v>15</v>
+      </c>
       <c r="D141" s="11">
         <v>0</v>
       </c>
-      <c r="E141" s="9"/>
+      <c r="E141" s="9">
+        <v>0.821428571428571</v>
+      </c>
       <c r="F141" s="10"/>
       <c r="G141" s="9">
-        <v>0</v>
+        <v>0.859375</v>
       </c>
       <c r="H141" s="9">
-        <v>0.675324675324675</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="10"/>
@@ -6991,19 +7044,17 @@
       <c r="B142" t="s" s="7">
         <v>291</v>
       </c>
-      <c r="C142" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D142" s="8">
-        <v>0.634615384615385</v>
+      <c r="C142" s="10"/>
+      <c r="D142" s="11">
+        <v>0</v>
       </c>
       <c r="E142" s="9"/>
       <c r="F142" s="10"/>
       <c r="G142" s="9">
-        <v>0.734375</v>
+        <v>0</v>
       </c>
       <c r="H142" s="9">
-        <v>0.350649350649351</v>
+        <v>0.675324675324675</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="10"/>
@@ -7016,24 +7067,22 @@
         <v>293</v>
       </c>
       <c r="C143" t="s" s="7">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D143" s="8">
         <v>0.634615384615385</v>
       </c>
       <c r="E143" s="9">
-        <v>0.785714285714286</v>
+        <v>0.75</v>
       </c>
       <c r="F143" s="10"/>
       <c r="G143" s="9">
-        <v>0.8125</v>
+        <v>0.734375</v>
       </c>
       <c r="H143" s="9">
-        <v>0.506493506493506</v>
-      </c>
-      <c r="I143" s="9">
-        <v>0.785714285714286</v>
-      </c>
+        <v>0.350649350649351</v>
+      </c>
+      <c r="I143" s="9"/>
       <c r="J143" s="10"/>
     </row>
     <row r="144" ht="14.35" customHeight="1">
@@ -7044,20 +7093,24 @@
         <v>295</v>
       </c>
       <c r="C144" t="s" s="7">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D144" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E144" s="9"/>
+      <c r="E144" s="9">
+        <v>0.785714285714286</v>
+      </c>
       <c r="F144" s="10"/>
       <c r="G144" s="9">
-        <v>0.765625</v>
+        <v>0.8125</v>
       </c>
       <c r="H144" s="9">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="I144" s="9"/>
+        <v>0.506493506493506</v>
+      </c>
+      <c r="I144" s="9">
+        <v>0.785714285714286</v>
+      </c>
       <c r="J144" s="10"/>
     </row>
     <row r="145" ht="14.35" customHeight="1">
@@ -7068,18 +7121,18 @@
         <v>297</v>
       </c>
       <c r="C145" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D145" s="11">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="D145" s="8">
+        <v>0.634615384615385</v>
       </c>
       <c r="E145" s="9"/>
       <c r="F145" s="10"/>
       <c r="G145" s="9">
-        <v>0.8125</v>
+        <v>0.765625</v>
       </c>
       <c r="H145" s="9">
-        <v>0.337662337662338</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="10"/>
@@ -7092,18 +7145,18 @@
         <v>299</v>
       </c>
       <c r="C146" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D146" s="8">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="D146" s="11">
+        <v>0</v>
       </c>
       <c r="E146" s="9"/>
       <c r="F146" s="10"/>
       <c r="G146" s="9">
-        <v>0.84375</v>
+        <v>0.8125</v>
       </c>
       <c r="H146" s="9">
-        <v>0.38961038961039</v>
+        <v>0.337662337662338</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="10"/>
@@ -7116,7 +7169,7 @@
         <v>301</v>
       </c>
       <c r="C147" t="s" s="7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D147" s="8">
         <v>0.75</v>
@@ -7124,10 +7177,10 @@
       <c r="E147" s="9"/>
       <c r="F147" s="10"/>
       <c r="G147" s="9">
-        <v>0.890625</v>
+        <v>0.84375</v>
       </c>
       <c r="H147" s="9">
-        <v>0.493506493506494</v>
+        <v>0.38961038961039</v>
       </c>
       <c r="I147" s="9"/>
       <c r="J147" s="10"/>
@@ -7142,8 +7195,8 @@
       <c r="C148" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="D148" s="11">
-        <v>0</v>
+      <c r="D148" s="8">
+        <v>0.75</v>
       </c>
       <c r="E148" s="9"/>
       <c r="F148" s="10"/>
@@ -7151,7 +7204,7 @@
         <v>0.890625</v>
       </c>
       <c r="H148" s="9">
-        <v>0.597402597402597</v>
+        <v>0.493506493506494</v>
       </c>
       <c r="I148" s="9"/>
       <c r="J148" s="10"/>
@@ -7164,20 +7217,18 @@
         <v>305</v>
       </c>
       <c r="C149" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D149" s="8">
-        <v>0.923076923076923</v>
-      </c>
-      <c r="E149" s="9">
-        <v>0.821428571428571</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D149" s="11">
+        <v>0</v>
+      </c>
+      <c r="E149" s="9"/>
       <c r="F149" s="10"/>
       <c r="G149" s="9">
-        <v>0</v>
+        <v>0.890625</v>
       </c>
       <c r="H149" s="9">
-        <v>0.649350649350649</v>
+        <v>0.597402597402597</v>
       </c>
       <c r="I149" s="9"/>
       <c r="J149" s="10"/>
@@ -7189,17 +7240,21 @@
       <c r="B150" t="s" s="7">
         <v>307</v>
       </c>
-      <c r="C150" s="10"/>
-      <c r="D150" s="11">
-        <v>0</v>
-      </c>
-      <c r="E150" s="9"/>
+      <c r="C150" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="D150" s="8">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="E150" s="9">
+        <v>0.821428571428571</v>
+      </c>
       <c r="F150" s="10"/>
       <c r="G150" s="9">
-        <v>0.90625</v>
+        <v>0</v>
       </c>
       <c r="H150" s="9">
-        <v>0.532467532467532</v>
+        <v>0.649350649350649</v>
       </c>
       <c r="I150" s="9"/>
       <c r="J150" s="10"/>
@@ -7211,16 +7266,14 @@
       <c r="B151" t="s" s="7">
         <v>309</v>
       </c>
-      <c r="C151" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D151" s="8">
-        <v>0.846153846153846</v>
+      <c r="C151" s="10"/>
+      <c r="D151" s="11">
+        <v>0</v>
       </c>
       <c r="E151" s="9"/>
       <c r="F151" s="10"/>
       <c r="G151" s="9">
-        <v>0.71875</v>
+        <v>0.90625</v>
       </c>
       <c r="H151" s="9">
         <v>0.532467532467532</v>
@@ -7238,18 +7291,18 @@
       <c r="C152" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D152" s="11">
-        <v>0</v>
+      <c r="D152" s="8">
+        <v>0.846153846153846</v>
       </c>
       <c r="E152" s="9">
-        <v>0.821428571428571</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="F152" s="10"/>
       <c r="G152" s="9">
-        <v>0.84375</v>
+        <v>0.71875</v>
       </c>
       <c r="H152" s="9">
-        <v>0.597402597402597</v>
+        <v>0.532467532467532</v>
       </c>
       <c r="I152" s="9"/>
       <c r="J152" s="10"/>
@@ -7262,20 +7315,20 @@
         <v>313</v>
       </c>
       <c r="C153" t="s" s="7">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D153" s="11">
         <v>0</v>
       </c>
       <c r="E153" s="9">
-        <v>0.714285714285714</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="F153" s="10"/>
       <c r="G153" s="9">
-        <v>0.890625</v>
+        <v>0.84375</v>
       </c>
       <c r="H153" s="9">
-        <v>0.324675324675325</v>
+        <v>0.597402597402597</v>
       </c>
       <c r="I153" s="9"/>
       <c r="J153" s="10"/>
@@ -7290,18 +7343,18 @@
       <c r="C154" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="D154" s="8">
-        <v>0.634615384615385</v>
+      <c r="D154" s="11">
+        <v>0</v>
       </c>
       <c r="E154" s="9">
-        <v>0.678571428571429</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="F154" s="10"/>
       <c r="G154" s="9">
-        <v>0.625</v>
+        <v>0.890625</v>
       </c>
       <c r="H154" s="9">
-        <v>0.350649350649351</v>
+        <v>0.324675324675325</v>
       </c>
       <c r="I154" s="9"/>
       <c r="J154" s="10"/>
@@ -7314,18 +7367,20 @@
         <v>317</v>
       </c>
       <c r="C155" t="s" s="7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D155" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E155" s="9"/>
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E155" s="9">
+        <v>0.678571428571429</v>
+      </c>
       <c r="F155" s="10"/>
       <c r="G155" s="9">
-        <v>0.765625</v>
+        <v>0.625</v>
       </c>
       <c r="H155" s="9">
-        <v>0.506493506493506</v>
+        <v>0.350649350649351</v>
       </c>
       <c r="I155" s="9"/>
       <c r="J155" s="10"/>
@@ -7341,17 +7396,15 @@
         <v>12</v>
       </c>
       <c r="D156" s="8">
-        <v>0.942307692307692</v>
-      </c>
-      <c r="E156" s="9">
-        <v>0.785714285714286</v>
-      </c>
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E156" s="9"/>
       <c r="F156" s="10"/>
       <c r="G156" s="9">
-        <v>0.859375</v>
+        <v>0.765625</v>
       </c>
       <c r="H156" s="9">
-        <v>0.467532467532468</v>
+        <v>0.506493506493506</v>
       </c>
       <c r="I156" s="9"/>
       <c r="J156" s="10"/>
@@ -7364,24 +7417,22 @@
         <v>321</v>
       </c>
       <c r="C157" t="s" s="7">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D157" s="8">
-        <v>0.634615384615385</v>
+        <v>0.942307692307692</v>
       </c>
       <c r="E157" s="9">
         <v>0.785714285714286</v>
       </c>
       <c r="F157" s="10"/>
       <c r="G157" s="9">
-        <v>0.9375</v>
+        <v>0.859375</v>
       </c>
       <c r="H157" s="9">
-        <v>0.688311688311688</v>
-      </c>
-      <c r="I157" s="9">
-        <v>0.871428571428571</v>
-      </c>
+        <v>0.467532467532468</v>
+      </c>
+      <c r="I157" s="9"/>
       <c r="J157" s="10"/>
     </row>
     <row r="158" ht="14.35" customHeight="1">
@@ -7392,20 +7443,24 @@
         <v>323</v>
       </c>
       <c r="C158" t="s" s="7">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D158" s="8">
-        <v>0.807692307692308</v>
-      </c>
-      <c r="E158" s="9"/>
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E158" s="9">
+        <v>0.785714285714286</v>
+      </c>
       <c r="F158" s="10"/>
       <c r="G158" s="9">
-        <v>0.75</v>
+        <v>0.9375</v>
       </c>
       <c r="H158" s="9">
-        <v>0.727272727272727</v>
-      </c>
-      <c r="I158" s="9"/>
+        <v>0.688311688311688</v>
+      </c>
+      <c r="I158" s="9">
+        <v>0.871428571428571</v>
+      </c>
       <c r="J158" s="10"/>
     </row>
     <row r="159" ht="14.35" customHeight="1">
@@ -7418,18 +7473,16 @@
       <c r="C159" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="D159" s="11">
-        <v>0</v>
-      </c>
-      <c r="E159" s="9">
-        <v>0.678571428571429</v>
-      </c>
+      <c r="D159" s="8">
+        <v>0.807692307692308</v>
+      </c>
+      <c r="E159" s="9"/>
       <c r="F159" s="10"/>
       <c r="G159" s="9">
-        <v>0.71875</v>
+        <v>0.75</v>
       </c>
       <c r="H159" s="9">
-        <v>0.493506493506494</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="I159" s="9"/>
       <c r="J159" s="10"/>
@@ -7442,102 +7495,98 @@
         <v>327</v>
       </c>
       <c r="C160" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D160" s="8">
-        <v>0.711538461538462</v>
+        <v>27</v>
+      </c>
+      <c r="D160" s="11">
+        <v>0</v>
       </c>
       <c r="E160" s="9"/>
       <c r="F160" s="10"/>
       <c r="G160" s="9">
-        <v>0.666666666666667</v>
+        <v>0.71875</v>
       </c>
       <c r="H160" s="9">
-        <v>0.61038961038961</v>
+        <v>0.493506493506494</v>
       </c>
       <c r="I160" s="9"/>
       <c r="J160" s="10"/>
     </row>
     <row r="161" ht="14.35" customHeight="1">
       <c r="A161" t="s" s="7">
+        <v>326</v>
+      </c>
+      <c r="B161" t="s" s="7">
         <v>328</v>
       </c>
-      <c r="B161" t="s" s="7">
-        <v>329</v>
-      </c>
-      <c r="C161" s="10"/>
+      <c r="C161" t="s" s="7">
+        <v>27</v>
+      </c>
       <c r="D161" s="11">
         <v>0</v>
       </c>
       <c r="E161" s="9">
-        <v>0.821428571428571</v>
+        <v>0.678571428571429</v>
       </c>
       <c r="F161" s="10"/>
-      <c r="G161" s="9">
-        <v>0.84375</v>
-      </c>
-      <c r="H161" s="9">
-        <v>0.506493506493506</v>
-      </c>
+      <c r="G161" s="9"/>
+      <c r="H161" s="9"/>
       <c r="I161" s="9"/>
       <c r="J161" s="10"/>
     </row>
     <row r="162" ht="14.35" customHeight="1">
       <c r="A162" t="s" s="7">
+        <v>329</v>
+      </c>
+      <c r="B162" t="s" s="7">
         <v>330</v>
-      </c>
-      <c r="B162" t="s" s="7">
-        <v>331</v>
       </c>
       <c r="C162" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="D162" s="11">
-        <v>0</v>
+      <c r="D162" s="8">
+        <v>0.711538461538462</v>
       </c>
       <c r="E162" s="9"/>
       <c r="F162" s="10"/>
       <c r="G162" s="9">
-        <v>0.875</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H162" s="9">
-        <v>0.636363636363636</v>
+        <v>0.61038961038961</v>
       </c>
       <c r="I162" s="9"/>
       <c r="J162" s="10"/>
     </row>
     <row r="163" ht="14.35" customHeight="1">
       <c r="A163" t="s" s="7">
+        <v>331</v>
+      </c>
+      <c r="B163" t="s" s="7">
         <v>332</v>
       </c>
-      <c r="B163" t="s" s="7">
-        <v>333</v>
-      </c>
-      <c r="C163" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D163" s="8">
-        <v>0.75</v>
+      <c r="C163" s="10"/>
+      <c r="D163" s="11">
+        <v>0</v>
       </c>
       <c r="E163" s="9">
-        <v>0.607142857142857</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="F163" s="10"/>
       <c r="G163" s="9">
-        <v>0.703125</v>
+        <v>0.84375</v>
       </c>
       <c r="H163" s="9">
-        <v>0.636363636363636</v>
+        <v>0.506493506493506</v>
       </c>
       <c r="I163" s="9"/>
       <c r="J163" s="10"/>
     </row>
     <row r="164" ht="14.35" customHeight="1">
       <c r="A164" t="s" s="7">
+        <v>333</v>
+      </c>
+      <c r="B164" t="s" s="7">
         <v>334</v>
-      </c>
-      <c r="B164" t="s" s="7">
-        <v>335</v>
       </c>
       <c r="C164" t="s" s="7">
         <v>12</v>
@@ -7548,269 +7597,313 @@
       <c r="E164" s="9"/>
       <c r="F164" s="10"/>
       <c r="G164" s="9">
-        <v>0.71875</v>
+        <v>0.875</v>
       </c>
       <c r="H164" s="9">
-        <v>0</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="I164" s="9"/>
       <c r="J164" s="10"/>
     </row>
     <row r="165" ht="14.35" customHeight="1">
       <c r="A165" t="s" s="7">
+        <v>335</v>
+      </c>
+      <c r="B165" t="s" s="7">
         <v>336</v>
       </c>
-      <c r="B165" t="s" s="7">
-        <v>337</v>
-      </c>
       <c r="C165" t="s" s="7">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D165" s="8">
-        <v>0.788461538461538</v>
-      </c>
-      <c r="E165" s="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="E165" s="9">
+        <v>0.607142857142857</v>
+      </c>
       <c r="F165" s="10"/>
       <c r="G165" s="9">
-        <v>0.875</v>
+        <v>0.703125</v>
       </c>
       <c r="H165" s="9">
-        <v>0.467532467532468</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="I165" s="9"/>
       <c r="J165" s="10"/>
     </row>
     <row r="166" ht="14.35" customHeight="1">
       <c r="A166" t="s" s="7">
+        <v>337</v>
+      </c>
+      <c r="B166" t="s" s="7">
         <v>338</v>
       </c>
-      <c r="B166" t="s" s="7">
-        <v>339</v>
-      </c>
       <c r="C166" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D166" s="8">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D166" s="11">
+        <v>0</v>
       </c>
       <c r="E166" s="9"/>
       <c r="F166" s="10"/>
       <c r="G166" s="9">
-        <v>0.671875</v>
+        <v>0.71875</v>
       </c>
       <c r="H166" s="9">
-        <v>0.623376623376623</v>
+        <v>0</v>
       </c>
       <c r="I166" s="9"/>
       <c r="J166" s="10"/>
     </row>
     <row r="167" ht="14.35" customHeight="1">
       <c r="A167" t="s" s="7">
+        <v>339</v>
+      </c>
+      <c r="B167" t="s" s="7">
         <v>340</v>
       </c>
-      <c r="B167" t="s" s="7">
-        <v>341</v>
-      </c>
       <c r="C167" t="s" s="7">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D167" s="8">
-        <v>0.826923076923077</v>
-      </c>
-      <c r="E167" s="9"/>
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E167" s="9">
+        <v>0.821428571428571</v>
+      </c>
       <c r="F167" s="10"/>
       <c r="G167" s="9">
-        <v>0.53</v>
+        <v>0.875</v>
       </c>
       <c r="H167" s="9">
-        <v>0.519480519480519</v>
+        <v>0.467532467532468</v>
       </c>
       <c r="I167" s="9"/>
       <c r="J167" s="10"/>
     </row>
     <row r="168" ht="14.35" customHeight="1">
       <c r="A168" t="s" s="7">
+        <v>341</v>
+      </c>
+      <c r="B168" t="s" s="7">
         <v>342</v>
       </c>
-      <c r="B168" t="s" s="7">
-        <v>343</v>
-      </c>
       <c r="C168" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D168" s="11">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="D168" s="8">
+        <v>1</v>
       </c>
       <c r="E168" s="9"/>
       <c r="F168" s="10"/>
       <c r="G168" s="9">
-        <v>0.90625</v>
+        <v>0.671875</v>
       </c>
       <c r="H168" s="9">
-        <v>0.480519480519481</v>
+        <v>0.623376623376623</v>
       </c>
       <c r="I168" s="9"/>
       <c r="J168" s="10"/>
     </row>
     <row r="169" ht="14.35" customHeight="1">
       <c r="A169" t="s" s="7">
+        <v>343</v>
+      </c>
+      <c r="B169" t="s" s="7">
         <v>344</v>
-      </c>
-      <c r="B169" t="s" s="7">
-        <v>345</v>
       </c>
       <c r="C169" t="s" s="7">
         <v>27</v>
       </c>
       <c r="D169" s="8">
-        <v>0.7692307692307691</v>
-      </c>
-      <c r="E169" s="9">
-        <v>0.714285714285714</v>
-      </c>
+        <v>0.826923076923077</v>
+      </c>
+      <c r="E169" s="9"/>
       <c r="F169" s="10"/>
       <c r="G169" s="9">
-        <v>0.8125</v>
+        <v>0.53</v>
       </c>
       <c r="H169" s="9">
-        <v>0.636363636363636</v>
+        <v>0.519480519480519</v>
       </c>
       <c r="I169" s="9"/>
       <c r="J169" s="10"/>
     </row>
     <row r="170" ht="14.35" customHeight="1">
       <c r="A170" t="s" s="7">
+        <v>345</v>
+      </c>
+      <c r="B170" t="s" s="7">
         <v>346</v>
       </c>
-      <c r="B170" t="s" s="7">
-        <v>347</v>
-      </c>
       <c r="C170" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D170" s="8">
-        <v>0.711538461538462</v>
+        <v>12</v>
+      </c>
+      <c r="D170" s="11">
+        <v>0</v>
       </c>
       <c r="E170" s="9"/>
       <c r="F170" s="10"/>
       <c r="G170" s="9">
-        <v>0.84375</v>
+        <v>0.90625</v>
       </c>
       <c r="H170" s="9">
-        <v>0.402597402597403</v>
+        <v>0.480519480519481</v>
       </c>
       <c r="I170" s="9"/>
       <c r="J170" s="10"/>
     </row>
     <row r="171" ht="14.35" customHeight="1">
       <c r="A171" t="s" s="7">
+        <v>347</v>
+      </c>
+      <c r="B171" t="s" s="7">
         <v>348</v>
       </c>
-      <c r="B171" t="s" s="7">
-        <v>349</v>
-      </c>
       <c r="C171" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D171" s="11">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="D171" s="8">
+        <v>0.7692307692307691</v>
       </c>
       <c r="E171" s="9">
-        <v>0.607142857142857</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="F171" s="10"/>
       <c r="G171" s="9">
-        <v>0.765625</v>
+        <v>0.8125</v>
       </c>
       <c r="H171" s="9">
-        <v>0</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="I171" s="9"/>
       <c r="J171" s="10"/>
     </row>
     <row r="172" ht="14.35" customHeight="1">
       <c r="A172" t="s" s="7">
+        <v>349</v>
+      </c>
+      <c r="B172" t="s" s="7">
         <v>350</v>
-      </c>
-      <c r="B172" t="s" s="7">
-        <v>351</v>
       </c>
       <c r="C172" t="s" s="7">
         <v>15</v>
       </c>
       <c r="D172" s="8">
-        <v>0.846153846153846</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="E172" s="9"/>
       <c r="F172" s="10"/>
       <c r="G172" s="9">
-        <v>0.875</v>
+        <v>0.84375</v>
       </c>
       <c r="H172" s="9">
-        <v>0.532467532467532</v>
+        <v>0.402597402597403</v>
       </c>
       <c r="I172" s="9"/>
       <c r="J172" s="10"/>
     </row>
     <row r="173" ht="14.35" customHeight="1">
       <c r="A173" t="s" s="7">
+        <v>351</v>
+      </c>
+      <c r="B173" t="s" s="7">
         <v>352</v>
-      </c>
-      <c r="B173" t="s" s="7">
-        <v>353</v>
       </c>
       <c r="C173" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D173" s="8">
-        <v>0.788461538461538</v>
-      </c>
-      <c r="E173" s="9"/>
+      <c r="D173" s="11">
+        <v>0</v>
+      </c>
+      <c r="E173" s="9">
+        <v>0.607142857142857</v>
+      </c>
       <c r="F173" s="10"/>
       <c r="G173" s="9">
-        <v>0.84375</v>
+        <v>0.765625</v>
       </c>
       <c r="H173" s="9">
-        <v>0.506493506493506</v>
+        <v>0</v>
       </c>
       <c r="I173" s="9"/>
       <c r="J173" s="10"/>
     </row>
     <row r="174" ht="14.35" customHeight="1">
       <c r="A174" t="s" s="7">
+        <v>353</v>
+      </c>
+      <c r="B174" t="s" s="7">
         <v>354</v>
       </c>
-      <c r="B174" t="s" s="7">
-        <v>355</v>
-      </c>
       <c r="C174" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D174" s="11">
-        <v>1</v>
-      </c>
-      <c r="E174" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D174" s="8">
+        <v>0.846153846153846</v>
+      </c>
+      <c r="E174" s="9">
+        <v>0.642857142857143</v>
+      </c>
       <c r="F174" s="10"/>
       <c r="G174" s="9">
         <v>0.875</v>
       </c>
       <c r="H174" s="9">
-        <v>0.545454545454545</v>
+        <v>0.532467532467532</v>
       </c>
       <c r="I174" s="9"/>
       <c r="J174" s="10"/>
     </row>
     <row r="175" ht="14.35" customHeight="1">
-      <c r="A175" s="10"/>
-      <c r="B175" s="10"/>
-      <c r="C175" s="10"/>
-      <c r="D175" s="10"/>
-      <c r="E175" s="9"/>
+      <c r="A175" t="s" s="7">
+        <v>355</v>
+      </c>
+      <c r="B175" t="s" s="7">
+        <v>356</v>
+      </c>
+      <c r="C175" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="D175" s="8">
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E175" s="9">
+        <v>0.821428571428571</v>
+      </c>
       <c r="F175" s="10"/>
-      <c r="G175" s="9"/>
-      <c r="H175" s="9"/>
+      <c r="G175" s="9">
+        <v>0.84375</v>
+      </c>
+      <c r="H175" s="9">
+        <v>0.506493506493506</v>
+      </c>
       <c r="I175" s="9"/>
       <c r="J175" s="10"/>
+    </row>
+    <row r="176" ht="14.35" customHeight="1">
+      <c r="A176" t="s" s="7">
+        <v>357</v>
+      </c>
+      <c r="B176" t="s" s="7">
+        <v>358</v>
+      </c>
+      <c r="C176" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="D176" s="11">
+        <v>1</v>
+      </c>
+      <c r="E176" s="9"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="H176" s="9">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="I176" s="9"/>
+      <c r="J176" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7877,96 +7970,96 @@
     <hyperlink ref="B72" r:id="rId61" location="" tooltip="" display="H220015F@hit.ac.zw"/>
     <hyperlink ref="B73" r:id="rId62" location="" tooltip="" display="H220184Z@hit.ac.zw"/>
     <hyperlink ref="B74" r:id="rId63" location="" tooltip="" display="H220392X@hit.ac.zw"/>
-    <hyperlink ref="B75" r:id="rId64" location="" tooltip="" display="H220187N@hit.ac.zw"/>
-    <hyperlink ref="B76" r:id="rId65" location="" tooltip="" display="H220421Y@hit.ac.zw"/>
-    <hyperlink ref="B78" r:id="rId66" location="" tooltip="" display="h200799c@hit.ac.zw"/>
-    <hyperlink ref="B80" r:id="rId67" location="" tooltip="" display="H220211V@hit.ac.zw"/>
-    <hyperlink ref="B81" r:id="rId68" location="" tooltip="" display="H220623Z@hit.ac.zw"/>
-    <hyperlink ref="B82" r:id="rId69" location="" tooltip="" display="H220315H@hit.ac.zw"/>
-    <hyperlink ref="B83" r:id="rId70" location="" tooltip="" display="H220063V@hit.ac.zw"/>
-    <hyperlink ref="B84" r:id="rId71" location="" tooltip="" display="H220019B@hit.ac.zw"/>
-    <hyperlink ref="B85" r:id="rId72" location="" tooltip="" display="H220316P@hit.ac.zw"/>
-    <hyperlink ref="B86" r:id="rId73" location="" tooltip="" display="H220550G@hit.ac.zw"/>
-    <hyperlink ref="B87" r:id="rId74" location="" tooltip="" display="H220004A@hit.ac.zw"/>
-    <hyperlink ref="B88" r:id="rId75" location="" tooltip="" display="H220133W@hit.ac.zw"/>
-    <hyperlink ref="B89" r:id="rId76" location="" tooltip="" display="H220313E@hit.ac.zw"/>
-    <hyperlink ref="B90" r:id="rId77" location="" tooltip="" display="H220427Q@hit.ac.zw"/>
-    <hyperlink ref="B91" r:id="rId78" location="" tooltip="" display="H220070V@hit.ac.zw"/>
-    <hyperlink ref="B92" r:id="rId79" location="" tooltip="" display="H220325F@hit.ac.zw"/>
-    <hyperlink ref="B93" r:id="rId80" location="" tooltip="" display="H220478P@hit.ac.zw"/>
-    <hyperlink ref="B94" r:id="rId81" location="" tooltip="" display="H220260C@hit.ac.zw"/>
-    <hyperlink ref="B95" r:id="rId82" location="" tooltip="" display="h180617h@hit.ac.zw"/>
-    <hyperlink ref="B96" r:id="rId83" location="" tooltip="" display="H220624V@hit.ac.zw"/>
-    <hyperlink ref="B97" r:id="rId84" location="" tooltip="" display="H220231W@hit.ac.zw"/>
-    <hyperlink ref="B98" r:id="rId85" location="" tooltip="" display="H220503P@hit.ac.zw"/>
-    <hyperlink ref="B99" r:id="rId86" location="" tooltip="" display="H220130J@hit.ac.zw"/>
-    <hyperlink ref="B100" r:id="rId87" location="" tooltip="" display="H220086F@hit.ac.zw"/>
-    <hyperlink ref="B102" r:id="rId88" location="" tooltip="" display="H220010Q@hit.ac.zw"/>
-    <hyperlink ref="B103" r:id="rId89" location="" tooltip="" display="h180134p@hit.ac.zw"/>
-    <hyperlink ref="B104" r:id="rId90" location="" tooltip="" display="H220564G@hit.ac.zw"/>
-    <hyperlink ref="B105" r:id="rId91" location="" tooltip="" display="H220462G@hit.ac.zw"/>
-    <hyperlink ref="B106" r:id="rId92" location="" tooltip="" display="H220204H@hit.ac.zw"/>
-    <hyperlink ref="B107" r:id="rId93" location="" tooltip="" display="H220516A@hit.ac.zw"/>
-    <hyperlink ref="B108" r:id="rId94" location="" tooltip="" display="H220183B@hit.ac.zw"/>
-    <hyperlink ref="B109" r:id="rId95" location="" tooltip="" display="H220449Q@hit.ac.zw"/>
-    <hyperlink ref="B111" r:id="rId96" location="" tooltip="" display="H220273W@hit.ac.zw"/>
-    <hyperlink ref="B112" r:id="rId97" location="" tooltip="" display="H220087E@hit.ac.zw"/>
-    <hyperlink ref="B113" r:id="rId98" location="" tooltip="" display="H220033G@hit.ac.zw"/>
-    <hyperlink ref="B114" r:id="rId99" location="" tooltip="" display="H220269E@hit.ac.zw"/>
-    <hyperlink ref="B115" r:id="rId100" location="" tooltip="" display="H220595W@hit.ac.zw"/>
-    <hyperlink ref="B116" r:id="rId101" location="" tooltip="" display="H220591F@hit.ac.zw"/>
-    <hyperlink ref="B117" r:id="rId102" location="" tooltip="" display="H220221G@hit.ac.zw"/>
-    <hyperlink ref="B119" r:id="rId103" location="" tooltip="" display="H220242Z@hit.ac.zw"/>
-    <hyperlink ref="B120" r:id="rId104" location="" tooltip="" display="H220348B@hit.ac.zw"/>
-    <hyperlink ref="B121" r:id="rId105" location="" tooltip="" display="H220418Y@hit.ac.zw"/>
-    <hyperlink ref="B122" r:id="rId106" location="" tooltip="" display="H220450T@hit.ac.zw"/>
-    <hyperlink ref="B123" r:id="rId107" location="" tooltip="" display="H220333Q@hit.ac.zw"/>
-    <hyperlink ref="B124" r:id="rId108" location="" tooltip="" display="H220320J@hit.ac.zw"/>
-    <hyperlink ref="B125" r:id="rId109" location="" tooltip="" display="H220311Y@hit.ac.zw"/>
-    <hyperlink ref="B126" r:id="rId110" location="" tooltip="" display="H220138M@hit.ac.zw"/>
-    <hyperlink ref="B127" r:id="rId111" location="" tooltip="" display="h210574b@hit.ac.zw"/>
-    <hyperlink ref="B130" r:id="rId112" location="" tooltip="" display="H220197V@hit.ac.zw"/>
-    <hyperlink ref="B131" r:id="rId113" location="" tooltip="" display="H220247A@hit.ac.zw"/>
-    <hyperlink ref="B132" r:id="rId114" location="" tooltip="" display="H220432X@hit.ac.zw"/>
-    <hyperlink ref="B133" r:id="rId115" location="" tooltip="" display="H220223N@hit.ac.zw"/>
-    <hyperlink ref="B135" r:id="rId116" location="" tooltip="" display="H220272P@hit.ac.zw"/>
-    <hyperlink ref="B136" r:id="rId117" location="" tooltip="" display="H220615W@hit.ac.zw"/>
-    <hyperlink ref="B137" r:id="rId118" location="" tooltip="" display="H220196A@hit.ac.zw"/>
-    <hyperlink ref="B138" r:id="rId119" location="" tooltip="" display="h220535v@hit.ac.zw"/>
-    <hyperlink ref="B139" r:id="rId120" location="" tooltip="" display="h220688a@hit.ac.zw"/>
-    <hyperlink ref="B140" r:id="rId121" location="" tooltip="" display="H220026H@hit.ac.zw"/>
-    <hyperlink ref="B141" r:id="rId122" location="" tooltip="" display="H220533P@hit.ac.zw"/>
-    <hyperlink ref="B142" r:id="rId123" location="" tooltip="" display="H220435X@hit.ac.zw"/>
-    <hyperlink ref="B143" r:id="rId124" location="" tooltip="" display="H220225C@hit.ac.zw"/>
-    <hyperlink ref="B144" r:id="rId125" location="" tooltip="" display="H220198F@hit.ac.zw"/>
-    <hyperlink ref="B145" r:id="rId126" location="" tooltip="" display="H220290G@hit.ac.zw"/>
-    <hyperlink ref="B146" r:id="rId127" location="" tooltip="" display="H220147B@hit.ac.zw"/>
-    <hyperlink ref="B147" r:id="rId128" location="" tooltip="" display="H220076E@hit.ac.zw"/>
-    <hyperlink ref="B148" r:id="rId129" location="" tooltip="" display="H220129A@hit.ac.zw"/>
-    <hyperlink ref="B149" r:id="rId130" location="" tooltip="" display="H220243A@hit.ac.zw"/>
-    <hyperlink ref="B150" r:id="rId131" location="" tooltip="" display="H220554M@hit.ac.zw"/>
-    <hyperlink ref="B151" r:id="rId132" location="" tooltip="" display="H220415J@hit.ac.zw"/>
-    <hyperlink ref="B152" r:id="rId133" location="" tooltip="" display="H220439A@hit.ac.zw"/>
-    <hyperlink ref="B153" r:id="rId134" location="" tooltip="" display="H220390X@hit.ac.zw"/>
-    <hyperlink ref="B154" r:id="rId135" location="" tooltip="" display="H220536M@hit.ac.zw"/>
-    <hyperlink ref="B155" r:id="rId136" location="" tooltip="" display="H220189E@hit.ac.zw"/>
-    <hyperlink ref="B156" r:id="rId137" location="" tooltip="" display="H220146J@hit.ac.zw"/>
-    <hyperlink ref="B157" r:id="rId138" location="" tooltip="" display="H220179T@hit.ac.zw"/>
-    <hyperlink ref="B158" r:id="rId139" location="" tooltip="" display="H220057B@hit.ac.zw"/>
-    <hyperlink ref="B159" r:id="rId140" location="" tooltip="" display="H220586J@hit.ac.zw"/>
-    <hyperlink ref="B160" r:id="rId141" location="" tooltip="" display="H220417Y@hit.ac.zw"/>
-    <hyperlink ref="B161" r:id="rId142" location="" tooltip="" display="H220553G@hit.ac.zw"/>
-    <hyperlink ref="B162" r:id="rId143" location="" tooltip="" display="H220250Q@hit.ac.zw"/>
-    <hyperlink ref="B163" r:id="rId144" location="" tooltip="" display="H220652T@hit.ac.zw"/>
-    <hyperlink ref="B165" r:id="rId145" location="" tooltip="" display="H220426Q@hit.ac.zw"/>
-    <hyperlink ref="B166" r:id="rId146" location="" tooltip="" display="H220072Y@hit.ac.zw"/>
-    <hyperlink ref="B167" r:id="rId147" location="" tooltip="" display="H220028G@hit.ac.zw"/>
-    <hyperlink ref="B168" r:id="rId148" location="" tooltip="" display="H220081X@hit.ac.zw"/>
-    <hyperlink ref="B169" r:id="rId149" location="" tooltip="" display="h210371h@hit.ac.zw"/>
-    <hyperlink ref="B170" r:id="rId150" location="" tooltip="" display="H220105E@hit.ac.zw"/>
-    <hyperlink ref="B172" r:id="rId151" location="" tooltip="" display="H220215E@hit.ac.zw"/>
-    <hyperlink ref="B173" r:id="rId152" location="" tooltip="" display="H220537B@hit.ac.zw"/>
-    <hyperlink ref="B174" r:id="rId153" location="" tooltip="" display="H220411Q@hit.ac.zw"/>
+    <hyperlink ref="B76" r:id="rId64" location="" tooltip="" display="H220187N@hit.ac.zw"/>
+    <hyperlink ref="B77" r:id="rId65" location="" tooltip="" display="H220421Y@hit.ac.zw"/>
+    <hyperlink ref="B79" r:id="rId66" location="" tooltip="" display="h200799c@hit.ac.zw"/>
+    <hyperlink ref="B81" r:id="rId67" location="" tooltip="" display="H220211V@hit.ac.zw"/>
+    <hyperlink ref="B82" r:id="rId68" location="" tooltip="" display="H220623Z@hit.ac.zw"/>
+    <hyperlink ref="B83" r:id="rId69" location="" tooltip="" display="H220315H@hit.ac.zw"/>
+    <hyperlink ref="B84" r:id="rId70" location="" tooltip="" display="H220063V@hit.ac.zw"/>
+    <hyperlink ref="B85" r:id="rId71" location="" tooltip="" display="H220019B@hit.ac.zw"/>
+    <hyperlink ref="B86" r:id="rId72" location="" tooltip="" display="H220316P@hit.ac.zw"/>
+    <hyperlink ref="B87" r:id="rId73" location="" tooltip="" display="H220550G@hit.ac.zw"/>
+    <hyperlink ref="B88" r:id="rId74" location="" tooltip="" display="H220004A@hit.ac.zw"/>
+    <hyperlink ref="B89" r:id="rId75" location="" tooltip="" display="H220133W@hit.ac.zw"/>
+    <hyperlink ref="B90" r:id="rId76" location="" tooltip="" display="H220313E@hit.ac.zw"/>
+    <hyperlink ref="B91" r:id="rId77" location="" tooltip="" display="H220427Q@hit.ac.zw"/>
+    <hyperlink ref="B92" r:id="rId78" location="" tooltip="" display="H220070V@hit.ac.zw"/>
+    <hyperlink ref="B93" r:id="rId79" location="" tooltip="" display="H220325F@hit.ac.zw"/>
+    <hyperlink ref="B94" r:id="rId80" location="" tooltip="" display="H220478P@hit.ac.zw"/>
+    <hyperlink ref="B95" r:id="rId81" location="" tooltip="" display="H220260C@hit.ac.zw"/>
+    <hyperlink ref="B96" r:id="rId82" location="" tooltip="" display="h180617h@hit.ac.zw"/>
+    <hyperlink ref="B97" r:id="rId83" location="" tooltip="" display="H220624V@hit.ac.zw"/>
+    <hyperlink ref="B98" r:id="rId84" location="" tooltip="" display="H220231W@hit.ac.zw"/>
+    <hyperlink ref="B99" r:id="rId85" location="" tooltip="" display="H220503P@hit.ac.zw"/>
+    <hyperlink ref="B100" r:id="rId86" location="" tooltip="" display="H220130J@hit.ac.zw"/>
+    <hyperlink ref="B101" r:id="rId87" location="" tooltip="" display="H220086F@hit.ac.zw"/>
+    <hyperlink ref="B103" r:id="rId88" location="" tooltip="" display="H220010Q@hit.ac.zw"/>
+    <hyperlink ref="B104" r:id="rId89" location="" tooltip="" display="h180134p@hit.ac.zw"/>
+    <hyperlink ref="B105" r:id="rId90" location="" tooltip="" display="H220564G@hit.ac.zw"/>
+    <hyperlink ref="B106" r:id="rId91" location="" tooltip="" display="H220462G@hit.ac.zw"/>
+    <hyperlink ref="B107" r:id="rId92" location="" tooltip="" display="H220204H@hit.ac.zw"/>
+    <hyperlink ref="B108" r:id="rId93" location="" tooltip="" display="H220516A@hit.ac.zw"/>
+    <hyperlink ref="B109" r:id="rId94" location="" tooltip="" display="H220183B@hit.ac.zw"/>
+    <hyperlink ref="B110" r:id="rId95" location="" tooltip="" display="H220449Q@hit.ac.zw"/>
+    <hyperlink ref="B112" r:id="rId96" location="" tooltip="" display="H220273W@hit.ac.zw"/>
+    <hyperlink ref="B113" r:id="rId97" location="" tooltip="" display="H220087E@hit.ac.zw"/>
+    <hyperlink ref="B114" r:id="rId98" location="" tooltip="" display="H220033G@hit.ac.zw"/>
+    <hyperlink ref="B115" r:id="rId99" location="" tooltip="" display="H220269E@hit.ac.zw"/>
+    <hyperlink ref="B116" r:id="rId100" location="" tooltip="" display="H220595W@hit.ac.zw"/>
+    <hyperlink ref="B117" r:id="rId101" location="" tooltip="" display="H220591F@hit.ac.zw"/>
+    <hyperlink ref="B118" r:id="rId102" location="" tooltip="" display="H220221G@hit.ac.zw"/>
+    <hyperlink ref="B120" r:id="rId103" location="" tooltip="" display="H220242Z@hit.ac.zw"/>
+    <hyperlink ref="B121" r:id="rId104" location="" tooltip="" display="H220348B@hit.ac.zw"/>
+    <hyperlink ref="B122" r:id="rId105" location="" tooltip="" display="H220418Y@hit.ac.zw"/>
+    <hyperlink ref="B123" r:id="rId106" location="" tooltip="" display="H220450T@hit.ac.zw"/>
+    <hyperlink ref="B124" r:id="rId107" location="" tooltip="" display="H220333Q@hit.ac.zw"/>
+    <hyperlink ref="B125" r:id="rId108" location="" tooltip="" display="H220320J@hit.ac.zw"/>
+    <hyperlink ref="B126" r:id="rId109" location="" tooltip="" display="H220311Y@hit.ac.zw"/>
+    <hyperlink ref="B127" r:id="rId110" location="" tooltip="" display="H220138M@hit.ac.zw"/>
+    <hyperlink ref="B128" r:id="rId111" location="" tooltip="" display="h210574b@hit.ac.zw"/>
+    <hyperlink ref="B131" r:id="rId112" location="" tooltip="" display="H220197V@hit.ac.zw"/>
+    <hyperlink ref="B132" r:id="rId113" location="" tooltip="" display="H220247A@hit.ac.zw"/>
+    <hyperlink ref="B133" r:id="rId114" location="" tooltip="" display="H220432X@hit.ac.zw"/>
+    <hyperlink ref="B134" r:id="rId115" location="" tooltip="" display="H220223N@hit.ac.zw"/>
+    <hyperlink ref="B136" r:id="rId116" location="" tooltip="" display="H220272P@hit.ac.zw"/>
+    <hyperlink ref="B137" r:id="rId117" location="" tooltip="" display="H220615W@hit.ac.zw"/>
+    <hyperlink ref="B138" r:id="rId118" location="" tooltip="" display="H220196A@hit.ac.zw"/>
+    <hyperlink ref="B139" r:id="rId119" location="" tooltip="" display="h220535v@hit.ac.zw"/>
+    <hyperlink ref="B140" r:id="rId120" location="" tooltip="" display="h220688a@hit.ac.zw"/>
+    <hyperlink ref="B141" r:id="rId121" location="" tooltip="" display="H220026H@hit.ac.zw"/>
+    <hyperlink ref="B142" r:id="rId122" location="" tooltip="" display="H220533P@hit.ac.zw"/>
+    <hyperlink ref="B143" r:id="rId123" location="" tooltip="" display="H220435X@hit.ac.zw"/>
+    <hyperlink ref="B144" r:id="rId124" location="" tooltip="" display="H220225C@hit.ac.zw"/>
+    <hyperlink ref="B145" r:id="rId125" location="" tooltip="" display="H220198F@hit.ac.zw"/>
+    <hyperlink ref="B146" r:id="rId126" location="" tooltip="" display="H220290G@hit.ac.zw"/>
+    <hyperlink ref="B147" r:id="rId127" location="" tooltip="" display="H220147B@hit.ac.zw"/>
+    <hyperlink ref="B148" r:id="rId128" location="" tooltip="" display="H220076E@hit.ac.zw"/>
+    <hyperlink ref="B149" r:id="rId129" location="" tooltip="" display="H220129A@hit.ac.zw"/>
+    <hyperlink ref="B150" r:id="rId130" location="" tooltip="" display="H220243A@hit.ac.zw"/>
+    <hyperlink ref="B151" r:id="rId131" location="" tooltip="" display="H220554M@hit.ac.zw"/>
+    <hyperlink ref="B152" r:id="rId132" location="" tooltip="" display="H220415J@hit.ac.zw"/>
+    <hyperlink ref="B153" r:id="rId133" location="" tooltip="" display="H220439A@hit.ac.zw"/>
+    <hyperlink ref="B154" r:id="rId134" location="" tooltip="" display="H220390X@hit.ac.zw"/>
+    <hyperlink ref="B155" r:id="rId135" location="" tooltip="" display="H220536M@hit.ac.zw"/>
+    <hyperlink ref="B156" r:id="rId136" location="" tooltip="" display="H220189E@hit.ac.zw"/>
+    <hyperlink ref="B157" r:id="rId137" location="" tooltip="" display="H220146J@hit.ac.zw"/>
+    <hyperlink ref="B158" r:id="rId138" location="" tooltip="" display="H220179T@hit.ac.zw"/>
+    <hyperlink ref="B159" r:id="rId139" location="" tooltip="" display="H220057B@hit.ac.zw"/>
+    <hyperlink ref="B160" r:id="rId140" location="" tooltip="" display="H220586J@hit.ac.zw"/>
+    <hyperlink ref="B162" r:id="rId141" location="" tooltip="" display="H220417Y@hit.ac.zw"/>
+    <hyperlink ref="B163" r:id="rId142" location="" tooltip="" display="H220553G@hit.ac.zw"/>
+    <hyperlink ref="B164" r:id="rId143" location="" tooltip="" display="H220250Q@hit.ac.zw"/>
+    <hyperlink ref="B165" r:id="rId144" location="" tooltip="" display="H220652T@hit.ac.zw"/>
+    <hyperlink ref="B167" r:id="rId145" location="" tooltip="" display="H220426Q@hit.ac.zw"/>
+    <hyperlink ref="B168" r:id="rId146" location="" tooltip="" display="H220072Y@hit.ac.zw"/>
+    <hyperlink ref="B169" r:id="rId147" location="" tooltip="" display="H220028G@hit.ac.zw"/>
+    <hyperlink ref="B170" r:id="rId148" location="" tooltip="" display="H220081X@hit.ac.zw"/>
+    <hyperlink ref="B171" r:id="rId149" location="" tooltip="" display="h210371h@hit.ac.zw"/>
+    <hyperlink ref="B172" r:id="rId150" location="" tooltip="" display="H220105E@hit.ac.zw"/>
+    <hyperlink ref="B174" r:id="rId151" location="" tooltip="" display="H220215E@hit.ac.zw"/>
+    <hyperlink ref="B175" r:id="rId152" location="" tooltip="" display="H220537B@hit.ac.zw"/>
+    <hyperlink ref="B176" r:id="rId153" location="" tooltip="" display="H220411Q@hit.ac.zw"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/cw11042022.xlsx
+++ b/cw11042022.xlsx
@@ -3628,7 +3628,9 @@
       <c r="H3" s="9">
         <v>0.415584415584416</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9">
+        <v>0.628571428571429</v>
+      </c>
       <c r="J3" s="10"/>
     </row>
     <row r="4" ht="14.35" customHeight="1">
@@ -3778,7 +3780,9 @@
       <c r="H9" s="9">
         <v>0.350649350649351</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="I9" s="9">
+        <v>0.471428571428571</v>
+      </c>
       <c r="J9" s="10"/>
     </row>
     <row r="10" ht="14.35" customHeight="1">
@@ -3854,7 +3858,9 @@
       <c r="H12" s="9">
         <v>0.324675324675325</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="9">
+        <v>0.671428571428571</v>
+      </c>
       <c r="J12" s="10"/>
     </row>
     <row r="13" ht="14.35" customHeight="1">
@@ -4030,7 +4036,9 @@
       <c r="H19" s="9">
         <v>0.597402597402597</v>
       </c>
-      <c r="I19" s="9"/>
+      <c r="I19" s="9">
+        <v>0.757142857142857</v>
+      </c>
       <c r="J19" s="10"/>
     </row>
     <row r="20" ht="14.35" customHeight="1">
@@ -4104,7 +4112,9 @@
       <c r="H22" s="9">
         <v>0.441558441558442</v>
       </c>
-      <c r="I22" s="9"/>
+      <c r="I22" s="9">
+        <v>0.385714285714286</v>
+      </c>
       <c r="J22" s="10"/>
     </row>
     <row r="23" ht="14.35" customHeight="1">
@@ -4202,7 +4212,9 @@
       <c r="H26" s="9">
         <v>0.61038961038961</v>
       </c>
-      <c r="I26" s="9"/>
+      <c r="I26" s="9">
+        <v>0.6</v>
+      </c>
       <c r="J26" s="10"/>
     </row>
     <row r="27" ht="14.35" customHeight="1">
@@ -4300,7 +4312,9 @@
       <c r="H30" s="9">
         <v>0.233766233766234</v>
       </c>
-      <c r="I30" s="9"/>
+      <c r="I30" s="9">
+        <v>0.328571428571429</v>
+      </c>
       <c r="J30" s="10"/>
     </row>
     <row r="31" ht="14.35" customHeight="1">
@@ -4352,7 +4366,9 @@
       <c r="H32" s="9">
         <v>0.662337662337662</v>
       </c>
-      <c r="I32" s="9"/>
+      <c r="I32" s="9">
+        <v>0.857142857142857</v>
+      </c>
       <c r="J32" s="10"/>
     </row>
     <row r="33" ht="14.35" customHeight="1">
@@ -4452,7 +4468,9 @@
       <c r="H36" s="9">
         <v>0.506493506493506</v>
       </c>
-      <c r="I36" s="9"/>
+      <c r="I36" s="9">
+        <v>0.714285714285714</v>
+      </c>
       <c r="J36" s="10"/>
     </row>
     <row r="37" ht="14.35" customHeight="1">
@@ -4602,7 +4620,9 @@
       <c r="H42" s="9">
         <v>0.441558441558442</v>
       </c>
-      <c r="I42" s="9"/>
+      <c r="I42" s="9">
+        <v>0.757142857142857</v>
+      </c>
       <c r="J42" s="10"/>
     </row>
     <row r="43" ht="14.35" customHeight="1">
@@ -4852,7 +4872,9 @@
       <c r="H52" s="9">
         <v>0.415584415584416</v>
       </c>
-      <c r="I52" s="9"/>
+      <c r="I52" s="9">
+        <v>0.257142857142857</v>
+      </c>
       <c r="J52" s="10"/>
     </row>
     <row r="53" ht="14.35" customHeight="1">
@@ -4900,7 +4922,9 @@
       <c r="H54" s="9">
         <v>0.493506493506494</v>
       </c>
-      <c r="I54" s="9"/>
+      <c r="I54" s="9">
+        <v>0.614285714285714</v>
+      </c>
       <c r="J54" s="10"/>
     </row>
     <row r="55" ht="14.35" customHeight="1">
@@ -4924,7 +4948,9 @@
       <c r="H55" s="9">
         <v>0.506493506493506</v>
       </c>
-      <c r="I55" s="9"/>
+      <c r="I55" s="9">
+        <v>0.571428571428571</v>
+      </c>
       <c r="J55" s="10"/>
     </row>
     <row r="56" ht="14.35" customHeight="1">
@@ -5020,7 +5046,9 @@
       <c r="H59" s="9">
         <v>0.363636363636364</v>
       </c>
-      <c r="I59" s="9"/>
+      <c r="I59" s="9">
+        <v>0.571428571428571</v>
+      </c>
       <c r="J59" s="10"/>
     </row>
     <row r="60" ht="14.35" customHeight="1">
@@ -5094,7 +5122,9 @@
       <c r="H62" s="9">
         <v>0.415584415584416</v>
       </c>
-      <c r="I62" s="9"/>
+      <c r="I62" s="9">
+        <v>0.642857142857143</v>
+      </c>
       <c r="J62" s="10"/>
     </row>
     <row r="63" ht="14.35" customHeight="1">
@@ -5142,7 +5172,9 @@
       <c r="H64" s="9">
         <v>0.571428571428571</v>
       </c>
-      <c r="I64" s="9"/>
+      <c r="I64" s="9">
+        <v>0.671428571428571</v>
+      </c>
       <c r="J64" s="10"/>
     </row>
     <row r="65" ht="14.35" customHeight="1">
@@ -5286,7 +5318,9 @@
       <c r="H70" s="9">
         <v>0.337662337662338</v>
       </c>
-      <c r="I70" s="9"/>
+      <c r="I70" s="9">
+        <v>0.442857142857143</v>
+      </c>
       <c r="J70" s="10"/>
     </row>
     <row r="71" ht="14.35" customHeight="1">
@@ -5506,7 +5540,9 @@
       <c r="H79" s="9">
         <v>0.493506493506494</v>
       </c>
-      <c r="I79" s="9"/>
+      <c r="I79" s="9">
+        <v>0.757142857142857</v>
+      </c>
       <c r="J79" s="10"/>
     </row>
     <row r="80" ht="14.35" customHeight="1">
@@ -5556,7 +5592,9 @@
       <c r="H81" s="9">
         <v>0.519480519480519</v>
       </c>
-      <c r="I81" s="9"/>
+      <c r="I81" s="9">
+        <v>0.614285714285714</v>
+      </c>
       <c r="J81" s="10"/>
     </row>
     <row r="82" ht="14.35" customHeight="1">
@@ -5604,7 +5642,9 @@
       <c r="H83" s="9">
         <v>0.363636363636364</v>
       </c>
-      <c r="I83" s="9"/>
+      <c r="I83" s="9">
+        <v>0.742857142857143</v>
+      </c>
       <c r="J83" s="10"/>
     </row>
     <row r="84" ht="14.35" customHeight="1">
@@ -5678,7 +5718,9 @@
       <c r="H86" s="9">
         <v>0.545454545454545</v>
       </c>
-      <c r="I86" s="9"/>
+      <c r="I86" s="9">
+        <v>0.771428571428571</v>
+      </c>
       <c r="J86" s="10"/>
     </row>
     <row r="87" ht="14.35" customHeight="1">
@@ -5752,7 +5794,9 @@
       <c r="H89" s="9">
         <v>0.571428571428571</v>
       </c>
-      <c r="I89" s="9"/>
+      <c r="I89" s="9">
+        <v>0.671428571428571</v>
+      </c>
       <c r="J89" s="10"/>
     </row>
     <row r="90" ht="14.35" customHeight="1">
@@ -5802,7 +5846,9 @@
       <c r="H91" s="9">
         <v>0.714285714285714</v>
       </c>
-      <c r="I91" s="9"/>
+      <c r="I91" s="9">
+        <v>0.642857142857143</v>
+      </c>
       <c r="J91" s="10"/>
     </row>
     <row r="92" ht="14.35" customHeight="1">
@@ -6002,7 +6048,9 @@
       <c r="H99" s="9">
         <v>0.272727272727273</v>
       </c>
-      <c r="I99" s="9"/>
+      <c r="I99" s="9">
+        <v>0.542857142857143</v>
+      </c>
       <c r="J99" s="10"/>
     </row>
     <row r="100" ht="14.35" customHeight="1">
@@ -6028,7 +6076,9 @@
       <c r="H100" s="9">
         <v>0.571428571428571</v>
       </c>
-      <c r="I100" s="9"/>
+      <c r="I100" s="9">
+        <v>0.671428571428571</v>
+      </c>
       <c r="J100" s="10"/>
     </row>
     <row r="101" ht="14.35" customHeight="1">
@@ -6398,7 +6448,9 @@
       <c r="H115" s="9">
         <v>0.636363636363636</v>
       </c>
-      <c r="I115" s="9"/>
+      <c r="I115" s="9">
+        <v>0.8142857142857139</v>
+      </c>
       <c r="J115" s="10"/>
     </row>
     <row r="116" ht="14.35" customHeight="1">
@@ -6816,7 +6868,9 @@
       <c r="H132" s="9">
         <v>0.558441558441558</v>
       </c>
-      <c r="I132" s="9"/>
+      <c r="I132" s="9">
+        <v>0.7</v>
+      </c>
       <c r="J132" s="10"/>
     </row>
     <row r="133" ht="14.35" customHeight="1">
@@ -6842,7 +6896,9 @@
       <c r="H133" s="9">
         <v>0.519480519480519</v>
       </c>
-      <c r="I133" s="9"/>
+      <c r="I133" s="9">
+        <v>0.571428571428571</v>
+      </c>
       <c r="J133" s="10"/>
     </row>
     <row r="134" ht="14.35" customHeight="1">
@@ -6866,7 +6922,9 @@
       <c r="H134" s="9">
         <v>0.61038961038961</v>
       </c>
-      <c r="I134" s="9"/>
+      <c r="I134" s="9">
+        <v>0.728571428571429</v>
+      </c>
       <c r="J134" s="10"/>
     </row>
     <row r="135" ht="14.35" customHeight="1">
@@ -6912,7 +6970,9 @@
       <c r="H136" s="9">
         <v>0.571428571428571</v>
       </c>
-      <c r="I136" s="9"/>
+      <c r="I136" s="9">
+        <v>0.642857142857143</v>
+      </c>
       <c r="J136" s="10"/>
     </row>
     <row r="137" ht="14.35" customHeight="1">
@@ -7008,7 +7068,9 @@
       <c r="H140" s="9">
         <v>0.5844155844155841</v>
       </c>
-      <c r="I140" s="9"/>
+      <c r="I140" s="9">
+        <v>0.371428571428571</v>
+      </c>
       <c r="J140" s="10"/>
     </row>
     <row r="141" ht="14.35" customHeight="1">
@@ -7034,7 +7096,9 @@
       <c r="H141" s="9">
         <v>0.428571428571429</v>
       </c>
-      <c r="I141" s="9"/>
+      <c r="I141" s="9">
+        <v>0.585714285714286</v>
+      </c>
       <c r="J141" s="10"/>
     </row>
     <row r="142" ht="14.35" customHeight="1">
@@ -7206,7 +7270,9 @@
       <c r="H148" s="9">
         <v>0.493506493506494</v>
       </c>
-      <c r="I148" s="9"/>
+      <c r="I148" s="9">
+        <v>0.657142857142857</v>
+      </c>
       <c r="J148" s="10"/>
     </row>
     <row r="149" ht="14.35" customHeight="1">
@@ -7356,7 +7422,9 @@
       <c r="H154" s="9">
         <v>0.324675324675325</v>
       </c>
-      <c r="I154" s="9"/>
+      <c r="I154" s="9">
+        <v>0.414285714285714</v>
+      </c>
       <c r="J154" s="10"/>
     </row>
     <row r="155" ht="14.35" customHeight="1">
@@ -7432,7 +7500,9 @@
       <c r="H157" s="9">
         <v>0.467532467532468</v>
       </c>
-      <c r="I157" s="9"/>
+      <c r="I157" s="9">
+        <v>0.6857142857142861</v>
+      </c>
       <c r="J157" s="10"/>
     </row>
     <row r="158" ht="14.35" customHeight="1">
@@ -7578,7 +7648,9 @@
       <c r="H163" s="9">
         <v>0.506493506493506</v>
       </c>
-      <c r="I163" s="9"/>
+      <c r="I163" s="9">
+        <v>0.357142857142857</v>
+      </c>
       <c r="J163" s="10"/>
     </row>
     <row r="164" ht="14.35" customHeight="1">
@@ -7628,7 +7700,9 @@
       <c r="H165" s="9">
         <v>0.636363636363636</v>
       </c>
-      <c r="I165" s="9"/>
+      <c r="I165" s="9">
+        <v>0.571428571428571</v>
+      </c>
       <c r="J165" s="10"/>
     </row>
     <row r="166" ht="14.35" customHeight="1">

--- a/cw11042022.xlsx
+++ b/cw11042022.xlsx
@@ -547,20 +547,20 @@
     <t>Dube</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>H220283P@hit.ac.zw</t>
+    </r>
+  </si>
+  <si>
     <t>H210245E</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>H220283P@hit.ac.zw</t>
-    </r>
-  </si>
-  <si>
     <t>Dziro</t>
   </si>
   <si>
@@ -2106,6 +2106,9 @@
     <t>Saunyama</t>
   </si>
   <si>
+    <t>H190782H</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u val="single"/>
@@ -2115,9 +2118,6 @@
       </rPr>
       <t>H220586J@hit.ac.zw</t>
     </r>
-  </si>
-  <si>
-    <t>H190782H</t>
   </si>
   <si>
     <t>Sibanda</t>
@@ -3595,7 +3595,7 @@
       <c r="E2" s="5">
         <v>0.821428571428571</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="5">
         <v>0</v>
       </c>
@@ -3621,7 +3621,7 @@
       <c r="E3" s="9">
         <v>0.821428571428571</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="9">
         <v>0.890625</v>
       </c>
@@ -3649,7 +3649,7 @@
       <c r="E4" s="9">
         <v>0.857142857142857</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="9">
         <v>0.84375</v>
       </c>
@@ -3675,14 +3675,16 @@
       <c r="E5" s="9">
         <v>0.785714285714286</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="9">
         <v>0.9375</v>
       </c>
       <c r="H5" s="9">
         <v>0.454545454545455</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="9">
+        <v>0.5571428571428571</v>
+      </c>
       <c r="J5" s="10"/>
     </row>
     <row r="6" ht="14.35" customHeight="1">
@@ -3698,8 +3700,10 @@
       <c r="D6" s="8">
         <v>0.673076923076923</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
+      <c r="E6" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F6" s="9"/>
       <c r="G6" s="9">
         <v>0.96875</v>
       </c>
@@ -3725,7 +3729,7 @@
       <c r="E7" s="9">
         <v>0.714285714285714</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="9">
         <v>0.84375</v>
       </c>
@@ -3748,8 +3752,10 @@
       <c r="D8" s="8">
         <v>0.75</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
+      <c r="E8" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F8" s="9"/>
       <c r="G8" s="9">
         <v>0.765625</v>
       </c>
@@ -3772,8 +3778,10 @@
       <c r="D9" s="11">
         <v>0</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="9">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="F9" s="9"/>
       <c r="G9" s="9">
         <v>0.671875</v>
       </c>
@@ -3798,8 +3806,10 @@
       <c r="D10" s="11">
         <v>0</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
+      <c r="E10" s="9">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F10" s="9"/>
       <c r="G10" s="9">
         <v>0.859375</v>
       </c>
@@ -3822,8 +3832,12 @@
       <c r="D11" s="11">
         <v>0</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
+      <c r="E11" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.961538461538462</v>
+      </c>
       <c r="G11" s="9">
         <v>0.796875</v>
       </c>
@@ -3833,7 +3847,10 @@
       <c r="I11" s="9">
         <v>0.257142857142857</v>
       </c>
-      <c r="J11" s="10"/>
+      <c r="J11" s="11">
+        <f>(LARGE(D11:G11,1)+LARGE(D11:G11,2))/2*0.3+(H11+I11)/2*0.7</f>
+        <v>0.458307473776224</v>
+      </c>
     </row>
     <row r="12" ht="14.35" customHeight="1">
       <c r="A12" t="s" s="7">
@@ -3851,7 +3868,7 @@
       <c r="E12" s="9">
         <v>0.714285714285714</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="9">
         <v>0.8125</v>
       </c>
@@ -3879,7 +3896,7 @@
       <c r="E13" s="9">
         <v>0.857142857142857</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="9">
         <v>0.921875</v>
       </c>
@@ -3905,7 +3922,9 @@
       <c r="E14" s="9">
         <v>0.714285714285714</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="G14" s="9">
         <v>0.921875</v>
       </c>
@@ -3931,7 +3950,9 @@
       <c r="E15" s="9">
         <v>0.714285714285714</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="G15" s="9">
         <v>0.859375</v>
       </c>
@@ -3954,8 +3975,10 @@
       <c r="D16" s="11">
         <v>0</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
+      <c r="E16" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F16" s="9"/>
       <c r="G16" s="9">
         <v>0.9375</v>
       </c>
@@ -3981,7 +4004,7 @@
       <c r="E17" s="9">
         <v>0.607142857142857</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="9">
         <v>0.734375</v>
       </c>
@@ -4004,8 +4027,10 @@
       <c r="D18" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
+      <c r="E18" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F18" s="9"/>
       <c r="G18" s="9">
         <v>0.90625</v>
       </c>
@@ -4028,8 +4053,10 @@
       <c r="D19" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
+      <c r="E19" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F19" s="9"/>
       <c r="G19" s="9">
         <v>0.921875</v>
       </c>
@@ -4054,8 +4081,10 @@
       <c r="D20" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
+      <c r="E20" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F20" s="9"/>
       <c r="G20" s="9">
         <v>0.640625</v>
       </c>
@@ -4078,8 +4107,10 @@
       <c r="D21" s="8">
         <v>0.673076923076923</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
+      <c r="E21" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F21" s="9"/>
       <c r="G21" s="9">
         <v>0.828125</v>
       </c>
@@ -4105,7 +4136,7 @@
       <c r="E22" s="9">
         <v>0.714285714285714</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="9">
         <v>0.890625</v>
       </c>
@@ -4133,7 +4164,7 @@
       <c r="E23" s="9">
         <v>0.785714285714286</v>
       </c>
-      <c r="F23" s="10"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="9">
         <v>0.71875</v>
       </c>
@@ -4156,8 +4187,10 @@
       <c r="D24" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
+      <c r="E24" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F24" s="9"/>
       <c r="G24" s="9">
         <v>0.765625</v>
       </c>
@@ -4180,8 +4213,10 @@
       <c r="D25" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10"/>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9"/>
       <c r="G25" s="9">
         <v>0.859375</v>
       </c>
@@ -4204,8 +4239,10 @@
       <c r="D26" s="8">
         <v>0.903846153846154</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
+      <c r="E26" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F26" s="9"/>
       <c r="G26" s="9">
         <v>0.796875</v>
       </c>
@@ -4230,15 +4267,21 @@
       <c r="D27" s="11">
         <v>0</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
+      <c r="E27" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0.961538461538462</v>
+      </c>
       <c r="G27" s="9">
         <v>0.828125</v>
       </c>
       <c r="H27" s="9">
         <v>0.506493506493506</v>
       </c>
-      <c r="I27" s="9"/>
+      <c r="I27" s="9">
+        <v>0.6</v>
+      </c>
       <c r="J27" s="10"/>
     </row>
     <row r="28" ht="14.35" customHeight="1">
@@ -4254,8 +4297,10 @@
       <c r="D28" s="11">
         <v>0</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10"/>
+      <c r="E28" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F28" s="9"/>
       <c r="G28" s="9">
         <v>0.9375</v>
       </c>
@@ -4281,7 +4326,7 @@
       <c r="E29" s="9">
         <v>0.714285714285714</v>
       </c>
-      <c r="F29" s="10"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="9">
         <v>0.8125</v>
       </c>
@@ -4304,8 +4349,10 @@
       <c r="D30" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="10"/>
+      <c r="E30" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F30" s="9"/>
       <c r="G30" s="9">
         <v>0.609375</v>
       </c>
@@ -4333,7 +4380,7 @@
       <c r="E31" s="9">
         <v>0.714285714285714</v>
       </c>
-      <c r="F31" s="10"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="9">
         <v>0.828125</v>
       </c>
@@ -4359,7 +4406,7 @@
       <c r="E32" s="9">
         <v>0.857142857142857</v>
       </c>
-      <c r="F32" s="10"/>
+      <c r="F32" s="9"/>
       <c r="G32" s="9">
         <v>0.890625</v>
       </c>
@@ -4387,7 +4434,7 @@
       <c r="E33" s="9">
         <v>0.75</v>
       </c>
-      <c r="F33" s="10"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="9">
         <v>0.875</v>
       </c>
@@ -4413,14 +4460,16 @@
       <c r="E34" s="9">
         <v>0.714285714285714</v>
       </c>
-      <c r="F34" s="10"/>
+      <c r="F34" s="9"/>
       <c r="G34" s="9">
         <v>0.703125</v>
       </c>
       <c r="H34" s="9">
         <v>0.636363636363636</v>
       </c>
-      <c r="I34" s="9"/>
+      <c r="I34" s="9">
+        <v>0.785714285714286</v>
+      </c>
       <c r="J34" s="10"/>
     </row>
     <row r="35" ht="14.35" customHeight="1">
@@ -4436,15 +4485,19 @@
       <c r="D35" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="10"/>
+      <c r="E35" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F35" s="9"/>
       <c r="G35" s="9">
         <v>0.984375</v>
       </c>
       <c r="H35" s="9">
         <v>0.701298701298701</v>
       </c>
-      <c r="I35" s="9"/>
+      <c r="I35" s="9">
+        <v>0.842857142857143</v>
+      </c>
       <c r="J35" s="10"/>
     </row>
     <row r="36" ht="14.35" customHeight="1">
@@ -4460,8 +4513,10 @@
       <c r="D36" s="11">
         <v>1</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="10"/>
+      <c r="E36" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F36" s="9"/>
       <c r="G36" s="9">
         <v>0</v>
       </c>
@@ -4489,7 +4544,7 @@
       <c r="E37" s="9">
         <v>0.857142857142857</v>
       </c>
-      <c r="F37" s="10"/>
+      <c r="F37" s="9"/>
       <c r="G37" s="9">
         <v>0.765625</v>
       </c>
@@ -4512,8 +4567,10 @@
       <c r="D38" s="11">
         <v>0</v>
       </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="10"/>
+      <c r="E38" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F38" s="9"/>
       <c r="G38" s="9">
         <v>0.6875</v>
       </c>
@@ -4539,7 +4596,7 @@
       <c r="E39" s="9">
         <v>0.607142857142857</v>
       </c>
-      <c r="F39" s="10"/>
+      <c r="F39" s="9"/>
       <c r="G39" s="9">
         <v>0.90625</v>
       </c>
@@ -4557,15 +4614,17 @@
         <v>90</v>
       </c>
       <c r="C40" t="s" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D40" s="8">
-        <v>0.807692307692308</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="10"/>
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F40" s="9"/>
       <c r="G40" s="9">
-        <v>0.692307692307692</v>
+        <v>0.734375</v>
       </c>
       <c r="H40" s="9">
         <v>0</v>
@@ -4581,15 +4640,17 @@
         <v>91</v>
       </c>
       <c r="C41" t="s" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D41" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="10"/>
+        <v>0.807692307692308</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F41" s="9"/>
       <c r="G41" s="9">
-        <v>0.734375</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="H41" s="9">
         <v>0</v>
@@ -4613,7 +4674,7 @@
       <c r="E42" s="9">
         <v>0.607142857142857</v>
       </c>
-      <c r="F42" s="10"/>
+      <c r="F42" s="9"/>
       <c r="G42" s="9">
         <v>0.8125</v>
       </c>
@@ -4638,8 +4699,10 @@
       <c r="D43" s="8">
         <v>0.75</v>
       </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="10"/>
+      <c r="E43" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F43" s="9"/>
       <c r="G43" s="9">
         <v>0.75</v>
       </c>
@@ -4663,7 +4726,9 @@
       <c r="E44" s="9">
         <v>0.714285714285714</v>
       </c>
-      <c r="F44" s="10"/>
+      <c r="F44" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="G44" s="9">
         <v>0</v>
       </c>
@@ -4689,7 +4754,7 @@
       <c r="E45" s="9">
         <v>0.857142857142857</v>
       </c>
-      <c r="F45" s="10"/>
+      <c r="F45" s="9"/>
       <c r="G45" s="9">
         <v>0.875</v>
       </c>
@@ -4715,7 +4780,7 @@
       <c r="E46" s="9">
         <v>0.678571428571429</v>
       </c>
-      <c r="F46" s="10"/>
+      <c r="F46" s="9"/>
       <c r="G46" s="9">
         <v>0.625</v>
       </c>
@@ -4740,8 +4805,10 @@
       <c r="D47" s="8">
         <v>0.807692307692308</v>
       </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="10"/>
+      <c r="E47" s="9">
+        <v>0</v>
+      </c>
+      <c r="F47" s="9"/>
       <c r="G47" s="9">
         <v>0.890625</v>
       </c>
@@ -4764,8 +4831,10 @@
       <c r="D48" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="10"/>
+      <c r="E48" s="9">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F48" s="9"/>
       <c r="G48" s="9">
         <v>0.8125</v>
       </c>
@@ -4791,7 +4860,9 @@
       <c r="E49" s="9">
         <v>0.821428571428571</v>
       </c>
-      <c r="F49" s="10"/>
+      <c r="F49" s="9">
+        <v>0.807692307692308</v>
+      </c>
       <c r="G49" s="9">
         <v>0.90625</v>
       </c>
@@ -4817,7 +4888,7 @@
       <c r="E50" s="9">
         <v>0.857142857142857</v>
       </c>
-      <c r="F50" s="10"/>
+      <c r="F50" s="9"/>
       <c r="G50" s="9">
         <v>0.78125</v>
       </c>
@@ -4843,7 +4914,9 @@
       <c r="E51" s="9">
         <v>0.821428571428571</v>
       </c>
-      <c r="F51" s="10"/>
+      <c r="F51" s="9">
+        <v>0.807692307692308</v>
+      </c>
       <c r="G51" s="9">
         <v>0.734375</v>
       </c>
@@ -4864,8 +4937,10 @@
       <c r="D52" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="10"/>
+      <c r="E52" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F52" s="9"/>
       <c r="G52" s="9">
         <v>0.90625</v>
       </c>
@@ -4890,8 +4965,10 @@
       <c r="D53" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="10"/>
+      <c r="E53" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F53" s="9"/>
       <c r="G53" s="9">
         <v>0.734375</v>
       </c>
@@ -4914,8 +4991,10 @@
       <c r="D54" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="10"/>
+      <c r="E54" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F54" s="9"/>
       <c r="G54" s="9">
         <v>0.8125</v>
       </c>
@@ -4940,8 +5019,10 @@
       <c r="D55" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="10"/>
+      <c r="E55" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F55" s="9"/>
       <c r="G55" s="9">
         <v>0.921875</v>
       </c>
@@ -4966,8 +5047,10 @@
       <c r="D56" s="8">
         <v>0.75</v>
       </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="10"/>
+      <c r="E56" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F56" s="9"/>
       <c r="G56" s="9">
         <v>0.8125</v>
       </c>
@@ -4990,8 +5073,10 @@
       <c r="D57" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="10"/>
+      <c r="E57" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F57" s="9"/>
       <c r="G57" s="9">
         <v>0.859375</v>
       </c>
@@ -5014,8 +5099,10 @@
       <c r="D58" s="8">
         <v>0.807692307692308</v>
       </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="10"/>
+      <c r="E58" s="9">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F58" s="9"/>
       <c r="G58" s="9">
         <v>0.828125</v>
       </c>
@@ -5038,8 +5125,10 @@
       <c r="D59" s="8">
         <v>0.826923076923077</v>
       </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="10"/>
+      <c r="E59" s="9">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F59" s="9"/>
       <c r="G59" s="9">
         <v>0.890625</v>
       </c>
@@ -5064,8 +5153,10 @@
       <c r="D60" s="11">
         <v>0</v>
       </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="10"/>
+      <c r="E60" s="9">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F60" s="9"/>
       <c r="G60" s="9">
         <v>0.84375</v>
       </c>
@@ -5091,14 +5182,16 @@
       <c r="E61" s="9">
         <v>0.678571428571429</v>
       </c>
-      <c r="F61" s="10"/>
+      <c r="F61" s="9"/>
       <c r="G61" s="9">
         <v>0.875</v>
       </c>
       <c r="H61" s="9">
         <v>0.519480519480519</v>
       </c>
-      <c r="I61" s="9"/>
+      <c r="I61" s="9">
+        <v>0.5571428571428571</v>
+      </c>
       <c r="J61" s="10"/>
     </row>
     <row r="62" ht="14.35" customHeight="1">
@@ -5114,8 +5207,10 @@
       <c r="D62" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E62" s="9"/>
-      <c r="F62" s="10"/>
+      <c r="E62" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F62" s="9"/>
       <c r="G62" s="9">
         <v>1</v>
       </c>
@@ -5140,8 +5235,10 @@
       <c r="D63" s="11">
         <v>0</v>
       </c>
-      <c r="E63" s="9"/>
-      <c r="F63" s="10"/>
+      <c r="E63" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F63" s="9"/>
       <c r="G63" s="9">
         <v>0.84375</v>
       </c>
@@ -5164,8 +5261,10 @@
       <c r="D64" s="8">
         <v>0.615384615384615</v>
       </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="10"/>
+      <c r="E64" s="9">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F64" s="9"/>
       <c r="G64" s="9">
         <v>0.859375</v>
       </c>
@@ -5193,14 +5292,16 @@
       <c r="E65" s="9">
         <v>0.75</v>
       </c>
-      <c r="F65" s="10"/>
+      <c r="F65" s="9"/>
       <c r="G65" s="9">
         <v>0</v>
       </c>
       <c r="H65" s="9">
         <v>0.350649350649351</v>
       </c>
-      <c r="I65" s="9"/>
+      <c r="I65" s="9">
+        <v>0.485714285714286</v>
+      </c>
       <c r="J65" s="10"/>
     </row>
     <row r="66" ht="14.35" customHeight="1">
@@ -5216,15 +5317,19 @@
       <c r="D66" s="8">
         <v>0.75</v>
       </c>
-      <c r="E66" s="9"/>
-      <c r="F66" s="10"/>
+      <c r="E66" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F66" s="9"/>
       <c r="G66" s="9">
         <v>0.890625</v>
       </c>
       <c r="H66" s="9">
         <v>0.480519480519481</v>
       </c>
-      <c r="I66" s="9"/>
+      <c r="I66" s="9">
+        <v>0.314285714285714</v>
+      </c>
       <c r="J66" s="10"/>
     </row>
     <row r="67" ht="14.35" customHeight="1">
@@ -5240,15 +5345,19 @@
       <c r="D67" s="8">
         <v>0.75</v>
       </c>
-      <c r="E67" s="9"/>
-      <c r="F67" s="10"/>
+      <c r="E67" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F67" s="9"/>
       <c r="G67" s="9">
         <v>0.875</v>
       </c>
       <c r="H67" s="9">
         <v>0.61038961038961</v>
       </c>
-      <c r="I67" s="9"/>
+      <c r="I67" s="9">
+        <v>0.642857142857143</v>
+      </c>
       <c r="J67" s="10"/>
     </row>
     <row r="68" ht="14.35" customHeight="1">
@@ -5264,15 +5373,19 @@
       <c r="D68" s="8">
         <v>0.75</v>
       </c>
-      <c r="E68" s="9"/>
-      <c r="F68" s="10"/>
+      <c r="E68" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F68" s="9"/>
       <c r="G68" s="9">
         <v>0.46875</v>
       </c>
       <c r="H68" s="9">
         <v>0.363636363636364</v>
       </c>
-      <c r="I68" s="9"/>
+      <c r="I68" s="9">
+        <v>0.457142857142857</v>
+      </c>
       <c r="J68" s="10"/>
     </row>
     <row r="69" ht="14.35" customHeight="1">
@@ -5286,8 +5399,10 @@
       <c r="D69" s="11">
         <v>0</v>
       </c>
-      <c r="E69" s="9"/>
-      <c r="F69" s="10"/>
+      <c r="E69" s="9">
+        <v>0</v>
+      </c>
+      <c r="F69" s="9"/>
       <c r="G69" s="9">
         <v>0</v>
       </c>
@@ -5310,8 +5425,10 @@
       <c r="D70" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E70" s="9"/>
-      <c r="F70" s="10"/>
+      <c r="E70" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F70" s="9"/>
       <c r="G70" s="9">
         <v>0.90625</v>
       </c>
@@ -5339,7 +5456,7 @@
       <c r="E71" s="9">
         <v>0.821428571428571</v>
       </c>
-      <c r="F71" s="10"/>
+      <c r="F71" s="9"/>
       <c r="G71" s="9">
         <v>0.9375</v>
       </c>
@@ -5362,8 +5479,10 @@
       <c r="D72" s="11">
         <v>1</v>
       </c>
-      <c r="E72" s="9"/>
-      <c r="F72" s="10"/>
+      <c r="E72" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F72" s="9"/>
       <c r="G72" s="9">
         <v>0</v>
       </c>
@@ -5386,8 +5505,10 @@
       <c r="D73" s="8">
         <v>0.75</v>
       </c>
-      <c r="E73" s="9"/>
-      <c r="F73" s="10"/>
+      <c r="E73" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F73" s="9"/>
       <c r="G73" s="9">
         <v>0.84375</v>
       </c>
@@ -5410,8 +5531,10 @@
       <c r="D74" s="8">
         <v>0.826923076923077</v>
       </c>
-      <c r="E74" s="9"/>
-      <c r="F74" s="10"/>
+      <c r="E74" s="9">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F74" s="9"/>
       <c r="G74" s="9">
         <v>0.765625</v>
       </c>
@@ -5437,9 +5560,15 @@
       <c r="E75" s="9">
         <v>0.714285714285714</v>
       </c>
-      <c r="F75" s="10"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
+      <c r="F75" s="9">
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="G75" s="9">
+        <v>0</v>
+      </c>
+      <c r="H75" s="9">
+        <v>0</v>
+      </c>
       <c r="I75" s="9"/>
       <c r="J75" s="10"/>
     </row>
@@ -5459,14 +5588,16 @@
       <c r="E76" s="9">
         <v>0.821428571428571</v>
       </c>
-      <c r="F76" s="10"/>
+      <c r="F76" s="9"/>
       <c r="G76" s="9">
         <v>0.875</v>
       </c>
       <c r="H76" s="9">
         <v>0.649350649350649</v>
       </c>
-      <c r="I76" s="9"/>
+      <c r="I76" s="9">
+        <v>0.757142857142857</v>
+      </c>
       <c r="J76" s="10"/>
     </row>
     <row r="77" ht="14.35" customHeight="1">
@@ -5482,15 +5613,19 @@
       <c r="D77" s="8">
         <v>0.75</v>
       </c>
-      <c r="E77" s="9"/>
-      <c r="F77" s="10"/>
+      <c r="E77" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F77" s="9"/>
       <c r="G77" s="9">
         <v>0.671875</v>
       </c>
       <c r="H77" s="9">
         <v>0.571428571428571</v>
       </c>
-      <c r="I77" s="9"/>
+      <c r="I77" s="9">
+        <v>0.728571428571429</v>
+      </c>
       <c r="J77" s="10"/>
     </row>
     <row r="78" ht="14.35" customHeight="1">
@@ -5509,7 +5644,7 @@
       <c r="E78" s="9">
         <v>0.785714285714286</v>
       </c>
-      <c r="F78" s="10"/>
+      <c r="F78" s="9"/>
       <c r="G78" s="9">
         <v>0.8125</v>
       </c>
@@ -5532,8 +5667,10 @@
       <c r="D79" s="8">
         <v>0.807692307692308</v>
       </c>
-      <c r="E79" s="9"/>
-      <c r="F79" s="10"/>
+      <c r="E79" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F79" s="9"/>
       <c r="G79" s="9">
         <v>0.84375</v>
       </c>
@@ -5561,7 +5698,7 @@
       <c r="E80" s="9">
         <v>0.821428571428571</v>
       </c>
-      <c r="F80" s="10"/>
+      <c r="F80" s="9"/>
       <c r="G80" s="9">
         <v>0.78125</v>
       </c>
@@ -5584,8 +5721,10 @@
       <c r="D81" s="8">
         <v>0.826923076923077</v>
       </c>
-      <c r="E81" s="9"/>
-      <c r="F81" s="10"/>
+      <c r="E81" s="9">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F81" s="9"/>
       <c r="G81" s="9">
         <v>0.828125</v>
       </c>
@@ -5610,8 +5749,10 @@
       <c r="D82" s="8">
         <v>0.673076923076923</v>
       </c>
-      <c r="E82" s="9"/>
-      <c r="F82" s="10"/>
+      <c r="E82" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F82" s="9"/>
       <c r="G82" s="9">
         <v>0.78125</v>
       </c>
@@ -5634,8 +5775,12 @@
       <c r="D83" s="11">
         <v>0</v>
       </c>
-      <c r="E83" s="9"/>
-      <c r="F83" s="10"/>
+      <c r="E83" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="F83" s="9">
+        <v>0.961538461538462</v>
+      </c>
       <c r="G83" s="9">
         <v>0.859375</v>
       </c>
@@ -5660,8 +5805,10 @@
       <c r="D84" s="8">
         <v>0.75</v>
       </c>
-      <c r="E84" s="9"/>
-      <c r="F84" s="10"/>
+      <c r="E84" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F84" s="9"/>
       <c r="G84" s="9">
         <v>0.84375</v>
       </c>
@@ -5684,15 +5831,19 @@
       <c r="D85" s="8">
         <v>0.826923076923077</v>
       </c>
-      <c r="E85" s="9"/>
-      <c r="F85" s="10"/>
+      <c r="E85" s="9">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F85" s="9"/>
       <c r="G85" s="9">
         <v>0.9375</v>
       </c>
       <c r="H85" s="9">
         <v>0.74025974025974</v>
       </c>
-      <c r="I85" s="9"/>
+      <c r="I85" s="9">
+        <v>0.771428571428571</v>
+      </c>
       <c r="J85" s="10"/>
     </row>
     <row r="86" ht="14.35" customHeight="1">
@@ -5711,7 +5862,7 @@
       <c r="E86" s="9">
         <v>0.857142857142857</v>
       </c>
-      <c r="F86" s="10"/>
+      <c r="F86" s="9"/>
       <c r="G86" s="9">
         <v>0.90625</v>
       </c>
@@ -5739,7 +5890,7 @@
       <c r="E87" s="9">
         <v>0.821428571428571</v>
       </c>
-      <c r="F87" s="10"/>
+      <c r="F87" s="9"/>
       <c r="G87" s="9">
         <v>0.9375</v>
       </c>
@@ -5762,8 +5913,10 @@
       <c r="D88" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E88" s="9"/>
-      <c r="F88" s="10"/>
+      <c r="E88" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F88" s="9"/>
       <c r="G88" s="9">
         <v>0.859375</v>
       </c>
@@ -5786,8 +5939,10 @@
       <c r="D89" s="8">
         <v>0.615384615384615</v>
       </c>
-      <c r="E89" s="9"/>
-      <c r="F89" s="10"/>
+      <c r="E89" s="9">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F89" s="9"/>
       <c r="G89" s="9">
         <v>0.90625</v>
       </c>
@@ -5815,14 +5970,16 @@
       <c r="E90" s="9">
         <v>0.678571428571429</v>
       </c>
-      <c r="F90" s="10"/>
+      <c r="F90" s="9"/>
       <c r="G90" s="9">
         <v>0.953125</v>
       </c>
       <c r="H90" s="9">
         <v>0.532467532467532</v>
       </c>
-      <c r="I90" s="9"/>
+      <c r="I90" s="9">
+        <v>0.714285714285714</v>
+      </c>
       <c r="J90" s="10"/>
     </row>
     <row r="91" ht="14.35" customHeight="1">
@@ -5838,8 +5995,10 @@
       <c r="D91" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E91" s="9"/>
-      <c r="F91" s="10"/>
+      <c r="E91" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F91" s="9"/>
       <c r="G91" s="9">
         <v>0</v>
       </c>
@@ -5864,15 +6023,19 @@
       <c r="D92" s="8">
         <v>0.75</v>
       </c>
-      <c r="E92" s="9"/>
-      <c r="F92" s="10"/>
+      <c r="E92" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F92" s="9"/>
       <c r="G92" s="9">
         <v>0.84375</v>
       </c>
       <c r="H92" s="9">
         <v>0.636363636363636</v>
       </c>
-      <c r="I92" s="9"/>
+      <c r="I92" s="9">
+        <v>0.4</v>
+      </c>
       <c r="J92" s="10"/>
     </row>
     <row r="93" ht="14.35" customHeight="1">
@@ -5891,7 +6054,7 @@
       <c r="E93" s="9">
         <v>0.785714285714286</v>
       </c>
-      <c r="F93" s="10"/>
+      <c r="F93" s="9"/>
       <c r="G93" s="9">
         <v>0.78125</v>
       </c>
@@ -5917,15 +6080,22 @@
       <c r="E94" s="9">
         <v>0.821428571428571</v>
       </c>
-      <c r="F94" s="10"/>
+      <c r="F94" s="9">
+        <v>0.807692307692308</v>
+      </c>
       <c r="G94" s="9">
         <v>0.859375</v>
       </c>
       <c r="H94" s="9">
         <v>0.454545454545455</v>
       </c>
-      <c r="I94" s="9"/>
-      <c r="J94" s="10"/>
+      <c r="I94" s="9">
+        <v>0.728571428571429</v>
+      </c>
+      <c r="J94" s="11">
+        <f>(LARGE(D94:G94,1)+LARGE(D94:G94,2))/2*0.3+(H94+I94)/2*0.7</f>
+        <v>0.666211444805195</v>
+      </c>
     </row>
     <row r="95" ht="14.35" customHeight="1">
       <c r="A95" t="s" s="7">
@@ -5943,7 +6113,7 @@
       <c r="E95" s="9">
         <v>0.607142857142857</v>
       </c>
-      <c r="F95" s="10"/>
+      <c r="F95" s="9"/>
       <c r="G95" s="9">
         <v>0.71875</v>
       </c>
@@ -5966,8 +6136,10 @@
       <c r="D96" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E96" s="9"/>
-      <c r="F96" s="10"/>
+      <c r="E96" s="9">
+        <v>0</v>
+      </c>
+      <c r="F96" s="9"/>
       <c r="G96" s="9">
         <v>0.8125</v>
       </c>
@@ -5993,7 +6165,7 @@
       <c r="E97" s="9">
         <v>0.785714285714286</v>
       </c>
-      <c r="F97" s="10"/>
+      <c r="F97" s="9"/>
       <c r="G97" s="9">
         <v>0.875</v>
       </c>
@@ -6016,8 +6188,10 @@
       <c r="D98" s="8">
         <v>0.7692307692307691</v>
       </c>
-      <c r="E98" s="9"/>
-      <c r="F98" s="10"/>
+      <c r="E98" s="9">
+        <v>0</v>
+      </c>
+      <c r="F98" s="9"/>
       <c r="G98" s="9">
         <v>0</v>
       </c>
@@ -6040,8 +6214,10 @@
       <c r="D99" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E99" s="9"/>
-      <c r="F99" s="10"/>
+      <c r="E99" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F99" s="9"/>
       <c r="G99" s="9">
         <v>0.875</v>
       </c>
@@ -6069,7 +6245,7 @@
       <c r="E100" s="9">
         <v>0.821428571428571</v>
       </c>
-      <c r="F100" s="10"/>
+      <c r="F100" s="9"/>
       <c r="G100" s="9">
         <v>0.78125</v>
       </c>
@@ -6094,8 +6270,10 @@
       <c r="D101" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E101" s="9"/>
-      <c r="F101" s="10"/>
+      <c r="E101" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F101" s="9"/>
       <c r="G101" s="9">
         <v>0.78125</v>
       </c>
@@ -6120,8 +6298,10 @@
       <c r="D102" s="11">
         <v>0</v>
       </c>
-      <c r="E102" s="9"/>
-      <c r="F102" s="10"/>
+      <c r="E102" s="9">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F102" s="9"/>
       <c r="G102" s="9">
         <v>0.84375</v>
       </c>
@@ -6144,15 +6324,19 @@
       <c r="D103" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E103" s="9"/>
-      <c r="F103" s="10"/>
+      <c r="E103" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F103" s="9"/>
       <c r="G103" s="9">
         <v>0.84375</v>
       </c>
       <c r="H103" s="9">
         <v>0.363636363636364</v>
       </c>
-      <c r="I103" s="9"/>
+      <c r="I103" s="9">
+        <v>0.2</v>
+      </c>
       <c r="J103" s="10"/>
     </row>
     <row r="104" ht="14.35" customHeight="1">
@@ -6171,7 +6355,9 @@
       <c r="E104" s="9">
         <v>0.714285714285714</v>
       </c>
-      <c r="F104" s="10"/>
+      <c r="F104" s="9">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="G104" s="9">
         <v>0.84375</v>
       </c>
@@ -6194,15 +6380,19 @@
       <c r="D105" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E105" s="9"/>
-      <c r="F105" s="10"/>
+      <c r="E105" s="9">
+        <v>0</v>
+      </c>
+      <c r="F105" s="9"/>
       <c r="G105" s="9">
         <v>0.9375</v>
       </c>
       <c r="H105" s="9">
         <v>0.428571428571429</v>
       </c>
-      <c r="I105" s="9"/>
+      <c r="I105" s="9">
+        <v>0.314285714285714</v>
+      </c>
       <c r="J105" s="10"/>
     </row>
     <row r="106" ht="14.35" customHeight="1">
@@ -6218,8 +6408,10 @@
       <c r="D106" s="8">
         <v>0.903846153846154</v>
       </c>
-      <c r="E106" s="9"/>
-      <c r="F106" s="10"/>
+      <c r="E106" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F106" s="9"/>
       <c r="G106" s="9">
         <v>0.8125</v>
       </c>
@@ -6242,8 +6434,10 @@
       <c r="D107" s="8">
         <v>0.807692307692308</v>
       </c>
-      <c r="E107" s="9"/>
-      <c r="F107" s="10"/>
+      <c r="E107" s="9">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F107" s="9"/>
       <c r="G107" s="9">
         <v>0.828125</v>
       </c>
@@ -6269,7 +6463,7 @@
       <c r="E108" s="9">
         <v>0.857142857142857</v>
       </c>
-      <c r="F108" s="10"/>
+      <c r="F108" s="9"/>
       <c r="G108" s="9">
         <v>0.890625</v>
       </c>
@@ -6292,8 +6486,10 @@
       <c r="D109" s="8">
         <v>0.673076923076923</v>
       </c>
-      <c r="E109" s="9"/>
-      <c r="F109" s="10"/>
+      <c r="E109" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F109" s="9"/>
       <c r="G109" s="9">
         <v>0.828125</v>
       </c>
@@ -6316,8 +6512,10 @@
       <c r="D110" s="8">
         <v>0.673076923076923</v>
       </c>
-      <c r="E110" s="9"/>
-      <c r="F110" s="10"/>
+      <c r="E110" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F110" s="9"/>
       <c r="G110" s="9">
         <v>0.859375</v>
       </c>
@@ -6340,8 +6538,10 @@
       <c r="D111" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E111" s="9"/>
-      <c r="F111" s="10"/>
+      <c r="E111" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F111" s="9"/>
       <c r="G111" s="9">
         <v>0</v>
       </c>
@@ -6367,7 +6567,7 @@
       <c r="E112" s="9">
         <v>0.642857142857143</v>
       </c>
-      <c r="F112" s="10"/>
+      <c r="F112" s="9"/>
       <c r="G112" s="9">
         <v>0.84375</v>
       </c>
@@ -6390,8 +6590,12 @@
       <c r="D113" s="11">
         <v>0</v>
       </c>
-      <c r="E113" s="9"/>
-      <c r="F113" s="10"/>
+      <c r="E113" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="F113" s="9">
+        <v>0.961538461538462</v>
+      </c>
       <c r="G113" s="9">
         <v>0.84375</v>
       </c>
@@ -6417,7 +6621,7 @@
       <c r="E114" s="9">
         <v>0.642857142857143</v>
       </c>
-      <c r="F114" s="10"/>
+      <c r="F114" s="9"/>
       <c r="G114" s="9">
         <v>0.609375</v>
       </c>
@@ -6440,8 +6644,10 @@
       <c r="D115" s="11">
         <v>0</v>
       </c>
-      <c r="E115" s="9"/>
-      <c r="F115" s="10"/>
+      <c r="E115" s="9">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F115" s="9"/>
       <c r="G115" s="9">
         <v>0.90625</v>
       </c>
@@ -6469,7 +6675,7 @@
       <c r="E116" s="9">
         <v>0.75</v>
       </c>
-      <c r="F116" s="10"/>
+      <c r="F116" s="9"/>
       <c r="G116" s="9">
         <v>0.90625</v>
       </c>
@@ -6495,7 +6701,7 @@
       <c r="E117" s="9">
         <v>0.785714285714286</v>
       </c>
-      <c r="F117" s="10"/>
+      <c r="F117" s="9"/>
       <c r="G117" s="9">
         <v>0.9375</v>
       </c>
@@ -6518,8 +6724,10 @@
       <c r="D118" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E118" s="9"/>
-      <c r="F118" s="10"/>
+      <c r="E118" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F118" s="9"/>
       <c r="G118" s="9">
         <v>0.71875</v>
       </c>
@@ -6545,7 +6753,7 @@
       <c r="E119" s="9">
         <v>0.714285714285714</v>
       </c>
-      <c r="F119" s="10"/>
+      <c r="F119" s="9"/>
       <c r="G119" s="9">
         <v>0.640625</v>
       </c>
@@ -6568,8 +6776,10 @@
       <c r="D120" s="8">
         <v>0.903846153846154</v>
       </c>
-      <c r="E120" s="9"/>
-      <c r="F120" s="10"/>
+      <c r="E120" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F120" s="9"/>
       <c r="G120" s="9">
         <v>0.78125</v>
       </c>
@@ -6595,7 +6805,7 @@
       <c r="E121" s="9">
         <v>0.785714285714286</v>
       </c>
-      <c r="F121" s="10"/>
+      <c r="F121" s="9"/>
       <c r="G121" s="9">
         <v>0.859375</v>
       </c>
@@ -6618,15 +6828,19 @@
       <c r="D122" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E122" s="9"/>
-      <c r="F122" s="10"/>
+      <c r="E122" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F122" s="9"/>
       <c r="G122" s="9">
         <v>0.703125</v>
       </c>
       <c r="H122" s="9">
         <v>0.363636363636364</v>
       </c>
-      <c r="I122" s="9"/>
+      <c r="I122" s="9">
+        <v>0.514285714285714</v>
+      </c>
       <c r="J122" s="10"/>
     </row>
     <row r="123" ht="14.35" customHeight="1">
@@ -6642,8 +6856,10 @@
       <c r="D123" s="8">
         <v>0.615384615384615</v>
       </c>
-      <c r="E123" s="9"/>
-      <c r="F123" s="10"/>
+      <c r="E123" s="9">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F123" s="9"/>
       <c r="G123" s="9">
         <v>0.953125</v>
       </c>
@@ -6666,8 +6882,10 @@
       <c r="D124" s="11">
         <v>0</v>
       </c>
-      <c r="E124" s="9"/>
-      <c r="F124" s="10"/>
+      <c r="E124" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F124" s="9"/>
       <c r="G124" s="9">
         <v>0.8125</v>
       </c>
@@ -6690,8 +6908,10 @@
       <c r="D125" s="8">
         <v>0.75</v>
       </c>
-      <c r="E125" s="9"/>
-      <c r="F125" s="10"/>
+      <c r="E125" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F125" s="9"/>
       <c r="G125" s="9">
         <v>0.828125</v>
       </c>
@@ -6717,7 +6937,7 @@
       <c r="E126" s="9">
         <v>0.642857142857143</v>
       </c>
-      <c r="F126" s="10"/>
+      <c r="F126" s="9"/>
       <c r="G126" s="9">
         <v>0</v>
       </c>
@@ -6743,7 +6963,7 @@
       <c r="E127" s="9">
         <v>0.714285714285714</v>
       </c>
-      <c r="F127" s="10"/>
+      <c r="F127" s="9"/>
       <c r="G127" s="9">
         <v>0.875</v>
       </c>
@@ -6766,8 +6986,10 @@
       <c r="D128" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E128" s="9"/>
-      <c r="F128" s="10"/>
+      <c r="E128" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F128" s="9"/>
       <c r="G128" s="9">
         <v>0</v>
       </c>
@@ -6788,8 +7010,10 @@
       <c r="D129" s="11">
         <v>0</v>
       </c>
-      <c r="E129" s="9"/>
-      <c r="F129" s="10"/>
+      <c r="E129" s="9">
+        <v>0</v>
+      </c>
+      <c r="F129" s="9"/>
       <c r="G129" s="9">
         <v>0</v>
       </c>
@@ -6812,8 +7036,10 @@
       <c r="D130" s="11">
         <v>1</v>
       </c>
-      <c r="E130" s="9"/>
-      <c r="F130" s="10"/>
+      <c r="E130" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F130" s="9"/>
       <c r="G130" s="9">
         <v>0</v>
       </c>
@@ -6836,8 +7062,10 @@
       <c r="D131" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E131" s="9"/>
-      <c r="F131" s="10"/>
+      <c r="E131" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F131" s="9"/>
       <c r="G131" s="9">
         <v>0.859375</v>
       </c>
@@ -6860,8 +7088,10 @@
       <c r="D132" s="8">
         <v>0.75</v>
       </c>
-      <c r="E132" s="9"/>
-      <c r="F132" s="10"/>
+      <c r="E132" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F132" s="9"/>
       <c r="G132" s="9">
         <v>0.765625</v>
       </c>
@@ -6889,7 +7119,7 @@
       <c r="E133" s="9">
         <v>0.75</v>
       </c>
-      <c r="F133" s="10"/>
+      <c r="F133" s="9"/>
       <c r="G133" s="9">
         <v>0.96875</v>
       </c>
@@ -6914,8 +7144,10 @@
       <c r="D134" s="8">
         <v>0.903846153846154</v>
       </c>
-      <c r="E134" s="9"/>
-      <c r="F134" s="10"/>
+      <c r="E134" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F134" s="9"/>
       <c r="G134" s="9">
         <v>0.90625</v>
       </c>
@@ -6940,8 +7172,10 @@
       <c r="D135" s="8">
         <v>0.788461538461538</v>
       </c>
-      <c r="E135" s="9"/>
-      <c r="F135" s="10"/>
+      <c r="E135" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F135" s="9"/>
       <c r="G135" s="9">
         <v>0.90625</v>
       </c>
@@ -6962,8 +7196,10 @@
       <c r="D136" s="8">
         <v>0.673076923076923</v>
       </c>
-      <c r="E136" s="9"/>
-      <c r="F136" s="10"/>
+      <c r="E136" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F136" s="9"/>
       <c r="G136" s="9">
         <v>0.84375</v>
       </c>
@@ -6988,8 +7224,10 @@
       <c r="D137" s="8">
         <v>0.615384615384615</v>
       </c>
-      <c r="E137" s="9"/>
-      <c r="F137" s="10"/>
+      <c r="E137" s="9">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F137" s="9"/>
       <c r="G137" s="9">
         <v>0.90625</v>
       </c>
@@ -7012,15 +7250,19 @@
       <c r="D138" s="8">
         <v>0.846153846153846</v>
       </c>
-      <c r="E138" s="9"/>
-      <c r="F138" s="10"/>
+      <c r="E138" s="9">
+        <v>0</v>
+      </c>
+      <c r="F138" s="9"/>
       <c r="G138" s="9">
         <v>0.828125</v>
       </c>
       <c r="H138" s="9">
         <v>0.493506493506494</v>
       </c>
-      <c r="I138" s="9"/>
+      <c r="I138" s="9">
+        <v>0.585714285714286</v>
+      </c>
       <c r="J138" s="10"/>
     </row>
     <row r="139" ht="14.35" customHeight="1">
@@ -7036,8 +7278,10 @@
       <c r="D139" s="8">
         <v>0.903846153846154</v>
       </c>
-      <c r="E139" s="9"/>
-      <c r="F139" s="10"/>
+      <c r="E139" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F139" s="9"/>
       <c r="G139" s="9">
         <v>0.640625</v>
       </c>
@@ -7060,8 +7304,10 @@
       <c r="D140" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E140" s="9"/>
-      <c r="F140" s="10"/>
+      <c r="E140" s="9">
+        <v>0</v>
+      </c>
+      <c r="F140" s="9"/>
       <c r="G140" s="9">
         <v>0.84375</v>
       </c>
@@ -7089,7 +7335,7 @@
       <c r="E141" s="9">
         <v>0.821428571428571</v>
       </c>
-      <c r="F141" s="10"/>
+      <c r="F141" s="9"/>
       <c r="G141" s="9">
         <v>0.859375</v>
       </c>
@@ -7112,8 +7358,10 @@
       <c r="D142" s="11">
         <v>0</v>
       </c>
-      <c r="E142" s="9"/>
-      <c r="F142" s="10"/>
+      <c r="E142" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F142" s="9"/>
       <c r="G142" s="9">
         <v>0</v>
       </c>
@@ -7139,14 +7387,16 @@
       <c r="E143" s="9">
         <v>0.75</v>
       </c>
-      <c r="F143" s="10"/>
+      <c r="F143" s="9"/>
       <c r="G143" s="9">
         <v>0.734375</v>
       </c>
       <c r="H143" s="9">
         <v>0.350649350649351</v>
       </c>
-      <c r="I143" s="9"/>
+      <c r="I143" s="9">
+        <v>0.428571428571429</v>
+      </c>
       <c r="J143" s="10"/>
     </row>
     <row r="144" ht="14.35" customHeight="1">
@@ -7165,7 +7415,7 @@
       <c r="E144" s="9">
         <v>0.785714285714286</v>
       </c>
-      <c r="F144" s="10"/>
+      <c r="F144" s="9"/>
       <c r="G144" s="9">
         <v>0.8125</v>
       </c>
@@ -7190,8 +7440,10 @@
       <c r="D145" s="8">
         <v>0.634615384615385</v>
       </c>
-      <c r="E145" s="9"/>
-      <c r="F145" s="10"/>
+      <c r="E145" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F145" s="9"/>
       <c r="G145" s="9">
         <v>0.765625</v>
       </c>
@@ -7214,8 +7466,12 @@
       <c r="D146" s="11">
         <v>0</v>
       </c>
-      <c r="E146" s="9"/>
-      <c r="F146" s="10"/>
+      <c r="E146" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="F146" s="9">
+        <v>0.961538461538462</v>
+      </c>
       <c r="G146" s="9">
         <v>0.8125</v>
       </c>
@@ -7238,8 +7494,10 @@
       <c r="D147" s="8">
         <v>0.75</v>
       </c>
-      <c r="E147" s="9"/>
-      <c r="F147" s="10"/>
+      <c r="E147" s="9">
+        <v>0</v>
+      </c>
+      <c r="F147" s="9"/>
       <c r="G147" s="9">
         <v>0.84375</v>
       </c>
@@ -7262,8 +7520,10 @@
       <c r="D148" s="8">
         <v>0.75</v>
       </c>
-      <c r="E148" s="9"/>
-      <c r="F148" s="10"/>
+      <c r="E148" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F148" s="9"/>
       <c r="G148" s="9">
         <v>0.890625</v>
       </c>
@@ -7288,8 +7548,10 @@
       <c r="D149" s="11">
         <v>0</v>
       </c>
-      <c r="E149" s="9"/>
-      <c r="F149" s="10"/>
+      <c r="E149" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F149" s="9"/>
       <c r="G149" s="9">
         <v>0.890625</v>
       </c>
@@ -7315,7 +7577,7 @@
       <c r="E150" s="9">
         <v>0.821428571428571</v>
       </c>
-      <c r="F150" s="10"/>
+      <c r="F150" s="9"/>
       <c r="G150" s="9">
         <v>0</v>
       </c>
@@ -7336,8 +7598,10 @@
       <c r="D151" s="11">
         <v>0</v>
       </c>
-      <c r="E151" s="9"/>
-      <c r="F151" s="10"/>
+      <c r="E151" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F151" s="9"/>
       <c r="G151" s="9">
         <v>0.90625</v>
       </c>
@@ -7363,7 +7627,7 @@
       <c r="E152" s="9">
         <v>0.642857142857143</v>
       </c>
-      <c r="F152" s="10"/>
+      <c r="F152" s="9"/>
       <c r="G152" s="9">
         <v>0.71875</v>
       </c>
@@ -7389,14 +7653,16 @@
       <c r="E153" s="9">
         <v>0.821428571428571</v>
       </c>
-      <c r="F153" s="10"/>
+      <c r="F153" s="9"/>
       <c r="G153" s="9">
         <v>0.84375</v>
       </c>
       <c r="H153" s="9">
         <v>0.597402597402597</v>
       </c>
-      <c r="I153" s="9"/>
+      <c r="I153" s="9">
+        <v>0.628571428571429</v>
+      </c>
       <c r="J153" s="10"/>
     </row>
     <row r="154" ht="14.35" customHeight="1">
@@ -7415,7 +7681,7 @@
       <c r="E154" s="9">
         <v>0.714285714285714</v>
       </c>
-      <c r="F154" s="10"/>
+      <c r="F154" s="9"/>
       <c r="G154" s="9">
         <v>0.890625</v>
       </c>
@@ -7443,7 +7709,7 @@
       <c r="E155" s="9">
         <v>0.678571428571429</v>
       </c>
-      <c r="F155" s="10"/>
+      <c r="F155" s="9"/>
       <c r="G155" s="9">
         <v>0.625</v>
       </c>
@@ -7466,8 +7732,10 @@
       <c r="D156" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E156" s="9"/>
-      <c r="F156" s="10"/>
+      <c r="E156" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F156" s="9"/>
       <c r="G156" s="9">
         <v>0.765625</v>
       </c>
@@ -7493,7 +7761,7 @@
       <c r="E157" s="9">
         <v>0.785714285714286</v>
       </c>
-      <c r="F157" s="10"/>
+      <c r="F157" s="9"/>
       <c r="G157" s="9">
         <v>0.859375</v>
       </c>
@@ -7521,7 +7789,7 @@
       <c r="E158" s="9">
         <v>0.785714285714286</v>
       </c>
-      <c r="F158" s="10"/>
+      <c r="F158" s="9"/>
       <c r="G158" s="9">
         <v>0.9375</v>
       </c>
@@ -7546,8 +7814,10 @@
       <c r="D159" s="8">
         <v>0.807692307692308</v>
       </c>
-      <c r="E159" s="9"/>
-      <c r="F159" s="10"/>
+      <c r="E159" s="9">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F159" s="9"/>
       <c r="G159" s="9">
         <v>0.75</v>
       </c>
@@ -7570,14 +7840,12 @@
       <c r="D160" s="11">
         <v>0</v>
       </c>
-      <c r="E160" s="9"/>
-      <c r="F160" s="10"/>
-      <c r="G160" s="9">
-        <v>0.71875</v>
-      </c>
-      <c r="H160" s="9">
-        <v>0.493506493506494</v>
-      </c>
+      <c r="E160" s="9">
+        <v>0.678571428571429</v>
+      </c>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9"/>
       <c r="I160" s="9"/>
       <c r="J160" s="10"/>
     </row>
@@ -7595,11 +7863,15 @@
         <v>0</v>
       </c>
       <c r="E161" s="9">
-        <v>0.678571428571429</v>
-      </c>
-      <c r="F161" s="10"/>
-      <c r="G161" s="9"/>
-      <c r="H161" s="9"/>
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9">
+        <v>0.71875</v>
+      </c>
+      <c r="H161" s="9">
+        <v>0.493506493506494</v>
+      </c>
       <c r="I161" s="9"/>
       <c r="J161" s="10"/>
     </row>
@@ -7616,8 +7888,10 @@
       <c r="D162" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E162" s="9"/>
-      <c r="F162" s="10"/>
+      <c r="E162" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F162" s="9"/>
       <c r="G162" s="9">
         <v>0.666666666666667</v>
       </c>
@@ -7641,7 +7915,7 @@
       <c r="E163" s="9">
         <v>0.821428571428571</v>
       </c>
-      <c r="F163" s="10"/>
+      <c r="F163" s="9"/>
       <c r="G163" s="9">
         <v>0.84375</v>
       </c>
@@ -7666,8 +7940,10 @@
       <c r="D164" s="11">
         <v>0</v>
       </c>
-      <c r="E164" s="9"/>
-      <c r="F164" s="10"/>
+      <c r="E164" s="9">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F164" s="9"/>
       <c r="G164" s="9">
         <v>0.875</v>
       </c>
@@ -7693,7 +7969,7 @@
       <c r="E165" s="9">
         <v>0.607142857142857</v>
       </c>
-      <c r="F165" s="10"/>
+      <c r="F165" s="9"/>
       <c r="G165" s="9">
         <v>0.703125</v>
       </c>
@@ -7718,8 +7994,10 @@
       <c r="D166" s="11">
         <v>0</v>
       </c>
-      <c r="E166" s="9"/>
-      <c r="F166" s="10"/>
+      <c r="E166" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F166" s="9"/>
       <c r="G166" s="9">
         <v>0.71875</v>
       </c>
@@ -7745,7 +8023,9 @@
       <c r="E167" s="9">
         <v>0.821428571428571</v>
       </c>
-      <c r="F167" s="10"/>
+      <c r="F167" s="9">
+        <v>0.807692307692308</v>
+      </c>
       <c r="G167" s="9">
         <v>0.875</v>
       </c>
@@ -7768,8 +8048,10 @@
       <c r="D168" s="8">
         <v>1</v>
       </c>
-      <c r="E168" s="9"/>
-      <c r="F168" s="10"/>
+      <c r="E168" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F168" s="9"/>
       <c r="G168" s="9">
         <v>0.671875</v>
       </c>
@@ -7792,8 +8074,10 @@
       <c r="D169" s="8">
         <v>0.826923076923077</v>
       </c>
-      <c r="E169" s="9"/>
-      <c r="F169" s="10"/>
+      <c r="E169" s="9">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F169" s="9"/>
       <c r="G169" s="9">
         <v>0.53</v>
       </c>
@@ -7816,15 +8100,19 @@
       <c r="D170" s="11">
         <v>0</v>
       </c>
-      <c r="E170" s="9"/>
-      <c r="F170" s="10"/>
+      <c r="E170" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F170" s="9"/>
       <c r="G170" s="9">
         <v>0.90625</v>
       </c>
       <c r="H170" s="9">
         <v>0.480519480519481</v>
       </c>
-      <c r="I170" s="9"/>
+      <c r="I170" s="9">
+        <v>0.542857142857143</v>
+      </c>
       <c r="J170" s="10"/>
     </row>
     <row r="171" ht="14.35" customHeight="1">
@@ -7843,7 +8131,7 @@
       <c r="E171" s="9">
         <v>0.714285714285714</v>
       </c>
-      <c r="F171" s="10"/>
+      <c r="F171" s="9"/>
       <c r="G171" s="9">
         <v>0.8125</v>
       </c>
@@ -7866,8 +8154,10 @@
       <c r="D172" s="8">
         <v>0.711538461538462</v>
       </c>
-      <c r="E172" s="9"/>
-      <c r="F172" s="10"/>
+      <c r="E172" s="9">
+        <v>0</v>
+      </c>
+      <c r="F172" s="9"/>
       <c r="G172" s="9">
         <v>0.84375</v>
       </c>
@@ -7893,7 +8183,7 @@
       <c r="E173" s="9">
         <v>0.607142857142857</v>
       </c>
-      <c r="F173" s="10"/>
+      <c r="F173" s="9"/>
       <c r="G173" s="9">
         <v>0.765625</v>
       </c>
@@ -7919,7 +8209,7 @@
       <c r="E174" s="9">
         <v>0.642857142857143</v>
       </c>
-      <c r="F174" s="10"/>
+      <c r="F174" s="9"/>
       <c r="G174" s="9">
         <v>0.875</v>
       </c>
@@ -7945,7 +8235,9 @@
       <c r="E175" s="9">
         <v>0.821428571428571</v>
       </c>
-      <c r="F175" s="10"/>
+      <c r="F175" s="9">
+        <v>0.807692307692308</v>
+      </c>
       <c r="G175" s="9">
         <v>0.84375</v>
       </c>
@@ -7968,8 +8260,10 @@
       <c r="D176" s="11">
         <v>1</v>
       </c>
-      <c r="E176" s="9"/>
-      <c r="F176" s="10"/>
+      <c r="E176" s="9">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F176" s="9"/>
       <c r="G176" s="9">
         <v>0.875</v>
       </c>
@@ -8014,7 +8308,7 @@
     <hyperlink ref="B36" r:id="rId31" location="" tooltip="" display="H220018Y@hit.ac.zw"/>
     <hyperlink ref="B38" r:id="rId32" location="" tooltip="" display="H220476V@hit.ac.zw"/>
     <hyperlink ref="B39" r:id="rId33" location="" tooltip="" display="H220075W@hit.ac.zw"/>
-    <hyperlink ref="B41" r:id="rId34" location="" tooltip="" display="H220283P@hit.ac.zw"/>
+    <hyperlink ref="B40" r:id="rId34" location="" tooltip="" display="H220283P@hit.ac.zw"/>
     <hyperlink ref="B42" r:id="rId35" location="" tooltip="" display="H220023E@hit.ac.zw"/>
     <hyperlink ref="B43" r:id="rId36" location="" tooltip="" display="H220202J@hit.ac.zw"/>
     <hyperlink ref="B45" r:id="rId37" location="" tooltip="" display="H220431M@hit.ac.zw"/>
@@ -8120,7 +8414,7 @@
     <hyperlink ref="B157" r:id="rId137" location="" tooltip="" display="H220146J@hit.ac.zw"/>
     <hyperlink ref="B158" r:id="rId138" location="" tooltip="" display="H220179T@hit.ac.zw"/>
     <hyperlink ref="B159" r:id="rId139" location="" tooltip="" display="H220057B@hit.ac.zw"/>
-    <hyperlink ref="B160" r:id="rId140" location="" tooltip="" display="H220586J@hit.ac.zw"/>
+    <hyperlink ref="B161" r:id="rId140" location="" tooltip="" display="H220586J@hit.ac.zw"/>
     <hyperlink ref="B162" r:id="rId141" location="" tooltip="" display="H220417Y@hit.ac.zw"/>
     <hyperlink ref="B163" r:id="rId142" location="" tooltip="" display="H220553G@hit.ac.zw"/>
     <hyperlink ref="B164" r:id="rId143" location="" tooltip="" display="H220250Q@hit.ac.zw"/>

--- a/cw11042022.xlsx
+++ b/cw11042022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="360">
   <si>
     <t>Surname</t>
   </si>
@@ -1230,6 +1230,20 @@
     </r>
   </si>
   <si>
+    <t>Mataga</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>H220260C@hit.ac.zw</t>
+    </r>
+  </si>
+  <si>
     <t>Mataka</t>
   </si>
   <si>
@@ -1245,17 +1259,6 @@
   </si>
   <si>
     <t>Matanga</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>H220260C@hit.ac.zw</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2412,7 +2415,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2431,9 +2434,6 @@
     <xf numFmtId="2" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2443,10 +2443,10 @@
     <xf numFmtId="2" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -3603,4675 +3603,4755 @@
         <v>0.25974025974026</v>
       </c>
       <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" ht="14.35" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="A3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>0.75</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>0.821428571428571</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8">
         <v>0.890625</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>0.415584415584416</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>0.628571428571429</v>
       </c>
-      <c r="J3" s="10"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" ht="14.35" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="A4" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="C4" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
         <v>0.857142857142857</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8">
         <v>0.84375</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>0.545454545454545</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" ht="14.35" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="A5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="C5" t="s" s="7">
+      <c r="C5" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>0.75</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9">
+      <c r="F5" s="8">
+        <v>0.807692307692308</v>
+      </c>
+      <c r="G5" s="8">
         <v>0.9375</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>0.454545454545455</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>0.5571428571428571</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="8">
+        <f>(LARGE(D5:G5,1)+LARGE(D5:G5,2))/2*0.3+(H5+I5)/2*0.7</f>
+        <v>0.615869755244755</v>
+      </c>
     </row>
     <row r="6" ht="14.35" customHeight="1">
-      <c r="A6" t="s" s="7">
+      <c r="A6" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>0.673076923076923</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8">
         <v>0.96875</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>0.272727272727273</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" ht="14.35" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="A7" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" t="s" s="6">
         <v>24</v>
       </c>
-      <c r="C7" t="s" s="7">
+      <c r="C7" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D7" s="11">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
         <v>0.714285714285714</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8">
         <v>0.84375</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>0.441558441558442</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" ht="14.35" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="A8" t="s" s="6">
         <v>25</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" t="s" s="6">
         <v>26</v>
       </c>
-      <c r="C8" t="s" s="7">
+      <c r="C8" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>0.75</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8">
         <v>0.765625</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>0.649350649350649</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" ht="14.35" customHeight="1">
-      <c r="A9" t="s" s="7">
+      <c r="A9" t="s" s="6">
         <v>28</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="B9" t="s" s="6">
         <v>29</v>
       </c>
-      <c r="C9" t="s" s="7">
+      <c r="C9" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D9" s="11">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
         <v>0.285714285714286</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9">
+      <c r="F9" s="8">
+        <v>0.807692307692308</v>
+      </c>
+      <c r="G9" s="8">
         <v>0.671875</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>0.350649350649351</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>0.471428571428571</v>
       </c>
-      <c r="J9" s="10"/>
+      <c r="J9" s="8">
+        <f>(LARGE(D9:G9,1)+LARGE(D9:G9,2))/2*0.3+(H9+I9)/2*0.7</f>
+        <v>0.509662368881119</v>
+      </c>
     </row>
     <row r="10" ht="14.35" customHeight="1">
-      <c r="A10" t="s" s="7">
+      <c r="A10" t="s" s="6">
         <v>30</v>
       </c>
-      <c r="B10" t="s" s="7">
+      <c r="B10" t="s" s="6">
         <v>31</v>
       </c>
-      <c r="C10" t="s" s="7">
+      <c r="C10" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="D10" s="11">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
         <v>0.714285714285714</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8">
         <v>0.859375</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>0.337662337662338</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" ht="14.35" customHeight="1">
-      <c r="A11" t="s" s="7">
+      <c r="A11" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="B11" t="s" s="7">
+      <c r="B11" t="s" s="6">
         <v>33</v>
       </c>
-      <c r="C11" t="s" s="7">
+      <c r="C11" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D11" s="11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
         <v>0.75</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>0.961538461538462</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>0.796875</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>0.298701298701299</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>0.257142857142857</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="8">
         <f>(LARGE(D11:G11,1)+LARGE(D11:G11,2))/2*0.3+(H11+I11)/2*0.7</f>
         <v>0.458307473776224</v>
       </c>
     </row>
     <row r="12" ht="14.35" customHeight="1">
-      <c r="A12" t="s" s="7">
+      <c r="A12" t="s" s="6">
         <v>34</v>
       </c>
-      <c r="B12" t="s" s="7">
+      <c r="B12" t="s" s="6">
         <v>35</v>
       </c>
-      <c r="C12" t="s" s="7">
+      <c r="C12" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
         <v>0.714285714285714</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8">
         <v>0.8125</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>0.324675324675325</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>0.671428571428571</v>
       </c>
-      <c r="J12" s="10"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" ht="14.35" customHeight="1">
-      <c r="A13" t="s" s="7">
+      <c r="A13" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="B13" t="s" s="7">
+      <c r="B13" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="C13" t="s" s="7">
+      <c r="C13" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D13" s="11">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
         <v>0.857142857142857</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8">
         <v>0.921875</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>0.493506493506494</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" ht="14.35" customHeight="1">
-      <c r="A14" t="s" s="7">
+      <c r="A14" t="s" s="6">
         <v>38</v>
       </c>
-      <c r="B14" t="s" s="7">
+      <c r="B14" t="s" s="6">
         <v>39</v>
       </c>
-      <c r="C14" t="s" s="7">
+      <c r="C14" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D14" s="11">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
         <v>0.714285714285714</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>0.7692307692307691</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>0.921875</v>
       </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" ht="14.35" customHeight="1">
-      <c r="A15" t="s" s="7">
+      <c r="A15" t="s" s="6">
         <v>40</v>
       </c>
-      <c r="B15" t="s" s="7">
+      <c r="B15" t="s" s="6">
         <v>41</v>
       </c>
-      <c r="C15" t="s" s="7">
+      <c r="C15" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D15" s="11">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
         <v>0.714285714285714</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>0.7692307692307691</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>0.859375</v>
       </c>
-      <c r="H15" s="9">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" ht="14.35" customHeight="1">
-      <c r="A16" t="s" s="7">
+      <c r="A16" t="s" s="6">
         <v>42</v>
       </c>
-      <c r="B16" t="s" s="7">
+      <c r="B16" t="s" s="6">
         <v>43</v>
       </c>
-      <c r="C16" t="s" s="7">
+      <c r="C16" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="D16" s="11">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8">
         <v>0.9375</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>0.506493506493506</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" ht="14.35" customHeight="1">
-      <c r="A17" t="s" s="7">
+      <c r="A17" t="s" s="6">
         <v>44</v>
       </c>
-      <c r="B17" t="s" s="7">
+      <c r="B17" t="s" s="6">
         <v>45</v>
       </c>
-      <c r="C17" t="s" s="7">
+      <c r="C17" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>0.75</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>0.607142857142857</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9">
+      <c r="F17" s="8">
+        <v>0.807692307692308</v>
+      </c>
+      <c r="G17" s="8">
         <v>0.734375</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>0.506493506493506</v>
       </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" ht="14.35" customHeight="1">
-      <c r="A18" t="s" s="7">
+      <c r="A18" t="s" s="6">
         <v>46</v>
       </c>
-      <c r="B18" t="s" s="7">
+      <c r="B18" t="s" s="6">
         <v>47</v>
       </c>
-      <c r="C18" t="s" s="7">
+      <c r="C18" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>0.711538461538462</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8">
         <v>0.90625</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>0.623376623376623</v>
       </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" ht="14.35" customHeight="1">
-      <c r="A19" t="s" s="7">
+      <c r="A19" t="s" s="6">
         <v>48</v>
       </c>
-      <c r="B19" t="s" s="7">
+      <c r="B19" t="s" s="6">
         <v>49</v>
       </c>
-      <c r="C19" t="s" s="7">
+      <c r="C19" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>0.788461538461538</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9">
+      <c r="F19" s="8"/>
+      <c r="G19" s="8">
         <v>0.921875</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <v>0.597402597402597</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <v>0.757142857142857</v>
       </c>
-      <c r="J19" s="10"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" ht="14.35" customHeight="1">
-      <c r="A20" t="s" s="7">
+      <c r="A20" t="s" s="6">
         <v>50</v>
       </c>
-      <c r="B20" t="s" s="7">
+      <c r="B20" t="s" s="6">
         <v>51</v>
       </c>
-      <c r="C20" t="s" s="7">
+      <c r="C20" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>0.634615384615385</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9">
+      <c r="F20" s="8">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="G20" s="8">
         <v>0.640625</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <v>0.350649350649351</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="10"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" ht="14.35" customHeight="1">
-      <c r="A21" t="s" s="7">
+      <c r="A21" t="s" s="6">
         <v>52</v>
       </c>
-      <c r="B21" t="s" s="7">
+      <c r="B21" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="C21" t="s" s="7">
+      <c r="C21" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>0.673076923076923</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9">
+      <c r="F21" s="8"/>
+      <c r="G21" s="8">
         <v>0.828125</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <v>0.402597402597403</v>
       </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="10"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" ht="14.35" customHeight="1">
-      <c r="A22" t="s" s="7">
+      <c r="A22" t="s" s="6">
         <v>54</v>
       </c>
-      <c r="B22" t="s" s="7">
+      <c r="B22" t="s" s="6">
         <v>55</v>
       </c>
-      <c r="C22" t="s" s="7">
+      <c r="C22" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>0.7692307692307691</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>0.714285714285714</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9">
+      <c r="F22" s="8">
+        <v>0.884615384615385</v>
+      </c>
+      <c r="G22" s="8">
         <v>0.890625</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <v>0.441558441558442</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="8">
         <v>0.385714285714286</v>
       </c>
-      <c r="J22" s="10"/>
+      <c r="J22" s="8">
+        <f>(LARGE(D22:G22,1)+LARGE(D22:G22,2))/2*0.3+(H22+I22)/2*0.7</f>
+        <v>0.5558315122377629</v>
+      </c>
     </row>
     <row r="23" ht="14.35" customHeight="1">
-      <c r="A23" t="s" s="7">
+      <c r="A23" t="s" s="6">
         <v>56</v>
       </c>
-      <c r="B23" t="s" s="7">
+      <c r="B23" t="s" s="6">
         <v>57</v>
       </c>
-      <c r="C23" t="s" s="7">
+      <c r="C23" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>0.942307692307692</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9">
+      <c r="F23" s="8"/>
+      <c r="G23" s="8">
         <v>0.71875</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <v>0.428571428571429</v>
       </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" ht="14.35" customHeight="1">
-      <c r="A24" t="s" s="7">
+      <c r="A24" t="s" s="6">
         <v>58</v>
       </c>
-      <c r="B24" t="s" s="7">
+      <c r="B24" t="s" s="6">
         <v>59</v>
       </c>
-      <c r="C24" t="s" s="7">
+      <c r="C24" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>0.711538461538462</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9">
+      <c r="F24" s="8"/>
+      <c r="G24" s="8">
         <v>0.765625</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="8">
         <v>0.623376623376623</v>
       </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="10"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" ht="14.35" customHeight="1">
-      <c r="A25" t="s" s="7">
+      <c r="A25" t="s" s="6">
         <v>60</v>
       </c>
-      <c r="B25" t="s" s="7">
+      <c r="B25" t="s" s="6">
         <v>61</v>
       </c>
-      <c r="C25" t="s" s="7">
+      <c r="C25" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>0.711538461538462</v>
       </c>
-      <c r="E25" s="9">
-        <v>0</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9">
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8">
         <v>0.859375</v>
       </c>
-      <c r="H25" s="9">
-        <v>0</v>
-      </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="10"/>
+      <c r="H25" s="8">
+        <v>0</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" ht="14.35" customHeight="1">
-      <c r="A26" t="s" s="7">
+      <c r="A26" t="s" s="6">
         <v>62</v>
       </c>
-      <c r="B26" t="s" s="7">
+      <c r="B26" t="s" s="6">
         <v>63</v>
       </c>
-      <c r="C26" t="s" s="7">
+      <c r="C26" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>0.903846153846154</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9">
+      <c r="F26" s="8"/>
+      <c r="G26" s="8">
         <v>0.796875</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="8">
         <v>0.61038961038961</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="8">
         <v>0.6</v>
       </c>
-      <c r="J26" s="10"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" ht="14.35" customHeight="1">
-      <c r="A27" t="s" s="7">
+      <c r="A27" t="s" s="6">
         <v>64</v>
       </c>
-      <c r="B27" t="s" s="7">
+      <c r="B27" t="s" s="6">
         <v>65</v>
       </c>
-      <c r="C27" t="s" s="7">
+      <c r="C27" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D27" s="11">
-        <v>0</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="D27" s="9">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8">
         <v>0.75</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <v>0.961538461538462</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="8">
         <v>0.828125</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="8">
         <v>0.506493506493506</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="8">
         <v>0.6</v>
       </c>
-      <c r="J27" s="10"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" ht="14.35" customHeight="1">
-      <c r="A28" t="s" s="7">
+      <c r="A28" t="s" s="6">
         <v>66</v>
       </c>
-      <c r="B28" t="s" s="7">
+      <c r="B28" t="s" s="6">
         <v>67</v>
       </c>
-      <c r="C28" t="s" s="7">
+      <c r="C28" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D28" s="11">
-        <v>0</v>
-      </c>
-      <c r="E28" s="9">
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+      <c r="E28" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9">
+      <c r="F28" s="8"/>
+      <c r="G28" s="8">
         <v>0.9375</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="8">
         <v>0.545454545454545</v>
       </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" ht="14.35" customHeight="1">
-      <c r="A29" t="s" s="7">
+      <c r="A29" t="s" s="6">
         <v>68</v>
       </c>
-      <c r="B29" t="s" s="7">
+      <c r="B29" t="s" s="6">
         <v>69</v>
       </c>
-      <c r="C29" t="s" s="7">
+      <c r="C29" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D29" s="11">
-        <v>0</v>
-      </c>
-      <c r="E29" s="9">
+      <c r="D29" s="9">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8">
         <v>0.714285714285714</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9">
+      <c r="F29" s="8"/>
+      <c r="G29" s="8">
         <v>0.8125</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="8">
         <v>0.402597402597403</v>
       </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="10"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
     </row>
     <row r="30" ht="14.35" customHeight="1">
-      <c r="A30" t="s" s="7">
+      <c r="A30" t="s" s="6">
         <v>70</v>
       </c>
-      <c r="B30" t="s" s="7">
+      <c r="B30" t="s" s="6">
         <v>71</v>
       </c>
-      <c r="C30" t="s" s="7">
+      <c r="C30" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>0.788461538461538</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9">
+      <c r="F30" s="8"/>
+      <c r="G30" s="8">
         <v>0.609375</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="8">
         <v>0.233766233766234</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="8">
         <v>0.328571428571429</v>
       </c>
-      <c r="J30" s="10"/>
+      <c r="J30" s="8"/>
     </row>
     <row r="31" ht="14.35" customHeight="1">
-      <c r="A31" t="s" s="7">
+      <c r="A31" t="s" s="6">
         <v>72</v>
       </c>
-      <c r="B31" t="s" s="7">
+      <c r="B31" t="s" s="6">
         <v>73</v>
       </c>
-      <c r="C31" t="s" s="7">
+      <c r="C31" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>0.7692307692307691</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <v>0.714285714285714</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9">
+      <c r="F31" s="8"/>
+      <c r="G31" s="8">
         <v>0.828125</v>
       </c>
-      <c r="H31" s="9">
-        <v>0</v>
-      </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="10"/>
+      <c r="H31" s="8">
+        <v>0</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
     </row>
     <row r="32" ht="14.35" customHeight="1">
-      <c r="A32" t="s" s="7">
+      <c r="A32" t="s" s="6">
         <v>74</v>
       </c>
-      <c r="B32" t="s" s="7">
+      <c r="B32" t="s" s="6">
         <v>75</v>
       </c>
-      <c r="C32" t="s" s="7">
+      <c r="C32" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D32" s="11">
-        <v>0</v>
-      </c>
-      <c r="E32" s="9">
+      <c r="D32" s="9">
+        <v>0</v>
+      </c>
+      <c r="E32" s="8">
         <v>0.857142857142857</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9">
+      <c r="F32" s="8"/>
+      <c r="G32" s="8">
         <v>0.890625</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="8">
         <v>0.662337662337662</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="8">
         <v>0.857142857142857</v>
       </c>
-      <c r="J32" s="10"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" ht="14.35" customHeight="1">
-      <c r="A33" t="s" s="7">
+      <c r="A33" t="s" s="6">
         <v>76</v>
       </c>
-      <c r="B33" t="s" s="7">
+      <c r="B33" t="s" s="6">
         <v>77</v>
       </c>
-      <c r="C33" t="s" s="7">
+      <c r="C33" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>0.634615384615385</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="8">
         <v>0.75</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9">
+      <c r="F33" s="8"/>
+      <c r="G33" s="8">
         <v>0.875</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="8">
         <v>0.480519480519481</v>
       </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="10"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
     </row>
     <row r="34" ht="14.35" customHeight="1">
-      <c r="A34" t="s" s="7">
+      <c r="A34" t="s" s="6">
         <v>78</v>
       </c>
-      <c r="B34" t="s" s="7">
+      <c r="B34" t="s" s="6">
         <v>79</v>
       </c>
-      <c r="C34" t="s" s="7">
+      <c r="C34" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <v>0.692307692307692</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="8">
         <v>0.714285714285714</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9">
+      <c r="F34" s="8"/>
+      <c r="G34" s="8">
         <v>0.703125</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="8">
         <v>0.636363636363636</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="J34" s="10"/>
+      <c r="J34" s="8"/>
     </row>
     <row r="35" ht="14.35" customHeight="1">
-      <c r="A35" t="s" s="7">
+      <c r="A35" t="s" s="6">
         <v>80</v>
       </c>
-      <c r="B35" t="s" s="7">
+      <c r="B35" t="s" s="6">
         <v>81</v>
       </c>
-      <c r="C35" t="s" s="7">
+      <c r="C35" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>0.711538461538462</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9">
+      <c r="F35" s="8"/>
+      <c r="G35" s="8">
         <v>0.984375</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="8">
         <v>0.701298701298701</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="8">
         <v>0.842857142857143</v>
       </c>
-      <c r="J35" s="10"/>
+      <c r="J35" s="8"/>
     </row>
     <row r="36" ht="14.35" customHeight="1">
-      <c r="A36" t="s" s="7">
+      <c r="A36" t="s" s="6">
         <v>80</v>
       </c>
-      <c r="B36" t="s" s="7">
+      <c r="B36" t="s" s="6">
         <v>82</v>
       </c>
-      <c r="C36" t="s" s="7">
+      <c r="C36" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="9">
         <v>1</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9">
-        <v>0</v>
-      </c>
-      <c r="H36" s="9">
+      <c r="F36" s="8"/>
+      <c r="G36" s="8">
+        <v>0</v>
+      </c>
+      <c r="H36" s="8">
         <v>0.506493506493506</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="8">
         <v>0.714285714285714</v>
       </c>
-      <c r="J36" s="10"/>
+      <c r="J36" s="8"/>
     </row>
     <row r="37" ht="14.35" customHeight="1">
-      <c r="A37" t="s" s="7">
+      <c r="A37" t="s" s="6">
         <v>83</v>
       </c>
-      <c r="B37" t="s" s="7">
+      <c r="B37" t="s" s="6">
         <v>84</v>
       </c>
-      <c r="C37" t="s" s="7">
+      <c r="C37" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D37" s="11">
-        <v>0</v>
-      </c>
-      <c r="E37" s="9">
+      <c r="D37" s="9">
+        <v>0</v>
+      </c>
+      <c r="E37" s="8">
         <v>0.857142857142857</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9">
+      <c r="F37" s="8"/>
+      <c r="G37" s="8">
         <v>0.765625</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="8">
         <v>0.376623376623377</v>
       </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="10"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
     </row>
     <row r="38" ht="14.35" customHeight="1">
-      <c r="A38" t="s" s="7">
+      <c r="A38" t="s" s="6">
         <v>85</v>
       </c>
-      <c r="B38" t="s" s="7">
+      <c r="B38" t="s" s="6">
         <v>86</v>
       </c>
-      <c r="C38" t="s" s="7">
+      <c r="C38" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="D38" s="11">
-        <v>0</v>
-      </c>
-      <c r="E38" s="9">
+      <c r="D38" s="9">
+        <v>0</v>
+      </c>
+      <c r="E38" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9">
+      <c r="F38" s="8"/>
+      <c r="G38" s="8">
         <v>0.6875</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="8">
         <v>0.376623376623377</v>
       </c>
-      <c r="I38" s="9"/>
-      <c r="J38" s="10"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
     </row>
     <row r="39" ht="14.35" customHeight="1">
-      <c r="A39" t="s" s="7">
+      <c r="A39" t="s" s="6">
         <v>87</v>
       </c>
-      <c r="B39" t="s" s="7">
+      <c r="B39" t="s" s="6">
         <v>88</v>
       </c>
-      <c r="C39" t="s" s="7">
+      <c r="C39" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7">
         <v>0.75</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="8">
         <v>0.607142857142857</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9">
+      <c r="F39" s="8">
+        <v>0.807692307692308</v>
+      </c>
+      <c r="G39" s="8">
         <v>0.90625</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="8">
         <v>0.623376623376623</v>
       </c>
-      <c r="I39" s="9"/>
-      <c r="J39" s="10"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
     </row>
     <row r="40" ht="14.35" customHeight="1">
-      <c r="A40" t="s" s="7">
+      <c r="A40" t="s" s="6">
         <v>89</v>
       </c>
-      <c r="B40" t="s" s="7">
+      <c r="B40" t="s" s="6">
         <v>90</v>
       </c>
-      <c r="C40" t="s" s="7">
+      <c r="C40" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="7">
         <v>0.711538461538462</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9">
+      <c r="F40" s="8"/>
+      <c r="G40" s="8">
         <v>0.734375</v>
       </c>
-      <c r="H40" s="9">
-        <v>0</v>
-      </c>
-      <c r="I40" s="9"/>
-      <c r="J40" s="10"/>
+      <c r="H40" s="8">
+        <v>0</v>
+      </c>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
     </row>
     <row r="41" ht="14.35" customHeight="1">
-      <c r="A41" t="s" s="7">
+      <c r="A41" t="s" s="6">
         <v>89</v>
       </c>
-      <c r="B41" t="s" s="7">
+      <c r="B41" t="s" s="6">
         <v>91</v>
       </c>
-      <c r="C41" t="s" s="7">
+      <c r="C41" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="7">
         <v>0.807692307692308</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="8">
         <v>0.821428571428571</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9">
+      <c r="F41" s="8"/>
+      <c r="G41" s="8">
         <v>0.692307692307692</v>
       </c>
-      <c r="H41" s="9">
-        <v>0</v>
-      </c>
-      <c r="I41" s="9"/>
-      <c r="J41" s="10"/>
+      <c r="H41" s="8">
+        <v>0</v>
+      </c>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
     </row>
     <row r="42" ht="14.35" customHeight="1">
-      <c r="A42" t="s" s="7">
+      <c r="A42" t="s" s="6">
         <v>92</v>
       </c>
-      <c r="B42" t="s" s="7">
+      <c r="B42" t="s" s="6">
         <v>93</v>
       </c>
-      <c r="C42" t="s" s="7">
+      <c r="C42" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="7">
         <v>0.75</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="8">
         <v>0.607142857142857</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9">
+      <c r="F42" s="8">
+        <v>0.807692307692308</v>
+      </c>
+      <c r="G42" s="8">
         <v>0.8125</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="8">
         <v>0.441558441558442</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="8">
         <v>0.757142857142857</v>
       </c>
-      <c r="J42" s="10"/>
+      <c r="J42" s="8">
+        <f>(LARGE(D42:G42,1)+LARGE(D42:G42,2))/2*0.3+(H42+I42)/2*0.7</f>
+        <v>0.662574300699301</v>
+      </c>
     </row>
     <row r="43" ht="14.35" customHeight="1">
-      <c r="A43" t="s" s="7">
+      <c r="A43" t="s" s="6">
         <v>94</v>
       </c>
-      <c r="B43" t="s" s="7">
+      <c r="B43" t="s" s="6">
         <v>95</v>
       </c>
-      <c r="C43" t="s" s="7">
+      <c r="C43" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <v>0.75</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9">
+      <c r="F43" s="8"/>
+      <c r="G43" s="8">
         <v>0.75</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="8">
         <v>0.506493506493506</v>
       </c>
-      <c r="I43" s="9"/>
-      <c r="J43" s="10"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
     </row>
     <row r="44" ht="14.35" customHeight="1">
-      <c r="A44" t="s" s="7">
+      <c r="A44" t="s" s="6">
         <v>96</v>
       </c>
       <c r="B44" s="10"/>
-      <c r="C44" t="s" s="7">
+      <c r="C44" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D44" s="11">
-        <v>0</v>
-      </c>
-      <c r="E44" s="9">
+      <c r="D44" s="9">
+        <v>0</v>
+      </c>
+      <c r="E44" s="8">
         <v>0.714285714285714</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="8">
         <v>0.7692307692307691</v>
       </c>
-      <c r="G44" s="9">
-        <v>0</v>
-      </c>
-      <c r="H44" s="9">
+      <c r="G44" s="8">
+        <v>0</v>
+      </c>
+      <c r="H44" s="8">
         <v>0.168831168831169</v>
       </c>
-      <c r="I44" s="9"/>
-      <c r="J44" s="10"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
     </row>
     <row r="45" ht="14.35" customHeight="1">
-      <c r="A45" t="s" s="7">
+      <c r="A45" t="s" s="6">
         <v>97</v>
       </c>
-      <c r="B45" t="s" s="7">
+      <c r="B45" t="s" s="6">
         <v>98</v>
       </c>
-      <c r="C45" t="s" s="7">
+      <c r="C45" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D45" s="11">
-        <v>0</v>
-      </c>
-      <c r="E45" s="9">
+      <c r="D45" s="9">
+        <v>0</v>
+      </c>
+      <c r="E45" s="8">
         <v>0.857142857142857</v>
       </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9">
+      <c r="F45" s="8"/>
+      <c r="G45" s="8">
         <v>0.875</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="8">
         <v>0.597402597402597</v>
       </c>
-      <c r="I45" s="9"/>
-      <c r="J45" s="10"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
     </row>
     <row r="46" ht="14.35" customHeight="1">
-      <c r="A46" t="s" s="7">
+      <c r="A46" t="s" s="6">
         <v>99</v>
       </c>
-      <c r="B46" t="s" s="7">
+      <c r="B46" t="s" s="6">
         <v>100</v>
       </c>
-      <c r="C46" t="s" s="7">
+      <c r="C46" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="7">
         <v>0.634615384615385</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="8">
         <v>0.678571428571429</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9">
+      <c r="F46" s="8"/>
+      <c r="G46" s="8">
         <v>0.625</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="8">
         <v>0.480519480519481</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I46" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="J46" s="10"/>
+      <c r="J46" s="8"/>
     </row>
     <row r="47" ht="14.35" customHeight="1">
-      <c r="A47" t="s" s="7">
+      <c r="A47" t="s" s="6">
         <v>101</v>
       </c>
-      <c r="B47" t="s" s="7">
+      <c r="B47" t="s" s="6">
         <v>102</v>
       </c>
-      <c r="C47" t="s" s="7">
+      <c r="C47" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="7">
         <v>0.807692307692308</v>
       </c>
-      <c r="E47" s="9">
-        <v>0</v>
-      </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9">
+      <c r="E47" s="8">
+        <v>0</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8">
         <v>0.890625</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="8">
         <v>0.636363636363636</v>
       </c>
-      <c r="I47" s="9"/>
-      <c r="J47" s="10"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
     </row>
     <row r="48" ht="14.35" customHeight="1">
-      <c r="A48" t="s" s="7">
+      <c r="A48" t="s" s="6">
         <v>103</v>
       </c>
-      <c r="B48" t="s" s="7">
+      <c r="B48" t="s" s="6">
         <v>104</v>
       </c>
-      <c r="C48" t="s" s="7">
+      <c r="C48" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="7">
         <v>0.711538461538462</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="8">
         <v>0.821428571428571</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9">
+      <c r="F48" s="8"/>
+      <c r="G48" s="8">
         <v>0.8125</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="8">
         <v>0.727272727272727</v>
       </c>
-      <c r="I48" s="9"/>
-      <c r="J48" s="10"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
     </row>
     <row r="49" ht="14.35" customHeight="1">
-      <c r="A49" t="s" s="7">
+      <c r="A49" t="s" s="6">
         <v>105</v>
       </c>
-      <c r="B49" t="s" s="7">
+      <c r="B49" t="s" s="6">
         <v>106</v>
       </c>
-      <c r="C49" t="s" s="7">
+      <c r="C49" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="7">
         <v>0.788461538461538</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="8">
         <v>0.821428571428571</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="8">
         <v>0.807692307692308</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="8">
         <v>0.90625</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49" s="8">
         <v>0.454545454545455</v>
       </c>
-      <c r="I49" s="9"/>
-      <c r="J49" s="10"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
     </row>
     <row r="50" ht="14.35" customHeight="1">
-      <c r="A50" t="s" s="7">
+      <c r="A50" t="s" s="6">
         <v>107</v>
       </c>
-      <c r="B50" t="s" s="7">
+      <c r="B50" t="s" s="6">
         <v>108</v>
       </c>
-      <c r="C50" t="s" s="7">
+      <c r="C50" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D50" s="11">
-        <v>0</v>
-      </c>
-      <c r="E50" s="9">
+      <c r="D50" s="9">
+        <v>0</v>
+      </c>
+      <c r="E50" s="8">
         <v>0.857142857142857</v>
       </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9">
+      <c r="F50" s="8"/>
+      <c r="G50" s="8">
         <v>0.78125</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="8">
         <v>0.311688311688312</v>
       </c>
-      <c r="I50" s="9"/>
-      <c r="J50" s="10"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
     </row>
     <row r="51" ht="14.35" customHeight="1">
-      <c r="A51" t="s" s="7">
+      <c r="A51" t="s" s="6">
         <v>109</v>
       </c>
-      <c r="B51" t="s" s="7">
+      <c r="B51" t="s" s="6">
         <v>110</v>
       </c>
-      <c r="C51" t="s" s="7">
+      <c r="C51" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="7">
         <v>0.788461538461538</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="8">
         <v>0.821428571428571</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="8">
         <v>0.807692307692308</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="8">
         <v>0.734375</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="8">
         <v>0.493506493506494</v>
       </c>
-      <c r="I51" s="9"/>
-      <c r="J51" s="10"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
     </row>
     <row r="52" ht="14.35" customHeight="1">
-      <c r="A52" t="s" s="7">
+      <c r="A52" t="s" s="6">
         <v>111</v>
       </c>
-      <c r="B52" t="s" s="7">
+      <c r="B52" t="s" s="6">
         <v>112</v>
       </c>
       <c r="C52" s="10"/>
-      <c r="D52" s="8">
+      <c r="D52" s="7">
         <v>0.711538461538462</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9">
+      <c r="F52" s="8">
+        <v>0.846153846153846</v>
+      </c>
+      <c r="G52" s="8">
         <v>0.90625</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H52" s="8">
         <v>0.415584415584416</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I52" s="8">
         <v>0.257142857142857</v>
       </c>
-      <c r="J52" s="10"/>
+      <c r="J52" s="8">
+        <f>(LARGE(D52:G52,1)+LARGE(D52:G52,2))/2*0.3+(H52+I52)/2*0.7</f>
+        <v>0.498315122377622</v>
+      </c>
     </row>
     <row r="53" ht="14.35" customHeight="1">
-      <c r="A53" t="s" s="7">
+      <c r="A53" t="s" s="6">
         <v>113</v>
       </c>
-      <c r="B53" t="s" s="7">
+      <c r="B53" t="s" s="6">
         <v>114</v>
       </c>
-      <c r="C53" t="s" s="7">
+      <c r="C53" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="7">
         <v>0.711538461538462</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9">
+      <c r="F53" s="8"/>
+      <c r="G53" s="8">
         <v>0.734375</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H53" s="8">
         <v>0.5844155844155841</v>
       </c>
-      <c r="I53" s="9"/>
-      <c r="J53" s="10"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
     </row>
     <row r="54" ht="14.35" customHeight="1">
-      <c r="A54" t="s" s="7">
+      <c r="A54" t="s" s="6">
         <v>115</v>
       </c>
-      <c r="B54" t="s" s="7">
+      <c r="B54" t="s" s="6">
         <v>116</v>
       </c>
-      <c r="C54" t="s" s="7">
+      <c r="C54" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="7">
         <v>0.788461538461538</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9">
+      <c r="F54" s="8"/>
+      <c r="G54" s="8">
         <v>0.8125</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="8">
         <v>0.493506493506494</v>
       </c>
-      <c r="I54" s="9">
+      <c r="I54" s="8">
         <v>0.614285714285714</v>
       </c>
-      <c r="J54" s="10"/>
+      <c r="J54" s="8"/>
     </row>
     <row r="55" ht="14.35" customHeight="1">
-      <c r="A55" t="s" s="7">
+      <c r="A55" t="s" s="6">
         <v>117</v>
       </c>
-      <c r="B55" t="s" s="7">
+      <c r="B55" t="s" s="6">
         <v>118</v>
       </c>
-      <c r="C55" t="s" s="7">
+      <c r="C55" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="7">
         <v>0.634615384615385</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9">
+      <c r="F55" s="8">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="G55" s="8">
         <v>0.921875</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H55" s="8">
         <v>0.506493506493506</v>
       </c>
-      <c r="I55" s="9">
+      <c r="I55" s="8">
         <v>0.571428571428571</v>
       </c>
-      <c r="J55" s="10"/>
+      <c r="J55" s="8">
+        <f>(LARGE(D55:G55,1)+LARGE(D55:G55,2))/2*0.3+(H55+I55)/2*0.7</f>
+        <v>0.654015515734265</v>
+      </c>
     </row>
     <row r="56" ht="14.35" customHeight="1">
-      <c r="A56" t="s" s="7">
+      <c r="A56" t="s" s="6">
         <v>119</v>
       </c>
-      <c r="B56" t="s" s="7">
+      <c r="B56" t="s" s="6">
         <v>120</v>
       </c>
-      <c r="C56" t="s" s="7">
+      <c r="C56" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="7">
         <v>0.75</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9">
+      <c r="F56" s="8"/>
+      <c r="G56" s="8">
         <v>0.8125</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H56" s="8">
         <v>0.454545454545455</v>
       </c>
-      <c r="I56" s="9"/>
-      <c r="J56" s="10"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
     </row>
     <row r="57" ht="14.35" customHeight="1">
-      <c r="A57" t="s" s="7">
+      <c r="A57" t="s" s="6">
         <v>121</v>
       </c>
-      <c r="B57" t="s" s="7">
+      <c r="B57" t="s" s="6">
         <v>122</v>
       </c>
-      <c r="C57" t="s" s="7">
+      <c r="C57" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="7">
         <v>0.634615384615385</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9">
+      <c r="F57" s="8">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="G57" s="8">
         <v>0.859375</v>
       </c>
-      <c r="H57" s="9">
+      <c r="H57" s="8">
         <v>0.5844155844155841</v>
       </c>
-      <c r="I57" s="9"/>
-      <c r="J57" s="10"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
     </row>
     <row r="58" ht="14.35" customHeight="1">
-      <c r="A58" t="s" s="7">
+      <c r="A58" t="s" s="6">
         <v>123</v>
       </c>
-      <c r="B58" t="s" s="7">
+      <c r="B58" t="s" s="6">
         <v>124</v>
       </c>
-      <c r="C58" t="s" s="7">
+      <c r="C58" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="7">
         <v>0.807692307692308</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="8">
         <v>0.821428571428571</v>
       </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9">
+      <c r="F58" s="8"/>
+      <c r="G58" s="8">
         <v>0.828125</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H58" s="8">
         <v>0.61038961038961</v>
       </c>
-      <c r="I58" s="9"/>
-      <c r="J58" s="10"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
     </row>
     <row r="59" ht="14.35" customHeight="1">
-      <c r="A59" t="s" s="7">
+      <c r="A59" t="s" s="6">
         <v>125</v>
       </c>
-      <c r="B59" t="s" s="7">
+      <c r="B59" t="s" s="6">
         <v>126</v>
       </c>
-      <c r="C59" t="s" s="7">
+      <c r="C59" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="7">
         <v>0.826923076923077</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="8">
         <v>0.714285714285714</v>
       </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9">
+      <c r="F59" s="8"/>
+      <c r="G59" s="8">
         <v>0.890625</v>
       </c>
-      <c r="H59" s="9">
+      <c r="H59" s="8">
         <v>0.363636363636364</v>
       </c>
-      <c r="I59" s="9">
+      <c r="I59" s="8">
         <v>0.571428571428571</v>
       </c>
-      <c r="J59" s="10"/>
+      <c r="J59" s="8"/>
     </row>
     <row r="60" ht="14.35" customHeight="1">
-      <c r="A60" t="s" s="7">
+      <c r="A60" t="s" s="6">
         <v>127</v>
       </c>
-      <c r="B60" t="s" s="7">
+      <c r="B60" t="s" s="6">
         <v>128</v>
       </c>
-      <c r="C60" t="s" s="7">
+      <c r="C60" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D60" s="11">
-        <v>0</v>
-      </c>
-      <c r="E60" s="9">
+      <c r="D60" s="9">
+        <v>0</v>
+      </c>
+      <c r="E60" s="8">
         <v>0.714285714285714</v>
       </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9">
+      <c r="F60" s="8"/>
+      <c r="G60" s="8">
         <v>0.84375</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H60" s="8">
         <v>0.298701298701299</v>
       </c>
-      <c r="I60" s="9"/>
-      <c r="J60" s="10"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
     </row>
     <row r="61" ht="14.35" customHeight="1">
-      <c r="A61" t="s" s="7">
+      <c r="A61" t="s" s="6">
         <v>129</v>
       </c>
-      <c r="B61" t="s" s="7">
+      <c r="B61" t="s" s="6">
         <v>130</v>
       </c>
-      <c r="C61" t="s" s="7">
+      <c r="C61" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="7">
         <v>0.711538461538462</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="8">
         <v>0.678571428571429</v>
       </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9">
+      <c r="F61" s="8"/>
+      <c r="G61" s="8">
         <v>0.875</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H61" s="8">
         <v>0.519480519480519</v>
       </c>
-      <c r="I61" s="9">
+      <c r="I61" s="8">
         <v>0.5571428571428571</v>
       </c>
-      <c r="J61" s="10"/>
+      <c r="J61" s="8"/>
     </row>
     <row r="62" ht="14.35" customHeight="1">
-      <c r="A62" t="s" s="7">
+      <c r="A62" t="s" s="6">
         <v>131</v>
       </c>
-      <c r="B62" t="s" s="7">
+      <c r="B62" t="s" s="6">
         <v>132</v>
       </c>
-      <c r="C62" t="s" s="7">
+      <c r="C62" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="7">
         <v>0.711538461538462</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9">
+      <c r="F62" s="8"/>
+      <c r="G62" s="8">
         <v>1</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H62" s="8">
         <v>0.415584415584416</v>
       </c>
-      <c r="I62" s="9">
+      <c r="I62" s="8">
         <v>0.642857142857143</v>
       </c>
-      <c r="J62" s="10"/>
+      <c r="J62" s="8"/>
     </row>
     <row r="63" ht="14.35" customHeight="1">
-      <c r="A63" t="s" s="7">
+      <c r="A63" t="s" s="6">
         <v>133</v>
       </c>
-      <c r="B63" t="s" s="7">
+      <c r="B63" t="s" s="6">
         <v>134</v>
       </c>
-      <c r="C63" t="s" s="7">
+      <c r="C63" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="D63" s="11">
-        <v>0</v>
-      </c>
-      <c r="E63" s="9">
+      <c r="D63" s="9">
+        <v>0</v>
+      </c>
+      <c r="E63" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9">
+      <c r="F63" s="8"/>
+      <c r="G63" s="8">
         <v>0.84375</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H63" s="8">
         <v>0.571428571428571</v>
       </c>
-      <c r="I63" s="9"/>
-      <c r="J63" s="10"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
     </row>
     <row r="64" ht="14.35" customHeight="1">
-      <c r="A64" t="s" s="7">
+      <c r="A64" t="s" s="6">
         <v>135</v>
       </c>
-      <c r="B64" t="s" s="7">
+      <c r="B64" t="s" s="6">
         <v>136</v>
       </c>
-      <c r="C64" t="s" s="7">
+      <c r="C64" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="8">
         <v>0.821428571428571</v>
       </c>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9">
+      <c r="F64" s="8"/>
+      <c r="G64" s="8">
         <v>0.859375</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H64" s="8">
         <v>0.571428571428571</v>
       </c>
-      <c r="I64" s="9">
+      <c r="I64" s="8">
         <v>0.671428571428571</v>
       </c>
-      <c r="J64" s="10"/>
+      <c r="J64" s="8"/>
     </row>
     <row r="65" ht="14.35" customHeight="1">
-      <c r="A65" t="s" s="7">
+      <c r="A65" t="s" s="6">
         <v>137</v>
       </c>
-      <c r="B65" t="s" s="7">
+      <c r="B65" t="s" s="6">
         <v>138</v>
       </c>
-      <c r="C65" t="s" s="7">
+      <c r="C65" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="7">
         <v>0.634615384615385</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="8">
         <v>0.75</v>
       </c>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9">
-        <v>0</v>
-      </c>
-      <c r="H65" s="9">
+      <c r="F65" s="8"/>
+      <c r="G65" s="8">
+        <v>0</v>
+      </c>
+      <c r="H65" s="8">
         <v>0.350649350649351</v>
       </c>
-      <c r="I65" s="9">
+      <c r="I65" s="8">
         <v>0.485714285714286</v>
       </c>
-      <c r="J65" s="10"/>
+      <c r="J65" s="8"/>
     </row>
     <row r="66" ht="14.35" customHeight="1">
-      <c r="A66" t="s" s="7">
+      <c r="A66" t="s" s="6">
         <v>139</v>
       </c>
-      <c r="B66" t="s" s="7">
+      <c r="B66" t="s" s="6">
         <v>140</v>
       </c>
-      <c r="C66" t="s" s="7">
+      <c r="C66" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="7">
         <v>0.75</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9">
+      <c r="F66" s="8"/>
+      <c r="G66" s="8">
         <v>0.890625</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H66" s="8">
         <v>0.480519480519481</v>
       </c>
-      <c r="I66" s="9">
+      <c r="I66" s="8">
         <v>0.314285714285714</v>
       </c>
-      <c r="J66" s="10"/>
+      <c r="J66" s="8"/>
     </row>
     <row r="67" ht="14.35" customHeight="1">
-      <c r="A67" t="s" s="7">
+      <c r="A67" t="s" s="6">
         <v>141</v>
       </c>
-      <c r="B67" t="s" s="7">
+      <c r="B67" t="s" s="6">
         <v>142</v>
       </c>
-      <c r="C67" t="s" s="7">
+      <c r="C67" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="7">
         <v>0.75</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9">
+      <c r="F67" s="8"/>
+      <c r="G67" s="8">
         <v>0.875</v>
       </c>
-      <c r="H67" s="9">
+      <c r="H67" s="8">
         <v>0.61038961038961</v>
       </c>
-      <c r="I67" s="9">
+      <c r="I67" s="8">
         <v>0.642857142857143</v>
       </c>
-      <c r="J67" s="10"/>
+      <c r="J67" s="8"/>
     </row>
     <row r="68" ht="14.35" customHeight="1">
-      <c r="A68" t="s" s="7">
+      <c r="A68" t="s" s="6">
         <v>143</v>
       </c>
-      <c r="B68" t="s" s="7">
+      <c r="B68" t="s" s="6">
         <v>144</v>
       </c>
-      <c r="C68" t="s" s="7">
+      <c r="C68" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D68" s="7">
         <v>0.75</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E68" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9">
+      <c r="F68" s="8"/>
+      <c r="G68" s="8">
         <v>0.46875</v>
       </c>
-      <c r="H68" s="9">
+      <c r="H68" s="8">
         <v>0.363636363636364</v>
       </c>
-      <c r="I68" s="9">
+      <c r="I68" s="8">
         <v>0.457142857142857</v>
       </c>
-      <c r="J68" s="10"/>
+      <c r="J68" s="8"/>
     </row>
     <row r="69" ht="14.35" customHeight="1">
-      <c r="A69" t="s" s="7">
+      <c r="A69" t="s" s="6">
         <v>145</v>
       </c>
-      <c r="B69" t="s" s="7">
+      <c r="B69" t="s" s="6">
         <v>146</v>
       </c>
       <c r="C69" s="10"/>
-      <c r="D69" s="11">
-        <v>0</v>
-      </c>
-      <c r="E69" s="9">
-        <v>0</v>
-      </c>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9">
-        <v>0</v>
-      </c>
-      <c r="H69" s="9">
-        <v>0</v>
-      </c>
-      <c r="I69" s="9"/>
-      <c r="J69" s="10"/>
+      <c r="D69" s="9">
+        <v>0</v>
+      </c>
+      <c r="E69" s="8">
+        <v>0</v>
+      </c>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8">
+        <v>0</v>
+      </c>
+      <c r="H69" s="8">
+        <v>0</v>
+      </c>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
     </row>
     <row r="70" ht="14.35" customHeight="1">
-      <c r="A70" t="s" s="7">
+      <c r="A70" t="s" s="6">
         <v>147</v>
       </c>
-      <c r="B70" t="s" s="7">
+      <c r="B70" t="s" s="6">
         <v>148</v>
       </c>
-      <c r="C70" t="s" s="7">
+      <c r="C70" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D70" s="7">
         <v>0.711538461538462</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9">
+      <c r="F70" s="8"/>
+      <c r="G70" s="8">
         <v>0.90625</v>
       </c>
-      <c r="H70" s="9">
+      <c r="H70" s="8">
         <v>0.337662337662338</v>
       </c>
-      <c r="I70" s="9">
+      <c r="I70" s="8">
         <v>0.442857142857143</v>
       </c>
-      <c r="J70" s="10"/>
+      <c r="J70" s="8"/>
     </row>
     <row r="71" ht="14.35" customHeight="1">
-      <c r="A71" t="s" s="7">
+      <c r="A71" t="s" s="6">
         <v>149</v>
       </c>
-      <c r="B71" t="s" s="7">
+      <c r="B71" t="s" s="6">
         <v>150</v>
       </c>
-      <c r="C71" t="s" s="7">
+      <c r="C71" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="7">
         <v>0.923076923076923</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E71" s="8">
         <v>0.821428571428571</v>
       </c>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9">
+      <c r="F71" s="8"/>
+      <c r="G71" s="8">
         <v>0.9375</v>
       </c>
-      <c r="H71" s="9">
+      <c r="H71" s="8">
         <v>0.467532467532468</v>
       </c>
-      <c r="I71" s="9"/>
-      <c r="J71" s="10"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
     </row>
     <row r="72" ht="14.35" customHeight="1">
-      <c r="A72" t="s" s="7">
+      <c r="A72" t="s" s="6">
         <v>151</v>
       </c>
-      <c r="B72" t="s" s="7">
+      <c r="B72" t="s" s="6">
         <v>152</v>
       </c>
-      <c r="C72" t="s" s="7">
+      <c r="C72" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D72" s="9">
         <v>1</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9">
-        <v>0</v>
-      </c>
-      <c r="H72" s="9">
+      <c r="F72" s="8"/>
+      <c r="G72" s="8">
+        <v>0</v>
+      </c>
+      <c r="H72" s="8">
         <v>0.467532467532468</v>
       </c>
-      <c r="I72" s="9"/>
-      <c r="J72" s="10"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
     </row>
     <row r="73" ht="14.35" customHeight="1">
-      <c r="A73" t="s" s="7">
+      <c r="A73" t="s" s="6">
         <v>153</v>
       </c>
-      <c r="B73" t="s" s="7">
+      <c r="B73" t="s" s="6">
         <v>154</v>
       </c>
-      <c r="C73" t="s" s="7">
+      <c r="C73" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73" s="7">
         <v>0.75</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9">
+      <c r="F73" s="8"/>
+      <c r="G73" s="8">
         <v>0.84375</v>
       </c>
-      <c r="H73" s="9">
+      <c r="H73" s="8">
         <v>0.493506493506494</v>
       </c>
-      <c r="I73" s="9"/>
-      <c r="J73" s="10"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
     </row>
     <row r="74" ht="14.35" customHeight="1">
-      <c r="A74" t="s" s="7">
+      <c r="A74" t="s" s="6">
         <v>155</v>
       </c>
-      <c r="B74" t="s" s="7">
+      <c r="B74" t="s" s="6">
         <v>156</v>
       </c>
-      <c r="C74" t="s" s="7">
+      <c r="C74" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D74" s="7">
         <v>0.826923076923077</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="8">
         <v>0.714285714285714</v>
       </c>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9">
+      <c r="F74" s="8"/>
+      <c r="G74" s="8">
         <v>0.765625</v>
       </c>
-      <c r="H74" s="9">
+      <c r="H74" s="8">
         <v>0.337662337662338</v>
       </c>
-      <c r="I74" s="9"/>
-      <c r="J74" s="10"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
     </row>
     <row r="75" ht="14.35" customHeight="1">
-      <c r="A75" t="s" s="7">
+      <c r="A75" t="s" s="6">
         <v>157</v>
       </c>
-      <c r="B75" t="s" s="7">
+      <c r="B75" t="s" s="6">
         <v>158</v>
       </c>
-      <c r="C75" t="s" s="7">
+      <c r="C75" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D75" s="11">
-        <v>0</v>
-      </c>
-      <c r="E75" s="9">
+      <c r="D75" s="9">
+        <v>0</v>
+      </c>
+      <c r="E75" s="8">
         <v>0.714285714285714</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F75" s="8">
         <v>0.7692307692307691</v>
       </c>
-      <c r="G75" s="9">
-        <v>0</v>
-      </c>
-      <c r="H75" s="9">
-        <v>0</v>
-      </c>
-      <c r="I75" s="9"/>
-      <c r="J75" s="10"/>
+      <c r="G75" s="8">
+        <v>0</v>
+      </c>
+      <c r="H75" s="8">
+        <v>0</v>
+      </c>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
     </row>
     <row r="76" ht="14.35" customHeight="1">
-      <c r="A76" t="s" s="7">
+      <c r="A76" t="s" s="6">
         <v>159</v>
       </c>
-      <c r="B76" t="s" s="7">
+      <c r="B76" t="s" s="6">
         <v>160</v>
       </c>
-      <c r="C76" t="s" s="7">
+      <c r="C76" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D76" s="11">
-        <v>0</v>
-      </c>
-      <c r="E76" s="9">
+      <c r="D76" s="9">
+        <v>0</v>
+      </c>
+      <c r="E76" s="8">
         <v>0.821428571428571</v>
       </c>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9">
+      <c r="F76" s="8"/>
+      <c r="G76" s="8">
         <v>0.875</v>
       </c>
-      <c r="H76" s="9">
+      <c r="H76" s="8">
         <v>0.649350649350649</v>
       </c>
-      <c r="I76" s="9">
+      <c r="I76" s="8">
         <v>0.757142857142857</v>
       </c>
-      <c r="J76" s="10"/>
+      <c r="J76" s="8"/>
     </row>
     <row r="77" ht="14.35" customHeight="1">
-      <c r="A77" t="s" s="7">
+      <c r="A77" t="s" s="6">
         <v>161</v>
       </c>
-      <c r="B77" t="s" s="7">
+      <c r="B77" t="s" s="6">
         <v>162</v>
       </c>
-      <c r="C77" t="s" s="7">
+      <c r="C77" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D77" s="7">
         <v>0.75</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E77" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9">
+      <c r="F77" s="8"/>
+      <c r="G77" s="8">
         <v>0.671875</v>
       </c>
-      <c r="H77" s="9">
+      <c r="H77" s="8">
         <v>0.571428571428571</v>
       </c>
-      <c r="I77" s="9">
+      <c r="I77" s="8">
         <v>0.728571428571429</v>
       </c>
-      <c r="J77" s="10"/>
+      <c r="J77" s="8"/>
     </row>
     <row r="78" ht="14.35" customHeight="1">
-      <c r="A78" t="s" s="7">
+      <c r="A78" t="s" s="6">
         <v>163</v>
       </c>
-      <c r="B78" t="s" s="7">
+      <c r="B78" t="s" s="6">
         <v>164</v>
       </c>
-      <c r="C78" t="s" s="7">
+      <c r="C78" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D78" s="7">
         <v>0.942307692307692</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E78" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9">
+      <c r="F78" s="8"/>
+      <c r="G78" s="8">
         <v>0.8125</v>
       </c>
-      <c r="H78" s="9">
+      <c r="H78" s="8">
         <v>0.480519480519481</v>
       </c>
-      <c r="I78" s="9"/>
-      <c r="J78" s="10"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
     </row>
     <row r="79" ht="14.35" customHeight="1">
-      <c r="A79" t="s" s="7">
+      <c r="A79" t="s" s="6">
         <v>165</v>
       </c>
-      <c r="B79" t="s" s="7">
+      <c r="B79" t="s" s="6">
         <v>166</v>
       </c>
-      <c r="C79" t="s" s="7">
+      <c r="C79" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D79" s="7">
         <v>0.807692307692308</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E79" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9">
+      <c r="F79" s="8"/>
+      <c r="G79" s="8">
         <v>0.84375</v>
       </c>
-      <c r="H79" s="9">
+      <c r="H79" s="8">
         <v>0.493506493506494</v>
       </c>
-      <c r="I79" s="9">
+      <c r="I79" s="8">
         <v>0.757142857142857</v>
       </c>
-      <c r="J79" s="10"/>
+      <c r="J79" s="8"/>
     </row>
     <row r="80" ht="14.35" customHeight="1">
-      <c r="A80" t="s" s="7">
+      <c r="A80" t="s" s="6">
         <v>167</v>
       </c>
-      <c r="B80" t="s" s="7">
+      <c r="B80" t="s" s="6">
         <v>168</v>
       </c>
-      <c r="C80" t="s" s="7">
+      <c r="C80" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D80" s="11">
-        <v>0</v>
-      </c>
-      <c r="E80" s="9">
+      <c r="D80" s="9">
+        <v>0</v>
+      </c>
+      <c r="E80" s="8">
         <v>0.821428571428571</v>
       </c>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9">
+      <c r="F80" s="8"/>
+      <c r="G80" s="8">
         <v>0.78125</v>
       </c>
-      <c r="H80" s="9">
+      <c r="H80" s="8">
         <v>0.337662337662338</v>
       </c>
-      <c r="I80" s="9"/>
-      <c r="J80" s="10"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
     </row>
     <row r="81" ht="14.35" customHeight="1">
-      <c r="A81" t="s" s="7">
+      <c r="A81" t="s" s="6">
         <v>169</v>
       </c>
-      <c r="B81" t="s" s="7">
+      <c r="B81" t="s" s="6">
         <v>170</v>
       </c>
-      <c r="C81" t="s" s="7">
+      <c r="C81" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D81" s="7">
         <v>0.826923076923077</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E81" s="8">
         <v>0.714285714285714</v>
       </c>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9">
+      <c r="F81" s="8"/>
+      <c r="G81" s="8">
         <v>0.828125</v>
       </c>
-      <c r="H81" s="9">
+      <c r="H81" s="8">
         <v>0.519480519480519</v>
       </c>
-      <c r="I81" s="9">
+      <c r="I81" s="8">
         <v>0.614285714285714</v>
       </c>
-      <c r="J81" s="10"/>
+      <c r="J81" s="8"/>
     </row>
     <row r="82" ht="14.35" customHeight="1">
-      <c r="A82" t="s" s="7">
+      <c r="A82" t="s" s="6">
         <v>171</v>
       </c>
-      <c r="B82" t="s" s="7">
+      <c r="B82" t="s" s="6">
         <v>172</v>
       </c>
-      <c r="C82" t="s" s="7">
+      <c r="C82" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D82" s="7">
         <v>0.673076923076923</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E82" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9">
+      <c r="F82" s="8"/>
+      <c r="G82" s="8">
         <v>0.78125</v>
       </c>
-      <c r="H82" s="9">
+      <c r="H82" s="8">
         <v>0.207792207792208</v>
       </c>
-      <c r="I82" s="9"/>
-      <c r="J82" s="10"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
     </row>
     <row r="83" ht="14.35" customHeight="1">
-      <c r="A83" t="s" s="7">
+      <c r="A83" t="s" s="6">
         <v>173</v>
       </c>
-      <c r="B83" t="s" s="7">
+      <c r="B83" t="s" s="6">
         <v>174</v>
       </c>
-      <c r="C83" t="s" s="7">
+      <c r="C83" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D83" s="11">
-        <v>0</v>
-      </c>
-      <c r="E83" s="9">
+      <c r="D83" s="9">
+        <v>0</v>
+      </c>
+      <c r="E83" s="8">
         <v>0.75</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F83" s="8">
         <v>0.961538461538462</v>
       </c>
-      <c r="G83" s="9">
+      <c r="G83" s="8">
         <v>0.859375</v>
       </c>
-      <c r="H83" s="9">
+      <c r="H83" s="8">
         <v>0.363636363636364</v>
       </c>
-      <c r="I83" s="9">
+      <c r="I83" s="8">
         <v>0.742857142857143</v>
       </c>
-      <c r="J83" s="10"/>
+      <c r="J83" s="8"/>
     </row>
     <row r="84" ht="14.35" customHeight="1">
-      <c r="A84" t="s" s="7">
+      <c r="A84" t="s" s="6">
         <v>175</v>
       </c>
-      <c r="B84" t="s" s="7">
+      <c r="B84" t="s" s="6">
         <v>176</v>
       </c>
-      <c r="C84" t="s" s="7">
+      <c r="C84" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D84" s="7">
         <v>0.75</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E84" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9">
+      <c r="F84" s="8"/>
+      <c r="G84" s="8">
         <v>0.84375</v>
       </c>
-      <c r="H84" s="9">
+      <c r="H84" s="8">
         <v>0.597402597402597</v>
       </c>
-      <c r="I84" s="9"/>
-      <c r="J84" s="10"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
     </row>
     <row r="85" ht="14.35" customHeight="1">
-      <c r="A85" t="s" s="7">
+      <c r="A85" t="s" s="6">
         <v>177</v>
       </c>
-      <c r="B85" t="s" s="7">
+      <c r="B85" t="s" s="6">
         <v>178</v>
       </c>
-      <c r="C85" t="s" s="7">
+      <c r="C85" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="7">
         <v>0.826923076923077</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E85" s="8">
         <v>0.714285714285714</v>
       </c>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9">
+      <c r="F85" s="8"/>
+      <c r="G85" s="8">
         <v>0.9375</v>
       </c>
-      <c r="H85" s="9">
+      <c r="H85" s="8">
         <v>0.74025974025974</v>
       </c>
-      <c r="I85" s="9">
+      <c r="I85" s="8">
         <v>0.771428571428571</v>
       </c>
-      <c r="J85" s="10"/>
+      <c r="J85" s="8"/>
     </row>
     <row r="86" ht="14.35" customHeight="1">
-      <c r="A86" t="s" s="7">
+      <c r="A86" t="s" s="6">
         <v>179</v>
       </c>
-      <c r="B86" t="s" s="7">
+      <c r="B86" t="s" s="6">
         <v>180</v>
       </c>
-      <c r="C86" t="s" s="7">
+      <c r="C86" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D86" s="11">
-        <v>0</v>
-      </c>
-      <c r="E86" s="9">
+      <c r="D86" s="9">
+        <v>0</v>
+      </c>
+      <c r="E86" s="8">
         <v>0.857142857142857</v>
       </c>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9">
+      <c r="F86" s="8"/>
+      <c r="G86" s="8">
         <v>0.90625</v>
       </c>
-      <c r="H86" s="9">
+      <c r="H86" s="8">
         <v>0.545454545454545</v>
       </c>
-      <c r="I86" s="9">
+      <c r="I86" s="8">
         <v>0.771428571428571</v>
       </c>
-      <c r="J86" s="10"/>
+      <c r="J86" s="8"/>
     </row>
     <row r="87" ht="14.35" customHeight="1">
-      <c r="A87" t="s" s="7">
+      <c r="A87" t="s" s="6">
         <v>181</v>
       </c>
-      <c r="B87" t="s" s="7">
+      <c r="B87" t="s" s="6">
         <v>182</v>
       </c>
-      <c r="C87" t="s" s="7">
+      <c r="C87" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D87" s="7">
         <v>0.923076923076923</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E87" s="8">
         <v>0.821428571428571</v>
       </c>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9">
+      <c r="F87" s="8"/>
+      <c r="G87" s="8">
         <v>0.9375</v>
       </c>
-      <c r="H87" s="9">
+      <c r="H87" s="8">
         <v>0.220779220779221</v>
       </c>
-      <c r="I87" s="9"/>
-      <c r="J87" s="10"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
     </row>
     <row r="88" ht="14.35" customHeight="1">
-      <c r="A88" t="s" s="7">
+      <c r="A88" t="s" s="6">
         <v>183</v>
       </c>
-      <c r="B88" t="s" s="7">
+      <c r="B88" t="s" s="6">
         <v>184</v>
       </c>
-      <c r="C88" t="s" s="7">
+      <c r="C88" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D88" s="7">
         <v>0.788461538461538</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E88" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9">
+      <c r="F88" s="8"/>
+      <c r="G88" s="8">
         <v>0.859375</v>
       </c>
-      <c r="H88" s="9">
+      <c r="H88" s="8">
         <v>0.454545454545455</v>
       </c>
-      <c r="I88" s="9"/>
-      <c r="J88" s="10"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
     </row>
     <row r="89" ht="14.35" customHeight="1">
-      <c r="A89" t="s" s="7">
+      <c r="A89" t="s" s="6">
         <v>185</v>
       </c>
-      <c r="B89" t="s" s="7">
+      <c r="B89" t="s" s="6">
         <v>186</v>
       </c>
-      <c r="C89" t="s" s="7">
+      <c r="C89" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D89" s="7">
         <v>0.615384615384615</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E89" s="8">
         <v>0.821428571428571</v>
       </c>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9">
+      <c r="F89" s="8"/>
+      <c r="G89" s="8">
         <v>0.90625</v>
       </c>
-      <c r="H89" s="9">
+      <c r="H89" s="8">
         <v>0.571428571428571</v>
       </c>
-      <c r="I89" s="9">
+      <c r="I89" s="8">
         <v>0.671428571428571</v>
       </c>
-      <c r="J89" s="10"/>
+      <c r="J89" s="8"/>
     </row>
     <row r="90" ht="14.35" customHeight="1">
-      <c r="A90" t="s" s="7">
+      <c r="A90" t="s" s="6">
         <v>187</v>
       </c>
-      <c r="B90" t="s" s="7">
+      <c r="B90" t="s" s="6">
         <v>188</v>
       </c>
-      <c r="C90" t="s" s="7">
+      <c r="C90" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D90" s="11">
-        <v>0</v>
-      </c>
-      <c r="E90" s="9">
+      <c r="D90" s="9">
+        <v>0</v>
+      </c>
+      <c r="E90" s="8">
         <v>0.678571428571429</v>
       </c>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9">
+      <c r="F90" s="8"/>
+      <c r="G90" s="8">
         <v>0.953125</v>
       </c>
-      <c r="H90" s="9">
+      <c r="H90" s="8">
         <v>0.532467532467532</v>
       </c>
-      <c r="I90" s="9">
+      <c r="I90" s="8">
         <v>0.714285714285714</v>
       </c>
-      <c r="J90" s="10"/>
+      <c r="J90" s="8"/>
     </row>
     <row r="91" ht="14.35" customHeight="1">
-      <c r="A91" t="s" s="7">
+      <c r="A91" t="s" s="6">
         <v>189</v>
       </c>
-      <c r="B91" t="s" s="7">
+      <c r="B91" t="s" s="6">
         <v>190</v>
       </c>
-      <c r="C91" t="s" s="7">
+      <c r="C91" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D91" s="7">
         <v>0.788461538461538</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E91" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9">
-        <v>0</v>
-      </c>
-      <c r="H91" s="9">
+      <c r="F91" s="8"/>
+      <c r="G91" s="8">
+        <v>0</v>
+      </c>
+      <c r="H91" s="8">
         <v>0.714285714285714</v>
       </c>
-      <c r="I91" s="9">
+      <c r="I91" s="8">
         <v>0.642857142857143</v>
       </c>
-      <c r="J91" s="10"/>
+      <c r="J91" s="8"/>
     </row>
     <row r="92" ht="14.35" customHeight="1">
-      <c r="A92" t="s" s="7">
+      <c r="A92" t="s" s="6">
         <v>191</v>
       </c>
-      <c r="B92" t="s" s="7">
+      <c r="B92" t="s" s="6">
         <v>192</v>
       </c>
-      <c r="C92" t="s" s="7">
+      <c r="C92" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D92" s="7">
         <v>0.75</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E92" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9">
+      <c r="F92" s="8"/>
+      <c r="G92" s="8">
         <v>0.84375</v>
       </c>
-      <c r="H92" s="9">
+      <c r="H92" s="8">
         <v>0.636363636363636</v>
       </c>
-      <c r="I92" s="9">
+      <c r="I92" s="8">
         <v>0.4</v>
       </c>
-      <c r="J92" s="10"/>
+      <c r="J92" s="8"/>
     </row>
     <row r="93" ht="14.35" customHeight="1">
-      <c r="A93" t="s" s="7">
+      <c r="A93" t="s" s="6">
         <v>193</v>
       </c>
-      <c r="B93" t="s" s="7">
+      <c r="B93" t="s" s="6">
         <v>194</v>
       </c>
-      <c r="C93" t="s" s="7">
+      <c r="C93" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D93" s="8">
+      <c r="D93" s="7">
         <v>0.75</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E93" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9">
+      <c r="F93" s="8">
+        <v>0.807692307692308</v>
+      </c>
+      <c r="G93" s="8">
         <v>0.78125</v>
       </c>
-      <c r="H93" s="9">
+      <c r="H93" s="8">
         <v>0.597402597402597</v>
       </c>
-      <c r="I93" s="9"/>
-      <c r="J93" s="10"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
     </row>
     <row r="94" ht="14.35" customHeight="1">
-      <c r="A94" t="s" s="7">
+      <c r="A94" t="s" s="6">
         <v>195</v>
       </c>
-      <c r="B94" t="s" s="7">
+      <c r="B94" t="s" s="6">
         <v>196</v>
       </c>
-      <c r="C94" t="s" s="7">
+      <c r="C94" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D94" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E94" s="8">
+        <v>0.607142857142857</v>
+      </c>
+      <c r="F94" s="8">
+        <v>0.807692307692308</v>
+      </c>
+      <c r="G94" s="8">
+        <v>0.71875</v>
+      </c>
+      <c r="H94" s="8">
+        <v>0.558441558441558</v>
+      </c>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+    </row>
+    <row r="95" ht="14.35" customHeight="1">
+      <c r="A95" t="s" s="6">
+        <v>197</v>
+      </c>
+      <c r="B95" t="s" s="6">
+        <v>198</v>
+      </c>
+      <c r="C95" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D94" s="8">
+      <c r="D95" s="7">
         <v>0.788461538461538</v>
       </c>
-      <c r="E94" s="9">
+      <c r="E95" s="8">
         <v>0.821428571428571</v>
       </c>
-      <c r="F94" s="9">
+      <c r="F95" s="8">
         <v>0.807692307692308</v>
       </c>
-      <c r="G94" s="9">
+      <c r="G95" s="8">
         <v>0.859375</v>
       </c>
-      <c r="H94" s="9">
+      <c r="H95" s="8">
         <v>0.454545454545455</v>
       </c>
-      <c r="I94" s="9">
+      <c r="I95" s="8">
         <v>0.728571428571429</v>
       </c>
-      <c r="J94" s="11">
-        <f>(LARGE(D94:G94,1)+LARGE(D94:G94,2))/2*0.3+(H94+I94)/2*0.7</f>
+      <c r="J95" s="8">
+        <f>(LARGE(D95:G95,1)+LARGE(D95:G95,2))/2*0.3+(H95+I95)/2*0.7</f>
         <v>0.666211444805195</v>
       </c>
     </row>
-    <row r="95" ht="14.35" customHeight="1">
-      <c r="A95" t="s" s="7">
-        <v>197</v>
-      </c>
-      <c r="B95" t="s" s="7">
-        <v>198</v>
-      </c>
-      <c r="C95" t="s" s="7">
+    <row r="96" ht="14.35" customHeight="1">
+      <c r="A96" t="s" s="6">
+        <v>199</v>
+      </c>
+      <c r="B96" t="s" s="6">
+        <v>200</v>
+      </c>
+      <c r="C96" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D96" s="7">
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E96" s="8">
+        <v>0</v>
+      </c>
+      <c r="F96" s="8">
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="G96" s="8">
+        <v>0.8125</v>
+      </c>
+      <c r="H96" s="8">
+        <v>0.38961038961039</v>
+      </c>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+    </row>
+    <row r="97" ht="14.35" customHeight="1">
+      <c r="A97" t="s" s="6">
+        <v>201</v>
+      </c>
+      <c r="B97" t="s" s="6">
+        <v>202</v>
+      </c>
+      <c r="C97" t="s" s="6">
+        <v>22</v>
+      </c>
+      <c r="D97" s="7">
+        <v>0.942307692307692</v>
+      </c>
+      <c r="E97" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="H97" s="8">
+        <v>0.298701298701299</v>
+      </c>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+    </row>
+    <row r="98" ht="14.35" customHeight="1">
+      <c r="A98" t="s" s="6">
+        <v>203</v>
+      </c>
+      <c r="B98" t="s" s="6">
+        <v>204</v>
+      </c>
+      <c r="C98" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="D98" s="7">
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="E98" s="8">
+        <v>0</v>
+      </c>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8">
+        <v>0</v>
+      </c>
+      <c r="H98" s="8">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+    </row>
+    <row r="99" ht="14.35" customHeight="1">
+      <c r="A99" t="s" s="6">
+        <v>205</v>
+      </c>
+      <c r="B99" t="s" s="6">
+        <v>206</v>
+      </c>
+      <c r="C99" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="D99" s="7">
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E99" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F99" s="8">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="G99" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="H99" s="8">
+        <v>0.272727272727273</v>
+      </c>
+      <c r="I99" s="8">
+        <v>0.542857142857143</v>
+      </c>
+      <c r="J99" s="8">
+        <f>(LARGE(D99:G99,1)+LARGE(D99:G99,2))/2*0.3+(H99+I99)/2*0.7</f>
+        <v>0.555166083916084</v>
+      </c>
+    </row>
+    <row r="100" ht="14.35" customHeight="1">
+      <c r="A100" t="s" s="6">
+        <v>207</v>
+      </c>
+      <c r="B100" t="s" s="6">
+        <v>208</v>
+      </c>
+      <c r="C100" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="D100" s="7">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="E100" s="8">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8">
+        <v>0.78125</v>
+      </c>
+      <c r="H100" s="8">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I100" s="8">
+        <v>0.671428571428571</v>
+      </c>
+      <c r="J100" s="8"/>
+    </row>
+    <row r="101" ht="14.35" customHeight="1">
+      <c r="A101" t="s" s="6">
+        <v>209</v>
+      </c>
+      <c r="B101" t="s" s="6">
+        <v>210</v>
+      </c>
+      <c r="C101" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D101" s="7">
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E101" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8">
+        <v>0.78125</v>
+      </c>
+      <c r="H101" s="8">
+        <v>0.5844155844155841</v>
+      </c>
+      <c r="I101" s="8">
+        <v>0.728571428571429</v>
+      </c>
+      <c r="J101" s="8"/>
+    </row>
+    <row r="102" ht="14.35" customHeight="1">
+      <c r="A102" t="s" s="6">
+        <v>211</v>
+      </c>
+      <c r="B102" t="s" s="6">
+        <v>212</v>
+      </c>
+      <c r="C102" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D102" s="9">
+        <v>0</v>
+      </c>
+      <c r="E102" s="8">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8">
+        <v>0.84375</v>
+      </c>
+      <c r="H102" s="8">
+        <v>0</v>
+      </c>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+    </row>
+    <row r="103" ht="14.35" customHeight="1">
+      <c r="A103" t="s" s="6">
+        <v>213</v>
+      </c>
+      <c r="B103" t="s" s="6">
+        <v>214</v>
+      </c>
+      <c r="C103" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D95" s="8">
+      <c r="D103" s="7">
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E103" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8">
+        <v>0.84375</v>
+      </c>
+      <c r="H103" s="8">
+        <v>0.363636363636364</v>
+      </c>
+      <c r="I103" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J103" s="8"/>
+    </row>
+    <row r="104" ht="14.35" customHeight="1">
+      <c r="A104" t="s" s="6">
+        <v>215</v>
+      </c>
+      <c r="B104" t="s" s="6">
+        <v>216</v>
+      </c>
+      <c r="C104" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D104" s="7">
+        <v>0.442307692307692</v>
+      </c>
+      <c r="E104" s="8">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F104" s="8">
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="G104" s="8">
+        <v>0.84375</v>
+      </c>
+      <c r="H104" s="8">
+        <v>0.441558441558442</v>
+      </c>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+    </row>
+    <row r="105" ht="14.35" customHeight="1">
+      <c r="A105" t="s" s="6">
+        <v>217</v>
+      </c>
+      <c r="B105" t="s" s="6">
+        <v>218</v>
+      </c>
+      <c r="C105" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D105" s="7">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E105" s="8">
+        <v>0</v>
+      </c>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8">
+        <v>0.9375</v>
+      </c>
+      <c r="H105" s="8">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="I105" s="8">
+        <v>0.314285714285714</v>
+      </c>
+      <c r="J105" s="8"/>
+    </row>
+    <row r="106" ht="14.35" customHeight="1">
+      <c r="A106" t="s" s="6">
+        <v>219</v>
+      </c>
+      <c r="B106" t="s" s="6">
+        <v>220</v>
+      </c>
+      <c r="C106" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="D106" s="7">
+        <v>0.903846153846154</v>
+      </c>
+      <c r="E106" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8">
+        <v>0.8125</v>
+      </c>
+      <c r="H106" s="8">
+        <v>0.662337662337662</v>
+      </c>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+    </row>
+    <row r="107" ht="14.35" customHeight="1">
+      <c r="A107" t="s" s="6">
+        <v>221</v>
+      </c>
+      <c r="B107" t="s" s="6">
+        <v>222</v>
+      </c>
+      <c r="C107" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D107" s="7">
+        <v>0.807692307692308</v>
+      </c>
+      <c r="E107" s="8">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8">
+        <v>0.828125</v>
+      </c>
+      <c r="H107" s="8">
+        <v>0.597402597402597</v>
+      </c>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+    </row>
+    <row r="108" ht="14.35" customHeight="1">
+      <c r="A108" t="s" s="6">
+        <v>223</v>
+      </c>
+      <c r="B108" t="s" s="6">
+        <v>224</v>
+      </c>
+      <c r="C108" t="s" s="6">
+        <v>22</v>
+      </c>
+      <c r="D108" s="9">
+        <v>0</v>
+      </c>
+      <c r="E108" s="8">
+        <v>0.857142857142857</v>
+      </c>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8">
+        <v>0.890625</v>
+      </c>
+      <c r="H108" s="8">
+        <v>0.493506493506494</v>
+      </c>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+    </row>
+    <row r="109" ht="14.35" customHeight="1">
+      <c r="A109" t="s" s="6">
+        <v>225</v>
+      </c>
+      <c r="B109" t="s" s="6">
+        <v>226</v>
+      </c>
+      <c r="C109" t="s" s="6">
+        <v>22</v>
+      </c>
+      <c r="D109" s="7">
+        <v>0.673076923076923</v>
+      </c>
+      <c r="E109" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8">
+        <v>0.828125</v>
+      </c>
+      <c r="H109" s="8">
+        <v>0.402597402597403</v>
+      </c>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+    </row>
+    <row r="110" ht="14.35" customHeight="1">
+      <c r="A110" t="s" s="6">
+        <v>227</v>
+      </c>
+      <c r="B110" t="s" s="6">
+        <v>228</v>
+      </c>
+      <c r="C110" t="s" s="6">
+        <v>22</v>
+      </c>
+      <c r="D110" s="7">
+        <v>0.673076923076923</v>
+      </c>
+      <c r="E110" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8">
+        <v>0.859375</v>
+      </c>
+      <c r="H110" s="8">
+        <v>0.337662337662338</v>
+      </c>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+    </row>
+    <row r="111" ht="14.35" customHeight="1">
+      <c r="A111" t="s" s="6">
+        <v>229</v>
+      </c>
+      <c r="B111" t="s" s="6">
+        <v>230</v>
+      </c>
+      <c r="C111" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D111" s="7">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E111" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8">
+        <v>0</v>
+      </c>
+      <c r="H111" s="8">
+        <v>0.415584415584416</v>
+      </c>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+    </row>
+    <row r="112" ht="14.35" customHeight="1">
+      <c r="A112" t="s" s="6">
+        <v>231</v>
+      </c>
+      <c r="B112" t="s" s="6">
+        <v>232</v>
+      </c>
+      <c r="C112" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D112" s="7">
+        <v>0.846153846153846</v>
+      </c>
+      <c r="E112" s="8">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8">
+        <v>0.84375</v>
+      </c>
+      <c r="H112" s="8">
+        <v>0.38961038961039</v>
+      </c>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+    </row>
+    <row r="113" ht="14.35" customHeight="1">
+      <c r="A113" t="s" s="6">
+        <v>233</v>
+      </c>
+      <c r="B113" t="s" s="6">
+        <v>234</v>
+      </c>
+      <c r="C113" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D113" s="9">
+        <v>0</v>
+      </c>
+      <c r="E113" s="8">
         <v>0.75</v>
       </c>
-      <c r="E95" s="9">
+      <c r="F113" s="8">
+        <v>0.961538461538462</v>
+      </c>
+      <c r="G113" s="8">
+        <v>0.84375</v>
+      </c>
+      <c r="H113" s="8">
+        <v>0.376623376623377</v>
+      </c>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+    </row>
+    <row r="114" ht="14.35" customHeight="1">
+      <c r="A114" t="s" s="6">
+        <v>235</v>
+      </c>
+      <c r="B114" t="s" s="6">
+        <v>236</v>
+      </c>
+      <c r="C114" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D114" s="7">
+        <v>0.846153846153846</v>
+      </c>
+      <c r="E114" s="8">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8">
+        <v>0.609375</v>
+      </c>
+      <c r="H114" s="8">
+        <v>0.363636363636364</v>
+      </c>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+    </row>
+    <row r="115" ht="14.35" customHeight="1">
+      <c r="A115" t="s" s="6">
+        <v>237</v>
+      </c>
+      <c r="B115" t="s" s="6">
+        <v>238</v>
+      </c>
+      <c r="C115" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D115" s="9">
+        <v>0</v>
+      </c>
+      <c r="E115" s="8">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8">
+        <v>0.90625</v>
+      </c>
+      <c r="H115" s="8">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="I115" s="8">
+        <v>0.8142857142857139</v>
+      </c>
+      <c r="J115" s="8"/>
+    </row>
+    <row r="116" ht="14.35" customHeight="1">
+      <c r="A116" t="s" s="6">
+        <v>239</v>
+      </c>
+      <c r="B116" t="s" s="6">
+        <v>240</v>
+      </c>
+      <c r="C116" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="D116" s="7">
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E116" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8">
+        <v>0.90625</v>
+      </c>
+      <c r="H116" s="8">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+    </row>
+    <row r="117" ht="14.35" customHeight="1">
+      <c r="A117" t="s" s="6">
+        <v>241</v>
+      </c>
+      <c r="B117" t="s" s="6">
+        <v>242</v>
+      </c>
+      <c r="C117" t="s" s="6">
+        <v>22</v>
+      </c>
+      <c r="D117" s="7">
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E117" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F117" s="8">
+        <v>0.807692307692308</v>
+      </c>
+      <c r="G117" s="8">
+        <v>0.9375</v>
+      </c>
+      <c r="H117" s="8">
+        <v>0.701298701298701</v>
+      </c>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+    </row>
+    <row r="118" ht="14.35" customHeight="1">
+      <c r="A118" t="s" s="6">
+        <v>243</v>
+      </c>
+      <c r="B118" t="s" s="6">
+        <v>244</v>
+      </c>
+      <c r="C118" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D118" s="7">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E118" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F118" s="8">
+        <v>0.846153846153846</v>
+      </c>
+      <c r="G118" s="8">
+        <v>0.71875</v>
+      </c>
+      <c r="H118" s="8">
+        <v>0.675324675324675</v>
+      </c>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+    </row>
+    <row r="119" ht="14.35" customHeight="1">
+      <c r="A119" t="s" s="6">
+        <v>245</v>
+      </c>
+      <c r="B119" t="s" s="6">
+        <v>246</v>
+      </c>
+      <c r="C119" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D119" s="7">
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="E119" s="8">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F119" s="8">
+        <v>0.884615384615385</v>
+      </c>
+      <c r="G119" s="8">
+        <v>0.640625</v>
+      </c>
+      <c r="H119" s="8">
+        <v>0.5844155844155841</v>
+      </c>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+    </row>
+    <row r="120" ht="14.35" customHeight="1">
+      <c r="A120" t="s" s="6">
+        <v>247</v>
+      </c>
+      <c r="B120" t="s" s="6">
+        <v>248</v>
+      </c>
+      <c r="C120" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="D120" s="7">
+        <v>0.903846153846154</v>
+      </c>
+      <c r="E120" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8">
+        <v>0.78125</v>
+      </c>
+      <c r="H120" s="8">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
+    </row>
+    <row r="121" ht="14.35" customHeight="1">
+      <c r="A121" t="s" s="6">
+        <v>249</v>
+      </c>
+      <c r="B121" t="s" s="6">
+        <v>250</v>
+      </c>
+      <c r="C121" t="s" s="6">
+        <v>22</v>
+      </c>
+      <c r="D121" s="7">
+        <v>0.942307692307692</v>
+      </c>
+      <c r="E121" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8">
+        <v>0.859375</v>
+      </c>
+      <c r="H121" s="8">
+        <v>0.532467532467532</v>
+      </c>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+    </row>
+    <row r="122" ht="14.35" customHeight="1">
+      <c r="A122" t="s" s="6">
+        <v>251</v>
+      </c>
+      <c r="B122" t="s" s="6">
+        <v>252</v>
+      </c>
+      <c r="C122" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D122" s="7">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E122" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8">
+        <v>0.703125</v>
+      </c>
+      <c r="H122" s="8">
+        <v>0.363636363636364</v>
+      </c>
+      <c r="I122" s="8">
+        <v>0.514285714285714</v>
+      </c>
+      <c r="J122" s="8"/>
+    </row>
+    <row r="123" ht="14.35" customHeight="1">
+      <c r="A123" t="s" s="6">
+        <v>253</v>
+      </c>
+      <c r="B123" t="s" s="6">
+        <v>254</v>
+      </c>
+      <c r="C123" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="D123" s="7">
+        <v>0.615384615384615</v>
+      </c>
+      <c r="E123" s="8">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8">
+        <v>0.953125</v>
+      </c>
+      <c r="H123" s="8">
+        <v>0.675324675324675</v>
+      </c>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
+    </row>
+    <row r="124" ht="14.35" customHeight="1">
+      <c r="A124" t="s" s="6">
+        <v>255</v>
+      </c>
+      <c r="B124" t="s" s="6">
+        <v>256</v>
+      </c>
+      <c r="C124" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D124" s="9">
+        <v>0</v>
+      </c>
+      <c r="E124" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8">
+        <v>0.8125</v>
+      </c>
+      <c r="H124" s="8">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+    </row>
+    <row r="125" ht="14.35" customHeight="1">
+      <c r="A125" t="s" s="6">
+        <v>257</v>
+      </c>
+      <c r="B125" t="s" s="6">
+        <v>258</v>
+      </c>
+      <c r="C125" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="D125" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E125" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8">
+        <v>0.828125</v>
+      </c>
+      <c r="H125" s="8">
+        <v>0.532467532467532</v>
+      </c>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
+    </row>
+    <row r="126" ht="28.35" customHeight="1">
+      <c r="A126" t="s" s="6">
+        <v>259</v>
+      </c>
+      <c r="B126" t="s" s="6">
+        <v>260</v>
+      </c>
+      <c r="C126" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D126" s="7">
+        <v>0.846153846153846</v>
+      </c>
+      <c r="E126" s="8">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8">
+        <v>0</v>
+      </c>
+      <c r="H126" s="8">
+        <v>0.25974025974026</v>
+      </c>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
+    </row>
+    <row r="127" ht="14.35" customHeight="1">
+      <c r="A127" t="s" s="6">
+        <v>261</v>
+      </c>
+      <c r="B127" t="s" s="6">
+        <v>262</v>
+      </c>
+      <c r="C127" t="s" s="6">
+        <v>22</v>
+      </c>
+      <c r="D127" s="9">
+        <v>0</v>
+      </c>
+      <c r="E127" s="8">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="H127" s="8">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
+    </row>
+    <row r="128" ht="14.35" customHeight="1">
+      <c r="A128" t="s" s="6">
+        <v>263</v>
+      </c>
+      <c r="B128" t="s" s="6">
+        <v>264</v>
+      </c>
+      <c r="C128" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D128" s="7">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E128" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F128" s="8">
+        <v>0.846153846153846</v>
+      </c>
+      <c r="G128" s="8">
+        <v>0</v>
+      </c>
+      <c r="H128" s="8">
+        <v>0.597402597402597</v>
+      </c>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
+    </row>
+    <row r="129" ht="14.35" customHeight="1">
+      <c r="A129" t="s" s="6">
+        <v>265</v>
+      </c>
+      <c r="B129" t="s" s="6">
+        <v>266</v>
+      </c>
+      <c r="C129" s="10"/>
+      <c r="D129" s="9">
+        <v>0</v>
+      </c>
+      <c r="E129" s="8">
+        <v>0</v>
+      </c>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8">
+        <v>0</v>
+      </c>
+      <c r="H129" s="8">
+        <v>0.194805194805195</v>
+      </c>
+      <c r="I129" s="8"/>
+      <c r="J129" s="8"/>
+    </row>
+    <row r="130" ht="14.35" customHeight="1">
+      <c r="A130" t="s" s="6">
+        <v>267</v>
+      </c>
+      <c r="B130" t="s" s="6">
+        <v>268</v>
+      </c>
+      <c r="C130" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D130" s="9">
+        <v>1</v>
+      </c>
+      <c r="E130" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8">
+        <v>0</v>
+      </c>
+      <c r="H130" s="8">
+        <v>0.402597402597403</v>
+      </c>
+      <c r="I130" s="8"/>
+      <c r="J130" s="8"/>
+    </row>
+    <row r="131" ht="14.35" customHeight="1">
+      <c r="A131" t="s" s="6">
+        <v>269</v>
+      </c>
+      <c r="B131" t="s" s="6">
+        <v>270</v>
+      </c>
+      <c r="C131" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D131" s="7">
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E131" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8">
+        <v>0.859375</v>
+      </c>
+      <c r="H131" s="8">
+        <v>0.701298701298701</v>
+      </c>
+      <c r="I131" s="8"/>
+      <c r="J131" s="8"/>
+    </row>
+    <row r="132" ht="14.35" customHeight="1">
+      <c r="A132" t="s" s="6">
+        <v>271</v>
+      </c>
+      <c r="B132" t="s" s="6">
+        <v>272</v>
+      </c>
+      <c r="C132" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D132" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E132" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8">
+        <v>0.765625</v>
+      </c>
+      <c r="H132" s="8">
+        <v>0.558441558441558</v>
+      </c>
+      <c r="I132" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="J132" s="8"/>
+    </row>
+    <row r="133" ht="14.35" customHeight="1">
+      <c r="A133" t="s" s="6">
+        <v>273</v>
+      </c>
+      <c r="B133" t="s" s="6">
+        <v>274</v>
+      </c>
+      <c r="C133" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="D133" s="7">
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E133" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8">
+        <v>0.96875</v>
+      </c>
+      <c r="H133" s="8">
+        <v>0.519480519480519</v>
+      </c>
+      <c r="I133" s="8">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="J133" s="8"/>
+    </row>
+    <row r="134" ht="14.35" customHeight="1">
+      <c r="A134" t="s" s="6">
+        <v>275</v>
+      </c>
+      <c r="B134" t="s" s="6">
+        <v>276</v>
+      </c>
+      <c r="C134" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D134" s="7">
+        <v>0.903846153846154</v>
+      </c>
+      <c r="E134" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8">
+        <v>0.90625</v>
+      </c>
+      <c r="H134" s="8">
+        <v>0.61038961038961</v>
+      </c>
+      <c r="I134" s="8">
+        <v>0.728571428571429</v>
+      </c>
+      <c r="J134" s="8"/>
+    </row>
+    <row r="135" ht="14.35" customHeight="1">
+      <c r="A135" t="s" s="6">
+        <v>277</v>
+      </c>
+      <c r="B135" t="s" s="6">
+        <v>278</v>
+      </c>
+      <c r="C135" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D135" s="7">
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E135" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8">
+        <v>0.90625</v>
+      </c>
+      <c r="H135" s="8">
+        <v>0.246753246753247</v>
+      </c>
+      <c r="I135" s="8"/>
+      <c r="J135" s="8"/>
+    </row>
+    <row r="136" ht="14.35" customHeight="1">
+      <c r="A136" t="s" s="6">
+        <v>279</v>
+      </c>
+      <c r="B136" t="s" s="6">
+        <v>280</v>
+      </c>
+      <c r="C136" s="10"/>
+      <c r="D136" s="7">
+        <v>0.673076923076923</v>
+      </c>
+      <c r="E136" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8">
+        <v>0.84375</v>
+      </c>
+      <c r="H136" s="8">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I136" s="8">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="J136" s="8"/>
+    </row>
+    <row r="137" ht="14.35" customHeight="1">
+      <c r="A137" t="s" s="6">
+        <v>281</v>
+      </c>
+      <c r="B137" t="s" s="6">
+        <v>282</v>
+      </c>
+      <c r="C137" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D137" s="7">
+        <v>0.615384615384615</v>
+      </c>
+      <c r="E137" s="8">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8">
+        <v>0.90625</v>
+      </c>
+      <c r="H137" s="8">
+        <v>0.5844155844155841</v>
+      </c>
+      <c r="I137" s="8"/>
+      <c r="J137" s="8"/>
+    </row>
+    <row r="138" ht="14.35" customHeight="1">
+      <c r="A138" t="s" s="6">
+        <v>283</v>
+      </c>
+      <c r="B138" t="s" s="6">
+        <v>284</v>
+      </c>
+      <c r="C138" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D138" s="7">
+        <v>0.846153846153846</v>
+      </c>
+      <c r="E138" s="8">
+        <v>0</v>
+      </c>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8">
+        <v>0.828125</v>
+      </c>
+      <c r="H138" s="8">
+        <v>0.493506493506494</v>
+      </c>
+      <c r="I138" s="8">
+        <v>0.585714285714286</v>
+      </c>
+      <c r="J138" s="8"/>
+    </row>
+    <row r="139" ht="14.35" customHeight="1">
+      <c r="A139" t="s" s="6">
+        <v>285</v>
+      </c>
+      <c r="B139" t="s" s="6">
+        <v>286</v>
+      </c>
+      <c r="C139" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="D139" s="7">
+        <v>0.903846153846154</v>
+      </c>
+      <c r="E139" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8">
+        <v>0.640625</v>
+      </c>
+      <c r="H139" s="8">
+        <v>0.467532467532468</v>
+      </c>
+      <c r="I139" s="8"/>
+      <c r="J139" s="8"/>
+    </row>
+    <row r="140" ht="14.35" customHeight="1">
+      <c r="A140" t="s" s="6">
+        <v>287</v>
+      </c>
+      <c r="B140" t="s" s="6">
+        <v>288</v>
+      </c>
+      <c r="C140" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D140" s="7">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E140" s="8">
+        <v>0</v>
+      </c>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8">
+        <v>0.84375</v>
+      </c>
+      <c r="H140" s="8">
+        <v>0.5844155844155841</v>
+      </c>
+      <c r="I140" s="8">
+        <v>0.371428571428571</v>
+      </c>
+      <c r="J140" s="8"/>
+    </row>
+    <row r="141" ht="14.35" customHeight="1">
+      <c r="A141" t="s" s="6">
+        <v>289</v>
+      </c>
+      <c r="B141" t="s" s="6">
+        <v>290</v>
+      </c>
+      <c r="C141" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D141" s="9">
+        <v>0</v>
+      </c>
+      <c r="E141" s="8">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8">
+        <v>0.859375</v>
+      </c>
+      <c r="H141" s="8">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="I141" s="8">
+        <v>0.585714285714286</v>
+      </c>
+      <c r="J141" s="8"/>
+    </row>
+    <row r="142" ht="14.35" customHeight="1">
+      <c r="A142" t="s" s="6">
+        <v>291</v>
+      </c>
+      <c r="B142" t="s" s="6">
+        <v>292</v>
+      </c>
+      <c r="C142" s="10"/>
+      <c r="D142" s="9">
+        <v>0</v>
+      </c>
+      <c r="E142" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8">
+        <v>0</v>
+      </c>
+      <c r="H142" s="8">
+        <v>0.675324675324675</v>
+      </c>
+      <c r="I142" s="8"/>
+      <c r="J142" s="8"/>
+    </row>
+    <row r="143" ht="14.35" customHeight="1">
+      <c r="A143" t="s" s="6">
+        <v>293</v>
+      </c>
+      <c r="B143" t="s" s="6">
+        <v>294</v>
+      </c>
+      <c r="C143" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="D143" s="7">
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E143" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8">
+        <v>0.734375</v>
+      </c>
+      <c r="H143" s="8">
+        <v>0.350649350649351</v>
+      </c>
+      <c r="I143" s="8">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="J143" s="8"/>
+    </row>
+    <row r="144" ht="14.35" customHeight="1">
+      <c r="A144" t="s" s="6">
+        <v>295</v>
+      </c>
+      <c r="B144" t="s" s="6">
+        <v>296</v>
+      </c>
+      <c r="C144" t="s" s="6">
+        <v>22</v>
+      </c>
+      <c r="D144" s="7">
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E144" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F144" s="8">
+        <v>0.807692307692308</v>
+      </c>
+      <c r="G144" s="8">
+        <v>0.8125</v>
+      </c>
+      <c r="H144" s="8">
+        <v>0.506493506493506</v>
+      </c>
+      <c r="I144" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="J144" s="8">
+        <f>(LARGE(D144:G144,1)+LARGE(D144:G144,2))/2*0.3+(H144+I144)/2*0.7</f>
+        <v>0.6953015734265729</v>
+      </c>
+    </row>
+    <row r="145" ht="14.35" customHeight="1">
+      <c r="A145" t="s" s="6">
+        <v>297</v>
+      </c>
+      <c r="B145" t="s" s="6">
+        <v>298</v>
+      </c>
+      <c r="C145" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="D145" s="7">
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E145" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F145" s="8">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="G145" s="8">
+        <v>0.765625</v>
+      </c>
+      <c r="H145" s="8">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I145" s="8"/>
+      <c r="J145" s="8"/>
+    </row>
+    <row r="146" ht="14.35" customHeight="1">
+      <c r="A146" t="s" s="6">
+        <v>299</v>
+      </c>
+      <c r="B146" t="s" s="6">
+        <v>300</v>
+      </c>
+      <c r="C146" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D146" s="9">
+        <v>0</v>
+      </c>
+      <c r="E146" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="F146" s="8">
+        <v>0.961538461538462</v>
+      </c>
+      <c r="G146" s="8">
+        <v>0.8125</v>
+      </c>
+      <c r="H146" s="8">
+        <v>0.337662337662338</v>
+      </c>
+      <c r="I146" s="8"/>
+      <c r="J146" s="8"/>
+    </row>
+    <row r="147" ht="14.35" customHeight="1">
+      <c r="A147" t="s" s="6">
+        <v>301</v>
+      </c>
+      <c r="B147" t="s" s="6">
+        <v>302</v>
+      </c>
+      <c r="C147" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D147" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E147" s="8">
+        <v>0</v>
+      </c>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8">
+        <v>0.84375</v>
+      </c>
+      <c r="H147" s="8">
+        <v>0.38961038961039</v>
+      </c>
+      <c r="I147" s="8"/>
+      <c r="J147" s="8"/>
+    </row>
+    <row r="148" ht="14.35" customHeight="1">
+      <c r="A148" t="s" s="6">
+        <v>303</v>
+      </c>
+      <c r="B148" t="s" s="6">
+        <v>304</v>
+      </c>
+      <c r="C148" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="D148" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E148" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8">
+        <v>0.890625</v>
+      </c>
+      <c r="H148" s="8">
+        <v>0.493506493506494</v>
+      </c>
+      <c r="I148" s="8">
+        <v>0.657142857142857</v>
+      </c>
+      <c r="J148" s="8"/>
+    </row>
+    <row r="149" ht="14.35" customHeight="1">
+      <c r="A149" t="s" s="6">
+        <v>305</v>
+      </c>
+      <c r="B149" t="s" s="6">
+        <v>306</v>
+      </c>
+      <c r="C149" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="D149" s="9">
+        <v>0</v>
+      </c>
+      <c r="E149" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8">
+        <v>0.890625</v>
+      </c>
+      <c r="H149" s="8">
+        <v>0.597402597402597</v>
+      </c>
+      <c r="I149" s="8"/>
+      <c r="J149" s="8"/>
+    </row>
+    <row r="150" ht="14.35" customHeight="1">
+      <c r="A150" t="s" s="6">
+        <v>307</v>
+      </c>
+      <c r="B150" t="s" s="6">
+        <v>308</v>
+      </c>
+      <c r="C150" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D150" s="7">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="E150" s="8">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8">
+        <v>0</v>
+      </c>
+      <c r="H150" s="8">
+        <v>0.649350649350649</v>
+      </c>
+      <c r="I150" s="8"/>
+      <c r="J150" s="8"/>
+    </row>
+    <row r="151" ht="14.35" customHeight="1">
+      <c r="A151" t="s" s="6">
+        <v>309</v>
+      </c>
+      <c r="B151" t="s" s="6">
+        <v>310</v>
+      </c>
+      <c r="C151" s="10"/>
+      <c r="D151" s="9">
+        <v>0</v>
+      </c>
+      <c r="E151" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8">
+        <v>0.90625</v>
+      </c>
+      <c r="H151" s="8">
+        <v>0.532467532467532</v>
+      </c>
+      <c r="I151" s="8"/>
+      <c r="J151" s="8"/>
+    </row>
+    <row r="152" ht="14.35" customHeight="1">
+      <c r="A152" t="s" s="6">
+        <v>311</v>
+      </c>
+      <c r="B152" t="s" s="6">
+        <v>312</v>
+      </c>
+      <c r="C152" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D152" s="7">
+        <v>0.846153846153846</v>
+      </c>
+      <c r="E152" s="8">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8">
+        <v>0.71875</v>
+      </c>
+      <c r="H152" s="8">
+        <v>0.532467532467532</v>
+      </c>
+      <c r="I152" s="8"/>
+      <c r="J152" s="8"/>
+    </row>
+    <row r="153" ht="14.35" customHeight="1">
+      <c r="A153" t="s" s="6">
+        <v>313</v>
+      </c>
+      <c r="B153" t="s" s="6">
+        <v>314</v>
+      </c>
+      <c r="C153" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D153" s="9">
+        <v>0</v>
+      </c>
+      <c r="E153" s="8">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8">
+        <v>0.84375</v>
+      </c>
+      <c r="H153" s="8">
+        <v>0.597402597402597</v>
+      </c>
+      <c r="I153" s="8">
+        <v>0.628571428571429</v>
+      </c>
+      <c r="J153" s="8"/>
+    </row>
+    <row r="154" ht="14.35" customHeight="1">
+      <c r="A154" t="s" s="6">
+        <v>315</v>
+      </c>
+      <c r="B154" t="s" s="6">
+        <v>316</v>
+      </c>
+      <c r="C154" t="s" s="6">
+        <v>22</v>
+      </c>
+      <c r="D154" s="9">
+        <v>0</v>
+      </c>
+      <c r="E154" s="8">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8">
+        <v>0.890625</v>
+      </c>
+      <c r="H154" s="8">
+        <v>0.324675324675325</v>
+      </c>
+      <c r="I154" s="8">
+        <v>0.414285714285714</v>
+      </c>
+      <c r="J154" s="8"/>
+    </row>
+    <row r="155" ht="14.35" customHeight="1">
+      <c r="A155" t="s" s="6">
+        <v>317</v>
+      </c>
+      <c r="B155" t="s" s="6">
+        <v>318</v>
+      </c>
+      <c r="C155" t="s" s="6">
+        <v>22</v>
+      </c>
+      <c r="D155" s="7">
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E155" s="8">
+        <v>0.678571428571429</v>
+      </c>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="H155" s="8">
+        <v>0.350649350649351</v>
+      </c>
+      <c r="I155" s="8"/>
+      <c r="J155" s="8"/>
+    </row>
+    <row r="156" ht="14.35" customHeight="1">
+      <c r="A156" t="s" s="6">
+        <v>319</v>
+      </c>
+      <c r="B156" t="s" s="6">
+        <v>320</v>
+      </c>
+      <c r="C156" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D156" s="7">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E156" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F156" s="8">
+        <v>0.846153846153846</v>
+      </c>
+      <c r="G156" s="8">
+        <v>0.765625</v>
+      </c>
+      <c r="H156" s="8">
+        <v>0.506493506493506</v>
+      </c>
+      <c r="I156" s="8"/>
+      <c r="J156" s="8"/>
+    </row>
+    <row r="157" ht="14.35" customHeight="1">
+      <c r="A157" t="s" s="6">
+        <v>321</v>
+      </c>
+      <c r="B157" t="s" s="6">
+        <v>322</v>
+      </c>
+      <c r="C157" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D157" s="7">
+        <v>0.942307692307692</v>
+      </c>
+      <c r="E157" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8">
+        <v>0.859375</v>
+      </c>
+      <c r="H157" s="8">
+        <v>0.467532467532468</v>
+      </c>
+      <c r="I157" s="8">
+        <v>0.6857142857142861</v>
+      </c>
+      <c r="J157" s="8"/>
+    </row>
+    <row r="158" ht="14.35" customHeight="1">
+      <c r="A158" t="s" s="6">
+        <v>323</v>
+      </c>
+      <c r="B158" t="s" s="6">
+        <v>324</v>
+      </c>
+      <c r="C158" t="s" s="6">
+        <v>22</v>
+      </c>
+      <c r="D158" s="7">
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E158" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F158" s="8">
+        <v>0.807692307692308</v>
+      </c>
+      <c r="G158" s="8">
+        <v>0.9375</v>
+      </c>
+      <c r="H158" s="8">
+        <v>0.688311688311688</v>
+      </c>
+      <c r="I158" s="8">
+        <v>0.871428571428571</v>
+      </c>
+      <c r="J158" s="8">
+        <f>(LARGE(D158:G158,1)+LARGE(D158:G158,2))/2*0.3+(H158+I158)/2*0.7</f>
+        <v>0.807687937062937</v>
+      </c>
+    </row>
+    <row r="159" ht="14.35" customHeight="1">
+      <c r="A159" t="s" s="6">
+        <v>325</v>
+      </c>
+      <c r="B159" t="s" s="6">
+        <v>326</v>
+      </c>
+      <c r="C159" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="D159" s="7">
+        <v>0.807692307692308</v>
+      </c>
+      <c r="E159" s="8">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="H159" s="8">
+        <v>0.727272727272727</v>
+      </c>
+      <c r="I159" s="8"/>
+      <c r="J159" s="8"/>
+    </row>
+    <row r="160" ht="14.35" customHeight="1">
+      <c r="A160" t="s" s="6">
+        <v>327</v>
+      </c>
+      <c r="B160" t="s" s="6">
+        <v>328</v>
+      </c>
+      <c r="C160" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="D160" s="9">
+        <v>0</v>
+      </c>
+      <c r="E160" s="8">
+        <v>0.678571428571429</v>
+      </c>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+      <c r="H160" s="8"/>
+      <c r="I160" s="8"/>
+      <c r="J160" s="8"/>
+    </row>
+    <row r="161" ht="14.35" customHeight="1">
+      <c r="A161" t="s" s="6">
+        <v>327</v>
+      </c>
+      <c r="B161" t="s" s="6">
+        <v>329</v>
+      </c>
+      <c r="C161" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="D161" s="9">
+        <v>0</v>
+      </c>
+      <c r="E161" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8">
+        <v>0.71875</v>
+      </c>
+      <c r="H161" s="8">
+        <v>0.493506493506494</v>
+      </c>
+      <c r="I161" s="8"/>
+      <c r="J161" s="8"/>
+    </row>
+    <row r="162" ht="14.35" customHeight="1">
+      <c r="A162" t="s" s="6">
+        <v>330</v>
+      </c>
+      <c r="B162" t="s" s="6">
+        <v>331</v>
+      </c>
+      <c r="C162" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D162" s="7">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E162" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F162" s="8">
+        <v>0.846153846153846</v>
+      </c>
+      <c r="G162" s="8">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H162" s="8">
+        <v>0.61038961038961</v>
+      </c>
+      <c r="I162" s="8"/>
+      <c r="J162" s="8"/>
+    </row>
+    <row r="163" ht="14.35" customHeight="1">
+      <c r="A163" t="s" s="6">
+        <v>332</v>
+      </c>
+      <c r="B163" t="s" s="6">
+        <v>333</v>
+      </c>
+      <c r="C163" s="10"/>
+      <c r="D163" s="9">
+        <v>0</v>
+      </c>
+      <c r="E163" s="8">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8">
+        <v>0.84375</v>
+      </c>
+      <c r="H163" s="8">
+        <v>0.506493506493506</v>
+      </c>
+      <c r="I163" s="8">
+        <v>0.357142857142857</v>
+      </c>
+      <c r="J163" s="8"/>
+    </row>
+    <row r="164" ht="14.35" customHeight="1">
+      <c r="A164" t="s" s="6">
+        <v>334</v>
+      </c>
+      <c r="B164" t="s" s="6">
+        <v>335</v>
+      </c>
+      <c r="C164" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D164" s="9">
+        <v>0</v>
+      </c>
+      <c r="E164" s="8">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="H164" s="8">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="I164" s="8"/>
+      <c r="J164" s="8"/>
+    </row>
+    <row r="165" ht="14.35" customHeight="1">
+      <c r="A165" t="s" s="6">
+        <v>336</v>
+      </c>
+      <c r="B165" t="s" s="6">
+        <v>337</v>
+      </c>
+      <c r="C165" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D165" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E165" s="8">
         <v>0.607142857142857</v>
       </c>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9">
+      <c r="F165" s="8">
+        <v>0.807692307692308</v>
+      </c>
+      <c r="G165" s="8">
+        <v>0.703125</v>
+      </c>
+      <c r="H165" s="8">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="I165" s="8">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="J165" s="8">
+        <f>(LARGE(D165:G165,1)+LARGE(D165:G165,2))/2*0.3+(H165+I165)/2*0.7</f>
+        <v>0.6563811188811191</v>
+      </c>
+    </row>
+    <row r="166" ht="14.35" customHeight="1">
+      <c r="A166" t="s" s="6">
+        <v>338</v>
+      </c>
+      <c r="B166" t="s" s="6">
+        <v>339</v>
+      </c>
+      <c r="C166" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D166" s="9">
+        <v>0</v>
+      </c>
+      <c r="E166" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8">
         <v>0.71875</v>
       </c>
-      <c r="H95" s="9">
-        <v>0.558441558441558</v>
-      </c>
-      <c r="I95" s="9"/>
-      <c r="J95" s="10"/>
-    </row>
-    <row r="96" ht="14.35" customHeight="1">
-      <c r="A96" t="s" s="7">
-        <v>197</v>
-      </c>
-      <c r="B96" t="s" s="7">
-        <v>199</v>
-      </c>
-      <c r="C96" t="s" s="7">
+      <c r="H166" s="8">
+        <v>0</v>
+      </c>
+      <c r="I166" s="8"/>
+      <c r="J166" s="8"/>
+    </row>
+    <row r="167" ht="14.35" customHeight="1">
+      <c r="A167" t="s" s="6">
+        <v>340</v>
+      </c>
+      <c r="B167" t="s" s="6">
+        <v>341</v>
+      </c>
+      <c r="C167" t="s" s="6">
+        <v>22</v>
+      </c>
+      <c r="D167" s="7">
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E167" s="8">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F167" s="8">
+        <v>0.807692307692308</v>
+      </c>
+      <c r="G167" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="H167" s="8">
+        <v>0.467532467532468</v>
+      </c>
+      <c r="I167" s="8"/>
+      <c r="J167" s="8"/>
+    </row>
+    <row r="168" ht="14.35" customHeight="1">
+      <c r="A168" t="s" s="6">
+        <v>342</v>
+      </c>
+      <c r="B168" t="s" s="6">
+        <v>343</v>
+      </c>
+      <c r="C168" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="D168" s="7">
+        <v>1</v>
+      </c>
+      <c r="E168" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8">
+        <v>0.671875</v>
+      </c>
+      <c r="H168" s="8">
+        <v>0.623376623376623</v>
+      </c>
+      <c r="I168" s="8"/>
+      <c r="J168" s="8"/>
+    </row>
+    <row r="169" ht="14.35" customHeight="1">
+      <c r="A169" t="s" s="6">
+        <v>344</v>
+      </c>
+      <c r="B169" t="s" s="6">
+        <v>345</v>
+      </c>
+      <c r="C169" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="D169" s="7">
+        <v>0.826923076923077</v>
+      </c>
+      <c r="E169" s="8">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="H169" s="8">
+        <v>0.519480519480519</v>
+      </c>
+      <c r="I169" s="8"/>
+      <c r="J169" s="8"/>
+    </row>
+    <row r="170" ht="14.35" customHeight="1">
+      <c r="A170" t="s" s="6">
+        <v>346</v>
+      </c>
+      <c r="B170" t="s" s="6">
+        <v>347</v>
+      </c>
+      <c r="C170" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D96" s="8">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="E96" s="9">
-        <v>0</v>
-      </c>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9">
+      <c r="D170" s="9">
+        <v>0</v>
+      </c>
+      <c r="E170" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F170" s="8"/>
+      <c r="G170" s="8">
+        <v>0.90625</v>
+      </c>
+      <c r="H170" s="8">
+        <v>0.480519480519481</v>
+      </c>
+      <c r="I170" s="8">
+        <v>0.542857142857143</v>
+      </c>
+      <c r="J170" s="8"/>
+    </row>
+    <row r="171" ht="14.35" customHeight="1">
+      <c r="A171" t="s" s="6">
+        <v>348</v>
+      </c>
+      <c r="B171" t="s" s="6">
+        <v>349</v>
+      </c>
+      <c r="C171" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="D171" s="7">
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="E171" s="8">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F171" s="8">
+        <v>0.884615384615385</v>
+      </c>
+      <c r="G171" s="8">
         <v>0.8125</v>
       </c>
-      <c r="H96" s="9">
-        <v>0.38961038961039</v>
-      </c>
-      <c r="I96" s="9"/>
-      <c r="J96" s="10"/>
-    </row>
-    <row r="97" ht="14.35" customHeight="1">
-      <c r="A97" t="s" s="7">
-        <v>200</v>
-      </c>
-      <c r="B97" t="s" s="7">
-        <v>201</v>
-      </c>
-      <c r="C97" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="D97" s="8">
-        <v>0.942307692307692</v>
-      </c>
-      <c r="E97" s="9">
+      <c r="H171" s="8">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="I171" s="8"/>
+      <c r="J171" s="8"/>
+    </row>
+    <row r="172" ht="14.35" customHeight="1">
+      <c r="A172" t="s" s="6">
+        <v>350</v>
+      </c>
+      <c r="B172" t="s" s="6">
+        <v>351</v>
+      </c>
+      <c r="C172" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D172" s="7">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E172" s="8">
+        <v>0</v>
+      </c>
+      <c r="F172" s="8"/>
+      <c r="G172" s="8">
+        <v>0.84375</v>
+      </c>
+      <c r="H172" s="8">
+        <v>0.402597402597403</v>
+      </c>
+      <c r="I172" s="8"/>
+      <c r="J172" s="8"/>
+    </row>
+    <row r="173" ht="14.35" customHeight="1">
+      <c r="A173" t="s" s="6">
+        <v>352</v>
+      </c>
+      <c r="B173" t="s" s="6">
+        <v>353</v>
+      </c>
+      <c r="C173" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D173" s="9">
+        <v>0</v>
+      </c>
+      <c r="E173" s="8">
+        <v>0.607142857142857</v>
+      </c>
+      <c r="F173" s="8"/>
+      <c r="G173" s="8">
+        <v>0.765625</v>
+      </c>
+      <c r="H173" s="8">
+        <v>0</v>
+      </c>
+      <c r="I173" s="8"/>
+      <c r="J173" s="8"/>
+    </row>
+    <row r="174" ht="14.35" customHeight="1">
+      <c r="A174" t="s" s="6">
+        <v>354</v>
+      </c>
+      <c r="B174" t="s" s="6">
+        <v>355</v>
+      </c>
+      <c r="C174" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D174" s="7">
+        <v>0.846153846153846</v>
+      </c>
+      <c r="E174" s="8">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="F174" s="8"/>
+      <c r="G174" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="H174" s="8">
+        <v>0.532467532467532</v>
+      </c>
+      <c r="I174" s="8"/>
+      <c r="J174" s="8"/>
+    </row>
+    <row r="175" ht="14.35" customHeight="1">
+      <c r="A175" t="s" s="6">
+        <v>356</v>
+      </c>
+      <c r="B175" t="s" s="6">
+        <v>357</v>
+      </c>
+      <c r="C175" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D175" s="7">
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E175" s="8">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F175" s="8">
+        <v>0.807692307692308</v>
+      </c>
+      <c r="G175" s="8">
+        <v>0.84375</v>
+      </c>
+      <c r="H175" s="8">
+        <v>0.506493506493506</v>
+      </c>
+      <c r="I175" s="8"/>
+      <c r="J175" s="8"/>
+    </row>
+    <row r="176" ht="14.35" customHeight="1">
+      <c r="A176" t="s" s="6">
+        <v>358</v>
+      </c>
+      <c r="B176" t="s" s="6">
+        <v>359</v>
+      </c>
+      <c r="C176" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="D176" s="9">
+        <v>1</v>
+      </c>
+      <c r="E176" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9">
+      <c r="F176" s="8"/>
+      <c r="G176" s="8">
         <v>0.875</v>
       </c>
-      <c r="H97" s="9">
-        <v>0.298701298701299</v>
-      </c>
-      <c r="I97" s="9"/>
-      <c r="J97" s="10"/>
-    </row>
-    <row r="98" ht="14.35" customHeight="1">
-      <c r="A98" t="s" s="7">
-        <v>202</v>
-      </c>
-      <c r="B98" t="s" s="7">
-        <v>203</v>
-      </c>
-      <c r="C98" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D98" s="8">
-        <v>0.7692307692307691</v>
-      </c>
-      <c r="E98" s="9">
-        <v>0</v>
-      </c>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9">
-        <v>0</v>
-      </c>
-      <c r="H98" s="9">
-        <v>0.285714285714286</v>
-      </c>
-      <c r="I98" s="9"/>
-      <c r="J98" s="10"/>
-    </row>
-    <row r="99" ht="14.35" customHeight="1">
-      <c r="A99" t="s" s="7">
-        <v>204</v>
-      </c>
-      <c r="B99" t="s" s="7">
-        <v>205</v>
-      </c>
-      <c r="C99" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D99" s="8">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="E99" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9">
-        <v>0.875</v>
-      </c>
-      <c r="H99" s="9">
-        <v>0.272727272727273</v>
-      </c>
-      <c r="I99" s="9">
-        <v>0.542857142857143</v>
-      </c>
-      <c r="J99" s="10"/>
-    </row>
-    <row r="100" ht="14.35" customHeight="1">
-      <c r="A100" t="s" s="7">
-        <v>206</v>
-      </c>
-      <c r="B100" t="s" s="7">
-        <v>207</v>
-      </c>
-      <c r="C100" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D100" s="8">
-        <v>0.923076923076923</v>
-      </c>
-      <c r="E100" s="9">
-        <v>0.821428571428571</v>
-      </c>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9">
-        <v>0.78125</v>
-      </c>
-      <c r="H100" s="9">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="I100" s="9">
-        <v>0.671428571428571</v>
-      </c>
-      <c r="J100" s="10"/>
-    </row>
-    <row r="101" ht="14.35" customHeight="1">
-      <c r="A101" t="s" s="7">
-        <v>208</v>
-      </c>
-      <c r="B101" t="s" s="7">
-        <v>209</v>
-      </c>
-      <c r="C101" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D101" s="8">
-        <v>0.788461538461538</v>
-      </c>
-      <c r="E101" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9">
-        <v>0.78125</v>
-      </c>
-      <c r="H101" s="9">
-        <v>0.5844155844155841</v>
-      </c>
-      <c r="I101" s="9">
-        <v>0.728571428571429</v>
-      </c>
-      <c r="J101" s="10"/>
-    </row>
-    <row r="102" ht="14.35" customHeight="1">
-      <c r="A102" t="s" s="7">
-        <v>210</v>
-      </c>
-      <c r="B102" t="s" s="7">
-        <v>211</v>
-      </c>
-      <c r="C102" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D102" s="11">
-        <v>0</v>
-      </c>
-      <c r="E102" s="9">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9">
-        <v>0.84375</v>
-      </c>
-      <c r="H102" s="9">
-        <v>0</v>
-      </c>
-      <c r="I102" s="9"/>
-      <c r="J102" s="10"/>
-    </row>
-    <row r="103" ht="14.35" customHeight="1">
-      <c r="A103" t="s" s="7">
-        <v>212</v>
-      </c>
-      <c r="B103" t="s" s="7">
-        <v>213</v>
-      </c>
-      <c r="C103" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D103" s="8">
-        <v>0.788461538461538</v>
-      </c>
-      <c r="E103" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9">
-        <v>0.84375</v>
-      </c>
-      <c r="H103" s="9">
-        <v>0.363636363636364</v>
-      </c>
-      <c r="I103" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="J103" s="10"/>
-    </row>
-    <row r="104" ht="14.35" customHeight="1">
-      <c r="A104" t="s" s="7">
-        <v>214</v>
-      </c>
-      <c r="B104" t="s" s="7">
-        <v>215</v>
-      </c>
-      <c r="C104" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D104" s="8">
-        <v>0.442307692307692</v>
-      </c>
-      <c r="E104" s="9">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="F104" s="9">
-        <v>0.7692307692307691</v>
-      </c>
-      <c r="G104" s="9">
-        <v>0.84375</v>
-      </c>
-      <c r="H104" s="9">
-        <v>0.441558441558442</v>
-      </c>
-      <c r="I104" s="9"/>
-      <c r="J104" s="10"/>
-    </row>
-    <row r="105" ht="14.35" customHeight="1">
-      <c r="A105" t="s" s="7">
-        <v>216</v>
-      </c>
-      <c r="B105" t="s" s="7">
-        <v>217</v>
-      </c>
-      <c r="C105" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D105" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E105" s="9">
-        <v>0</v>
-      </c>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9">
-        <v>0.9375</v>
-      </c>
-      <c r="H105" s="9">
-        <v>0.428571428571429</v>
-      </c>
-      <c r="I105" s="9">
-        <v>0.314285714285714</v>
-      </c>
-      <c r="J105" s="10"/>
-    </row>
-    <row r="106" ht="14.35" customHeight="1">
-      <c r="A106" t="s" s="7">
-        <v>218</v>
-      </c>
-      <c r="B106" t="s" s="7">
-        <v>219</v>
-      </c>
-      <c r="C106" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D106" s="8">
-        <v>0.903846153846154</v>
-      </c>
-      <c r="E106" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9">
-        <v>0.8125</v>
-      </c>
-      <c r="H106" s="9">
-        <v>0.662337662337662</v>
-      </c>
-      <c r="I106" s="9"/>
-      <c r="J106" s="10"/>
-    </row>
-    <row r="107" ht="14.35" customHeight="1">
-      <c r="A107" t="s" s="7">
-        <v>220</v>
-      </c>
-      <c r="B107" t="s" s="7">
-        <v>221</v>
-      </c>
-      <c r="C107" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D107" s="8">
-        <v>0.807692307692308</v>
-      </c>
-      <c r="E107" s="9">
-        <v>0.821428571428571</v>
-      </c>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9">
-        <v>0.828125</v>
-      </c>
-      <c r="H107" s="9">
-        <v>0.597402597402597</v>
-      </c>
-      <c r="I107" s="9"/>
-      <c r="J107" s="10"/>
-    </row>
-    <row r="108" ht="14.35" customHeight="1">
-      <c r="A108" t="s" s="7">
-        <v>222</v>
-      </c>
-      <c r="B108" t="s" s="7">
-        <v>223</v>
-      </c>
-      <c r="C108" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="D108" s="11">
-        <v>0</v>
-      </c>
-      <c r="E108" s="9">
-        <v>0.857142857142857</v>
-      </c>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9">
-        <v>0.890625</v>
-      </c>
-      <c r="H108" s="9">
-        <v>0.493506493506494</v>
-      </c>
-      <c r="I108" s="9"/>
-      <c r="J108" s="10"/>
-    </row>
-    <row r="109" ht="14.35" customHeight="1">
-      <c r="A109" t="s" s="7">
-        <v>224</v>
-      </c>
-      <c r="B109" t="s" s="7">
-        <v>225</v>
-      </c>
-      <c r="C109" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="D109" s="8">
-        <v>0.673076923076923</v>
-      </c>
-      <c r="E109" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9">
-        <v>0.828125</v>
-      </c>
-      <c r="H109" s="9">
-        <v>0.402597402597403</v>
-      </c>
-      <c r="I109" s="9"/>
-      <c r="J109" s="10"/>
-    </row>
-    <row r="110" ht="14.35" customHeight="1">
-      <c r="A110" t="s" s="7">
-        <v>226</v>
-      </c>
-      <c r="B110" t="s" s="7">
-        <v>227</v>
-      </c>
-      <c r="C110" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="D110" s="8">
-        <v>0.673076923076923</v>
-      </c>
-      <c r="E110" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9">
-        <v>0.859375</v>
-      </c>
-      <c r="H110" s="9">
-        <v>0.337662337662338</v>
-      </c>
-      <c r="I110" s="9"/>
-      <c r="J110" s="10"/>
-    </row>
-    <row r="111" ht="14.35" customHeight="1">
-      <c r="A111" t="s" s="7">
-        <v>228</v>
-      </c>
-      <c r="B111" t="s" s="7">
-        <v>229</v>
-      </c>
-      <c r="C111" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D111" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E111" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9">
-        <v>0</v>
-      </c>
-      <c r="H111" s="9">
-        <v>0.415584415584416</v>
-      </c>
-      <c r="I111" s="9"/>
-      <c r="J111" s="10"/>
-    </row>
-    <row r="112" ht="14.35" customHeight="1">
-      <c r="A112" t="s" s="7">
-        <v>230</v>
-      </c>
-      <c r="B112" t="s" s="7">
-        <v>231</v>
-      </c>
-      <c r="C112" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D112" s="8">
-        <v>0.846153846153846</v>
-      </c>
-      <c r="E112" s="9">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9">
-        <v>0.84375</v>
-      </c>
-      <c r="H112" s="9">
-        <v>0.38961038961039</v>
-      </c>
-      <c r="I112" s="9"/>
-      <c r="J112" s="10"/>
-    </row>
-    <row r="113" ht="14.35" customHeight="1">
-      <c r="A113" t="s" s="7">
-        <v>232</v>
-      </c>
-      <c r="B113" t="s" s="7">
-        <v>233</v>
-      </c>
-      <c r="C113" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D113" s="11">
-        <v>0</v>
-      </c>
-      <c r="E113" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="F113" s="9">
-        <v>0.961538461538462</v>
-      </c>
-      <c r="G113" s="9">
-        <v>0.84375</v>
-      </c>
-      <c r="H113" s="9">
-        <v>0.376623376623377</v>
-      </c>
-      <c r="I113" s="9"/>
-      <c r="J113" s="10"/>
-    </row>
-    <row r="114" ht="14.35" customHeight="1">
-      <c r="A114" t="s" s="7">
-        <v>234</v>
-      </c>
-      <c r="B114" t="s" s="7">
-        <v>235</v>
-      </c>
-      <c r="C114" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D114" s="8">
-        <v>0.846153846153846</v>
-      </c>
-      <c r="E114" s="9">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9">
-        <v>0.609375</v>
-      </c>
-      <c r="H114" s="9">
-        <v>0.363636363636364</v>
-      </c>
-      <c r="I114" s="9"/>
-      <c r="J114" s="10"/>
-    </row>
-    <row r="115" ht="14.35" customHeight="1">
-      <c r="A115" t="s" s="7">
-        <v>236</v>
-      </c>
-      <c r="B115" t="s" s="7">
-        <v>237</v>
-      </c>
-      <c r="C115" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D115" s="11">
-        <v>0</v>
-      </c>
-      <c r="E115" s="9">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9">
-        <v>0.90625</v>
-      </c>
-      <c r="H115" s="9">
-        <v>0.636363636363636</v>
-      </c>
-      <c r="I115" s="9">
-        <v>0.8142857142857139</v>
-      </c>
-      <c r="J115" s="10"/>
-    </row>
-    <row r="116" ht="14.35" customHeight="1">
-      <c r="A116" t="s" s="7">
-        <v>238</v>
-      </c>
-      <c r="B116" t="s" s="7">
-        <v>239</v>
-      </c>
-      <c r="C116" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D116" s="8">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="E116" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9">
-        <v>0.90625</v>
-      </c>
-      <c r="H116" s="9">
+      <c r="H176" s="8">
         <v>0.545454545454545</v>
       </c>
-      <c r="I116" s="9"/>
-      <c r="J116" s="10"/>
-    </row>
-    <row r="117" ht="14.35" customHeight="1">
-      <c r="A117" t="s" s="7">
-        <v>240</v>
-      </c>
-      <c r="B117" t="s" s="7">
-        <v>241</v>
-      </c>
-      <c r="C117" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="D117" s="8">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="E117" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9">
-        <v>0.9375</v>
-      </c>
-      <c r="H117" s="9">
-        <v>0.701298701298701</v>
-      </c>
-      <c r="I117" s="9"/>
-      <c r="J117" s="10"/>
-    </row>
-    <row r="118" ht="14.35" customHeight="1">
-      <c r="A118" t="s" s="7">
-        <v>242</v>
-      </c>
-      <c r="B118" t="s" s="7">
-        <v>243</v>
-      </c>
-      <c r="C118" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D118" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E118" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9">
-        <v>0.71875</v>
-      </c>
-      <c r="H118" s="9">
-        <v>0.675324675324675</v>
-      </c>
-      <c r="I118" s="9"/>
-      <c r="J118" s="10"/>
-    </row>
-    <row r="119" ht="14.35" customHeight="1">
-      <c r="A119" t="s" s="7">
-        <v>244</v>
-      </c>
-      <c r="B119" t="s" s="7">
-        <v>245</v>
-      </c>
-      <c r="C119" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D119" s="8">
-        <v>0.7692307692307691</v>
-      </c>
-      <c r="E119" s="9">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9">
-        <v>0.640625</v>
-      </c>
-      <c r="H119" s="9">
-        <v>0.5844155844155841</v>
-      </c>
-      <c r="I119" s="9"/>
-      <c r="J119" s="10"/>
-    </row>
-    <row r="120" ht="14.35" customHeight="1">
-      <c r="A120" t="s" s="7">
-        <v>246</v>
-      </c>
-      <c r="B120" t="s" s="7">
-        <v>247</v>
-      </c>
-      <c r="C120" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D120" s="8">
-        <v>0.903846153846154</v>
-      </c>
-      <c r="E120" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9">
-        <v>0.78125</v>
-      </c>
-      <c r="H120" s="9">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="I120" s="9"/>
-      <c r="J120" s="10"/>
-    </row>
-    <row r="121" ht="14.35" customHeight="1">
-      <c r="A121" t="s" s="7">
-        <v>248</v>
-      </c>
-      <c r="B121" t="s" s="7">
-        <v>249</v>
-      </c>
-      <c r="C121" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="D121" s="8">
-        <v>0.942307692307692</v>
-      </c>
-      <c r="E121" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9">
-        <v>0.859375</v>
-      </c>
-      <c r="H121" s="9">
-        <v>0.532467532467532</v>
-      </c>
-      <c r="I121" s="9"/>
-      <c r="J121" s="10"/>
-    </row>
-    <row r="122" ht="14.35" customHeight="1">
-      <c r="A122" t="s" s="7">
-        <v>250</v>
-      </c>
-      <c r="B122" t="s" s="7">
-        <v>251</v>
-      </c>
-      <c r="C122" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D122" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E122" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9">
-        <v>0.703125</v>
-      </c>
-      <c r="H122" s="9">
-        <v>0.363636363636364</v>
-      </c>
-      <c r="I122" s="9">
-        <v>0.514285714285714</v>
-      </c>
-      <c r="J122" s="10"/>
-    </row>
-    <row r="123" ht="14.35" customHeight="1">
-      <c r="A123" t="s" s="7">
-        <v>252</v>
-      </c>
-      <c r="B123" t="s" s="7">
-        <v>253</v>
-      </c>
-      <c r="C123" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D123" s="8">
-        <v>0.615384615384615</v>
-      </c>
-      <c r="E123" s="9">
-        <v>0.821428571428571</v>
-      </c>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9">
-        <v>0.953125</v>
-      </c>
-      <c r="H123" s="9">
-        <v>0.675324675324675</v>
-      </c>
-      <c r="I123" s="9"/>
-      <c r="J123" s="10"/>
-    </row>
-    <row r="124" ht="14.35" customHeight="1">
-      <c r="A124" t="s" s="7">
-        <v>254</v>
-      </c>
-      <c r="B124" t="s" s="7">
-        <v>255</v>
-      </c>
-      <c r="C124" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D124" s="11">
-        <v>0</v>
-      </c>
-      <c r="E124" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9">
-        <v>0.8125</v>
-      </c>
-      <c r="H124" s="9">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="I124" s="9"/>
-      <c r="J124" s="10"/>
-    </row>
-    <row r="125" ht="14.35" customHeight="1">
-      <c r="A125" t="s" s="7">
-        <v>256</v>
-      </c>
-      <c r="B125" t="s" s="7">
-        <v>257</v>
-      </c>
-      <c r="C125" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D125" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E125" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9">
-        <v>0.828125</v>
-      </c>
-      <c r="H125" s="9">
-        <v>0.532467532467532</v>
-      </c>
-      <c r="I125" s="9"/>
-      <c r="J125" s="10"/>
-    </row>
-    <row r="126" ht="28.35" customHeight="1">
-      <c r="A126" t="s" s="7">
-        <v>258</v>
-      </c>
-      <c r="B126" t="s" s="7">
-        <v>259</v>
-      </c>
-      <c r="C126" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D126" s="8">
-        <v>0.846153846153846</v>
-      </c>
-      <c r="E126" s="9">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9">
-        <v>0</v>
-      </c>
-      <c r="H126" s="9">
-        <v>0.25974025974026</v>
-      </c>
-      <c r="I126" s="9"/>
-      <c r="J126" s="10"/>
-    </row>
-    <row r="127" ht="14.35" customHeight="1">
-      <c r="A127" t="s" s="7">
-        <v>260</v>
-      </c>
-      <c r="B127" t="s" s="7">
-        <v>261</v>
-      </c>
-      <c r="C127" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="D127" s="11">
-        <v>0</v>
-      </c>
-      <c r="E127" s="9">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9">
-        <v>0.875</v>
-      </c>
-      <c r="H127" s="9">
-        <v>0.428571428571429</v>
-      </c>
-      <c r="I127" s="9"/>
-      <c r="J127" s="10"/>
-    </row>
-    <row r="128" ht="14.35" customHeight="1">
-      <c r="A128" t="s" s="7">
-        <v>262</v>
-      </c>
-      <c r="B128" t="s" s="7">
-        <v>263</v>
-      </c>
-      <c r="C128" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D128" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E128" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9">
-        <v>0</v>
-      </c>
-      <c r="H128" s="9">
-        <v>0.597402597402597</v>
-      </c>
-      <c r="I128" s="9"/>
-      <c r="J128" s="10"/>
-    </row>
-    <row r="129" ht="14.35" customHeight="1">
-      <c r="A129" t="s" s="7">
-        <v>264</v>
-      </c>
-      <c r="B129" t="s" s="7">
-        <v>265</v>
-      </c>
-      <c r="C129" s="10"/>
-      <c r="D129" s="11">
-        <v>0</v>
-      </c>
-      <c r="E129" s="9">
-        <v>0</v>
-      </c>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9">
-        <v>0</v>
-      </c>
-      <c r="H129" s="9">
-        <v>0.194805194805195</v>
-      </c>
-      <c r="I129" s="9"/>
-      <c r="J129" s="10"/>
-    </row>
-    <row r="130" ht="14.35" customHeight="1">
-      <c r="A130" t="s" s="7">
-        <v>266</v>
-      </c>
-      <c r="B130" t="s" s="7">
-        <v>267</v>
-      </c>
-      <c r="C130" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D130" s="11">
-        <v>1</v>
-      </c>
-      <c r="E130" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9">
-        <v>0</v>
-      </c>
-      <c r="H130" s="9">
-        <v>0.402597402597403</v>
-      </c>
-      <c r="I130" s="9"/>
-      <c r="J130" s="10"/>
-    </row>
-    <row r="131" ht="14.35" customHeight="1">
-      <c r="A131" t="s" s="7">
-        <v>268</v>
-      </c>
-      <c r="B131" t="s" s="7">
-        <v>269</v>
-      </c>
-      <c r="C131" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D131" s="8">
-        <v>0.788461538461538</v>
-      </c>
-      <c r="E131" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9">
-        <v>0.859375</v>
-      </c>
-      <c r="H131" s="9">
-        <v>0.701298701298701</v>
-      </c>
-      <c r="I131" s="9"/>
-      <c r="J131" s="10"/>
-    </row>
-    <row r="132" ht="14.35" customHeight="1">
-      <c r="A132" t="s" s="7">
-        <v>270</v>
-      </c>
-      <c r="B132" t="s" s="7">
-        <v>271</v>
-      </c>
-      <c r="C132" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D132" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E132" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9">
-        <v>0.765625</v>
-      </c>
-      <c r="H132" s="9">
-        <v>0.558441558441558</v>
-      </c>
-      <c r="I132" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="J132" s="10"/>
-    </row>
-    <row r="133" ht="14.35" customHeight="1">
-      <c r="A133" t="s" s="7">
-        <v>272</v>
-      </c>
-      <c r="B133" t="s" s="7">
-        <v>273</v>
-      </c>
-      <c r="C133" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D133" s="8">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="E133" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9">
-        <v>0.96875</v>
-      </c>
-      <c r="H133" s="9">
-        <v>0.519480519480519</v>
-      </c>
-      <c r="I133" s="9">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="J133" s="10"/>
-    </row>
-    <row r="134" ht="14.35" customHeight="1">
-      <c r="A134" t="s" s="7">
-        <v>274</v>
-      </c>
-      <c r="B134" t="s" s="7">
-        <v>275</v>
-      </c>
-      <c r="C134" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D134" s="8">
-        <v>0.903846153846154</v>
-      </c>
-      <c r="E134" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9">
-        <v>0.90625</v>
-      </c>
-      <c r="H134" s="9">
-        <v>0.61038961038961</v>
-      </c>
-      <c r="I134" s="9">
-        <v>0.728571428571429</v>
-      </c>
-      <c r="J134" s="10"/>
-    </row>
-    <row r="135" ht="14.35" customHeight="1">
-      <c r="A135" t="s" s="7">
-        <v>276</v>
-      </c>
-      <c r="B135" t="s" s="7">
-        <v>277</v>
-      </c>
-      <c r="C135" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D135" s="8">
-        <v>0.788461538461538</v>
-      </c>
-      <c r="E135" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9">
-        <v>0.90625</v>
-      </c>
-      <c r="H135" s="9">
-        <v>0.246753246753247</v>
-      </c>
-      <c r="I135" s="9"/>
-      <c r="J135" s="10"/>
-    </row>
-    <row r="136" ht="14.35" customHeight="1">
-      <c r="A136" t="s" s="7">
-        <v>278</v>
-      </c>
-      <c r="B136" t="s" s="7">
-        <v>279</v>
-      </c>
-      <c r="C136" s="10"/>
-      <c r="D136" s="8">
-        <v>0.673076923076923</v>
-      </c>
-      <c r="E136" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9">
-        <v>0.84375</v>
-      </c>
-      <c r="H136" s="9">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="I136" s="9">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="J136" s="10"/>
-    </row>
-    <row r="137" ht="14.35" customHeight="1">
-      <c r="A137" t="s" s="7">
-        <v>280</v>
-      </c>
-      <c r="B137" t="s" s="7">
-        <v>281</v>
-      </c>
-      <c r="C137" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D137" s="8">
-        <v>0.615384615384615</v>
-      </c>
-      <c r="E137" s="9">
-        <v>0.821428571428571</v>
-      </c>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9">
-        <v>0.90625</v>
-      </c>
-      <c r="H137" s="9">
-        <v>0.5844155844155841</v>
-      </c>
-      <c r="I137" s="9"/>
-      <c r="J137" s="10"/>
-    </row>
-    <row r="138" ht="14.35" customHeight="1">
-      <c r="A138" t="s" s="7">
-        <v>282</v>
-      </c>
-      <c r="B138" t="s" s="7">
-        <v>283</v>
-      </c>
-      <c r="C138" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D138" s="8">
-        <v>0.846153846153846</v>
-      </c>
-      <c r="E138" s="9">
-        <v>0</v>
-      </c>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9">
-        <v>0.828125</v>
-      </c>
-      <c r="H138" s="9">
-        <v>0.493506493506494</v>
-      </c>
-      <c r="I138" s="9">
-        <v>0.585714285714286</v>
-      </c>
-      <c r="J138" s="10"/>
-    </row>
-    <row r="139" ht="14.35" customHeight="1">
-      <c r="A139" t="s" s="7">
-        <v>284</v>
-      </c>
-      <c r="B139" t="s" s="7">
-        <v>285</v>
-      </c>
-      <c r="C139" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D139" s="8">
-        <v>0.903846153846154</v>
-      </c>
-      <c r="E139" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9">
-        <v>0.640625</v>
-      </c>
-      <c r="H139" s="9">
-        <v>0.467532467532468</v>
-      </c>
-      <c r="I139" s="9"/>
-      <c r="J139" s="10"/>
-    </row>
-    <row r="140" ht="14.35" customHeight="1">
-      <c r="A140" t="s" s="7">
-        <v>286</v>
-      </c>
-      <c r="B140" t="s" s="7">
-        <v>287</v>
-      </c>
-      <c r="C140" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D140" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E140" s="9">
-        <v>0</v>
-      </c>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9">
-        <v>0.84375</v>
-      </c>
-      <c r="H140" s="9">
-        <v>0.5844155844155841</v>
-      </c>
-      <c r="I140" s="9">
-        <v>0.371428571428571</v>
-      </c>
-      <c r="J140" s="10"/>
-    </row>
-    <row r="141" ht="14.35" customHeight="1">
-      <c r="A141" t="s" s="7">
-        <v>288</v>
-      </c>
-      <c r="B141" t="s" s="7">
-        <v>289</v>
-      </c>
-      <c r="C141" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D141" s="11">
-        <v>0</v>
-      </c>
-      <c r="E141" s="9">
-        <v>0.821428571428571</v>
-      </c>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9">
-        <v>0.859375</v>
-      </c>
-      <c r="H141" s="9">
-        <v>0.428571428571429</v>
-      </c>
-      <c r="I141" s="9">
-        <v>0.585714285714286</v>
-      </c>
-      <c r="J141" s="10"/>
-    </row>
-    <row r="142" ht="14.35" customHeight="1">
-      <c r="A142" t="s" s="7">
-        <v>290</v>
-      </c>
-      <c r="B142" t="s" s="7">
-        <v>291</v>
-      </c>
-      <c r="C142" s="10"/>
-      <c r="D142" s="11">
-        <v>0</v>
-      </c>
-      <c r="E142" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9">
-        <v>0</v>
-      </c>
-      <c r="H142" s="9">
-        <v>0.675324675324675</v>
-      </c>
-      <c r="I142" s="9"/>
-      <c r="J142" s="10"/>
-    </row>
-    <row r="143" ht="14.35" customHeight="1">
-      <c r="A143" t="s" s="7">
-        <v>292</v>
-      </c>
-      <c r="B143" t="s" s="7">
-        <v>293</v>
-      </c>
-      <c r="C143" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D143" s="8">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="E143" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="F143" s="9"/>
-      <c r="G143" s="9">
-        <v>0.734375</v>
-      </c>
-      <c r="H143" s="9">
-        <v>0.350649350649351</v>
-      </c>
-      <c r="I143" s="9">
-        <v>0.428571428571429</v>
-      </c>
-      <c r="J143" s="10"/>
-    </row>
-    <row r="144" ht="14.35" customHeight="1">
-      <c r="A144" t="s" s="7">
-        <v>294</v>
-      </c>
-      <c r="B144" t="s" s="7">
-        <v>295</v>
-      </c>
-      <c r="C144" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="D144" s="8">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="E144" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F144" s="9"/>
-      <c r="G144" s="9">
-        <v>0.8125</v>
-      </c>
-      <c r="H144" s="9">
-        <v>0.506493506493506</v>
-      </c>
-      <c r="I144" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="J144" s="10"/>
-    </row>
-    <row r="145" ht="14.35" customHeight="1">
-      <c r="A145" t="s" s="7">
-        <v>296</v>
-      </c>
-      <c r="B145" t="s" s="7">
-        <v>297</v>
-      </c>
-      <c r="C145" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D145" s="8">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="E145" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F145" s="9"/>
-      <c r="G145" s="9">
-        <v>0.765625</v>
-      </c>
-      <c r="H145" s="9">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="I145" s="9"/>
-      <c r="J145" s="10"/>
-    </row>
-    <row r="146" ht="14.35" customHeight="1">
-      <c r="A146" t="s" s="7">
-        <v>298</v>
-      </c>
-      <c r="B146" t="s" s="7">
-        <v>299</v>
-      </c>
-      <c r="C146" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D146" s="11">
-        <v>0</v>
-      </c>
-      <c r="E146" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="F146" s="9">
-        <v>0.961538461538462</v>
-      </c>
-      <c r="G146" s="9">
-        <v>0.8125</v>
-      </c>
-      <c r="H146" s="9">
-        <v>0.337662337662338</v>
-      </c>
-      <c r="I146" s="9"/>
-      <c r="J146" s="10"/>
-    </row>
-    <row r="147" ht="14.35" customHeight="1">
-      <c r="A147" t="s" s="7">
-        <v>300</v>
-      </c>
-      <c r="B147" t="s" s="7">
-        <v>301</v>
-      </c>
-      <c r="C147" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D147" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E147" s="9">
-        <v>0</v>
-      </c>
-      <c r="F147" s="9"/>
-      <c r="G147" s="9">
-        <v>0.84375</v>
-      </c>
-      <c r="H147" s="9">
-        <v>0.38961038961039</v>
-      </c>
-      <c r="I147" s="9"/>
-      <c r="J147" s="10"/>
-    </row>
-    <row r="148" ht="14.35" customHeight="1">
-      <c r="A148" t="s" s="7">
-        <v>302</v>
-      </c>
-      <c r="B148" t="s" s="7">
-        <v>303</v>
-      </c>
-      <c r="C148" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D148" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E148" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F148" s="9"/>
-      <c r="G148" s="9">
-        <v>0.890625</v>
-      </c>
-      <c r="H148" s="9">
-        <v>0.493506493506494</v>
-      </c>
-      <c r="I148" s="9">
-        <v>0.657142857142857</v>
-      </c>
-      <c r="J148" s="10"/>
-    </row>
-    <row r="149" ht="14.35" customHeight="1">
-      <c r="A149" t="s" s="7">
-        <v>304</v>
-      </c>
-      <c r="B149" t="s" s="7">
-        <v>305</v>
-      </c>
-      <c r="C149" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D149" s="11">
-        <v>0</v>
-      </c>
-      <c r="E149" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F149" s="9"/>
-      <c r="G149" s="9">
-        <v>0.890625</v>
-      </c>
-      <c r="H149" s="9">
-        <v>0.597402597402597</v>
-      </c>
-      <c r="I149" s="9"/>
-      <c r="J149" s="10"/>
-    </row>
-    <row r="150" ht="14.35" customHeight="1">
-      <c r="A150" t="s" s="7">
-        <v>306</v>
-      </c>
-      <c r="B150" t="s" s="7">
-        <v>307</v>
-      </c>
-      <c r="C150" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D150" s="8">
-        <v>0.923076923076923</v>
-      </c>
-      <c r="E150" s="9">
-        <v>0.821428571428571</v>
-      </c>
-      <c r="F150" s="9"/>
-      <c r="G150" s="9">
-        <v>0</v>
-      </c>
-      <c r="H150" s="9">
-        <v>0.649350649350649</v>
-      </c>
-      <c r="I150" s="9"/>
-      <c r="J150" s="10"/>
-    </row>
-    <row r="151" ht="14.35" customHeight="1">
-      <c r="A151" t="s" s="7">
-        <v>308</v>
-      </c>
-      <c r="B151" t="s" s="7">
-        <v>309</v>
-      </c>
-      <c r="C151" s="10"/>
-      <c r="D151" s="11">
-        <v>0</v>
-      </c>
-      <c r="E151" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F151" s="9"/>
-      <c r="G151" s="9">
-        <v>0.90625</v>
-      </c>
-      <c r="H151" s="9">
-        <v>0.532467532467532</v>
-      </c>
-      <c r="I151" s="9"/>
-      <c r="J151" s="10"/>
-    </row>
-    <row r="152" ht="14.35" customHeight="1">
-      <c r="A152" t="s" s="7">
-        <v>310</v>
-      </c>
-      <c r="B152" t="s" s="7">
-        <v>311</v>
-      </c>
-      <c r="C152" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D152" s="8">
-        <v>0.846153846153846</v>
-      </c>
-      <c r="E152" s="9">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="F152" s="9"/>
-      <c r="G152" s="9">
-        <v>0.71875</v>
-      </c>
-      <c r="H152" s="9">
-        <v>0.532467532467532</v>
-      </c>
-      <c r="I152" s="9"/>
-      <c r="J152" s="10"/>
-    </row>
-    <row r="153" ht="14.35" customHeight="1">
-      <c r="A153" t="s" s="7">
-        <v>312</v>
-      </c>
-      <c r="B153" t="s" s="7">
-        <v>313</v>
-      </c>
-      <c r="C153" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D153" s="11">
-        <v>0</v>
-      </c>
-      <c r="E153" s="9">
-        <v>0.821428571428571</v>
-      </c>
-      <c r="F153" s="9"/>
-      <c r="G153" s="9">
-        <v>0.84375</v>
-      </c>
-      <c r="H153" s="9">
-        <v>0.597402597402597</v>
-      </c>
-      <c r="I153" s="9">
-        <v>0.628571428571429</v>
-      </c>
-      <c r="J153" s="10"/>
-    </row>
-    <row r="154" ht="14.35" customHeight="1">
-      <c r="A154" t="s" s="7">
-        <v>314</v>
-      </c>
-      <c r="B154" t="s" s="7">
-        <v>315</v>
-      </c>
-      <c r="C154" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="D154" s="11">
-        <v>0</v>
-      </c>
-      <c r="E154" s="9">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="F154" s="9"/>
-      <c r="G154" s="9">
-        <v>0.890625</v>
-      </c>
-      <c r="H154" s="9">
-        <v>0.324675324675325</v>
-      </c>
-      <c r="I154" s="9">
-        <v>0.414285714285714</v>
-      </c>
-      <c r="J154" s="10"/>
-    </row>
-    <row r="155" ht="14.35" customHeight="1">
-      <c r="A155" t="s" s="7">
-        <v>316</v>
-      </c>
-      <c r="B155" t="s" s="7">
-        <v>317</v>
-      </c>
-      <c r="C155" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="D155" s="8">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="E155" s="9">
-        <v>0.678571428571429</v>
-      </c>
-      <c r="F155" s="9"/>
-      <c r="G155" s="9">
-        <v>0.625</v>
-      </c>
-      <c r="H155" s="9">
-        <v>0.350649350649351</v>
-      </c>
-      <c r="I155" s="9"/>
-      <c r="J155" s="10"/>
-    </row>
-    <row r="156" ht="14.35" customHeight="1">
-      <c r="A156" t="s" s="7">
-        <v>318</v>
-      </c>
-      <c r="B156" t="s" s="7">
-        <v>319</v>
-      </c>
-      <c r="C156" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D156" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E156" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F156" s="9"/>
-      <c r="G156" s="9">
-        <v>0.765625</v>
-      </c>
-      <c r="H156" s="9">
-        <v>0.506493506493506</v>
-      </c>
-      <c r="I156" s="9"/>
-      <c r="J156" s="10"/>
-    </row>
-    <row r="157" ht="14.35" customHeight="1">
-      <c r="A157" t="s" s="7">
-        <v>320</v>
-      </c>
-      <c r="B157" t="s" s="7">
-        <v>321</v>
-      </c>
-      <c r="C157" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D157" s="8">
-        <v>0.942307692307692</v>
-      </c>
-      <c r="E157" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F157" s="9"/>
-      <c r="G157" s="9">
-        <v>0.859375</v>
-      </c>
-      <c r="H157" s="9">
-        <v>0.467532467532468</v>
-      </c>
-      <c r="I157" s="9">
-        <v>0.6857142857142861</v>
-      </c>
-      <c r="J157" s="10"/>
-    </row>
-    <row r="158" ht="14.35" customHeight="1">
-      <c r="A158" t="s" s="7">
-        <v>322</v>
-      </c>
-      <c r="B158" t="s" s="7">
-        <v>323</v>
-      </c>
-      <c r="C158" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="D158" s="8">
-        <v>0.634615384615385</v>
-      </c>
-      <c r="E158" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F158" s="9"/>
-      <c r="G158" s="9">
-        <v>0.9375</v>
-      </c>
-      <c r="H158" s="9">
-        <v>0.688311688311688</v>
-      </c>
-      <c r="I158" s="9">
-        <v>0.871428571428571</v>
-      </c>
-      <c r="J158" s="10"/>
-    </row>
-    <row r="159" ht="14.35" customHeight="1">
-      <c r="A159" t="s" s="7">
-        <v>324</v>
-      </c>
-      <c r="B159" t="s" s="7">
-        <v>325</v>
-      </c>
-      <c r="C159" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D159" s="8">
-        <v>0.807692307692308</v>
-      </c>
-      <c r="E159" s="9">
-        <v>0.821428571428571</v>
-      </c>
-      <c r="F159" s="9"/>
-      <c r="G159" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="H159" s="9">
-        <v>0.727272727272727</v>
-      </c>
-      <c r="I159" s="9"/>
-      <c r="J159" s="10"/>
-    </row>
-    <row r="160" ht="14.35" customHeight="1">
-      <c r="A160" t="s" s="7">
-        <v>326</v>
-      </c>
-      <c r="B160" t="s" s="7">
-        <v>327</v>
-      </c>
-      <c r="C160" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D160" s="11">
-        <v>0</v>
-      </c>
-      <c r="E160" s="9">
-        <v>0.678571428571429</v>
-      </c>
-      <c r="F160" s="9"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="9"/>
-      <c r="I160" s="9"/>
-      <c r="J160" s="10"/>
-    </row>
-    <row r="161" ht="14.35" customHeight="1">
-      <c r="A161" t="s" s="7">
-        <v>326</v>
-      </c>
-      <c r="B161" t="s" s="7">
-        <v>328</v>
-      </c>
-      <c r="C161" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D161" s="11">
-        <v>0</v>
-      </c>
-      <c r="E161" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F161" s="9"/>
-      <c r="G161" s="9">
-        <v>0.71875</v>
-      </c>
-      <c r="H161" s="9">
-        <v>0.493506493506494</v>
-      </c>
-      <c r="I161" s="9"/>
-      <c r="J161" s="10"/>
-    </row>
-    <row r="162" ht="14.35" customHeight="1">
-      <c r="A162" t="s" s="7">
-        <v>329</v>
-      </c>
-      <c r="B162" t="s" s="7">
-        <v>330</v>
-      </c>
-      <c r="C162" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D162" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E162" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F162" s="9"/>
-      <c r="G162" s="9">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="H162" s="9">
-        <v>0.61038961038961</v>
-      </c>
-      <c r="I162" s="9"/>
-      <c r="J162" s="10"/>
-    </row>
-    <row r="163" ht="14.35" customHeight="1">
-      <c r="A163" t="s" s="7">
-        <v>331</v>
-      </c>
-      <c r="B163" t="s" s="7">
-        <v>332</v>
-      </c>
-      <c r="C163" s="10"/>
-      <c r="D163" s="11">
-        <v>0</v>
-      </c>
-      <c r="E163" s="9">
-        <v>0.821428571428571</v>
-      </c>
-      <c r="F163" s="9"/>
-      <c r="G163" s="9">
-        <v>0.84375</v>
-      </c>
-      <c r="H163" s="9">
-        <v>0.506493506493506</v>
-      </c>
-      <c r="I163" s="9">
-        <v>0.357142857142857</v>
-      </c>
-      <c r="J163" s="10"/>
-    </row>
-    <row r="164" ht="14.35" customHeight="1">
-      <c r="A164" t="s" s="7">
-        <v>333</v>
-      </c>
-      <c r="B164" t="s" s="7">
-        <v>334</v>
-      </c>
-      <c r="C164" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D164" s="11">
-        <v>0</v>
-      </c>
-      <c r="E164" s="9">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="F164" s="9"/>
-      <c r="G164" s="9">
-        <v>0.875</v>
-      </c>
-      <c r="H164" s="9">
-        <v>0.636363636363636</v>
-      </c>
-      <c r="I164" s="9"/>
-      <c r="J164" s="10"/>
-    </row>
-    <row r="165" ht="14.35" customHeight="1">
-      <c r="A165" t="s" s="7">
-        <v>335</v>
-      </c>
-      <c r="B165" t="s" s="7">
-        <v>336</v>
-      </c>
-      <c r="C165" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D165" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E165" s="9">
-        <v>0.607142857142857</v>
-      </c>
-      <c r="F165" s="9"/>
-      <c r="G165" s="9">
-        <v>0.703125</v>
-      </c>
-      <c r="H165" s="9">
-        <v>0.636363636363636</v>
-      </c>
-      <c r="I165" s="9">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="J165" s="10"/>
-    </row>
-    <row r="166" ht="14.35" customHeight="1">
-      <c r="A166" t="s" s="7">
-        <v>337</v>
-      </c>
-      <c r="B166" t="s" s="7">
-        <v>338</v>
-      </c>
-      <c r="C166" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D166" s="11">
-        <v>0</v>
-      </c>
-      <c r="E166" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F166" s="9"/>
-      <c r="G166" s="9">
-        <v>0.71875</v>
-      </c>
-      <c r="H166" s="9">
-        <v>0</v>
-      </c>
-      <c r="I166" s="9"/>
-      <c r="J166" s="10"/>
-    </row>
-    <row r="167" ht="14.35" customHeight="1">
-      <c r="A167" t="s" s="7">
-        <v>339</v>
-      </c>
-      <c r="B167" t="s" s="7">
-        <v>340</v>
-      </c>
-      <c r="C167" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="D167" s="8">
-        <v>0.788461538461538</v>
-      </c>
-      <c r="E167" s="9">
-        <v>0.821428571428571</v>
-      </c>
-      <c r="F167" s="9">
-        <v>0.807692307692308</v>
-      </c>
-      <c r="G167" s="9">
-        <v>0.875</v>
-      </c>
-      <c r="H167" s="9">
-        <v>0.467532467532468</v>
-      </c>
-      <c r="I167" s="9"/>
-      <c r="J167" s="10"/>
-    </row>
-    <row r="168" ht="14.35" customHeight="1">
-      <c r="A168" t="s" s="7">
-        <v>341</v>
-      </c>
-      <c r="B168" t="s" s="7">
-        <v>342</v>
-      </c>
-      <c r="C168" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D168" s="8">
-        <v>1</v>
-      </c>
-      <c r="E168" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F168" s="9"/>
-      <c r="G168" s="9">
-        <v>0.671875</v>
-      </c>
-      <c r="H168" s="9">
-        <v>0.623376623376623</v>
-      </c>
-      <c r="I168" s="9"/>
-      <c r="J168" s="10"/>
-    </row>
-    <row r="169" ht="14.35" customHeight="1">
-      <c r="A169" t="s" s="7">
-        <v>343</v>
-      </c>
-      <c r="B169" t="s" s="7">
-        <v>344</v>
-      </c>
-      <c r="C169" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D169" s="8">
-        <v>0.826923076923077</v>
-      </c>
-      <c r="E169" s="9">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="F169" s="9"/>
-      <c r="G169" s="9">
-        <v>0.53</v>
-      </c>
-      <c r="H169" s="9">
-        <v>0.519480519480519</v>
-      </c>
-      <c r="I169" s="9"/>
-      <c r="J169" s="10"/>
-    </row>
-    <row r="170" ht="14.35" customHeight="1">
-      <c r="A170" t="s" s="7">
-        <v>345</v>
-      </c>
-      <c r="B170" t="s" s="7">
-        <v>346</v>
-      </c>
-      <c r="C170" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D170" s="11">
-        <v>0</v>
-      </c>
-      <c r="E170" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F170" s="9"/>
-      <c r="G170" s="9">
-        <v>0.90625</v>
-      </c>
-      <c r="H170" s="9">
-        <v>0.480519480519481</v>
-      </c>
-      <c r="I170" s="9">
-        <v>0.542857142857143</v>
-      </c>
-      <c r="J170" s="10"/>
-    </row>
-    <row r="171" ht="14.35" customHeight="1">
-      <c r="A171" t="s" s="7">
-        <v>347</v>
-      </c>
-      <c r="B171" t="s" s="7">
-        <v>348</v>
-      </c>
-      <c r="C171" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D171" s="8">
-        <v>0.7692307692307691</v>
-      </c>
-      <c r="E171" s="9">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="F171" s="9"/>
-      <c r="G171" s="9">
-        <v>0.8125</v>
-      </c>
-      <c r="H171" s="9">
-        <v>0.636363636363636</v>
-      </c>
-      <c r="I171" s="9"/>
-      <c r="J171" s="10"/>
-    </row>
-    <row r="172" ht="14.35" customHeight="1">
-      <c r="A172" t="s" s="7">
-        <v>349</v>
-      </c>
-      <c r="B172" t="s" s="7">
-        <v>350</v>
-      </c>
-      <c r="C172" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D172" s="8">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E172" s="9">
-        <v>0</v>
-      </c>
-      <c r="F172" s="9"/>
-      <c r="G172" s="9">
-        <v>0.84375</v>
-      </c>
-      <c r="H172" s="9">
-        <v>0.402597402597403</v>
-      </c>
-      <c r="I172" s="9"/>
-      <c r="J172" s="10"/>
-    </row>
-    <row r="173" ht="14.35" customHeight="1">
-      <c r="A173" t="s" s="7">
-        <v>351</v>
-      </c>
-      <c r="B173" t="s" s="7">
-        <v>352</v>
-      </c>
-      <c r="C173" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D173" s="11">
-        <v>0</v>
-      </c>
-      <c r="E173" s="9">
-        <v>0.607142857142857</v>
-      </c>
-      <c r="F173" s="9"/>
-      <c r="G173" s="9">
-        <v>0.765625</v>
-      </c>
-      <c r="H173" s="9">
-        <v>0</v>
-      </c>
-      <c r="I173" s="9"/>
-      <c r="J173" s="10"/>
-    </row>
-    <row r="174" ht="14.35" customHeight="1">
-      <c r="A174" t="s" s="7">
-        <v>353</v>
-      </c>
-      <c r="B174" t="s" s="7">
-        <v>354</v>
-      </c>
-      <c r="C174" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D174" s="8">
-        <v>0.846153846153846</v>
-      </c>
-      <c r="E174" s="9">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="F174" s="9"/>
-      <c r="G174" s="9">
-        <v>0.875</v>
-      </c>
-      <c r="H174" s="9">
-        <v>0.532467532467532</v>
-      </c>
-      <c r="I174" s="9"/>
-      <c r="J174" s="10"/>
-    </row>
-    <row r="175" ht="14.35" customHeight="1">
-      <c r="A175" t="s" s="7">
-        <v>355</v>
-      </c>
-      <c r="B175" t="s" s="7">
-        <v>356</v>
-      </c>
-      <c r="C175" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D175" s="8">
-        <v>0.788461538461538</v>
-      </c>
-      <c r="E175" s="9">
-        <v>0.821428571428571</v>
-      </c>
-      <c r="F175" s="9">
-        <v>0.807692307692308</v>
-      </c>
-      <c r="G175" s="9">
-        <v>0.84375</v>
-      </c>
-      <c r="H175" s="9">
-        <v>0.506493506493506</v>
-      </c>
-      <c r="I175" s="9"/>
-      <c r="J175" s="10"/>
-    </row>
-    <row r="176" ht="14.35" customHeight="1">
-      <c r="A176" t="s" s="7">
-        <v>357</v>
-      </c>
-      <c r="B176" t="s" s="7">
-        <v>358</v>
-      </c>
-      <c r="C176" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D176" s="11">
-        <v>1</v>
-      </c>
-      <c r="E176" s="9">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F176" s="9"/>
-      <c r="G176" s="9">
-        <v>0.875</v>
-      </c>
-      <c r="H176" s="9">
-        <v>0.545454545454545</v>
-      </c>
-      <c r="I176" s="9"/>
-      <c r="J176" s="10"/>
+      <c r="I176" s="8"/>
+      <c r="J176" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8354,8 +8434,8 @@
     <hyperlink ref="B91" r:id="rId77" location="" tooltip="" display="H220427Q@hit.ac.zw"/>
     <hyperlink ref="B92" r:id="rId78" location="" tooltip="" display="H220070V@hit.ac.zw"/>
     <hyperlink ref="B93" r:id="rId79" location="" tooltip="" display="H220325F@hit.ac.zw"/>
-    <hyperlink ref="B94" r:id="rId80" location="" tooltip="" display="H220478P@hit.ac.zw"/>
-    <hyperlink ref="B95" r:id="rId81" location="" tooltip="" display="H220260C@hit.ac.zw"/>
+    <hyperlink ref="B94" r:id="rId80" location="" tooltip="" display="H220260C@hit.ac.zw"/>
+    <hyperlink ref="B95" r:id="rId81" location="" tooltip="" display="H220478P@hit.ac.zw"/>
     <hyperlink ref="B96" r:id="rId82" location="" tooltip="" display="h180617h@hit.ac.zw"/>
     <hyperlink ref="B97" r:id="rId83" location="" tooltip="" display="H220624V@hit.ac.zw"/>
     <hyperlink ref="B98" r:id="rId84" location="" tooltip="" display="H220231W@hit.ac.zw"/>

--- a/cw11042022.xlsx
+++ b/cw11042022.xlsx
@@ -3602,7 +3602,9 @@
       <c r="H2" s="5">
         <v>0.25974025974026</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="5">
+        <v>0.4</v>
+      </c>
       <c r="J2" s="5"/>
     </row>
     <row r="3" ht="14.35" customHeight="1">
@@ -3767,7 +3769,9 @@
       <c r="H8" s="8">
         <v>0.649350649350649</v>
       </c>
-      <c r="I8" s="8"/>
+      <c r="I8" s="8">
+        <v>0.528571428571429</v>
+      </c>
       <c r="J8" s="8"/>
     </row>
     <row r="9" ht="14.35" customHeight="1">
@@ -3826,7 +3830,9 @@
       <c r="H10" s="8">
         <v>0.337662337662338</v>
       </c>
-      <c r="I10" s="8"/>
+      <c r="I10" s="8">
+        <v>0.414285714285714</v>
+      </c>
       <c r="J10" s="8"/>
     </row>
     <row r="11" ht="14.35" customHeight="1">
@@ -3913,7 +3919,9 @@
       <c r="H13" s="8">
         <v>0.493506493506494</v>
       </c>
-      <c r="I13" s="8"/>
+      <c r="I13" s="8">
+        <v>0.385714285714286</v>
+      </c>
       <c r="J13" s="8"/>
     </row>
     <row r="14" ht="14.35" customHeight="1">
@@ -3969,8 +3977,13 @@
       <c r="H15" s="8">
         <v>0</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="I15" s="8">
+        <v>0.514285714285714</v>
+      </c>
+      <c r="J15" s="8">
+        <f>(LARGE(D15:G15,1)+LARGE(D15:G15,2))/2*0.3+(H15+I15)/1*0.7</f>
+        <v>0.604290865384615</v>
+      </c>
     </row>
     <row r="16" ht="14.35" customHeight="1">
       <c r="A16" t="s" s="6">
@@ -3995,7 +4008,9 @@
       <c r="H16" s="8">
         <v>0.506493506493506</v>
       </c>
-      <c r="I16" s="8"/>
+      <c r="I16" s="8">
+        <v>0.757142857142857</v>
+      </c>
       <c r="J16" s="8"/>
     </row>
     <row r="17" ht="14.35" customHeight="1">
@@ -4105,8 +4120,13 @@
       <c r="H20" s="8">
         <v>0.350649350649351</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="I20" s="8">
+        <v>0.5571428571428571</v>
+      </c>
+      <c r="J20" s="8">
+        <f>(LARGE(D20:G20,1)+LARGE(D20:G20,2))/2*0.3+(H20+I20)/2*0.7</f>
+        <v>0.574045954045954</v>
+      </c>
     </row>
     <row r="21" ht="14.35" customHeight="1">
       <c r="A21" t="s" s="6">
@@ -4131,7 +4151,9 @@
       <c r="H21" s="8">
         <v>0.402597402597403</v>
       </c>
-      <c r="I21" s="8"/>
+      <c r="I21" s="8">
+        <v>0.628571428571429</v>
+      </c>
       <c r="J21" s="8"/>
     </row>
     <row r="22" ht="14.35" customHeight="1">
@@ -4301,7 +4323,10 @@
       <c r="I27" s="8">
         <v>0.6</v>
       </c>
-      <c r="J27" s="8"/>
+      <c r="J27" s="8">
+        <f>(LARGE(D27:G27,1)+LARGE(D27:G27,2))/2*0.3+(H27+I27)/2*0.7</f>
+        <v>0.655722246503496</v>
+      </c>
     </row>
     <row r="28" ht="14.35" customHeight="1">
       <c r="A28" t="s" s="6">
@@ -4352,7 +4377,9 @@
       <c r="H29" s="8">
         <v>0.402597402597403</v>
       </c>
-      <c r="I29" s="8"/>
+      <c r="I29" s="8">
+        <v>0.414285714285714</v>
+      </c>
       <c r="J29" s="8"/>
     </row>
     <row r="30" ht="14.35" customHeight="1">
@@ -4406,7 +4433,9 @@
       <c r="H31" s="8">
         <v>0</v>
       </c>
-      <c r="I31" s="8"/>
+      <c r="I31" s="8">
+        <v>0.285714285714286</v>
+      </c>
       <c r="J31" s="8"/>
     </row>
     <row r="32" ht="14.35" customHeight="1">
@@ -4460,7 +4489,9 @@
       <c r="H33" s="8">
         <v>0.480519480519481</v>
       </c>
-      <c r="I33" s="8"/>
+      <c r="I33" s="8">
+        <v>0.742857142857143</v>
+      </c>
       <c r="J33" s="8"/>
     </row>
     <row r="34" ht="14.35" customHeight="1">
@@ -4596,7 +4627,9 @@
       <c r="H38" s="8">
         <v>0.376623376623377</v>
       </c>
-      <c r="I38" s="8"/>
+      <c r="I38" s="8">
+        <v>0.542857142857143</v>
+      </c>
       <c r="J38" s="8"/>
     </row>
     <row r="39" ht="14.35" customHeight="1">
@@ -4650,7 +4683,9 @@
       <c r="H40" s="8">
         <v>0</v>
       </c>
-      <c r="I40" s="8"/>
+      <c r="I40" s="8">
+        <v>0.642857142857143</v>
+      </c>
       <c r="J40" s="8"/>
     </row>
     <row r="41" ht="14.35" customHeight="1">
@@ -4735,7 +4770,9 @@
       <c r="H43" s="8">
         <v>0.506493506493506</v>
       </c>
-      <c r="I43" s="8"/>
+      <c r="I43" s="8">
+        <v>0.657142857142857</v>
+      </c>
       <c r="J43" s="8"/>
     </row>
     <row r="44" ht="14.35" customHeight="1">
@@ -4787,7 +4824,9 @@
       <c r="H45" s="8">
         <v>0.597402597402597</v>
       </c>
-      <c r="I45" s="8"/>
+      <c r="I45" s="8">
+        <v>0.857142857142857</v>
+      </c>
       <c r="J45" s="8"/>
     </row>
     <row r="46" ht="14.35" customHeight="1">
@@ -4895,8 +4934,13 @@
       <c r="H49" s="8">
         <v>0.454545454545455</v>
       </c>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
+      <c r="I49" s="8">
+        <v>0.414285714285714</v>
+      </c>
+      <c r="J49" s="8">
+        <f>(LARGE(D49:G49,1)+LARGE(D49:G49,2))/2*0.3+(H49+I49)/2*0.7</f>
+        <v>0.563242694805195</v>
+      </c>
     </row>
     <row r="50" ht="14.35" customHeight="1">
       <c r="A50" t="s" s="6">
@@ -4949,8 +4993,13 @@
       <c r="H51" s="8">
         <v>0.493506493506494</v>
       </c>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
+      <c r="I51" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="J51" s="8">
+        <f>(LARGE(D51:G51,1)+LARGE(D51:G51,2))/2*0.3+(H51+I51)/2*0.7</f>
+        <v>0.697095404595405</v>
+      </c>
     </row>
     <row r="52" ht="14.35" customHeight="1">
       <c r="A52" t="s" s="6">
@@ -4959,7 +5008,9 @@
       <c r="B52" t="s" s="6">
         <v>112</v>
       </c>
-      <c r="C52" s="10"/>
+      <c r="C52" t="s" s="6">
+        <v>12</v>
+      </c>
       <c r="D52" s="7">
         <v>0.711538461538462</v>
       </c>
@@ -5093,7 +5144,9 @@
       <c r="H56" s="8">
         <v>0.454545454545455</v>
       </c>
-      <c r="I56" s="8"/>
+      <c r="I56" s="8">
+        <v>0.6857142857142861</v>
+      </c>
       <c r="J56" s="8"/>
     </row>
     <row r="57" ht="14.35" customHeight="1">
@@ -5147,7 +5200,9 @@
       <c r="H58" s="8">
         <v>0.61038961038961</v>
       </c>
-      <c r="I58" s="8"/>
+      <c r="I58" s="8">
+        <v>0.571428571428571</v>
+      </c>
       <c r="J58" s="8"/>
     </row>
     <row r="59" ht="14.35" customHeight="1">
@@ -5174,7 +5229,7 @@
         <v>0.363636363636364</v>
       </c>
       <c r="I59" s="8">
-        <v>0.571428571428571</v>
+        <v>0.6857142857142861</v>
       </c>
       <c r="J59" s="8"/>
     </row>
@@ -5283,7 +5338,9 @@
       <c r="H63" s="8">
         <v>0.571428571428571</v>
       </c>
-      <c r="I63" s="8"/>
+      <c r="I63" s="8">
+        <v>0.671428571428571</v>
+      </c>
       <c r="J63" s="8"/>
     </row>
     <row r="64" ht="14.35" customHeight="1">
@@ -5310,7 +5367,7 @@
         <v>0.571428571428571</v>
       </c>
       <c r="I64" s="8">
-        <v>0.671428571428571</v>
+        <v>0.614285714285714</v>
       </c>
       <c r="J64" s="8"/>
     </row>
@@ -5501,7 +5558,9 @@
       <c r="H71" s="8">
         <v>0.467532467532468</v>
       </c>
-      <c r="I71" s="8"/>
+      <c r="I71" s="8">
+        <v>0.657142857142857</v>
+      </c>
       <c r="J71" s="8"/>
     </row>
     <row r="72" ht="14.35" customHeight="1">
@@ -5579,7 +5638,9 @@
       <c r="H74" s="8">
         <v>0.337662337662338</v>
       </c>
-      <c r="I74" s="8"/>
+      <c r="I74" s="8">
+        <v>0.314285714285714</v>
+      </c>
       <c r="J74" s="8"/>
     </row>
     <row r="75" ht="14.35" customHeight="1">
@@ -5689,7 +5750,9 @@
       <c r="H78" s="8">
         <v>0.480519480519481</v>
       </c>
-      <c r="I78" s="8"/>
+      <c r="I78" s="8">
+        <v>0.757142857142857</v>
+      </c>
       <c r="J78" s="8"/>
     </row>
     <row r="79" ht="14.35" customHeight="1">
@@ -5828,7 +5891,10 @@
       <c r="I83" s="8">
         <v>0.742857142857143</v>
       </c>
-      <c r="J83" s="8"/>
+      <c r="J83" s="8">
+        <f>(LARGE(D83:G83,1)+LARGE(D83:G83,2))/2*0.3+(H83+I83)/2*0.7</f>
+        <v>0.660409746503497</v>
+      </c>
     </row>
     <row r="84" ht="14.35" customHeight="1">
       <c r="A84" t="s" s="6">
@@ -5935,7 +6001,9 @@
       <c r="H87" s="8">
         <v>0.220779220779221</v>
       </c>
-      <c r="I87" s="8"/>
+      <c r="I87" s="8">
+        <v>0.185714285714286</v>
+      </c>
       <c r="J87" s="8"/>
     </row>
     <row r="88" ht="14.35" customHeight="1">
@@ -6101,8 +6169,13 @@
       <c r="H93" s="8">
         <v>0.597402597402597</v>
       </c>
-      <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
+      <c r="I93" s="8">
+        <v>0.485714285714286</v>
+      </c>
+      <c r="J93" s="8">
+        <f>(LARGE(D93:G93,1)+LARGE(D93:G93,2))/2*0.3+(H93+I93)/2*0.7</f>
+        <v>0.618101898101898</v>
+      </c>
     </row>
     <row r="94" ht="14.35" customHeight="1">
       <c r="A94" t="s" s="6">
@@ -6129,8 +6202,13 @@
       <c r="H94" s="8">
         <v>0.558441558441558</v>
       </c>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
+      <c r="I94" s="8">
+        <v>0.357142857142857</v>
+      </c>
+      <c r="J94" s="8">
+        <f>(LARGE(D94:G94,1)+LARGE(D94:G94,2))/2*0.3+(H94+I94)/2*0.7</f>
+        <v>0.554108391608391</v>
+      </c>
     </row>
     <row r="95" ht="14.35" customHeight="1">
       <c r="A95" t="s" s="6">
@@ -6190,8 +6268,13 @@
       <c r="H96" s="8">
         <v>0.38961038961039</v>
       </c>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
+      <c r="I96" s="8">
+        <v>0.357142857142857</v>
+      </c>
+      <c r="J96" s="8">
+        <f>(LARGE(D96:G96,1)+LARGE(D96:G96,2))/2*0.3+(H96+I96)/2*0.7</f>
+        <v>0.498623251748252</v>
+      </c>
     </row>
     <row r="97" ht="14.35" customHeight="1">
       <c r="A97" t="s" s="6">
@@ -6242,7 +6325,9 @@
       <c r="H98" s="8">
         <v>0.285714285714286</v>
       </c>
-      <c r="I98" s="8"/>
+      <c r="I98" s="8">
+        <v>0.4</v>
+      </c>
       <c r="J98" s="8"/>
     </row>
     <row r="99" ht="14.35" customHeight="1">
@@ -6357,7 +6442,9 @@
       <c r="H102" s="8">
         <v>0</v>
       </c>
-      <c r="I102" s="8"/>
+      <c r="I102" s="8">
+        <v>0.6</v>
+      </c>
       <c r="J102" s="8"/>
     </row>
     <row r="103" ht="14.35" customHeight="1">
@@ -6519,7 +6606,9 @@
       <c r="H108" s="8">
         <v>0.493506493506494</v>
       </c>
-      <c r="I108" s="8"/>
+      <c r="I108" s="8">
+        <v>0.714285714285714</v>
+      </c>
       <c r="J108" s="8"/>
     </row>
     <row r="109" ht="14.35" customHeight="1">
@@ -6597,7 +6686,9 @@
       <c r="H111" s="8">
         <v>0.415584415584416</v>
       </c>
-      <c r="I111" s="8"/>
+      <c r="I111" s="8">
+        <v>0.242857142857143</v>
+      </c>
       <c r="J111" s="8"/>
     </row>
     <row r="112" ht="14.35" customHeight="1">
@@ -6731,7 +6822,9 @@
       <c r="H116" s="8">
         <v>0.545454545454545</v>
       </c>
-      <c r="I116" s="8"/>
+      <c r="I116" s="8">
+        <v>0.442857142857143</v>
+      </c>
       <c r="J116" s="8"/>
     </row>
     <row r="117" ht="14.35" customHeight="1">
@@ -6787,8 +6880,13 @@
       <c r="H118" s="8">
         <v>0.675324675324675</v>
       </c>
-      <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
+      <c r="I118" s="8">
+        <v>0.728571428571429</v>
+      </c>
+      <c r="J118" s="8">
+        <f>(LARGE(D118:G118,1)+LARGE(D118:G118,2))/2*0.3+(H118+I118)/2*0.7</f>
+        <v>0.736143856143856</v>
+      </c>
     </row>
     <row r="119" ht="14.35" customHeight="1">
       <c r="A119" t="s" s="6">
@@ -6815,8 +6913,13 @@
       <c r="H119" s="8">
         <v>0.5844155844155841</v>
       </c>
-      <c r="I119" s="8"/>
-      <c r="J119" s="8"/>
+      <c r="I119" s="8">
+        <v>0.271428571428571</v>
+      </c>
+      <c r="J119" s="8">
+        <f>(LARGE(D119:G119,1)+LARGE(D119:G119,2))/2*0.3+(H119+I119)/2*0.7</f>
+        <v>0.547622377622377</v>
+      </c>
     </row>
     <row r="120" ht="14.35" customHeight="1">
       <c r="A120" t="s" s="6">
@@ -6867,7 +6970,9 @@
       <c r="H121" s="8">
         <v>0.532467532467532</v>
       </c>
-      <c r="I121" s="8"/>
+      <c r="I121" s="8">
+        <v>0.785714285714286</v>
+      </c>
       <c r="J121" s="8"/>
     </row>
     <row r="122" ht="14.35" customHeight="1">
@@ -6947,7 +7052,9 @@
       <c r="H124" s="8">
         <v>0.571428571428571</v>
       </c>
-      <c r="I124" s="8"/>
+      <c r="I124" s="8">
+        <v>0.642857142857143</v>
+      </c>
       <c r="J124" s="8"/>
     </row>
     <row r="125" ht="14.35" customHeight="1">
@@ -6999,7 +7106,9 @@
       <c r="H126" s="8">
         <v>0.25974025974026</v>
       </c>
-      <c r="I126" s="8"/>
+      <c r="I126" s="8">
+        <v>0.4</v>
+      </c>
       <c r="J126" s="8"/>
     </row>
     <row r="127" ht="14.35" customHeight="1">
@@ -7025,7 +7134,9 @@
       <c r="H127" s="8">
         <v>0.428571428571429</v>
       </c>
-      <c r="I127" s="8"/>
+      <c r="I127" s="8">
+        <v>0.585714285714286</v>
+      </c>
       <c r="J127" s="8"/>
     </row>
     <row r="128" ht="14.35" customHeight="1">
@@ -7239,7 +7350,9 @@
       <c r="H135" s="8">
         <v>0.246753246753247</v>
       </c>
-      <c r="I135" s="8"/>
+      <c r="I135" s="8">
+        <v>0.414285714285714</v>
+      </c>
       <c r="J135" s="8"/>
     </row>
     <row r="136" ht="14.35" customHeight="1">
@@ -7291,7 +7404,9 @@
       <c r="H137" s="8">
         <v>0.5844155844155841</v>
       </c>
-      <c r="I137" s="8"/>
+      <c r="I137" s="8">
+        <v>0.614285714285714</v>
+      </c>
       <c r="J137" s="8"/>
     </row>
     <row r="138" ht="14.35" customHeight="1">
@@ -7542,8 +7657,13 @@
       <c r="H146" s="8">
         <v>0.337662337662338</v>
       </c>
-      <c r="I146" s="8"/>
-      <c r="J146" s="8"/>
+      <c r="I146" s="8">
+        <v>0.628571428571429</v>
+      </c>
+      <c r="J146" s="8">
+        <f>(LARGE(D146:G146,1)+LARGE(D146:G146,2))/2*0.3+(H146+I146)/2*0.7</f>
+        <v>0.604287587412588</v>
+      </c>
     </row>
     <row r="147" ht="14.35" customHeight="1">
       <c r="A147" t="s" s="6">
@@ -7559,7 +7679,7 @@
         <v>0.75</v>
       </c>
       <c r="E147" s="8">
-        <v>0</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="F147" s="8"/>
       <c r="G147" s="8">
@@ -7672,7 +7792,9 @@
       <c r="H151" s="8">
         <v>0.532467532467532</v>
       </c>
-      <c r="I151" s="8"/>
+      <c r="I151" s="8">
+        <v>0.771428571428571</v>
+      </c>
       <c r="J151" s="8"/>
     </row>
     <row r="152" ht="14.35" customHeight="1">
@@ -7808,8 +7930,13 @@
       <c r="H156" s="8">
         <v>0.506493506493506</v>
       </c>
-      <c r="I156" s="8"/>
-      <c r="J156" s="8"/>
+      <c r="I156" s="8">
+        <v>0.671428571428571</v>
+      </c>
+      <c r="J156" s="8">
+        <f>(LARGE(D156:G156,1)+LARGE(D156:G156,2))/2*0.3+(H156+I156)/2*0.7</f>
+        <v>0.657052947052947</v>
+      </c>
     </row>
     <row r="157" ht="14.35" customHeight="1">
       <c r="A157" t="s" s="6">
@@ -7917,7 +8044,9 @@
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
-      <c r="I160" s="8"/>
+      <c r="I160" s="8">
+        <v>0.514285714285714</v>
+      </c>
       <c r="J160" s="8"/>
     </row>
     <row r="161" ht="14.35" customHeight="1">
@@ -7943,7 +8072,9 @@
       <c r="H161" s="8">
         <v>0.493506493506494</v>
       </c>
-      <c r="I161" s="8"/>
+      <c r="I161" s="8">
+        <v>0.714285714285714</v>
+      </c>
       <c r="J161" s="8"/>
     </row>
     <row r="162" ht="14.35" customHeight="1">
@@ -8023,7 +8154,9 @@
       <c r="H164" s="8">
         <v>0.636363636363636</v>
       </c>
-      <c r="I164" s="8"/>
+      <c r="I164" s="8">
+        <v>0.542857142857143</v>
+      </c>
       <c r="J164" s="8"/>
     </row>
     <row r="165" ht="14.35" customHeight="1">
@@ -8082,7 +8215,9 @@
       <c r="H166" s="8">
         <v>0</v>
       </c>
-      <c r="I166" s="8"/>
+      <c r="I166" s="8">
+        <v>0.242857142857143</v>
+      </c>
       <c r="J166" s="8"/>
     </row>
     <row r="167" ht="14.35" customHeight="1">
@@ -8162,7 +8297,9 @@
       <c r="H169" s="8">
         <v>0.519480519480519</v>
       </c>
-      <c r="I169" s="8"/>
+      <c r="I169" s="8">
+        <v>0.614285714285714</v>
+      </c>
       <c r="J169" s="8"/>
     </row>
     <row r="170" ht="14.35" customHeight="1">
@@ -8244,7 +8381,9 @@
       <c r="H172" s="8">
         <v>0.402597402597403</v>
       </c>
-      <c r="I172" s="8"/>
+      <c r="I172" s="8">
+        <v>0.742857142857143</v>
+      </c>
       <c r="J172" s="8"/>
     </row>
     <row r="173" ht="14.35" customHeight="1">
@@ -8270,7 +8409,9 @@
       <c r="H173" s="8">
         <v>0</v>
       </c>
-      <c r="I173" s="8"/>
+      <c r="I173" s="8">
+        <v>0.1</v>
+      </c>
       <c r="J173" s="8"/>
     </row>
     <row r="174" ht="14.35" customHeight="1">
@@ -8296,7 +8437,9 @@
       <c r="H174" s="8">
         <v>0.532467532467532</v>
       </c>
-      <c r="I174" s="8"/>
+      <c r="I174" s="8">
+        <v>0.671428571428571</v>
+      </c>
       <c r="J174" s="8"/>
     </row>
     <row r="175" ht="14.35" customHeight="1">
@@ -8324,8 +8467,13 @@
       <c r="H175" s="8">
         <v>0.506493506493506</v>
       </c>
-      <c r="I175" s="8"/>
-      <c r="J175" s="8"/>
+      <c r="I175" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="J175" s="8">
+        <f>(LARGE(D175:G175,1)+LARGE(D175:G175,2))/2*0.3+(H175+I175)/2*0.7</f>
+        <v>0.672049512987013</v>
+      </c>
     </row>
     <row r="176" ht="14.35" customHeight="1">
       <c r="A176" t="s" s="6">

--- a/cw11042022.xlsx
+++ b/cw11042022.xlsx
@@ -2109,18 +2109,18 @@
     <t>Saunyama</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>H220586J@hit.ac.zw</t>
+    </r>
+  </si>
+  <si>
     <t>H190782H</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>H220586J@hit.ac.zw</t>
-    </r>
   </si>
   <si>
     <t>Sibanda</t>
@@ -3651,7 +3651,9 @@
       <c r="E4" s="8">
         <v>0.857142857142857</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="8">
+        <v>0.923076923076923</v>
+      </c>
       <c r="G4" s="8">
         <v>0.84375</v>
       </c>
@@ -3912,7 +3914,9 @@
       <c r="E13" s="8">
         <v>0.857142857142857</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8">
+        <v>0.923076923076923</v>
+      </c>
       <c r="G13" s="8">
         <v>0.921875</v>
       </c>
@@ -3922,7 +3926,10 @@
       <c r="I13" s="8">
         <v>0.385714285714286</v>
       </c>
-      <c r="J13" s="8"/>
+      <c r="J13" s="8">
+        <f>(LARGE(D13:G13,1)+LARGE(D13:G13,2))/2*0.3+(H13+I13)/2*0.7</f>
+        <v>0.584470061188811</v>
+      </c>
     </row>
     <row r="14" ht="14.35" customHeight="1">
       <c r="A14" t="s" s="6">
@@ -4001,7 +4008,9 @@
       <c r="E16" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G16" s="8">
         <v>0.9375</v>
       </c>
@@ -4011,7 +4020,10 @@
       <c r="I16" s="8">
         <v>0.757142857142857</v>
       </c>
-      <c r="J16" s="8"/>
+      <c r="J16" s="8">
+        <f>(LARGE(D16:G16,1)+LARGE(D16:G16,2))/2*0.3+(H16+I16)/2*0.7</f>
+        <v>0.709820804195804</v>
+      </c>
     </row>
     <row r="17" ht="14.35" customHeight="1">
       <c r="A17" t="s" s="6">
@@ -4057,7 +4069,9 @@
       <c r="E18" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="8">
+        <v>0.923076923076923</v>
+      </c>
       <c r="G18" s="8">
         <v>0.90625</v>
       </c>
@@ -4083,7 +4097,9 @@
       <c r="E19" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G19" s="8">
         <v>0.921875</v>
       </c>
@@ -4093,7 +4109,10 @@
       <c r="I19" s="8">
         <v>0.757142857142857</v>
       </c>
-      <c r="J19" s="8"/>
+      <c r="J19" s="8">
+        <f>(LARGE(D19:G19,1)+LARGE(D19:G19,2))/2*0.3+(H19+I19)/2*0.7</f>
+        <v>0.7392952360139859</v>
+      </c>
     </row>
     <row r="20" ht="14.35" customHeight="1">
       <c r="A20" t="s" s="6">
@@ -4231,7 +4250,9 @@
       <c r="E24" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F24" s="8"/>
+      <c r="F24" s="8">
+        <v>0.923076923076923</v>
+      </c>
       <c r="G24" s="8">
         <v>0.765625</v>
       </c>
@@ -4283,7 +4304,9 @@
       <c r="E26" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F26" s="8"/>
+      <c r="F26" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G26" s="8">
         <v>0.796875</v>
       </c>
@@ -4293,7 +4316,10 @@
       <c r="I26" s="8">
         <v>0.6</v>
       </c>
-      <c r="J26" s="8"/>
+      <c r="J26" s="8">
+        <f>(LARGE(D26:G26,1)+LARGE(D26:G26,2))/2*0.3+(H26+I26)/2*0.7</f>
+        <v>0.686136363636364</v>
+      </c>
     </row>
     <row r="27" ht="14.35" customHeight="1">
       <c r="A27" t="s" s="6">
@@ -4454,7 +4480,9 @@
       <c r="E32" s="8">
         <v>0.857142857142857</v>
       </c>
-      <c r="F32" s="8"/>
+      <c r="F32" s="8">
+        <v>0.884615384615385</v>
+      </c>
       <c r="G32" s="8">
         <v>0.890625</v>
       </c>
@@ -4464,7 +4492,10 @@
       <c r="I32" s="8">
         <v>0.857142857142857</v>
       </c>
-      <c r="J32" s="8"/>
+      <c r="J32" s="8">
+        <f>(LARGE(D32:G32,1)+LARGE(D32:G32,2))/2*0.3+(H32+I32)/2*0.7</f>
+        <v>0.798104239510489</v>
+      </c>
     </row>
     <row r="33" ht="14.35" customHeight="1">
       <c r="A33" t="s" s="6">
@@ -4482,7 +4513,9 @@
       <c r="E33" s="8">
         <v>0.75</v>
       </c>
-      <c r="F33" s="8"/>
+      <c r="F33" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G33" s="8">
         <v>0.875</v>
       </c>
@@ -4492,7 +4525,10 @@
       <c r="I33" s="8">
         <v>0.742857142857143</v>
       </c>
-      <c r="J33" s="8"/>
+      <c r="J33" s="8">
+        <f>(LARGE(D33:G33,1)+LARGE(D33:G33,2))/2*0.3+(H33+I33)/2*0.7</f>
+        <v>0.686354895104895</v>
+      </c>
     </row>
     <row r="34" ht="14.35" customHeight="1">
       <c r="A34" t="s" s="6">
@@ -4538,7 +4574,9 @@
       <c r="E35" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F35" s="8"/>
+      <c r="F35" s="8">
+        <v>0.923076923076923</v>
+      </c>
       <c r="G35" s="8">
         <v>0.984375</v>
       </c>
@@ -4548,7 +4586,10 @@
       <c r="I35" s="8">
         <v>0.842857142857143</v>
       </c>
-      <c r="J35" s="8"/>
+      <c r="J35" s="8">
+        <f>(LARGE(D35:G35,1)+LARGE(D35:G35,2))/2*0.3+(H35+I35)/2*0.7</f>
+        <v>0.826572333916084</v>
+      </c>
     </row>
     <row r="36" ht="14.35" customHeight="1">
       <c r="A36" t="s" s="6">
@@ -4594,7 +4635,9 @@
       <c r="E37" s="8">
         <v>0.857142857142857</v>
       </c>
-      <c r="F37" s="8"/>
+      <c r="F37" s="8">
+        <v>0.884615384615385</v>
+      </c>
       <c r="G37" s="8">
         <v>0.765625</v>
       </c>
@@ -4620,7 +4663,9 @@
       <c r="E38" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F38" s="8"/>
+      <c r="F38" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G38" s="8">
         <v>0.6875</v>
       </c>
@@ -4630,7 +4675,10 @@
       <c r="I38" s="8">
         <v>0.542857142857143</v>
       </c>
-      <c r="J38" s="8"/>
+      <c r="J38" s="8">
+        <f>(LARGE(D38:G38,1)+LARGE(D38:G38,2))/2*0.3+(H38+I38)/2*0.7</f>
+        <v>0.566598401598402</v>
+      </c>
     </row>
     <row r="39" ht="14.35" customHeight="1">
       <c r="A39" t="s" s="6">
@@ -4676,7 +4724,9 @@
       <c r="E40" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F40" s="8"/>
+      <c r="F40" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G40" s="8">
         <v>0.734375</v>
       </c>
@@ -4686,7 +4736,10 @@
       <c r="I40" s="8">
         <v>0.642857142857143</v>
       </c>
-      <c r="J40" s="8"/>
+      <c r="J40" s="8">
+        <f>(LARGE(D40:G40,1)+LARGE(D40:G40,2))/2*0.3+(H40+I40)/1*0.7</f>
+        <v>0.69478021978022</v>
+      </c>
     </row>
     <row r="41" ht="14.35" customHeight="1">
       <c r="A41" t="s" s="6">
@@ -4817,7 +4870,9 @@
       <c r="E45" s="8">
         <v>0.857142857142857</v>
       </c>
-      <c r="F45" s="8"/>
+      <c r="F45" s="8">
+        <v>0.923076923076923</v>
+      </c>
       <c r="G45" s="8">
         <v>0.875</v>
       </c>
@@ -4827,7 +4882,10 @@
       <c r="I45" s="8">
         <v>0.857142857142857</v>
       </c>
-      <c r="J45" s="8"/>
+      <c r="J45" s="8">
+        <f>(LARGE(D45:G45,1)+LARGE(D45:G45,2))/2*0.3+(H45+I45)/2*0.7</f>
+        <v>0.778802447552447</v>
+      </c>
     </row>
     <row r="46" ht="14.35" customHeight="1">
       <c r="A46" t="s" s="6">
@@ -4871,7 +4929,7 @@
         <v>0.807692307692308</v>
       </c>
       <c r="E47" s="8">
-        <v>0</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8">
@@ -4899,7 +4957,9 @@
       <c r="E48" s="8">
         <v>0.821428571428571</v>
       </c>
-      <c r="F48" s="8"/>
+      <c r="F48" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G48" s="8">
         <v>0.8125</v>
       </c>
@@ -4958,7 +5018,9 @@
       <c r="E50" s="8">
         <v>0.857142857142857</v>
       </c>
-      <c r="F50" s="8"/>
+      <c r="F50" s="8">
+        <v>0.884615384615385</v>
+      </c>
       <c r="G50" s="8">
         <v>0.78125</v>
       </c>
@@ -5050,7 +5112,9 @@
       <c r="E53" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F53" s="8"/>
+      <c r="F53" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G53" s="8">
         <v>0.734375</v>
       </c>
@@ -5137,7 +5201,9 @@
       <c r="E56" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F56" s="8"/>
+      <c r="F56" s="8">
+        <v>0.807692307692308</v>
+      </c>
       <c r="G56" s="8">
         <v>0.8125</v>
       </c>
@@ -5147,7 +5213,10 @@
       <c r="I56" s="8">
         <v>0.6857142857142861</v>
       </c>
-      <c r="J56" s="8"/>
+      <c r="J56" s="8">
+        <f>(LARGE(D56:G56,1)+LARGE(D56:G56,2))/2*0.3+(H56+I56)/2*0.7</f>
+        <v>0.642119755244756</v>
+      </c>
     </row>
     <row r="57" ht="14.35" customHeight="1">
       <c r="A57" t="s" s="6">
@@ -5303,7 +5372,9 @@
       <c r="E62" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F62" s="8"/>
+      <c r="F62" s="8">
+        <v>0.923076923076923</v>
+      </c>
       <c r="G62" s="8">
         <v>1</v>
       </c>
@@ -5313,7 +5384,10 @@
       <c r="I62" s="8">
         <v>0.642857142857143</v>
       </c>
-      <c r="J62" s="8"/>
+      <c r="J62" s="8">
+        <f>(LARGE(D62:G62,1)+LARGE(D62:G62,2))/2*0.3+(H62+I62)/2*0.7</f>
+        <v>0.658916083916084</v>
+      </c>
     </row>
     <row r="63" ht="14.35" customHeight="1">
       <c r="A63" t="s" s="6">
@@ -5331,7 +5405,9 @@
       <c r="E63" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F63" s="8"/>
+      <c r="F63" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G63" s="8">
         <v>0.84375</v>
       </c>
@@ -5341,7 +5417,10 @@
       <c r="I63" s="8">
         <v>0.671428571428571</v>
       </c>
-      <c r="J63" s="8"/>
+      <c r="J63" s="8">
+        <f>(LARGE(D63:G63,1)+LARGE(D63:G63,2))/2*0.3+(H63+I63)/2*0.7</f>
+        <v>0.688485576923077</v>
+      </c>
     </row>
     <row r="64" ht="14.35" customHeight="1">
       <c r="A64" t="s" s="6">
@@ -5387,7 +5466,9 @@
       <c r="E65" s="8">
         <v>0.75</v>
       </c>
-      <c r="F65" s="8"/>
+      <c r="F65" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G65" s="8">
         <v>0</v>
       </c>
@@ -5397,7 +5478,10 @@
       <c r="I65" s="8">
         <v>0.485714285714286</v>
       </c>
-      <c r="J65" s="8"/>
+      <c r="J65" s="8">
+        <f>(LARGE(D65:G65,1)+LARGE(D65:G65,2))/2*0.3+(H65+I65)/2*0.7</f>
+        <v>0.53215034965035</v>
+      </c>
     </row>
     <row r="66" ht="14.35" customHeight="1">
       <c r="A66" t="s" s="6">
@@ -5415,7 +5499,9 @@
       <c r="E66" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F66" s="8"/>
+      <c r="F66" s="8">
+        <v>0.807692307692308</v>
+      </c>
       <c r="G66" s="8">
         <v>0.890625</v>
       </c>
@@ -5425,7 +5511,10 @@
       <c r="I66" s="8">
         <v>0.314285714285714</v>
       </c>
-      <c r="J66" s="8"/>
+      <c r="J66" s="8">
+        <f>(LARGE(D66:G66,1)+LARGE(D66:G66,2))/2*0.3+(H66+I66)/2*0.7</f>
+        <v>0.532929414335664</v>
+      </c>
     </row>
     <row r="67" ht="14.35" customHeight="1">
       <c r="A67" t="s" s="6">
@@ -5443,7 +5532,9 @@
       <c r="E67" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F67" s="8"/>
+      <c r="F67" s="8">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="G67" s="8">
         <v>0.875</v>
       </c>
@@ -5453,7 +5544,10 @@
       <c r="I67" s="8">
         <v>0.642857142857143</v>
       </c>
-      <c r="J67" s="8"/>
+      <c r="J67" s="8">
+        <f>(LARGE(D67:G67,1)+LARGE(D67:G67,2))/2*0.3+(H67+I67)/2*0.7</f>
+        <v>0.687743506493506</v>
+      </c>
     </row>
     <row r="68" ht="14.35" customHeight="1">
       <c r="A68" t="s" s="6">
@@ -5471,7 +5565,9 @@
       <c r="E68" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F68" s="8"/>
+      <c r="F68" s="8">
+        <v>0.807692307692308</v>
+      </c>
       <c r="G68" s="8">
         <v>0.46875</v>
       </c>
@@ -5481,7 +5577,10 @@
       <c r="I68" s="8">
         <v>0.457142857142857</v>
       </c>
-      <c r="J68" s="8"/>
+      <c r="J68" s="8">
+        <f>(LARGE(D68:G68,1)+LARGE(D68:G68,2))/2*0.3+(H68+I68)/2*0.7</f>
+        <v>0.526283716283716</v>
+      </c>
     </row>
     <row r="69" ht="14.35" customHeight="1">
       <c r="A69" t="s" s="6">
@@ -5523,7 +5622,9 @@
       <c r="E70" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F70" s="8"/>
+      <c r="F70" s="8">
+        <v>0.923076923076923</v>
+      </c>
       <c r="G70" s="8">
         <v>0.90625</v>
       </c>
@@ -5533,7 +5634,10 @@
       <c r="I70" s="8">
         <v>0.442857142857143</v>
       </c>
-      <c r="J70" s="8"/>
+      <c r="J70" s="8">
+        <f>(LARGE(D70:G70,1)+LARGE(D70:G70,2))/2*0.3+(H70+I70)/2*0.7</f>
+        <v>0.547580856643357</v>
+      </c>
     </row>
     <row r="71" ht="14.35" customHeight="1">
       <c r="A71" t="s" s="6">
@@ -5605,7 +5709,9 @@
       <c r="E73" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F73" s="8"/>
+      <c r="F73" s="8">
+        <v>0.807692307692308</v>
+      </c>
       <c r="G73" s="8">
         <v>0.84375</v>
       </c>
@@ -5715,7 +5821,9 @@
       <c r="E77" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F77" s="8"/>
+      <c r="F77" s="8">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="G77" s="8">
         <v>0.671875</v>
       </c>
@@ -5725,7 +5833,10 @@
       <c r="I77" s="8">
         <v>0.728571428571429</v>
       </c>
-      <c r="J77" s="8"/>
+      <c r="J77" s="8">
+        <f>(LARGE(D77:G77,1)+LARGE(D77:G77,2))/2*0.3+(H77+I77)/2*0.7</f>
+        <v>0.688241758241758</v>
+      </c>
     </row>
     <row r="78" ht="14.35" customHeight="1">
       <c r="A78" t="s" s="6">
@@ -5966,7 +6077,9 @@
       <c r="E86" s="8">
         <v>0.857142857142857</v>
       </c>
-      <c r="F86" s="8"/>
+      <c r="F86" s="8">
+        <v>0.923076923076923</v>
+      </c>
       <c r="G86" s="8">
         <v>0.90625</v>
       </c>
@@ -5976,7 +6089,10 @@
       <c r="I86" s="8">
         <v>0.771428571428571</v>
       </c>
-      <c r="J86" s="8"/>
+      <c r="J86" s="8">
+        <f>(LARGE(D86:G86,1)+LARGE(D86:G86,2))/2*0.3+(H86+I86)/2*0.7</f>
+        <v>0.7353081293706289</v>
+      </c>
     </row>
     <row r="87" ht="14.35" customHeight="1">
       <c r="A87" t="s" s="6">
@@ -6104,7 +6220,9 @@
       <c r="E91" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F91" s="8"/>
+      <c r="F91" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G91" s="8">
         <v>0</v>
       </c>
@@ -6114,7 +6232,10 @@
       <c r="I91" s="8">
         <v>0.642857142857143</v>
       </c>
-      <c r="J91" s="8"/>
+      <c r="J91" s="8">
+        <f>(LARGE(D91:G91,1)+LARGE(D91:G91,2))/2*0.3+(H91+I91)/2*0.7</f>
+        <v>0.720192307692308</v>
+      </c>
     </row>
     <row r="92" ht="14.35" customHeight="1">
       <c r="A92" t="s" s="6">
@@ -6132,7 +6253,9 @@
       <c r="E92" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F92" s="8"/>
+      <c r="F92" s="8">
+        <v>0.807692307692308</v>
+      </c>
       <c r="G92" s="8">
         <v>0.84375</v>
       </c>
@@ -6142,7 +6265,10 @@
       <c r="I92" s="8">
         <v>0.4</v>
       </c>
-      <c r="J92" s="8"/>
+      <c r="J92" s="8">
+        <f>(LARGE(D92:G92,1)+LARGE(D92:G92,2))/2*0.3+(H92+I92)/2*0.7</f>
+        <v>0.610443618881119</v>
+      </c>
     </row>
     <row r="93" ht="14.35" customHeight="1">
       <c r="A93" t="s" s="6">
@@ -6547,7 +6673,9 @@
       <c r="E106" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F106" s="8"/>
+      <c r="F106" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G106" s="8">
         <v>0.8125</v>
       </c>
@@ -6599,7 +6727,9 @@
       <c r="E108" s="8">
         <v>0.857142857142857</v>
       </c>
-      <c r="F108" s="8"/>
+      <c r="F108" s="8">
+        <v>0.884615384615385</v>
+      </c>
       <c r="G108" s="8">
         <v>0.890625</v>
       </c>
@@ -6609,7 +6739,10 @@
       <c r="I108" s="8">
         <v>0.714285714285714</v>
       </c>
-      <c r="J108" s="8"/>
+      <c r="J108" s="8">
+        <f>(LARGE(D108:G108,1)+LARGE(D108:G108,2))/2*0.3+(H108+I108)/2*0.7</f>
+        <v>0.689013330419581</v>
+      </c>
     </row>
     <row r="109" ht="14.35" customHeight="1">
       <c r="A109" t="s" s="6">
@@ -6679,7 +6812,9 @@
       <c r="E111" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F111" s="8"/>
+      <c r="F111" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G111" s="8">
         <v>0</v>
       </c>
@@ -6689,7 +6824,9 @@
       <c r="I111" s="8">
         <v>0.242857142857143</v>
       </c>
-      <c r="J111" s="8"/>
+      <c r="J111" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="112" ht="14.35" customHeight="1">
       <c r="A112" t="s" s="6">
@@ -6815,7 +6952,9 @@
       <c r="E116" s="8">
         <v>0.75</v>
       </c>
-      <c r="F116" s="8"/>
+      <c r="F116" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G116" s="8">
         <v>0.90625</v>
       </c>
@@ -6825,7 +6964,10 @@
       <c r="I116" s="8">
         <v>0.442857142857143</v>
       </c>
-      <c r="J116" s="8"/>
+      <c r="J116" s="8">
+        <f>(LARGE(D116:G116,1)+LARGE(D116:G116,2))/2*0.3+(H116+I116)/2*0.7</f>
+        <v>0.608769667832168</v>
+      </c>
     </row>
     <row r="117" ht="14.35" customHeight="1">
       <c r="A117" t="s" s="6">
@@ -6937,7 +7079,9 @@
       <c r="E120" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F120" s="8"/>
+      <c r="F120" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G120" s="8">
         <v>0.78125</v>
       </c>
@@ -6991,7 +7135,9 @@
       <c r="E122" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F122" s="8"/>
+      <c r="F122" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G122" s="8">
         <v>0.703125</v>
       </c>
@@ -7001,7 +7147,10 @@
       <c r="I122" s="8">
         <v>0.514285714285714</v>
       </c>
-      <c r="J122" s="8"/>
+      <c r="J122" s="8">
+        <f>(LARGE(D122:G122,1)+LARGE(D122:G122,2))/2*0.3+(H122+I122)/2*0.7</f>
+        <v>0.5520529470529471</v>
+      </c>
     </row>
     <row r="123" ht="14.35" customHeight="1">
       <c r="A123" t="s" s="6">
@@ -7233,7 +7382,9 @@
       <c r="E131" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F131" s="8"/>
+      <c r="F131" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G131" s="8">
         <v>0.859375</v>
       </c>
@@ -7259,7 +7410,9 @@
       <c r="E132" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F132" s="8"/>
+      <c r="F132" s="8">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="G132" s="8">
         <v>0.765625</v>
       </c>
@@ -7269,7 +7422,10 @@
       <c r="I132" s="8">
         <v>0.7</v>
       </c>
-      <c r="J132" s="8"/>
+      <c r="J132" s="8">
+        <f>(LARGE(D132:G132,1)+LARGE(D132:G132,2))/2*0.3+(H132+I132)/2*0.7</f>
+        <v>0.673696303696304</v>
+      </c>
     </row>
     <row r="133" ht="14.35" customHeight="1">
       <c r="A133" t="s" s="6">
@@ -7287,7 +7443,9 @@
       <c r="E133" s="8">
         <v>0.75</v>
       </c>
-      <c r="F133" s="8"/>
+      <c r="F133" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G133" s="8">
         <v>0.96875</v>
       </c>
@@ -7297,7 +7455,10 @@
       <c r="I133" s="8">
         <v>0.571428571428571</v>
       </c>
-      <c r="J133" s="8"/>
+      <c r="J133" s="8">
+        <f>(LARGE(D133:G133,1)+LARGE(D133:G133,2))/2*0.3+(H133+I133)/2*0.7</f>
+        <v>0.654053758741258</v>
+      </c>
     </row>
     <row r="134" ht="14.35" customHeight="1">
       <c r="A134" t="s" s="6">
@@ -7315,7 +7476,9 @@
       <c r="E134" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F134" s="8"/>
+      <c r="F134" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G134" s="8">
         <v>0.90625</v>
       </c>
@@ -7325,7 +7488,10 @@
       <c r="I134" s="8">
         <v>0.728571428571429</v>
       </c>
-      <c r="J134" s="8"/>
+      <c r="J134" s="8">
+        <f>(LARGE(D134:G134,1)+LARGE(D134:G134,2))/2*0.3+(H134+I134)/2*0.7</f>
+        <v>0.740150786713287</v>
+      </c>
     </row>
     <row r="135" ht="14.35" customHeight="1">
       <c r="A135" t="s" s="6">
@@ -7343,7 +7509,9 @@
       <c r="E135" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F135" s="8"/>
+      <c r="F135" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G135" s="8">
         <v>0.90625</v>
       </c>
@@ -7353,7 +7521,9 @@
       <c r="I135" s="8">
         <v>0.414285714285714</v>
       </c>
-      <c r="J135" s="8"/>
+      <c r="J135" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="136" ht="14.35" customHeight="1">
       <c r="A136" t="s" s="6">
@@ -7453,7 +7623,9 @@
       <c r="E139" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F139" s="8"/>
+      <c r="F139" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G139" s="8">
         <v>0.640625</v>
       </c>
@@ -7559,7 +7731,9 @@
       <c r="E143" s="8">
         <v>0.75</v>
       </c>
-      <c r="F143" s="8"/>
+      <c r="F143" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G143" s="8">
         <v>0.734375</v>
       </c>
@@ -7569,7 +7743,10 @@
       <c r="I143" s="8">
         <v>0.428571428571429</v>
       </c>
-      <c r="J143" s="8"/>
+      <c r="J143" s="8">
+        <f>(LARGE(D143:G143,1)+LARGE(D143:G143,2))/2*0.3+(H143+I143)/2*0.7</f>
+        <v>0.51215034965035</v>
+      </c>
     </row>
     <row r="144" ht="14.35" customHeight="1">
       <c r="A144" t="s" s="6">
@@ -7681,7 +7858,9 @@
       <c r="E147" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F147" s="8"/>
+      <c r="F147" s="8">
+        <v>0.807692307692308</v>
+      </c>
       <c r="G147" s="8">
         <v>0.84375</v>
       </c>
@@ -7735,7 +7914,9 @@
       <c r="E149" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F149" s="8"/>
+      <c r="F149" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G149" s="8">
         <v>0.890625</v>
       </c>
@@ -8039,15 +8220,24 @@
         <v>0</v>
       </c>
       <c r="E160" s="8">
-        <v>0.678571428571429</v>
-      </c>
-      <c r="F160" s="8"/>
-      <c r="G160" s="8"/>
-      <c r="H160" s="8"/>
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F160" s="8">
+        <v>0.846153846153846</v>
+      </c>
+      <c r="G160" s="8">
+        <v>0.71875</v>
+      </c>
+      <c r="H160" s="8">
+        <v>0.493506493506494</v>
+      </c>
       <c r="I160" s="8">
-        <v>0.514285714285714</v>
-      </c>
-      <c r="J160" s="8"/>
+        <v>0.714285714285714</v>
+      </c>
+      <c r="J160" s="8">
+        <f>(LARGE(D160:G160,1)+LARGE(D160:G160,2))/2*0.3+(H160+I160)/2*0.7</f>
+        <v>0.667507492507493</v>
+      </c>
     </row>
     <row r="161" ht="14.35" customHeight="1">
       <c r="A161" t="s" s="6">
@@ -8063,17 +8253,13 @@
         <v>0</v>
       </c>
       <c r="E161" s="8">
-        <v>0.785714285714286</v>
+        <v>0.678571428571429</v>
       </c>
       <c r="F161" s="8"/>
-      <c r="G161" s="8">
-        <v>0.71875</v>
-      </c>
-      <c r="H161" s="8">
-        <v>0.493506493506494</v>
-      </c>
+      <c r="G161" s="8"/>
+      <c r="H161" s="8"/>
       <c r="I161" s="8">
-        <v>0.714285714285714</v>
+        <v>0.514285714285714</v>
       </c>
       <c r="J161" s="8"/>
     </row>
@@ -8208,7 +8394,9 @@
       <c r="E166" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F166" s="8"/>
+      <c r="F166" s="8">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="G166" s="8">
         <v>0.71875</v>
       </c>
@@ -8218,7 +8406,10 @@
       <c r="I166" s="8">
         <v>0.242857142857143</v>
       </c>
-      <c r="J166" s="8"/>
+      <c r="J166" s="8">
+        <f>(LARGE(D166:G166,1)+LARGE(D166:G166,2))/2*0.3+(H166+I166)/1*0.7</f>
+        <v>0.403241758241758</v>
+      </c>
     </row>
     <row r="167" ht="14.35" customHeight="1">
       <c r="A167" t="s" s="6">
@@ -8318,7 +8509,9 @@
       <c r="E170" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F170" s="8"/>
+      <c r="F170" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G170" s="8">
         <v>0.90625</v>
       </c>
@@ -8328,7 +8521,10 @@
       <c r="I170" s="8">
         <v>0.542857142857143</v>
       </c>
-      <c r="J170" s="8"/>
+      <c r="J170" s="8">
+        <f>(LARGE(D170:G170,1)+LARGE(D170:G170,2))/2*0.3+(H170+I170)/2*0.7</f>
+        <v>0.621042395104895</v>
+      </c>
     </row>
     <row r="171" ht="14.35" customHeight="1">
       <c r="A171" t="s" s="6">
@@ -8642,7 +8838,7 @@
     <hyperlink ref="B157" r:id="rId137" location="" tooltip="" display="H220146J@hit.ac.zw"/>
     <hyperlink ref="B158" r:id="rId138" location="" tooltip="" display="H220179T@hit.ac.zw"/>
     <hyperlink ref="B159" r:id="rId139" location="" tooltip="" display="H220057B@hit.ac.zw"/>
-    <hyperlink ref="B161" r:id="rId140" location="" tooltip="" display="H220586J@hit.ac.zw"/>
+    <hyperlink ref="B160" r:id="rId140" location="" tooltip="" display="H220586J@hit.ac.zw"/>
     <hyperlink ref="B162" r:id="rId141" location="" tooltip="" display="H220417Y@hit.ac.zw"/>
     <hyperlink ref="B163" r:id="rId142" location="" tooltip="" display="H220553G@hit.ac.zw"/>
     <hyperlink ref="B164" r:id="rId143" location="" tooltip="" display="H220250Q@hit.ac.zw"/>

--- a/cw11042022.xlsx
+++ b/cw11042022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="361">
   <si>
     <t>Surname</t>
   </si>
@@ -590,6 +590,9 @@
   </si>
   <si>
     <t>Gandanga</t>
+  </si>
+  <si>
+    <t>H220736W</t>
   </si>
   <si>
     <t>Gavi</t>
@@ -3660,8 +3663,13 @@
       <c r="H4" s="8">
         <v>0.545454545454545</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="I4" s="8">
+        <v>0.842857142857143</v>
+      </c>
+      <c r="J4" s="8">
+        <f>(LARGE(D4:G4,1)+LARGE(D4:G4,2))/2*0.3+(H4+I4)/2*0.7</f>
+        <v>0.752942057942058</v>
+      </c>
     </row>
     <row r="5" ht="14.35" customHeight="1">
       <c r="A5" t="s" s="6">
@@ -3719,7 +3727,9 @@
       <c r="H6" s="8">
         <v>0.272727272727273</v>
       </c>
-      <c r="I6" s="8"/>
+      <c r="I6" s="8">
+        <v>0.485714285714286</v>
+      </c>
       <c r="J6" s="8"/>
     </row>
     <row r="7" ht="14.35" customHeight="1">
@@ -3745,7 +3755,9 @@
       <c r="H7" s="8">
         <v>0.441558441558442</v>
       </c>
-      <c r="I7" s="8"/>
+      <c r="I7" s="8">
+        <v>0.6</v>
+      </c>
       <c r="J7" s="8"/>
     </row>
     <row r="8" ht="14.35" customHeight="1">
@@ -3956,8 +3968,13 @@
       <c r="H14" s="8">
         <v>0</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="I14" s="8">
+        <v>0.6857142857142861</v>
+      </c>
+      <c r="J14" s="8">
+        <f>(LARGE(D14:G14,1)+LARGE(D14:G14,2))/2*0.3+(H14+I14)/1*0.7</f>
+        <v>0.733665865384616</v>
+      </c>
     </row>
     <row r="15" ht="14.35" customHeight="1">
       <c r="A15" t="s" s="6">
@@ -4050,8 +4067,13 @@
       <c r="H17" s="8">
         <v>0.506493506493506</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="I17" s="8">
+        <v>0.771428571428571</v>
+      </c>
+      <c r="J17" s="8">
+        <f>(LARGE(D17:G17,1)+LARGE(D17:G17,2))/2*0.3+(H17+I17)/2*0.7</f>
+        <v>0.680926573426573</v>
+      </c>
     </row>
     <row r="18" ht="14.35" customHeight="1">
       <c r="A18" t="s" s="6">
@@ -4078,8 +4100,13 @@
       <c r="H18" s="8">
         <v>0.623376623376623</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="I18" s="8">
+        <v>0.857142857142857</v>
+      </c>
+      <c r="J18" s="8">
+        <f>(LARGE(D18:G18,1)+LARGE(D18:G18,2))/2*0.3+(H18+I18)/2*0.7</f>
+        <v>0.792580856643356</v>
+      </c>
     </row>
     <row r="19" ht="14.35" customHeight="1">
       <c r="A19" t="s" s="6">
@@ -4231,7 +4258,9 @@
       <c r="H23" s="8">
         <v>0.428571428571429</v>
       </c>
-      <c r="I23" s="8"/>
+      <c r="I23" s="8">
+        <v>0.5571428571428571</v>
+      </c>
       <c r="J23" s="8"/>
     </row>
     <row r="24" ht="14.35" customHeight="1">
@@ -4259,8 +4288,13 @@
       <c r="H24" s="8">
         <v>0.623376623376623</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
+      <c r="I24" s="8">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="J24" s="8">
+        <f>(LARGE(D24:G24,1)+LARGE(D24:G24,2))/2*0.3+(H24+I24)/2*0.7</f>
+        <v>0.724500499500499</v>
+      </c>
     </row>
     <row r="25" ht="14.35" customHeight="1">
       <c r="A25" t="s" s="6">
@@ -4285,7 +4319,9 @@
       <c r="H25" s="8">
         <v>0</v>
       </c>
-      <c r="I25" s="8"/>
+      <c r="I25" s="8">
+        <v>0.414285714285714</v>
+      </c>
       <c r="J25" s="8"/>
     </row>
     <row r="26" ht="14.35" customHeight="1">
@@ -4377,7 +4413,9 @@
       <c r="H28" s="8">
         <v>0.545454545454545</v>
       </c>
-      <c r="I28" s="8"/>
+      <c r="I28" s="8">
+        <v>0.5571428571428571</v>
+      </c>
       <c r="J28" s="8"/>
     </row>
     <row r="29" ht="14.35" customHeight="1">
@@ -4644,8 +4682,13 @@
       <c r="H37" s="8">
         <v>0.376623376623377</v>
       </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
+      <c r="I37" s="8">
+        <v>0.442857142857143</v>
+      </c>
+      <c r="J37" s="8">
+        <f>(LARGE(D37:G37,1)+LARGE(D37:G37,2))/2*0.3+(H37+I37)/2*0.7</f>
+        <v>0.548081918081918</v>
+      </c>
     </row>
     <row r="38" ht="14.35" customHeight="1">
       <c r="A38" t="s" s="6">
@@ -4705,8 +4748,13 @@
       <c r="H39" s="8">
         <v>0.623376623376623</v>
       </c>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
+      <c r="I39" s="8">
+        <v>0.542857142857143</v>
+      </c>
+      <c r="J39" s="8">
+        <f>(LARGE(D39:G39,1)+LARGE(D39:G39,2))/2*0.3+(H39+I39)/2*0.7</f>
+        <v>0.665273164335664</v>
+      </c>
     </row>
     <row r="40" ht="14.35" customHeight="1">
       <c r="A40" t="s" s="6">
@@ -4764,7 +4812,9 @@
       <c r="H41" s="8">
         <v>0</v>
       </c>
-      <c r="I41" s="8"/>
+      <c r="I41" s="8">
+        <v>0.414285714285714</v>
+      </c>
       <c r="J41" s="8"/>
     </row>
     <row r="42" ht="14.35" customHeight="1">
@@ -4832,7 +4882,9 @@
       <c r="A44" t="s" s="6">
         <v>96</v>
       </c>
-      <c r="B44" s="10"/>
+      <c r="B44" t="s" s="6">
+        <v>97</v>
+      </c>
       <c r="C44" t="s" s="6">
         <v>12</v>
       </c>
@@ -4851,15 +4903,20 @@
       <c r="H44" s="8">
         <v>0.168831168831169</v>
       </c>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
+      <c r="I44" s="8">
+        <v>0.271428571428571</v>
+      </c>
+      <c r="J44" s="8">
+        <f>(LARGE(D44:G44,1)+LARGE(D44:G44,2))/2*0.3+(H44+I44)/2*0.7</f>
+        <v>0.376618381618381</v>
+      </c>
     </row>
     <row r="45" ht="14.35" customHeight="1">
       <c r="A45" t="s" s="6">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B45" t="s" s="6">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C45" t="s" s="6">
         <v>12</v>
@@ -4889,10 +4946,10 @@
     </row>
     <row r="46" ht="14.35" customHeight="1">
       <c r="A46" t="s" s="6">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B46" t="s" s="6">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C46" t="s" s="6">
         <v>22</v>
@@ -4917,10 +4974,10 @@
     </row>
     <row r="47" ht="14.35" customHeight="1">
       <c r="A47" t="s" s="6">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B47" t="s" s="6">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C47" t="s" s="6">
         <v>12</v>
@@ -4938,15 +4995,17 @@
       <c r="H47" s="8">
         <v>0.636363636363636</v>
       </c>
-      <c r="I47" s="8"/>
+      <c r="I47" s="8">
+        <v>0.8142857142857139</v>
+      </c>
       <c r="J47" s="8"/>
     </row>
     <row r="48" ht="14.35" customHeight="1">
       <c r="A48" t="s" s="6">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B48" t="s" s="6">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C48" t="s" s="6">
         <v>27</v>
@@ -4966,15 +5025,20 @@
       <c r="H48" s="8">
         <v>0.727272727272727</v>
       </c>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
+      <c r="I48" s="8">
+        <v>0.6857142857142861</v>
+      </c>
+      <c r="J48" s="8">
+        <f>(LARGE(D48:G48,1)+LARGE(D48:G48,2))/2*0.3+(H48+I48)/2*0.7</f>
+        <v>0.744682817182817</v>
+      </c>
     </row>
     <row r="49" ht="14.35" customHeight="1">
       <c r="A49" t="s" s="6">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B49" t="s" s="6">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s" s="6">
         <v>15</v>
@@ -5004,10 +5068,10 @@
     </row>
     <row r="50" ht="14.35" customHeight="1">
       <c r="A50" t="s" s="6">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B50" t="s" s="6">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C50" t="s" s="6">
         <v>22</v>
@@ -5027,15 +5091,20 @@
       <c r="H50" s="8">
         <v>0.311688311688312</v>
       </c>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
+      <c r="I50" s="8">
+        <v>0.385714285714286</v>
+      </c>
+      <c r="J50" s="8">
+        <f>(LARGE(D50:G50,1)+LARGE(D50:G50,2))/2*0.3+(H50+I50)/2*0.7</f>
+        <v>0.505354645354646</v>
+      </c>
     </row>
     <row r="51" ht="14.35" customHeight="1">
       <c r="A51" t="s" s="6">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B51" t="s" s="6">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C51" t="s" s="6">
         <v>22</v>
@@ -5065,10 +5134,10 @@
     </row>
     <row r="52" ht="14.35" customHeight="1">
       <c r="A52" t="s" s="6">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B52" t="s" s="6">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C52" t="s" s="6">
         <v>12</v>
@@ -5098,10 +5167,10 @@
     </row>
     <row r="53" ht="14.35" customHeight="1">
       <c r="A53" t="s" s="6">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B53" t="s" s="6">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C53" t="s" s="6">
         <v>15</v>
@@ -5121,15 +5190,20 @@
       <c r="H53" s="8">
         <v>0.5844155844155841</v>
       </c>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
+      <c r="I53" s="8">
+        <v>0.385714285714286</v>
+      </c>
+      <c r="J53" s="8">
+        <f>(LARGE(D53:G53,1)+LARGE(D53:G53,2))/2*0.3+(H53+I53)/2*0.7</f>
+        <v>0.5843256743256739</v>
+      </c>
     </row>
     <row r="54" ht="14.35" customHeight="1">
       <c r="A54" t="s" s="6">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B54" t="s" s="6">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C54" t="s" s="6">
         <v>15</v>
@@ -5154,10 +5228,10 @@
     </row>
     <row r="55" ht="14.35" customHeight="1">
       <c r="A55" t="s" s="6">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B55" t="s" s="6">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C55" t="s" s="6">
         <v>27</v>
@@ -5187,10 +5261,10 @@
     </row>
     <row r="56" ht="14.35" customHeight="1">
       <c r="A56" t="s" s="6">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B56" t="s" s="6">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s" s="6">
         <v>15</v>
@@ -5220,10 +5294,10 @@
     </row>
     <row r="57" ht="14.35" customHeight="1">
       <c r="A57" t="s" s="6">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B57" t="s" s="6">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C57" t="s" s="6">
         <v>27</v>
@@ -5243,15 +5317,20 @@
       <c r="H57" s="8">
         <v>0.5844155844155841</v>
       </c>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
+      <c r="I57" s="8">
+        <v>0.671428571428571</v>
+      </c>
+      <c r="J57" s="8">
+        <f>(LARGE(D57:G57,1)+LARGE(D57:G57,2))/2*0.3+(H57+I57)/2*0.7</f>
+        <v>0.706913243006993</v>
+      </c>
     </row>
     <row r="58" ht="14.35" customHeight="1">
       <c r="A58" t="s" s="6">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B58" t="s" s="6">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C58" t="s" s="6">
         <v>12</v>
@@ -5276,10 +5355,10 @@
     </row>
     <row r="59" ht="14.35" customHeight="1">
       <c r="A59" t="s" s="6">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B59" t="s" s="6">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C59" t="s" s="6">
         <v>12</v>
@@ -5304,10 +5383,10 @@
     </row>
     <row r="60" ht="14.35" customHeight="1">
       <c r="A60" t="s" s="6">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B60" t="s" s="6">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C60" t="s" s="6">
         <v>22</v>
@@ -5325,15 +5404,17 @@
       <c r="H60" s="8">
         <v>0.298701298701299</v>
       </c>
-      <c r="I60" s="8"/>
+      <c r="I60" s="8">
+        <v>0.514285714285714</v>
+      </c>
       <c r="J60" s="8"/>
     </row>
     <row r="61" ht="14.35" customHeight="1">
       <c r="A61" t="s" s="6">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B61" t="s" s="6">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C61" t="s" s="6">
         <v>15</v>
@@ -5358,10 +5439,10 @@
     </row>
     <row r="62" ht="14.35" customHeight="1">
       <c r="A62" t="s" s="6">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B62" t="s" s="6">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C62" t="s" s="6">
         <v>22</v>
@@ -5391,10 +5472,10 @@
     </row>
     <row r="63" ht="14.35" customHeight="1">
       <c r="A63" t="s" s="6">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B63" t="s" s="6">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C63" t="s" s="6">
         <v>27</v>
@@ -5424,10 +5505,10 @@
     </row>
     <row r="64" ht="14.35" customHeight="1">
       <c r="A64" t="s" s="6">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B64" t="s" s="6">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C64" t="s" s="6">
         <v>12</v>
@@ -5452,10 +5533,10 @@
     </row>
     <row r="65" ht="14.35" customHeight="1">
       <c r="A65" t="s" s="6">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B65" t="s" s="6">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C65" t="s" s="6">
         <v>27</v>
@@ -5485,10 +5566,10 @@
     </row>
     <row r="66" ht="14.35" customHeight="1">
       <c r="A66" t="s" s="6">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B66" t="s" s="6">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C66" t="s" s="6">
         <v>15</v>
@@ -5518,10 +5599,10 @@
     </row>
     <row r="67" ht="14.35" customHeight="1">
       <c r="A67" t="s" s="6">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B67" t="s" s="6">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C67" t="s" s="6">
         <v>27</v>
@@ -5551,10 +5632,10 @@
     </row>
     <row r="68" ht="14.35" customHeight="1">
       <c r="A68" t="s" s="6">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B68" t="s" s="6">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C68" t="s" s="6">
         <v>15</v>
@@ -5584,10 +5665,10 @@
     </row>
     <row r="69" ht="14.35" customHeight="1">
       <c r="A69" t="s" s="6">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B69" t="s" s="6">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="9">
@@ -5608,10 +5689,10 @@
     </row>
     <row r="70" ht="14.35" customHeight="1">
       <c r="A70" t="s" s="6">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B70" t="s" s="6">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C70" t="s" s="6">
         <v>22</v>
@@ -5641,10 +5722,10 @@
     </row>
     <row r="71" ht="14.35" customHeight="1">
       <c r="A71" t="s" s="6">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B71" t="s" s="6">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C71" t="s" s="6">
         <v>12</v>
@@ -5669,10 +5750,10 @@
     </row>
     <row r="72" ht="14.35" customHeight="1">
       <c r="A72" t="s" s="6">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B72" t="s" s="6">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C72" t="s" s="6">
         <v>27</v>
@@ -5690,15 +5771,17 @@
       <c r="H72" s="8">
         <v>0.467532467532468</v>
       </c>
-      <c r="I72" s="8"/>
+      <c r="I72" s="8">
+        <v>0.5571428571428571</v>
+      </c>
       <c r="J72" s="8"/>
     </row>
     <row r="73" ht="14.35" customHeight="1">
       <c r="A73" t="s" s="6">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B73" t="s" s="6">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C73" t="s" s="6">
         <v>15</v>
@@ -5718,15 +5801,20 @@
       <c r="H73" s="8">
         <v>0.493506493506494</v>
       </c>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
+      <c r="I73" s="8">
+        <v>0.614285714285714</v>
+      </c>
+      <c r="J73" s="8">
+        <f>(LARGE(D73:G73,1)+LARGE(D73:G73,2))/2*0.3+(H73+I73)/2*0.7</f>
+        <v>0.635443618881119</v>
+      </c>
     </row>
     <row r="74" ht="14.35" customHeight="1">
       <c r="A74" t="s" s="6">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B74" t="s" s="6">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C74" t="s" s="6">
         <v>12</v>
@@ -5751,10 +5839,10 @@
     </row>
     <row r="75" ht="14.35" customHeight="1">
       <c r="A75" t="s" s="6">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B75" t="s" s="6">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C75" t="s" s="6">
         <v>15</v>
@@ -5779,10 +5867,10 @@
     </row>
     <row r="76" ht="14.35" customHeight="1">
       <c r="A76" t="s" s="6">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B76" t="s" s="6">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C76" t="s" s="6">
         <v>15</v>
@@ -5807,10 +5895,10 @@
     </row>
     <row r="77" ht="14.35" customHeight="1">
       <c r="A77" t="s" s="6">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B77" t="s" s="6">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C77" t="s" s="6">
         <v>12</v>
@@ -5840,10 +5928,10 @@
     </row>
     <row r="78" ht="14.35" customHeight="1">
       <c r="A78" t="s" s="6">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B78" t="s" s="6">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C78" t="s" s="6">
         <v>22</v>
@@ -5868,10 +5956,10 @@
     </row>
     <row r="79" ht="14.35" customHeight="1">
       <c r="A79" t="s" s="6">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B79" t="s" s="6">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C79" t="s" s="6">
         <v>22</v>
@@ -5896,10 +5984,10 @@
     </row>
     <row r="80" ht="14.35" customHeight="1">
       <c r="A80" t="s" s="6">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B80" t="s" s="6">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C80" t="s" s="6">
         <v>15</v>
@@ -5917,15 +6005,17 @@
       <c r="H80" s="8">
         <v>0.337662337662338</v>
       </c>
-      <c r="I80" s="8"/>
+      <c r="I80" s="8">
+        <v>0.4</v>
+      </c>
       <c r="J80" s="8"/>
     </row>
     <row r="81" ht="14.35" customHeight="1">
       <c r="A81" t="s" s="6">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B81" t="s" s="6">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C81" t="s" s="6">
         <v>27</v>
@@ -5950,10 +6040,10 @@
     </row>
     <row r="82" ht="14.35" customHeight="1">
       <c r="A82" t="s" s="6">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B82" t="s" s="6">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C82" t="s" s="6">
         <v>22</v>
@@ -5971,15 +6061,17 @@
       <c r="H82" s="8">
         <v>0.207792207792208</v>
       </c>
-      <c r="I82" s="8"/>
+      <c r="I82" s="8">
+        <v>0.3</v>
+      </c>
       <c r="J82" s="8"/>
     </row>
     <row r="83" ht="14.35" customHeight="1">
       <c r="A83" t="s" s="6">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B83" t="s" s="6">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C83" t="s" s="6">
         <v>12</v>
@@ -6009,10 +6101,10 @@
     </row>
     <row r="84" ht="14.35" customHeight="1">
       <c r="A84" t="s" s="6">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B84" t="s" s="6">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C84" t="s" s="6">
         <v>27</v>
@@ -6030,15 +6122,17 @@
       <c r="H84" s="8">
         <v>0.597402597402597</v>
       </c>
-      <c r="I84" s="8"/>
+      <c r="I84" s="8">
+        <v>0.828571428571429</v>
+      </c>
       <c r="J84" s="8"/>
     </row>
     <row r="85" ht="14.35" customHeight="1">
       <c r="A85" t="s" s="6">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B85" t="s" s="6">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C85" t="s" s="6">
         <v>27</v>
@@ -6063,10 +6157,10 @@
     </row>
     <row r="86" ht="14.35" customHeight="1">
       <c r="A86" t="s" s="6">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B86" t="s" s="6">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C86" t="s" s="6">
         <v>12</v>
@@ -6096,10 +6190,10 @@
     </row>
     <row r="87" ht="14.35" customHeight="1">
       <c r="A87" t="s" s="6">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B87" t="s" s="6">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C87" t="s" s="6">
         <v>22</v>
@@ -6124,10 +6218,10 @@
     </row>
     <row r="88" ht="14.35" customHeight="1">
       <c r="A88" t="s" s="6">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B88" t="s" s="6">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C88" t="s" s="6">
         <v>27</v>
@@ -6145,15 +6239,17 @@
       <c r="H88" s="8">
         <v>0.454545454545455</v>
       </c>
-      <c r="I88" s="8"/>
+      <c r="I88" s="8">
+        <v>0.6857142857142861</v>
+      </c>
       <c r="J88" s="8"/>
     </row>
     <row r="89" ht="14.35" customHeight="1">
       <c r="A89" t="s" s="6">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B89" t="s" s="6">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C89" t="s" s="6">
         <v>27</v>
@@ -6178,10 +6274,10 @@
     </row>
     <row r="90" ht="14.35" customHeight="1">
       <c r="A90" t="s" s="6">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B90" t="s" s="6">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C90" t="s" s="6">
         <v>22</v>
@@ -6206,10 +6302,10 @@
     </row>
     <row r="91" ht="14.35" customHeight="1">
       <c r="A91" t="s" s="6">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B91" t="s" s="6">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C91" t="s" s="6">
         <v>12</v>
@@ -6239,10 +6335,10 @@
     </row>
     <row r="92" ht="14.35" customHeight="1">
       <c r="A92" t="s" s="6">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B92" t="s" s="6">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C92" t="s" s="6">
         <v>15</v>
@@ -6272,10 +6368,10 @@
     </row>
     <row r="93" ht="14.35" customHeight="1">
       <c r="A93" t="s" s="6">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B93" t="s" s="6">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C93" t="s" s="6">
         <v>22</v>
@@ -6305,10 +6401,10 @@
     </row>
     <row r="94" ht="14.35" customHeight="1">
       <c r="A94" t="s" s="6">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B94" t="s" s="6">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C94" t="s" s="6">
         <v>15</v>
@@ -6338,10 +6434,10 @@
     </row>
     <row r="95" ht="14.35" customHeight="1">
       <c r="A95" t="s" s="6">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B95" t="s" s="6">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C95" t="s" s="6">
         <v>22</v>
@@ -6371,10 +6467,10 @@
     </row>
     <row r="96" ht="14.35" customHeight="1">
       <c r="A96" t="s" s="6">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B96" t="s" s="6">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C96" t="s" s="6">
         <v>12</v>
@@ -6404,10 +6500,10 @@
     </row>
     <row r="97" ht="14.35" customHeight="1">
       <c r="A97" t="s" s="6">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B97" t="s" s="6">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C97" t="s" s="6">
         <v>22</v>
@@ -6425,15 +6521,17 @@
       <c r="H97" s="8">
         <v>0.298701298701299</v>
       </c>
-      <c r="I97" s="8"/>
+      <c r="I97" s="8">
+        <v>0.542857142857143</v>
+      </c>
       <c r="J97" s="8"/>
     </row>
     <row r="98" ht="14.35" customHeight="1">
       <c r="A98" t="s" s="6">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B98" t="s" s="6">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C98" t="s" s="6">
         <v>27</v>
@@ -6458,10 +6556,10 @@
     </row>
     <row r="99" ht="14.35" customHeight="1">
       <c r="A99" t="s" s="6">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B99" t="s" s="6">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C99" t="s" s="6">
         <v>27</v>
@@ -6491,10 +6589,10 @@
     </row>
     <row r="100" ht="14.35" customHeight="1">
       <c r="A100" t="s" s="6">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B100" t="s" s="6">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C100" t="s" s="6">
         <v>27</v>
@@ -6519,10 +6617,10 @@
     </row>
     <row r="101" ht="14.35" customHeight="1">
       <c r="A101" t="s" s="6">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B101" t="s" s="6">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C101" t="s" s="6">
         <v>12</v>
@@ -6547,10 +6645,10 @@
     </row>
     <row r="102" ht="14.35" customHeight="1">
       <c r="A102" t="s" s="6">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B102" t="s" s="6">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C102" t="s" s="6">
         <v>12</v>
@@ -6575,10 +6673,10 @@
     </row>
     <row r="103" ht="14.35" customHeight="1">
       <c r="A103" t="s" s="6">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B103" t="s" s="6">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C103" t="s" s="6">
         <v>15</v>
@@ -6603,10 +6701,10 @@
     </row>
     <row r="104" ht="14.35" customHeight="1">
       <c r="A104" t="s" s="6">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B104" t="s" s="6">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C104" t="s" s="6">
         <v>15</v>
@@ -6626,15 +6724,20 @@
       <c r="H104" s="8">
         <v>0.441558441558442</v>
       </c>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
+      <c r="I104" s="8">
+        <v>0.728571428571429</v>
+      </c>
+      <c r="J104" s="8">
+        <f>(LARGE(D104:G104,1)+LARGE(D104:G104,2))/2*0.3+(H104+I104)/2*0.7</f>
+        <v>0.65149256993007</v>
+      </c>
     </row>
     <row r="105" ht="14.35" customHeight="1">
       <c r="A105" t="s" s="6">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B105" t="s" s="6">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C105" t="s" s="6">
         <v>15</v>
@@ -6659,10 +6762,10 @@
     </row>
     <row r="106" ht="14.35" customHeight="1">
       <c r="A106" t="s" s="6">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B106" t="s" s="6">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C106" t="s" s="6">
         <v>27</v>
@@ -6682,15 +6785,17 @@
       <c r="H106" s="8">
         <v>0.662337662337662</v>
       </c>
-      <c r="I106" s="8"/>
+      <c r="I106" s="8">
+        <v>0.742857142857143</v>
+      </c>
       <c r="J106" s="8"/>
     </row>
     <row r="107" ht="14.35" customHeight="1">
       <c r="A107" t="s" s="6">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B107" t="s" s="6">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C107" t="s" s="6">
         <v>12</v>
@@ -6708,15 +6813,17 @@
       <c r="H107" s="8">
         <v>0.597402597402597</v>
       </c>
-      <c r="I107" s="8"/>
+      <c r="I107" s="8">
+        <v>0.671428571428571</v>
+      </c>
       <c r="J107" s="8"/>
     </row>
     <row r="108" ht="14.35" customHeight="1">
       <c r="A108" t="s" s="6">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B108" t="s" s="6">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C108" t="s" s="6">
         <v>22</v>
@@ -6746,10 +6853,10 @@
     </row>
     <row r="109" ht="14.35" customHeight="1">
       <c r="A109" t="s" s="6">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B109" t="s" s="6">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C109" t="s" s="6">
         <v>22</v>
@@ -6767,15 +6874,17 @@
       <c r="H109" s="8">
         <v>0.402597402597403</v>
       </c>
-      <c r="I109" s="8"/>
+      <c r="I109" s="8">
+        <v>0.657142857142857</v>
+      </c>
       <c r="J109" s="8"/>
     </row>
     <row r="110" ht="14.35" customHeight="1">
       <c r="A110" t="s" s="6">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B110" t="s" s="6">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C110" t="s" s="6">
         <v>22</v>
@@ -6793,15 +6902,17 @@
       <c r="H110" s="8">
         <v>0.337662337662338</v>
       </c>
-      <c r="I110" s="8"/>
+      <c r="I110" s="8">
+        <v>0.7</v>
+      </c>
       <c r="J110" s="8"/>
     </row>
     <row r="111" ht="14.35" customHeight="1">
       <c r="A111" t="s" s="6">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B111" t="s" s="6">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C111" t="s" s="6">
         <v>15</v>
@@ -6830,10 +6941,10 @@
     </row>
     <row r="112" ht="14.35" customHeight="1">
       <c r="A112" t="s" s="6">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B112" t="s" s="6">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C112" t="s" s="6">
         <v>15</v>
@@ -6851,15 +6962,17 @@
       <c r="H112" s="8">
         <v>0.38961038961039</v>
       </c>
-      <c r="I112" s="8"/>
+      <c r="I112" s="8">
+        <v>0.228571428571429</v>
+      </c>
       <c r="J112" s="8"/>
     </row>
     <row r="113" ht="14.35" customHeight="1">
       <c r="A113" t="s" s="6">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B113" t="s" s="6">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C113" t="s" s="6">
         <v>12</v>
@@ -6879,15 +6992,20 @@
       <c r="H113" s="8">
         <v>0.376623376623377</v>
       </c>
-      <c r="I113" s="8"/>
-      <c r="J113" s="8"/>
+      <c r="I113" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="J113" s="8">
+        <f>(LARGE(D113:G113,1)+LARGE(D113:G113,2))/2*0.3+(H113+I113)/2*0.7</f>
+        <v>0.647611451048951</v>
+      </c>
     </row>
     <row r="114" ht="14.35" customHeight="1">
       <c r="A114" t="s" s="6">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B114" t="s" s="6">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C114" t="s" s="6">
         <v>15</v>
@@ -6905,15 +7023,17 @@
       <c r="H114" s="8">
         <v>0.363636363636364</v>
       </c>
-      <c r="I114" s="8"/>
+      <c r="I114" s="8">
+        <v>0.2</v>
+      </c>
       <c r="J114" s="8"/>
     </row>
     <row r="115" ht="14.35" customHeight="1">
       <c r="A115" t="s" s="6">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B115" t="s" s="6">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C115" t="s" s="6">
         <v>12</v>
@@ -6938,10 +7058,10 @@
     </row>
     <row r="116" ht="14.35" customHeight="1">
       <c r="A116" t="s" s="6">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B116" t="s" s="6">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C116" t="s" s="6">
         <v>27</v>
@@ -6971,10 +7091,10 @@
     </row>
     <row r="117" ht="14.35" customHeight="1">
       <c r="A117" t="s" s="6">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B117" t="s" s="6">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C117" t="s" s="6">
         <v>22</v>
@@ -6994,15 +7114,20 @@
       <c r="H117" s="8">
         <v>0.701298701298701</v>
       </c>
-      <c r="I117" s="8"/>
-      <c r="J117" s="8"/>
+      <c r="I117" s="8">
+        <v>0.671428571428571</v>
+      </c>
+      <c r="J117" s="8">
+        <f>(LARGE(D117:G117,1)+LARGE(D117:G117,2))/2*0.3+(H117+I117)/2*0.7</f>
+        <v>0.742233391608391</v>
+      </c>
     </row>
     <row r="118" ht="14.35" customHeight="1">
       <c r="A118" t="s" s="6">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B118" t="s" s="6">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C118" t="s" s="6">
         <v>12</v>
@@ -7032,10 +7157,10 @@
     </row>
     <row r="119" ht="14.35" customHeight="1">
       <c r="A119" t="s" s="6">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B119" t="s" s="6">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C119" t="s" s="6">
         <v>12</v>
@@ -7065,10 +7190,10 @@
     </row>
     <row r="120" ht="14.35" customHeight="1">
       <c r="A120" t="s" s="6">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B120" t="s" s="6">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C120" t="s" s="6">
         <v>27</v>
@@ -7088,15 +7213,20 @@
       <c r="H120" s="8">
         <v>0.714285714285714</v>
       </c>
-      <c r="I120" s="8"/>
-      <c r="J120" s="8"/>
+      <c r="I120" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="J120" s="8">
+        <f>(LARGE(D120:G120,1)+LARGE(D120:G120,2))/2*0.3+(H120+I120)/2*0.7</f>
+        <v>0.7225</v>
+      </c>
     </row>
     <row r="121" ht="14.35" customHeight="1">
       <c r="A121" t="s" s="6">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B121" t="s" s="6">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C121" t="s" s="6">
         <v>22</v>
@@ -7121,10 +7251,10 @@
     </row>
     <row r="122" ht="14.35" customHeight="1">
       <c r="A122" t="s" s="6">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B122" t="s" s="6">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C122" t="s" s="6">
         <v>15</v>
@@ -7154,10 +7284,10 @@
     </row>
     <row r="123" ht="14.35" customHeight="1">
       <c r="A123" t="s" s="6">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B123" t="s" s="6">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C123" t="s" s="6">
         <v>27</v>
@@ -7175,15 +7305,17 @@
       <c r="H123" s="8">
         <v>0.675324675324675</v>
       </c>
-      <c r="I123" s="8"/>
+      <c r="I123" s="8">
+        <v>0.6857142857142861</v>
+      </c>
       <c r="J123" s="8"/>
     </row>
     <row r="124" ht="14.35" customHeight="1">
       <c r="A124" t="s" s="6">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B124" t="s" s="6">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C124" t="s" s="6">
         <v>15</v>
@@ -7208,10 +7340,10 @@
     </row>
     <row r="125" ht="14.35" customHeight="1">
       <c r="A125" t="s" s="6">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B125" t="s" s="6">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C125" t="s" s="6">
         <v>27</v>
@@ -7229,15 +7361,17 @@
       <c r="H125" s="8">
         <v>0.532467532467532</v>
       </c>
-      <c r="I125" s="8"/>
+      <c r="I125" s="8">
+        <v>0.628571428571429</v>
+      </c>
       <c r="J125" s="8"/>
     </row>
     <row r="126" ht="28.35" customHeight="1">
       <c r="A126" t="s" s="6">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B126" t="s" s="6">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C126" t="s" s="6">
         <v>15</v>
@@ -7262,10 +7396,10 @@
     </row>
     <row r="127" ht="14.35" customHeight="1">
       <c r="A127" t="s" s="6">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B127" t="s" s="6">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C127" t="s" s="6">
         <v>22</v>
@@ -7290,10 +7424,10 @@
     </row>
     <row r="128" ht="14.35" customHeight="1">
       <c r="A128" t="s" s="6">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B128" t="s" s="6">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C128" t="s" s="6">
         <v>12</v>
@@ -7318,10 +7452,10 @@
     </row>
     <row r="129" ht="14.35" customHeight="1">
       <c r="A129" t="s" s="6">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B129" t="s" s="6">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C129" s="10"/>
       <c r="D129" s="9">
@@ -7342,10 +7476,10 @@
     </row>
     <row r="130" ht="14.35" customHeight="1">
       <c r="A130" t="s" s="6">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B130" t="s" s="6">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C130" t="s" s="6">
         <v>15</v>
@@ -7363,15 +7497,17 @@
       <c r="H130" s="8">
         <v>0.402597402597403</v>
       </c>
-      <c r="I130" s="8"/>
+      <c r="I130" s="8">
+        <v>0.2</v>
+      </c>
       <c r="J130" s="8"/>
     </row>
     <row r="131" ht="14.35" customHeight="1">
       <c r="A131" t="s" s="6">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B131" t="s" s="6">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C131" t="s" s="6">
         <v>12</v>
@@ -7391,15 +7527,20 @@
       <c r="H131" s="8">
         <v>0.701298701298701</v>
       </c>
-      <c r="I131" s="8"/>
-      <c r="J131" s="8"/>
+      <c r="I131" s="8">
+        <v>0.728571428571429</v>
+      </c>
+      <c r="J131" s="8">
+        <f>(LARGE(D131:G131,1)+LARGE(D131:G131,2))/2*0.3+(H131+I131)/2*0.7</f>
+        <v>0.756283872377622</v>
+      </c>
     </row>
     <row r="132" ht="14.35" customHeight="1">
       <c r="A132" t="s" s="6">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B132" t="s" s="6">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C132" t="s" s="6">
         <v>12</v>
@@ -7420,19 +7561,19 @@
         <v>0.558441558441558</v>
       </c>
       <c r="I132" s="8">
-        <v>0.7</v>
+        <v>0.728571428571429</v>
       </c>
       <c r="J132" s="8">
         <f>(LARGE(D132:G132,1)+LARGE(D132:G132,2))/2*0.3+(H132+I132)/2*0.7</f>
-        <v>0.673696303696304</v>
+        <v>0.683696303696304</v>
       </c>
     </row>
     <row r="133" ht="14.35" customHeight="1">
       <c r="A133" t="s" s="6">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B133" t="s" s="6">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C133" t="s" s="6">
         <v>27</v>
@@ -7462,10 +7603,10 @@
     </row>
     <row r="134" ht="14.35" customHeight="1">
       <c r="A134" t="s" s="6">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B134" t="s" s="6">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C134" t="s" s="6">
         <v>15</v>
@@ -7495,10 +7636,10 @@
     </row>
     <row r="135" ht="14.35" customHeight="1">
       <c r="A135" t="s" s="6">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B135" t="s" s="6">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C135" t="s" s="6">
         <v>12</v>
@@ -7527,10 +7668,10 @@
     </row>
     <row r="136" ht="14.35" customHeight="1">
       <c r="A136" t="s" s="6">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B136" t="s" s="6">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C136" s="10"/>
       <c r="D136" s="7">
@@ -7553,10 +7694,10 @@
     </row>
     <row r="137" ht="14.35" customHeight="1">
       <c r="A137" t="s" s="6">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B137" t="s" s="6">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C137" t="s" s="6">
         <v>12</v>
@@ -7581,10 +7722,10 @@
     </row>
     <row r="138" ht="14.35" customHeight="1">
       <c r="A138" t="s" s="6">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B138" t="s" s="6">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C138" t="s" s="6">
         <v>15</v>
@@ -7609,10 +7750,10 @@
     </row>
     <row r="139" ht="14.35" customHeight="1">
       <c r="A139" t="s" s="6">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B139" t="s" s="6">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C139" t="s" s="6">
         <v>27</v>
@@ -7632,15 +7773,20 @@
       <c r="H139" s="8">
         <v>0.467532467532468</v>
       </c>
-      <c r="I139" s="8"/>
-      <c r="J139" s="8"/>
+      <c r="I139" s="8">
+        <v>0.628571428571429</v>
+      </c>
+      <c r="J139" s="8">
+        <f>(LARGE(D139:G139,1)+LARGE(D139:G139,2))/2*0.3+(H139+I139)/2*0.7</f>
+        <v>0.646136363636364</v>
+      </c>
     </row>
     <row r="140" ht="14.35" customHeight="1">
       <c r="A140" t="s" s="6">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B140" t="s" s="6">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C140" t="s" s="6">
         <v>15</v>
@@ -7665,10 +7811,10 @@
     </row>
     <row r="141" ht="14.35" customHeight="1">
       <c r="A141" t="s" s="6">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B141" t="s" s="6">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C141" t="s" s="6">
         <v>15</v>
@@ -7693,10 +7839,10 @@
     </row>
     <row r="142" ht="14.35" customHeight="1">
       <c r="A142" t="s" s="6">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B142" t="s" s="6">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C142" s="10"/>
       <c r="D142" s="9">
@@ -7712,15 +7858,17 @@
       <c r="H142" s="8">
         <v>0.675324675324675</v>
       </c>
-      <c r="I142" s="8"/>
+      <c r="I142" s="8">
+        <v>0.785714285714286</v>
+      </c>
       <c r="J142" s="8"/>
     </row>
     <row r="143" ht="14.35" customHeight="1">
       <c r="A143" t="s" s="6">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B143" t="s" s="6">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C143" t="s" s="6">
         <v>27</v>
@@ -7750,10 +7898,10 @@
     </row>
     <row r="144" ht="14.35" customHeight="1">
       <c r="A144" t="s" s="6">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B144" t="s" s="6">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C144" t="s" s="6">
         <v>22</v>
@@ -7783,10 +7931,10 @@
     </row>
     <row r="145" ht="14.35" customHeight="1">
       <c r="A145" t="s" s="6">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B145" t="s" s="6">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C145" t="s" s="6">
         <v>27</v>
@@ -7806,15 +7954,20 @@
       <c r="H145" s="8">
         <v>0.571428571428571</v>
       </c>
-      <c r="I145" s="8"/>
-      <c r="J145" s="8"/>
+      <c r="I145" s="8">
+        <v>0.671428571428571</v>
+      </c>
+      <c r="J145" s="8">
+        <f>(LARGE(D145:G145,1)+LARGE(D145:G145,2))/2*0.3+(H145+I145)/2*0.7</f>
+        <v>0.691318681318681</v>
+      </c>
     </row>
     <row r="146" ht="14.35" customHeight="1">
       <c r="A146" t="s" s="6">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B146" t="s" s="6">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C146" t="s" s="6">
         <v>12</v>
@@ -7844,10 +7997,10 @@
     </row>
     <row r="147" ht="14.35" customHeight="1">
       <c r="A147" t="s" s="6">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B147" t="s" s="6">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C147" t="s" s="6">
         <v>15</v>
@@ -7867,15 +8020,20 @@
       <c r="H147" s="8">
         <v>0.38961038961039</v>
       </c>
-      <c r="I147" s="8"/>
-      <c r="J147" s="8"/>
+      <c r="I147" s="8">
+        <v>0.457142857142857</v>
+      </c>
+      <c r="J147" s="8">
+        <f>(LARGE(D147:G147,1)+LARGE(D147:G147,2))/2*0.3+(H147+I147)/2*0.7</f>
+        <v>0.544079982517483</v>
+      </c>
     </row>
     <row r="148" ht="14.35" customHeight="1">
       <c r="A148" t="s" s="6">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B148" t="s" s="6">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C148" t="s" s="6">
         <v>27</v>
@@ -7900,10 +8058,10 @@
     </row>
     <row r="149" ht="14.35" customHeight="1">
       <c r="A149" t="s" s="6">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B149" t="s" s="6">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C149" t="s" s="6">
         <v>27</v>
@@ -7923,15 +8081,20 @@
       <c r="H149" s="8">
         <v>0.597402597402597</v>
       </c>
-      <c r="I149" s="8"/>
-      <c r="J149" s="8"/>
+      <c r="I149" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="J149" s="8">
+        <f>(LARGE(D149:G149,1)+LARGE(D149:G149,2))/2*0.3+(H149+I149)/2*0.7</f>
+        <v>0.749607736013986</v>
+      </c>
     </row>
     <row r="150" ht="14.35" customHeight="1">
       <c r="A150" t="s" s="6">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B150" t="s" s="6">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C150" t="s" s="6">
         <v>12</v>
@@ -7949,15 +8112,17 @@
       <c r="H150" s="8">
         <v>0.649350649350649</v>
       </c>
-      <c r="I150" s="8"/>
+      <c r="I150" s="8">
+        <v>0.8</v>
+      </c>
       <c r="J150" s="8"/>
     </row>
     <row r="151" ht="14.35" customHeight="1">
       <c r="A151" t="s" s="6">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B151" t="s" s="6">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C151" s="10"/>
       <c r="D151" s="9">
@@ -7980,10 +8145,10 @@
     </row>
     <row r="152" ht="14.35" customHeight="1">
       <c r="A152" t="s" s="6">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B152" t="s" s="6">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C152" t="s" s="6">
         <v>15</v>
@@ -8001,15 +8166,17 @@
       <c r="H152" s="8">
         <v>0.532467532467532</v>
       </c>
-      <c r="I152" s="8"/>
+      <c r="I152" s="8">
+        <v>0.614285714285714</v>
+      </c>
       <c r="J152" s="8"/>
     </row>
     <row r="153" ht="14.35" customHeight="1">
       <c r="A153" t="s" s="6">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B153" t="s" s="6">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C153" t="s" s="6">
         <v>15</v>
@@ -8034,10 +8201,10 @@
     </row>
     <row r="154" ht="14.35" customHeight="1">
       <c r="A154" t="s" s="6">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B154" t="s" s="6">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C154" t="s" s="6">
         <v>22</v>
@@ -8062,10 +8229,10 @@
     </row>
     <row r="155" ht="14.35" customHeight="1">
       <c r="A155" t="s" s="6">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B155" t="s" s="6">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C155" t="s" s="6">
         <v>22</v>
@@ -8083,15 +8250,17 @@
       <c r="H155" s="8">
         <v>0.350649350649351</v>
       </c>
-      <c r="I155" s="8"/>
+      <c r="I155" s="8">
+        <v>0.528571428571429</v>
+      </c>
       <c r="J155" s="8"/>
     </row>
     <row r="156" ht="14.35" customHeight="1">
       <c r="A156" t="s" s="6">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B156" t="s" s="6">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C156" t="s" s="6">
         <v>12</v>
@@ -8121,10 +8290,10 @@
     </row>
     <row r="157" ht="14.35" customHeight="1">
       <c r="A157" t="s" s="6">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B157" t="s" s="6">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C157" t="s" s="6">
         <v>12</v>
@@ -8149,10 +8318,10 @@
     </row>
     <row r="158" ht="14.35" customHeight="1">
       <c r="A158" t="s" s="6">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B158" t="s" s="6">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C158" t="s" s="6">
         <v>22</v>
@@ -8182,10 +8351,10 @@
     </row>
     <row r="159" ht="14.35" customHeight="1">
       <c r="A159" t="s" s="6">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B159" t="s" s="6">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C159" t="s" s="6">
         <v>27</v>
@@ -8203,15 +8372,17 @@
       <c r="H159" s="8">
         <v>0.727272727272727</v>
       </c>
-      <c r="I159" s="8"/>
+      <c r="I159" s="8">
+        <v>0.785714285714286</v>
+      </c>
       <c r="J159" s="8"/>
     </row>
     <row r="160" ht="14.35" customHeight="1">
       <c r="A160" t="s" s="6">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B160" t="s" s="6">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C160" t="s" s="6">
         <v>27</v>
@@ -8241,10 +8412,10 @@
     </row>
     <row r="161" ht="14.35" customHeight="1">
       <c r="A161" t="s" s="6">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B161" t="s" s="6">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C161" t="s" s="6">
         <v>27</v>
@@ -8265,10 +8436,10 @@
     </row>
     <row r="162" ht="14.35" customHeight="1">
       <c r="A162" t="s" s="6">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B162" t="s" s="6">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C162" t="s" s="6">
         <v>12</v>
@@ -8288,15 +8459,20 @@
       <c r="H162" s="8">
         <v>0.61038961038961</v>
       </c>
-      <c r="I162" s="8"/>
-      <c r="J162" s="8"/>
+      <c r="I162" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="J162" s="8">
+        <f>(LARGE(D162:G162,1)+LARGE(D162:G162,2))/2*0.3+(H162+I162)/2*0.7</f>
+        <v>0.633416583416583</v>
+      </c>
     </row>
     <row r="163" ht="14.35" customHeight="1">
       <c r="A163" t="s" s="6">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B163" t="s" s="6">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="9">
@@ -8319,10 +8495,10 @@
     </row>
     <row r="164" ht="14.35" customHeight="1">
       <c r="A164" t="s" s="6">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B164" t="s" s="6">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C164" t="s" s="6">
         <v>12</v>
@@ -8347,10 +8523,10 @@
     </row>
     <row r="165" ht="14.35" customHeight="1">
       <c r="A165" t="s" s="6">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B165" t="s" s="6">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C165" t="s" s="6">
         <v>15</v>
@@ -8380,10 +8556,10 @@
     </row>
     <row r="166" ht="14.35" customHeight="1">
       <c r="A166" t="s" s="6">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B166" t="s" s="6">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C166" t="s" s="6">
         <v>12</v>
@@ -8413,10 +8589,10 @@
     </row>
     <row r="167" ht="14.35" customHeight="1">
       <c r="A167" t="s" s="6">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B167" t="s" s="6">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C167" t="s" s="6">
         <v>22</v>
@@ -8436,15 +8612,20 @@
       <c r="H167" s="8">
         <v>0.467532467532468</v>
       </c>
-      <c r="I167" s="8"/>
-      <c r="J167" s="8"/>
+      <c r="I167" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="J167" s="8">
+        <f>(LARGE(D167:G167,1)+LARGE(D167:G167,2))/2*0.3+(H167+I167)/2*0.7</f>
+        <v>0.628100649350649</v>
+      </c>
     </row>
     <row r="168" ht="14.35" customHeight="1">
       <c r="A168" t="s" s="6">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B168" t="s" s="6">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C168" t="s" s="6">
         <v>27</v>
@@ -8462,15 +8643,17 @@
       <c r="H168" s="8">
         <v>0.623376623376623</v>
       </c>
-      <c r="I168" s="8"/>
+      <c r="I168" s="8">
+        <v>0.742857142857143</v>
+      </c>
       <c r="J168" s="8"/>
     </row>
     <row r="169" ht="14.35" customHeight="1">
       <c r="A169" t="s" s="6">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B169" t="s" s="6">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C169" t="s" s="6">
         <v>27</v>
@@ -8495,10 +8678,10 @@
     </row>
     <row r="170" ht="14.35" customHeight="1">
       <c r="A170" t="s" s="6">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B170" t="s" s="6">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C170" t="s" s="6">
         <v>12</v>
@@ -8528,10 +8711,10 @@
     </row>
     <row r="171" ht="14.35" customHeight="1">
       <c r="A171" t="s" s="6">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B171" t="s" s="6">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C171" t="s" s="6">
         <v>27</v>
@@ -8551,15 +8734,20 @@
       <c r="H171" s="8">
         <v>0.636363636363636</v>
       </c>
-      <c r="I171" s="8"/>
-      <c r="J171" s="8"/>
+      <c r="I171" s="8">
+        <v>0.6857142857142861</v>
+      </c>
+      <c r="J171" s="8">
+        <f>(LARGE(D171:G171,1)+LARGE(D171:G171,2))/2*0.3+(H171+I171)/2*0.7</f>
+        <v>0.7172945804195801</v>
+      </c>
     </row>
     <row r="172" ht="14.35" customHeight="1">
       <c r="A172" t="s" s="6">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B172" t="s" s="6">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C172" t="s" s="6">
         <v>15</v>
@@ -8584,10 +8772,10 @@
     </row>
     <row r="173" ht="14.35" customHeight="1">
       <c r="A173" t="s" s="6">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B173" t="s" s="6">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C173" t="s" s="6">
         <v>15</v>
@@ -8612,10 +8800,10 @@
     </row>
     <row r="174" ht="14.35" customHeight="1">
       <c r="A174" t="s" s="6">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B174" t="s" s="6">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C174" t="s" s="6">
         <v>15</v>
@@ -8640,10 +8828,10 @@
     </row>
     <row r="175" ht="14.35" customHeight="1">
       <c r="A175" t="s" s="6">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B175" t="s" s="6">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C175" t="s" s="6">
         <v>15</v>
@@ -8673,10 +8861,10 @@
     </row>
     <row r="176" ht="14.35" customHeight="1">
       <c r="A176" t="s" s="6">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B176" t="s" s="6">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C176" t="s" s="6">
         <v>27</v>
@@ -8694,7 +8882,9 @@
       <c r="H176" s="8">
         <v>0.545454545454545</v>
       </c>
-      <c r="I176" s="8"/>
+      <c r="I176" s="8">
+        <v>0.728571428571429</v>
+      </c>
       <c r="J176" s="8"/>
     </row>
   </sheetData>

--- a/cw11042022.xlsx
+++ b/cw11042022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="364">
   <si>
     <t>Surname</t>
   </si>
@@ -801,6 +801,15 @@
       </rPr>
       <t>H220281P@hit.ac.zw</t>
     </r>
+  </si>
+  <si>
+    <t>Karomo</t>
+  </si>
+  <si>
+    <t>H140492M</t>
+  </si>
+  <si>
+    <t>IIT</t>
   </si>
   <si>
     <t>Kasima</t>
@@ -3529,7 +3538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J176"/>
+  <dimension ref="A1:J177"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -3598,7 +3607,9 @@
       <c r="E2" s="5">
         <v>0.821428571428571</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="5">
+        <v>0.923076923076923</v>
+      </c>
       <c r="G2" s="5">
         <v>0</v>
       </c>
@@ -3608,7 +3619,10 @@
       <c r="I2" s="5">
         <v>0.4</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="J2" s="5">
+        <f>(LARGE(D2:G2,1)+LARGE(D2:G2,2))/2*0.3+(H2+I2)/2*0.7</f>
+        <v>0.507832167832168</v>
+      </c>
     </row>
     <row r="3" ht="14.35" customHeight="1">
       <c r="A3" t="s" s="6">
@@ -3626,7 +3640,9 @@
       <c r="E3" s="8">
         <v>0.821428571428571</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="8">
+        <v>0.653846153846154</v>
+      </c>
       <c r="G3" s="8">
         <v>0.890625</v>
       </c>
@@ -3636,7 +3652,10 @@
       <c r="I3" s="8">
         <v>0.628571428571429</v>
       </c>
-      <c r="J3" s="8"/>
+      <c r="J3" s="8">
+        <f>(LARGE(D3:G3,1)+LARGE(D3:G3,2))/2*0.3+(H3+I3)/2*0.7</f>
+        <v>0.622262581168831</v>
+      </c>
     </row>
     <row r="4" ht="14.35" customHeight="1">
       <c r="A4" t="s" s="6">
@@ -3720,7 +3739,9 @@
       <c r="E6" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8">
+        <v>0.884615384615385</v>
+      </c>
       <c r="G6" s="8">
         <v>0.96875</v>
       </c>
@@ -3730,7 +3751,10 @@
       <c r="I6" s="8">
         <v>0.485714285714286</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="J6" s="8">
+        <f>(LARGE(D6:G6,1)+LARGE(D6:G6,2))/2*0.3+(H6+I6)/2*0.7</f>
+        <v>0.543459353146853</v>
+      </c>
     </row>
     <row r="7" ht="14.35" customHeight="1">
       <c r="A7" t="s" s="6">
@@ -3748,7 +3772,9 @@
       <c r="E7" s="8">
         <v>0.714285714285714</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="G7" s="8">
         <v>0.84375</v>
       </c>
@@ -3758,7 +3784,10 @@
       <c r="I7" s="8">
         <v>0.6</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="8">
+        <f>(LARGE(D7:G7,1)+LARGE(D7:G7,2))/2*0.3+(H7+I7)/2*0.7</f>
+        <v>0.6064925699300699</v>
+      </c>
     </row>
     <row r="8" ht="14.35" customHeight="1">
       <c r="A8" t="s" s="6">
@@ -3776,7 +3805,9 @@
       <c r="E8" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8">
+        <v>0.7307692307692309</v>
+      </c>
       <c r="G8" s="8">
         <v>0.765625</v>
       </c>
@@ -3786,7 +3817,10 @@
       <c r="I8" s="8">
         <v>0.528571428571429</v>
       </c>
-      <c r="J8" s="8"/>
+      <c r="J8" s="8">
+        <f>(LARGE(D8:G8,1)+LARGE(D8:G8,2))/2*0.3+(H8+I8)/2*0.7</f>
+        <v>0.64497362012987</v>
+      </c>
     </row>
     <row r="9" ht="14.35" customHeight="1">
       <c r="A9" t="s" s="6">
@@ -3837,7 +3871,9 @@
       <c r="E10" s="8">
         <v>0.714285714285714</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8">
+        <v>0.961538461538462</v>
+      </c>
       <c r="G10" s="8">
         <v>0.859375</v>
       </c>
@@ -3847,7 +3883,10 @@
       <c r="I10" s="8">
         <v>0.414285714285714</v>
       </c>
-      <c r="J10" s="8"/>
+      <c r="J10" s="8">
+        <f>(LARGE(D10:G10,1)+LARGE(D10:G10,2))/2*0.3+(H10+I10)/2*0.7</f>
+        <v>0.536318837412588</v>
+      </c>
     </row>
     <row r="11" ht="14.35" customHeight="1">
       <c r="A11" t="s" s="6">
@@ -3898,7 +3937,9 @@
       <c r="E12" s="8">
         <v>0.714285714285714</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="8">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="G12" s="8">
         <v>0.8125</v>
       </c>
@@ -3908,7 +3949,10 @@
       <c r="I12" s="8">
         <v>0.671428571428571</v>
       </c>
-      <c r="J12" s="8"/>
+      <c r="J12" s="8">
+        <f>(LARGE(D12:G12,1)+LARGE(D12:G12,2))/2*0.3+(H12+I12)/2*0.7</f>
+        <v>0.585895979020979</v>
+      </c>
     </row>
     <row r="13" ht="14.35" customHeight="1">
       <c r="A13" t="s" s="6">
@@ -4190,7 +4234,9 @@
       <c r="E21" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="8">
+        <v>0.884615384615385</v>
+      </c>
       <c r="G21" s="8">
         <v>0.828125</v>
       </c>
@@ -4200,7 +4246,10 @@
       <c r="I21" s="8">
         <v>0.628571428571429</v>
       </c>
-      <c r="J21" s="8"/>
+      <c r="J21" s="8">
+        <f>(LARGE(D21:G21,1)+LARGE(D21:G21,2))/2*0.3+(H21+I21)/2*0.7</f>
+        <v>0.617820148601399</v>
+      </c>
     </row>
     <row r="22" ht="14.35" customHeight="1">
       <c r="A22" t="s" s="6">
@@ -4251,7 +4300,9 @@
       <c r="E23" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F23" s="8"/>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
       <c r="G23" s="8">
         <v>0.71875</v>
       </c>
@@ -4261,7 +4312,10 @@
       <c r="I23" s="8">
         <v>0.5571428571428571</v>
       </c>
-      <c r="J23" s="8"/>
+      <c r="J23" s="8">
+        <f>(LARGE(D23:G23,1)+LARGE(D23:G23,2))/2*0.3+(H23+I23)/2*0.7</f>
+        <v>0.604203296703297</v>
+      </c>
     </row>
     <row r="24" ht="14.35" customHeight="1">
       <c r="A24" t="s" s="6">
@@ -4312,7 +4366,9 @@
       <c r="E25" s="8">
         <v>0</v>
       </c>
-      <c r="F25" s="8"/>
+      <c r="F25" s="8">
+        <v>0.153846153846154</v>
+      </c>
       <c r="G25" s="8">
         <v>0.859375</v>
       </c>
@@ -4322,7 +4378,10 @@
       <c r="I25" s="8">
         <v>0.414285714285714</v>
       </c>
-      <c r="J25" s="8"/>
+      <c r="J25" s="8">
+        <f>(LARGE(D25:G25,1)+LARGE(D25:G25,2))/2*0.3+(H25+I25)/1*0.7</f>
+        <v>0.525637019230769</v>
+      </c>
     </row>
     <row r="26" ht="14.35" customHeight="1">
       <c r="A26" t="s" s="6">
@@ -4406,7 +4465,9 @@
       <c r="E28" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F28" s="8"/>
+      <c r="F28" s="8">
+        <v>0.807692307692308</v>
+      </c>
       <c r="G28" s="8">
         <v>0.9375</v>
       </c>
@@ -4416,7 +4477,10 @@
       <c r="I28" s="8">
         <v>0.5571428571428571</v>
       </c>
-      <c r="J28" s="8"/>
+      <c r="J28" s="8">
+        <f>(LARGE(D28:G28,1)+LARGE(D28:G28,2))/2*0.3+(H28+I28)/2*0.7</f>
+        <v>0.647687937062937</v>
+      </c>
     </row>
     <row r="29" ht="14.35" customHeight="1">
       <c r="A29" t="s" s="6">
@@ -4434,7 +4498,9 @@
       <c r="E29" s="8">
         <v>0.714285714285714</v>
       </c>
-      <c r="F29" s="8"/>
+      <c r="F29" s="8">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="G29" s="8">
         <v>0.8125</v>
       </c>
@@ -4444,7 +4510,10 @@
       <c r="I29" s="8">
         <v>0.414285714285714</v>
       </c>
-      <c r="J29" s="8"/>
+      <c r="J29" s="8">
+        <f>(LARGE(D29:G29,1)+LARGE(D29:G29,2))/2*0.3+(H29+I29)/2*0.7</f>
+        <v>0.523168706293706</v>
+      </c>
     </row>
     <row r="30" ht="14.35" customHeight="1">
       <c r="A30" t="s" s="6">
@@ -4462,7 +4531,9 @@
       <c r="E30" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F30" s="8"/>
+      <c r="F30" s="8">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="G30" s="8">
         <v>0.609375</v>
       </c>
@@ -4472,7 +4543,10 @@
       <c r="I30" s="8">
         <v>0.328571428571429</v>
       </c>
-      <c r="J30" s="8"/>
+      <c r="J30" s="8">
+        <f>(LARGE(D30:G30,1)+LARGE(D30:G30,2))/2*0.3+(H30+I30)/2*0.7</f>
+        <v>0.432944555444556</v>
+      </c>
     </row>
     <row r="31" ht="14.35" customHeight="1">
       <c r="A31" t="s" s="6">
@@ -4490,7 +4564,9 @@
       <c r="E31" s="8">
         <v>0.714285714285714</v>
       </c>
-      <c r="F31" s="8"/>
+      <c r="F31" s="8">
+        <v>0</v>
+      </c>
       <c r="G31" s="8">
         <v>0.828125</v>
       </c>
@@ -4500,7 +4576,10 @@
       <c r="I31" s="8">
         <v>0.285714285714286</v>
       </c>
-      <c r="J31" s="8"/>
+      <c r="J31" s="8">
+        <f>(LARGE(D31:G31,1)+LARGE(D31:G31,2))/2*0.3+(H31+I31)/1*0.7</f>
+        <v>0.439603365384616</v>
+      </c>
     </row>
     <row r="32" ht="14.35" customHeight="1">
       <c r="A32" t="s" s="6">
@@ -4584,7 +4663,9 @@
       <c r="E34" s="8">
         <v>0.714285714285714</v>
       </c>
-      <c r="F34" s="8"/>
+      <c r="F34" s="8">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="G34" s="8">
         <v>0.703125</v>
       </c>
@@ -4594,7 +4675,10 @@
       <c r="I34" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="J34" s="8"/>
+      <c r="J34" s="8">
+        <f>(LARGE(D34:G34,1)+LARGE(D34:G34,2))/2*0.3+(H34+I34)/2*0.7</f>
+        <v>0.720254745254745</v>
+      </c>
     </row>
     <row r="35" ht="14.35" customHeight="1">
       <c r="A35" t="s" s="6">
@@ -4645,7 +4729,9 @@
       <c r="E36" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F36" s="8"/>
+      <c r="F36" s="8">
+        <v>0.807692307692308</v>
+      </c>
       <c r="G36" s="8">
         <v>0</v>
       </c>
@@ -4655,7 +4741,10 @@
       <c r="I36" s="8">
         <v>0.714285714285714</v>
       </c>
-      <c r="J36" s="8"/>
+      <c r="J36" s="8">
+        <f>(LARGE(D36:G36,1)+LARGE(D36:G36,2))/2*0.3+(H36+I36)/2*0.7</f>
+        <v>0.698426573426573</v>
+      </c>
     </row>
     <row r="37" ht="14.35" customHeight="1">
       <c r="A37" t="s" s="6">
@@ -4805,7 +4894,9 @@
       <c r="E41" s="8">
         <v>0.821428571428571</v>
       </c>
-      <c r="F41" s="8"/>
+      <c r="F41" s="8">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="G41" s="8">
         <v>0.692307692307692</v>
       </c>
@@ -4815,7 +4906,10 @@
       <c r="I41" s="8">
         <v>0.414285714285714</v>
       </c>
-      <c r="J41" s="8"/>
+      <c r="J41" s="8">
+        <f>(LARGE(D41:G41,1)+LARGE(D41:G41,2))/2*0.3+(H41+I41)/1*0.7</f>
+        <v>0.534368131868132</v>
+      </c>
     </row>
     <row r="42" ht="14.35" customHeight="1">
       <c r="A42" t="s" s="6">
@@ -4866,7 +4960,9 @@
       <c r="E43" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F43" s="8"/>
+      <c r="F43" s="8">
+        <v>0.7307692307692309</v>
+      </c>
       <c r="G43" s="8">
         <v>0.75</v>
       </c>
@@ -4876,7 +4972,10 @@
       <c r="I43" s="8">
         <v>0.657142857142857</v>
       </c>
-      <c r="J43" s="8"/>
+      <c r="J43" s="8">
+        <f>(LARGE(D43:G43,1)+LARGE(D43:G43,2))/2*0.3+(H43+I43)/2*0.7</f>
+        <v>0.63762987012987</v>
+      </c>
     </row>
     <row r="44" ht="14.35" customHeight="1">
       <c r="A44" t="s" s="6">
@@ -4960,7 +5059,9 @@
       <c r="E46" s="8">
         <v>0.678571428571429</v>
       </c>
-      <c r="F46" s="8"/>
+      <c r="F46" s="8">
+        <v>0.807692307692308</v>
+      </c>
       <c r="G46" s="8">
         <v>0.625</v>
       </c>
@@ -4970,7 +5071,10 @@
       <c r="I46" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="J46" s="8"/>
+      <c r="J46" s="8">
+        <f>(LARGE(D46:G46,1)+LARGE(D46:G46,2))/2*0.3+(H46+I46)/2*0.7</f>
+        <v>0.666121378621379</v>
+      </c>
     </row>
     <row r="47" ht="14.35" customHeight="1">
       <c r="A47" t="s" s="6">
@@ -4988,7 +5092,9 @@
       <c r="E47" s="8">
         <v>0.821428571428571</v>
       </c>
-      <c r="F47" s="8"/>
+      <c r="F47" s="8">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="G47" s="8">
         <v>0.890625</v>
       </c>
@@ -4998,7 +5104,10 @@
       <c r="I47" s="8">
         <v>0.8142857142857139</v>
       </c>
-      <c r="J47" s="8"/>
+      <c r="J47" s="8">
+        <f>(LARGE(D47:G47,1)+LARGE(D47:G47,2))/2*0.3+(H47+I47)/2*0.7</f>
+        <v>0.764535308441558</v>
+      </c>
     </row>
     <row r="48" ht="14.35" customHeight="1">
       <c r="A48" t="s" s="6">
@@ -5214,7 +5323,9 @@
       <c r="E54" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F54" s="8"/>
+      <c r="F54" s="8">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="G54" s="8">
         <v>0.8125</v>
       </c>
@@ -5224,7 +5335,10 @@
       <c r="I54" s="8">
         <v>0.614285714285714</v>
       </c>
-      <c r="J54" s="8"/>
+      <c r="J54" s="8">
+        <f>(LARGE(D54:G54,1)+LARGE(D54:G54,2))/2*0.3+(H54+I54)/2*0.7</f>
+        <v>0.627871503496504</v>
+      </c>
     </row>
     <row r="55" ht="14.35" customHeight="1">
       <c r="A55" t="s" s="6">
@@ -5341,7 +5455,9 @@
       <c r="E58" s="8">
         <v>0.821428571428571</v>
       </c>
-      <c r="F58" s="8"/>
+      <c r="F58" s="8">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="G58" s="8">
         <v>0.828125</v>
       </c>
@@ -5351,7 +5467,10 @@
       <c r="I58" s="8">
         <v>0.571428571428571</v>
       </c>
-      <c r="J58" s="8"/>
+      <c r="J58" s="8">
+        <f>(LARGE(D58:G58,1)+LARGE(D58:G58,2))/2*0.3+(H58+I58)/2*0.7</f>
+        <v>0.661069399350649</v>
+      </c>
     </row>
     <row r="59" ht="14.35" customHeight="1">
       <c r="A59" t="s" s="6">
@@ -5369,7 +5488,9 @@
       <c r="E59" s="8">
         <v>0.714285714285714</v>
       </c>
-      <c r="F59" s="8"/>
+      <c r="F59" s="8">
+        <v>0.923076923076923</v>
+      </c>
       <c r="G59" s="8">
         <v>0.890625</v>
       </c>
@@ -5379,7 +5500,10 @@
       <c r="I59" s="8">
         <v>0.6857142857142861</v>
       </c>
-      <c r="J59" s="8"/>
+      <c r="J59" s="8">
+        <f>(LARGE(D59:G59,1)+LARGE(D59:G59,2))/2*0.3+(H59+I59)/2*0.7</f>
+        <v>0.639328015734266</v>
+      </c>
     </row>
     <row r="60" ht="14.35" customHeight="1">
       <c r="A60" t="s" s="6">
@@ -5397,7 +5521,9 @@
       <c r="E60" s="8">
         <v>0.714285714285714</v>
       </c>
-      <c r="F60" s="8"/>
+      <c r="F60" s="8">
+        <v>0.961538461538462</v>
+      </c>
       <c r="G60" s="8">
         <v>0.84375</v>
       </c>
@@ -5407,7 +5533,10 @@
       <c r="I60" s="8">
         <v>0.514285714285714</v>
       </c>
-      <c r="J60" s="8"/>
+      <c r="J60" s="8">
+        <f>(LARGE(D60:G60,1)+LARGE(D60:G60,2))/2*0.3+(H60+I60)/2*0.7</f>
+        <v>0.555338723776224</v>
+      </c>
     </row>
     <row r="61" ht="14.35" customHeight="1">
       <c r="A61" t="s" s="6">
@@ -5417,195 +5546,192 @@
         <v>131</v>
       </c>
       <c r="C61" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="D61" s="7">
-        <v>0.711538461538462</v>
-      </c>
-      <c r="E61" s="8">
-        <v>0.678571428571429</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="D61" s="10"/>
+      <c r="E61" s="8"/>
       <c r="F61" s="8"/>
-      <c r="G61" s="8">
-        <v>0.875</v>
-      </c>
-      <c r="H61" s="8">
-        <v>0.519480519480519</v>
-      </c>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
       <c r="I61" s="8">
-        <v>0.5571428571428571</v>
+        <v>0.185714285714286</v>
       </c>
       <c r="J61" s="8"/>
     </row>
     <row r="62" ht="14.35" customHeight="1">
       <c r="A62" t="s" s="6">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B62" t="s" s="6">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C62" t="s" s="6">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D62" s="7">
         <v>0.711538461538462</v>
       </c>
       <c r="E62" s="8">
-        <v>0.785714285714286</v>
+        <v>0.678571428571429</v>
       </c>
       <c r="F62" s="8">
-        <v>0.923076923076923</v>
+        <v>0.807692307692308</v>
       </c>
       <c r="G62" s="8">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="H62" s="8">
-        <v>0.415584415584416</v>
+        <v>0.519480519480519</v>
       </c>
       <c r="I62" s="8">
-        <v>0.642857142857143</v>
+        <v>0.5571428571428571</v>
       </c>
       <c r="J62" s="8">
         <f>(LARGE(D62:G62,1)+LARGE(D62:G62,2))/2*0.3+(H62+I62)/2*0.7</f>
-        <v>0.658916083916084</v>
+        <v>0.629222027972028</v>
       </c>
     </row>
     <row r="63" ht="14.35" customHeight="1">
       <c r="A63" t="s" s="6">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B63" t="s" s="6">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C63" t="s" s="6">
-        <v>27</v>
-      </c>
-      <c r="D63" s="9">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="D63" s="7">
+        <v>0.711538461538462</v>
       </c>
       <c r="E63" s="8">
         <v>0.785714285714286</v>
       </c>
       <c r="F63" s="8">
-        <v>0.846153846153846</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="G63" s="8">
-        <v>0.84375</v>
+        <v>1</v>
       </c>
       <c r="H63" s="8">
-        <v>0.571428571428571</v>
+        <v>0.415584415584416</v>
       </c>
       <c r="I63" s="8">
-        <v>0.671428571428571</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="J63" s="8">
         <f>(LARGE(D63:G63,1)+LARGE(D63:G63,2))/2*0.3+(H63+I63)/2*0.7</f>
-        <v>0.688485576923077</v>
+        <v>0.658916083916084</v>
       </c>
     </row>
     <row r="64" ht="14.35" customHeight="1">
       <c r="A64" t="s" s="6">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B64" t="s" s="6">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C64" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="D64" s="7">
-        <v>0.615384615384615</v>
+        <v>27</v>
+      </c>
+      <c r="D64" s="9">
+        <v>0</v>
       </c>
       <c r="E64" s="8">
-        <v>0.821428571428571</v>
-      </c>
-      <c r="F64" s="8"/>
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F64" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G64" s="8">
-        <v>0.859375</v>
+        <v>0.84375</v>
       </c>
       <c r="H64" s="8">
         <v>0.571428571428571</v>
       </c>
       <c r="I64" s="8">
-        <v>0.614285714285714</v>
-      </c>
-      <c r="J64" s="8"/>
+        <v>0.671428571428571</v>
+      </c>
+      <c r="J64" s="8">
+        <f>(LARGE(D64:G64,1)+LARGE(D64:G64,2))/2*0.3+(H64+I64)/2*0.7</f>
+        <v>0.688485576923077</v>
+      </c>
     </row>
     <row r="65" ht="14.35" customHeight="1">
       <c r="A65" t="s" s="6">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B65" t="s" s="6">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C65" t="s" s="6">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D65" s="7">
-        <v>0.634615384615385</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E65" s="8">
-        <v>0.75</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="F65" s="8">
-        <v>0.846153846153846</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="G65" s="8">
-        <v>0</v>
+        <v>0.859375</v>
       </c>
       <c r="H65" s="8">
-        <v>0.350649350649351</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I65" s="8">
-        <v>0.485714285714286</v>
+        <v>0.614285714285714</v>
       </c>
       <c r="J65" s="8">
         <f>(LARGE(D65:G65,1)+LARGE(D65:G65,2))/2*0.3+(H65+I65)/2*0.7</f>
-        <v>0.53215034965035</v>
+        <v>0.667120535714285</v>
       </c>
     </row>
     <row r="66" ht="14.35" customHeight="1">
       <c r="A66" t="s" s="6">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B66" t="s" s="6">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C66" t="s" s="6">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D66" s="7">
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E66" s="8">
         <v>0.75</v>
       </c>
-      <c r="E66" s="8">
-        <v>0.785714285714286</v>
-      </c>
       <c r="F66" s="8">
-        <v>0.807692307692308</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="G66" s="8">
-        <v>0.890625</v>
+        <v>0</v>
       </c>
       <c r="H66" s="8">
-        <v>0.480519480519481</v>
+        <v>0.350649350649351</v>
       </c>
       <c r="I66" s="8">
-        <v>0.314285714285714</v>
+        <v>0.485714285714286</v>
       </c>
       <c r="J66" s="8">
         <f>(LARGE(D66:G66,1)+LARGE(D66:G66,2))/2*0.3+(H66+I66)/2*0.7</f>
-        <v>0.532929414335664</v>
+        <v>0.53215034965035</v>
       </c>
     </row>
     <row r="67" ht="14.35" customHeight="1">
       <c r="A67" t="s" s="6">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B67" t="s" s="6">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C67" t="s" s="6">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D67" s="7">
         <v>0.75</v>
@@ -5614,31 +5740,31 @@
         <v>0.785714285714286</v>
       </c>
       <c r="F67" s="8">
-        <v>0.7692307692307691</v>
+        <v>0.807692307692308</v>
       </c>
       <c r="G67" s="8">
-        <v>0.875</v>
+        <v>0.890625</v>
       </c>
       <c r="H67" s="8">
-        <v>0.61038961038961</v>
+        <v>0.480519480519481</v>
       </c>
       <c r="I67" s="8">
-        <v>0.642857142857143</v>
+        <v>0.314285714285714</v>
       </c>
       <c r="J67" s="8">
         <f>(LARGE(D67:G67,1)+LARGE(D67:G67,2))/2*0.3+(H67+I67)/2*0.7</f>
-        <v>0.687743506493506</v>
+        <v>0.532929414335664</v>
       </c>
     </row>
     <row r="68" ht="14.35" customHeight="1">
       <c r="A68" t="s" s="6">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B68" t="s" s="6">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C68" t="s" s="6">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D68" s="7">
         <v>0.75</v>
@@ -5647,147 +5773,164 @@
         <v>0.785714285714286</v>
       </c>
       <c r="F68" s="8">
-        <v>0.807692307692308</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="G68" s="8">
-        <v>0.46875</v>
+        <v>0.875</v>
       </c>
       <c r="H68" s="8">
-        <v>0.363636363636364</v>
+        <v>0.61038961038961</v>
       </c>
       <c r="I68" s="8">
-        <v>0.457142857142857</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="J68" s="8">
         <f>(LARGE(D68:G68,1)+LARGE(D68:G68,2))/2*0.3+(H68+I68)/2*0.7</f>
-        <v>0.526283716283716</v>
+        <v>0.687743506493506</v>
       </c>
     </row>
     <row r="69" ht="14.35" customHeight="1">
       <c r="A69" t="s" s="6">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B69" t="s" s="6">
-        <v>147</v>
-      </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="9">
-        <v>0</v>
+        <v>148</v>
+      </c>
+      <c r="C69" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D69" s="7">
+        <v>0.75</v>
       </c>
       <c r="E69" s="8">
-        <v>0</v>
-      </c>
-      <c r="F69" s="8"/>
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F69" s="8">
+        <v>0.807692307692308</v>
+      </c>
       <c r="G69" s="8">
-        <v>0</v>
+        <v>0.46875</v>
       </c>
       <c r="H69" s="8">
-        <v>0</v>
-      </c>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
+        <v>0.363636363636364</v>
+      </c>
+      <c r="I69" s="8">
+        <v>0.457142857142857</v>
+      </c>
+      <c r="J69" s="8">
+        <f>(LARGE(D69:G69,1)+LARGE(D69:G69,2))/2*0.3+(H69+I69)/2*0.7</f>
+        <v>0.526283716283716</v>
+      </c>
     </row>
     <row r="70" ht="14.35" customHeight="1">
       <c r="A70" t="s" s="6">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B70" t="s" s="6">
-        <v>149</v>
-      </c>
-      <c r="C70" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D70" s="7">
-        <v>0.711538461538462</v>
+        <v>150</v>
+      </c>
+      <c r="C70" s="10"/>
+      <c r="D70" s="9">
+        <v>0</v>
       </c>
       <c r="E70" s="8">
-        <v>0.785714285714286</v>
+        <v>0</v>
       </c>
       <c r="F70" s="8">
-        <v>0.923076923076923</v>
+        <v>0</v>
       </c>
       <c r="G70" s="8">
-        <v>0.90625</v>
+        <v>0</v>
       </c>
       <c r="H70" s="8">
-        <v>0.337662337662338</v>
+        <v>0</v>
       </c>
       <c r="I70" s="8">
-        <v>0.442857142857143</v>
+        <v>0</v>
       </c>
       <c r="J70" s="8">
         <f>(LARGE(D70:G70,1)+LARGE(D70:G70,2))/2*0.3+(H70+I70)/2*0.7</f>
-        <v>0.547580856643357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" ht="14.35" customHeight="1">
       <c r="A71" t="s" s="6">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B71" t="s" s="6">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C71" t="s" s="6">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D71" s="7">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E71" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F71" s="8">
         <v>0.923076923076923</v>
       </c>
-      <c r="E71" s="8">
-        <v>0.821428571428571</v>
-      </c>
-      <c r="F71" s="8"/>
       <c r="G71" s="8">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="H71" s="8">
-        <v>0.467532467532468</v>
+        <v>0.337662337662338</v>
       </c>
       <c r="I71" s="8">
-        <v>0.657142857142857</v>
-      </c>
-      <c r="J71" s="8"/>
+        <v>0.442857142857143</v>
+      </c>
+      <c r="J71" s="8">
+        <f>(LARGE(D71:G71,1)+LARGE(D71:G71,2))/2*0.3+(H71+I71)/2*0.7</f>
+        <v>0.547580856643357</v>
+      </c>
     </row>
     <row r="72" ht="14.35" customHeight="1">
       <c r="A72" t="s" s="6">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B72" t="s" s="6">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C72" t="s" s="6">
-        <v>27</v>
-      </c>
-      <c r="D72" s="9">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D72" s="7">
+        <v>0.923076923076923</v>
       </c>
       <c r="E72" s="8">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F72" s="8"/>
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F72" s="8">
+        <v>0.923076923076923</v>
+      </c>
       <c r="G72" s="8">
-        <v>0</v>
+        <v>0.9375</v>
       </c>
       <c r="H72" s="8">
         <v>0.467532467532468</v>
       </c>
       <c r="I72" s="8">
-        <v>0.5571428571428571</v>
-      </c>
-      <c r="J72" s="8"/>
+        <v>0.657142857142857</v>
+      </c>
+      <c r="J72" s="8">
+        <f>(LARGE(D72:G72,1)+LARGE(D72:G72,2))/2*0.3+(H72+I72)/2*0.7</f>
+        <v>0.672722902097902</v>
+      </c>
     </row>
     <row r="73" ht="14.35" customHeight="1">
       <c r="A73" t="s" s="6">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B73" t="s" s="6">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C73" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="D73" s="7">
-        <v>0.75</v>
+        <v>27</v>
+      </c>
+      <c r="D73" s="9">
+        <v>1</v>
       </c>
       <c r="E73" s="8">
         <v>0.785714285714286</v>
@@ -5796,81 +5939,90 @@
         <v>0.807692307692308</v>
       </c>
       <c r="G73" s="8">
-        <v>0.84375</v>
+        <v>0</v>
       </c>
       <c r="H73" s="8">
-        <v>0.493506493506494</v>
+        <v>0.467532467532468</v>
       </c>
       <c r="I73" s="8">
-        <v>0.614285714285714</v>
+        <v>0.5571428571428571</v>
       </c>
       <c r="J73" s="8">
         <f>(LARGE(D73:G73,1)+LARGE(D73:G73,2))/2*0.3+(H73+I73)/2*0.7</f>
-        <v>0.635443618881119</v>
+        <v>0.6297902097902101</v>
       </c>
     </row>
     <row r="74" ht="14.35" customHeight="1">
       <c r="A74" t="s" s="6">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B74" t="s" s="6">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C74" t="s" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D74" s="7">
-        <v>0.826923076923077</v>
+        <v>0.75</v>
       </c>
       <c r="E74" s="8">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="F74" s="8"/>
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F74" s="8">
+        <v>0.807692307692308</v>
+      </c>
       <c r="G74" s="8">
-        <v>0.765625</v>
+        <v>0.84375</v>
       </c>
       <c r="H74" s="8">
-        <v>0.337662337662338</v>
+        <v>0.493506493506494</v>
       </c>
       <c r="I74" s="8">
-        <v>0.314285714285714</v>
-      </c>
-      <c r="J74" s="8"/>
+        <v>0.614285714285714</v>
+      </c>
+      <c r="J74" s="8">
+        <f>(LARGE(D74:G74,1)+LARGE(D74:G74,2))/2*0.3+(H74+I74)/2*0.7</f>
+        <v>0.635443618881119</v>
+      </c>
     </row>
     <row r="75" ht="14.35" customHeight="1">
       <c r="A75" t="s" s="6">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B75" t="s" s="6">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C75" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="D75" s="9">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="D75" s="7">
+        <v>0.826923076923077</v>
       </c>
       <c r="E75" s="8">
         <v>0.714285714285714</v>
       </c>
       <c r="F75" s="8">
-        <v>0.7692307692307691</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="G75" s="8">
-        <v>0</v>
+        <v>0.765625</v>
       </c>
       <c r="H75" s="8">
-        <v>0</v>
-      </c>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
+        <v>0.337662337662338</v>
+      </c>
+      <c r="I75" s="8">
+        <v>0.314285714285714</v>
+      </c>
+      <c r="J75" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="76" ht="14.35" customHeight="1">
       <c r="A76" t="s" s="6">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B76" t="s" s="6">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C76" t="s" s="6">
         <v>15</v>
@@ -5879,502 +6031,562 @@
         <v>0</v>
       </c>
       <c r="E76" s="8">
-        <v>0.821428571428571</v>
-      </c>
-      <c r="F76" s="8"/>
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F76" s="8">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="G76" s="8">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="H76" s="8">
-        <v>0.649350649350649</v>
+        <v>0</v>
       </c>
       <c r="I76" s="8">
-        <v>0.757142857142857</v>
-      </c>
-      <c r="J76" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="8">
+        <f>(LARGE(D76:G76,1)+LARGE(D76:G76,2))/2*0.3+(H76+I76)/2*0.7</f>
+        <v>0.222527472527472</v>
+      </c>
     </row>
     <row r="77" ht="14.35" customHeight="1">
       <c r="A77" t="s" s="6">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B77" t="s" s="6">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C77" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="D77" s="7">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="D77" s="9">
+        <v>0</v>
       </c>
       <c r="E77" s="8">
-        <v>0.785714285714286</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="F77" s="8">
-        <v>0.7692307692307691</v>
+        <v>0.653846153846154</v>
       </c>
       <c r="G77" s="8">
-        <v>0.671875</v>
+        <v>0.875</v>
       </c>
       <c r="H77" s="8">
-        <v>0.571428571428571</v>
+        <v>0.649350649350649</v>
       </c>
       <c r="I77" s="8">
-        <v>0.728571428571429</v>
+        <v>0.757142857142857</v>
       </c>
       <c r="J77" s="8">
         <f>(LARGE(D77:G77,1)+LARGE(D77:G77,2))/2*0.3+(H77+I77)/2*0.7</f>
-        <v>0.688241758241758</v>
+        <v>0.746737012987013</v>
       </c>
     </row>
     <row r="78" ht="14.35" customHeight="1">
       <c r="A78" t="s" s="6">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B78" t="s" s="6">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C78" t="s" s="6">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D78" s="7">
-        <v>0.942307692307692</v>
+        <v>0.75</v>
       </c>
       <c r="E78" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F78" s="8"/>
+      <c r="F78" s="8">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="G78" s="8">
-        <v>0.8125</v>
+        <v>0.671875</v>
       </c>
       <c r="H78" s="8">
-        <v>0.480519480519481</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I78" s="8">
-        <v>0.757142857142857</v>
-      </c>
-      <c r="J78" s="8"/>
+        <v>0.728571428571429</v>
+      </c>
+      <c r="J78" s="8">
+        <f>(LARGE(D78:G78,1)+LARGE(D78:G78,2))/2*0.3+(H78+I78)/2*0.7</f>
+        <v>0.688241758241758</v>
+      </c>
     </row>
     <row r="79" ht="14.35" customHeight="1">
       <c r="A79" t="s" s="6">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B79" t="s" s="6">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C79" t="s" s="6">
         <v>22</v>
       </c>
       <c r="D79" s="7">
-        <v>0.807692307692308</v>
+        <v>0.942307692307692</v>
       </c>
       <c r="E79" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F79" s="8"/>
+      <c r="F79" s="8">
+        <v>0</v>
+      </c>
       <c r="G79" s="8">
-        <v>0.84375</v>
+        <v>0.8125</v>
       </c>
       <c r="H79" s="8">
-        <v>0.493506493506494</v>
+        <v>0.480519480519481</v>
       </c>
       <c r="I79" s="8">
         <v>0.757142857142857</v>
       </c>
-      <c r="J79" s="8"/>
+      <c r="J79" s="8">
+        <f>(LARGE(D79:G79,1)+LARGE(D79:G79,2))/2*0.3+(H79+I79)/2*0.7</f>
+        <v>0.696402972027972</v>
+      </c>
     </row>
     <row r="80" ht="14.35" customHeight="1">
       <c r="A80" t="s" s="6">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B80" t="s" s="6">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C80" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="D80" s="9">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="D80" s="7">
+        <v>0.807692307692308</v>
       </c>
       <c r="E80" s="8">
-        <v>0.821428571428571</v>
-      </c>
-      <c r="F80" s="8"/>
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F80" s="8">
+        <v>0.7307692307692309</v>
+      </c>
       <c r="G80" s="8">
-        <v>0.78125</v>
+        <v>0.84375</v>
       </c>
       <c r="H80" s="8">
-        <v>0.337662337662338</v>
+        <v>0.493506493506494</v>
       </c>
       <c r="I80" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="J80" s="8"/>
+        <v>0.757142857142857</v>
+      </c>
+      <c r="J80" s="8">
+        <f>(LARGE(D80:G80,1)+LARGE(D80:G80,2))/2*0.3+(H80+I80)/2*0.7</f>
+        <v>0.685443618881119</v>
+      </c>
     </row>
     <row r="81" ht="14.35" customHeight="1">
       <c r="A81" t="s" s="6">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B81" t="s" s="6">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C81" t="s" s="6">
-        <v>27</v>
-      </c>
-      <c r="D81" s="7">
-        <v>0.826923076923077</v>
+        <v>15</v>
+      </c>
+      <c r="D81" s="9">
+        <v>0</v>
       </c>
       <c r="E81" s="8">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="F81" s="8"/>
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F81" s="8">
+        <v>0.653846153846154</v>
+      </c>
       <c r="G81" s="8">
-        <v>0.828125</v>
+        <v>0.78125</v>
       </c>
       <c r="H81" s="8">
-        <v>0.519480519480519</v>
+        <v>0.337662337662338</v>
       </c>
       <c r="I81" s="8">
-        <v>0.614285714285714</v>
-      </c>
-      <c r="J81" s="8"/>
+        <v>0.4</v>
+      </c>
+      <c r="J81" s="8">
+        <f>(LARGE(D81:G81,1)+LARGE(D81:G81,2))/2*0.3+(H81+I81)/2*0.7</f>
+        <v>0.498583603896104</v>
+      </c>
     </row>
     <row r="82" ht="14.35" customHeight="1">
       <c r="A82" t="s" s="6">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B82" t="s" s="6">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C82" t="s" s="6">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D82" s="7">
-        <v>0.673076923076923</v>
+        <v>0.826923076923077</v>
       </c>
       <c r="E82" s="8">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F82" s="8"/>
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F82" s="8">
+        <v>0.923076923076923</v>
+      </c>
       <c r="G82" s="8">
-        <v>0.78125</v>
+        <v>0.828125</v>
       </c>
       <c r="H82" s="8">
-        <v>0.207792207792208</v>
+        <v>0.519480519480519</v>
       </c>
       <c r="I82" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="J82" s="8"/>
+        <v>0.614285714285714</v>
+      </c>
+      <c r="J82" s="8">
+        <f>(LARGE(D82:G82,1)+LARGE(D82:G82,2))/2*0.3+(H82+I82)/2*0.7</f>
+        <v>0.65949847027972</v>
+      </c>
     </row>
     <row r="83" ht="14.35" customHeight="1">
       <c r="A83" t="s" s="6">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B83" t="s" s="6">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C83" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="D83" s="9">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="D83" s="7">
+        <v>0.673076923076923</v>
       </c>
       <c r="E83" s="8">
-        <v>0.75</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="F83" s="8">
-        <v>0.961538461538462</v>
+        <v>0.884615384615385</v>
       </c>
       <c r="G83" s="8">
-        <v>0.859375</v>
+        <v>0.78125</v>
       </c>
       <c r="H83" s="8">
-        <v>0.363636363636364</v>
+        <v>0.207792207792208</v>
       </c>
       <c r="I83" s="8">
-        <v>0.742857142857143</v>
+        <v>0.3</v>
       </c>
       <c r="J83" s="8">
         <f>(LARGE(D83:G83,1)+LARGE(D83:G83,2))/2*0.3+(H83+I83)/2*0.7</f>
-        <v>0.660409746503497</v>
+        <v>0.428276723276723</v>
       </c>
     </row>
     <row r="84" ht="14.35" customHeight="1">
       <c r="A84" t="s" s="6">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B84" t="s" s="6">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C84" t="s" s="6">
-        <v>27</v>
-      </c>
-      <c r="D84" s="7">
+        <v>12</v>
+      </c>
+      <c r="D84" s="9">
+        <v>0</v>
+      </c>
+      <c r="E84" s="8">
         <v>0.75</v>
       </c>
-      <c r="E84" s="8">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F84" s="8"/>
+      <c r="F84" s="8">
+        <v>0.961538461538462</v>
+      </c>
       <c r="G84" s="8">
-        <v>0.84375</v>
+        <v>0.859375</v>
       </c>
       <c r="H84" s="8">
-        <v>0.597402597402597</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="I84" s="8">
-        <v>0.828571428571429</v>
-      </c>
-      <c r="J84" s="8"/>
+        <v>0.742857142857143</v>
+      </c>
+      <c r="J84" s="8">
+        <f>(LARGE(D84:G84,1)+LARGE(D84:G84,2))/2*0.3+(H84+I84)/2*0.7</f>
+        <v>0.660409746503497</v>
+      </c>
     </row>
     <row r="85" ht="14.35" customHeight="1">
       <c r="A85" t="s" s="6">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B85" t="s" s="6">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C85" t="s" s="6">
         <v>27</v>
       </c>
       <c r="D85" s="7">
-        <v>0.826923076923077</v>
+        <v>0.75</v>
       </c>
       <c r="E85" s="8">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="F85" s="8"/>
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F85" s="8">
+        <v>0.7307692307692309</v>
+      </c>
       <c r="G85" s="8">
-        <v>0.9375</v>
+        <v>0.84375</v>
       </c>
       <c r="H85" s="8">
-        <v>0.74025974025974</v>
+        <v>0.597402597402597</v>
       </c>
       <c r="I85" s="8">
-        <v>0.771428571428571</v>
-      </c>
-      <c r="J85" s="8"/>
+        <v>0.828571428571429</v>
+      </c>
+      <c r="J85" s="8">
+        <f>(LARGE(D85:G85,1)+LARGE(D85:G85,2))/2*0.3+(H85+I85)/2*0.7</f>
+        <v>0.743510551948052</v>
+      </c>
     </row>
     <row r="86" ht="14.35" customHeight="1">
       <c r="A86" t="s" s="6">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B86" t="s" s="6">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C86" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="D86" s="9">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="D86" s="7">
+        <v>0.826923076923077</v>
       </c>
       <c r="E86" s="8">
-        <v>0.857142857142857</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="F86" s="8">
         <v>0.923076923076923</v>
       </c>
       <c r="G86" s="8">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="H86" s="8">
-        <v>0.545454545454545</v>
+        <v>0.74025974025974</v>
       </c>
       <c r="I86" s="8">
         <v>0.771428571428571</v>
       </c>
       <c r="J86" s="8">
         <f>(LARGE(D86:G86,1)+LARGE(D86:G86,2))/2*0.3+(H86+I86)/2*0.7</f>
-        <v>0.7353081293706289</v>
+        <v>0.808177447552447</v>
       </c>
     </row>
     <row r="87" ht="14.35" customHeight="1">
       <c r="A87" t="s" s="6">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B87" t="s" s="6">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C87" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D87" s="7">
+        <v>12</v>
+      </c>
+      <c r="D87" s="9">
+        <v>0</v>
+      </c>
+      <c r="E87" s="8">
+        <v>0.857142857142857</v>
+      </c>
+      <c r="F87" s="8">
         <v>0.923076923076923</v>
       </c>
-      <c r="E87" s="8">
-        <v>0.821428571428571</v>
-      </c>
-      <c r="F87" s="8"/>
       <c r="G87" s="8">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="H87" s="8">
-        <v>0.220779220779221</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="I87" s="8">
-        <v>0.185714285714286</v>
-      </c>
-      <c r="J87" s="8"/>
+        <v>0.771428571428571</v>
+      </c>
+      <c r="J87" s="8">
+        <f>(LARGE(D87:G87,1)+LARGE(D87:G87,2))/2*0.3+(H87+I87)/2*0.7</f>
+        <v>0.7353081293706289</v>
+      </c>
     </row>
     <row r="88" ht="14.35" customHeight="1">
       <c r="A88" t="s" s="6">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B88" t="s" s="6">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C88" t="s" s="6">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D88" s="7">
-        <v>0.788461538461538</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="E88" s="8">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F88" s="8"/>
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F88" s="8">
+        <v>0.923076923076923</v>
+      </c>
       <c r="G88" s="8">
-        <v>0.859375</v>
+        <v>0.9375</v>
       </c>
       <c r="H88" s="8">
-        <v>0.454545454545455</v>
+        <v>0.220779220779221</v>
       </c>
       <c r="I88" s="8">
-        <v>0.6857142857142861</v>
-      </c>
-      <c r="J88" s="8"/>
+        <v>0.185714285714286</v>
+      </c>
+      <c r="J88" s="8">
+        <f>(LARGE(D88:G88,1)+LARGE(D88:G88,2))/2*0.3+(H88+I88)/2*0.7</f>
+        <v>0.421359265734266</v>
+      </c>
     </row>
     <row r="89" ht="14.35" customHeight="1">
       <c r="A89" t="s" s="6">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B89" t="s" s="6">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C89" t="s" s="6">
         <v>27</v>
       </c>
       <c r="D89" s="7">
-        <v>0.615384615384615</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E89" s="8">
-        <v>0.821428571428571</v>
-      </c>
-      <c r="F89" s="8"/>
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F89" s="8">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="G89" s="8">
-        <v>0.90625</v>
+        <v>0.859375</v>
       </c>
       <c r="H89" s="8">
-        <v>0.571428571428571</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="I89" s="8">
-        <v>0.671428571428571</v>
-      </c>
-      <c r="J89" s="8"/>
+        <v>0.6857142857142861</v>
+      </c>
+      <c r="J89" s="8">
+        <f>(LARGE(D89:G89,1)+LARGE(D89:G89,2))/2*0.3+(H89+I89)/2*0.7</f>
+        <v>0.64626638986014</v>
+      </c>
     </row>
     <row r="90" ht="14.35" customHeight="1">
       <c r="A90" t="s" s="6">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B90" t="s" s="6">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C90" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D90" s="9">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="D90" s="7">
+        <v>0.615384615384615</v>
       </c>
       <c r="E90" s="8">
-        <v>0.678571428571429</v>
-      </c>
-      <c r="F90" s="8"/>
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F90" s="8">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="G90" s="8">
-        <v>0.953125</v>
+        <v>0.90625</v>
       </c>
       <c r="H90" s="8">
-        <v>0.532467532467532</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I90" s="8">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="J90" s="8"/>
+        <v>0.671428571428571</v>
+      </c>
+      <c r="J90" s="8">
+        <f>(LARGE(D90:G90,1)+LARGE(D90:G90,2))/2*0.3+(H90+I90)/2*0.7</f>
+        <v>0.694151785714285</v>
+      </c>
     </row>
     <row r="91" ht="14.35" customHeight="1">
       <c r="A91" t="s" s="6">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B91" t="s" s="6">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C91" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="D91" s="7">
-        <v>0.788461538461538</v>
+        <v>22</v>
+      </c>
+      <c r="D91" s="9">
+        <v>0</v>
       </c>
       <c r="E91" s="8">
-        <v>0.785714285714286</v>
+        <v>0.678571428571429</v>
       </c>
       <c r="F91" s="8">
-        <v>0.846153846153846</v>
+        <v>0.807692307692308</v>
       </c>
       <c r="G91" s="8">
-        <v>0</v>
+        <v>0.953125</v>
       </c>
       <c r="H91" s="8">
+        <v>0.532467532467532</v>
+      </c>
+      <c r="I91" s="8">
         <v>0.714285714285714</v>
-      </c>
-      <c r="I91" s="8">
-        <v>0.642857142857143</v>
       </c>
       <c r="J91" s="8">
         <f>(LARGE(D91:G91,1)+LARGE(D91:G91,2))/2*0.3+(H91+I91)/2*0.7</f>
-        <v>0.720192307692308</v>
+        <v>0.700486232517482</v>
       </c>
     </row>
     <row r="92" ht="14.35" customHeight="1">
       <c r="A92" t="s" s="6">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B92" t="s" s="6">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C92" t="s" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D92" s="7">
-        <v>0.75</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E92" s="8">
         <v>0.785714285714286</v>
       </c>
       <c r="F92" s="8">
-        <v>0.807692307692308</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="G92" s="8">
-        <v>0.84375</v>
+        <v>0</v>
       </c>
       <c r="H92" s="8">
-        <v>0.636363636363636</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="I92" s="8">
-        <v>0.4</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="J92" s="8">
         <f>(LARGE(D92:G92,1)+LARGE(D92:G92,2))/2*0.3+(H92+I92)/2*0.7</f>
-        <v>0.610443618881119</v>
+        <v>0.720192307692308</v>
       </c>
     </row>
     <row r="93" ht="14.35" customHeight="1">
       <c r="A93" t="s" s="6">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B93" t="s" s="6">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C93" t="s" s="6">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D93" s="7">
         <v>0.75</v>
@@ -6386,334 +6598,364 @@
         <v>0.807692307692308</v>
       </c>
       <c r="G93" s="8">
-        <v>0.78125</v>
+        <v>0.84375</v>
       </c>
       <c r="H93" s="8">
-        <v>0.597402597402597</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="I93" s="8">
-        <v>0.485714285714286</v>
+        <v>0.4</v>
       </c>
       <c r="J93" s="8">
         <f>(LARGE(D93:G93,1)+LARGE(D93:G93,2))/2*0.3+(H93+I93)/2*0.7</f>
-        <v>0.618101898101898</v>
+        <v>0.610443618881119</v>
       </c>
     </row>
     <row r="94" ht="14.35" customHeight="1">
       <c r="A94" t="s" s="6">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B94" t="s" s="6">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C94" t="s" s="6">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D94" s="7">
         <v>0.75</v>
       </c>
       <c r="E94" s="8">
-        <v>0.607142857142857</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="F94" s="8">
         <v>0.807692307692308</v>
       </c>
       <c r="G94" s="8">
-        <v>0.71875</v>
+        <v>0.78125</v>
       </c>
       <c r="H94" s="8">
-        <v>0.558441558441558</v>
+        <v>0.597402597402597</v>
       </c>
       <c r="I94" s="8">
-        <v>0.357142857142857</v>
+        <v>0.485714285714286</v>
       </c>
       <c r="J94" s="8">
         <f>(LARGE(D94:G94,1)+LARGE(D94:G94,2))/2*0.3+(H94+I94)/2*0.7</f>
-        <v>0.554108391608391</v>
+        <v>0.618101898101898</v>
       </c>
     </row>
     <row r="95" ht="14.35" customHeight="1">
       <c r="A95" t="s" s="6">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B95" t="s" s="6">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C95" t="s" s="6">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D95" s="7">
-        <v>0.788461538461538</v>
+        <v>0.75</v>
       </c>
       <c r="E95" s="8">
-        <v>0.821428571428571</v>
+        <v>0.607142857142857</v>
       </c>
       <c r="F95" s="8">
         <v>0.807692307692308</v>
       </c>
       <c r="G95" s="8">
-        <v>0.859375</v>
+        <v>0.71875</v>
       </c>
       <c r="H95" s="8">
-        <v>0.454545454545455</v>
+        <v>0.558441558441558</v>
       </c>
       <c r="I95" s="8">
-        <v>0.728571428571429</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="J95" s="8">
         <f>(LARGE(D95:G95,1)+LARGE(D95:G95,2))/2*0.3+(H95+I95)/2*0.7</f>
-        <v>0.666211444805195</v>
+        <v>0.554108391608391</v>
       </c>
     </row>
     <row r="96" ht="14.35" customHeight="1">
       <c r="A96" t="s" s="6">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B96" t="s" s="6">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C96" t="s" s="6">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D96" s="7">
-        <v>0.634615384615385</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E96" s="8">
-        <v>0</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="F96" s="8">
-        <v>0.7692307692307691</v>
+        <v>0.807692307692308</v>
       </c>
       <c r="G96" s="8">
-        <v>0.8125</v>
+        <v>0.859375</v>
       </c>
       <c r="H96" s="8">
-        <v>0.38961038961039</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="I96" s="8">
-        <v>0.357142857142857</v>
+        <v>0.728571428571429</v>
       </c>
       <c r="J96" s="8">
         <f>(LARGE(D96:G96,1)+LARGE(D96:G96,2))/2*0.3+(H96+I96)/2*0.7</f>
-        <v>0.498623251748252</v>
+        <v>0.666211444805195</v>
       </c>
     </row>
     <row r="97" ht="14.35" customHeight="1">
       <c r="A97" t="s" s="6">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B97" t="s" s="6">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C97" t="s" s="6">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D97" s="7">
-        <v>0.942307692307692</v>
+        <v>0.634615384615385</v>
       </c>
       <c r="E97" s="8">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F97" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F97" s="8">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="G97" s="8">
-        <v>0.875</v>
+        <v>0.8125</v>
       </c>
       <c r="H97" s="8">
-        <v>0.298701298701299</v>
+        <v>0.38961038961039</v>
       </c>
       <c r="I97" s="8">
-        <v>0.542857142857143</v>
-      </c>
-      <c r="J97" s="8"/>
+        <v>0.357142857142857</v>
+      </c>
+      <c r="J97" s="8">
+        <f>(LARGE(D97:G97,1)+LARGE(D97:G97,2))/2*0.3+(H97+I97)/2*0.7</f>
+        <v>0.498623251748252</v>
+      </c>
     </row>
     <row r="98" ht="14.35" customHeight="1">
       <c r="A98" t="s" s="6">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B98" t="s" s="6">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C98" t="s" s="6">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D98" s="7">
-        <v>0.7692307692307691</v>
+        <v>0.942307692307692</v>
       </c>
       <c r="E98" s="8">
-        <v>0</v>
-      </c>
-      <c r="F98" s="8"/>
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F98" s="8">
+        <v>0</v>
+      </c>
       <c r="G98" s="8">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="H98" s="8">
-        <v>0.285714285714286</v>
+        <v>0.298701298701299</v>
       </c>
       <c r="I98" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="J98" s="8"/>
+        <v>0.542857142857143</v>
+      </c>
+      <c r="J98" s="8">
+        <f>(LARGE(D98:G98,1)+LARGE(D98:G98,2))/2*0.3+(H98+I98)/2*0.7</f>
+        <v>0.567141608391609</v>
+      </c>
     </row>
     <row r="99" ht="14.35" customHeight="1">
       <c r="A99" t="s" s="6">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B99" t="s" s="6">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C99" t="s" s="6">
         <v>27</v>
       </c>
       <c r="D99" s="7">
-        <v>0.634615384615385</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E99" s="8">
-        <v>0.785714285714286</v>
+        <v>0</v>
       </c>
       <c r="F99" s="8">
-        <v>0.923076923076923</v>
+        <v>0</v>
       </c>
       <c r="G99" s="8">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="H99" s="8">
-        <v>0.272727272727273</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="I99" s="8">
-        <v>0.542857142857143</v>
+        <v>0.4</v>
       </c>
       <c r="J99" s="8">
         <f>(LARGE(D99:G99,1)+LARGE(D99:G99,2))/2*0.3+(H99+I99)/2*0.7</f>
-        <v>0.555166083916084</v>
+        <v>0.355384615384615</v>
       </c>
     </row>
     <row r="100" ht="14.35" customHeight="1">
       <c r="A100" t="s" s="6">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B100" t="s" s="6">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C100" t="s" s="6">
         <v>27</v>
       </c>
       <c r="D100" s="7">
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E100" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F100" s="8">
         <v>0.923076923076923</v>
       </c>
-      <c r="E100" s="8">
-        <v>0.821428571428571</v>
-      </c>
-      <c r="F100" s="8"/>
       <c r="G100" s="8">
-        <v>0.78125</v>
+        <v>0.875</v>
       </c>
       <c r="H100" s="8">
-        <v>0.571428571428571</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="I100" s="8">
-        <v>0.671428571428571</v>
-      </c>
-      <c r="J100" s="8"/>
+        <v>0.542857142857143</v>
+      </c>
+      <c r="J100" s="8">
+        <f>(LARGE(D100:G100,1)+LARGE(D100:G100,2))/2*0.3+(H100+I100)/2*0.7</f>
+        <v>0.555166083916084</v>
+      </c>
     </row>
     <row r="101" ht="14.35" customHeight="1">
       <c r="A101" t="s" s="6">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B101" t="s" s="6">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C101" t="s" s="6">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D101" s="7">
-        <v>0.788461538461538</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="E101" s="8">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F101" s="8"/>
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F101" s="8">
+        <v>0.923076923076923</v>
+      </c>
       <c r="G101" s="8">
         <v>0.78125</v>
       </c>
       <c r="H101" s="8">
-        <v>0.5844155844155841</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I101" s="8">
-        <v>0.728571428571429</v>
-      </c>
-      <c r="J101" s="8"/>
+        <v>0.671428571428571</v>
+      </c>
+      <c r="J101" s="8">
+        <f>(LARGE(D101:G101,1)+LARGE(D101:G101,2))/2*0.3+(H101+I101)/2*0.7</f>
+        <v>0.711923076923077</v>
+      </c>
     </row>
     <row r="102" ht="14.35" customHeight="1">
       <c r="A102" t="s" s="6">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B102" t="s" s="6">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C102" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D102" s="9">
-        <v>0</v>
+      <c r="D102" s="7">
+        <v>0.788461538461538</v>
       </c>
       <c r="E102" s="8">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="F102" s="8"/>
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F102" s="8">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="G102" s="8">
-        <v>0.84375</v>
+        <v>0.78125</v>
       </c>
       <c r="H102" s="8">
-        <v>0</v>
+        <v>0.5844155844155841</v>
       </c>
       <c r="I102" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="J102" s="8"/>
+        <v>0.728571428571429</v>
+      </c>
+      <c r="J102" s="8">
+        <f>(LARGE(D102:G102,1)+LARGE(D102:G102,2))/2*0.3+(H102+I102)/2*0.7</f>
+        <v>0.695671828171828</v>
+      </c>
     </row>
     <row r="103" ht="14.35" customHeight="1">
       <c r="A103" t="s" s="6">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B103" t="s" s="6">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C103" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="D103" s="7">
-        <v>0.788461538461538</v>
+        <v>12</v>
+      </c>
+      <c r="D103" s="9">
+        <v>0</v>
       </c>
       <c r="E103" s="8">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F103" s="8"/>
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F103" s="8">
+        <v>0.961538461538462</v>
+      </c>
       <c r="G103" s="8">
         <v>0.84375</v>
       </c>
       <c r="H103" s="8">
-        <v>0.363636363636364</v>
+        <v>0</v>
       </c>
       <c r="I103" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="J103" s="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="J103" s="8">
+        <f>(LARGE(D103:G103,1)+LARGE(D103:G103,2))/2*0.3+(H103+I103)/1*0.7</f>
+        <v>0.690793269230769</v>
+      </c>
     </row>
     <row r="104" ht="14.35" customHeight="1">
       <c r="A104" t="s" s="6">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B104" t="s" s="6">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C104" t="s" s="6">
         <v>15</v>
       </c>
       <c r="D104" s="7">
-        <v>0.442307692307692</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E104" s="8">
-        <v>0.714285714285714</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="F104" s="8">
         <v>0.7692307692307691</v>
@@ -6722,169 +6964,187 @@
         <v>0.84375</v>
       </c>
       <c r="H104" s="8">
-        <v>0.441558441558442</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="I104" s="8">
-        <v>0.728571428571429</v>
+        <v>0.2</v>
       </c>
       <c r="J104" s="8">
         <f>(LARGE(D104:G104,1)+LARGE(D104:G104,2))/2*0.3+(H104+I104)/2*0.7</f>
-        <v>0.65149256993007</v>
+        <v>0.442104458041958</v>
       </c>
     </row>
     <row r="105" ht="14.35" customHeight="1">
       <c r="A105" t="s" s="6">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B105" t="s" s="6">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C105" t="s" s="6">
         <v>15</v>
       </c>
       <c r="D105" s="7">
-        <v>0.711538461538462</v>
+        <v>0.442307692307692</v>
       </c>
       <c r="E105" s="8">
-        <v>0</v>
-      </c>
-      <c r="F105" s="8"/>
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F105" s="8">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="G105" s="8">
-        <v>0.9375</v>
+        <v>0.84375</v>
       </c>
       <c r="H105" s="8">
-        <v>0.428571428571429</v>
+        <v>0.441558441558442</v>
       </c>
       <c r="I105" s="8">
-        <v>0.314285714285714</v>
-      </c>
-      <c r="J105" s="8"/>
+        <v>0.728571428571429</v>
+      </c>
+      <c r="J105" s="8">
+        <f>(LARGE(D105:G105,1)+LARGE(D105:G105,2))/2*0.3+(H105+I105)/2*0.7</f>
+        <v>0.65149256993007</v>
+      </c>
     </row>
     <row r="106" ht="14.35" customHeight="1">
       <c r="A106" t="s" s="6">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B106" t="s" s="6">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C106" t="s" s="6">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D106" s="7">
-        <v>0.903846153846154</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="E106" s="8">
-        <v>0.785714285714286</v>
+        <v>0</v>
       </c>
       <c r="F106" s="8">
-        <v>0.846153846153846</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="G106" s="8">
-        <v>0.8125</v>
+        <v>0.9375</v>
       </c>
       <c r="H106" s="8">
-        <v>0.662337662337662</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="I106" s="8">
-        <v>0.742857142857143</v>
-      </c>
-      <c r="J106" s="8"/>
+        <v>0.314285714285714</v>
+      </c>
+      <c r="J106" s="8">
+        <f>(LARGE(D106:G106,1)+LARGE(D106:G106,2))/2*0.3+(H106+I106)/2*0.7</f>
+        <v>0.507355769230769</v>
+      </c>
     </row>
     <row r="107" ht="14.35" customHeight="1">
       <c r="A107" t="s" s="6">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B107" t="s" s="6">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C107" t="s" s="6">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D107" s="7">
-        <v>0.807692307692308</v>
+        <v>0.903846153846154</v>
       </c>
       <c r="E107" s="8">
-        <v>0.821428571428571</v>
-      </c>
-      <c r="F107" s="8"/>
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F107" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G107" s="8">
-        <v>0.828125</v>
+        <v>0.8125</v>
       </c>
       <c r="H107" s="8">
-        <v>0.597402597402597</v>
+        <v>0.662337662337662</v>
       </c>
       <c r="I107" s="8">
-        <v>0.671428571428571</v>
-      </c>
-      <c r="J107" s="8"/>
+        <v>0.742857142857143</v>
+      </c>
+      <c r="J107" s="8">
+        <f>(LARGE(D107:G107,1)+LARGE(D107:G107,2))/2*0.3+(H107+I107)/2*0.7</f>
+        <v>0.754318181818182</v>
+      </c>
     </row>
     <row r="108" ht="14.35" customHeight="1">
       <c r="A108" t="s" s="6">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B108" t="s" s="6">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C108" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D108" s="9">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="D108" s="7">
+        <v>0.807692307692308</v>
       </c>
       <c r="E108" s="8">
-        <v>0.857142857142857</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="F108" s="8">
-        <v>0.884615384615385</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="G108" s="8">
-        <v>0.890625</v>
+        <v>0.828125</v>
       </c>
       <c r="H108" s="8">
-        <v>0.493506493506494</v>
+        <v>0.597402597402597</v>
       </c>
       <c r="I108" s="8">
-        <v>0.714285714285714</v>
+        <v>0.671428571428571</v>
       </c>
       <c r="J108" s="8">
         <f>(LARGE(D108:G108,1)+LARGE(D108:G108,2))/2*0.3+(H108+I108)/2*0.7</f>
-        <v>0.689013330419581</v>
+        <v>0.691523944805194</v>
       </c>
     </row>
     <row r="109" ht="14.35" customHeight="1">
       <c r="A109" t="s" s="6">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B109" t="s" s="6">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C109" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D109" s="7">
-        <v>0.673076923076923</v>
+      <c r="D109" s="9">
+        <v>0</v>
       </c>
       <c r="E109" s="8">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F109" s="8"/>
+        <v>0.857142857142857</v>
+      </c>
+      <c r="F109" s="8">
+        <v>0.884615384615385</v>
+      </c>
       <c r="G109" s="8">
-        <v>0.828125</v>
+        <v>0.890625</v>
       </c>
       <c r="H109" s="8">
-        <v>0.402597402597403</v>
+        <v>0.493506493506494</v>
       </c>
       <c r="I109" s="8">
-        <v>0.657142857142857</v>
-      </c>
-      <c r="J109" s="8"/>
+        <v>0.714285714285714</v>
+      </c>
+      <c r="J109" s="8">
+        <f>(LARGE(D109:G109,1)+LARGE(D109:G109,2))/2*0.3+(H109+I109)/2*0.7</f>
+        <v>0.689013330419581</v>
+      </c>
     </row>
     <row r="110" ht="14.35" customHeight="1">
       <c r="A110" t="s" s="6">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B110" t="s" s="6">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C110" t="s" s="6">
         <v>22</v>
@@ -6895,757 +7155,823 @@
       <c r="E110" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F110" s="8"/>
+      <c r="F110" s="8">
+        <v>0.884615384615385</v>
+      </c>
       <c r="G110" s="8">
-        <v>0.859375</v>
+        <v>0.828125</v>
       </c>
       <c r="H110" s="8">
-        <v>0.337662337662338</v>
+        <v>0.402597402597403</v>
       </c>
       <c r="I110" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="J110" s="8"/>
+        <v>0.657142857142857</v>
+      </c>
+      <c r="J110" s="8">
+        <f>(LARGE(D110:G110,1)+LARGE(D110:G110,2))/2*0.3+(H110+I110)/2*0.7</f>
+        <v>0.627820148601399</v>
+      </c>
     </row>
     <row r="111" ht="14.35" customHeight="1">
       <c r="A111" t="s" s="6">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B111" t="s" s="6">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C111" t="s" s="6">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D111" s="7">
-        <v>0.711538461538462</v>
+        <v>0.673076923076923</v>
       </c>
       <c r="E111" s="8">
         <v>0.785714285714286</v>
       </c>
       <c r="F111" s="8">
-        <v>0.846153846153846</v>
+        <v>0.884615384615385</v>
       </c>
       <c r="G111" s="8">
-        <v>0</v>
+        <v>0.859375</v>
       </c>
       <c r="H111" s="8">
-        <v>0.415584415584416</v>
+        <v>0.337662337662338</v>
       </c>
       <c r="I111" s="8">
-        <v>0.242857142857143</v>
+        <v>0.7</v>
       </c>
       <c r="J111" s="8">
-        <v>0.5</v>
+        <f>(LARGE(D111:G111,1)+LARGE(D111:G111,2))/2*0.3+(H111+I111)/2*0.7</f>
+        <v>0.624780375874126</v>
       </c>
     </row>
     <row r="112" ht="14.35" customHeight="1">
       <c r="A112" t="s" s="6">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B112" t="s" s="6">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C112" t="s" s="6">
         <v>15</v>
       </c>
       <c r="D112" s="7">
+        <v>0.711538461538462</v>
+      </c>
+      <c r="E112" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F112" s="8">
         <v>0.846153846153846</v>
       </c>
-      <c r="E112" s="8">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="F112" s="8"/>
       <c r="G112" s="8">
-        <v>0.84375</v>
+        <v>0</v>
       </c>
       <c r="H112" s="8">
-        <v>0.38961038961039</v>
+        <v>0.415584415584416</v>
       </c>
       <c r="I112" s="8">
-        <v>0.228571428571429</v>
-      </c>
-      <c r="J112" s="8"/>
+        <v>0.242857142857143</v>
+      </c>
+      <c r="J112" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="113" ht="14.35" customHeight="1">
       <c r="A113" t="s" s="6">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B113" t="s" s="6">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C113" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="D113" s="9">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="D113" s="7">
+        <v>0.846153846153846</v>
       </c>
       <c r="E113" s="8">
-        <v>0.75</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="F113" s="8">
-        <v>0.961538461538462</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="G113" s="8">
         <v>0.84375</v>
       </c>
       <c r="H113" s="8">
-        <v>0.376623376623377</v>
+        <v>0.38961038961039</v>
       </c>
       <c r="I113" s="8">
-        <v>0.7</v>
+        <v>0.228571428571429</v>
       </c>
       <c r="J113" s="8">
         <f>(LARGE(D113:G113,1)+LARGE(D113:G113,2))/2*0.3+(H113+I113)/2*0.7</f>
-        <v>0.647611451048951</v>
+        <v>0.469849213286714</v>
       </c>
     </row>
     <row r="114" ht="14.35" customHeight="1">
       <c r="A114" t="s" s="6">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B114" t="s" s="6">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C114" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="D114" s="7">
-        <v>0.846153846153846</v>
+        <v>12</v>
+      </c>
+      <c r="D114" s="9">
+        <v>0</v>
       </c>
       <c r="E114" s="8">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="F114" s="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="F114" s="8">
+        <v>0.961538461538462</v>
+      </c>
       <c r="G114" s="8">
-        <v>0.609375</v>
+        <v>0.84375</v>
       </c>
       <c r="H114" s="8">
-        <v>0.363636363636364</v>
+        <v>0.376623376623377</v>
       </c>
       <c r="I114" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="J114" s="8"/>
+        <v>0.7</v>
+      </c>
+      <c r="J114" s="8">
+        <f>(LARGE(D114:G114,1)+LARGE(D114:G114,2))/2*0.3+(H114+I114)/2*0.7</f>
+        <v>0.647611451048951</v>
+      </c>
     </row>
     <row r="115" ht="14.35" customHeight="1">
       <c r="A115" t="s" s="6">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B115" t="s" s="6">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C115" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="D115" s="9">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="D115" s="7">
+        <v>0.846153846153846</v>
       </c>
       <c r="E115" s="8">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="F115" s="8"/>
+        <v>0.642857142857143</v>
+      </c>
+      <c r="F115" s="8">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="G115" s="8">
-        <v>0.90625</v>
+        <v>0.609375</v>
       </c>
       <c r="H115" s="8">
-        <v>0.636363636363636</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="I115" s="8">
-        <v>0.8142857142857139</v>
-      </c>
-      <c r="J115" s="8"/>
+        <v>0.2</v>
+      </c>
+      <c r="J115" s="8">
+        <f>(LARGE(D115:G115,1)+LARGE(D115:G115,2))/2*0.3+(H115+I115)/2*0.7</f>
+        <v>0.43958041958042</v>
+      </c>
     </row>
     <row r="116" ht="14.35" customHeight="1">
       <c r="A116" t="s" s="6">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B116" t="s" s="6">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C116" t="s" s="6">
-        <v>27</v>
-      </c>
-      <c r="D116" s="7">
-        <v>0.634615384615385</v>
+        <v>12</v>
+      </c>
+      <c r="D116" s="9">
+        <v>0</v>
       </c>
       <c r="E116" s="8">
-        <v>0.75</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="F116" s="8">
-        <v>0.846153846153846</v>
+        <v>0.961538461538462</v>
       </c>
       <c r="G116" s="8">
         <v>0.90625</v>
       </c>
       <c r="H116" s="8">
-        <v>0.545454545454545</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="I116" s="8">
-        <v>0.442857142857143</v>
+        <v>0.8142857142857139</v>
       </c>
       <c r="J116" s="8">
         <f>(LARGE(D116:G116,1)+LARGE(D116:G116,2))/2*0.3+(H116+I116)/2*0.7</f>
-        <v>0.608769667832168</v>
+        <v>0.787895541958042</v>
       </c>
     </row>
     <row r="117" ht="14.35" customHeight="1">
       <c r="A117" t="s" s="6">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B117" t="s" s="6">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C117" t="s" s="6">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D117" s="7">
         <v>0.634615384615385</v>
       </c>
       <c r="E117" s="8">
-        <v>0.785714285714286</v>
+        <v>0.75</v>
       </c>
       <c r="F117" s="8">
-        <v>0.807692307692308</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="G117" s="8">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="H117" s="8">
-        <v>0.701298701298701</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="I117" s="8">
-        <v>0.671428571428571</v>
+        <v>0.442857142857143</v>
       </c>
       <c r="J117" s="8">
         <f>(LARGE(D117:G117,1)+LARGE(D117:G117,2))/2*0.3+(H117+I117)/2*0.7</f>
-        <v>0.742233391608391</v>
+        <v>0.608769667832168</v>
       </c>
     </row>
     <row r="118" ht="14.35" customHeight="1">
       <c r="A118" t="s" s="6">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B118" t="s" s="6">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C118" t="s" s="6">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D118" s="7">
-        <v>0.711538461538462</v>
+        <v>0.634615384615385</v>
       </c>
       <c r="E118" s="8">
         <v>0.785714285714286</v>
       </c>
       <c r="F118" s="8">
-        <v>0.846153846153846</v>
+        <v>0.807692307692308</v>
       </c>
       <c r="G118" s="8">
-        <v>0.71875</v>
+        <v>0.9375</v>
       </c>
       <c r="H118" s="8">
-        <v>0.675324675324675</v>
+        <v>0.701298701298701</v>
       </c>
       <c r="I118" s="8">
-        <v>0.728571428571429</v>
+        <v>0.671428571428571</v>
       </c>
       <c r="J118" s="8">
         <f>(LARGE(D118:G118,1)+LARGE(D118:G118,2))/2*0.3+(H118+I118)/2*0.7</f>
-        <v>0.736143856143856</v>
+        <v>0.742233391608391</v>
       </c>
     </row>
     <row r="119" ht="14.35" customHeight="1">
       <c r="A119" t="s" s="6">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B119" t="s" s="6">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C119" t="s" s="6">
         <v>12</v>
       </c>
       <c r="D119" s="7">
-        <v>0.7692307692307691</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="E119" s="8">
-        <v>0.714285714285714</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="F119" s="8">
-        <v>0.884615384615385</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="G119" s="8">
-        <v>0.640625</v>
+        <v>0.71875</v>
       </c>
       <c r="H119" s="8">
-        <v>0.5844155844155841</v>
+        <v>0.675324675324675</v>
       </c>
       <c r="I119" s="8">
-        <v>0.271428571428571</v>
+        <v>0.728571428571429</v>
       </c>
       <c r="J119" s="8">
         <f>(LARGE(D119:G119,1)+LARGE(D119:G119,2))/2*0.3+(H119+I119)/2*0.7</f>
-        <v>0.547622377622377</v>
+        <v>0.736143856143856</v>
       </c>
     </row>
     <row r="120" ht="14.35" customHeight="1">
       <c r="A120" t="s" s="6">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B120" t="s" s="6">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C120" t="s" s="6">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D120" s="7">
-        <v>0.903846153846154</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E120" s="8">
-        <v>0.785714285714286</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="F120" s="8">
-        <v>0.846153846153846</v>
+        <v>0.884615384615385</v>
       </c>
       <c r="G120" s="8">
-        <v>0.78125</v>
+        <v>0.640625</v>
       </c>
       <c r="H120" s="8">
-        <v>0.714285714285714</v>
+        <v>0.5844155844155841</v>
       </c>
       <c r="I120" s="8">
-        <v>0.6</v>
+        <v>0.271428571428571</v>
       </c>
       <c r="J120" s="8">
         <f>(LARGE(D120:G120,1)+LARGE(D120:G120,2))/2*0.3+(H120+I120)/2*0.7</f>
-        <v>0.7225</v>
+        <v>0.547622377622377</v>
       </c>
     </row>
     <row r="121" ht="14.35" customHeight="1">
       <c r="A121" t="s" s="6">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B121" t="s" s="6">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C121" t="s" s="6">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D121" s="7">
-        <v>0.942307692307692</v>
+        <v>0.903846153846154</v>
       </c>
       <c r="E121" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F121" s="8"/>
+      <c r="F121" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G121" s="8">
-        <v>0.859375</v>
+        <v>0.78125</v>
       </c>
       <c r="H121" s="8">
-        <v>0.532467532467532</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="I121" s="8">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="J121" s="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="J121" s="8">
+        <f>(LARGE(D121:G121,1)+LARGE(D121:G121,2))/2*0.3+(H121+I121)/2*0.7</f>
+        <v>0.7225</v>
+      </c>
     </row>
     <row r="122" ht="14.35" customHeight="1">
       <c r="A122" t="s" s="6">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B122" t="s" s="6">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C122" t="s" s="6">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D122" s="7">
-        <v>0.711538461538462</v>
+        <v>0.942307692307692</v>
       </c>
       <c r="E122" s="8">
         <v>0.785714285714286</v>
       </c>
       <c r="F122" s="8">
-        <v>0.846153846153846</v>
+        <v>0</v>
       </c>
       <c r="G122" s="8">
-        <v>0.703125</v>
+        <v>0.859375</v>
       </c>
       <c r="H122" s="8">
-        <v>0.363636363636364</v>
+        <v>0.532467532467532</v>
       </c>
       <c r="I122" s="8">
-        <v>0.514285714285714</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="J122" s="8">
         <f>(LARGE(D122:G122,1)+LARGE(D122:G122,2))/2*0.3+(H122+I122)/2*0.7</f>
-        <v>0.5520529470529471</v>
+        <v>0.73161604020979</v>
       </c>
     </row>
     <row r="123" ht="14.35" customHeight="1">
       <c r="A123" t="s" s="6">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B123" t="s" s="6">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C123" t="s" s="6">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D123" s="7">
-        <v>0.615384615384615</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="E123" s="8">
-        <v>0.821428571428571</v>
-      </c>
-      <c r="F123" s="8"/>
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F123" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G123" s="8">
-        <v>0.953125</v>
+        <v>0.703125</v>
       </c>
       <c r="H123" s="8">
-        <v>0.675324675324675</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="I123" s="8">
-        <v>0.6857142857142861</v>
-      </c>
-      <c r="J123" s="8"/>
+        <v>0.514285714285714</v>
+      </c>
+      <c r="J123" s="8">
+        <f>(LARGE(D123:G123,1)+LARGE(D123:G123,2))/2*0.3+(H123+I123)/2*0.7</f>
+        <v>0.5520529470529471</v>
+      </c>
     </row>
     <row r="124" ht="14.35" customHeight="1">
       <c r="A124" t="s" s="6">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B124" t="s" s="6">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C124" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="D124" s="9">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="D124" s="7">
+        <v>0.615384615384615</v>
       </c>
       <c r="E124" s="8">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F124" s="8"/>
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F124" s="8">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="G124" s="8">
-        <v>0.8125</v>
+        <v>0.953125</v>
       </c>
       <c r="H124" s="8">
-        <v>0.571428571428571</v>
+        <v>0.675324675324675</v>
       </c>
       <c r="I124" s="8">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="J124" s="8"/>
+        <v>0.6857142857142861</v>
+      </c>
+      <c r="J124" s="8">
+        <f>(LARGE(D124:G124,1)+LARGE(D124:G124,2))/2*0.3+(H124+I124)/2*0.7</f>
+        <v>0.742546672077922</v>
+      </c>
     </row>
     <row r="125" ht="14.35" customHeight="1">
       <c r="A125" t="s" s="6">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B125" t="s" s="6">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C125" t="s" s="6">
-        <v>27</v>
-      </c>
-      <c r="D125" s="7">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="D125" s="9">
+        <v>0</v>
       </c>
       <c r="E125" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F125" s="8"/>
+      <c r="F125" s="8">
+        <v>0.807692307692308</v>
+      </c>
       <c r="G125" s="8">
+        <v>0.8125</v>
+      </c>
+      <c r="H125" s="8">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="I125" s="8">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="J125" s="8">
+        <f>(LARGE(D125:G125,1)+LARGE(D125:G125,2))/2*0.3+(H125+I125)/2*0.7</f>
+        <v>0.6680288461538459</v>
+      </c>
+    </row>
+    <row r="126" ht="14.35" customHeight="1">
+      <c r="A126" t="s" s="6">
+        <v>261</v>
+      </c>
+      <c r="B126" t="s" s="6">
+        <v>262</v>
+      </c>
+      <c r="C126" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="D126" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E126" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F126" s="8">
+        <v>0.7307692307692309</v>
+      </c>
+      <c r="G126" s="8">
         <v>0.828125</v>
       </c>
-      <c r="H125" s="8">
+      <c r="H126" s="8">
         <v>0.532467532467532</v>
       </c>
-      <c r="I125" s="8">
+      <c r="I126" s="8">
         <v>0.628571428571429</v>
       </c>
-      <c r="J125" s="8"/>
-    </row>
-    <row r="126" ht="28.35" customHeight="1">
-      <c r="A126" t="s" s="6">
-        <v>260</v>
-      </c>
-      <c r="B126" t="s" s="6">
-        <v>261</v>
-      </c>
-      <c r="C126" t="s" s="6">
+      <c r="J126" s="8">
+        <f>(LARGE(D126:G126,1)+LARGE(D126:G126,2))/2*0.3+(H126+I126)/2*0.7</f>
+        <v>0.648439529220779</v>
+      </c>
+    </row>
+    <row r="127" ht="28.35" customHeight="1">
+      <c r="A127" t="s" s="6">
+        <v>263</v>
+      </c>
+      <c r="B127" t="s" s="6">
+        <v>264</v>
+      </c>
+      <c r="C127" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D126" s="7">
+      <c r="D127" s="7">
         <v>0.846153846153846</v>
       </c>
-      <c r="E126" s="8">
+      <c r="E127" s="8">
         <v>0.642857142857143</v>
       </c>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8">
-        <v>0</v>
-      </c>
-      <c r="H126" s="8">
+      <c r="F127" s="8">
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="G127" s="8">
+        <v>0</v>
+      </c>
+      <c r="H127" s="8">
         <v>0.25974025974026</v>
       </c>
-      <c r="I126" s="8">
+      <c r="I127" s="8">
         <v>0.4</v>
       </c>
-      <c r="J126" s="8"/>
-    </row>
-    <row r="127" ht="14.35" customHeight="1">
-      <c r="A127" t="s" s="6">
-        <v>262</v>
-      </c>
-      <c r="B127" t="s" s="6">
-        <v>263</v>
-      </c>
-      <c r="C127" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D127" s="9">
-        <v>0</v>
-      </c>
-      <c r="E127" s="8">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8">
-        <v>0.875</v>
-      </c>
-      <c r="H127" s="8">
-        <v>0.428571428571429</v>
-      </c>
-      <c r="I127" s="8">
-        <v>0.585714285714286</v>
-      </c>
-      <c r="J127" s="8"/>
+      <c r="J127" s="8">
+        <f>(LARGE(D127:G127,1)+LARGE(D127:G127,2))/2*0.3+(H127+I127)/2*0.7</f>
+        <v>0.473216783216783</v>
+      </c>
     </row>
     <row r="128" ht="14.35" customHeight="1">
       <c r="A128" t="s" s="6">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B128" t="s" s="6">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C128" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="D128" s="7">
-        <v>0.711538461538462</v>
+        <v>22</v>
+      </c>
+      <c r="D128" s="9">
+        <v>0</v>
       </c>
       <c r="E128" s="8">
-        <v>0.785714285714286</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="F128" s="8">
-        <v>0.846153846153846</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="G128" s="8">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="H128" s="8">
-        <v>0.597402597402597</v>
-      </c>
-      <c r="I128" s="8"/>
-      <c r="J128" s="8"/>
+        <v>0.428571428571429</v>
+      </c>
+      <c r="I128" s="8">
+        <v>0.585714285714286</v>
+      </c>
+      <c r="J128" s="8">
+        <f>(LARGE(D128:G128,1)+LARGE(D128:G128,2))/2*0.3+(H128+I128)/2*0.7</f>
+        <v>0.601634615384616</v>
+      </c>
     </row>
     <row r="129" ht="14.35" customHeight="1">
       <c r="A129" t="s" s="6">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B129" t="s" s="6">
-        <v>267</v>
-      </c>
-      <c r="C129" s="10"/>
-      <c r="D129" s="9">
-        <v>0</v>
+        <v>268</v>
+      </c>
+      <c r="C129" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D129" s="7">
+        <v>0.711538461538462</v>
       </c>
       <c r="E129" s="8">
-        <v>0</v>
-      </c>
-      <c r="F129" s="8"/>
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F129" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G129" s="8">
         <v>0</v>
       </c>
       <c r="H129" s="8">
-        <v>0.194805194805195</v>
-      </c>
-      <c r="I129" s="8"/>
-      <c r="J129" s="8"/>
+        <v>0.597402597402597</v>
+      </c>
+      <c r="I129" s="8">
+        <v>0</v>
+      </c>
+      <c r="J129" s="8">
+        <f>(LARGE(D129:G129,1)+LARGE(D129:G129,2))/2*0.3+(H129+I129)/2*0.7</f>
+        <v>0.453871128871129</v>
+      </c>
     </row>
     <row r="130" ht="14.35" customHeight="1">
       <c r="A130" t="s" s="6">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B130" t="s" s="6">
-        <v>269</v>
-      </c>
-      <c r="C130" t="s" s="6">
-        <v>15</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="C130" s="10"/>
       <c r="D130" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E130" s="8">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F130" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F130" s="8">
+        <v>0</v>
+      </c>
       <c r="G130" s="8">
         <v>0</v>
       </c>
       <c r="H130" s="8">
-        <v>0.402597402597403</v>
+        <v>0.194805194805195</v>
       </c>
       <c r="I130" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="J130" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="J130" s="8">
+        <f>(LARGE(D130:G130,1)+LARGE(D130:G130,2))/2*0.3+(H130+I130)/2*0.7</f>
+        <v>0.0681818181818183</v>
+      </c>
     </row>
     <row r="131" ht="14.35" customHeight="1">
       <c r="A131" t="s" s="6">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B131" t="s" s="6">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C131" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="D131" s="7">
-        <v>0.788461538461538</v>
+        <v>15</v>
+      </c>
+      <c r="D131" s="9">
+        <v>1</v>
       </c>
       <c r="E131" s="8">
         <v>0.785714285714286</v>
       </c>
       <c r="F131" s="8">
-        <v>0.846153846153846</v>
+        <v>0.807692307692308</v>
       </c>
       <c r="G131" s="8">
-        <v>0.859375</v>
+        <v>0</v>
       </c>
       <c r="H131" s="8">
-        <v>0.701298701298701</v>
+        <v>0.402597402597403</v>
       </c>
       <c r="I131" s="8">
-        <v>0.728571428571429</v>
+        <v>0.2</v>
       </c>
       <c r="J131" s="8">
-        <f>(LARGE(D131:G131,1)+LARGE(D131:G131,2))/2*0.3+(H131+I131)/2*0.7</f>
-        <v>0.756283872377622</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="132" ht="14.35" customHeight="1">
       <c r="A132" t="s" s="6">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B132" t="s" s="6">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C132" t="s" s="6">
         <v>12</v>
       </c>
       <c r="D132" s="7">
-        <v>0.75</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E132" s="8">
         <v>0.785714285714286</v>
       </c>
       <c r="F132" s="8">
-        <v>0.7692307692307691</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="G132" s="8">
-        <v>0.765625</v>
+        <v>0.859375</v>
       </c>
       <c r="H132" s="8">
-        <v>0.558441558441558</v>
+        <v>0.701298701298701</v>
       </c>
       <c r="I132" s="8">
         <v>0.728571428571429</v>
       </c>
       <c r="J132" s="8">
         <f>(LARGE(D132:G132,1)+LARGE(D132:G132,2))/2*0.3+(H132+I132)/2*0.7</f>
-        <v>0.683696303696304</v>
+        <v>0.756283872377622</v>
       </c>
     </row>
     <row r="133" ht="14.35" customHeight="1">
       <c r="A133" t="s" s="6">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B133" t="s" s="6">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C133" t="s" s="6">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D133" s="7">
-        <v>0.634615384615385</v>
+        <v>0.75</v>
       </c>
       <c r="E133" s="8">
-        <v>0.75</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="F133" s="8">
-        <v>0.846153846153846</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="G133" s="8">
-        <v>0.96875</v>
+        <v>0.765625</v>
       </c>
       <c r="H133" s="8">
-        <v>0.519480519480519</v>
+        <v>0.558441558441558</v>
       </c>
       <c r="I133" s="8">
-        <v>0.571428571428571</v>
+        <v>0.728571428571429</v>
       </c>
       <c r="J133" s="8">
         <f>(LARGE(D133:G133,1)+LARGE(D133:G133,2))/2*0.3+(H133+I133)/2*0.7</f>
-        <v>0.654053758741258</v>
+        <v>0.683696303696304</v>
       </c>
     </row>
     <row r="134" ht="14.35" customHeight="1">
       <c r="A134" t="s" s="6">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B134" t="s" s="6">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C134" t="s" s="6">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D134" s="7">
-        <v>0.903846153846154</v>
+        <v>0.634615384615385</v>
       </c>
       <c r="E134" s="8">
-        <v>0.785714285714286</v>
+        <v>0.75</v>
       </c>
       <c r="F134" s="8">
         <v>0.846153846153846</v>
       </c>
       <c r="G134" s="8">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="H134" s="8">
-        <v>0.61038961038961</v>
+        <v>0.519480519480519</v>
       </c>
       <c r="I134" s="8">
-        <v>0.728571428571429</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="J134" s="8">
         <f>(LARGE(D134:G134,1)+LARGE(D134:G134,2))/2*0.3+(H134+I134)/2*0.7</f>
-        <v>0.740150786713287</v>
+        <v>0.654053758741258</v>
       </c>
     </row>
     <row r="135" ht="14.35" customHeight="1">
       <c r="A135" t="s" s="6">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B135" t="s" s="6">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C135" t="s" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D135" s="7">
-        <v>0.788461538461538</v>
+        <v>0.903846153846154</v>
       </c>
       <c r="E135" s="8">
         <v>0.785714285714286</v>
@@ -7657,287 +7983,319 @@
         <v>0.90625</v>
       </c>
       <c r="H135" s="8">
-        <v>0.246753246753247</v>
+        <v>0.61038961038961</v>
       </c>
       <c r="I135" s="8">
-        <v>0.414285714285714</v>
+        <v>0.728571428571429</v>
       </c>
       <c r="J135" s="8">
-        <v>0.5</v>
+        <f>(LARGE(D135:G135,1)+LARGE(D135:G135,2))/2*0.3+(H135+I135)/2*0.7</f>
+        <v>0.740150786713287</v>
       </c>
     </row>
     <row r="136" ht="14.35" customHeight="1">
       <c r="A136" t="s" s="6">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B136" t="s" s="6">
-        <v>281</v>
-      </c>
-      <c r="C136" s="10"/>
+        <v>282</v>
+      </c>
+      <c r="C136" t="s" s="6">
+        <v>12</v>
+      </c>
       <c r="D136" s="7">
-        <v>0.673076923076923</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E136" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F136" s="8"/>
+      <c r="F136" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G136" s="8">
-        <v>0.84375</v>
+        <v>0.90625</v>
       </c>
       <c r="H136" s="8">
-        <v>0.571428571428571</v>
+        <v>0.246753246753247</v>
       </c>
       <c r="I136" s="8">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="J136" s="8"/>
+        <v>0.414285714285714</v>
+      </c>
+      <c r="J136" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="137" ht="14.35" customHeight="1">
       <c r="A137" t="s" s="6">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B137" t="s" s="6">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C137" t="s" s="6">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D137" s="7">
-        <v>0.615384615384615</v>
+        <v>0.673076923076923</v>
       </c>
       <c r="E137" s="8">
-        <v>0.821428571428571</v>
-      </c>
-      <c r="F137" s="8"/>
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F137" s="8">
+        <v>0.884615384615385</v>
+      </c>
       <c r="G137" s="8">
-        <v>0.90625</v>
+        <v>0.84375</v>
       </c>
       <c r="H137" s="8">
-        <v>0.5844155844155841</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I137" s="8">
-        <v>0.614285714285714</v>
-      </c>
-      <c r="J137" s="8"/>
+        <v>0.642857142857143</v>
+      </c>
+      <c r="J137" s="8">
+        <f>(LARGE(D137:G137,1)+LARGE(D137:G137,2))/2*0.3+(H137+I137)/2*0.7</f>
+        <v>0.684254807692308</v>
+      </c>
     </row>
     <row r="138" ht="14.35" customHeight="1">
       <c r="A138" t="s" s="6">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B138" t="s" s="6">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C138" t="s" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D138" s="7">
-        <v>0.846153846153846</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="E138" s="8">
-        <v>0</v>
-      </c>
-      <c r="F138" s="8"/>
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F138" s="8">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="G138" s="8">
-        <v>0.828125</v>
+        <v>0.90625</v>
       </c>
       <c r="H138" s="8">
-        <v>0.493506493506494</v>
+        <v>0.5844155844155841</v>
       </c>
       <c r="I138" s="8">
-        <v>0.585714285714286</v>
-      </c>
-      <c r="J138" s="8"/>
+        <v>0.614285714285714</v>
+      </c>
+      <c r="J138" s="8">
+        <f>(LARGE(D138:G138,1)+LARGE(D138:G138,2))/2*0.3+(H138+I138)/2*0.7</f>
+        <v>0.67869724025974</v>
+      </c>
     </row>
     <row r="139" ht="14.35" customHeight="1">
       <c r="A139" t="s" s="6">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B139" t="s" s="6">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C139" t="s" s="6">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D139" s="7">
-        <v>0.903846153846154</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="E139" s="8">
-        <v>0.785714285714286</v>
+        <v>0</v>
       </c>
       <c r="F139" s="8">
-        <v>0.846153846153846</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="G139" s="8">
-        <v>0.640625</v>
+        <v>0.828125</v>
       </c>
       <c r="H139" s="8">
-        <v>0.467532467532468</v>
+        <v>0.493506493506494</v>
       </c>
       <c r="I139" s="8">
-        <v>0.628571428571429</v>
+        <v>0.585714285714286</v>
       </c>
       <c r="J139" s="8">
         <f>(LARGE(D139:G139,1)+LARGE(D139:G139,2))/2*0.3+(H139+I139)/2*0.7</f>
-        <v>0.646136363636364</v>
+        <v>0.62886909965035</v>
       </c>
     </row>
     <row r="140" ht="14.35" customHeight="1">
       <c r="A140" t="s" s="6">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B140" t="s" s="6">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C140" t="s" s="6">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D140" s="7">
-        <v>0.711538461538462</v>
+        <v>0.903846153846154</v>
       </c>
       <c r="E140" s="8">
-        <v>0</v>
-      </c>
-      <c r="F140" s="8"/>
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F140" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G140" s="8">
-        <v>0.84375</v>
+        <v>0.640625</v>
       </c>
       <c r="H140" s="8">
-        <v>0.5844155844155841</v>
+        <v>0.467532467532468</v>
       </c>
       <c r="I140" s="8">
-        <v>0.371428571428571</v>
-      </c>
-      <c r="J140" s="8"/>
+        <v>0.628571428571429</v>
+      </c>
+      <c r="J140" s="8">
+        <f>(LARGE(D140:G140,1)+LARGE(D140:G140,2))/2*0.3+(H140+I140)/2*0.7</f>
+        <v>0.646136363636364</v>
+      </c>
     </row>
     <row r="141" ht="14.35" customHeight="1">
       <c r="A141" t="s" s="6">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B141" t="s" s="6">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C141" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D141" s="9">
-        <v>0</v>
+      <c r="D141" s="7">
+        <v>0.711538461538462</v>
       </c>
       <c r="E141" s="8">
-        <v>0.821428571428571</v>
-      </c>
-      <c r="F141" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F141" s="8">
+        <v>0.153846153846154</v>
+      </c>
       <c r="G141" s="8">
-        <v>0.859375</v>
+        <v>0.84375</v>
       </c>
       <c r="H141" s="8">
-        <v>0.428571428571429</v>
+        <v>0.5844155844155841</v>
       </c>
       <c r="I141" s="8">
-        <v>0.585714285714286</v>
-      </c>
-      <c r="J141" s="8"/>
+        <v>0.371428571428571</v>
+      </c>
+      <c r="J141" s="8">
+        <f>(LARGE(D141:G141,1)+LARGE(D141:G141,2))/2*0.3+(H141+I141)/2*0.7</f>
+        <v>0.567838723776224</v>
+      </c>
     </row>
     <row r="142" ht="14.35" customHeight="1">
       <c r="A142" t="s" s="6">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B142" t="s" s="6">
-        <v>293</v>
-      </c>
-      <c r="C142" s="10"/>
+        <v>294</v>
+      </c>
+      <c r="C142" t="s" s="6">
+        <v>15</v>
+      </c>
       <c r="D142" s="9">
         <v>0</v>
       </c>
       <c r="E142" s="8">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F142" s="8"/>
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F142" s="8">
+        <v>0.653846153846154</v>
+      </c>
       <c r="G142" s="8">
-        <v>0</v>
+        <v>0.859375</v>
       </c>
       <c r="H142" s="8">
-        <v>0.675324675324675</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="I142" s="8">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="J142" s="8"/>
+        <v>0.585714285714286</v>
+      </c>
+      <c r="J142" s="8">
+        <f>(LARGE(D142:G142,1)+LARGE(D142:G142,2))/2*0.3+(H142+I142)/2*0.7</f>
+        <v>0.607120535714286</v>
+      </c>
     </row>
     <row r="143" ht="14.35" customHeight="1">
       <c r="A143" t="s" s="6">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B143" t="s" s="6">
-        <v>295</v>
-      </c>
-      <c r="C143" t="s" s="6">
-        <v>27</v>
-      </c>
-      <c r="D143" s="7">
-        <v>0.634615384615385</v>
+        <v>296</v>
+      </c>
+      <c r="C143" s="10"/>
+      <c r="D143" s="9">
+        <v>0</v>
       </c>
       <c r="E143" s="8">
-        <v>0.75</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="F143" s="8">
-        <v>0.846153846153846</v>
+        <v>0.807692307692308</v>
       </c>
       <c r="G143" s="8">
-        <v>0.734375</v>
+        <v>0</v>
       </c>
       <c r="H143" s="8">
-        <v>0.350649350649351</v>
+        <v>0.675324675324675</v>
       </c>
       <c r="I143" s="8">
-        <v>0.428571428571429</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="J143" s="8">
         <f>(LARGE(D143:G143,1)+LARGE(D143:G143,2))/2*0.3+(H143+I143)/2*0.7</f>
-        <v>0.51215034965035</v>
+        <v>0.750374625374625</v>
       </c>
     </row>
     <row r="144" ht="14.35" customHeight="1">
       <c r="A144" t="s" s="6">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B144" t="s" s="6">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C144" t="s" s="6">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D144" s="7">
         <v>0.634615384615385</v>
       </c>
       <c r="E144" s="8">
-        <v>0.785714285714286</v>
+        <v>0.75</v>
       </c>
       <c r="F144" s="8">
-        <v>0.807692307692308</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="G144" s="8">
-        <v>0.8125</v>
+        <v>0.734375</v>
       </c>
       <c r="H144" s="8">
-        <v>0.506493506493506</v>
+        <v>0.350649350649351</v>
       </c>
       <c r="I144" s="8">
-        <v>0.785714285714286</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="J144" s="8">
         <f>(LARGE(D144:G144,1)+LARGE(D144:G144,2))/2*0.3+(H144+I144)/2*0.7</f>
-        <v>0.6953015734265729</v>
+        <v>0.51215034965035</v>
       </c>
     </row>
     <row r="145" ht="14.35" customHeight="1">
       <c r="A145" t="s" s="6">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B145" t="s" s="6">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C145" t="s" s="6">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D145" s="7">
         <v>0.634615384615385</v>
@@ -7946,97 +8304,97 @@
         <v>0.785714285714286</v>
       </c>
       <c r="F145" s="8">
-        <v>0.923076923076923</v>
+        <v>0.807692307692308</v>
       </c>
       <c r="G145" s="8">
-        <v>0.765625</v>
+        <v>0.8125</v>
       </c>
       <c r="H145" s="8">
-        <v>0.571428571428571</v>
+        <v>0.506493506493506</v>
       </c>
       <c r="I145" s="8">
-        <v>0.671428571428571</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="J145" s="8">
         <f>(LARGE(D145:G145,1)+LARGE(D145:G145,2))/2*0.3+(H145+I145)/2*0.7</f>
-        <v>0.691318681318681</v>
+        <v>0.6953015734265729</v>
       </c>
     </row>
     <row r="146" ht="14.35" customHeight="1">
       <c r="A146" t="s" s="6">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B146" t="s" s="6">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C146" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="D146" s="9">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="D146" s="7">
+        <v>0.634615384615385</v>
       </c>
       <c r="E146" s="8">
-        <v>0.75</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="F146" s="8">
-        <v>0.961538461538462</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="G146" s="8">
-        <v>0.8125</v>
+        <v>0.765625</v>
       </c>
       <c r="H146" s="8">
-        <v>0.337662337662338</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I146" s="8">
-        <v>0.628571428571429</v>
+        <v>0.671428571428571</v>
       </c>
       <c r="J146" s="8">
         <f>(LARGE(D146:G146,1)+LARGE(D146:G146,2))/2*0.3+(H146+I146)/2*0.7</f>
-        <v>0.604287587412588</v>
+        <v>0.691318681318681</v>
       </c>
     </row>
     <row r="147" ht="14.35" customHeight="1">
       <c r="A147" t="s" s="6">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B147" t="s" s="6">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C147" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="D147" s="7">
+        <v>12</v>
+      </c>
+      <c r="D147" s="9">
+        <v>0</v>
+      </c>
+      <c r="E147" s="8">
         <v>0.75</v>
       </c>
-      <c r="E147" s="8">
-        <v>0.785714285714286</v>
-      </c>
       <c r="F147" s="8">
-        <v>0.807692307692308</v>
+        <v>0.961538461538462</v>
       </c>
       <c r="G147" s="8">
-        <v>0.84375</v>
+        <v>0.8125</v>
       </c>
       <c r="H147" s="8">
-        <v>0.38961038961039</v>
+        <v>0.337662337662338</v>
       </c>
       <c r="I147" s="8">
-        <v>0.457142857142857</v>
+        <v>0.628571428571429</v>
       </c>
       <c r="J147" s="8">
         <f>(LARGE(D147:G147,1)+LARGE(D147:G147,2))/2*0.3+(H147+I147)/2*0.7</f>
-        <v>0.544079982517483</v>
+        <v>0.604287587412588</v>
       </c>
     </row>
     <row r="148" ht="14.35" customHeight="1">
       <c r="A148" t="s" s="6">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B148" t="s" s="6">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C148" t="s" s="6">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D148" s="7">
         <v>0.75</v>
@@ -8044,378 +8402,425 @@
       <c r="E148" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F148" s="8"/>
+      <c r="F148" s="8">
+        <v>0.807692307692308</v>
+      </c>
       <c r="G148" s="8">
-        <v>0.890625</v>
+        <v>0.84375</v>
       </c>
       <c r="H148" s="8">
-        <v>0.493506493506494</v>
+        <v>0.38961038961039</v>
       </c>
       <c r="I148" s="8">
-        <v>0.657142857142857</v>
-      </c>
-      <c r="J148" s="8"/>
+        <v>0.457142857142857</v>
+      </c>
+      <c r="J148" s="8">
+        <f>(LARGE(D148:G148,1)+LARGE(D148:G148,2))/2*0.3+(H148+I148)/2*0.7</f>
+        <v>0.544079982517483</v>
+      </c>
     </row>
     <row r="149" ht="14.35" customHeight="1">
       <c r="A149" t="s" s="6">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B149" t="s" s="6">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C149" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="D149" s="9">
-        <v>0</v>
+      <c r="D149" s="7">
+        <v>0.75</v>
       </c>
       <c r="E149" s="8">
         <v>0.785714285714286</v>
       </c>
       <c r="F149" s="8">
-        <v>0.846153846153846</v>
+        <v>0.7307692307692309</v>
       </c>
       <c r="G149" s="8">
         <v>0.890625</v>
       </c>
       <c r="H149" s="8">
-        <v>0.597402597402597</v>
+        <v>0.493506493506494</v>
       </c>
       <c r="I149" s="8">
-        <v>0.8</v>
+        <v>0.657142857142857</v>
       </c>
       <c r="J149" s="8">
         <f>(LARGE(D149:G149,1)+LARGE(D149:G149,2))/2*0.3+(H149+I149)/2*0.7</f>
-        <v>0.749607736013986</v>
+        <v>0.654178165584416</v>
       </c>
     </row>
     <row r="150" ht="14.35" customHeight="1">
       <c r="A150" t="s" s="6">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B150" t="s" s="6">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C150" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="D150" s="7">
-        <v>0.923076923076923</v>
+        <v>27</v>
+      </c>
+      <c r="D150" s="9">
+        <v>0</v>
       </c>
       <c r="E150" s="8">
-        <v>0.821428571428571</v>
-      </c>
-      <c r="F150" s="8"/>
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F150" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G150" s="8">
-        <v>0</v>
+        <v>0.890625</v>
       </c>
       <c r="H150" s="8">
-        <v>0.649350649350649</v>
+        <v>0.597402597402597</v>
       </c>
       <c r="I150" s="8">
         <v>0.8</v>
       </c>
-      <c r="J150" s="8"/>
+      <c r="J150" s="8">
+        <f>(LARGE(D150:G150,1)+LARGE(D150:G150,2))/2*0.3+(H150+I150)/2*0.7</f>
+        <v>0.749607736013986</v>
+      </c>
     </row>
     <row r="151" ht="14.35" customHeight="1">
       <c r="A151" t="s" s="6">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B151" t="s" s="6">
-        <v>311</v>
-      </c>
-      <c r="C151" s="10"/>
-      <c r="D151" s="9">
-        <v>0</v>
+        <v>312</v>
+      </c>
+      <c r="C151" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D151" s="7">
+        <v>0.923076923076923</v>
       </c>
       <c r="E151" s="8">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F151" s="8"/>
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F151" s="8">
+        <v>0</v>
+      </c>
       <c r="G151" s="8">
-        <v>0.90625</v>
+        <v>0</v>
       </c>
       <c r="H151" s="8">
-        <v>0.532467532467532</v>
+        <v>0.649350649350649</v>
       </c>
       <c r="I151" s="8">
-        <v>0.771428571428571</v>
-      </c>
-      <c r="J151" s="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="J151" s="8">
+        <f>(LARGE(D151:G151,1)+LARGE(D151:G151,2))/2*0.3+(H151+I151)/2*0.7</f>
+        <v>0.768948551448551</v>
+      </c>
     </row>
     <row r="152" ht="14.35" customHeight="1">
       <c r="A152" t="s" s="6">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B152" t="s" s="6">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C152" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D152" s="7">
-        <v>0.846153846153846</v>
+      <c r="D152" s="9">
+        <v>0</v>
       </c>
       <c r="E152" s="8">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="F152" s="8"/>
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F152" s="8">
+        <v>0.807692307692308</v>
+      </c>
       <c r="G152" s="8">
-        <v>0.71875</v>
+        <v>0.90625</v>
       </c>
       <c r="H152" s="8">
         <v>0.532467532467532</v>
       </c>
       <c r="I152" s="8">
-        <v>0.614285714285714</v>
-      </c>
-      <c r="J152" s="8"/>
+        <v>0.771428571428571</v>
+      </c>
+      <c r="J152" s="8">
+        <f>(LARGE(D152:G152,1)+LARGE(D152:G152,2))/2*0.3+(H152+I152)/2*0.7</f>
+        <v>0.713454982517482</v>
+      </c>
     </row>
     <row r="153" ht="14.35" customHeight="1">
       <c r="A153" t="s" s="6">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B153" t="s" s="6">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C153" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D153" s="9">
-        <v>0</v>
+      <c r="D153" s="7">
+        <v>0.846153846153846</v>
       </c>
       <c r="E153" s="8">
-        <v>0.821428571428571</v>
-      </c>
-      <c r="F153" s="8"/>
+        <v>0.642857142857143</v>
+      </c>
+      <c r="F153" s="8">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="G153" s="8">
-        <v>0.84375</v>
+        <v>0.71875</v>
       </c>
       <c r="H153" s="8">
-        <v>0.597402597402597</v>
+        <v>0.532467532467532</v>
       </c>
       <c r="I153" s="8">
-        <v>0.628571428571429</v>
-      </c>
-      <c r="J153" s="8"/>
+        <v>0.614285714285714</v>
+      </c>
+      <c r="J153" s="8">
+        <f>(LARGE(D153:G153,1)+LARGE(D153:G153,2))/2*0.3+(H153+I153)/2*0.7</f>
+        <v>0.643671328671328</v>
+      </c>
     </row>
     <row r="154" ht="14.35" customHeight="1">
       <c r="A154" t="s" s="6">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B154" t="s" s="6">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C154" t="s" s="6">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D154" s="9">
         <v>0</v>
       </c>
       <c r="E154" s="8">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="F154" s="8"/>
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F154" s="8">
+        <v>0.653846153846154</v>
+      </c>
       <c r="G154" s="8">
-        <v>0.890625</v>
+        <v>0.84375</v>
       </c>
       <c r="H154" s="8">
-        <v>0.324675324675325</v>
+        <v>0.597402597402597</v>
       </c>
       <c r="I154" s="8">
-        <v>0.414285714285714</v>
-      </c>
-      <c r="J154" s="8"/>
+        <v>0.628571428571429</v>
+      </c>
+      <c r="J154" s="8">
+        <f>(LARGE(D154:G154,1)+LARGE(D154:G154,2))/2*0.3+(H154+I154)/2*0.7</f>
+        <v>0.678867694805195</v>
+      </c>
     </row>
     <row r="155" ht="14.35" customHeight="1">
       <c r="A155" t="s" s="6">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B155" t="s" s="6">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C155" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="D155" s="7">
-        <v>0.634615384615385</v>
+      <c r="D155" s="9">
+        <v>0</v>
       </c>
       <c r="E155" s="8">
-        <v>0.678571428571429</v>
-      </c>
-      <c r="F155" s="8"/>
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F155" s="8">
+        <v>0.7692307692307691</v>
+      </c>
       <c r="G155" s="8">
-        <v>0.625</v>
+        <v>0.890625</v>
       </c>
       <c r="H155" s="8">
-        <v>0.350649350649351</v>
+        <v>0.324675324675325</v>
       </c>
       <c r="I155" s="8">
-        <v>0.528571428571429</v>
-      </c>
-      <c r="J155" s="8"/>
+        <v>0.414285714285714</v>
+      </c>
+      <c r="J155" s="8">
+        <f>(LARGE(D155:G155,1)+LARGE(D155:G155,2))/2*0.3+(H155+I155)/2*0.7</f>
+        <v>0.507614729020979</v>
+      </c>
     </row>
     <row r="156" ht="14.35" customHeight="1">
       <c r="A156" t="s" s="6">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B156" t="s" s="6">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C156" t="s" s="6">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D156" s="7">
-        <v>0.711538461538462</v>
+        <v>0.634615384615385</v>
       </c>
       <c r="E156" s="8">
-        <v>0.785714285714286</v>
+        <v>0.678571428571429</v>
       </c>
       <c r="F156" s="8">
-        <v>0.846153846153846</v>
+        <v>0.807692307692308</v>
       </c>
       <c r="G156" s="8">
-        <v>0.765625</v>
+        <v>0.625</v>
       </c>
       <c r="H156" s="8">
-        <v>0.506493506493506</v>
+        <v>0.350649350649351</v>
       </c>
       <c r="I156" s="8">
-        <v>0.671428571428571</v>
+        <v>0.528571428571429</v>
       </c>
       <c r="J156" s="8">
         <f>(LARGE(D156:G156,1)+LARGE(D156:G156,2))/2*0.3+(H156+I156)/2*0.7</f>
-        <v>0.657052947052947</v>
+        <v>0.5306668331668341</v>
       </c>
     </row>
     <row r="157" ht="14.35" customHeight="1">
       <c r="A157" t="s" s="6">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B157" t="s" s="6">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C157" t="s" s="6">
         <v>12</v>
       </c>
       <c r="D157" s="7">
-        <v>0.942307692307692</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="E157" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F157" s="8"/>
+      <c r="F157" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G157" s="8">
-        <v>0.859375</v>
+        <v>0.765625</v>
       </c>
       <c r="H157" s="8">
-        <v>0.467532467532468</v>
+        <v>0.506493506493506</v>
       </c>
       <c r="I157" s="8">
-        <v>0.6857142857142861</v>
-      </c>
-      <c r="J157" s="8"/>
+        <v>0.671428571428571</v>
+      </c>
+      <c r="J157" s="8">
+        <f>(LARGE(D157:G157,1)+LARGE(D157:G157,2))/2*0.3+(H157+I157)/2*0.7</f>
+        <v>0.657052947052947</v>
+      </c>
     </row>
     <row r="158" ht="14.35" customHeight="1">
       <c r="A158" t="s" s="6">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B158" t="s" s="6">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C158" t="s" s="6">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D158" s="7">
-        <v>0.634615384615385</v>
+        <v>0.942307692307692</v>
       </c>
       <c r="E158" s="8">
         <v>0.785714285714286</v>
       </c>
       <c r="F158" s="8">
-        <v>0.807692307692308</v>
+        <v>0</v>
       </c>
       <c r="G158" s="8">
-        <v>0.9375</v>
+        <v>0.859375</v>
       </c>
       <c r="H158" s="8">
-        <v>0.688311688311688</v>
+        <v>0.467532467532468</v>
       </c>
       <c r="I158" s="8">
-        <v>0.871428571428571</v>
+        <v>0.6857142857142861</v>
       </c>
       <c r="J158" s="8">
         <f>(LARGE(D158:G158,1)+LARGE(D158:G158,2))/2*0.3+(H158+I158)/2*0.7</f>
-        <v>0.807687937062937</v>
+        <v>0.673888767482518</v>
       </c>
     </row>
     <row r="159" ht="14.35" customHeight="1">
       <c r="A159" t="s" s="6">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B159" t="s" s="6">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C159" t="s" s="6">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D159" s="7">
+        <v>0.634615384615385</v>
+      </c>
+      <c r="E159" s="8">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F159" s="8">
         <v>0.807692307692308</v>
       </c>
-      <c r="E159" s="8">
-        <v>0.821428571428571</v>
-      </c>
-      <c r="F159" s="8"/>
       <c r="G159" s="8">
-        <v>0.75</v>
+        <v>0.9375</v>
       </c>
       <c r="H159" s="8">
-        <v>0.727272727272727</v>
+        <v>0.688311688311688</v>
       </c>
       <c r="I159" s="8">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="J159" s="8"/>
+        <v>0.871428571428571</v>
+      </c>
+      <c r="J159" s="8">
+        <f>(LARGE(D159:G159,1)+LARGE(D159:G159,2))/2*0.3+(H159+I159)/2*0.7</f>
+        <v>0.807687937062937</v>
+      </c>
     </row>
     <row r="160" ht="14.35" customHeight="1">
       <c r="A160" t="s" s="6">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B160" t="s" s="6">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C160" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="D160" s="9">
-        <v>0</v>
+      <c r="D160" s="7">
+        <v>0.807692307692308</v>
       </c>
       <c r="E160" s="8">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F160" s="8">
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="G160" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="H160" s="8">
+        <v>0.727272727272727</v>
+      </c>
+      <c r="I160" s="8">
         <v>0.785714285714286</v>
-      </c>
-      <c r="F160" s="8">
-        <v>0.846153846153846</v>
-      </c>
-      <c r="G160" s="8">
-        <v>0.71875</v>
-      </c>
-      <c r="H160" s="8">
-        <v>0.493506493506494</v>
-      </c>
-      <c r="I160" s="8">
-        <v>0.714285714285714</v>
       </c>
       <c r="J160" s="8">
         <f>(LARGE(D160:G160,1)+LARGE(D160:G160,2))/2*0.3+(H160+I160)/2*0.7</f>
-        <v>0.667507492507493</v>
+        <v>0.773913586413586</v>
       </c>
     </row>
     <row r="161" ht="14.35" customHeight="1">
       <c r="A161" t="s" s="6">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B161" t="s" s="6">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C161" t="s" s="6">
         <v>27</v>
@@ -8424,468 +8829,552 @@
         <v>0</v>
       </c>
       <c r="E161" s="8">
-        <v>0.678571428571429</v>
-      </c>
-      <c r="F161" s="8"/>
-      <c r="G161" s="8"/>
-      <c r="H161" s="8"/>
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F161" s="8">
+        <v>0.846153846153846</v>
+      </c>
+      <c r="G161" s="8">
+        <v>0.71875</v>
+      </c>
+      <c r="H161" s="8">
+        <v>0.493506493506494</v>
+      </c>
       <c r="I161" s="8">
-        <v>0.514285714285714</v>
-      </c>
-      <c r="J161" s="8"/>
+        <v>0.714285714285714</v>
+      </c>
+      <c r="J161" s="8">
+        <f>(LARGE(D161:G161,1)+LARGE(D161:G161,2))/2*0.3+(H161+I161)/2*0.7</f>
+        <v>0.667507492507493</v>
+      </c>
     </row>
     <row r="162" ht="14.35" customHeight="1">
       <c r="A162" t="s" s="6">
         <v>331</v>
       </c>
       <c r="B162" t="s" s="6">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C162" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D162" s="7">
-        <v>0.711538461538462</v>
+      <c r="D162" s="9">
+        <v>0</v>
       </c>
       <c r="E162" s="8">
-        <v>0.785714285714286</v>
+        <v>0.678571428571429</v>
       </c>
       <c r="F162" s="8">
-        <v>0.846153846153846</v>
+        <v>0.807692307692308</v>
       </c>
       <c r="G162" s="8">
-        <v>0.666666666666667</v>
+        <v>0.5625</v>
       </c>
       <c r="H162" s="8">
-        <v>0.61038961038961</v>
+        <v>0</v>
       </c>
       <c r="I162" s="8">
-        <v>0.5</v>
+        <v>0.514285714285714</v>
       </c>
       <c r="J162" s="8">
-        <f>(LARGE(D162:G162,1)+LARGE(D162:G162,2))/2*0.3+(H162+I162)/2*0.7</f>
-        <v>0.633416583416583</v>
+        <f>(LARGE(D162:G162,1)+LARGE(D162:G162,2))/2*0.3+(H162+I162)/1*0.7</f>
+        <v>0.58293956043956</v>
       </c>
     </row>
     <row r="163" ht="14.35" customHeight="1">
       <c r="A163" t="s" s="6">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B163" t="s" s="6">
-        <v>334</v>
-      </c>
-      <c r="C163" s="10"/>
-      <c r="D163" s="9">
-        <v>0</v>
+        <v>335</v>
+      </c>
+      <c r="C163" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D163" s="7">
+        <v>0.711538461538462</v>
       </c>
       <c r="E163" s="8">
-        <v>0.821428571428571</v>
-      </c>
-      <c r="F163" s="8"/>
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F163" s="8">
+        <v>0.846153846153846</v>
+      </c>
       <c r="G163" s="8">
-        <v>0.84375</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H163" s="8">
-        <v>0.506493506493506</v>
+        <v>0.61038961038961</v>
       </c>
       <c r="I163" s="8">
-        <v>0.357142857142857</v>
-      </c>
-      <c r="J163" s="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="J163" s="8">
+        <f>(LARGE(D163:G163,1)+LARGE(D163:G163,2))/2*0.3+(H163+I163)/2*0.7</f>
+        <v>0.633416583416583</v>
+      </c>
     </row>
     <row r="164" ht="14.35" customHeight="1">
       <c r="A164" t="s" s="6">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B164" t="s" s="6">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C164" t="s" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D164" s="9">
         <v>0</v>
       </c>
       <c r="E164" s="8">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="F164" s="8"/>
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F164" s="8">
+        <v>0.653846153846154</v>
+      </c>
       <c r="G164" s="8">
-        <v>0.875</v>
+        <v>0.84375</v>
       </c>
       <c r="H164" s="8">
-        <v>0.636363636363636</v>
+        <v>0.506493506493506</v>
       </c>
       <c r="I164" s="8">
-        <v>0.542857142857143</v>
-      </c>
-      <c r="J164" s="8"/>
+        <v>0.357142857142857</v>
+      </c>
+      <c r="J164" s="8">
+        <f>(LARGE(D164:G164,1)+LARGE(D164:G164,2))/2*0.3+(H164+I164)/2*0.7</f>
+        <v>0.552049512987013</v>
+      </c>
     </row>
     <row r="165" ht="14.35" customHeight="1">
       <c r="A165" t="s" s="6">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B165" t="s" s="6">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C165" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="D165" s="7">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="D165" s="9">
+        <v>0</v>
       </c>
       <c r="E165" s="8">
-        <v>0.607142857142857</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="F165" s="8">
-        <v>0.807692307692308</v>
+        <v>0.961538461538462</v>
       </c>
       <c r="G165" s="8">
-        <v>0.703125</v>
+        <v>0.875</v>
       </c>
       <c r="H165" s="8">
         <v>0.636363636363636</v>
       </c>
       <c r="I165" s="8">
-        <v>0.571428571428571</v>
+        <v>0.542857142857143</v>
       </c>
       <c r="J165" s="8">
         <f>(LARGE(D165:G165,1)+LARGE(D165:G165,2))/2*0.3+(H165+I165)/2*0.7</f>
-        <v>0.6563811188811191</v>
+        <v>0.688208041958042</v>
       </c>
     </row>
     <row r="166" ht="14.35" customHeight="1">
       <c r="A166" t="s" s="6">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B166" t="s" s="6">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C166" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="D166" s="9">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="D166" s="7">
+        <v>0.75</v>
       </c>
       <c r="E166" s="8">
-        <v>0.785714285714286</v>
+        <v>0.607142857142857</v>
       </c>
       <c r="F166" s="8">
-        <v>0.7692307692307691</v>
+        <v>0.807692307692308</v>
       </c>
       <c r="G166" s="8">
-        <v>0.71875</v>
+        <v>0.703125</v>
       </c>
       <c r="H166" s="8">
-        <v>0</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="I166" s="8">
-        <v>0.242857142857143</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="J166" s="8">
-        <f>(LARGE(D166:G166,1)+LARGE(D166:G166,2))/2*0.3+(H166+I166)/1*0.7</f>
-        <v>0.403241758241758</v>
+        <f>(LARGE(D166:G166,1)+LARGE(D166:G166,2))/2*0.3+(H166+I166)/2*0.7</f>
+        <v>0.6563811188811191</v>
       </c>
     </row>
     <row r="167" ht="14.35" customHeight="1">
       <c r="A167" t="s" s="6">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B167" t="s" s="6">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C167" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="D167" s="7">
-        <v>0.788461538461538</v>
+        <v>12</v>
+      </c>
+      <c r="D167" s="9">
+        <v>0</v>
       </c>
       <c r="E167" s="8">
-        <v>0.821428571428571</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="F167" s="8">
-        <v>0.807692307692308</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="G167" s="8">
-        <v>0.875</v>
+        <v>0.71875</v>
       </c>
       <c r="H167" s="8">
-        <v>0.467532467532468</v>
+        <v>0</v>
       </c>
       <c r="I167" s="8">
-        <v>0.6</v>
+        <v>0.242857142857143</v>
       </c>
       <c r="J167" s="8">
-        <f>(LARGE(D167:G167,1)+LARGE(D167:G167,2))/2*0.3+(H167+I167)/2*0.7</f>
-        <v>0.628100649350649</v>
+        <f>(LARGE(D167:G167,1)+LARGE(D167:G167,2))/2*0.3+(H167+I167)/1*0.7</f>
+        <v>0.403241758241758</v>
       </c>
     </row>
     <row r="168" ht="14.35" customHeight="1">
       <c r="A168" t="s" s="6">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B168" t="s" s="6">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C168" t="s" s="6">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D168" s="7">
-        <v>1</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="E168" s="8">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F168" s="8"/>
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F168" s="8">
+        <v>0.807692307692308</v>
+      </c>
       <c r="G168" s="8">
-        <v>0.671875</v>
+        <v>0.875</v>
       </c>
       <c r="H168" s="8">
-        <v>0.623376623376623</v>
+        <v>0.467532467532468</v>
       </c>
       <c r="I168" s="8">
-        <v>0.742857142857143</v>
-      </c>
-      <c r="J168" s="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="J168" s="8">
+        <f>(LARGE(D168:G168,1)+LARGE(D168:G168,2))/2*0.3+(H168+I168)/2*0.7</f>
+        <v>0.628100649350649</v>
+      </c>
     </row>
     <row r="169" ht="14.35" customHeight="1">
       <c r="A169" t="s" s="6">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B169" t="s" s="6">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C169" t="s" s="6">
         <v>27</v>
       </c>
       <c r="D169" s="7">
-        <v>0.826923076923077</v>
+        <v>1</v>
       </c>
       <c r="E169" s="8">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="F169" s="8"/>
+        <v>0.785714285714286</v>
+      </c>
+      <c r="F169" s="8">
+        <v>0.807692307692308</v>
+      </c>
       <c r="G169" s="8">
-        <v>0.53</v>
+        <v>0.671875</v>
       </c>
       <c r="H169" s="8">
-        <v>0.519480519480519</v>
+        <v>0.623376623376623</v>
       </c>
       <c r="I169" s="8">
-        <v>0.614285714285714</v>
-      </c>
-      <c r="J169" s="8"/>
+        <v>0.742857142857143</v>
+      </c>
+      <c r="J169" s="8">
+        <f>(LARGE(D169:G169,1)+LARGE(D169:G169,2))/2*0.3+(H169+I169)/2*0.7</f>
+        <v>0.749335664335664</v>
+      </c>
     </row>
     <row r="170" ht="14.35" customHeight="1">
       <c r="A170" t="s" s="6">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B170" t="s" s="6">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C170" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="D170" s="9">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="D170" s="7">
+        <v>0.826923076923077</v>
       </c>
       <c r="E170" s="8">
-        <v>0.785714285714286</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="F170" s="8">
-        <v>0.846153846153846</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="G170" s="8">
-        <v>0.90625</v>
+        <v>0.53</v>
       </c>
       <c r="H170" s="8">
-        <v>0.480519480519481</v>
+        <v>0.519480519480519</v>
       </c>
       <c r="I170" s="8">
-        <v>0.542857142857143</v>
+        <v>0.614285714285714</v>
       </c>
       <c r="J170" s="8">
         <f>(LARGE(D170:G170,1)+LARGE(D170:G170,2))/2*0.3+(H170+I170)/2*0.7</f>
-        <v>0.621042395104895</v>
+        <v>0.659318181818182</v>
       </c>
     </row>
     <row r="171" ht="14.35" customHeight="1">
       <c r="A171" t="s" s="6">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B171" t="s" s="6">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C171" t="s" s="6">
-        <v>27</v>
-      </c>
-      <c r="D171" s="7">
-        <v>0.7692307692307691</v>
+        <v>12</v>
+      </c>
+      <c r="D171" s="9">
+        <v>0</v>
       </c>
       <c r="E171" s="8">
-        <v>0.714285714285714</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="F171" s="8">
-        <v>0.884615384615385</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="G171" s="8">
-        <v>0.8125</v>
+        <v>0.90625</v>
       </c>
       <c r="H171" s="8">
-        <v>0.636363636363636</v>
+        <v>0.480519480519481</v>
       </c>
       <c r="I171" s="8">
-        <v>0.6857142857142861</v>
+        <v>0.542857142857143</v>
       </c>
       <c r="J171" s="8">
         <f>(LARGE(D171:G171,1)+LARGE(D171:G171,2))/2*0.3+(H171+I171)/2*0.7</f>
-        <v>0.7172945804195801</v>
+        <v>0.621042395104895</v>
       </c>
     </row>
     <row r="172" ht="14.35" customHeight="1">
       <c r="A172" t="s" s="6">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B172" t="s" s="6">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C172" t="s" s="6">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D172" s="7">
-        <v>0.711538461538462</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="E172" s="8">
-        <v>0</v>
-      </c>
-      <c r="F172" s="8"/>
+        <v>0.714285714285714</v>
+      </c>
+      <c r="F172" s="8">
+        <v>0.884615384615385</v>
+      </c>
       <c r="G172" s="8">
-        <v>0.84375</v>
+        <v>0.8125</v>
       </c>
       <c r="H172" s="8">
-        <v>0.402597402597403</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="I172" s="8">
-        <v>0.742857142857143</v>
-      </c>
-      <c r="J172" s="8"/>
+        <v>0.6857142857142861</v>
+      </c>
+      <c r="J172" s="8">
+        <f>(LARGE(D172:G172,1)+LARGE(D172:G172,2))/2*0.3+(H172+I172)/2*0.7</f>
+        <v>0.7172945804195801</v>
+      </c>
     </row>
     <row r="173" ht="14.35" customHeight="1">
       <c r="A173" t="s" s="6">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B173" t="s" s="6">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C173" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D173" s="9">
-        <v>0</v>
+      <c r="D173" s="7">
+        <v>0.711538461538462</v>
       </c>
       <c r="E173" s="8">
-        <v>0.607142857142857</v>
-      </c>
-      <c r="F173" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F173" s="8">
+        <v>0.153846153846154</v>
+      </c>
       <c r="G173" s="8">
-        <v>0.765625</v>
+        <v>0.84375</v>
       </c>
       <c r="H173" s="8">
-        <v>0</v>
+        <v>0.402597402597403</v>
       </c>
       <c r="I173" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="J173" s="8"/>
+        <v>0.742857142857143</v>
+      </c>
+      <c r="J173" s="8">
+        <f>(LARGE(D173:G173,1)+LARGE(D173:G173,2))/2*0.3+(H173+I173)/2*0.7</f>
+        <v>0.63420236013986</v>
+      </c>
     </row>
     <row r="174" ht="14.35" customHeight="1">
       <c r="A174" t="s" s="6">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B174" t="s" s="6">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C174" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D174" s="7">
-        <v>0.846153846153846</v>
+      <c r="D174" s="9">
+        <v>0</v>
       </c>
       <c r="E174" s="8">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="F174" s="8"/>
+        <v>0.607142857142857</v>
+      </c>
+      <c r="F174" s="8">
+        <v>0</v>
+      </c>
       <c r="G174" s="8">
-        <v>0.875</v>
+        <v>0.765625</v>
       </c>
       <c r="H174" s="8">
-        <v>0.532467532467532</v>
+        <v>0</v>
       </c>
       <c r="I174" s="8">
-        <v>0.671428571428571</v>
-      </c>
-      <c r="J174" s="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="J174" s="8">
+        <f>(LARGE(D174:G174,1)+LARGE(D174:G174,2))/2*0.3+(H174+I174)/1*0.7</f>
+        <v>0.275915178571429</v>
+      </c>
     </row>
     <row r="175" ht="14.35" customHeight="1">
       <c r="A175" t="s" s="6">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B175" t="s" s="6">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C175" t="s" s="6">
         <v>15</v>
       </c>
       <c r="D175" s="7">
-        <v>0.788461538461538</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="E175" s="8">
-        <v>0.821428571428571</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="F175" s="8">
-        <v>0.807692307692308</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="G175" s="8">
-        <v>0.84375</v>
+        <v>0.875</v>
       </c>
       <c r="H175" s="8">
-        <v>0.506493506493506</v>
+        <v>0.532467532467532</v>
       </c>
       <c r="I175" s="8">
-        <v>0.7</v>
+        <v>0.671428571428571</v>
       </c>
       <c r="J175" s="8">
         <f>(LARGE(D175:G175,1)+LARGE(D175:G175,2))/2*0.3+(H175+I175)/2*0.7</f>
-        <v>0.672049512987013</v>
+        <v>0.6795367132867129</v>
       </c>
     </row>
     <row r="176" ht="14.35" customHeight="1">
       <c r="A176" t="s" s="6">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B176" t="s" s="6">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C176" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D176" s="7">
+        <v>0.788461538461538</v>
+      </c>
+      <c r="E176" s="8">
+        <v>0.821428571428571</v>
+      </c>
+      <c r="F176" s="8">
+        <v>0.807692307692308</v>
+      </c>
+      <c r="G176" s="8">
+        <v>0.84375</v>
+      </c>
+      <c r="H176" s="8">
+        <v>0.506493506493506</v>
+      </c>
+      <c r="I176" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="J176" s="8">
+        <f>(LARGE(D176:G176,1)+LARGE(D176:G176,2))/2*0.3+(H176+I176)/2*0.7</f>
+        <v>0.672049512987013</v>
+      </c>
+    </row>
+    <row r="177" ht="14.35" customHeight="1">
+      <c r="A177" t="s" s="6">
+        <v>362</v>
+      </c>
+      <c r="B177" t="s" s="6">
+        <v>363</v>
+      </c>
+      <c r="C177" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="D176" s="9">
+      <c r="D177" s="9">
         <v>1</v>
       </c>
-      <c r="E176" s="8">
+      <c r="E177" s="8">
         <v>0.785714285714286</v>
       </c>
-      <c r="F176" s="8"/>
-      <c r="G176" s="8">
+      <c r="F177" s="8">
+        <v>0.807692307692308</v>
+      </c>
+      <c r="G177" s="8">
         <v>0.875</v>
       </c>
-      <c r="H176" s="8">
+      <c r="H177" s="8">
         <v>0.545454545454545</v>
       </c>
-      <c r="I176" s="8">
+      <c r="I177" s="8">
         <v>0.728571428571429</v>
       </c>
-      <c r="J176" s="8"/>
+      <c r="J177" s="8">
+        <f>(LARGE(D177:G177,1)+LARGE(D177:G177,2))/2*0.3+(H177+I177)/2*0.7</f>
+        <v>0.727159090909091</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8939,109 +9428,109 @@
     <hyperlink ref="B58" r:id="rId48" location="" tooltip="" display="H220052N@hit.ac.zw"/>
     <hyperlink ref="B59" r:id="rId49" location="" tooltip="" display="H220379X@hit.ac.zw"/>
     <hyperlink ref="B60" r:id="rId50" location="" tooltip="" display="H220281P@hit.ac.zw"/>
-    <hyperlink ref="B61" r:id="rId51" location="" tooltip="" display="H220413B@hit.ac.zw"/>
-    <hyperlink ref="B62" r:id="rId52" location="" tooltip="" display="H220042V@hit.ac.zw"/>
-    <hyperlink ref="B63" r:id="rId53" location="" tooltip="" display="H220153W@hit.ac.zw"/>
-    <hyperlink ref="B64" r:id="rId54" location="" tooltip="" display="H220094W@hit.ac.zw"/>
-    <hyperlink ref="B65" r:id="rId55" location="" tooltip="" display="H220230R@hit.ac.zw"/>
-    <hyperlink ref="B66" r:id="rId56" location="" tooltip="" display="H220122N@hit.ac.zw"/>
-    <hyperlink ref="B67" r:id="rId57" location="" tooltip="" display="H220152Q@hit.ac.zw"/>
-    <hyperlink ref="B69" r:id="rId58" location="" tooltip="" display="H220585W@hit.ac.zw"/>
-    <hyperlink ref="B70" r:id="rId59" location="" tooltip="" display="H220047M@hit.ac.zw"/>
-    <hyperlink ref="B71" r:id="rId60" location="" tooltip="" display="H220483J@hit.ac.zw"/>
-    <hyperlink ref="B72" r:id="rId61" location="" tooltip="" display="H220015F@hit.ac.zw"/>
-    <hyperlink ref="B73" r:id="rId62" location="" tooltip="" display="H220184Z@hit.ac.zw"/>
-    <hyperlink ref="B74" r:id="rId63" location="" tooltip="" display="H220392X@hit.ac.zw"/>
-    <hyperlink ref="B76" r:id="rId64" location="" tooltip="" display="H220187N@hit.ac.zw"/>
-    <hyperlink ref="B77" r:id="rId65" location="" tooltip="" display="H220421Y@hit.ac.zw"/>
-    <hyperlink ref="B79" r:id="rId66" location="" tooltip="" display="h200799c@hit.ac.zw"/>
-    <hyperlink ref="B81" r:id="rId67" location="" tooltip="" display="H220211V@hit.ac.zw"/>
-    <hyperlink ref="B82" r:id="rId68" location="" tooltip="" display="H220623Z@hit.ac.zw"/>
-    <hyperlink ref="B83" r:id="rId69" location="" tooltip="" display="H220315H@hit.ac.zw"/>
-    <hyperlink ref="B84" r:id="rId70" location="" tooltip="" display="H220063V@hit.ac.zw"/>
-    <hyperlink ref="B85" r:id="rId71" location="" tooltip="" display="H220019B@hit.ac.zw"/>
-    <hyperlink ref="B86" r:id="rId72" location="" tooltip="" display="H220316P@hit.ac.zw"/>
-    <hyperlink ref="B87" r:id="rId73" location="" tooltip="" display="H220550G@hit.ac.zw"/>
-    <hyperlink ref="B88" r:id="rId74" location="" tooltip="" display="H220004A@hit.ac.zw"/>
-    <hyperlink ref="B89" r:id="rId75" location="" tooltip="" display="H220133W@hit.ac.zw"/>
-    <hyperlink ref="B90" r:id="rId76" location="" tooltip="" display="H220313E@hit.ac.zw"/>
-    <hyperlink ref="B91" r:id="rId77" location="" tooltip="" display="H220427Q@hit.ac.zw"/>
-    <hyperlink ref="B92" r:id="rId78" location="" tooltip="" display="H220070V@hit.ac.zw"/>
-    <hyperlink ref="B93" r:id="rId79" location="" tooltip="" display="H220325F@hit.ac.zw"/>
-    <hyperlink ref="B94" r:id="rId80" location="" tooltip="" display="H220260C@hit.ac.zw"/>
-    <hyperlink ref="B95" r:id="rId81" location="" tooltip="" display="H220478P@hit.ac.zw"/>
-    <hyperlink ref="B96" r:id="rId82" location="" tooltip="" display="h180617h@hit.ac.zw"/>
-    <hyperlink ref="B97" r:id="rId83" location="" tooltip="" display="H220624V@hit.ac.zw"/>
-    <hyperlink ref="B98" r:id="rId84" location="" tooltip="" display="H220231W@hit.ac.zw"/>
-    <hyperlink ref="B99" r:id="rId85" location="" tooltip="" display="H220503P@hit.ac.zw"/>
-    <hyperlink ref="B100" r:id="rId86" location="" tooltip="" display="H220130J@hit.ac.zw"/>
-    <hyperlink ref="B101" r:id="rId87" location="" tooltip="" display="H220086F@hit.ac.zw"/>
-    <hyperlink ref="B103" r:id="rId88" location="" tooltip="" display="H220010Q@hit.ac.zw"/>
-    <hyperlink ref="B104" r:id="rId89" location="" tooltip="" display="h180134p@hit.ac.zw"/>
-    <hyperlink ref="B105" r:id="rId90" location="" tooltip="" display="H220564G@hit.ac.zw"/>
-    <hyperlink ref="B106" r:id="rId91" location="" tooltip="" display="H220462G@hit.ac.zw"/>
-    <hyperlink ref="B107" r:id="rId92" location="" tooltip="" display="H220204H@hit.ac.zw"/>
-    <hyperlink ref="B108" r:id="rId93" location="" tooltip="" display="H220516A@hit.ac.zw"/>
-    <hyperlink ref="B109" r:id="rId94" location="" tooltip="" display="H220183B@hit.ac.zw"/>
-    <hyperlink ref="B110" r:id="rId95" location="" tooltip="" display="H220449Q@hit.ac.zw"/>
-    <hyperlink ref="B112" r:id="rId96" location="" tooltip="" display="H220273W@hit.ac.zw"/>
-    <hyperlink ref="B113" r:id="rId97" location="" tooltip="" display="H220087E@hit.ac.zw"/>
-    <hyperlink ref="B114" r:id="rId98" location="" tooltip="" display="H220033G@hit.ac.zw"/>
-    <hyperlink ref="B115" r:id="rId99" location="" tooltip="" display="H220269E@hit.ac.zw"/>
-    <hyperlink ref="B116" r:id="rId100" location="" tooltip="" display="H220595W@hit.ac.zw"/>
-    <hyperlink ref="B117" r:id="rId101" location="" tooltip="" display="H220591F@hit.ac.zw"/>
-    <hyperlink ref="B118" r:id="rId102" location="" tooltip="" display="H220221G@hit.ac.zw"/>
-    <hyperlink ref="B120" r:id="rId103" location="" tooltip="" display="H220242Z@hit.ac.zw"/>
-    <hyperlink ref="B121" r:id="rId104" location="" tooltip="" display="H220348B@hit.ac.zw"/>
-    <hyperlink ref="B122" r:id="rId105" location="" tooltip="" display="H220418Y@hit.ac.zw"/>
-    <hyperlink ref="B123" r:id="rId106" location="" tooltip="" display="H220450T@hit.ac.zw"/>
-    <hyperlink ref="B124" r:id="rId107" location="" tooltip="" display="H220333Q@hit.ac.zw"/>
-    <hyperlink ref="B125" r:id="rId108" location="" tooltip="" display="H220320J@hit.ac.zw"/>
-    <hyperlink ref="B126" r:id="rId109" location="" tooltip="" display="H220311Y@hit.ac.zw"/>
-    <hyperlink ref="B127" r:id="rId110" location="" tooltip="" display="H220138M@hit.ac.zw"/>
-    <hyperlink ref="B128" r:id="rId111" location="" tooltip="" display="h210574b@hit.ac.zw"/>
-    <hyperlink ref="B131" r:id="rId112" location="" tooltip="" display="H220197V@hit.ac.zw"/>
-    <hyperlink ref="B132" r:id="rId113" location="" tooltip="" display="H220247A@hit.ac.zw"/>
-    <hyperlink ref="B133" r:id="rId114" location="" tooltip="" display="H220432X@hit.ac.zw"/>
-    <hyperlink ref="B134" r:id="rId115" location="" tooltip="" display="H220223N@hit.ac.zw"/>
-    <hyperlink ref="B136" r:id="rId116" location="" tooltip="" display="H220272P@hit.ac.zw"/>
-    <hyperlink ref="B137" r:id="rId117" location="" tooltip="" display="H220615W@hit.ac.zw"/>
-    <hyperlink ref="B138" r:id="rId118" location="" tooltip="" display="H220196A@hit.ac.zw"/>
-    <hyperlink ref="B139" r:id="rId119" location="" tooltip="" display="h220535v@hit.ac.zw"/>
-    <hyperlink ref="B140" r:id="rId120" location="" tooltip="" display="h220688a@hit.ac.zw"/>
-    <hyperlink ref="B141" r:id="rId121" location="" tooltip="" display="H220026H@hit.ac.zw"/>
-    <hyperlink ref="B142" r:id="rId122" location="" tooltip="" display="H220533P@hit.ac.zw"/>
-    <hyperlink ref="B143" r:id="rId123" location="" tooltip="" display="H220435X@hit.ac.zw"/>
-    <hyperlink ref="B144" r:id="rId124" location="" tooltip="" display="H220225C@hit.ac.zw"/>
-    <hyperlink ref="B145" r:id="rId125" location="" tooltip="" display="H220198F@hit.ac.zw"/>
-    <hyperlink ref="B146" r:id="rId126" location="" tooltip="" display="H220290G@hit.ac.zw"/>
-    <hyperlink ref="B147" r:id="rId127" location="" tooltip="" display="H220147B@hit.ac.zw"/>
-    <hyperlink ref="B148" r:id="rId128" location="" tooltip="" display="H220076E@hit.ac.zw"/>
-    <hyperlink ref="B149" r:id="rId129" location="" tooltip="" display="H220129A@hit.ac.zw"/>
-    <hyperlink ref="B150" r:id="rId130" location="" tooltip="" display="H220243A@hit.ac.zw"/>
-    <hyperlink ref="B151" r:id="rId131" location="" tooltip="" display="H220554M@hit.ac.zw"/>
-    <hyperlink ref="B152" r:id="rId132" location="" tooltip="" display="H220415J@hit.ac.zw"/>
-    <hyperlink ref="B153" r:id="rId133" location="" tooltip="" display="H220439A@hit.ac.zw"/>
-    <hyperlink ref="B154" r:id="rId134" location="" tooltip="" display="H220390X@hit.ac.zw"/>
-    <hyperlink ref="B155" r:id="rId135" location="" tooltip="" display="H220536M@hit.ac.zw"/>
-    <hyperlink ref="B156" r:id="rId136" location="" tooltip="" display="H220189E@hit.ac.zw"/>
-    <hyperlink ref="B157" r:id="rId137" location="" tooltip="" display="H220146J@hit.ac.zw"/>
-    <hyperlink ref="B158" r:id="rId138" location="" tooltip="" display="H220179T@hit.ac.zw"/>
-    <hyperlink ref="B159" r:id="rId139" location="" tooltip="" display="H220057B@hit.ac.zw"/>
-    <hyperlink ref="B160" r:id="rId140" location="" tooltip="" display="H220586J@hit.ac.zw"/>
-    <hyperlink ref="B162" r:id="rId141" location="" tooltip="" display="H220417Y@hit.ac.zw"/>
-    <hyperlink ref="B163" r:id="rId142" location="" tooltip="" display="H220553G@hit.ac.zw"/>
-    <hyperlink ref="B164" r:id="rId143" location="" tooltip="" display="H220250Q@hit.ac.zw"/>
-    <hyperlink ref="B165" r:id="rId144" location="" tooltip="" display="H220652T@hit.ac.zw"/>
-    <hyperlink ref="B167" r:id="rId145" location="" tooltip="" display="H220426Q@hit.ac.zw"/>
-    <hyperlink ref="B168" r:id="rId146" location="" tooltip="" display="H220072Y@hit.ac.zw"/>
-    <hyperlink ref="B169" r:id="rId147" location="" tooltip="" display="H220028G@hit.ac.zw"/>
-    <hyperlink ref="B170" r:id="rId148" location="" tooltip="" display="H220081X@hit.ac.zw"/>
-    <hyperlink ref="B171" r:id="rId149" location="" tooltip="" display="h210371h@hit.ac.zw"/>
-    <hyperlink ref="B172" r:id="rId150" location="" tooltip="" display="H220105E@hit.ac.zw"/>
-    <hyperlink ref="B174" r:id="rId151" location="" tooltip="" display="H220215E@hit.ac.zw"/>
-    <hyperlink ref="B175" r:id="rId152" location="" tooltip="" display="H220537B@hit.ac.zw"/>
-    <hyperlink ref="B176" r:id="rId153" location="" tooltip="" display="H220411Q@hit.ac.zw"/>
+    <hyperlink ref="B62" r:id="rId51" location="" tooltip="" display="H220413B@hit.ac.zw"/>
+    <hyperlink ref="B63" r:id="rId52" location="" tooltip="" display="H220042V@hit.ac.zw"/>
+    <hyperlink ref="B64" r:id="rId53" location="" tooltip="" display="H220153W@hit.ac.zw"/>
+    <hyperlink ref="B65" r:id="rId54" location="" tooltip="" display="H220094W@hit.ac.zw"/>
+    <hyperlink ref="B66" r:id="rId55" location="" tooltip="" display="H220230R@hit.ac.zw"/>
+    <hyperlink ref="B67" r:id="rId56" location="" tooltip="" display="H220122N@hit.ac.zw"/>
+    <hyperlink ref="B68" r:id="rId57" location="" tooltip="" display="H220152Q@hit.ac.zw"/>
+    <hyperlink ref="B70" r:id="rId58" location="" tooltip="" display="H220585W@hit.ac.zw"/>
+    <hyperlink ref="B71" r:id="rId59" location="" tooltip="" display="H220047M@hit.ac.zw"/>
+    <hyperlink ref="B72" r:id="rId60" location="" tooltip="" display="H220483J@hit.ac.zw"/>
+    <hyperlink ref="B73" r:id="rId61" location="" tooltip="" display="H220015F@hit.ac.zw"/>
+    <hyperlink ref="B74" r:id="rId62" location="" tooltip="" display="H220184Z@hit.ac.zw"/>
+    <hyperlink ref="B75" r:id="rId63" location="" tooltip="" display="H220392X@hit.ac.zw"/>
+    <hyperlink ref="B77" r:id="rId64" location="" tooltip="" display="H220187N@hit.ac.zw"/>
+    <hyperlink ref="B78" r:id="rId65" location="" tooltip="" display="H220421Y@hit.ac.zw"/>
+    <hyperlink ref="B80" r:id="rId66" location="" tooltip="" display="h200799c@hit.ac.zw"/>
+    <hyperlink ref="B82" r:id="rId67" location="" tooltip="" display="H220211V@hit.ac.zw"/>
+    <hyperlink ref="B83" r:id="rId68" location="" tooltip="" display="H220623Z@hit.ac.zw"/>
+    <hyperlink ref="B84" r:id="rId69" location="" tooltip="" display="H220315H@hit.ac.zw"/>
+    <hyperlink ref="B85" r:id="rId70" location="" tooltip="" display="H220063V@hit.ac.zw"/>
+    <hyperlink ref="B86" r:id="rId71" location="" tooltip="" display="H220019B@hit.ac.zw"/>
+    <hyperlink ref="B87" r:id="rId72" location="" tooltip="" display="H220316P@hit.ac.zw"/>
+    <hyperlink ref="B88" r:id="rId73" location="" tooltip="" display="H220550G@hit.ac.zw"/>
+    <hyperlink ref="B89" r:id="rId74" location="" tooltip="" display="H220004A@hit.ac.zw"/>
+    <hyperlink ref="B90" r:id="rId75" location="" tooltip="" display="H220133W@hit.ac.zw"/>
+    <hyperlink ref="B91" r:id="rId76" location="" tooltip="" display="H220313E@hit.ac.zw"/>
+    <hyperlink ref="B92" r:id="rId77" location="" tooltip="" display="H220427Q@hit.ac.zw"/>
+    <hyperlink ref="B93" r:id="rId78" location="" tooltip="" display="H220070V@hit.ac.zw"/>
+    <hyperlink ref="B94" r:id="rId79" location="" tooltip="" display="H220325F@hit.ac.zw"/>
+    <hyperlink ref="B95" r:id="rId80" location="" tooltip="" display="H220260C@hit.ac.zw"/>
+    <hyperlink ref="B96" r:id="rId81" location="" tooltip="" display="H220478P@hit.ac.zw"/>
+    <hyperlink ref="B97" r:id="rId82" location="" tooltip="" display="h180617h@hit.ac.zw"/>
+    <hyperlink ref="B98" r:id="rId83" location="" tooltip="" display="H220624V@hit.ac.zw"/>
+    <hyperlink ref="B99" r:id="rId84" location="" tooltip="" display="H220231W@hit.ac.zw"/>
+    <hyperlink ref="B100" r:id="rId85" location="" tooltip="" display="H220503P@hit.ac.zw"/>
+    <hyperlink ref="B101" r:id="rId86" location="" tooltip="" display="H220130J@hit.ac.zw"/>
+    <hyperlink ref="B102" r:id="rId87" location="" tooltip="" display="H220086F@hit.ac.zw"/>
+    <hyperlink ref="B104" r:id="rId88" location="" tooltip="" display="H220010Q@hit.ac.zw"/>
+    <hyperlink ref="B105" r:id="rId89" location="" tooltip="" display="h180134p@hit.ac.zw"/>
+    <hyperlink ref="B106" r:id="rId90" location="" tooltip="" display="H220564G@hit.ac.zw"/>
+    <hyperlink ref="B107" r:id="rId91" location="" tooltip="" display="H220462G@hit.ac.zw"/>
+    <hyperlink ref="B108" r:id="rId92" location="" tooltip="" display="H220204H@hit.ac.zw"/>
+    <hyperlink ref="B109" r:id="rId93" location="" tooltip="" display="H220516A@hit.ac.zw"/>
+    <hyperlink ref="B110" r:id="rId94" location="" tooltip="" display="H220183B@hit.ac.zw"/>
+    <hyperlink ref="B111" r:id="rId95" location="" tooltip="" display="H220449Q@hit.ac.zw"/>
+    <hyperlink ref="B113" r:id="rId96" location="" tooltip="" display="H220273W@hit.ac.zw"/>
+    <hyperlink ref="B114" r:id="rId97" location="" tooltip="" display="H220087E@hit.ac.zw"/>
+    <hyperlink ref="B115" r:id="rId98" location="" tooltip="" display="H220033G@hit.ac.zw"/>
+    <hyperlink ref="B116" r:id="rId99" location="" tooltip="" display="H220269E@hit.ac.zw"/>
+    <hyperlink ref="B117" r:id="rId100" location="" tooltip="" display="H220595W@hit.ac.zw"/>
+    <hyperlink ref="B118" r:id="rId101" location="" tooltip="" display="H220591F@hit.ac.zw"/>
+    <hyperlink ref="B119" r:id="rId102" location="" tooltip="" display="H220221G@hit.ac.zw"/>
+    <hyperlink ref="B121" r:id="rId103" location="" tooltip="" display="H220242Z@hit.ac.zw"/>
+    <hyperlink ref="B122" r:id="rId104" location="" tooltip="" display="H220348B@hit.ac.zw"/>
+    <hyperlink ref="B123" r:id="rId105" location="" tooltip="" display="H220418Y@hit.ac.zw"/>
+    <hyperlink ref="B124" r:id="rId106" location="" tooltip="" display="H220450T@hit.ac.zw"/>
+    <hyperlink ref="B125" r:id="rId107" location="" tooltip="" display="H220333Q@hit.ac.zw"/>
+    <hyperlink ref="B126" r:id="rId108" location="" tooltip="" display="H220320J@hit.ac.zw"/>
+    <hyperlink ref="B127" r:id="rId109" location="" tooltip="" display="H220311Y@hit.ac.zw"/>
+    <hyperlink ref="B128" r:id="rId110" location="" tooltip="" display="H220138M@hit.ac.zw"/>
+    <hyperlink ref="B129" r:id="rId111" location="" tooltip="" display="h210574b@hit.ac.zw"/>
+    <hyperlink ref="B132" r:id="rId112" location="" tooltip="" display="H220197V@hit.ac.zw"/>
+    <hyperlink ref="B133" r:id="rId113" location="" tooltip="" display="H220247A@hit.ac.zw"/>
+    <hyperlink ref="B134" r:id="rId114" location="" tooltip="" display="H220432X@hit.ac.zw"/>
+    <hyperlink ref="B135" r:id="rId115" location="" tooltip="" display="H220223N@hit.ac.zw"/>
+    <hyperlink ref="B137" r:id="rId116" location="" tooltip="" display="H220272P@hit.ac.zw"/>
+    <hyperlink ref="B138" r:id="rId117" location="" tooltip="" display="H220615W@hit.ac.zw"/>
+    <hyperlink ref="B139" r:id="rId118" location="" tooltip="" display="H220196A@hit.ac.zw"/>
+    <hyperlink ref="B140" r:id="rId119" location="" tooltip="" display="h220535v@hit.ac.zw"/>
+    <hyperlink ref="B141" r:id="rId120" location="" tooltip="" display="h220688a@hit.ac.zw"/>
+    <hyperlink ref="B142" r:id="rId121" location="" tooltip="" display="H220026H@hit.ac.zw"/>
+    <hyperlink ref="B143" r:id="rId122" location="" tooltip="" display="H220533P@hit.ac.zw"/>
+    <hyperlink ref="B144" r:id="rId123" location="" tooltip="" display="H220435X@hit.ac.zw"/>
+    <hyperlink ref="B145" r:id="rId124" location="" tooltip="" display="H220225C@hit.ac.zw"/>
+    <hyperlink ref="B146" r:id="rId125" location="" tooltip="" display="H220198F@hit.ac.zw"/>
+    <hyperlink ref="B147" r:id="rId126" location="" tooltip="" display="H220290G@hit.ac.zw"/>
+    <hyperlink ref="B148" r:id="rId127" location="" tooltip="" display="H220147B@hit.ac.zw"/>
+    <hyperlink ref="B149" r:id="rId128" location="" tooltip="" display="H220076E@hit.ac.zw"/>
+    <hyperlink ref="B150" r:id="rId129" location="" tooltip="" display="H220129A@hit.ac.zw"/>
+    <hyperlink ref="B151" r:id="rId130" location="" tooltip="" display="H220243A@hit.ac.zw"/>
+    <hyperlink ref="B152" r:id="rId131" location="" tooltip="" display="H220554M@hit.ac.zw"/>
+    <hyperlink ref="B153" r:id="rId132" location="" tooltip="" display="H220415J@hit.ac.zw"/>
+    <hyperlink ref="B154" r:id="rId133" location="" tooltip="" display="H220439A@hit.ac.zw"/>
+    <hyperlink ref="B155" r:id="rId134" location="" tooltip="" display="H220390X@hit.ac.zw"/>
+    <hyperlink ref="B156" r:id="rId135" location="" tooltip="" display="H220536M@hit.ac.zw"/>
+    <hyperlink ref="B157" r:id="rId136" location="" tooltip="" display="H220189E@hit.ac.zw"/>
+    <hyperlink ref="B158" r:id="rId137" location="" tooltip="" display="H220146J@hit.ac.zw"/>
+    <hyperlink ref="B159" r:id="rId138" location="" tooltip="" display="H220179T@hit.ac.zw"/>
+    <hyperlink ref="B160" r:id="rId139" location="" tooltip="" display="H220057B@hit.ac.zw"/>
+    <hyperlink ref="B161" r:id="rId140" location="" tooltip="" display="H220586J@hit.ac.zw"/>
+    <hyperlink ref="B163" r:id="rId141" location="" tooltip="" display="H220417Y@hit.ac.zw"/>
+    <hyperlink ref="B164" r:id="rId142" location="" tooltip="" display="H220553G@hit.ac.zw"/>
+    <hyperlink ref="B165" r:id="rId143" location="" tooltip="" display="H220250Q@hit.ac.zw"/>
+    <hyperlink ref="B166" r:id="rId144" location="" tooltip="" display="H220652T@hit.ac.zw"/>
+    <hyperlink ref="B168" r:id="rId145" location="" tooltip="" display="H220426Q@hit.ac.zw"/>
+    <hyperlink ref="B169" r:id="rId146" location="" tooltip="" display="H220072Y@hit.ac.zw"/>
+    <hyperlink ref="B170" r:id="rId147" location="" tooltip="" display="H220028G@hit.ac.zw"/>
+    <hyperlink ref="B171" r:id="rId148" location="" tooltip="" display="H220081X@hit.ac.zw"/>
+    <hyperlink ref="B172" r:id="rId149" location="" tooltip="" display="h210371h@hit.ac.zw"/>
+    <hyperlink ref="B173" r:id="rId150" location="" tooltip="" display="H220105E@hit.ac.zw"/>
+    <hyperlink ref="B175" r:id="rId151" location="" tooltip="" display="H220215E@hit.ac.zw"/>
+    <hyperlink ref="B176" r:id="rId152" location="" tooltip="" display="H220537B@hit.ac.zw"/>
+    <hyperlink ref="B177" r:id="rId153" location="" tooltip="" display="H220411Q@hit.ac.zw"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
